--- a/QuantLibXL/Data2/XLS/USD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCSTDBootstrapping.xlsx
@@ -1060,7 +1060,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1118,6 +1118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1589,7 +1595,7 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -2099,6 +2105,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2801,7 +2810,7 @@
         <v>96</v>
       </c>
       <c r="D11" s="83">
-        <v>41655.504004629627</v>
+        <v>41655.505347222221</v>
       </c>
       <c r="E11" s="60"/>
       <c r="F11" s="59"/>
@@ -2917,7 +2926,7 @@
       </c>
       <c r="D14" s="80" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYCSTD#0000</v>
+        <v>_USDYCSTD#0004</v>
       </c>
       <c r="E14" s="60"/>
       <c r="F14" s="59"/>
@@ -3287,9 +3296,9 @@
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
         <v>41655</v>
       </c>
-      <c r="D23" s="66" t="e">
+      <c r="D23" s="66">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
-        <v>#NUM!</v>
+        <v>3.7621420499449887E-2</v>
       </c>
       <c r="E23" s="60"/>
       <c r="F23" s="59"/>
@@ -3332,9 +3341,9 @@
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
         <v>59922</v>
       </c>
-      <c r="D24" s="64" t="e">
+      <c r="D24" s="64">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>#NUM!</v>
+        <v>1.4860692167494509E-3</v>
       </c>
       <c r="E24" s="60"/>
       <c r="F24" s="59"/>
@@ -3377,8 +3386,8 @@
         <v>76</v>
       </c>
       <c r="D25" s="61" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(Selected!I1)</f>
-        <v>qlPiecewiseYieldCurveData - 9th instrument (maturity: December 17th, 2014) has an invalid quote</v>
+        <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
+        <v/>
       </c>
       <c r="E25" s="60"/>
       <c r="F25" s="59"/>
@@ -5004,7 +5013,7 @@
   <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -5184,9 +5193,9 @@
         <f t="shared" si="0"/>
         <v>USD_YCSTDRH_SWD</v>
       </c>
-      <c r="F5" s="14" t="e">
+      <c r="F5" s="14">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.389E-3</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="b">
@@ -5301,9 +5310,9 @@
         <f t="shared" si="0"/>
         <v>USD_YCSTDRH_1MD</v>
       </c>
-      <c r="F8" s="14" t="e">
+      <c r="F8" s="14">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.702E-3</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="13" t="b">
@@ -5334,9 +5343,9 @@
         <f t="shared" si="0"/>
         <v>USD_YCSTDRH_2MD</v>
       </c>
-      <c r="F9" s="14" t="e">
+      <c r="F9" s="14">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.0975E-3</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="13" t="b">
@@ -5367,9 +5376,9 @@
         <f t="shared" si="0"/>
         <v>USD_YCSTDRH_3MD</v>
       </c>
-      <c r="F10" s="14" t="e">
+      <c r="F10" s="14">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.3835000000000002E-3</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="13" t="b">
@@ -5466,9 +5475,9 @@
         <f t="shared" si="0"/>
         <v>USD_YCSTDRH_6MD</v>
       </c>
-      <c r="F13" s="14" t="e">
+      <c r="F13" s="14">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.5570000000000003E-3</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="13" t="b">
@@ -5664,9 +5673,9 @@
         <f t="shared" si="0"/>
         <v>USD_YCSTDRH_1YD</v>
       </c>
-      <c r="F19" s="7" t="e">
+      <c r="F19" s="7">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>#NUM!</v>
+        <v>6.0860000000000003E-3</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6" t="b">
@@ -6690,8 +6699,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H45" s="13" t="b">
-        <v>1</v>
+      <c r="H45" s="227" t="b">
+        <v>0</v>
       </c>
       <c r="I45" s="13">
         <v>60</v>
@@ -6774,8 +6783,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H47" s="13" t="b">
-        <v>1</v>
+      <c r="H47" s="227" t="b">
+        <v>0</v>
       </c>
       <c r="I47" s="13">
         <v>60</v>
@@ -6816,8 +6825,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H48" s="13" t="b">
-        <v>1</v>
+      <c r="H48" s="227" t="b">
+        <v>0</v>
       </c>
       <c r="I48" s="13">
         <v>60</v>
@@ -12133,9 +12142,9 @@
       <c r="H1" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="34" t="e">
+      <c r="I1" s="34">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>#NUM!</v>
+        <v>1.6222186172686938E-3</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -12165,8 +12174,8 @@
         <f>_xll.qlRateHelperLatestDate($D2)</f>
         <v>41656</v>
       </c>
-      <c r="I2" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I2" s="34">
+        <v>1.6222186172686938E-3</v>
       </c>
       <c r="J2" s="42"/>
       <c r="L2" s="1" t="s">
@@ -12202,8 +12211,8 @@
         <f>_xll.qlRateHelperLatestDate($D3)</f>
         <v>41659</v>
       </c>
-      <c r="I3" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I3" s="34">
+        <v>1.6222132099547131E-3</v>
       </c>
       <c r="J3" s="42"/>
       <c r="L3" s="1" t="s">
@@ -12239,12 +12248,12 @@
         <f>_xll.qlRateHelperLatestDate($D4)</f>
         <v>41660</v>
       </c>
-      <c r="I4" s="34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J4" s="42" t="e">
+      <c r="I4" s="34">
+        <v>1.6222142914292157E-3</v>
+      </c>
+      <c r="J4" s="42">
         <f t="shared" ref="J4:J13" si="0">I4/$I$3</f>
-        <v>#NUM!</v>
+        <v>1.0000006666660683</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>115</v>
@@ -12263,9 +12272,9 @@
       <c r="D5" s="41" t="str">
         <v>USD_YCSTDRH_SWD</v>
       </c>
-      <c r="E5" s="40" t="e">
+      <c r="E5" s="40">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>#NUM!</v>
+        <v>1.389E-3</v>
       </c>
       <c r="F5" s="40">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -12279,12 +12288,12 @@
         <f>_xll.qlRateHelperLatestDate($D5)</f>
         <v>41666</v>
       </c>
-      <c r="I5" s="34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J5" s="42" t="e">
+      <c r="I5" s="34">
+        <v>1.4860692167494509E-3</v>
+      </c>
+      <c r="J5" s="42">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>0.91607515438179488</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>116</v>
@@ -12304,9 +12313,9 @@
       <c r="D6" s="41" t="str">
         <v>USD_YCSTDRH_1MD</v>
       </c>
-      <c r="E6" s="40" t="e">
+      <c r="E6" s="40">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>#NUM!</v>
+        <v>1.702E-3</v>
       </c>
       <c r="F6" s="40">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -12320,12 +12329,12 @@
         <f>_xll.qlRateHelperLatestDate($D6)</f>
         <v>41690</v>
       </c>
-      <c r="I6" s="34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J6" s="42" t="e">
+      <c r="I6" s="34">
+        <v>1.7137068185498574E-3</v>
+      </c>
+      <c r="J6" s="42">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>1.0564004830152374</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>117</v>
@@ -12337,7 +12346,7 @@
     <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_RateHelpersSelected#0000</v>
+        <v>USD_YCSTDRH_RateHelpersSelected#0004</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -12346,9 +12355,9 @@
       <c r="D7" s="41" t="str">
         <v>USD_YCSTDRH_2MD</v>
       </c>
-      <c r="E7" s="40" t="e">
+      <c r="E7" s="40">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>#NUM!</v>
+        <v>2.0975E-3</v>
       </c>
       <c r="F7" s="40">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -12362,12 +12371,12 @@
         <f>_xll.qlRateHelperLatestDate($D7)</f>
         <v>41718</v>
       </c>
-      <c r="I7" s="34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J7" s="42" t="e">
+      <c r="I7" s="34">
+        <v>2.0942631220690591E-3</v>
+      </c>
+      <c r="J7" s="42">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>1.2909912884555566</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>118</v>
@@ -12380,9 +12389,9 @@
       <c r="D8" s="41" t="str">
         <v>USD_YCSTDRH_3MD</v>
       </c>
-      <c r="E8" s="40" t="e">
+      <c r="E8" s="40">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>#NUM!</v>
+        <v>2.3835000000000002E-3</v>
       </c>
       <c r="F8" s="40">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -12396,12 +12405,12 @@
         <f>_xll.qlRateHelperLatestDate($D8)</f>
         <v>41751</v>
       </c>
-      <c r="I8" s="34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J8" s="42" t="e">
+      <c r="I8" s="34">
+        <v>2.3827994993601094E-3</v>
+      </c>
+      <c r="J8" s="42">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>1.468857166701675</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>119</v>
@@ -12414,9 +12423,9 @@
       <c r="D9" s="41" t="str">
         <v>USD_YCSTDRH_6MD</v>
       </c>
-      <c r="E9" s="40" t="e">
+      <c r="E9" s="40">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>#NUM!</v>
+        <v>3.5570000000000003E-3</v>
       </c>
       <c r="F9" s="40">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -12430,12 +12439,12 @@
         <f>_xll.qlRateHelperLatestDate($D9)</f>
         <v>41841</v>
       </c>
-      <c r="I9" s="34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J9" s="42" t="e">
+      <c r="I9" s="34">
+        <v>3.5605629399715674E-3</v>
+      </c>
+      <c r="J9" s="42">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>2.1948797594065743</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>120</v>
@@ -12446,11 +12455,11 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D10" s="41" t="str">
-        <v>USD_YCSTDRH_FUT3MU4</v>
-      </c>
-      <c r="E10" s="40" t="e">
+        <v>USD_YCSTDRH_1YD</v>
+      </c>
+      <c r="E10" s="40">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>#NUM!</v>
+        <v>6.0860000000000003E-3</v>
       </c>
       <c r="F10" s="40">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -12458,18 +12467,18 @@
       </c>
       <c r="G10" s="12">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41899</v>
+        <v>41659</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41990</v>
-      </c>
-      <c r="I10" s="34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J10" s="42" t="e">
+        <v>42024</v>
+      </c>
+      <c r="I10" s="34">
+        <v>6.1024693284627857E-3</v>
+      </c>
+      <c r="J10" s="42">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>3.7618170601835668</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>121</v>
@@ -12480,11 +12489,11 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D11" s="41" t="str">
-        <v>USD_YCSTDRH_1YD</v>
-      </c>
-      <c r="E11" s="40" t="e">
+        <v>USD_YCSTDRH_FUT3MH5</v>
+      </c>
+      <c r="E11" s="40">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>#NUM!</v>
+        <v>5.6249999999999911E-3</v>
       </c>
       <c r="F11" s="40">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -12492,18 +12501,18 @@
       </c>
       <c r="G11" s="12">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41659</v>
+        <v>42081</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42024</v>
-      </c>
-      <c r="I11" s="34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J11" s="42" t="e">
+        <v>42173</v>
+      </c>
+      <c r="I11" s="34">
+        <v>5.9979258688212063E-3</v>
+      </c>
+      <c r="J11" s="42">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>3.6973721037499434</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>122</v>
@@ -12514,11 +12523,11 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D12" s="41" t="str">
-        <v>USD_YCSTDRH_FUT3MZ4</v>
-      </c>
-      <c r="E12" s="40" t="e">
+        <v>USD_YCSTDRH_FUT3MM5</v>
+      </c>
+      <c r="E12" s="40">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>#NUM!</v>
+        <v>7.2750000000000314E-3</v>
       </c>
       <c r="F12" s="40">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -12526,18 +12535,18 @@
       </c>
       <c r="G12" s="12">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41990</v>
+        <v>42172</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42080</v>
-      </c>
-      <c r="I12" s="34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J12" s="42" t="e">
+        <v>42264</v>
+      </c>
+      <c r="I12" s="34">
+        <v>6.205675240821387E-3</v>
+      </c>
+      <c r="J12" s="42">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>3.8254374965881515</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>123</v>
@@ -12548,11 +12557,11 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D13" s="41" t="str">
-        <v>USD_YCSTDRH_FUT3MH5</v>
+        <v>USD_YCSTDRH_FUT3MU5</v>
       </c>
       <c r="E13" s="40">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>5.6249999999999911E-3</v>
+        <v>9.3250000000000277E-3</v>
       </c>
       <c r="F13" s="40">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -12560,18 +12569,18 @@
       </c>
       <c r="G13" s="12">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42081</v>
+        <v>42263</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42173</v>
-      </c>
-      <c r="I13" s="34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J13" s="42" t="e">
+        <v>42354</v>
+      </c>
+      <c r="I13" s="34">
+        <v>6.6251943637923201E-3</v>
+      </c>
+      <c r="J13" s="42">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>4.0840466118367225</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>124</v>
@@ -12582,11 +12591,11 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D14" s="41" t="str">
-        <v>USD_YCSTDRH_FUT3MM5</v>
+        <v>USD_YCSTDRH_FUT3MZ5</v>
       </c>
       <c r="E14" s="40">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>7.2750000000000314E-3</v>
+        <v>1.177499999999998E-2</v>
       </c>
       <c r="F14" s="40">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -12594,14 +12603,14 @@
       </c>
       <c r="G14" s="12">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42172</v>
+        <v>42354</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42264</v>
-      </c>
-      <c r="I14" s="34" t="e">
-        <v>#NUM!</v>
+        <v>42445</v>
+      </c>
+      <c r="I14" s="34">
+        <v>7.2351956076774143E-3</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>125</v>
@@ -12612,11 +12621,11 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D15" s="41" t="str">
-        <v>USD_YCSTDRH_FUT3MU5</v>
+        <v>USD_YCSTDRH_FUT3MH6</v>
       </c>
       <c r="E15" s="40">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>9.3250000000000277E-3</v>
+        <v>1.462500000000011E-2</v>
       </c>
       <c r="F15" s="40">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -12624,14 +12633,14 @@
       </c>
       <c r="G15" s="12">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>42263</v>
+        <v>42445</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42354</v>
-      </c>
-      <c r="I15" s="34" t="e">
-        <v>#NUM!</v>
+        <v>42537</v>
+      </c>
+      <c r="I15" s="34">
+        <v>8.0243186383118711E-3</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>126</v>
@@ -12642,11 +12651,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="41" t="str">
-        <v>USD_YCSTDRH_FUT3MZ5</v>
+        <v>USD_YCSTDRH_FUT3MM6</v>
       </c>
       <c r="E16" s="40">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.177499999999998E-2</v>
+        <v>1.7574999999999896E-2</v>
       </c>
       <c r="F16" s="40">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -12654,14 +12663,14 @@
       </c>
       <c r="G16" s="12">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>42354</v>
+        <v>42536</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42445</v>
-      </c>
-      <c r="I16" s="34" t="e">
-        <v>#NUM!</v>
+        <v>42628</v>
+      </c>
+      <c r="I16" s="34">
+        <v>8.9389048772908451E-3</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>127</v>
@@ -12690,8 +12699,8 @@
         <f>_xll.qlRateHelperLatestDate($D17)</f>
         <v>42755</v>
       </c>
-      <c r="I17" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I17" s="34">
+        <v>6.8936739054255049E-3</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>128</v>
@@ -12720,8 +12729,8 @@
         <f>_xll.qlRateHelperLatestDate($D18)</f>
         <v>43122</v>
       </c>
-      <c r="I18" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I18" s="34">
+        <v>1.0503721169916234E-2</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>129</v>
@@ -12750,8 +12759,8 @@
         <f>_xll.qlRateHelperLatestDate($D19)</f>
         <v>43486</v>
       </c>
-      <c r="I19" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I19" s="34">
+        <v>1.4236856473054208E-2</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>130</v>
@@ -12780,8 +12789,8 @@
         <f>_xll.qlRateHelperLatestDate($D20)</f>
         <v>43850</v>
       </c>
-      <c r="I20" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I20" s="34">
+        <v>1.7686087284873676E-2</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>131</v>
@@ -12810,8 +12819,8 @@
         <f>_xll.qlRateHelperLatestDate($D21)</f>
         <v>44216</v>
       </c>
-      <c r="I21" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I21" s="34">
+        <v>2.0631892693962907E-2</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>132</v>
@@ -12840,8 +12849,8 @@
         <f>_xll.qlRateHelperLatestDate($D22)</f>
         <v>44581</v>
       </c>
-      <c r="I22" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I22" s="34">
+        <v>2.3135785111452919E-2</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>133</v>
@@ -12870,8 +12879,8 @@
         <f>_xll.qlRateHelperLatestDate($D23)</f>
         <v>44946</v>
       </c>
-      <c r="I23" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I23" s="34">
+        <v>2.5271217555665165E-2</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>134</v>
@@ -12900,8 +12909,8 @@
         <f>_xll.qlRateHelperLatestDate($D24)</f>
         <v>45313</v>
       </c>
-      <c r="I24" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I24" s="34">
+        <v>2.7091948012482617E-2</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>135</v>
@@ -12930,8 +12939,8 @@
         <f>_xll.qlRateHelperLatestDate($D25)</f>
         <v>46042</v>
       </c>
-      <c r="I25" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I25" s="34">
+        <v>3.0079911363442038E-2</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>136</v>
@@ -12960,8 +12969,8 @@
         <f>_xll.qlRateHelperLatestDate($D26)</f>
         <v>47140</v>
       </c>
-      <c r="I26" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I26" s="34">
+        <v>3.3068736966007907E-2</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>137</v>
@@ -12990,8 +12999,8 @@
         <f>_xll.qlRateHelperLatestDate($D27)</f>
         <v>48964</v>
       </c>
-      <c r="I27" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I27" s="34">
+        <v>3.5690146581469635E-2</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>138</v>
@@ -13020,8 +13029,8 @@
         <f>_xll.qlRateHelperLatestDate($D28)</f>
         <v>50790</v>
       </c>
-      <c r="I28" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I28" s="34">
+        <v>3.6978754141574803E-2</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>139</v>
@@ -13050,8 +13059,8 @@
         <f>_xll.qlRateHelperLatestDate($D29)</f>
         <v>52616</v>
       </c>
-      <c r="I29" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I29" s="34">
+        <v>3.7621420499449887E-2</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>140</v>
@@ -13080,8 +13089,8 @@
         <f>_xll.qlRateHelperLatestDate($D30)</f>
         <v>56269</v>
       </c>
-      <c r="I30" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I30" s="34">
+        <v>3.7280444076420713E-2</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>141</v>
@@ -13110,8 +13119,8 @@
         <f>_xll.qlRateHelperLatestDate($D31)</f>
         <v>59922</v>
       </c>
-      <c r="I31" s="34" t="e">
-        <v>#NUM!</v>
+      <c r="I31" s="34">
+        <v>3.6543910739400831E-2</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>142</v>
@@ -13141,7 +13150,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I32" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
@@ -13165,7 +13174,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
@@ -13189,7 +13198,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I34" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.2">
@@ -13213,7 +13222,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I35" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.2">
@@ -13237,7 +13246,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I36" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
@@ -13261,7 +13270,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I37" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
@@ -13285,7 +13294,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I38" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
@@ -13309,7 +13318,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I39" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
@@ -13333,7 +13342,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I40" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
@@ -13357,7 +13366,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I41" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
@@ -13381,7 +13390,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I42" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
@@ -13405,7 +13414,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I43" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
@@ -13429,7 +13438,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I44" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
@@ -13453,7 +13462,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I45" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.2">
@@ -13477,7 +13486,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I46" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.2">
@@ -13501,7 +13510,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I47" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.2">
@@ -13525,7 +13534,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I48" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.2">
@@ -13549,7 +13558,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I49" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.2">
@@ -13573,7 +13582,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I50" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.2">
@@ -13597,7 +13606,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I51" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.2">
@@ -13621,7 +13630,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I52" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.2">
@@ -13645,7 +13654,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I53" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.2">
@@ -13669,7 +13678,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I54" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.2">
@@ -13693,7 +13702,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I55" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.2">
@@ -13717,7 +13726,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I56" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
@@ -13741,7 +13750,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I57" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
@@ -13765,7 +13774,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I58" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
@@ -13789,7 +13798,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I59" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.2">
@@ -13813,7 +13822,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I60" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.2">
@@ -13837,7 +13846,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I61" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.2">
@@ -13861,7 +13870,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I62" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.2">
@@ -13885,7 +13894,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I63" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.2">
@@ -13909,7 +13918,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I64" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.2">
@@ -13933,7 +13942,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I65" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.2">
@@ -13957,7 +13966,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I66" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.2">
@@ -13981,7 +13990,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I67" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.2">
@@ -14005,7 +14014,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I68" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.2">
@@ -14029,7 +14038,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I69" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.2">
@@ -14053,7 +14062,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I70" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.2">
@@ -14077,7 +14086,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I71" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.2">
@@ -14101,7 +14110,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I72" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.2">
@@ -14125,7 +14134,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I73" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.2">
@@ -14149,7 +14158,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I74" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.2">
@@ -14173,7 +14182,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I75" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.2">
@@ -14197,7 +14206,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I76" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.2">
@@ -14221,7 +14230,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I77" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.2">
@@ -14245,7 +14254,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I78" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.2">
@@ -14269,7 +14278,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I79" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.2">
@@ -14293,7 +14302,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.2">
@@ -14317,7 +14326,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I81" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.2">
@@ -14341,7 +14350,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I82" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.2">
@@ -14365,7 +14374,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I83" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.2">
@@ -14389,7 +14398,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I84" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.2">
@@ -14413,7 +14422,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I85" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.2">
@@ -14437,7 +14446,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I86" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.2">
@@ -14461,7 +14470,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I87" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.2">
@@ -14485,7 +14494,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I88" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.2">
@@ -14509,7 +14518,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I89" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.2">
@@ -14533,7 +14542,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I90" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.2">
@@ -14557,7 +14566,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I91" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.2">
@@ -14581,7 +14590,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I92" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.2">
@@ -14605,7 +14614,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I93" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.2">
@@ -14629,7 +14638,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I94" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.2">
@@ -14653,7 +14662,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I95" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.2">
@@ -14677,7 +14686,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I96" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.2">
@@ -14701,7 +14710,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I97" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.2">
@@ -14725,7 +14734,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I98" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.2">
@@ -14749,7 +14758,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I99" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.2">
@@ -14773,7 +14782,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I100" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.2">
@@ -14797,7 +14806,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I101" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.2">
@@ -14821,7 +14830,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I102" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.2">
@@ -14845,7 +14854,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I103" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.2">
@@ -14869,7 +14878,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I104" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.2">
@@ -14893,7 +14902,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I105" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.2">
@@ -14917,7 +14926,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I106" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.2">
@@ -14941,7 +14950,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I107" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="4:9" x14ac:dyDescent="0.2">
@@ -14965,7 +14974,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I108" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.2">
@@ -14989,7 +14998,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I109" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.2">
@@ -15013,7 +15022,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I110" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.2">
@@ -15037,7 +15046,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I111" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.2">
@@ -15061,7 +15070,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I112" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.2">
@@ -15085,7 +15094,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I113" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="4:9" x14ac:dyDescent="0.2">
@@ -15109,7 +15118,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I114" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="4:9" x14ac:dyDescent="0.2">
@@ -15133,7 +15142,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I115" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.2">
@@ -15157,7 +15166,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I116" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.2">
@@ -15181,7 +15190,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I117" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.2">
@@ -15205,7 +15214,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I118" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.2">
@@ -15229,7 +15238,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I119" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="4:9" x14ac:dyDescent="0.2">
@@ -15253,7 +15262,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I120" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="4:9" x14ac:dyDescent="0.2">
@@ -15277,7 +15286,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I121" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="4:9" x14ac:dyDescent="0.2">
@@ -15301,7 +15310,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I122" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.2">
@@ -15325,7 +15334,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I123" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.2">
@@ -15349,7 +15358,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I124" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.2">
@@ -15373,7 +15382,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I125" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="4:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -15397,7 +15406,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I126" s="34" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -15420,7 +15429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15493,7 +15504,7 @@
       </c>
       <c r="F3" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_OND#0000</v>
+        <v>USD_YCSTDRH_OND#0001</v>
       </c>
       <c r="G3" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -15520,7 +15531,7 @@
       </c>
       <c r="F4" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_SWD#0000</v>
+        <v>USD_YCSTDRH_SWD#0001</v>
       </c>
       <c r="G4" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -15547,7 +15558,7 @@
       </c>
       <c r="F5" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_2WD#0000</v>
+        <v>USD_YCSTDRH_2WD#0001</v>
       </c>
       <c r="G5" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -15574,7 +15585,7 @@
       </c>
       <c r="F6" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_3WD#0000</v>
+        <v>USD_YCSTDRH_3WD#0001</v>
       </c>
       <c r="G6" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -15601,7 +15612,7 @@
       </c>
       <c r="F7" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_1MD#0000</v>
+        <v>USD_YCSTDRH_1MD#0001</v>
       </c>
       <c r="G7" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -15628,7 +15639,7 @@
       </c>
       <c r="F8" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_2MD#0000</v>
+        <v>USD_YCSTDRH_2MD#0001</v>
       </c>
       <c r="G8" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -15655,7 +15666,7 @@
       </c>
       <c r="F9" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_3MD#0000</v>
+        <v>USD_YCSTDRH_3MD#0001</v>
       </c>
       <c r="G9" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -15682,7 +15693,7 @@
       </c>
       <c r="F10" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_4MD#0000</v>
+        <v>USD_YCSTDRH_4MD#0001</v>
       </c>
       <c r="G10" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -15709,7 +15720,7 @@
       </c>
       <c r="F11" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_5MD#0000</v>
+        <v>USD_YCSTDRH_5MD#0001</v>
       </c>
       <c r="G11" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -15736,7 +15747,7 @@
       </c>
       <c r="F12" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_6MD#0000</v>
+        <v>USD_YCSTDRH_6MD#0001</v>
       </c>
       <c r="G12" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -15763,7 +15774,7 @@
       </c>
       <c r="F13" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E13,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_7MD#0000</v>
+        <v>USD_YCSTDRH_7MD#0001</v>
       </c>
       <c r="G13" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -15790,7 +15801,7 @@
       </c>
       <c r="F14" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E14,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_8MD#0000</v>
+        <v>USD_YCSTDRH_8MD#0001</v>
       </c>
       <c r="G14" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -15817,7 +15828,7 @@
       </c>
       <c r="F15" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E15,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_9MD#0000</v>
+        <v>USD_YCSTDRH_9MD#0001</v>
       </c>
       <c r="G15" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -15844,7 +15855,7 @@
       </c>
       <c r="F16" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E16,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_10MD#0000</v>
+        <v>USD_YCSTDRH_10MD#0001</v>
       </c>
       <c r="G16" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -15871,7 +15882,7 @@
       </c>
       <c r="F17" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E17,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_11MD#0000</v>
+        <v>USD_YCSTDRH_11MD#0001</v>
       </c>
       <c r="G17" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -15898,7 +15909,7 @@
       </c>
       <c r="F18" s="171" t="str">
         <f>_xll.qlDepositRateHelper(E18,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_1YD#0000</v>
+        <v>USD_YCSTDRH_1YD#0001</v>
       </c>
       <c r="G18" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -16011,7 +16022,7 @@
       </c>
       <c r="H3" s="109" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_TND#0000</v>
+        <v>USD_YCSTDRH_TND#0001</v>
       </c>
       <c r="I3" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -16043,7 +16054,7 @@
       </c>
       <c r="H4" s="104" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_SND#0000</v>
+        <v>USD_YCSTDRH_SND#0001</v>
       </c>
       <c r="I4" s="103" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -16181,7 +16192,7 @@
       </c>
       <c r="I3" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MG4#0000</v>
+        <v>USD_YCSTDRH_FUT3MG4#0001</v>
       </c>
       <c r="J3" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -16219,7 +16230,7 @@
       </c>
       <c r="I4" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH4#0000</v>
+        <v>USD_YCSTDRH_FUT3MH4#0001</v>
       </c>
       <c r="J4" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -16257,7 +16268,7 @@
       </c>
       <c r="I5" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MJ4#0000</v>
+        <v>USD_YCSTDRH_FUT3MJ4#0001</v>
       </c>
       <c r="J5" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -16295,7 +16306,7 @@
       </c>
       <c r="I6" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MK4#0000</v>
+        <v>USD_YCSTDRH_FUT3MK4#0001</v>
       </c>
       <c r="J6" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -16333,7 +16344,7 @@
       </c>
       <c r="I7" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM4#0000</v>
+        <v>USD_YCSTDRH_FUT3MM4#0001</v>
       </c>
       <c r="J7" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -16371,7 +16382,7 @@
       </c>
       <c r="I8" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MN4#0000</v>
+        <v>USD_YCSTDRH_FUT3MN4#0001</v>
       </c>
       <c r="J8" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -16409,7 +16420,7 @@
       </c>
       <c r="I9" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MQ4#0000</v>
+        <v>USD_YCSTDRH_FUT3MQ4#0001</v>
       </c>
       <c r="J9" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -16447,7 +16458,7 @@
       </c>
       <c r="I10" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU4#0000</v>
+        <v>USD_YCSTDRH_FUT3MU4#0001</v>
       </c>
       <c r="J10" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -16485,7 +16496,7 @@
       </c>
       <c r="I11" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MV4#0000</v>
+        <v>USD_YCSTDRH_FUT3MV4#0001</v>
       </c>
       <c r="J11" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -16523,7 +16534,7 @@
       </c>
       <c r="I12" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MX4#0000</v>
+        <v>USD_YCSTDRH_FUT3MX4#0001</v>
       </c>
       <c r="J12" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -16561,7 +16572,7 @@
       </c>
       <c r="I13" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ4#0000</v>
+        <v>USD_YCSTDRH_FUT3MZ4#0001</v>
       </c>
       <c r="J13" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -16599,7 +16610,7 @@
       </c>
       <c r="I14" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MF5#0000</v>
+        <v>USD_YCSTDRH_FUT3MF5#0001</v>
       </c>
       <c r="J14" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -16675,7 +16686,7 @@
       </c>
       <c r="I16" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH5#0000</v>
+        <v>USD_YCSTDRH_FUT3MH5#0001</v>
       </c>
       <c r="J16" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -16789,7 +16800,7 @@
       </c>
       <c r="I19" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM5#0000</v>
+        <v>USD_YCSTDRH_FUT3MM5#0001</v>
       </c>
       <c r="J19" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -16903,7 +16914,7 @@
       </c>
       <c r="I22" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU5#0000</v>
+        <v>USD_YCSTDRH_FUT3MU5#0001</v>
       </c>
       <c r="J22" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -17017,7 +17028,7 @@
       </c>
       <c r="I25" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ5#0000</v>
+        <v>USD_YCSTDRH_FUT3MZ5#0001</v>
       </c>
       <c r="J25" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -17131,7 +17142,7 @@
       </c>
       <c r="I28" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH6#0000</v>
+        <v>USD_YCSTDRH_FUT3MH6#0001</v>
       </c>
       <c r="J28" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -17245,7 +17256,7 @@
       </c>
       <c r="I31" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM6#0000</v>
+        <v>USD_YCSTDRH_FUT3MM6#0001</v>
       </c>
       <c r="J31" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -17359,7 +17370,7 @@
       </c>
       <c r="I34" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU6#0000</v>
+        <v>USD_YCSTDRH_FUT3MU6#0001</v>
       </c>
       <c r="J34" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -17473,7 +17484,7 @@
       </c>
       <c r="I37" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ6#0000</v>
+        <v>USD_YCSTDRH_FUT3MZ6#0001</v>
       </c>
       <c r="J37" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -17587,7 +17598,7 @@
       </c>
       <c r="I40" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH7#0000</v>
+        <v>USD_YCSTDRH_FUT3MH7#0001</v>
       </c>
       <c r="J40" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -17698,7 +17709,7 @@
       </c>
       <c r="I43" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM7#0000</v>
+        <v>USD_YCSTDRH_FUT3MM7#0001</v>
       </c>
       <c r="J43" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -17809,7 +17820,7 @@
       </c>
       <c r="I46" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H46,$F46,$D46,$E46,$G46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU7#0000</v>
+        <v>USD_YCSTDRH_FUT3MU7#0001</v>
       </c>
       <c r="J46" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -17920,7 +17931,7 @@
       </c>
       <c r="I49" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H49,$F49,$D49,$E49,$G49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ7#0000</v>
+        <v>USD_YCSTDRH_FUT3MZ7#0001</v>
       </c>
       <c r="J49" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I49)</f>
@@ -18031,7 +18042,7 @@
       </c>
       <c r="I52" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H52,$F52,$D52,$E52,$G52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH8#0000</v>
+        <v>USD_YCSTDRH_FUT3MH8#0001</v>
       </c>
       <c r="J52" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I52)</f>
@@ -18142,7 +18153,7 @@
       </c>
       <c r="I55" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H55,$F55,$D55,$E55,$G55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM8#0000</v>
+        <v>USD_YCSTDRH_FUT3MM8#0001</v>
       </c>
       <c r="J55" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I55)</f>
@@ -18253,7 +18264,7 @@
       </c>
       <c r="I58" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H58,$F58,$D58,$E58,$G58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU8#0000</v>
+        <v>USD_YCSTDRH_FUT3MU8#0001</v>
       </c>
       <c r="J58" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I58)</f>
@@ -18364,7 +18375,7 @@
       </c>
       <c r="I61" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H61,$F61,$D61,$E61,$G61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ8#0000</v>
+        <v>USD_YCSTDRH_FUT3MZ8#0001</v>
       </c>
       <c r="J61" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I61)</f>
@@ -18475,7 +18486,7 @@
       </c>
       <c r="I64" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H64,$F64,$D64,$E64,$G64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH9#0000</v>
+        <v>USD_YCSTDRH_FUT3MH9#0001</v>
       </c>
       <c r="J64" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I64)</f>
@@ -18586,7 +18597,7 @@
       </c>
       <c r="I67" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H67,$F67,$D67,$E67,$G67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM9#0000</v>
+        <v>USD_YCSTDRH_FUT3MM9#0001</v>
       </c>
       <c r="J67" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I67)</f>
@@ -18697,7 +18708,7 @@
       </c>
       <c r="I70" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H70,$F70,$D70,$E70,$G70,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU9#0000</v>
+        <v>USD_YCSTDRH_FUT3MU9#0001</v>
       </c>
       <c r="J70" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I70)</f>
@@ -18808,7 +18819,7 @@
       </c>
       <c r="I73" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H73,$F73,$D73,$E73,$G73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ9#0000</v>
+        <v>USD_YCSTDRH_FUT3MZ9#0001</v>
       </c>
       <c r="J73" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I73)</f>
@@ -18919,7 +18930,7 @@
       </c>
       <c r="I76" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H76,$F76,$D76,$E76,$G76,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH0#0000</v>
+        <v>USD_YCSTDRH_FUT3MH0#0001</v>
       </c>
       <c r="J76" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I76)</f>
@@ -19030,7 +19041,7 @@
       </c>
       <c r="I79" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H79,$F79,$D79,$E79,$G79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM0#0000</v>
+        <v>USD_YCSTDRH_FUT3MM0#0001</v>
       </c>
       <c r="J79" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I79)</f>
@@ -19141,7 +19152,7 @@
       </c>
       <c r="I82" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H82,$F82,$D82,$E82,$G82,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU0#0000</v>
+        <v>USD_YCSTDRH_FUT3MU0#0001</v>
       </c>
       <c r="J82" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I82)</f>
@@ -19252,7 +19263,7 @@
       </c>
       <c r="I85" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H85,$F85,$D85,$E85,$G85,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ0#0000</v>
+        <v>USD_YCSTDRH_FUT3MZ0#0001</v>
       </c>
       <c r="J85" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I85)</f>
@@ -19363,7 +19374,7 @@
       </c>
       <c r="I88" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H88,$F88,$D88,$E88,$G88,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH1#0000</v>
+        <v>USD_YCSTDRH_FUT3MH1#0001</v>
       </c>
       <c r="J88" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I88)</f>
@@ -19474,7 +19485,7 @@
       </c>
       <c r="I91" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H91,$F91,$D91,$E91,$G91,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM1#0000</v>
+        <v>USD_YCSTDRH_FUT3MM1#0001</v>
       </c>
       <c r="J91" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I91)</f>
@@ -19585,7 +19596,7 @@
       </c>
       <c r="I94" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H94,$F94,$D94,$E94,$G94,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU1#0000</v>
+        <v>USD_YCSTDRH_FUT3MU1#0001</v>
       </c>
       <c r="J94" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I94)</f>
@@ -19696,7 +19707,7 @@
       </c>
       <c r="I97" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H97,$F97,$D97,$E97,$G97,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ1#0000</v>
+        <v>USD_YCSTDRH_FUT3MZ1#0001</v>
       </c>
       <c r="J97" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I97)</f>
@@ -19807,7 +19818,7 @@
       </c>
       <c r="I100" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H100,$F100,$D100,$E100,$G100,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH2#0000</v>
+        <v>USD_YCSTDRH_FUT3MH2#0001</v>
       </c>
       <c r="J100" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I100)</f>
@@ -19918,7 +19929,7 @@
       </c>
       <c r="I103" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H103,$F103,$D103,$E103,$G103,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM2#0000</v>
+        <v>USD_YCSTDRH_FUT3MM2#0001</v>
       </c>
       <c r="J103" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I103)</f>
@@ -20774,7 +20785,7 @@
       </c>
       <c r="L4" s="211" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YCSTDRH_AM3L_Libor6M#0000</v>
+        <v>USD_YCSTDRH_AM3L_Libor6M#0001</v>
       </c>
       <c r="M4" s="210" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -20838,7 +20849,7 @@
       </c>
       <c r="L6" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L1Y#0000</v>
+        <v>USD_YCSTDRH_AM3L1Y#0001</v>
       </c>
       <c r="M6" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -20889,7 +20900,7 @@
       </c>
       <c r="L7" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L15M#0000</v>
+        <v>USD_YCSTDRH_AM3L15M#0001</v>
       </c>
       <c r="M7" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -20944,7 +20955,7 @@
       </c>
       <c r="L8" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L18M#0000</v>
+        <v>USD_YCSTDRH_AM3L18M#0001</v>
       </c>
       <c r="M8" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -20999,7 +21010,7 @@
       </c>
       <c r="L9" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L21M#0000</v>
+        <v>USD_YCSTDRH_AM3L21M#0001</v>
       </c>
       <c r="M9" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -21050,7 +21061,7 @@
       </c>
       <c r="L10" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L2Y#0000</v>
+        <v>USD_YCSTDRH_AM3L2Y#0001</v>
       </c>
       <c r="M10" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -21105,7 +21116,7 @@
       </c>
       <c r="L11" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L3Y#0000</v>
+        <v>USD_YCSTDRH_AM3L3Y#0001</v>
       </c>
       <c r="M11" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -21151,7 +21162,7 @@
       </c>
       <c r="L12" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L4Y#0000</v>
+        <v>USD_YCSTDRH_AM3L4Y#0001</v>
       </c>
       <c r="M12" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -21197,7 +21208,7 @@
       </c>
       <c r="L13" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L5Y#0000</v>
+        <v>USD_YCSTDRH_AM3L5Y#0001</v>
       </c>
       <c r="M13" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -21243,7 +21254,7 @@
       </c>
       <c r="L14" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L6Y#0000</v>
+        <v>USD_YCSTDRH_AM3L6Y#0001</v>
       </c>
       <c r="M14" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -21289,7 +21300,7 @@
       </c>
       <c r="L15" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L7Y#0000</v>
+        <v>USD_YCSTDRH_AM3L7Y#0001</v>
       </c>
       <c r="M15" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -21335,7 +21346,7 @@
       </c>
       <c r="L16" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L8Y#0000</v>
+        <v>USD_YCSTDRH_AM3L8Y#0001</v>
       </c>
       <c r="M16" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -21381,7 +21392,7 @@
       </c>
       <c r="L17" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L9Y#0000</v>
+        <v>USD_YCSTDRH_AM3L9Y#0001</v>
       </c>
       <c r="M17" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -21427,7 +21438,7 @@
       </c>
       <c r="L18" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L10Y#0000</v>
+        <v>USD_YCSTDRH_AM3L10Y#0001</v>
       </c>
       <c r="M18" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -21473,7 +21484,7 @@
       </c>
       <c r="L19" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L11Y#0000</v>
+        <v>USD_YCSTDRH_AM3L11Y#0001</v>
       </c>
       <c r="M19" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -21519,7 +21530,7 @@
       </c>
       <c r="L20" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L12Y#0000</v>
+        <v>USD_YCSTDRH_AM3L12Y#0001</v>
       </c>
       <c r="M20" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -21565,7 +21576,7 @@
       </c>
       <c r="L21" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L13Y#0000</v>
+        <v>USD_YCSTDRH_AM3L13Y#0001</v>
       </c>
       <c r="M21" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -21611,7 +21622,7 @@
       </c>
       <c r="L22" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L14Y#0000</v>
+        <v>USD_YCSTDRH_AM3L14Y#0001</v>
       </c>
       <c r="M22" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -21657,7 +21668,7 @@
       </c>
       <c r="L23" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L15Y#0000</v>
+        <v>USD_YCSTDRH_AM3L15Y#0001</v>
       </c>
       <c r="M23" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -21703,7 +21714,7 @@
       </c>
       <c r="L24" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L16Y#0000</v>
+        <v>USD_YCSTDRH_AM3L16Y#0001</v>
       </c>
       <c r="M24" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -21749,7 +21760,7 @@
       </c>
       <c r="L25" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L17Y#0000</v>
+        <v>USD_YCSTDRH_AM3L17Y#0001</v>
       </c>
       <c r="M25" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -21795,7 +21806,7 @@
       </c>
       <c r="L26" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L18Y#0000</v>
+        <v>USD_YCSTDRH_AM3L18Y#0001</v>
       </c>
       <c r="M26" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -21841,7 +21852,7 @@
       </c>
       <c r="L27" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L19Y#0000</v>
+        <v>USD_YCSTDRH_AM3L19Y#0001</v>
       </c>
       <c r="M27" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -21887,7 +21898,7 @@
       </c>
       <c r="L28" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L20Y#0000</v>
+        <v>USD_YCSTDRH_AM3L20Y#0001</v>
       </c>
       <c r="M28" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -21933,7 +21944,7 @@
       </c>
       <c r="L29" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L21Y#0000</v>
+        <v>USD_YCSTDRH_AM3L21Y#0001</v>
       </c>
       <c r="M29" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -21979,7 +21990,7 @@
       </c>
       <c r="L30" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L22Y#0000</v>
+        <v>USD_YCSTDRH_AM3L22Y#0001</v>
       </c>
       <c r="M30" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -22025,7 +22036,7 @@
       </c>
       <c r="L31" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L23Y#0000</v>
+        <v>USD_YCSTDRH_AM3L23Y#0001</v>
       </c>
       <c r="M31" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -22071,7 +22082,7 @@
       </c>
       <c r="L32" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L24Y#0000</v>
+        <v>USD_YCSTDRH_AM3L24Y#0001</v>
       </c>
       <c r="M32" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -22117,7 +22128,7 @@
       </c>
       <c r="L33" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L25Y#0000</v>
+        <v>USD_YCSTDRH_AM3L25Y#0001</v>
       </c>
       <c r="M33" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -22163,7 +22174,7 @@
       </c>
       <c r="L34" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L26Y#0000</v>
+        <v>USD_YCSTDRH_AM3L26Y#0001</v>
       </c>
       <c r="M34" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -22209,7 +22220,7 @@
       </c>
       <c r="L35" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L27Y#0000</v>
+        <v>USD_YCSTDRH_AM3L27Y#0001</v>
       </c>
       <c r="M35" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -22255,7 +22266,7 @@
       </c>
       <c r="L36" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L28Y#0000</v>
+        <v>USD_YCSTDRH_AM3L28Y#0001</v>
       </c>
       <c r="M36" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -22301,7 +22312,7 @@
       </c>
       <c r="L37" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L29Y#0000</v>
+        <v>USD_YCSTDRH_AM3L29Y#0001</v>
       </c>
       <c r="M37" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -22347,7 +22358,7 @@
       </c>
       <c r="L38" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L30Y#0000</v>
+        <v>USD_YCSTDRH_AM3L30Y#0001</v>
       </c>
       <c r="M38" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -22393,7 +22404,7 @@
       </c>
       <c r="L39" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L35Y#0000</v>
+        <v>USD_YCSTDRH_AM3L35Y#0001</v>
       </c>
       <c r="M39" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -22439,7 +22450,7 @@
       </c>
       <c r="L40" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L40Y#0000</v>
+        <v>USD_YCSTDRH_AM3L40Y#0001</v>
       </c>
       <c r="M40" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -22485,7 +22496,7 @@
       </c>
       <c r="L41" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L50Y#0000</v>
+        <v>USD_YCSTDRH_AM3L50Y#0001</v>
       </c>
       <c r="M41" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -22531,7 +22542,7 @@
       </c>
       <c r="L42" s="193" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L60Y#0000</v>
+        <v>USD_YCSTDRH_AM3L60Y#0001</v>
       </c>
       <c r="M42" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/USD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15300" windowHeight="7995" tabRatio="726" activeTab="2"/>
+    <workbookView xWindow="15285" yWindow="-15" windowWidth="15330" windowHeight="7695" tabRatio="726" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -18,9 +18,7 @@
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$19</definedName>
     <definedName name="BondBasisDayCounter">'General Settings'!$M$13</definedName>
-    <definedName name="Calendar" localSheetId="6">'General Settings'!$M$15</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
-    <definedName name="Calendar2">'General Settings'!$M$15</definedName>
     <definedName name="Conventions" localSheetId="6">STD_Swaps!$P$6:$R$10</definedName>
     <definedName name="Currency">'General Settings'!$D$4</definedName>
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
@@ -219,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="160">
   <si>
     <t>60Y</t>
   </si>
@@ -671,9 +669,6 @@
     <t>Fwd start</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
     <t>Actual/360</t>
   </si>
   <si>
@@ -701,7 +696,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>FedFund</t>
+    <t>USDFedFunds</t>
   </si>
 </sst>
 </file>
@@ -933,7 +928,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1395,17 +1390,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1421,7 +1405,7 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1837,7 +1821,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1845,6 +1828,66 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="21" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="21" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="21" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="21" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1877,66 +1920,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2274,23 +2257,23 @@
     <row r="1" spans="1:33" s="35" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="35" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 18 2014 11:20:01</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="216" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="197"/>
-      <c r="K2" s="198" t="s">
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="218"/>
+      <c r="K2" s="219" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="200"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="221"/>
     </row>
     <row r="3" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
@@ -2564,12 +2547,12 @@
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="198" t="s">
+      <c r="K9" s="219" t="s">
         <v>125</v>
       </c>
-      <c r="L9" s="199"/>
-      <c r="M9" s="199"/>
-      <c r="N9" s="200"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="221"/>
       <c r="O9" s="35"/>
       <c r="P9" s="35"/>
       <c r="Q9" s="35"/>
@@ -2726,10 +2709,10 @@
       <c r="J13" s="35"/>
       <c r="K13" s="105"/>
       <c r="L13" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M13" s="106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N13" s="102"/>
       <c r="O13" s="35"/>
@@ -2760,7 +2743,7 @@
       </c>
       <c r="D14" s="58" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYCSTD#0007</v>
+        <v>_USDYCSTD#0000</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="39"/>
@@ -2770,10 +2753,10 @@
       <c r="J14" s="35"/>
       <c r="K14" s="190"/>
       <c r="L14" s="104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M14" s="106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N14" s="189"/>
       <c r="O14" s="35"/>
@@ -2796,7 +2779,7 @@
       <c r="AF14" s="35"/>
       <c r="AG14" s="35"/>
     </row>
-    <row r="15" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="41"/>
       <c r="C15" s="48" t="s">
@@ -2807,21 +2790,17 @@
         <v/>
       </c>
       <c r="E15" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
-      <c r="K15" s="191"/>
-      <c r="L15" s="104" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" s="103" t="s">
-        <v>150</v>
-      </c>
-      <c r="N15" s="189"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="107"/>
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
@@ -2842,7 +2821,7 @@
       <c r="AF15" s="35"/>
       <c r="AG15" s="35"/>
     </row>
-    <row r="16" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="41"/>
       <c r="C16" s="56" t="s">
@@ -2860,10 +2839,10 @@
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="107"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
       <c r="O16" s="35"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -3118,11 +3097,11 @@
       <c r="B23" s="41"/>
       <c r="C23" s="45">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41757</v>
+        <v>41761</v>
       </c>
       <c r="D23" s="44">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
-        <v>3.5799093844054261E-2</v>
+        <v>3.5676308284633224E-2</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="39"/>
@@ -3159,11 +3138,11 @@
       <c r="B24" s="41"/>
       <c r="C24" s="43">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>60022</v>
+        <v>60029</v>
       </c>
       <c r="D24" s="42">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>1.2372145574048811E-3</v>
+        <v>1.3581755403316959E-3</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="39"/>
@@ -3198,10 +3177,10 @@
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="41"/>
-      <c r="C25" s="192" t="s">
+      <c r="C25" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="193" t="str">
+      <c r="D25" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
@@ -3238,7 +3217,7 @@
     <row r="26" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="194" t="str">
+      <c r="C26" s="193" t="str">
         <f>Currency&amp;"STD"</f>
         <v>USDSTD</v>
       </c>
@@ -4606,16 +4585,12 @@
       <c r="AF64" s="35"/>
       <c r="AG64" s="35"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="35"/>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
       <c r="F65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4623,7 +4598,7 @@
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="K9:N9"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21">
       <formula1>"Linear,BackwardFlat,ForwardFlat,Linear,LogLinear,CubicNaturalSpline,LogCubicNaturalSpline,MonotonicCubicNaturalSpline,MonotonicLogCubicNaturalSpline,FritschButlandCubic,FritschButlandLogCubic,KrugerCubic,KrugerLogCubic"</formula1>
     </dataValidation>
@@ -4642,9 +4617,6 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M11">
       <formula1>"Libor,ibor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M15">
-      <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M13:M14">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
@@ -4662,7 +4634,7 @@
   <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4685,11 +4657,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="222" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="203"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="224"/>
       <c r="E1" s="33" t="s">
         <v>74</v>
       </c>
@@ -4727,7 +4699,7 @@
       </c>
       <c r="F2" s="14">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.5000000000000002E-3</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="13" t="b">
@@ -4741,11 +4713,11 @@
       </c>
       <c r="K2" s="12">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41757</v>
+        <v>41761</v>
       </c>
       <c r="L2" s="11">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="M2" s="1">
         <v>10</v>
@@ -4766,7 +4738,7 @@
       </c>
       <c r="F3" s="14">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.5000000000000002E-3</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="13" t="b">
@@ -4780,11 +4752,11 @@
       </c>
       <c r="K3" s="12">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="L3" s="11">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="M3" s="1">
         <v>20</v>
@@ -4805,7 +4777,7 @@
       </c>
       <c r="F4" s="14">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.5000000000000002E-3</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="13" t="b">
@@ -4819,11 +4791,11 @@
       </c>
       <c r="K4" s="12">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L4" s="11">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41761</v>
+        <v>41767</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -4844,7 +4816,7 @@
       </c>
       <c r="F5" s="14">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>1.1975E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="b">
@@ -4858,11 +4830,11 @@
       </c>
       <c r="K5" s="12">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L5" s="11">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41766</v>
+        <v>41773</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -4961,7 +4933,7 @@
       </c>
       <c r="F8" s="14">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>1.5199999999999999E-3</v>
+        <v>1.505E-3</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="13" t="b">
@@ -4975,11 +4947,11 @@
       </c>
       <c r="K8" s="12">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L8" s="11">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41789</v>
+        <v>41799</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -4994,7 +4966,7 @@
       </c>
       <c r="F9" s="14">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>1.9250000000000001E-3</v>
+        <v>1.89E-3</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="13" t="b">
@@ -5008,11 +4980,11 @@
       </c>
       <c r="K9" s="12">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L9" s="11">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -5027,7 +4999,7 @@
       </c>
       <c r="F10" s="14">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>2.2659999999999998E-3</v>
+        <v>2.2285E-3</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="13" t="b">
@@ -5041,11 +5013,11 @@
       </c>
       <c r="K10" s="12">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L10" s="11">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41851</v>
+        <v>41858</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -5126,7 +5098,7 @@
       </c>
       <c r="F13" s="14">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>3.2300000000000002E-3</v>
+        <v>3.2200000000000002E-3</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="13" t="b">
@@ -5140,11 +5112,11 @@
       </c>
       <c r="K13" s="12">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L13" s="11">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41943</v>
+        <v>41950</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -5324,7 +5296,7 @@
       </c>
       <c r="F19" s="7">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>5.4949999999999999E-3</v>
+        <v>5.4749999999999998E-3</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6" t="b">
@@ -5338,11 +5310,11 @@
       </c>
       <c r="K19" s="5">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L19" s="4">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -6048,7 +6020,7 @@
       </c>
       <c r="F38" s="30">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>99.771249999999995</v>
+        <v>99.778750000000002</v>
       </c>
       <c r="G38" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E38,Trigger)</f>
@@ -6090,7 +6062,7 @@
       </c>
       <c r="F39" s="30">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>99.767499999999998</v>
+        <v>99.777500000000003</v>
       </c>
       <c r="G39" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E39,Trigger)</f>
@@ -6132,7 +6104,7 @@
       </c>
       <c r="F40" s="30">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>99.762499999999989</v>
+        <v>99.772500000000008</v>
       </c>
       <c r="G40" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E40,Trigger)</f>
@@ -6174,7 +6146,7 @@
       </c>
       <c r="F41" s="30">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>99.759999999999991</v>
+        <v>99.777500000000003</v>
       </c>
       <c r="G41" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
@@ -6216,7 +6188,7 @@
       </c>
       <c r="F42" s="30">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>99.752499999999998</v>
+        <v>99.762500000000003</v>
       </c>
       <c r="G42" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
@@ -6258,7 +6230,7 @@
       </c>
       <c r="F43" s="30">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>99.747500000000002</v>
+        <v>99.757499999999993</v>
       </c>
       <c r="G43" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E43,Trigger)</f>
@@ -6307,7 +6279,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H44" s="13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="13">
         <v>60</v>
@@ -6342,7 +6314,7 @@
       </c>
       <c r="F45" s="30">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>99.712500000000006</v>
+        <v>99.722499999999997</v>
       </c>
       <c r="G45" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
@@ -6468,7 +6440,7 @@
       </c>
       <c r="F48" s="30">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>99.617500000000007</v>
+        <v>99.627499999999998</v>
       </c>
       <c r="G48" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
@@ -6552,7 +6524,7 @@
       </c>
       <c r="F50" s="30">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>99.4375</v>
+        <v>99.452500000000001</v>
       </c>
       <c r="G50" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
@@ -6594,7 +6566,7 @@
       </c>
       <c r="F51" s="30">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>99.202500000000001</v>
+        <v>99.232500000000002</v>
       </c>
       <c r="G51" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
@@ -6636,7 +6608,7 @@
       </c>
       <c r="F52" s="30">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>98.922499999999999</v>
+        <v>98.967500000000001</v>
       </c>
       <c r="G52" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
@@ -6678,7 +6650,7 @@
       </c>
       <c r="F53" s="30">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>98.617500000000007</v>
+        <v>98.677500000000009</v>
       </c>
       <c r="G53" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
@@ -6720,7 +6692,7 @@
       </c>
       <c r="F54" s="30">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>98.307500000000005</v>
+        <v>98.377499999999998</v>
       </c>
       <c r="G54" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
@@ -6762,7 +6734,7 @@
       </c>
       <c r="F55" s="30">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>98.017499999999998</v>
+        <v>98.092500000000001</v>
       </c>
       <c r="G55" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
@@ -6804,7 +6776,7 @@
       </c>
       <c r="F56" s="30">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>97.745000000000005</v>
+        <v>97.827500000000001</v>
       </c>
       <c r="G56" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
@@ -6846,7 +6818,7 @@
       </c>
       <c r="F57" s="30">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>97.512500000000003</v>
+        <v>97.602499999999992</v>
       </c>
       <c r="G57" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
@@ -6888,7 +6860,7 @@
       </c>
       <c r="F58" s="30">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>97.292500000000004</v>
+        <v>97.387500000000003</v>
       </c>
       <c r="G58" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
@@ -6930,7 +6902,7 @@
       </c>
       <c r="F59" s="30">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>97.1</v>
+        <v>97.197499999999991</v>
       </c>
       <c r="G59" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
@@ -6972,7 +6944,7 @@
       </c>
       <c r="F60" s="30">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>96.912499999999994</v>
+        <v>97.022500000000008</v>
       </c>
       <c r="G60" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
@@ -7014,7 +6986,7 @@
       </c>
       <c r="F61" s="30">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>96.754999999999995</v>
+        <v>96.867500000000007</v>
       </c>
       <c r="G61" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
@@ -7056,7 +7028,7 @@
       </c>
       <c r="F62" s="30">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>96.607500000000002</v>
+        <v>96.722499999999997</v>
       </c>
       <c r="G62" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
@@ -7098,7 +7070,7 @@
       </c>
       <c r="F63" s="30">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>96.482500000000002</v>
+        <v>96.592500000000001</v>
       </c>
       <c r="G63" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
@@ -7140,7 +7112,7 @@
       </c>
       <c r="F64" s="30">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>96.367500000000007</v>
+        <v>96.474999999999994</v>
       </c>
       <c r="G64" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E64,Trigger)</f>
@@ -7182,7 +7154,7 @@
       </c>
       <c r="F65" s="30">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>96.27000000000001</v>
+        <v>96.372500000000002</v>
       </c>
       <c r="G65" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E65,Trigger)</f>
@@ -7224,7 +7196,7 @@
       </c>
       <c r="F66" s="30">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>96.18</v>
+        <v>96.275000000000006</v>
       </c>
       <c r="G66" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E66,Trigger)</f>
@@ -7266,7 +7238,7 @@
       </c>
       <c r="F67" s="30">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>96.094999999999999</v>
+        <v>96.1875</v>
       </c>
       <c r="G67" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E67,Trigger)</f>
@@ -7308,7 +7280,7 @@
       </c>
       <c r="F68" s="30">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>96.02000000000001</v>
+        <v>96.102499999999992</v>
       </c>
       <c r="G68" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E68,Trigger)</f>
@@ -7350,7 +7322,7 @@
       </c>
       <c r="F69" s="30">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>95.954999999999998</v>
+        <v>96.032499999999999</v>
       </c>
       <c r="G69" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E69,Trigger)</f>
@@ -7392,7 +7364,7 @@
       </c>
       <c r="F70" s="30">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>95.897500000000008</v>
+        <v>95.972499999999997</v>
       </c>
       <c r="G70" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E70,Trigger)</f>
@@ -7434,7 +7406,7 @@
       </c>
       <c r="F71" s="30">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>95.844999999999999</v>
+        <v>95.907499999999999</v>
       </c>
       <c r="G71" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E71,Trigger)</f>
@@ -7476,7 +7448,7 @@
       </c>
       <c r="F72" s="30">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>95.787499999999994</v>
+        <v>95.847499999999997</v>
       </c>
       <c r="G72" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E72,Trigger)</f>
@@ -7518,7 +7490,7 @@
       </c>
       <c r="F73" s="30">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>95.75</v>
+        <v>95.805000000000007</v>
       </c>
       <c r="G73" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E73,Trigger)</f>
@@ -7560,7 +7532,7 @@
       </c>
       <c r="F74" s="30">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>95.717500000000001</v>
+        <v>95.765000000000001</v>
       </c>
       <c r="G74" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E74,Trigger)</f>
@@ -7602,7 +7574,7 @@
       </c>
       <c r="F75" s="30">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>95.6875</v>
+        <v>95.732499999999987</v>
       </c>
       <c r="G75" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E75,Trigger)</f>
@@ -7644,7 +7616,7 @@
       </c>
       <c r="F76" s="30">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>95.642500000000013</v>
+        <v>95.694999999999993</v>
       </c>
       <c r="G76" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E76,Trigger)</f>
@@ -7686,7 +7658,7 @@
       </c>
       <c r="F77" s="30">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>95.625</v>
+        <v>95.662499999999994</v>
       </c>
       <c r="G77" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E77,Trigger)</f>
@@ -7728,7 +7700,7 @@
       </c>
       <c r="F78" s="30">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>95.6</v>
+        <v>95.637500000000003</v>
       </c>
       <c r="G78" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E78,Trigger)</f>
@@ -7770,7 +7742,7 @@
       </c>
       <c r="F79" s="29">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>95.575000000000003</v>
+        <v>95.605000000000004</v>
       </c>
       <c r="G79" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E79,Trigger)</f>
@@ -8499,7 +8471,7 @@
       </c>
       <c r="F98" s="14">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>2.6199999999999999E-3</v>
+        <v>2.5700000000000002E-3</v>
       </c>
       <c r="G98" s="14">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -8516,11 +8488,11 @@
       </c>
       <c r="K98" s="12">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L98" s="11">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
       <c r="N98" s="18" t="e">
         <f t="shared" ref="N98:N134" si="8">IF(G98=G135,F98-F135,"--")</f>
@@ -8562,11 +8534,11 @@
       </c>
       <c r="K99" s="12">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L99" s="11">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>42215</v>
+        <v>42223</v>
       </c>
       <c r="N99" s="18" t="e">
         <f t="shared" si="8"/>
@@ -8608,11 +8580,11 @@
       </c>
       <c r="K100" s="12">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L100" s="11">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>42307</v>
+        <v>42317</v>
       </c>
       <c r="N100" s="18" t="e">
         <f t="shared" si="8"/>
@@ -8654,11 +8626,11 @@
       </c>
       <c r="K101" s="12">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L101" s="11">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>42398</v>
+        <v>42408</v>
       </c>
       <c r="N101" s="18" t="e">
         <f t="shared" si="8"/>
@@ -8683,7 +8655,7 @@
       </c>
       <c r="F102" s="14">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>5.3700000000000006E-3</v>
+        <v>5.3100000000000005E-3</v>
       </c>
       <c r="G102" s="14">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -8700,11 +8672,11 @@
       </c>
       <c r="K102" s="12">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L102" s="11">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>42489</v>
+        <v>42499</v>
       </c>
       <c r="N102" s="18" t="e">
         <f t="shared" si="8"/>
@@ -8729,7 +8701,7 @@
       </c>
       <c r="F103" s="14">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>9.9100000000000004E-3</v>
+        <v>9.689999999999999E-3</v>
       </c>
       <c r="G103" s="14">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -8746,11 +8718,11 @@
       </c>
       <c r="K103" s="12">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L103" s="11">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>42853</v>
+        <v>42863</v>
       </c>
       <c r="N103" s="18" t="e">
         <f t="shared" si="8"/>
@@ -8775,7 +8747,7 @@
       </c>
       <c r="F104" s="14">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>1.431E-2</v>
+        <v>1.387E-2</v>
       </c>
       <c r="G104" s="14">
         <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
@@ -8792,11 +8764,11 @@
       </c>
       <c r="K104" s="12">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L104" s="11">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>43220</v>
+        <v>43228</v>
       </c>
       <c r="N104" s="18" t="e">
         <f t="shared" si="8"/>
@@ -8821,7 +8793,7 @@
       </c>
       <c r="F105" s="14">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>1.7950000000000001E-2</v>
+        <v>1.737E-2</v>
       </c>
       <c r="G105" s="14">
         <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
@@ -8838,11 +8810,11 @@
       </c>
       <c r="K105" s="12">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L105" s="11">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>43585</v>
+        <v>43592</v>
       </c>
       <c r="N105" s="18" t="e">
         <f t="shared" si="8"/>
@@ -8867,7 +8839,7 @@
       </c>
       <c r="F106" s="14">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>2.0840000000000001E-2</v>
+        <v>2.0240000000000001E-2</v>
       </c>
       <c r="G106" s="14">
         <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
@@ -8884,11 +8856,11 @@
       </c>
       <c r="K106" s="12">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L106" s="11">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="N106" s="18" t="e">
         <f t="shared" si="8"/>
@@ -8913,7 +8885,7 @@
       </c>
       <c r="F107" s="14">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
-        <v>2.3109999999999999E-2</v>
+        <v>2.2560000000000004E-2</v>
       </c>
       <c r="G107" s="14">
         <f>_xll.qlSwapRateHelperSpread($E107,Trigger)</f>
@@ -8930,11 +8902,11 @@
       </c>
       <c r="K107" s="12">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L107" s="11">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="N107" s="18" t="e">
         <f t="shared" si="8"/>
@@ -8959,7 +8931,7 @@
       </c>
       <c r="F108" s="14">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
-        <v>2.4920000000000001E-2</v>
+        <v>2.4450000000000003E-2</v>
       </c>
       <c r="G108" s="14">
         <f>_xll.qlSwapRateHelperSpread($E108,Trigger)</f>
@@ -8976,11 +8948,11 @@
       </c>
       <c r="K108" s="12">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L108" s="11">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>44680</v>
+        <v>44690</v>
       </c>
       <c r="N108" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9005,7 +8977,7 @@
       </c>
       <c r="F109" s="14">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
-        <v>2.6409999999999999E-2</v>
+        <v>2.597E-2</v>
       </c>
       <c r="G109" s="14">
         <f>_xll.qlSwapRateHelperSpread($E109,Trigger)</f>
@@ -9022,11 +8994,11 @@
       </c>
       <c r="K109" s="12">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L109" s="11">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>45044</v>
+        <v>45054</v>
       </c>
       <c r="N109" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9051,7 +9023,7 @@
       </c>
       <c r="F110" s="14">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>2.7660000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="G110" s="14">
         <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
@@ -9068,11 +9040,11 @@
       </c>
       <c r="K110" s="12">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L110" s="11">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>45412</v>
+        <v>45419</v>
       </c>
       <c r="N110" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9114,11 +9086,11 @@
       </c>
       <c r="K111" s="12">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L111" s="11">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>45777</v>
+        <v>45784</v>
       </c>
       <c r="N111" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9143,7 +9115,7 @@
       </c>
       <c r="F112" s="14">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
-        <v>2.9649999999999999E-2</v>
+        <v>2.9249999999999998E-2</v>
       </c>
       <c r="G112" s="14">
         <f>_xll.qlSwapRateHelperSpread($E112,Trigger)</f>
@@ -9160,11 +9132,11 @@
       </c>
       <c r="K112" s="12">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L112" s="11">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>46142</v>
+        <v>46149</v>
       </c>
       <c r="N112" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9206,11 +9178,11 @@
       </c>
       <c r="K113" s="12">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L113" s="11">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>46507</v>
+        <v>46514</v>
       </c>
       <c r="N113" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9252,11 +9224,11 @@
       </c>
       <c r="K114" s="12">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L114" s="11">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>46871</v>
+        <v>46881</v>
       </c>
       <c r="N114" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9281,7 +9253,7 @@
       </c>
       <c r="F115" s="14">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
-        <v>3.1539999999999999E-2</v>
+        <v>3.1230000000000001E-2</v>
       </c>
       <c r="G115" s="14">
         <f>_xll.qlSwapRateHelperSpread($E115,Trigger)</f>
@@ -9298,11 +9270,11 @@
       </c>
       <c r="K115" s="12">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L115" s="11">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>47238</v>
+        <v>47246</v>
       </c>
       <c r="N115" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9344,11 +9316,11 @@
       </c>
       <c r="K116" s="12">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L116" s="11">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>47603</v>
+        <v>47610</v>
       </c>
       <c r="N116" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9390,11 +9362,11 @@
       </c>
       <c r="K117" s="12">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L117" s="11">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>47968</v>
+        <v>47975</v>
       </c>
       <c r="N117" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9436,11 +9408,11 @@
       </c>
       <c r="K118" s="12">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L118" s="11">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>48334</v>
+        <v>48341</v>
       </c>
       <c r="N118" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9482,11 +9454,11 @@
       </c>
       <c r="K119" s="12">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L119" s="11">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>48698</v>
+        <v>48708</v>
       </c>
       <c r="N119" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9511,7 +9483,7 @@
       </c>
       <c r="F120" s="14">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
-        <v>3.322E-2</v>
+        <v>3.2939999999999997E-2</v>
       </c>
       <c r="G120" s="14">
         <f>_xll.qlSwapRateHelperSpread($E120,Trigger)</f>
@@ -9528,11 +9500,11 @@
       </c>
       <c r="K120" s="12">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L120" s="11">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>49062</v>
+        <v>49072</v>
       </c>
       <c r="N120" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9574,11 +9546,11 @@
       </c>
       <c r="K121" s="12">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L121" s="11">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>49429</v>
+        <v>49437</v>
       </c>
       <c r="N121" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9620,11 +9592,11 @@
       </c>
       <c r="K122" s="12">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L122" s="11">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>49795</v>
+        <v>49802</v>
       </c>
       <c r="N122" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9666,11 +9638,11 @@
       </c>
       <c r="K123" s="12">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L123" s="11">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>50160</v>
+        <v>50167</v>
       </c>
       <c r="N123" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9712,11 +9684,11 @@
       </c>
       <c r="K124" s="12">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L124" s="11">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>50525</v>
+        <v>50532</v>
       </c>
       <c r="N124" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9741,7 +9713,7 @@
       </c>
       <c r="F125" s="14">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>3.3939999999999998E-2</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="G125" s="14">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
@@ -9758,11 +9730,11 @@
       </c>
       <c r="K125" s="12">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L125" s="11">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>50889</v>
+        <v>50899</v>
       </c>
       <c r="N125" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9804,11 +9776,11 @@
       </c>
       <c r="K126" s="12">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L126" s="11">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>51256</v>
+        <v>51264</v>
       </c>
       <c r="N126" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9850,11 +9822,11 @@
       </c>
       <c r="K127" s="12">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L127" s="11">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>51621</v>
+        <v>51628</v>
       </c>
       <c r="N127" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9896,11 +9868,11 @@
       </c>
       <c r="K128" s="12">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L128" s="11">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>51986</v>
+        <v>51993</v>
       </c>
       <c r="N128" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9942,11 +9914,11 @@
       </c>
       <c r="K129" s="12">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L129" s="11">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>52351</v>
+        <v>52358</v>
       </c>
       <c r="N129" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9971,7 +9943,7 @@
       </c>
       <c r="F130" s="14">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
-        <v>3.4230000000000003E-2</v>
+        <v>3.4040000000000001E-2</v>
       </c>
       <c r="G130" s="14">
         <f>_xll.qlSwapRateHelperSpread($E130,Trigger)</f>
@@ -9988,11 +9960,11 @@
       </c>
       <c r="K130" s="12">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L130" s="11">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>52716</v>
+        <v>52726</v>
       </c>
       <c r="N130" s="18" t="e">
         <f t="shared" si="8"/>
@@ -10034,11 +10006,11 @@
       </c>
       <c r="K131" s="12">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L131" s="11">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>54543</v>
+        <v>54550</v>
       </c>
       <c r="N131" s="18" t="e">
         <f t="shared" si="8"/>
@@ -10063,7 +10035,7 @@
       </c>
       <c r="F132" s="14">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
-        <v>3.44E-2</v>
+        <v>3.4230000000000003E-2</v>
       </c>
       <c r="G132" s="14">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
@@ -10080,11 +10052,11 @@
       </c>
       <c r="K132" s="12">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L132" s="11">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>56369</v>
+        <v>56376</v>
       </c>
       <c r="N132" s="18" t="e">
         <f t="shared" si="8"/>
@@ -10109,7 +10081,7 @@
       </c>
       <c r="F133" s="14">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
-        <v>3.4230000000000003E-2</v>
+        <v>3.4040000000000001E-2</v>
       </c>
       <c r="G133" s="14">
         <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
@@ -10126,11 +10098,11 @@
       </c>
       <c r="K133" s="12">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L133" s="11">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>60022</v>
+        <v>60029</v>
       </c>
       <c r="N133" s="18" t="e">
         <f t="shared" si="8"/>
@@ -10172,11 +10144,11 @@
       </c>
       <c r="K134" s="5">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L134" s="4">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>63674</v>
+        <v>63682</v>
       </c>
       <c r="N134" s="18" t="e">
         <f t="shared" si="8"/>
@@ -11762,3088 +11734,3088 @@
     <col min="1" max="1" width="38" style="157" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="157" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.5703125" style="157" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="227" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8" style="227" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.28515625" style="227" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="211" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8" style="211" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.28515625" style="211" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="157" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="157" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="157"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="225" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="D1" s="206" t="s">
+      <c r="B1" s="226"/>
+      <c r="D1" s="194" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="207" t="s">
+      <c r="E1" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207" t="s">
+      <c r="F1" s="195"/>
+      <c r="G1" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="208" t="s">
+      <c r="H1" s="196" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="209">
+      <c r="I1" s="197">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>1.3180531757461815E-3</v>
+        <v>1.5208206598558759E-3</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="198" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="211">
+      <c r="B2" s="199">
         <v>6</v>
       </c>
-      <c r="D2" s="212" t="str">
+      <c r="D2" s="200" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
         <v>USD_YCSTDRH_OND</v>
       </c>
-      <c r="E2" s="213">
+      <c r="E2" s="201">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="F2" s="213">
+        <v>1.5000000000000002E-3</v>
+      </c>
+      <c r="F2" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
         <v>0</v>
       </c>
-      <c r="G2" s="214">
+      <c r="G2" s="212">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41757</v>
-      </c>
-      <c r="H2" s="215">
+        <v>41761</v>
+      </c>
+      <c r="H2" s="213">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41758</v>
-      </c>
-      <c r="I2" s="209">
-        <v>1.3180531757461815E-3</v>
-      </c>
-      <c r="J2" s="216"/>
+        <v>41765</v>
+      </c>
+      <c r="I2" s="197">
+        <v>1.5208206598558759E-3</v>
+      </c>
+      <c r="J2" s="202"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="203" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="218">
-        <v>0</v>
-      </c>
-      <c r="D3" s="212" t="str">
+      <c r="B3" s="204">
+        <v>0</v>
+      </c>
+      <c r="D3" s="200" t="str">
         <v>USD_YCSTDRH_TND</v>
       </c>
-      <c r="E3" s="213">
+      <c r="E3" s="201">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="F3" s="213">
+        <v>1.5000000000000002E-3</v>
+      </c>
+      <c r="F3" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="214">
+      <c r="G3" s="212">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41758</v>
-      </c>
-      <c r="H3" s="215">
+        <v>41765</v>
+      </c>
+      <c r="H3" s="213">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41759</v>
-      </c>
-      <c r="I3" s="209">
-        <v>1.3180531757678469E-3</v>
-      </c>
-      <c r="J3" s="216"/>
+        <v>41766</v>
+      </c>
+      <c r="I3" s="197">
+        <v>1.5208225608719828E-3</v>
+      </c>
+      <c r="J3" s="202"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="217" t="s">
+      <c r="A4" s="203" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="218">
+      <c r="B4" s="204">
         <v>2</v>
       </c>
-      <c r="D4" s="212" t="str">
+      <c r="D4" s="200" t="str">
         <v>USD_YCSTDRH_SND</v>
       </c>
-      <c r="E4" s="213">
+      <c r="E4" s="201">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="F4" s="213">
+        <v>1.5000000000000002E-3</v>
+      </c>
+      <c r="F4" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="214">
+      <c r="G4" s="212">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41759</v>
-      </c>
-      <c r="H4" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H4" s="213">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41761</v>
-      </c>
-      <c r="I4" s="209">
-        <v>1.3180519858533714E-3</v>
-      </c>
-      <c r="J4" s="216"/>
+        <v>41767</v>
+      </c>
+      <c r="I4" s="197">
+        <v>1.5208238282156963E-3</v>
+      </c>
+      <c r="J4" s="202"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="203" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="205" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="212" t="str">
+      <c r="D5" s="200" t="str">
         <v>USD_YCSTDRH_SWD</v>
       </c>
-      <c r="E5" s="213">
+      <c r="E5" s="201">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>1.1975E-3</v>
-      </c>
-      <c r="F5" s="213">
+        <v>1.225E-3</v>
+      </c>
+      <c r="F5" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="214">
+      <c r="G5" s="212">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41759</v>
-      </c>
-      <c r="H5" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H5" s="213">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41766</v>
-      </c>
-      <c r="I5" s="209">
-        <v>1.2372145574048811E-3</v>
-      </c>
-      <c r="J5" s="216"/>
+        <v>41773</v>
+      </c>
+      <c r="I5" s="197">
+        <v>1.3581755403316959E-3</v>
+      </c>
+      <c r="J5" s="202"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="203" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="220" t="str">
+      <c r="B6" s="206" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!D2)</f>
         <v/>
       </c>
-      <c r="D6" s="212" t="str">
+      <c r="D6" s="200" t="str">
         <v>USD_YCSTDRH_1MD</v>
       </c>
-      <c r="E6" s="213">
+      <c r="E6" s="201">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>1.5199999999999999E-3</v>
-      </c>
-      <c r="F6" s="213">
+        <v>1.505E-3</v>
+      </c>
+      <c r="F6" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="214">
+      <c r="G6" s="212">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41759</v>
-      </c>
-      <c r="H6" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H6" s="213">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41789</v>
-      </c>
-      <c r="I6" s="209">
-        <v>1.5270784944061905E-3</v>
-      </c>
-      <c r="J6" s="216"/>
+        <v>41799</v>
+      </c>
+      <c r="I6" s="197">
+        <v>1.5251429304975932E-3</v>
+      </c>
+      <c r="J6" s="202"/>
     </row>
     <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="221" t="str">
+      <c r="A7" s="207" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_RateHelpersSelected#0005</v>
-      </c>
-      <c r="B7" s="222" t="str">
+        <v>USD_YCSTDRH_RateHelpersSelected#0000</v>
+      </c>
+      <c r="B7" s="208" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
-      <c r="D7" s="212" t="str">
+      <c r="D7" s="200" t="str">
         <v>USD_YCSTDRH_2MD</v>
       </c>
-      <c r="E7" s="213">
+      <c r="E7" s="201">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1.9250000000000001E-3</v>
-      </c>
-      <c r="F7" s="213">
+        <v>1.89E-3</v>
+      </c>
+      <c r="F7" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
         <v>0</v>
       </c>
-      <c r="G7" s="214">
+      <c r="G7" s="212">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41759</v>
-      </c>
-      <c r="H7" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H7" s="213">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41820</v>
-      </c>
-      <c r="I7" s="209">
-        <v>1.9313110555474584E-3</v>
-      </c>
-      <c r="J7" s="216"/>
+        <v>41827</v>
+      </c>
+      <c r="I7" s="197">
+        <v>1.8860098422438089E-3</v>
+      </c>
+      <c r="J7" s="202"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D8" s="212" t="str">
+      <c r="D8" s="200" t="str">
         <v>USD_YCSTDRH_3MD</v>
       </c>
-      <c r="E8" s="213">
+      <c r="E8" s="201">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.2659999999999998E-3</v>
-      </c>
-      <c r="F8" s="213">
+        <v>2.2285E-3</v>
+      </c>
+      <c r="F8" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
         <v>0</v>
       </c>
-      <c r="G8" s="214">
+      <c r="G8" s="212">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41759</v>
-      </c>
-      <c r="H8" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H8" s="213">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41851</v>
-      </c>
-      <c r="I8" s="209">
-        <v>2.275982703652593E-3</v>
-      </c>
-      <c r="J8" s="216"/>
+        <v>41858</v>
+      </c>
+      <c r="I8" s="197">
+        <v>2.2207677486627574E-3</v>
+      </c>
+      <c r="J8" s="202"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D9" s="212" t="str">
+      <c r="D9" s="200" t="str">
         <v>USD_YCSTDRH_6MD</v>
       </c>
-      <c r="E9" s="213">
+      <c r="E9" s="201">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>3.2300000000000002E-3</v>
-      </c>
-      <c r="F9" s="213">
+        <v>3.2200000000000002E-3</v>
+      </c>
+      <c r="F9" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
         <v>0</v>
       </c>
-      <c r="G9" s="214">
+      <c r="G9" s="212">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41759</v>
-      </c>
-      <c r="H9" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H9" s="213">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41943</v>
-      </c>
-      <c r="I9" s="209">
-        <v>3.2511489560062999E-3</v>
-      </c>
-      <c r="J9" s="216"/>
+        <v>41950</v>
+      </c>
+      <c r="I9" s="197">
+        <v>3.2159747445604987E-3</v>
+      </c>
+      <c r="J9" s="202"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D10" s="212" t="str">
+      <c r="D10" s="200" t="str">
         <v>USD_YCSTDRH_FUT3MZ4</v>
       </c>
-      <c r="E10" s="213">
+      <c r="E10" s="201">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>2.8749999999999609E-3</v>
-      </c>
-      <c r="F10" s="213">
+        <v>2.775000000000083E-3</v>
+      </c>
+      <c r="F10" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
         <v>0</v>
       </c>
-      <c r="G10" s="214">
+      <c r="G10" s="212">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
         <v>41990</v>
       </c>
-      <c r="H10" s="215">
+      <c r="H10" s="213">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
         <v>42080</v>
       </c>
-      <c r="I10" s="209">
-        <v>3.1262695860066127E-3</v>
-      </c>
-      <c r="J10" s="216"/>
+      <c r="I10" s="197">
+        <v>3.0698936453776586E-3</v>
+      </c>
+      <c r="J10" s="202"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="212" t="str">
+      <c r="D11" s="200" t="str">
         <v>USD_YCSTDRH_1YD</v>
       </c>
-      <c r="E11" s="213">
+      <c r="E11" s="201">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>5.4949999999999999E-3</v>
-      </c>
-      <c r="F11" s="213">
+        <v>5.4749999999999998E-3</v>
+      </c>
+      <c r="F11" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="214">
+      <c r="G11" s="212">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41759</v>
-      </c>
-      <c r="H11" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H11" s="213">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42124</v>
-      </c>
-      <c r="I11" s="209">
-        <v>5.532762749282682E-3</v>
-      </c>
-      <c r="J11" s="216"/>
+        <v>42131</v>
+      </c>
+      <c r="I11" s="197">
+        <v>5.4814364307447716E-3</v>
+      </c>
+      <c r="J11" s="202"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D12" s="212" t="str">
+      <c r="D12" s="200" t="str">
         <v>USD_YCSTDRH_FUT3MH5</v>
       </c>
-      <c r="E12" s="213">
+      <c r="E12" s="201">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>3.8249999999999673E-3</v>
-      </c>
-      <c r="F12" s="213">
+        <v>3.7249999999999783E-3</v>
+      </c>
+      <c r="F12" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="214">
+      <c r="G12" s="212">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
         <v>42081</v>
       </c>
-      <c r="H12" s="215">
+      <c r="H12" s="213">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
         <v>42173</v>
       </c>
-      <c r="I12" s="209">
-        <v>3.3347238463836346E-3</v>
-      </c>
-      <c r="J12" s="216"/>
+      <c r="I12" s="197">
+        <v>3.2640574303329974E-3</v>
+      </c>
+      <c r="J12" s="202"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="212" t="str">
+      <c r="D13" s="200" t="str">
         <v>USD_YCSTDRH_FUT3MM5</v>
       </c>
-      <c r="E13" s="213">
+      <c r="E13" s="201">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>5.6249999999999911E-3</v>
-      </c>
-      <c r="F13" s="213">
+        <v>5.4750000000000076E-3</v>
+      </c>
+      <c r="F13" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="214">
+      <c r="G13" s="212">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
         <v>42172</v>
       </c>
-      <c r="H13" s="215">
+      <c r="H13" s="213">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
         <v>42264</v>
       </c>
-      <c r="I13" s="209">
-        <v>3.8004678143588773E-3</v>
-      </c>
-      <c r="J13" s="216"/>
+      <c r="I13" s="197">
+        <v>3.7247815768340826E-3</v>
+      </c>
+      <c r="J13" s="202"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D14" s="212" t="str">
+      <c r="D14" s="200" t="str">
         <v>USD_YCSTDRH_FUT3MU5</v>
       </c>
-      <c r="E14" s="213">
+      <c r="E14" s="201">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>7.9749999999999543E-3</v>
-      </c>
-      <c r="F14" s="213">
+        <v>7.6749999999999874E-3</v>
+      </c>
+      <c r="F14" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="214">
+      <c r="G14" s="212">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
         <v>42263</v>
       </c>
-      <c r="H14" s="215">
+      <c r="H14" s="213">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
         <v>42354</v>
       </c>
-      <c r="I14" s="209">
-        <v>4.4480918372196681E-3</v>
-      </c>
-      <c r="J14" s="216"/>
+      <c r="I14" s="197">
+        <v>4.341885501852309E-3</v>
+      </c>
+      <c r="J14" s="202"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D15" s="212" t="str">
+      <c r="D15" s="200" t="str">
         <v>USD_YCSTDRH_FUT3MZ5</v>
       </c>
-      <c r="E15" s="213">
+      <c r="E15" s="201">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>1.0774999999999979E-2</v>
-      </c>
-      <c r="F15" s="213">
+        <v>1.0325000000000029E-2</v>
+      </c>
+      <c r="F15" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
         <v>0</v>
       </c>
-      <c r="G15" s="214">
+      <c r="G15" s="212">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
         <v>42354</v>
       </c>
-      <c r="H15" s="215">
+      <c r="H15" s="213">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
         <v>42445</v>
       </c>
-      <c r="I15" s="209">
-        <v>5.3027657244025146E-3</v>
-      </c>
-      <c r="J15" s="216"/>
+      <c r="I15" s="197">
+        <v>5.1551487895702564E-3</v>
+      </c>
+      <c r="J15" s="202"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D16" s="212" t="str">
+      <c r="D16" s="200" t="str">
         <v>USD_YCSTDRH_FUT3MH6</v>
       </c>
-      <c r="E16" s="213">
+      <c r="E16" s="201">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.3824999999999976E-2</v>
-      </c>
-      <c r="F16" s="213">
+        <v>1.3224999999999931E-2</v>
+      </c>
+      <c r="F16" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
         <v>0</v>
       </c>
-      <c r="G16" s="214">
+      <c r="G16" s="212">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
         <v>42445</v>
       </c>
-      <c r="H16" s="215">
+      <c r="H16" s="213">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
         <v>42537</v>
       </c>
-      <c r="I16" s="209">
-        <v>6.3276864035419281E-3</v>
+      <c r="I16" s="197">
+        <v>6.1309799715460961E-3</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D17" s="212" t="str">
+      <c r="D17" s="200" t="str">
         <v>USD_YCSTDRH_AM3L3Y</v>
       </c>
-      <c r="E17" s="213">
+      <c r="E17" s="201">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>9.92E-3</v>
-      </c>
-      <c r="F17" s="213">
+        <v>9.689999999999999E-3</v>
+      </c>
+      <c r="F17" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="214">
+      <c r="G17" s="212">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41759</v>
-      </c>
-      <c r="H17" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H17" s="213">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42853</v>
-      </c>
-      <c r="I17" s="209">
-        <v>1.0035091370845255E-2</v>
+        <v>42863</v>
+      </c>
+      <c r="I17" s="197">
+        <v>9.7796511003737877E-3</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D18" s="212" t="str">
+      <c r="D18" s="200" t="str">
         <v>USD_YCSTDRH_AM3L4Y</v>
       </c>
-      <c r="E18" s="213">
+      <c r="E18" s="201">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.431E-2</v>
-      </c>
-      <c r="F18" s="213">
+        <v>1.387E-2</v>
+      </c>
+      <c r="F18" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
         <v>0</v>
       </c>
-      <c r="G18" s="214">
+      <c r="G18" s="212">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41759</v>
-      </c>
-      <c r="H18" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H18" s="213">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43220</v>
-      </c>
-      <c r="I18" s="209">
-        <v>1.453081073127625E-2</v>
+        <v>43228</v>
+      </c>
+      <c r="I18" s="197">
+        <v>1.4055837719634943E-2</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D19" s="212" t="str">
+      <c r="D19" s="200" t="str">
         <v>USD_YCSTDRH_AM3L5Y</v>
       </c>
-      <c r="E19" s="213">
+      <c r="E19" s="201">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.7950000000000001E-2</v>
-      </c>
-      <c r="F19" s="213">
+        <v>1.737E-2</v>
+      </c>
+      <c r="F19" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="214">
+      <c r="G19" s="212">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41759</v>
-      </c>
-      <c r="H19" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H19" s="213">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>43585</v>
-      </c>
-      <c r="I19" s="209">
-        <v>1.8299700845167848E-2</v>
+        <v>43592</v>
+      </c>
+      <c r="I19" s="197">
+        <v>1.7676364776347261E-2</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D20" s="212" t="str">
+      <c r="D20" s="200" t="str">
         <v>USD_YCSTDRH_AM3L6Y</v>
       </c>
-      <c r="E20" s="213">
+      <c r="E20" s="201">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.0840000000000001E-2</v>
-      </c>
-      <c r="F20" s="213">
+        <v>2.0240000000000001E-2</v>
+      </c>
+      <c r="F20" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="214">
+      <c r="G20" s="212">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41759</v>
-      </c>
-      <c r="H20" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H20" s="213">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>43951</v>
-      </c>
-      <c r="I20" s="209">
-        <v>2.1325600161623416E-2</v>
+        <v>43958</v>
+      </c>
+      <c r="I20" s="197">
+        <v>2.0679889941005763E-2</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D21" s="212" t="str">
+      <c r="D21" s="200" t="str">
         <v>USD_YCSTDRH_AM3L7Y</v>
       </c>
-      <c r="E21" s="213">
+      <c r="E21" s="201">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.3109999999999999E-2</v>
-      </c>
-      <c r="F21" s="213">
+        <v>2.2560000000000004E-2</v>
+      </c>
+      <c r="F21" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="214">
+      <c r="G21" s="212">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41759</v>
-      </c>
-      <c r="H21" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H21" s="213">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44316</v>
-      </c>
-      <c r="I21" s="209">
-        <v>2.3728052910807602E-2</v>
+        <v>44323</v>
+      </c>
+      <c r="I21" s="197">
+        <v>2.313653958921703E-2</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D22" s="212" t="str">
+      <c r="D22" s="200" t="str">
         <v>USD_YCSTDRH_AM3L8Y</v>
       </c>
-      <c r="E22" s="213">
+      <c r="E22" s="201">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.4920000000000001E-2</v>
-      </c>
-      <c r="F22" s="213">
+        <v>2.4450000000000003E-2</v>
+      </c>
+      <c r="F22" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
         <v>0</v>
       </c>
-      <c r="G22" s="214">
+      <c r="G22" s="212">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41759</v>
-      </c>
-      <c r="H22" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H22" s="213">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>44680</v>
-      </c>
-      <c r="I22" s="209">
-        <v>2.5663318650519198E-2</v>
+        <v>44690</v>
+      </c>
+      <c r="I22" s="197">
+        <v>2.5159925399848137E-2</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D23" s="212" t="str">
+      <c r="D23" s="200" t="str">
         <v>USD_YCSTDRH_AM3L9Y</v>
       </c>
-      <c r="E23" s="213">
+      <c r="E23" s="201">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.6409999999999999E-2</v>
-      </c>
-      <c r="F23" s="213">
+        <v>2.597E-2</v>
+      </c>
+      <c r="F23" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
         <v>0</v>
       </c>
-      <c r="G23" s="214">
+      <c r="G23" s="212">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41759</v>
-      </c>
-      <c r="H23" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H23" s="213">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>45044</v>
-      </c>
-      <c r="I23" s="209">
-        <v>2.7272950764375675E-2</v>
+        <v>45054</v>
+      </c>
+      <c r="I23" s="197">
+        <v>2.6804058698975782E-2</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D24" s="212" t="str">
+      <c r="D24" s="200" t="str">
         <v>USD_YCSTDRH_AM3L10Y</v>
       </c>
-      <c r="E24" s="213">
+      <c r="E24" s="201">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.7660000000000001E-2</v>
-      </c>
-      <c r="F24" s="213">
+        <v>2.724E-2</v>
+      </c>
+      <c r="F24" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
         <v>0</v>
       </c>
-      <c r="G24" s="214">
+      <c r="G24" s="212">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41759</v>
-      </c>
-      <c r="H24" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H24" s="213">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>45412</v>
-      </c>
-      <c r="I24" s="209">
-        <v>2.8635980733550427E-2</v>
+        <v>45419</v>
+      </c>
+      <c r="I24" s="197">
+        <v>2.8191720205622071E-2</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D25" s="212" t="str">
+      <c r="D25" s="200" t="str">
         <v>USD_YCSTDRH_AM3L12Y</v>
       </c>
-      <c r="E25" s="213">
+      <c r="E25" s="201">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.9649999999999999E-2</v>
-      </c>
-      <c r="F25" s="213">
+        <v>2.9249999999999998E-2</v>
+      </c>
+      <c r="F25" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
         <v>0</v>
       </c>
-      <c r="G25" s="214">
+      <c r="G25" s="212">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41759</v>
-      </c>
-      <c r="H25" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H25" s="213">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>46142</v>
-      </c>
-      <c r="I25" s="209">
-        <v>3.0845200975816823E-2</v>
+        <v>46149</v>
+      </c>
+      <c r="I25" s="197">
+        <v>3.0424478128919338E-2</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D26" s="212" t="str">
+      <c r="D26" s="200" t="str">
         <v>USD_YCSTDRH_AM3L15Y</v>
       </c>
-      <c r="E26" s="213">
+      <c r="E26" s="201">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>3.1539999999999999E-2</v>
-      </c>
-      <c r="F26" s="213">
+        <v>3.1230000000000001E-2</v>
+      </c>
+      <c r="F26" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="214">
+      <c r="G26" s="212">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41759</v>
-      </c>
-      <c r="H26" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H26" s="213">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>47238</v>
-      </c>
-      <c r="I26" s="209">
-        <v>3.2971023969331936E-2</v>
+        <v>47246</v>
+      </c>
+      <c r="I26" s="197">
+        <v>3.2663679397546587E-2</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D27" s="212" t="str">
+      <c r="D27" s="200" t="str">
         <v>USD_YCSTDRH_AM3L20Y</v>
       </c>
-      <c r="E27" s="213">
+      <c r="E27" s="201">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>3.32E-2</v>
-      </c>
-      <c r="F27" s="213">
+        <v>3.2939999999999997E-2</v>
+      </c>
+      <c r="F27" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
         <v>0</v>
       </c>
-      <c r="G27" s="214">
+      <c r="G27" s="212">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41759</v>
-      </c>
-      <c r="H27" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H27" s="213">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>49062</v>
-      </c>
-      <c r="I27" s="209">
-        <v>3.4848018589060469E-2</v>
+        <v>49072</v>
+      </c>
+      <c r="I27" s="197">
+        <v>3.4605661754819973E-2</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D28" s="212" t="str">
+      <c r="D28" s="200" t="str">
         <v>USD_YCSTDRH_AM3L25Y</v>
       </c>
-      <c r="E28" s="213">
+      <c r="E28" s="201">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>3.3919999999999999E-2</v>
-      </c>
-      <c r="F28" s="213">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="F28" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
         <v>0</v>
       </c>
-      <c r="G28" s="214">
+      <c r="G28" s="212">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41759</v>
-      </c>
-      <c r="H28" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H28" s="213">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>50889</v>
-      </c>
-      <c r="I28" s="209">
-        <v>3.5590062917272888E-2</v>
+        <v>50899</v>
+      </c>
+      <c r="I28" s="197">
+        <v>3.5404853561483811E-2</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D29" s="212" t="str">
+      <c r="D29" s="200" t="str">
         <v>USD_YCSTDRH_AM3L30Y</v>
       </c>
-      <c r="E29" s="213">
+      <c r="E29" s="201">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>3.422E-2</v>
-      </c>
-      <c r="F29" s="213">
+        <v>3.4040000000000001E-2</v>
+      </c>
+      <c r="F29" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="214">
+      <c r="G29" s="212">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41759</v>
-      </c>
-      <c r="H29" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H29" s="213">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>52716</v>
-      </c>
-      <c r="I29" s="209">
-        <v>3.5799093844054261E-2</v>
+        <v>52726</v>
+      </c>
+      <c r="I29" s="197">
+        <v>3.5676308284633224E-2</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D30" s="212" t="str">
+      <c r="D30" s="200" t="str">
         <v>USD_YCSTDRH_AM3L40Y</v>
       </c>
-      <c r="E30" s="213">
+      <c r="E30" s="201">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>3.4390000000000004E-2</v>
-      </c>
-      <c r="F30" s="213">
+        <v>3.4230000000000003E-2</v>
+      </c>
+      <c r="F30" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
         <v>0</v>
       </c>
-      <c r="G30" s="214">
+      <c r="G30" s="212">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41759</v>
-      </c>
-      <c r="H30" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H30" s="213">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>56369</v>
-      </c>
-      <c r="I30" s="209">
-        <v>3.5695646637685936E-2</v>
+        <v>56376</v>
+      </c>
+      <c r="I30" s="197">
+        <v>3.559820049760621E-2</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D31" s="212" t="str">
+      <c r="D31" s="200" t="str">
         <v>USD_YCSTDRH_AM3L50Y</v>
       </c>
-      <c r="E31" s="213">
+      <c r="E31" s="201">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>3.422E-2</v>
-      </c>
-      <c r="F31" s="213">
+        <v>3.4040000000000001E-2</v>
+      </c>
+      <c r="F31" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
         <v>0</v>
       </c>
-      <c r="G31" s="214">
+      <c r="G31" s="212">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41759</v>
-      </c>
-      <c r="H31" s="215">
+        <v>41766</v>
+      </c>
+      <c r="H31" s="213">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>60022</v>
-      </c>
-      <c r="I31" s="209">
-        <v>3.5009362187467939E-2</v>
+        <v>60029</v>
+      </c>
+      <c r="I31" s="197">
+        <v>3.4853935229873428E-2</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D32" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E32" s="213" t="e">
+      <c r="D32" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="201" t="e">
         <f>_xll.qlRateHelperRate($D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F32" s="213">
+      <c r="F32" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
         <v>0</v>
       </c>
-      <c r="G32" s="214" t="e">
+      <c r="G32" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H32" s="215" t="e">
+      <c r="H32" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I32" s="209" t="e">
+      <c r="I32" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D33" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="213" t="e">
+      <c r="D33" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E33" s="201" t="e">
         <f>_xll.qlRateHelperRate($D33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F33" s="213">
+      <c r="F33" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
         <v>0</v>
       </c>
-      <c r="G33" s="214" t="e">
+      <c r="G33" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H33" s="215" t="e">
+      <c r="H33" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I33" s="209" t="e">
+      <c r="I33" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D34" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E34" s="213" t="e">
+      <c r="D34" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E34" s="201" t="e">
         <f>_xll.qlRateHelperRate($D34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F34" s="213">
+      <c r="F34" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
         <v>0</v>
       </c>
-      <c r="G34" s="214" t="e">
+      <c r="G34" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H34" s="215" t="e">
+      <c r="H34" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I34" s="209" t="e">
+      <c r="I34" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D35" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E35" s="213" t="e">
+      <c r="D35" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E35" s="201" t="e">
         <f>_xll.qlRateHelperRate($D35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F35" s="213">
+      <c r="F35" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
         <v>0</v>
       </c>
-      <c r="G35" s="214" t="e">
+      <c r="G35" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H35" s="215" t="e">
+      <c r="H35" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I35" s="209" t="e">
+      <c r="I35" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D36" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E36" s="213" t="e">
+      <c r="D36" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="201" t="e">
         <f>_xll.qlRateHelperRate($D36)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F36" s="213">
+      <c r="F36" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
         <v>0</v>
       </c>
-      <c r="G36" s="214" t="e">
+      <c r="G36" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H36" s="215" t="e">
+      <c r="H36" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I36" s="209" t="e">
+      <c r="I36" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D37" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E37" s="213" t="e">
+      <c r="D37" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="201" t="e">
         <f>_xll.qlRateHelperRate($D37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F37" s="213">
+      <c r="F37" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
         <v>0</v>
       </c>
-      <c r="G37" s="214" t="e">
+      <c r="G37" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H37" s="215" t="e">
+      <c r="H37" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I37" s="209" t="e">
+      <c r="I37" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D38" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="213" t="e">
+      <c r="D38" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="201" t="e">
         <f>_xll.qlRateHelperRate($D38)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F38" s="213">
+      <c r="F38" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
         <v>0</v>
       </c>
-      <c r="G38" s="214" t="e">
+      <c r="G38" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H38" s="215" t="e">
+      <c r="H38" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I38" s="209" t="e">
+      <c r="I38" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D39" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E39" s="213" t="e">
+      <c r="D39" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E39" s="201" t="e">
         <f>_xll.qlRateHelperRate($D39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F39" s="213">
+      <c r="F39" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
         <v>0</v>
       </c>
-      <c r="G39" s="214" t="e">
+      <c r="G39" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H39" s="215" t="e">
+      <c r="H39" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I39" s="209" t="e">
+      <c r="I39" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D40" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E40" s="213" t="e">
+      <c r="D40" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E40" s="201" t="e">
         <f>_xll.qlRateHelperRate($D40)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F40" s="213">
+      <c r="F40" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
         <v>0</v>
       </c>
-      <c r="G40" s="214" t="e">
+      <c r="G40" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H40" s="215" t="e">
+      <c r="H40" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I40" s="209" t="e">
+      <c r="I40" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D41" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E41" s="213" t="e">
+      <c r="D41" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E41" s="201" t="e">
         <f>_xll.qlRateHelperRate($D41)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F41" s="213">
+      <c r="F41" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
         <v>0</v>
       </c>
-      <c r="G41" s="214" t="e">
+      <c r="G41" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H41" s="215" t="e">
+      <c r="H41" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I41" s="209" t="e">
+      <c r="I41" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D42" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E42" s="213" t="e">
+      <c r="D42" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E42" s="201" t="e">
         <f>_xll.qlRateHelperRate($D42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F42" s="213">
+      <c r="F42" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
         <v>0</v>
       </c>
-      <c r="G42" s="214" t="e">
+      <c r="G42" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H42" s="215" t="e">
+      <c r="H42" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I42" s="209" t="e">
+      <c r="I42" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D43" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E43" s="213" t="e">
+      <c r="D43" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E43" s="201" t="e">
         <f>_xll.qlRateHelperRate($D43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F43" s="213">
+      <c r="F43" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
         <v>0</v>
       </c>
-      <c r="G43" s="214" t="e">
+      <c r="G43" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H43" s="215" t="e">
+      <c r="H43" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I43" s="209" t="e">
+      <c r="I43" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D44" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E44" s="213" t="e">
+      <c r="D44" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E44" s="201" t="e">
         <f>_xll.qlRateHelperRate($D44)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F44" s="213">
+      <c r="F44" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
         <v>0</v>
       </c>
-      <c r="G44" s="214" t="e">
+      <c r="G44" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H44" s="215" t="e">
+      <c r="H44" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I44" s="209" t="e">
+      <c r="I44" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D45" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E45" s="213" t="e">
+      <c r="D45" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E45" s="201" t="e">
         <f>_xll.qlRateHelperRate($D45)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F45" s="213">
+      <c r="F45" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
         <v>0</v>
       </c>
-      <c r="G45" s="214" t="e">
+      <c r="G45" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H45" s="215" t="e">
+      <c r="H45" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I45" s="209" t="e">
+      <c r="I45" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D46" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E46" s="213" t="e">
+      <c r="D46" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E46" s="201" t="e">
         <f>_xll.qlRateHelperRate($D46)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F46" s="213">
+      <c r="F46" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
         <v>0</v>
       </c>
-      <c r="G46" s="214" t="e">
+      <c r="G46" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H46" s="215" t="e">
+      <c r="H46" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I46" s="209" t="e">
+      <c r="I46" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D47" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E47" s="213" t="e">
+      <c r="D47" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E47" s="201" t="e">
         <f>_xll.qlRateHelperRate($D47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F47" s="213">
+      <c r="F47" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
         <v>0</v>
       </c>
-      <c r="G47" s="214" t="e">
+      <c r="G47" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H47" s="215" t="e">
+      <c r="H47" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I47" s="209" t="e">
+      <c r="I47" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D48" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E48" s="213" t="e">
+      <c r="D48" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E48" s="201" t="e">
         <f>_xll.qlRateHelperRate($D48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="213">
+      <c r="F48" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
         <v>0</v>
       </c>
-      <c r="G48" s="214" t="e">
+      <c r="G48" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="215" t="e">
+      <c r="H48" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="209" t="e">
+      <c r="I48" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D49" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E49" s="213" t="e">
+      <c r="D49" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E49" s="201" t="e">
         <f>_xll.qlRateHelperRate($D49)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F49" s="213">
+      <c r="F49" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
         <v>0</v>
       </c>
-      <c r="G49" s="214" t="e">
+      <c r="G49" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H49" s="215" t="e">
+      <c r="H49" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I49" s="209" t="e">
+      <c r="I49" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D50" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E50" s="213" t="e">
+      <c r="D50" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E50" s="201" t="e">
         <f>_xll.qlRateHelperRate($D50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F50" s="213">
+      <c r="F50" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
         <v>0</v>
       </c>
-      <c r="G50" s="214" t="e">
+      <c r="G50" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H50" s="215" t="e">
+      <c r="H50" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I50" s="209" t="e">
+      <c r="I50" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D51" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E51" s="213" t="e">
+      <c r="D51" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E51" s="201" t="e">
         <f>_xll.qlRateHelperRate($D51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="213">
+      <c r="F51" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
         <v>0</v>
       </c>
-      <c r="G51" s="214" t="e">
+      <c r="G51" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H51" s="215" t="e">
+      <c r="H51" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I51" s="209" t="e">
+      <c r="I51" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D52" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E52" s="213" t="e">
+      <c r="D52" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E52" s="201" t="e">
         <f>_xll.qlRateHelperRate($D52)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F52" s="213">
+      <c r="F52" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
         <v>0</v>
       </c>
-      <c r="G52" s="214" t="e">
+      <c r="G52" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D52)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H52" s="215" t="e">
+      <c r="H52" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D52)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I52" s="209" t="e">
+      <c r="I52" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D53" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E53" s="213" t="e">
+      <c r="D53" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E53" s="201" t="e">
         <f>_xll.qlRateHelperRate($D53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F53" s="213">
+      <c r="F53" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
         <v>0</v>
       </c>
-      <c r="G53" s="214" t="e">
+      <c r="G53" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H53" s="215" t="e">
+      <c r="H53" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I53" s="209" t="e">
+      <c r="I53" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D54" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E54" s="213" t="e">
+      <c r="D54" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E54" s="201" t="e">
         <f>_xll.qlRateHelperRate($D54)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F54" s="213">
+      <c r="F54" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
         <v>0</v>
       </c>
-      <c r="G54" s="214" t="e">
+      <c r="G54" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D54)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H54" s="215" t="e">
+      <c r="H54" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D54)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I54" s="209" t="e">
+      <c r="I54" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D55" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E55" s="213" t="e">
+      <c r="D55" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E55" s="201" t="e">
         <f>_xll.qlRateHelperRate($D55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F55" s="213">
+      <c r="F55" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D55)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D55)),_xll.qlSwapRateHelperSpread($D55))</f>
         <v>0</v>
       </c>
-      <c r="G55" s="214" t="e">
+      <c r="G55" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H55" s="215" t="e">
+      <c r="H55" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I55" s="209" t="e">
+      <c r="I55" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D56" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E56" s="213" t="e">
+      <c r="D56" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E56" s="201" t="e">
         <f>_xll.qlRateHelperRate($D56)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F56" s="213">
+      <c r="F56" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D56)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D56)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D56)),_xll.qlSwapRateHelperSpread($D56))</f>
         <v>0</v>
       </c>
-      <c r="G56" s="214" t="e">
+      <c r="G56" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D56)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H56" s="215" t="e">
+      <c r="H56" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D56)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I56" s="209" t="e">
+      <c r="I56" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D57" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E57" s="213" t="e">
+      <c r="D57" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E57" s="201" t="e">
         <f>_xll.qlRateHelperRate($D57)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F57" s="213">
+      <c r="F57" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D57)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D57)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D57)),_xll.qlSwapRateHelperSpread($D57))</f>
         <v>0</v>
       </c>
-      <c r="G57" s="214" t="e">
+      <c r="G57" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D57)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H57" s="215" t="e">
+      <c r="H57" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D57)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I57" s="209" t="e">
+      <c r="I57" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D58" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E58" s="213" t="e">
+      <c r="D58" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E58" s="201" t="e">
         <f>_xll.qlRateHelperRate($D58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="213">
+      <c r="F58" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D58)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D58)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D58)),_xll.qlSwapRateHelperSpread($D58))</f>
         <v>0</v>
       </c>
-      <c r="G58" s="214" t="e">
+      <c r="G58" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="215" t="e">
+      <c r="H58" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="209" t="e">
+      <c r="I58" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D59" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E59" s="213" t="e">
+      <c r="D59" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E59" s="201" t="e">
         <f>_xll.qlRateHelperRate($D59)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="213">
+      <c r="F59" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D59)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D59)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D59)),_xll.qlSwapRateHelperSpread($D59))</f>
         <v>0</v>
       </c>
-      <c r="G59" s="214" t="e">
+      <c r="G59" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D59)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="215" t="e">
+      <c r="H59" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D59)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="209" t="e">
+      <c r="I59" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D60" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E60" s="213" t="e">
+      <c r="D60" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E60" s="201" t="e">
         <f>_xll.qlRateHelperRate($D60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F60" s="213">
+      <c r="F60" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D60)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D60)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D60)),_xll.qlSwapRateHelperSpread($D60))</f>
         <v>0</v>
       </c>
-      <c r="G60" s="214" t="e">
+      <c r="G60" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H60" s="215" t="e">
+      <c r="H60" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I60" s="209" t="e">
+      <c r="I60" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D61" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E61" s="213" t="e">
+      <c r="D61" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E61" s="201" t="e">
         <f>_xll.qlRateHelperRate($D61)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F61" s="213">
+      <c r="F61" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D61)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D61)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D61)),_xll.qlSwapRateHelperSpread($D61))</f>
         <v>0</v>
       </c>
-      <c r="G61" s="214" t="e">
+      <c r="G61" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D61)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H61" s="215" t="e">
+      <c r="H61" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D61)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I61" s="209" t="e">
+      <c r="I61" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D62" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E62" s="213" t="e">
+      <c r="D62" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E62" s="201" t="e">
         <f>_xll.qlRateHelperRate($D62)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F62" s="213">
+      <c r="F62" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D62)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D62)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D62)),_xll.qlSwapRateHelperSpread($D62))</f>
         <v>0</v>
       </c>
-      <c r="G62" s="214" t="e">
+      <c r="G62" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D62)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H62" s="215" t="e">
+      <c r="H62" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D62)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I62" s="209" t="e">
+      <c r="I62" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D63" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E63" s="213" t="e">
+      <c r="D63" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E63" s="201" t="e">
         <f>_xll.qlRateHelperRate($D63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F63" s="213">
+      <c r="F63" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D63)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D63)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D63)),_xll.qlSwapRateHelperSpread($D63))</f>
         <v>0</v>
       </c>
-      <c r="G63" s="214" t="e">
+      <c r="G63" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H63" s="215" t="e">
+      <c r="H63" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I63" s="209" t="e">
+      <c r="I63" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D64" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E64" s="213" t="e">
+      <c r="D64" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E64" s="201" t="e">
         <f>_xll.qlRateHelperRate($D64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F64" s="213">
+      <c r="F64" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D64)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D64)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D64)),_xll.qlSwapRateHelperSpread($D64))</f>
         <v>0</v>
       </c>
-      <c r="G64" s="214" t="e">
+      <c r="G64" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H64" s="215" t="e">
+      <c r="H64" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I64" s="209" t="e">
+      <c r="I64" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D65" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E65" s="213" t="e">
+      <c r="D65" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E65" s="201" t="e">
         <f>_xll.qlRateHelperRate($D65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F65" s="213">
+      <c r="F65" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D65)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D65)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D65)),_xll.qlSwapRateHelperSpread($D65))</f>
         <v>0</v>
       </c>
-      <c r="G65" s="214" t="e">
+      <c r="G65" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H65" s="215" t="e">
+      <c r="H65" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I65" s="209" t="e">
+      <c r="I65" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D66" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E66" s="213" t="e">
+      <c r="D66" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E66" s="201" t="e">
         <f>_xll.qlRateHelperRate($D66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F66" s="213">
+      <c r="F66" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D66)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D66)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D66)),_xll.qlSwapRateHelperSpread($D66))</f>
         <v>0</v>
       </c>
-      <c r="G66" s="214" t="e">
+      <c r="G66" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H66" s="215" t="e">
+      <c r="H66" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I66" s="209" t="e">
+      <c r="I66" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D67" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E67" s="213" t="e">
+      <c r="D67" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E67" s="201" t="e">
         <f>_xll.qlRateHelperRate($D67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F67" s="213">
+      <c r="F67" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D67)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D67)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D67)),_xll.qlSwapRateHelperSpread($D67))</f>
         <v>0</v>
       </c>
-      <c r="G67" s="214" t="e">
+      <c r="G67" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H67" s="215" t="e">
+      <c r="H67" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I67" s="209" t="e">
+      <c r="I67" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D68" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E68" s="213" t="e">
+      <c r="D68" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E68" s="201" t="e">
         <f>_xll.qlRateHelperRate($D68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F68" s="213">
+      <c r="F68" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D68)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D68)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D68)),_xll.qlSwapRateHelperSpread($D68))</f>
         <v>0</v>
       </c>
-      <c r="G68" s="214" t="e">
+      <c r="G68" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H68" s="215" t="e">
+      <c r="H68" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I68" s="209" t="e">
+      <c r="I68" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D69" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E69" s="213" t="e">
+      <c r="D69" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E69" s="201" t="e">
         <f>_xll.qlRateHelperRate($D69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F69" s="213">
+      <c r="F69" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D69)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D69)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D69)),_xll.qlSwapRateHelperSpread($D69))</f>
         <v>0</v>
       </c>
-      <c r="G69" s="214" t="e">
+      <c r="G69" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H69" s="215" t="e">
+      <c r="H69" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I69" s="209" t="e">
+      <c r="I69" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D70" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E70" s="213" t="e">
+      <c r="D70" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E70" s="201" t="e">
         <f>_xll.qlRateHelperRate($D70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F70" s="213">
+      <c r="F70" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D70)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D70)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D70)),_xll.qlSwapRateHelperSpread($D70))</f>
         <v>0</v>
       </c>
-      <c r="G70" s="214" t="e">
+      <c r="G70" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H70" s="215" t="e">
+      <c r="H70" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I70" s="209" t="e">
+      <c r="I70" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D71" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E71" s="213" t="e">
+      <c r="D71" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E71" s="201" t="e">
         <f>_xll.qlRateHelperRate($D71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F71" s="213">
+      <c r="F71" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D71)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D71)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D71)),_xll.qlSwapRateHelperSpread($D71))</f>
         <v>0</v>
       </c>
-      <c r="G71" s="214" t="e">
+      <c r="G71" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H71" s="215" t="e">
+      <c r="H71" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I71" s="209" t="e">
+      <c r="I71" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D72" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E72" s="213" t="e">
+      <c r="D72" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E72" s="201" t="e">
         <f>_xll.qlRateHelperRate($D72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F72" s="213">
+      <c r="F72" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D72)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D72)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D72)),_xll.qlSwapRateHelperSpread($D72))</f>
         <v>0</v>
       </c>
-      <c r="G72" s="214" t="e">
+      <c r="G72" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H72" s="215" t="e">
+      <c r="H72" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I72" s="209" t="e">
+      <c r="I72" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D73" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E73" s="213" t="e">
+      <c r="D73" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E73" s="201" t="e">
         <f>_xll.qlRateHelperRate($D73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F73" s="213">
+      <c r="F73" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D73)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D73)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D73)),_xll.qlSwapRateHelperSpread($D73))</f>
         <v>0</v>
       </c>
-      <c r="G73" s="214" t="e">
+      <c r="G73" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H73" s="215" t="e">
+      <c r="H73" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I73" s="209" t="e">
+      <c r="I73" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D74" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E74" s="213" t="e">
+      <c r="D74" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E74" s="201" t="e">
         <f>_xll.qlRateHelperRate($D74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F74" s="213">
+      <c r="F74" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D74)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D74)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D74)),_xll.qlSwapRateHelperSpread($D74))</f>
         <v>0</v>
       </c>
-      <c r="G74" s="214" t="e">
+      <c r="G74" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H74" s="215" t="e">
+      <c r="H74" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I74" s="209" t="e">
+      <c r="I74" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D75" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E75" s="213" t="e">
+      <c r="D75" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E75" s="201" t="e">
         <f>_xll.qlRateHelperRate($D75)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F75" s="213">
+      <c r="F75" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D75)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D75)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D75)),_xll.qlSwapRateHelperSpread($D75))</f>
         <v>0</v>
       </c>
-      <c r="G75" s="214" t="e">
+      <c r="G75" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D75)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H75" s="215" t="e">
+      <c r="H75" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D75)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I75" s="209" t="e">
+      <c r="I75" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D76" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E76" s="213" t="e">
+      <c r="D76" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E76" s="201" t="e">
         <f>_xll.qlRateHelperRate($D76)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F76" s="213">
+      <c r="F76" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D76)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D76)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D76)),_xll.qlSwapRateHelperSpread($D76))</f>
         <v>0</v>
       </c>
-      <c r="G76" s="214" t="e">
+      <c r="G76" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D76)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H76" s="215" t="e">
+      <c r="H76" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D76)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I76" s="209" t="e">
+      <c r="I76" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D77" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E77" s="213" t="e">
+      <c r="D77" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E77" s="201" t="e">
         <f>_xll.qlRateHelperRate($D77)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F77" s="213">
+      <c r="F77" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D77)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D77)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D77)),_xll.qlSwapRateHelperSpread($D77))</f>
         <v>0</v>
       </c>
-      <c r="G77" s="214" t="e">
+      <c r="G77" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D77)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H77" s="215" t="e">
+      <c r="H77" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D77)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I77" s="209" t="e">
+      <c r="I77" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D78" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E78" s="213" t="e">
+      <c r="D78" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E78" s="201" t="e">
         <f>_xll.qlRateHelperRate($D78)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F78" s="213">
+      <c r="F78" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D78)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D78)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D78)),_xll.qlSwapRateHelperSpread($D78))</f>
         <v>0</v>
       </c>
-      <c r="G78" s="214" t="e">
+      <c r="G78" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D78)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H78" s="215" t="e">
+      <c r="H78" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D78)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I78" s="209" t="e">
+      <c r="I78" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D79" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E79" s="213" t="e">
+      <c r="D79" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E79" s="201" t="e">
         <f>_xll.qlRateHelperRate($D79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F79" s="213">
+      <c r="F79" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D79)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D79)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D79)),_xll.qlSwapRateHelperSpread($D79))</f>
         <v>0</v>
       </c>
-      <c r="G79" s="214" t="e">
+      <c r="G79" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H79" s="215" t="e">
+      <c r="H79" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I79" s="209" t="e">
+      <c r="I79" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D80" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E80" s="213" t="e">
+      <c r="D80" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E80" s="201" t="e">
         <f>_xll.qlRateHelperRate($D80)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F80" s="213">
+      <c r="F80" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D80)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D80)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D80)),_xll.qlSwapRateHelperSpread($D80))</f>
         <v>0</v>
       </c>
-      <c r="G80" s="214" t="e">
+      <c r="G80" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D80)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H80" s="215" t="e">
+      <c r="H80" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D80)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I80" s="209" t="e">
+      <c r="I80" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D81" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E81" s="213" t="e">
+      <c r="D81" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E81" s="201" t="e">
         <f>_xll.qlRateHelperRate($D81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F81" s="213">
+      <c r="F81" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D81)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D81)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D81)),_xll.qlSwapRateHelperSpread($D81))</f>
         <v>0</v>
       </c>
-      <c r="G81" s="214" t="e">
+      <c r="G81" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H81" s="215" t="e">
+      <c r="H81" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I81" s="209" t="e">
+      <c r="I81" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D82" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E82" s="213" t="e">
+      <c r="D82" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E82" s="201" t="e">
         <f>_xll.qlRateHelperRate($D82)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F82" s="213">
+      <c r="F82" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D82)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D82)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D82)),_xll.qlSwapRateHelperSpread($D82))</f>
         <v>0</v>
       </c>
-      <c r="G82" s="214" t="e">
+      <c r="G82" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D82)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H82" s="215" t="e">
+      <c r="H82" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D82)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I82" s="209" t="e">
+      <c r="I82" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D83" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E83" s="213" t="e">
+      <c r="D83" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E83" s="201" t="e">
         <f>_xll.qlRateHelperRate($D83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F83" s="213">
+      <c r="F83" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D83)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D83)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D83)),_xll.qlSwapRateHelperSpread($D83))</f>
         <v>0</v>
       </c>
-      <c r="G83" s="214" t="e">
+      <c r="G83" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H83" s="215" t="e">
+      <c r="H83" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I83" s="209" t="e">
+      <c r="I83" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D84" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E84" s="213" t="e">
+      <c r="D84" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E84" s="201" t="e">
         <f>_xll.qlRateHelperRate($D84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F84" s="213">
+      <c r="F84" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D84)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D84)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D84)),_xll.qlSwapRateHelperSpread($D84))</f>
         <v>0</v>
       </c>
-      <c r="G84" s="214" t="e">
+      <c r="G84" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H84" s="215" t="e">
+      <c r="H84" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I84" s="209" t="e">
+      <c r="I84" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D85" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E85" s="213" t="e">
+      <c r="D85" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E85" s="201" t="e">
         <f>_xll.qlRateHelperRate($D85)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F85" s="213">
+      <c r="F85" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D85)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D85)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D85)),_xll.qlSwapRateHelperSpread($D85))</f>
         <v>0</v>
       </c>
-      <c r="G85" s="214" t="e">
+      <c r="G85" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D85)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H85" s="215" t="e">
+      <c r="H85" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D85)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I85" s="209" t="e">
+      <c r="I85" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D86" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E86" s="213" t="e">
+      <c r="D86" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E86" s="201" t="e">
         <f>_xll.qlRateHelperRate($D86)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F86" s="213">
+      <c r="F86" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D86)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D86)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D86)),_xll.qlSwapRateHelperSpread($D86))</f>
         <v>0</v>
       </c>
-      <c r="G86" s="214" t="e">
+      <c r="G86" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D86)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H86" s="215" t="e">
+      <c r="H86" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D86)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I86" s="209" t="e">
+      <c r="I86" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D87" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E87" s="213" t="e">
+      <c r="D87" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E87" s="201" t="e">
         <f>_xll.qlRateHelperRate($D87)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F87" s="213">
+      <c r="F87" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D87)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D87)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D87)),_xll.qlSwapRateHelperSpread($D87))</f>
         <v>0</v>
       </c>
-      <c r="G87" s="214" t="e">
+      <c r="G87" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D87)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H87" s="215" t="e">
+      <c r="H87" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D87)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I87" s="209" t="e">
+      <c r="I87" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D88" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E88" s="213" t="e">
+      <c r="D88" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E88" s="201" t="e">
         <f>_xll.qlRateHelperRate($D88)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F88" s="213">
+      <c r="F88" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D88)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D88)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D88)),_xll.qlSwapRateHelperSpread($D88))</f>
         <v>0</v>
       </c>
-      <c r="G88" s="214" t="e">
+      <c r="G88" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D88)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H88" s="215" t="e">
+      <c r="H88" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D88)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I88" s="209" t="e">
+      <c r="I88" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D89" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E89" s="213" t="e">
+      <c r="D89" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E89" s="201" t="e">
         <f>_xll.qlRateHelperRate($D89)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F89" s="213">
+      <c r="F89" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D89)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D89)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D89)),_xll.qlSwapRateHelperSpread($D89))</f>
         <v>0</v>
       </c>
-      <c r="G89" s="214" t="e">
+      <c r="G89" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D89)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H89" s="215" t="e">
+      <c r="H89" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D89)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I89" s="209" t="e">
+      <c r="I89" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D90" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E90" s="213" t="e">
+      <c r="D90" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E90" s="201" t="e">
         <f>_xll.qlRateHelperRate($D90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F90" s="213">
+      <c r="F90" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D90)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D90)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D90)),_xll.qlSwapRateHelperSpread($D90))</f>
         <v>0</v>
       </c>
-      <c r="G90" s="214" t="e">
+      <c r="G90" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H90" s="215" t="e">
+      <c r="H90" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I90" s="209" t="e">
+      <c r="I90" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D91" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E91" s="213" t="e">
+      <c r="D91" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E91" s="201" t="e">
         <f>_xll.qlRateHelperRate($D91)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F91" s="213">
+      <c r="F91" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D91)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D91)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D91)),_xll.qlSwapRateHelperSpread($D91))</f>
         <v>0</v>
       </c>
-      <c r="G91" s="214" t="e">
+      <c r="G91" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D91)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H91" s="215" t="e">
+      <c r="H91" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D91)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I91" s="209" t="e">
+      <c r="I91" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D92" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E92" s="213" t="e">
+      <c r="D92" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E92" s="201" t="e">
         <f>_xll.qlRateHelperRate($D92)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F92" s="213">
+      <c r="F92" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D92)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D92)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D92)),_xll.qlSwapRateHelperSpread($D92))</f>
         <v>0</v>
       </c>
-      <c r="G92" s="214" t="e">
+      <c r="G92" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D92)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H92" s="215" t="e">
+      <c r="H92" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D92)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I92" s="209" t="e">
+      <c r="I92" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D93" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E93" s="213" t="e">
+      <c r="D93" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E93" s="201" t="e">
         <f>_xll.qlRateHelperRate($D93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F93" s="213">
+      <c r="F93" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D93)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D93)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D93)),_xll.qlSwapRateHelperSpread($D93))</f>
         <v>0</v>
       </c>
-      <c r="G93" s="214" t="e">
+      <c r="G93" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H93" s="215" t="e">
+      <c r="H93" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I93" s="209" t="e">
+      <c r="I93" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D94" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E94" s="213" t="e">
+      <c r="D94" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E94" s="201" t="e">
         <f>_xll.qlRateHelperRate($D94)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F94" s="213">
+      <c r="F94" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D94)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D94)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D94)),_xll.qlSwapRateHelperSpread($D94))</f>
         <v>0</v>
       </c>
-      <c r="G94" s="214" t="e">
+      <c r="G94" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D94)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H94" s="215" t="e">
+      <c r="H94" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D94)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I94" s="209" t="e">
+      <c r="I94" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D95" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E95" s="213" t="e">
+      <c r="D95" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E95" s="201" t="e">
         <f>_xll.qlRateHelperRate($D95)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F95" s="213">
+      <c r="F95" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D95)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D95)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D95)),_xll.qlSwapRateHelperSpread($D95))</f>
         <v>0</v>
       </c>
-      <c r="G95" s="214" t="e">
+      <c r="G95" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D95)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H95" s="215" t="e">
+      <c r="H95" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D95)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I95" s="209" t="e">
+      <c r="I95" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D96" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E96" s="213" t="e">
+      <c r="D96" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E96" s="201" t="e">
         <f>_xll.qlRateHelperRate($D96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F96" s="213">
+      <c r="F96" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D96)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D96)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D96)),_xll.qlSwapRateHelperSpread($D96))</f>
         <v>0</v>
       </c>
-      <c r="G96" s="214" t="e">
+      <c r="G96" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H96" s="215" t="e">
+      <c r="H96" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I96" s="209" t="e">
+      <c r="I96" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D97" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E97" s="213" t="e">
+      <c r="D97" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E97" s="201" t="e">
         <f>_xll.qlRateHelperRate($D97)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F97" s="213">
+      <c r="F97" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D97)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D97)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D97)),_xll.qlSwapRateHelperSpread($D97))</f>
         <v>0</v>
       </c>
-      <c r="G97" s="214" t="e">
+      <c r="G97" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D97)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H97" s="215" t="e">
+      <c r="H97" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D97)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I97" s="209" t="e">
+      <c r="I97" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D98" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E98" s="213" t="e">
+      <c r="D98" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E98" s="201" t="e">
         <f>_xll.qlRateHelperRate($D98)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F98" s="213">
+      <c r="F98" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D98)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D98)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D98)),_xll.qlSwapRateHelperSpread($D98))</f>
         <v>0</v>
       </c>
-      <c r="G98" s="214" t="e">
+      <c r="G98" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D98)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H98" s="215" t="e">
+      <c r="H98" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D98)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I98" s="209" t="e">
+      <c r="I98" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D99" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E99" s="213" t="e">
+      <c r="D99" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E99" s="201" t="e">
         <f>_xll.qlRateHelperRate($D99)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F99" s="213">
+      <c r="F99" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D99)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D99)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D99)),_xll.qlSwapRateHelperSpread($D99))</f>
         <v>0</v>
       </c>
-      <c r="G99" s="214" t="e">
+      <c r="G99" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D99)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H99" s="215" t="e">
+      <c r="H99" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D99)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I99" s="209" t="e">
+      <c r="I99" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D100" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E100" s="213" t="e">
+      <c r="D100" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E100" s="201" t="e">
         <f>_xll.qlRateHelperRate($D100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F100" s="213">
+      <c r="F100" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D100)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D100)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D100)),_xll.qlSwapRateHelperSpread($D100))</f>
         <v>0</v>
       </c>
-      <c r="G100" s="214" t="e">
+      <c r="G100" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H100" s="215" t="e">
+      <c r="H100" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I100" s="209" t="e">
+      <c r="I100" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D101" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E101" s="213" t="e">
+      <c r="D101" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E101" s="201" t="e">
         <f>_xll.qlRateHelperRate($D101)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F101" s="213">
+      <c r="F101" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D101)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D101)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D101)),_xll.qlSwapRateHelperSpread($D101))</f>
         <v>0</v>
       </c>
-      <c r="G101" s="214" t="e">
+      <c r="G101" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D101)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H101" s="215" t="e">
+      <c r="H101" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D101)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I101" s="209" t="e">
+      <c r="I101" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D102" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E102" s="213" t="e">
+      <c r="D102" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E102" s="201" t="e">
         <f>_xll.qlRateHelperRate($D102)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F102" s="213">
+      <c r="F102" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D102)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D102)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D102)),_xll.qlSwapRateHelperSpread($D102))</f>
         <v>0</v>
       </c>
-      <c r="G102" s="214" t="e">
+      <c r="G102" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D102)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H102" s="215" t="e">
+      <c r="H102" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D102)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I102" s="209" t="e">
+      <c r="I102" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D103" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E103" s="213" t="e">
+      <c r="D103" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E103" s="201" t="e">
         <f>_xll.qlRateHelperRate($D103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F103" s="213">
+      <c r="F103" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D103)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D103)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D103)),_xll.qlSwapRateHelperSpread($D103))</f>
         <v>0</v>
       </c>
-      <c r="G103" s="214" t="e">
+      <c r="G103" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H103" s="215" t="e">
+      <c r="H103" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I103" s="209" t="e">
+      <c r="I103" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D104" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E104" s="213" t="e">
+      <c r="D104" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E104" s="201" t="e">
         <f>_xll.qlRateHelperRate($D104)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F104" s="213">
+      <c r="F104" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D104)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D104)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D104)),_xll.qlSwapRateHelperSpread($D104))</f>
         <v>0</v>
       </c>
-      <c r="G104" s="214" t="e">
+      <c r="G104" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D104)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H104" s="215" t="e">
+      <c r="H104" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D104)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I104" s="209" t="e">
+      <c r="I104" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D105" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E105" s="213" t="e">
+      <c r="D105" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E105" s="201" t="e">
         <f>_xll.qlRateHelperRate($D105)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="213">
+      <c r="F105" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D105)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D105)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D105)),_xll.qlSwapRateHelperSpread($D105))</f>
         <v>0</v>
       </c>
-      <c r="G105" s="214" t="e">
+      <c r="G105" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D105)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H105" s="215" t="e">
+      <c r="H105" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D105)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I105" s="209" t="e">
+      <c r="I105" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D106" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E106" s="213" t="e">
+      <c r="D106" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E106" s="201" t="e">
         <f>_xll.qlRateHelperRate($D106)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F106" s="213">
+      <c r="F106" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D106)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D106)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D106)),_xll.qlSwapRateHelperSpread($D106))</f>
         <v>0</v>
       </c>
-      <c r="G106" s="214" t="e">
+      <c r="G106" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D106)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H106" s="215" t="e">
+      <c r="H106" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D106)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I106" s="209" t="e">
+      <c r="I106" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D107" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E107" s="213" t="e">
+      <c r="D107" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E107" s="201" t="e">
         <f>_xll.qlRateHelperRate($D107)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F107" s="213">
+      <c r="F107" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D107)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D107)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D107)),_xll.qlSwapRateHelperSpread($D107))</f>
         <v>0</v>
       </c>
-      <c r="G107" s="214" t="e">
+      <c r="G107" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D107)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H107" s="215" t="e">
+      <c r="H107" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D107)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I107" s="209" t="e">
+      <c r="I107" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D108" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E108" s="213" t="e">
+      <c r="D108" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E108" s="201" t="e">
         <f>_xll.qlRateHelperRate($D108)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F108" s="213">
+      <c r="F108" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D108)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D108)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D108)),_xll.qlSwapRateHelperSpread($D108))</f>
         <v>0</v>
       </c>
-      <c r="G108" s="214" t="e">
+      <c r="G108" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D108)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H108" s="215" t="e">
+      <c r="H108" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D108)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I108" s="209" t="e">
+      <c r="I108" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D109" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E109" s="213" t="e">
+      <c r="D109" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E109" s="201" t="e">
         <f>_xll.qlRateHelperRate($D109)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F109" s="213">
+      <c r="F109" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D109)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D109)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D109)),_xll.qlSwapRateHelperSpread($D109))</f>
         <v>0</v>
       </c>
-      <c r="G109" s="214" t="e">
+      <c r="G109" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D109)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H109" s="215" t="e">
+      <c r="H109" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D109)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I109" s="209" t="e">
+      <c r="I109" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D110" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E110" s="213" t="e">
+      <c r="D110" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E110" s="201" t="e">
         <f>_xll.qlRateHelperRate($D110)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F110" s="213">
+      <c r="F110" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D110)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D110)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D110)),_xll.qlSwapRateHelperSpread($D110))</f>
         <v>0</v>
       </c>
-      <c r="G110" s="214" t="e">
+      <c r="G110" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D110)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H110" s="215" t="e">
+      <c r="H110" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D110)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I110" s="209" t="e">
+      <c r="I110" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D111" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E111" s="213" t="e">
+      <c r="D111" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E111" s="201" t="e">
         <f>_xll.qlRateHelperRate($D111)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F111" s="213">
+      <c r="F111" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D111)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D111)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D111)),_xll.qlSwapRateHelperSpread($D111))</f>
         <v>0</v>
       </c>
-      <c r="G111" s="214" t="e">
+      <c r="G111" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D111)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H111" s="215" t="e">
+      <c r="H111" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D111)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I111" s="209" t="e">
+      <c r="I111" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D112" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E112" s="213" t="e">
+      <c r="D112" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E112" s="201" t="e">
         <f>_xll.qlRateHelperRate($D112)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F112" s="213">
+      <c r="F112" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D112)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D112)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D112)),_xll.qlSwapRateHelperSpread($D112))</f>
         <v>0</v>
       </c>
-      <c r="G112" s="214" t="e">
+      <c r="G112" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D112)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H112" s="215" t="e">
+      <c r="H112" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D112)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I112" s="209" t="e">
+      <c r="I112" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D113" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E113" s="213" t="e">
+      <c r="D113" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E113" s="201" t="e">
         <f>_xll.qlRateHelperRate($D113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F113" s="213">
+      <c r="F113" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D113)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D113)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D113)),_xll.qlSwapRateHelperSpread($D113))</f>
         <v>0</v>
       </c>
-      <c r="G113" s="214" t="e">
+      <c r="G113" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H113" s="215" t="e">
+      <c r="H113" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I113" s="209" t="e">
+      <c r="I113" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D114" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E114" s="213" t="e">
+      <c r="D114" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E114" s="201" t="e">
         <f>_xll.qlRateHelperRate($D114)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F114" s="213">
+      <c r="F114" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D114)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D114)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D114)),_xll.qlSwapRateHelperSpread($D114))</f>
         <v>0</v>
       </c>
-      <c r="G114" s="214" t="e">
+      <c r="G114" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D114)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H114" s="215" t="e">
+      <c r="H114" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D114)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I114" s="209" t="e">
+      <c r="I114" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D115" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E115" s="213" t="e">
+      <c r="D115" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E115" s="201" t="e">
         <f>_xll.qlRateHelperRate($D115)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F115" s="213">
+      <c r="F115" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D115)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D115)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D115)),_xll.qlSwapRateHelperSpread($D115))</f>
         <v>0</v>
       </c>
-      <c r="G115" s="214" t="e">
+      <c r="G115" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D115)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H115" s="215" t="e">
+      <c r="H115" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D115)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I115" s="209" t="e">
+      <c r="I115" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D116" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E116" s="213" t="e">
+      <c r="D116" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E116" s="201" t="e">
         <f>_xll.qlRateHelperRate($D116)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F116" s="213">
+      <c r="F116" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D116)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D116)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D116)),_xll.qlSwapRateHelperSpread($D116))</f>
         <v>0</v>
       </c>
-      <c r="G116" s="214" t="e">
+      <c r="G116" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D116)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H116" s="215" t="e">
+      <c r="H116" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D116)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I116" s="209" t="e">
+      <c r="I116" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D117" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E117" s="213" t="e">
+      <c r="D117" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E117" s="201" t="e">
         <f>_xll.qlRateHelperRate($D117)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F117" s="213">
+      <c r="F117" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D117)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D117)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D117)),_xll.qlSwapRateHelperSpread($D117))</f>
         <v>0</v>
       </c>
-      <c r="G117" s="214" t="e">
+      <c r="G117" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D117)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H117" s="215" t="e">
+      <c r="H117" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D117)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I117" s="209" t="e">
+      <c r="I117" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D118" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E118" s="213" t="e">
+      <c r="D118" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E118" s="201" t="e">
         <f>_xll.qlRateHelperRate($D118)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F118" s="213">
+      <c r="F118" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D118)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D118)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D118)),_xll.qlSwapRateHelperSpread($D118))</f>
         <v>0</v>
       </c>
-      <c r="G118" s="214" t="e">
+      <c r="G118" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D118)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H118" s="215" t="e">
+      <c r="H118" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D118)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I118" s="209" t="e">
+      <c r="I118" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D119" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E119" s="213" t="e">
+      <c r="D119" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E119" s="201" t="e">
         <f>_xll.qlRateHelperRate($D119)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F119" s="213">
+      <c r="F119" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D119)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D119)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D119)),_xll.qlSwapRateHelperSpread($D119))</f>
         <v>0</v>
       </c>
-      <c r="G119" s="214" t="e">
+      <c r="G119" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D119)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H119" s="215" t="e">
+      <c r="H119" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D119)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I119" s="209" t="e">
+      <c r="I119" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D120" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E120" s="213" t="e">
+      <c r="D120" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E120" s="201" t="e">
         <f>_xll.qlRateHelperRate($D120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F120" s="213">
+      <c r="F120" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D120)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D120)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D120)),_xll.qlSwapRateHelperSpread($D120))</f>
         <v>0</v>
       </c>
-      <c r="G120" s="214" t="e">
+      <c r="G120" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H120" s="215" t="e">
+      <c r="H120" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I120" s="209" t="e">
+      <c r="I120" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D121" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E121" s="213" t="e">
+      <c r="D121" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E121" s="201" t="e">
         <f>_xll.qlRateHelperRate($D121)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F121" s="213">
+      <c r="F121" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D121)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D121)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D121)),_xll.qlSwapRateHelperSpread($D121))</f>
         <v>0</v>
       </c>
-      <c r="G121" s="214" t="e">
+      <c r="G121" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D121)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H121" s="215" t="e">
+      <c r="H121" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D121)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I121" s="209" t="e">
+      <c r="I121" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D122" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E122" s="213" t="e">
+      <c r="D122" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E122" s="201" t="e">
         <f>_xll.qlRateHelperRate($D122)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F122" s="213">
+      <c r="F122" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D122)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D122)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D122)),_xll.qlSwapRateHelperSpread($D122))</f>
         <v>0</v>
       </c>
-      <c r="G122" s="214" t="e">
+      <c r="G122" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D122)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H122" s="215" t="e">
+      <c r="H122" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D122)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I122" s="209" t="e">
+      <c r="I122" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D123" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E123" s="213" t="e">
+      <c r="D123" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E123" s="201" t="e">
         <f>_xll.qlRateHelperRate($D123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F123" s="213">
+      <c r="F123" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D123)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D123)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D123)),_xll.qlSwapRateHelperSpread($D123))</f>
         <v>0</v>
       </c>
-      <c r="G123" s="214" t="e">
+      <c r="G123" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H123" s="215" t="e">
+      <c r="H123" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I123" s="209" t="e">
+      <c r="I123" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D124" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E124" s="213" t="e">
+      <c r="D124" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E124" s="201" t="e">
         <f>_xll.qlRateHelperRate($D124)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F124" s="213">
+      <c r="F124" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D124)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D124)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D124)),_xll.qlSwapRateHelperSpread($D124))</f>
         <v>0</v>
       </c>
-      <c r="G124" s="214" t="e">
+      <c r="G124" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D124)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H124" s="215" t="e">
+      <c r="H124" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D124)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I124" s="209" t="e">
+      <c r="I124" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D125" s="212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E125" s="213" t="e">
+      <c r="D125" s="200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E125" s="201" t="e">
         <f>_xll.qlRateHelperRate($D125)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F125" s="213">
+      <c r="F125" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D125)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D125)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D125)),_xll.qlSwapRateHelperSpread($D125))</f>
         <v>0</v>
       </c>
-      <c r="G125" s="214" t="e">
+      <c r="G125" s="212" t="e">
         <f>_xll.qlRateHelperEarliestDate($D125)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H125" s="215" t="e">
+      <c r="H125" s="213" t="e">
         <f>_xll.qlRateHelperLatestDate($D125)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I125" s="209" t="e">
+      <c r="I125" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="4:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D126" s="223" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E126" s="224" t="e">
+      <c r="D126" s="209" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E126" s="210" t="e">
         <f>_xll.qlRateHelperRate($D126)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F126" s="224">
+      <c r="F126" s="210">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D126)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D126)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D126)),_xll.qlSwapRateHelperSpread($D126))</f>
         <v>0</v>
       </c>
-      <c r="G126" s="225" t="e">
+      <c r="G126" s="214" t="e">
         <f>_xll.qlRateHelperEarliestDate($D126)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H126" s="226" t="e">
+      <c r="H126" s="215" t="e">
         <f>_xll.qlRateHelperLatestDate($D126)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I126" s="209" t="e">
+      <c r="I126" s="197" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -14887,7 +14859,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="161" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="160"/>
       <c r="C1" s="160"/>
@@ -14931,7 +14903,7 @@
         <v>138</v>
       </c>
       <c r="C3" s="151" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="146" t="str">
         <f>Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
@@ -14943,7 +14915,7 @@
       </c>
       <c r="F3" s="144" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_OND#0007</v>
+        <v>USD_YCSTDRH_OND#0001</v>
       </c>
       <c r="G3" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -14970,7 +14942,7 @@
       </c>
       <c r="F4" s="144" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_SWD#0007</v>
+        <v>USD_YCSTDRH_SWD#0001</v>
       </c>
       <c r="G4" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -14997,7 +14969,7 @@
       </c>
       <c r="F5" s="144" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_1MD#0003</v>
+        <v>USD_YCSTDRH_1MD#0001</v>
       </c>
       <c r="G5" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -15024,7 +14996,7 @@
       </c>
       <c r="F6" s="144" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_2MD#0003</v>
+        <v>USD_YCSTDRH_2MD#0001</v>
       </c>
       <c r="G6" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -15051,7 +15023,7 @@
       </c>
       <c r="F7" s="144" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_3MD#0003</v>
+        <v>USD_YCSTDRH_3MD#0001</v>
       </c>
       <c r="G7" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -15078,7 +15050,7 @@
       </c>
       <c r="F8" s="144" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_6MD#0003</v>
+        <v>USD_YCSTDRH_6MD#0001</v>
       </c>
       <c r="G8" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -15105,7 +15077,7 @@
       </c>
       <c r="F9" s="144" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_1YD#0003</v>
+        <v>USD_YCSTDRH_1YD#0001</v>
       </c>
       <c r="G9" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -15145,7 +15117,7 @@
     <col min="2" max="2" width="3" style="73" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="73" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="73" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="73" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="74" bestFit="1" customWidth="1"/>
@@ -15156,7 +15128,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="188" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -15209,7 +15181,7 @@
         <v>113</v>
       </c>
       <c r="E3" s="86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="86" t="str">
         <f>Currency&amp;C3&amp;D3&amp;"_Quote"</f>
@@ -15221,7 +15193,7 @@
       </c>
       <c r="H3" s="86" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_TND#0003</v>
+        <v>USD_YCSTDRH_TND#0001</v>
       </c>
       <c r="I3" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -15241,7 +15213,7 @@
         <v>113</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" s="81" t="str">
         <f>Currency&amp;C4&amp;D4&amp;"_Quote"</f>
@@ -15253,7 +15225,7 @@
       </c>
       <c r="H4" s="81" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_SND#0003</v>
+        <v>USD_YCSTDRH_SND#0001</v>
       </c>
       <c r="I4" s="80" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -15312,7 +15284,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
@@ -15394,7 +15366,7 @@
       </c>
       <c r="I3" s="128" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MK4#0009</v>
+        <v>USD_YCSTDRH_FUT3MK4#0001</v>
       </c>
       <c r="J3" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -15432,7 +15404,7 @@
       </c>
       <c r="I4" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM4#0007</v>
+        <v>USD_YCSTDRH_FUT3MM4#0001</v>
       </c>
       <c r="J4" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -15470,7 +15442,7 @@
       </c>
       <c r="I5" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MN4#0007</v>
+        <v>USD_YCSTDRH_FUT3MN4#0001</v>
       </c>
       <c r="J5" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -15508,7 +15480,7 @@
       </c>
       <c r="I6" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MQ4#0007</v>
+        <v>USD_YCSTDRH_FUT3MQ4#0001</v>
       </c>
       <c r="J6" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -15546,7 +15518,7 @@
       </c>
       <c r="I7" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU4#0007</v>
+        <v>USD_YCSTDRH_FUT3MU4#0001</v>
       </c>
       <c r="J7" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -15584,7 +15556,7 @@
       </c>
       <c r="I8" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MV4#0007</v>
+        <v>USD_YCSTDRH_FUT3MV4#0001</v>
       </c>
       <c r="J8" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -15622,7 +15594,7 @@
       </c>
       <c r="I9" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MX4#0007</v>
+        <v>USD_YCSTDRH_FUT3MX4#0001</v>
       </c>
       <c r="J9" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -15660,7 +15632,7 @@
       </c>
       <c r="I10" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ4#0007</v>
+        <v>USD_YCSTDRH_FUT3MZ4#0001</v>
       </c>
       <c r="J10" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -15698,7 +15670,7 @@
       </c>
       <c r="I11" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MF5#0007</v>
+        <v>USD_YCSTDRH_FUT3MF5#0001</v>
       </c>
       <c r="J11" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -15736,7 +15708,7 @@
       </c>
       <c r="I12" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MG5#0007</v>
+        <v>USD_YCSTDRH_FUT3MG5#0001</v>
       </c>
       <c r="J12" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -15774,7 +15746,7 @@
       </c>
       <c r="I13" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH5#0007</v>
+        <v>USD_YCSTDRH_FUT3MH5#0001</v>
       </c>
       <c r="J13" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -15812,7 +15784,7 @@
       </c>
       <c r="I14" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MJ5#0007</v>
+        <v>USD_YCSTDRH_FUT3MJ5#0001</v>
       </c>
       <c r="J14" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -15850,7 +15822,7 @@
       </c>
       <c r="I15" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM5#0003</v>
+        <v>USD_YCSTDRH_FUT3MM5#0001</v>
       </c>
       <c r="J15" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -15888,7 +15860,7 @@
       </c>
       <c r="I16" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU5#0004</v>
+        <v>USD_YCSTDRH_FUT3MU5#0001</v>
       </c>
       <c r="J16" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -15926,7 +15898,7 @@
       </c>
       <c r="I17" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ5#0003</v>
+        <v>USD_YCSTDRH_FUT3MZ5#0001</v>
       </c>
       <c r="J17" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -15964,7 +15936,7 @@
       </c>
       <c r="I18" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH6#0003</v>
+        <v>USD_YCSTDRH_FUT3MH6#0001</v>
       </c>
       <c r="J18" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -16002,7 +15974,7 @@
       </c>
       <c r="I19" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM6#0004</v>
+        <v>USD_YCSTDRH_FUT3MM6#0001</v>
       </c>
       <c r="J19" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -16040,7 +16012,7 @@
       </c>
       <c r="I20" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU6#0003</v>
+        <v>USD_YCSTDRH_FUT3MU6#0001</v>
       </c>
       <c r="J20" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -16078,7 +16050,7 @@
       </c>
       <c r="I21" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ6#0003</v>
+        <v>USD_YCSTDRH_FUT3MZ6#0001</v>
       </c>
       <c r="J21" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -16116,7 +16088,7 @@
       </c>
       <c r="I22" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH7#0004</v>
+        <v>USD_YCSTDRH_FUT3MH7#0001</v>
       </c>
       <c r="J22" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -16154,7 +16126,7 @@
       </c>
       <c r="I23" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM7#0003</v>
+        <v>USD_YCSTDRH_FUT3MM7#0001</v>
       </c>
       <c r="J23" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -16192,7 +16164,7 @@
       </c>
       <c r="I24" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU7#0003</v>
+        <v>USD_YCSTDRH_FUT3MU7#0001</v>
       </c>
       <c r="J24" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -16230,7 +16202,7 @@
       </c>
       <c r="I25" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ7#0004</v>
+        <v>USD_YCSTDRH_FUT3MZ7#0001</v>
       </c>
       <c r="J25" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -16268,7 +16240,7 @@
       </c>
       <c r="I26" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH8#0003</v>
+        <v>USD_YCSTDRH_FUT3MH8#0001</v>
       </c>
       <c r="J26" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -16306,7 +16278,7 @@
       </c>
       <c r="I27" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM8#0003</v>
+        <v>USD_YCSTDRH_FUT3MM8#0001</v>
       </c>
       <c r="J27" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -16344,7 +16316,7 @@
       </c>
       <c r="I28" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU8#0004</v>
+        <v>USD_YCSTDRH_FUT3MU8#0001</v>
       </c>
       <c r="J28" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -16382,7 +16354,7 @@
       </c>
       <c r="I29" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ8#0003</v>
+        <v>USD_YCSTDRH_FUT3MZ8#0001</v>
       </c>
       <c r="J29" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -16420,7 +16392,7 @@
       </c>
       <c r="I30" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH9#0003</v>
+        <v>USD_YCSTDRH_FUT3MH9#0001</v>
       </c>
       <c r="J30" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -16458,7 +16430,7 @@
       </c>
       <c r="I31" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM9#0004</v>
+        <v>USD_YCSTDRH_FUT3MM9#0001</v>
       </c>
       <c r="J31" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -16496,7 +16468,7 @@
       </c>
       <c r="I32" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU9#0003</v>
+        <v>USD_YCSTDRH_FUT3MU9#0001</v>
       </c>
       <c r="J32" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -16534,7 +16506,7 @@
       </c>
       <c r="I33" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ9#0003</v>
+        <v>USD_YCSTDRH_FUT3MZ9#0001</v>
       </c>
       <c r="J33" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -16572,7 +16544,7 @@
       </c>
       <c r="I34" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH0#0004</v>
+        <v>USD_YCSTDRH_FUT3MH0#0001</v>
       </c>
       <c r="J34" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -16610,7 +16582,7 @@
       </c>
       <c r="I35" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM0#0003</v>
+        <v>USD_YCSTDRH_FUT3MM0#0001</v>
       </c>
       <c r="J35" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -16648,7 +16620,7 @@
       </c>
       <c r="I36" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU0#0003</v>
+        <v>USD_YCSTDRH_FUT3MU0#0001</v>
       </c>
       <c r="J36" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -16686,7 +16658,7 @@
       </c>
       <c r="I37" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ0#0004</v>
+        <v>USD_YCSTDRH_FUT3MZ0#0001</v>
       </c>
       <c r="J37" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -16724,7 +16696,7 @@
       </c>
       <c r="I38" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH1#0003</v>
+        <v>USD_YCSTDRH_FUT3MH1#0001</v>
       </c>
       <c r="J38" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -16762,7 +16734,7 @@
       </c>
       <c r="I39" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM1#0003</v>
+        <v>USD_YCSTDRH_FUT3MM1#0001</v>
       </c>
       <c r="J39" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -16800,7 +16772,7 @@
       </c>
       <c r="I40" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU1#0004</v>
+        <v>USD_YCSTDRH_FUT3MU1#0001</v>
       </c>
       <c r="J40" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -16837,7 +16809,7 @@
       </c>
       <c r="I41" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ1#0003</v>
+        <v>USD_YCSTDRH_FUT3MZ1#0001</v>
       </c>
       <c r="J41" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -16874,7 +16846,7 @@
       </c>
       <c r="I42" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH2#0003</v>
+        <v>USD_YCSTDRH_FUT3MH2#0001</v>
       </c>
       <c r="J42" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -16911,7 +16883,7 @@
       </c>
       <c r="I43" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM2#0003</v>
+        <v>USD_YCSTDRH_FUT3MM2#0001</v>
       </c>
       <c r="J43" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -16948,7 +16920,7 @@
       </c>
       <c r="I44" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU2#0002</v>
+        <v>USD_YCSTDRH_FUT3MU2#0001</v>
       </c>
       <c r="J44" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -17010,7 +16982,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="188" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -17104,7 +17076,7 @@
       </c>
       <c r="L4" s="184" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YCSTDRH_AM3L_Libor6M#0003</v>
+        <v>USD_YCSTDRH_AM3L_Libor6M#0001</v>
       </c>
       <c r="M4" s="183" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -17167,8 +17139,8 @@
         <v>USD_YCSTDRH_AM3L1Y</v>
       </c>
       <c r="L6" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar2,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L1Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L1Y#0001</v>
       </c>
       <c r="M6" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -17218,8 +17190,8 @@
         <v>USD_YCSTDRH_AM3L15M</v>
       </c>
       <c r="L7" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar2,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L15M#0003</v>
+        <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L15M#0001</v>
       </c>
       <c r="M7" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -17273,8 +17245,8 @@
         <v>USD_YCSTDRH_AM3L18M</v>
       </c>
       <c r="L8" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar2,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L18M#0003</v>
+        <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L18M#0001</v>
       </c>
       <c r="M8" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -17328,8 +17300,8 @@
         <v>USD_YCSTDRH_AM3L21M</v>
       </c>
       <c r="L9" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar2,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L21M#0003</v>
+        <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L21M#0001</v>
       </c>
       <c r="M9" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -17379,8 +17351,8 @@
         <v>USD_YCSTDRH_AM3L2Y</v>
       </c>
       <c r="L10" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar2,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L2Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L2Y#0001</v>
       </c>
       <c r="M10" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -17434,8 +17406,8 @@
         <v>USD_YCSTDRH_AM3L3Y</v>
       </c>
       <c r="L11" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar2,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L3Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L3Y#0001</v>
       </c>
       <c r="M11" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -17480,8 +17452,8 @@
         <v>USD_YCSTDRH_AM3L4Y</v>
       </c>
       <c r="L12" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar2,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L4Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L4Y#0001</v>
       </c>
       <c r="M12" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -17526,8 +17498,8 @@
         <v>USD_YCSTDRH_AM3L5Y</v>
       </c>
       <c r="L13" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar2,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L5Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L5Y#0001</v>
       </c>
       <c r="M13" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -17572,8 +17544,8 @@
         <v>USD_YCSTDRH_AM3L6Y</v>
       </c>
       <c r="L14" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar2,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L6Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L6Y#0001</v>
       </c>
       <c r="M14" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -17618,8 +17590,8 @@
         <v>USD_YCSTDRH_AM3L7Y</v>
       </c>
       <c r="L15" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar2,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L7Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L7Y#0001</v>
       </c>
       <c r="M15" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -17664,8 +17636,8 @@
         <v>USD_YCSTDRH_AM3L8Y</v>
       </c>
       <c r="L16" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar2,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L8Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L8Y#0001</v>
       </c>
       <c r="M16" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -17710,8 +17682,8 @@
         <v>USD_YCSTDRH_AM3L9Y</v>
       </c>
       <c r="L17" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar2,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L9Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L9Y#0001</v>
       </c>
       <c r="M17" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -17756,8 +17728,8 @@
         <v>USD_YCSTDRH_AM3L10Y</v>
       </c>
       <c r="L18" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar2,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L10Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L10Y#0001</v>
       </c>
       <c r="M18" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -17802,8 +17774,8 @@
         <v>USD_YCSTDRH_AM3L11Y</v>
       </c>
       <c r="L19" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar2,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L11Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L11Y#0001</v>
       </c>
       <c r="M19" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -17848,8 +17820,8 @@
         <v>USD_YCSTDRH_AM3L12Y</v>
       </c>
       <c r="L20" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar2,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L12Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L12Y#0001</v>
       </c>
       <c r="M20" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -17894,8 +17866,8 @@
         <v>USD_YCSTDRH_AM3L13Y</v>
       </c>
       <c r="L21" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar2,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L13Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L13Y#0001</v>
       </c>
       <c r="M21" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -17940,8 +17912,8 @@
         <v>USD_YCSTDRH_AM3L14Y</v>
       </c>
       <c r="L22" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar2,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L14Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L14Y#0001</v>
       </c>
       <c r="M22" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -17986,8 +17958,8 @@
         <v>USD_YCSTDRH_AM3L15Y</v>
       </c>
       <c r="L23" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar2,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L15Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L15Y#0001</v>
       </c>
       <c r="M23" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -18032,8 +18004,8 @@
         <v>USD_YCSTDRH_AM3L16Y</v>
       </c>
       <c r="L24" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar2,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L16Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L16Y#0001</v>
       </c>
       <c r="M24" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -18078,8 +18050,8 @@
         <v>USD_YCSTDRH_AM3L17Y</v>
       </c>
       <c r="L25" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar2,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L17Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L17Y#0001</v>
       </c>
       <c r="M25" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -18124,8 +18096,8 @@
         <v>USD_YCSTDRH_AM3L18Y</v>
       </c>
       <c r="L26" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar2,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L18Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L18Y#0001</v>
       </c>
       <c r="M26" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -18170,8 +18142,8 @@
         <v>USD_YCSTDRH_AM3L19Y</v>
       </c>
       <c r="L27" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar2,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L19Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L19Y#0001</v>
       </c>
       <c r="M27" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -18216,8 +18188,8 @@
         <v>USD_YCSTDRH_AM3L20Y</v>
       </c>
       <c r="L28" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar2,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L20Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L20Y#0001</v>
       </c>
       <c r="M28" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -18262,8 +18234,8 @@
         <v>USD_YCSTDRH_AM3L21Y</v>
       </c>
       <c r="L29" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar2,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L21Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L21Y#0001</v>
       </c>
       <c r="M29" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -18308,8 +18280,8 @@
         <v>USD_YCSTDRH_AM3L22Y</v>
       </c>
       <c r="L30" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar2,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L22Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L22Y#0001</v>
       </c>
       <c r="M30" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -18354,8 +18326,8 @@
         <v>USD_YCSTDRH_AM3L23Y</v>
       </c>
       <c r="L31" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar2,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L23Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L23Y#0001</v>
       </c>
       <c r="M31" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -18400,8 +18372,8 @@
         <v>USD_YCSTDRH_AM3L24Y</v>
       </c>
       <c r="L32" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar2,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L24Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L24Y#0001</v>
       </c>
       <c r="M32" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -18446,8 +18418,8 @@
         <v>USD_YCSTDRH_AM3L25Y</v>
       </c>
       <c r="L33" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar2,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L25Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L25Y#0001</v>
       </c>
       <c r="M33" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -18492,8 +18464,8 @@
         <v>USD_YCSTDRH_AM3L26Y</v>
       </c>
       <c r="L34" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar2,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L26Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L26Y#0001</v>
       </c>
       <c r="M34" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -18538,8 +18510,8 @@
         <v>USD_YCSTDRH_AM3L27Y</v>
       </c>
       <c r="L35" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar2,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L27Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L27Y#0001</v>
       </c>
       <c r="M35" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -18584,8 +18556,8 @@
         <v>USD_YCSTDRH_AM3L28Y</v>
       </c>
       <c r="L36" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar2,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L28Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L28Y#0001</v>
       </c>
       <c r="M36" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -18630,8 +18602,8 @@
         <v>USD_YCSTDRH_AM3L29Y</v>
       </c>
       <c r="L37" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar2,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L29Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L29Y#0001</v>
       </c>
       <c r="M37" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -18676,8 +18648,8 @@
         <v>USD_YCSTDRH_AM3L30Y</v>
       </c>
       <c r="L38" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar2,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L30Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L30Y#0001</v>
       </c>
       <c r="M38" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -18722,8 +18694,8 @@
         <v>USD_YCSTDRH_AM3L35Y</v>
       </c>
       <c r="L39" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar2,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L35Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L35Y#0001</v>
       </c>
       <c r="M39" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -18768,8 +18740,8 @@
         <v>USD_YCSTDRH_AM3L40Y</v>
       </c>
       <c r="L40" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar2,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L40Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L40Y#0001</v>
       </c>
       <c r="M40" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -18814,8 +18786,8 @@
         <v>USD_YCSTDRH_AM3L50Y</v>
       </c>
       <c r="L41" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar2,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L50Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L50Y#0001</v>
       </c>
       <c r="M41" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -18860,8 +18832,8 @@
         <v>USD_YCSTDRH_AM3L60Y</v>
       </c>
       <c r="L42" s="166" t="str">
-        <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar2,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L60Y#0003</v>
+        <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>USD_YCSTDRH_AM3L60Y#0001</v>
       </c>
       <c r="M42" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/USD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15285" yWindow="-15" windowWidth="15330" windowHeight="7695" tabRatio="726" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="7680" windowHeight="7695" tabRatio="726" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D14" s="58" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYCSTD#0000</v>
+        <v>_USDYCSTD#0002</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="39"/>
@@ -3097,11 +3097,11 @@
       <c r="B23" s="41"/>
       <c r="C23" s="45">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="D23" s="44">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
-        <v>3.5676308284633224E-2</v>
+        <v>3.5262650960680236E-2</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="39"/>
@@ -3138,11 +3138,11 @@
       <c r="B24" s="41"/>
       <c r="C24" s="43">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>60029</v>
+        <v>60030</v>
       </c>
       <c r="D24" s="42">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>1.3581755403316959E-3</v>
+        <v>1.3039615566045179E-3</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="39"/>
@@ -3259,7 +3259,10 @@
       <c r="A27" s="35"/>
       <c r="B27" s="38"/>
       <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="D27" s="37" t="b">
+        <f>_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
+        <v>1</v>
+      </c>
       <c r="E27" s="37"/>
       <c r="F27" s="36"/>
       <c r="G27" s="35"/>
@@ -4713,11 +4716,11 @@
       </c>
       <c r="K2" s="12">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="L2" s="11">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="M2" s="1">
         <v>10</v>
@@ -4752,11 +4755,11 @@
       </c>
       <c r="K3" s="12">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="L3" s="11">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="M3" s="1">
         <v>20</v>
@@ -4791,11 +4794,11 @@
       </c>
       <c r="K4" s="12">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L4" s="11">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -4830,11 +4833,11 @@
       </c>
       <c r="K5" s="12">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L5" s="11">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -4947,7 +4950,7 @@
       </c>
       <c r="K8" s="12">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L8" s="11">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
@@ -4966,7 +4969,7 @@
       </c>
       <c r="F9" s="14">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>1.89E-3</v>
+        <v>1.8925000000000001E-3</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="13" t="b">
@@ -4980,11 +4983,11 @@
       </c>
       <c r="K9" s="12">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L9" s="11">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41827</v>
+        <v>41828</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -4999,7 +5002,7 @@
       </c>
       <c r="F10" s="14">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>2.2285E-3</v>
+        <v>2.2485000000000001E-3</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="13" t="b">
@@ -5013,11 +5016,11 @@
       </c>
       <c r="K10" s="12">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L10" s="11">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41858</v>
+        <v>41859</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -5098,7 +5101,7 @@
       </c>
       <c r="F13" s="14">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>3.2200000000000002E-3</v>
+        <v>3.2290000000000001E-3</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="13" t="b">
@@ -5112,11 +5115,11 @@
       </c>
       <c r="K13" s="12">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L13" s="11">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41950</v>
+        <v>41953</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -5296,7 +5299,7 @@
       </c>
       <c r="F19" s="7">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>5.4749999999999998E-3</v>
+        <v>5.4359999999999999E-3</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6" t="b">
@@ -5310,11 +5313,11 @@
       </c>
       <c r="K19" s="5">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L19" s="4">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -6020,7 +6023,7 @@
       </c>
       <c r="F38" s="30">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>99.778750000000002</v>
+        <v>99.777500000000003</v>
       </c>
       <c r="G38" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E38,Trigger)</f>
@@ -6146,7 +6149,7 @@
       </c>
       <c r="F41" s="30">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>99.777500000000003</v>
+        <v>99.767499999999998</v>
       </c>
       <c r="G41" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
@@ -6230,7 +6233,7 @@
       </c>
       <c r="F43" s="30">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>99.757499999999993</v>
+        <v>99.754999999999995</v>
       </c>
       <c r="G43" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E43,Trigger)</f>
@@ -6314,7 +6317,7 @@
       </c>
       <c r="F45" s="30">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>99.722499999999997</v>
+        <v>99.717500000000001</v>
       </c>
       <c r="G45" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
@@ -6440,7 +6443,7 @@
       </c>
       <c r="F48" s="30">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>99.627499999999998</v>
+        <v>99.617500000000007</v>
       </c>
       <c r="G48" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
@@ -6524,7 +6527,7 @@
       </c>
       <c r="F50" s="30">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>99.452500000000001</v>
+        <v>99.427500000000009</v>
       </c>
       <c r="G50" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
@@ -6566,7 +6569,7 @@
       </c>
       <c r="F51" s="30">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>99.232500000000002</v>
+        <v>99.1875</v>
       </c>
       <c r="G51" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
@@ -6608,7 +6611,7 @@
       </c>
       <c r="F52" s="30">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>98.967500000000001</v>
+        <v>98.907499999999999</v>
       </c>
       <c r="G52" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
@@ -6650,7 +6653,7 @@
       </c>
       <c r="F53" s="30">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>98.677500000000009</v>
+        <v>98.612499999999997</v>
       </c>
       <c r="G53" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
@@ -6692,7 +6695,7 @@
       </c>
       <c r="F54" s="30">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>98.377499999999998</v>
+        <v>98.3125</v>
       </c>
       <c r="G54" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
@@ -6734,7 +6737,7 @@
       </c>
       <c r="F55" s="30">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>98.092500000000001</v>
+        <v>98.032499999999999</v>
       </c>
       <c r="G55" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
@@ -6776,7 +6779,7 @@
       </c>
       <c r="F56" s="30">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>97.827500000000001</v>
+        <v>97.772500000000008</v>
       </c>
       <c r="G56" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
@@ -6818,7 +6821,7 @@
       </c>
       <c r="F57" s="30">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>97.602499999999992</v>
+        <v>97.5625</v>
       </c>
       <c r="G57" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
@@ -6860,7 +6863,7 @@
       </c>
       <c r="F58" s="30">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>97.387500000000003</v>
+        <v>97.357500000000002</v>
       </c>
       <c r="G58" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
@@ -6902,7 +6905,7 @@
       </c>
       <c r="F59" s="30">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>97.197499999999991</v>
+        <v>97.185000000000002</v>
       </c>
       <c r="G59" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
@@ -6944,7 +6947,7 @@
       </c>
       <c r="F60" s="30">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>97.022500000000008</v>
+        <v>97.017499999999998</v>
       </c>
       <c r="G60" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
@@ -6986,7 +6989,7 @@
       </c>
       <c r="F61" s="30">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>96.867500000000007</v>
+        <v>96.877499999999998</v>
       </c>
       <c r="G61" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
@@ -7028,7 +7031,7 @@
       </c>
       <c r="F62" s="30">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>96.722499999999997</v>
+        <v>96.740000000000009</v>
       </c>
       <c r="G62" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
@@ -7070,7 +7073,7 @@
       </c>
       <c r="F63" s="30">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>96.592500000000001</v>
+        <v>96.622500000000002</v>
       </c>
       <c r="G63" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
@@ -7112,7 +7115,7 @@
       </c>
       <c r="F64" s="30">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>96.474999999999994</v>
+        <v>96.509999999999991</v>
       </c>
       <c r="G64" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E64,Trigger)</f>
@@ -7154,7 +7157,7 @@
       </c>
       <c r="F65" s="30">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>96.372500000000002</v>
+        <v>96.412499999999994</v>
       </c>
       <c r="G65" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E65,Trigger)</f>
@@ -7196,7 +7199,7 @@
       </c>
       <c r="F66" s="30">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>96.275000000000006</v>
+        <v>96.32</v>
       </c>
       <c r="G66" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E66,Trigger)</f>
@@ -7238,7 +7241,7 @@
       </c>
       <c r="F67" s="30">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>96.1875</v>
+        <v>96.234999999999999</v>
       </c>
       <c r="G67" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E67,Trigger)</f>
@@ -7280,7 +7283,7 @@
       </c>
       <c r="F68" s="30">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>96.102499999999992</v>
+        <v>96.152500000000003</v>
       </c>
       <c r="G68" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E68,Trigger)</f>
@@ -7322,7 +7325,7 @@
       </c>
       <c r="F69" s="30">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>96.032499999999999</v>
+        <v>96.085000000000008</v>
       </c>
       <c r="G69" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E69,Trigger)</f>
@@ -7364,7 +7367,7 @@
       </c>
       <c r="F70" s="30">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>95.972499999999997</v>
+        <v>96.025000000000006</v>
       </c>
       <c r="G70" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E70,Trigger)</f>
@@ -7406,7 +7409,7 @@
       </c>
       <c r="F71" s="30">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>95.907499999999999</v>
+        <v>95.965000000000003</v>
       </c>
       <c r="G71" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E71,Trigger)</f>
@@ -7448,7 +7451,7 @@
       </c>
       <c r="F72" s="30">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>95.847499999999997</v>
+        <v>95.907499999999999</v>
       </c>
       <c r="G72" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E72,Trigger)</f>
@@ -7490,7 +7493,7 @@
       </c>
       <c r="F73" s="30">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>95.805000000000007</v>
+        <v>95.86</v>
       </c>
       <c r="G73" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E73,Trigger)</f>
@@ -7532,7 +7535,7 @@
       </c>
       <c r="F74" s="30">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>95.765000000000001</v>
+        <v>95.8125</v>
       </c>
       <c r="G74" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E74,Trigger)</f>
@@ -7574,7 +7577,7 @@
       </c>
       <c r="F75" s="30">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>95.732499999999987</v>
+        <v>95.775000000000006</v>
       </c>
       <c r="G75" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E75,Trigger)</f>
@@ -7616,7 +7619,7 @@
       </c>
       <c r="F76" s="30">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>95.694999999999993</v>
+        <v>95.734999999999999</v>
       </c>
       <c r="G76" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E76,Trigger)</f>
@@ -7658,7 +7661,7 @@
       </c>
       <c r="F77" s="30">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>95.662499999999994</v>
+        <v>95.70750000000001</v>
       </c>
       <c r="G77" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E77,Trigger)</f>
@@ -7700,7 +7703,7 @@
       </c>
       <c r="F78" s="30">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>95.637500000000003</v>
+        <v>95.685000000000002</v>
       </c>
       <c r="G78" s="14">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E78,Trigger)</f>
@@ -7742,7 +7745,7 @@
       </c>
       <c r="F79" s="29">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>95.605000000000004</v>
+        <v>95.662499999999994</v>
       </c>
       <c r="G79" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E79,Trigger)</f>
@@ -8471,7 +8474,7 @@
       </c>
       <c r="F98" s="14">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>2.5700000000000002E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="G98" s="14">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -8488,11 +8491,11 @@
       </c>
       <c r="K98" s="12">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L98" s="11">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="N98" s="18" t="e">
         <f t="shared" ref="N98:N134" si="8">IF(G98=G135,F98-F135,"--")</f>
@@ -8534,11 +8537,11 @@
       </c>
       <c r="K99" s="12">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L99" s="11">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>42223</v>
+        <v>42226</v>
       </c>
       <c r="N99" s="18" t="e">
         <f t="shared" si="8"/>
@@ -8580,7 +8583,7 @@
       </c>
       <c r="K100" s="12">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L100" s="11">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
@@ -8626,7 +8629,7 @@
       </c>
       <c r="K101" s="12">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L101" s="11">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
@@ -8655,7 +8658,7 @@
       </c>
       <c r="F102" s="14">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>5.3100000000000005E-3</v>
+        <v>5.5499999999999994E-3</v>
       </c>
       <c r="G102" s="14">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -8672,7 +8675,7 @@
       </c>
       <c r="K102" s="12">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L102" s="11">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
@@ -8701,7 +8704,7 @@
       </c>
       <c r="F103" s="14">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>9.689999999999999E-3</v>
+        <v>1.0049999999999998E-2</v>
       </c>
       <c r="G103" s="14">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -8718,7 +8721,7 @@
       </c>
       <c r="K103" s="12">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L103" s="11">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
@@ -8747,7 +8750,7 @@
       </c>
       <c r="F104" s="14">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>1.387E-2</v>
+        <v>1.4180000000000002E-2</v>
       </c>
       <c r="G104" s="14">
         <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
@@ -8764,7 +8767,7 @@
       </c>
       <c r="K104" s="12">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L104" s="11">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
@@ -8793,7 +8796,7 @@
       </c>
       <c r="F105" s="14">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>1.737E-2</v>
+        <v>1.755E-2</v>
       </c>
       <c r="G105" s="14">
         <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
@@ -8810,11 +8813,11 @@
       </c>
       <c r="K105" s="12">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L105" s="11">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="N105" s="18" t="e">
         <f t="shared" si="8"/>
@@ -8839,7 +8842,7 @@
       </c>
       <c r="F106" s="14">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>2.0240000000000001E-2</v>
+        <v>2.0300000000000002E-2</v>
       </c>
       <c r="G106" s="14">
         <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
@@ -8856,11 +8859,11 @@
       </c>
       <c r="K106" s="12">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L106" s="11">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="N106" s="18" t="e">
         <f t="shared" si="8"/>
@@ -8885,7 +8888,7 @@
       </c>
       <c r="F107" s="14">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
-        <v>2.2560000000000004E-2</v>
+        <v>2.2519999999999998E-2</v>
       </c>
       <c r="G107" s="14">
         <f>_xll.qlSwapRateHelperSpread($E107,Trigger)</f>
@@ -8902,11 +8905,11 @@
       </c>
       <c r="K107" s="12">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L107" s="11">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="N107" s="18" t="e">
         <f t="shared" si="8"/>
@@ -8931,7 +8934,7 @@
       </c>
       <c r="F108" s="14">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
-        <v>2.4450000000000003E-2</v>
+        <v>2.4290000000000003E-2</v>
       </c>
       <c r="G108" s="14">
         <f>_xll.qlSwapRateHelperSpread($E108,Trigger)</f>
@@ -8948,7 +8951,7 @@
       </c>
       <c r="K108" s="12">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L108" s="11">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
@@ -8977,7 +8980,7 @@
       </c>
       <c r="F109" s="14">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
-        <v>2.597E-2</v>
+        <v>2.5750000000000002E-2</v>
       </c>
       <c r="G109" s="14">
         <f>_xll.qlSwapRateHelperSpread($E109,Trigger)</f>
@@ -8994,7 +8997,7 @@
       </c>
       <c r="K109" s="12">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L109" s="11">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
@@ -9023,7 +9026,7 @@
       </c>
       <c r="F110" s="14">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>2.724E-2</v>
+        <v>2.699E-2</v>
       </c>
       <c r="G110" s="14">
         <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
@@ -9040,11 +9043,11 @@
       </c>
       <c r="K110" s="12">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L110" s="11">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="N110" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9086,11 +9089,11 @@
       </c>
       <c r="K111" s="12">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L111" s="11">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="N111" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9115,7 +9118,7 @@
       </c>
       <c r="F112" s="14">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
-        <v>2.9249999999999998E-2</v>
+        <v>2.896E-2</v>
       </c>
       <c r="G112" s="14">
         <f>_xll.qlSwapRateHelperSpread($E112,Trigger)</f>
@@ -9132,11 +9135,11 @@
       </c>
       <c r="K112" s="12">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L112" s="11">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>46149</v>
+        <v>46150</v>
       </c>
       <c r="N112" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9178,11 +9181,11 @@
       </c>
       <c r="K113" s="12">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L113" s="11">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>46514</v>
+        <v>46517</v>
       </c>
       <c r="N113" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9224,7 +9227,7 @@
       </c>
       <c r="K114" s="12">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L114" s="11">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
@@ -9253,7 +9256,7 @@
       </c>
       <c r="F115" s="14">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
-        <v>3.1230000000000001E-2</v>
+        <v>3.0899999999999997E-2</v>
       </c>
       <c r="G115" s="14">
         <f>_xll.qlSwapRateHelperSpread($E115,Trigger)</f>
@@ -9270,7 +9273,7 @@
       </c>
       <c r="K115" s="12">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L115" s="11">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
@@ -9316,11 +9319,11 @@
       </c>
       <c r="K116" s="12">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L116" s="11">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>47610</v>
+        <v>47611</v>
       </c>
       <c r="N116" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9362,11 +9365,11 @@
       </c>
       <c r="K117" s="12">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L117" s="11">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>47975</v>
+        <v>47976</v>
       </c>
       <c r="N117" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9408,11 +9411,11 @@
       </c>
       <c r="K118" s="12">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L118" s="11">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>48341</v>
+        <v>48344</v>
       </c>
       <c r="N118" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9454,7 +9457,7 @@
       </c>
       <c r="K119" s="12">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L119" s="11">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
@@ -9483,7 +9486,7 @@
       </c>
       <c r="F120" s="14">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
-        <v>3.2939999999999997E-2</v>
+        <v>3.2579999999999998E-2</v>
       </c>
       <c r="G120" s="14">
         <f>_xll.qlSwapRateHelperSpread($E120,Trigger)</f>
@@ -9500,7 +9503,7 @@
       </c>
       <c r="K120" s="12">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L120" s="11">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
@@ -9546,7 +9549,7 @@
       </c>
       <c r="K121" s="12">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L121" s="11">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
@@ -9592,11 +9595,11 @@
       </c>
       <c r="K122" s="12">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L122" s="11">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>49802</v>
+        <v>49803</v>
       </c>
       <c r="N122" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9638,11 +9641,11 @@
       </c>
       <c r="K123" s="12">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L123" s="11">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>50167</v>
+        <v>50168</v>
       </c>
       <c r="N123" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9684,11 +9687,11 @@
       </c>
       <c r="K124" s="12">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L124" s="11">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>50532</v>
+        <v>50535</v>
       </c>
       <c r="N124" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9713,7 +9716,7 @@
       </c>
       <c r="F125" s="14">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>3.3700000000000001E-2</v>
+        <v>3.3329999999999999E-2</v>
       </c>
       <c r="G125" s="14">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
@@ -9730,7 +9733,7 @@
       </c>
       <c r="K125" s="12">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L125" s="11">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
@@ -9776,7 +9779,7 @@
       </c>
       <c r="K126" s="12">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L126" s="11">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
@@ -9822,11 +9825,11 @@
       </c>
       <c r="K127" s="12">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L127" s="11">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>51628</v>
+        <v>51629</v>
       </c>
       <c r="N127" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9868,11 +9871,11 @@
       </c>
       <c r="K128" s="12">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L128" s="11">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>51993</v>
+        <v>51994</v>
       </c>
       <c r="N128" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9914,11 +9917,11 @@
       </c>
       <c r="K129" s="12">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L129" s="11">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>52358</v>
+        <v>52359</v>
       </c>
       <c r="N129" s="18" t="e">
         <f t="shared" si="8"/>
@@ -9943,7 +9946,7 @@
       </c>
       <c r="F130" s="14">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
-        <v>3.4040000000000001E-2</v>
+        <v>3.3669999999999999E-2</v>
       </c>
       <c r="G130" s="14">
         <f>_xll.qlSwapRateHelperSpread($E130,Trigger)</f>
@@ -9960,7 +9963,7 @@
       </c>
       <c r="K130" s="12">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L130" s="11">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
@@ -10006,11 +10009,11 @@
       </c>
       <c r="K131" s="12">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L131" s="11">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>54550</v>
+        <v>54553</v>
       </c>
       <c r="N131" s="18" t="e">
         <f t="shared" si="8"/>
@@ -10035,7 +10038,7 @@
       </c>
       <c r="F132" s="14">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
-        <v>3.4230000000000003E-2</v>
+        <v>3.3869999999999997E-2</v>
       </c>
       <c r="G132" s="14">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
@@ -10052,11 +10055,11 @@
       </c>
       <c r="K132" s="12">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L132" s="11">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>56376</v>
+        <v>56377</v>
       </c>
       <c r="N132" s="18" t="e">
         <f t="shared" si="8"/>
@@ -10081,7 +10084,7 @@
       </c>
       <c r="F133" s="14">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
-        <v>3.4040000000000001E-2</v>
+        <v>3.3669999999999999E-2</v>
       </c>
       <c r="G133" s="14">
         <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
@@ -10098,11 +10101,11 @@
       </c>
       <c r="K133" s="12">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L133" s="11">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>60029</v>
+        <v>60030</v>
       </c>
       <c r="N133" s="18" t="e">
         <f t="shared" si="8"/>
@@ -10144,7 +10147,7 @@
       </c>
       <c r="K134" s="5">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L134" s="4">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
@@ -11762,7 +11765,7 @@
       </c>
       <c r="I1" s="197">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>1.5208206598558759E-3</v>
+        <v>1.5208301649264832E-3</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -11786,14 +11789,14 @@
       </c>
       <c r="G2" s="212">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="H2" s="213">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="I2" s="197">
-        <v>1.5208206598558759E-3</v>
+        <v>1.5208301649264832E-3</v>
       </c>
       <c r="J2" s="202"/>
     </row>
@@ -11817,14 +11820,14 @@
       </c>
       <c r="G3" s="212">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="H3" s="213">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="I3" s="197">
-        <v>1.5208225608719828E-3</v>
+        <v>1.5208301649293206E-3</v>
       </c>
       <c r="J3" s="202"/>
     </row>
@@ -11848,14 +11851,14 @@
       </c>
       <c r="G4" s="212">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H4" s="213">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="I4" s="197">
-        <v>1.5208238282156963E-3</v>
+        <v>1.5208301649410432E-3</v>
       </c>
       <c r="J4" s="202"/>
     </row>
@@ -11879,14 +11882,14 @@
       </c>
       <c r="G5" s="212">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H5" s="213">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="I5" s="197">
-        <v>1.3581755403316959E-3</v>
+        <v>1.3039615566045179E-3</v>
       </c>
       <c r="J5" s="202"/>
     </row>
@@ -11911,21 +11914,21 @@
       </c>
       <c r="G6" s="212">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H6" s="213">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
         <v>41799</v>
       </c>
       <c r="I6" s="197">
-        <v>1.5251429304975932E-3</v>
+        <v>1.525508335290381E-3</v>
       </c>
       <c r="J6" s="202"/>
     </row>
     <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="207" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_RateHelpersSelected#0000</v>
+        <v>USD_YCSTDRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="208" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -11936,7 +11939,7 @@
       </c>
       <c r="E7" s="201">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1.89E-3</v>
+        <v>1.8925000000000001E-3</v>
       </c>
       <c r="F7" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -11944,14 +11947,14 @@
       </c>
       <c r="G7" s="212">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H7" s="213">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41827</v>
+        <v>41828</v>
       </c>
       <c r="I7" s="197">
-        <v>1.8860098422438089E-3</v>
+        <v>1.9058534227924496E-3</v>
       </c>
       <c r="J7" s="202"/>
     </row>
@@ -11961,7 +11964,7 @@
       </c>
       <c r="E8" s="201">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.2285E-3</v>
+        <v>2.2485000000000001E-3</v>
       </c>
       <c r="F8" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -11969,14 +11972,14 @@
       </c>
       <c r="G8" s="212">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H8" s="213">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41858</v>
+        <v>41859</v>
       </c>
       <c r="I8" s="197">
-        <v>2.2207677486627574E-3</v>
+        <v>2.2629415755299242E-3</v>
       </c>
       <c r="J8" s="202"/>
     </row>
@@ -11986,7 +11989,7 @@
       </c>
       <c r="E9" s="201">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>3.2200000000000002E-3</v>
+        <v>3.2290000000000001E-3</v>
       </c>
       <c r="F9" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -11994,14 +11997,14 @@
       </c>
       <c r="G9" s="212">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H9" s="213">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41950</v>
+        <v>41953</v>
       </c>
       <c r="I9" s="197">
-        <v>3.2159747445604987E-3</v>
+        <v>3.2524992511286672E-3</v>
       </c>
       <c r="J9" s="202"/>
     </row>
@@ -12011,7 +12014,7 @@
       </c>
       <c r="E10" s="201">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>2.775000000000083E-3</v>
+        <v>2.8249999999999664E-3</v>
       </c>
       <c r="F10" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -12026,7 +12029,7 @@
         <v>42080</v>
       </c>
       <c r="I10" s="197">
-        <v>3.0698936453776586E-3</v>
+        <v>3.1120509262407897E-3</v>
       </c>
       <c r="J10" s="202"/>
     </row>
@@ -12036,7 +12039,7 @@
       </c>
       <c r="E11" s="201">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>5.4749999999999998E-3</v>
+        <v>5.4359999999999999E-3</v>
       </c>
       <c r="F11" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -12044,14 +12047,14 @@
       </c>
       <c r="G11" s="212">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H11" s="213">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I11" s="197">
-        <v>5.4814364307447716E-3</v>
+        <v>5.4747022088432714E-3</v>
       </c>
       <c r="J11" s="202"/>
     </row>
@@ -12061,7 +12064,7 @@
       </c>
       <c r="E12" s="201">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>3.7249999999999783E-3</v>
+        <v>3.8249999999999673E-3</v>
       </c>
       <c r="F12" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -12076,7 +12079,7 @@
         <v>42173</v>
       </c>
       <c r="I12" s="197">
-        <v>3.2640574303329974E-3</v>
+        <v>3.3195563148472988E-3</v>
       </c>
       <c r="J12" s="202"/>
     </row>
@@ -12086,7 +12089,7 @@
       </c>
       <c r="E13" s="201">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>5.4750000000000076E-3</v>
+        <v>5.7249999999998691E-3</v>
       </c>
       <c r="F13" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -12101,7 +12104,7 @@
         <v>42264</v>
       </c>
       <c r="I13" s="197">
-        <v>3.7247815768340826E-3</v>
+        <v>3.8197959856308928E-3</v>
       </c>
       <c r="J13" s="202"/>
     </row>
@@ -12111,7 +12114,7 @@
       </c>
       <c r="E14" s="201">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>7.6749999999999874E-3</v>
+        <v>8.1250000000000488E-3</v>
       </c>
       <c r="F14" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -12126,7 +12129,7 @@
         <v>42354</v>
       </c>
       <c r="I14" s="197">
-        <v>4.341885501852309E-3</v>
+        <v>4.4964281126243276E-3</v>
       </c>
       <c r="J14" s="202"/>
     </row>
@@ -12136,7 +12139,7 @@
       </c>
       <c r="E15" s="201">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>1.0325000000000029E-2</v>
+        <v>1.0924999999999963E-2</v>
       </c>
       <c r="F15" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -12151,7 +12154,7 @@
         <v>42445</v>
       </c>
       <c r="I15" s="197">
-        <v>5.1551487895702564E-3</v>
+        <v>5.3749851177611399E-3</v>
       </c>
       <c r="J15" s="202"/>
     </row>
@@ -12161,7 +12164,7 @@
       </c>
       <c r="E16" s="201">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.3224999999999931E-2</v>
+        <v>1.3875000000000082E-2</v>
       </c>
       <c r="F16" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -12176,7 +12179,7 @@
         <v>42537</v>
       </c>
       <c r="I16" s="197">
-        <v>6.1309799715460961E-3</v>
+        <v>6.4079402797749142E-3</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
@@ -12185,7 +12188,7 @@
       </c>
       <c r="E17" s="201">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>9.689999999999999E-3</v>
+        <v>1.0049999999999998E-2</v>
       </c>
       <c r="F17" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -12193,14 +12196,14 @@
       </c>
       <c r="G17" s="212">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H17" s="213">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
         <v>42863</v>
       </c>
       <c r="I17" s="197">
-        <v>9.7796511003737877E-3</v>
+        <v>1.0166624876092581E-2</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
@@ -12209,7 +12212,7 @@
       </c>
       <c r="E18" s="201">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.387E-2</v>
+        <v>1.4180000000000002E-2</v>
       </c>
       <c r="F18" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -12217,14 +12220,14 @@
       </c>
       <c r="G18" s="212">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H18" s="213">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
         <v>43228</v>
       </c>
       <c r="I18" s="197">
-        <v>1.4055837719634943E-2</v>
+        <v>1.439513445325232E-2</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.2">
@@ -12233,7 +12236,7 @@
       </c>
       <c r="E19" s="201">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.737E-2</v>
+        <v>1.755E-2</v>
       </c>
       <c r="F19" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -12241,14 +12244,14 @@
       </c>
       <c r="G19" s="212">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H19" s="213">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="I19" s="197">
-        <v>1.7676364776347261E-2</v>
+        <v>1.7880717513595011E-2</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
@@ -12257,7 +12260,7 @@
       </c>
       <c r="E20" s="201">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.0240000000000001E-2</v>
+        <v>2.0300000000000002E-2</v>
       </c>
       <c r="F20" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -12265,14 +12268,14 @@
       </c>
       <c r="G20" s="212">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H20" s="213">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="I20" s="197">
-        <v>2.0679889941005763E-2</v>
+        <v>2.0756384808060791E-2</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
@@ -12281,7 +12284,7 @@
       </c>
       <c r="E21" s="201">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.2560000000000004E-2</v>
+        <v>2.2519999999999998E-2</v>
       </c>
       <c r="F21" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -12289,14 +12292,14 @@
       </c>
       <c r="G21" s="212">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H21" s="213">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="I21" s="197">
-        <v>2.313653958921703E-2</v>
+        <v>2.3103133941255027E-2</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
@@ -12305,7 +12308,7 @@
       </c>
       <c r="E22" s="201">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.4450000000000003E-2</v>
+        <v>2.4290000000000003E-2</v>
       </c>
       <c r="F22" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -12313,14 +12316,14 @@
       </c>
       <c r="G22" s="212">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H22" s="213">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
         <v>44690</v>
       </c>
       <c r="I22" s="197">
-        <v>2.5159925399848137E-2</v>
+        <v>2.4993712198992227E-2</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
@@ -12329,7 +12332,7 @@
       </c>
       <c r="E23" s="201">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.597E-2</v>
+        <v>2.5750000000000002E-2</v>
       </c>
       <c r="F23" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -12337,14 +12340,14 @@
       </c>
       <c r="G23" s="212">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H23" s="213">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
         <v>45054</v>
       </c>
       <c r="I23" s="197">
-        <v>2.6804058698975782E-2</v>
+        <v>2.656913039903399E-2</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
@@ -12353,7 +12356,7 @@
       </c>
       <c r="E24" s="201">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.724E-2</v>
+        <v>2.699E-2</v>
       </c>
       <c r="F24" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -12361,14 +12364,14 @@
       </c>
       <c r="G24" s="212">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H24" s="213">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="I24" s="197">
-        <v>2.8191720205622071E-2</v>
+        <v>2.7921222910211905E-2</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.2">
@@ -12377,7 +12380,7 @@
       </c>
       <c r="E25" s="201">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.9249999999999998E-2</v>
+        <v>2.896E-2</v>
       </c>
       <c r="F25" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -12385,14 +12388,14 @@
       </c>
       <c r="G25" s="212">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H25" s="213">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>46149</v>
+        <v>46150</v>
       </c>
       <c r="I25" s="197">
-        <v>3.0424478128919338E-2</v>
+        <v>3.0105571428774913E-2</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
@@ -12401,7 +12404,7 @@
       </c>
       <c r="E26" s="201">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>3.1230000000000001E-2</v>
+        <v>3.0899999999999997E-2</v>
       </c>
       <c r="F26" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -12409,14 +12412,14 @@
       </c>
       <c r="G26" s="212">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H26" s="213">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
         <v>47246</v>
       </c>
       <c r="I26" s="197">
-        <v>3.2663679397546587E-2</v>
+        <v>3.2294578643660997E-2</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
@@ -12425,7 +12428,7 @@
       </c>
       <c r="E27" s="201">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>3.2939999999999997E-2</v>
+        <v>3.2579999999999998E-2</v>
       </c>
       <c r="F27" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -12433,14 +12436,14 @@
       </c>
       <c r="G27" s="212">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H27" s="213">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
         <v>49072</v>
       </c>
       <c r="I27" s="197">
-        <v>3.4605661754819973E-2</v>
+        <v>3.4197563635261705E-2</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.2">
@@ -12449,7 +12452,7 @@
       </c>
       <c r="E28" s="201">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>3.3700000000000001E-2</v>
+        <v>3.3329999999999999E-2</v>
       </c>
       <c r="F28" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -12457,14 +12460,14 @@
       </c>
       <c r="G28" s="212">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H28" s="213">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
         <v>50899</v>
       </c>
       <c r="I28" s="197">
-        <v>3.5404853561483811E-2</v>
+        <v>3.4985970640417627E-2</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.2">
@@ -12473,7 +12476,7 @@
       </c>
       <c r="E29" s="201">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>3.4040000000000001E-2</v>
+        <v>3.3669999999999999E-2</v>
       </c>
       <c r="F29" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -12481,14 +12484,14 @@
       </c>
       <c r="G29" s="212">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H29" s="213">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
         <v>52726</v>
       </c>
       <c r="I29" s="197">
-        <v>3.5676308284633224E-2</v>
+        <v>3.5262650960680236E-2</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.2">
@@ -12497,7 +12500,7 @@
       </c>
       <c r="E30" s="201">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>3.4230000000000003E-2</v>
+        <v>3.3869999999999997E-2</v>
       </c>
       <c r="F30" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -12505,14 +12508,14 @@
       </c>
       <c r="G30" s="212">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H30" s="213">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>56376</v>
+        <v>56377</v>
       </c>
       <c r="I30" s="197">
-        <v>3.559820049760621E-2</v>
+        <v>3.5213231494178376E-2</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.2">
@@ -12521,7 +12524,7 @@
       </c>
       <c r="E31" s="201">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>3.4040000000000001E-2</v>
+        <v>3.3669999999999999E-2</v>
       </c>
       <c r="F31" s="201">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -12529,14 +12532,14 @@
       </c>
       <c r="G31" s="212">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H31" s="213">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>60029</v>
+        <v>60030</v>
       </c>
       <c r="I31" s="197">
-        <v>3.4853935229873428E-2</v>
+        <v>3.4457156693889102E-2</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.2">
@@ -14915,7 +14918,7 @@
       </c>
       <c r="F3" s="144" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_OND#0001</v>
+        <v>USD_YCSTDRH_OND#0002</v>
       </c>
       <c r="G3" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -14942,7 +14945,7 @@
       </c>
       <c r="F4" s="144" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_SWD#0001</v>
+        <v>USD_YCSTDRH_SWD#0002</v>
       </c>
       <c r="G4" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -14969,7 +14972,7 @@
       </c>
       <c r="F5" s="144" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_1MD#0001</v>
+        <v>USD_YCSTDRH_1MD#0002</v>
       </c>
       <c r="G5" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -14996,7 +14999,7 @@
       </c>
       <c r="F6" s="144" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_2MD#0001</v>
+        <v>USD_YCSTDRH_2MD#0002</v>
       </c>
       <c r="G6" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -15023,7 +15026,7 @@
       </c>
       <c r="F7" s="144" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_3MD#0001</v>
+        <v>USD_YCSTDRH_3MD#0002</v>
       </c>
       <c r="G7" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -15050,7 +15053,7 @@
       </c>
       <c r="F8" s="144" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_6MD#0001</v>
+        <v>USD_YCSTDRH_6MD#0002</v>
       </c>
       <c r="G8" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -15077,7 +15080,7 @@
       </c>
       <c r="F9" s="144" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_1YD#0001</v>
+        <v>USD_YCSTDRH_1YD#0002</v>
       </c>
       <c r="G9" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -15193,7 +15196,7 @@
       </c>
       <c r="H3" s="86" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_TND#0001</v>
+        <v>USD_YCSTDRH_TND#0002</v>
       </c>
       <c r="I3" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -15225,7 +15228,7 @@
       </c>
       <c r="H4" s="81" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_SND#0001</v>
+        <v>USD_YCSTDRH_SND#0002</v>
       </c>
       <c r="I4" s="80" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -15366,7 +15369,7 @@
       </c>
       <c r="I3" s="128" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MK4#0001</v>
+        <v>USD_YCSTDRH_FUT3MK4#0002</v>
       </c>
       <c r="J3" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -15404,7 +15407,7 @@
       </c>
       <c r="I4" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM4#0001</v>
+        <v>USD_YCSTDRH_FUT3MM4#0002</v>
       </c>
       <c r="J4" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -15442,7 +15445,7 @@
       </c>
       <c r="I5" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MN4#0001</v>
+        <v>USD_YCSTDRH_FUT3MN4#0002</v>
       </c>
       <c r="J5" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -15480,7 +15483,7 @@
       </c>
       <c r="I6" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MQ4#0001</v>
+        <v>USD_YCSTDRH_FUT3MQ4#0002</v>
       </c>
       <c r="J6" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -15518,7 +15521,7 @@
       </c>
       <c r="I7" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU4#0001</v>
+        <v>USD_YCSTDRH_FUT3MU4#0002</v>
       </c>
       <c r="J7" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -15556,7 +15559,7 @@
       </c>
       <c r="I8" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MV4#0001</v>
+        <v>USD_YCSTDRH_FUT3MV4#0002</v>
       </c>
       <c r="J8" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -15594,7 +15597,7 @@
       </c>
       <c r="I9" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MX4#0001</v>
+        <v>USD_YCSTDRH_FUT3MX4#0002</v>
       </c>
       <c r="J9" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -15632,7 +15635,7 @@
       </c>
       <c r="I10" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ4#0001</v>
+        <v>USD_YCSTDRH_FUT3MZ4#0002</v>
       </c>
       <c r="J10" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -15670,7 +15673,7 @@
       </c>
       <c r="I11" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MF5#0001</v>
+        <v>USD_YCSTDRH_FUT3MF5#0002</v>
       </c>
       <c r="J11" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -15708,7 +15711,7 @@
       </c>
       <c r="I12" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MG5#0001</v>
+        <v>USD_YCSTDRH_FUT3MG5#0002</v>
       </c>
       <c r="J12" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -15746,7 +15749,7 @@
       </c>
       <c r="I13" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH5#0001</v>
+        <v>USD_YCSTDRH_FUT3MH5#0002</v>
       </c>
       <c r="J13" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -15784,7 +15787,7 @@
       </c>
       <c r="I14" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MJ5#0001</v>
+        <v>USD_YCSTDRH_FUT3MJ5#0002</v>
       </c>
       <c r="J14" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -15822,7 +15825,7 @@
       </c>
       <c r="I15" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM5#0001</v>
+        <v>USD_YCSTDRH_FUT3MM5#0002</v>
       </c>
       <c r="J15" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -15860,7 +15863,7 @@
       </c>
       <c r="I16" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU5#0001</v>
+        <v>USD_YCSTDRH_FUT3MU5#0002</v>
       </c>
       <c r="J16" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -15898,7 +15901,7 @@
       </c>
       <c r="I17" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ5#0001</v>
+        <v>USD_YCSTDRH_FUT3MZ5#0002</v>
       </c>
       <c r="J17" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -15936,7 +15939,7 @@
       </c>
       <c r="I18" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH6#0001</v>
+        <v>USD_YCSTDRH_FUT3MH6#0002</v>
       </c>
       <c r="J18" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -15974,7 +15977,7 @@
       </c>
       <c r="I19" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM6#0001</v>
+        <v>USD_YCSTDRH_FUT3MM6#0002</v>
       </c>
       <c r="J19" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -16012,7 +16015,7 @@
       </c>
       <c r="I20" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU6#0001</v>
+        <v>USD_YCSTDRH_FUT3MU6#0002</v>
       </c>
       <c r="J20" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -16050,7 +16053,7 @@
       </c>
       <c r="I21" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ6#0001</v>
+        <v>USD_YCSTDRH_FUT3MZ6#0002</v>
       </c>
       <c r="J21" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -16088,7 +16091,7 @@
       </c>
       <c r="I22" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH7#0001</v>
+        <v>USD_YCSTDRH_FUT3MH7#0002</v>
       </c>
       <c r="J22" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -16126,7 +16129,7 @@
       </c>
       <c r="I23" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM7#0001</v>
+        <v>USD_YCSTDRH_FUT3MM7#0002</v>
       </c>
       <c r="J23" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -16164,7 +16167,7 @@
       </c>
       <c r="I24" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU7#0001</v>
+        <v>USD_YCSTDRH_FUT3MU7#0002</v>
       </c>
       <c r="J24" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -16202,7 +16205,7 @@
       </c>
       <c r="I25" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ7#0001</v>
+        <v>USD_YCSTDRH_FUT3MZ7#0002</v>
       </c>
       <c r="J25" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -16240,7 +16243,7 @@
       </c>
       <c r="I26" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH8#0001</v>
+        <v>USD_YCSTDRH_FUT3MH8#0002</v>
       </c>
       <c r="J26" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -16278,7 +16281,7 @@
       </c>
       <c r="I27" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM8#0001</v>
+        <v>USD_YCSTDRH_FUT3MM8#0002</v>
       </c>
       <c r="J27" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -16316,7 +16319,7 @@
       </c>
       <c r="I28" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU8#0001</v>
+        <v>USD_YCSTDRH_FUT3MU8#0002</v>
       </c>
       <c r="J28" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -16354,7 +16357,7 @@
       </c>
       <c r="I29" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ8#0001</v>
+        <v>USD_YCSTDRH_FUT3MZ8#0002</v>
       </c>
       <c r="J29" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -16392,7 +16395,7 @@
       </c>
       <c r="I30" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH9#0001</v>
+        <v>USD_YCSTDRH_FUT3MH9#0002</v>
       </c>
       <c r="J30" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -16430,7 +16433,7 @@
       </c>
       <c r="I31" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM9#0001</v>
+        <v>USD_YCSTDRH_FUT3MM9#0002</v>
       </c>
       <c r="J31" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -16468,7 +16471,7 @@
       </c>
       <c r="I32" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU9#0001</v>
+        <v>USD_YCSTDRH_FUT3MU9#0002</v>
       </c>
       <c r="J32" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -16506,7 +16509,7 @@
       </c>
       <c r="I33" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ9#0001</v>
+        <v>USD_YCSTDRH_FUT3MZ9#0002</v>
       </c>
       <c r="J33" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -16544,7 +16547,7 @@
       </c>
       <c r="I34" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH0#0001</v>
+        <v>USD_YCSTDRH_FUT3MH0#0002</v>
       </c>
       <c r="J34" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -16582,7 +16585,7 @@
       </c>
       <c r="I35" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM0#0001</v>
+        <v>USD_YCSTDRH_FUT3MM0#0002</v>
       </c>
       <c r="J35" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -16620,7 +16623,7 @@
       </c>
       <c r="I36" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU0#0001</v>
+        <v>USD_YCSTDRH_FUT3MU0#0002</v>
       </c>
       <c r="J36" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -16658,7 +16661,7 @@
       </c>
       <c r="I37" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ0#0001</v>
+        <v>USD_YCSTDRH_FUT3MZ0#0002</v>
       </c>
       <c r="J37" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -16696,7 +16699,7 @@
       </c>
       <c r="I38" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH1#0001</v>
+        <v>USD_YCSTDRH_FUT3MH1#0002</v>
       </c>
       <c r="J38" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -16734,7 +16737,7 @@
       </c>
       <c r="I39" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM1#0001</v>
+        <v>USD_YCSTDRH_FUT3MM1#0002</v>
       </c>
       <c r="J39" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -16772,7 +16775,7 @@
       </c>
       <c r="I40" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU1#0001</v>
+        <v>USD_YCSTDRH_FUT3MU1#0002</v>
       </c>
       <c r="J40" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -16809,7 +16812,7 @@
       </c>
       <c r="I41" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MZ1#0001</v>
+        <v>USD_YCSTDRH_FUT3MZ1#0002</v>
       </c>
       <c r="J41" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -16846,7 +16849,7 @@
       </c>
       <c r="I42" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MH2#0001</v>
+        <v>USD_YCSTDRH_FUT3MH2#0002</v>
       </c>
       <c r="J42" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -16883,7 +16886,7 @@
       </c>
       <c r="I43" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MM2#0001</v>
+        <v>USD_YCSTDRH_FUT3MM2#0002</v>
       </c>
       <c r="J43" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -16920,7 +16923,7 @@
       </c>
       <c r="I44" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_FUT3MU2#0001</v>
+        <v>USD_YCSTDRH_FUT3MU2#0002</v>
       </c>
       <c r="J44" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -17076,7 +17079,7 @@
       </c>
       <c r="L4" s="184" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YCSTDRH_AM3L_Libor6M#0001</v>
+        <v>USD_YCSTDRH_AM3L_Libor6M#0002</v>
       </c>
       <c r="M4" s="183" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -17140,7 +17143,7 @@
       </c>
       <c r="L6" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L1Y#0001</v>
+        <v>USD_YCSTDRH_AM3L1Y#0002</v>
       </c>
       <c r="M6" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -17191,7 +17194,7 @@
       </c>
       <c r="L7" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L15M#0001</v>
+        <v>USD_YCSTDRH_AM3L15M#0002</v>
       </c>
       <c r="M7" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -17246,7 +17249,7 @@
       </c>
       <c r="L8" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L18M#0001</v>
+        <v>USD_YCSTDRH_AM3L18M#0002</v>
       </c>
       <c r="M8" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -17301,7 +17304,7 @@
       </c>
       <c r="L9" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L21M#0001</v>
+        <v>USD_YCSTDRH_AM3L21M#0002</v>
       </c>
       <c r="M9" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -17352,7 +17355,7 @@
       </c>
       <c r="L10" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L2Y#0001</v>
+        <v>USD_YCSTDRH_AM3L2Y#0002</v>
       </c>
       <c r="M10" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -17407,7 +17410,7 @@
       </c>
       <c r="L11" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L3Y#0001</v>
+        <v>USD_YCSTDRH_AM3L3Y#0002</v>
       </c>
       <c r="M11" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -17453,7 +17456,7 @@
       </c>
       <c r="L12" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L4Y#0001</v>
+        <v>USD_YCSTDRH_AM3L4Y#0002</v>
       </c>
       <c r="M12" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -17499,7 +17502,7 @@
       </c>
       <c r="L13" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L5Y#0001</v>
+        <v>USD_YCSTDRH_AM3L5Y#0002</v>
       </c>
       <c r="M13" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -17545,7 +17548,7 @@
       </c>
       <c r="L14" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L6Y#0001</v>
+        <v>USD_YCSTDRH_AM3L6Y#0002</v>
       </c>
       <c r="M14" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -17591,7 +17594,7 @@
       </c>
       <c r="L15" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L7Y#0001</v>
+        <v>USD_YCSTDRH_AM3L7Y#0002</v>
       </c>
       <c r="M15" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -17637,7 +17640,7 @@
       </c>
       <c r="L16" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L8Y#0001</v>
+        <v>USD_YCSTDRH_AM3L8Y#0002</v>
       </c>
       <c r="M16" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -17683,7 +17686,7 @@
       </c>
       <c r="L17" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L9Y#0001</v>
+        <v>USD_YCSTDRH_AM3L9Y#0002</v>
       </c>
       <c r="M17" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -17729,7 +17732,7 @@
       </c>
       <c r="L18" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L10Y#0001</v>
+        <v>USD_YCSTDRH_AM3L10Y#0002</v>
       </c>
       <c r="M18" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -17775,7 +17778,7 @@
       </c>
       <c r="L19" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L11Y#0001</v>
+        <v>USD_YCSTDRH_AM3L11Y#0002</v>
       </c>
       <c r="M19" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -17821,7 +17824,7 @@
       </c>
       <c r="L20" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L12Y#0001</v>
+        <v>USD_YCSTDRH_AM3L12Y#0002</v>
       </c>
       <c r="M20" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -17867,7 +17870,7 @@
       </c>
       <c r="L21" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L13Y#0001</v>
+        <v>USD_YCSTDRH_AM3L13Y#0002</v>
       </c>
       <c r="M21" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -17913,7 +17916,7 @@
       </c>
       <c r="L22" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L14Y#0001</v>
+        <v>USD_YCSTDRH_AM3L14Y#0002</v>
       </c>
       <c r="M22" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -17959,7 +17962,7 @@
       </c>
       <c r="L23" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L15Y#0001</v>
+        <v>USD_YCSTDRH_AM3L15Y#0002</v>
       </c>
       <c r="M23" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -18005,7 +18008,7 @@
       </c>
       <c r="L24" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L16Y#0001</v>
+        <v>USD_YCSTDRH_AM3L16Y#0002</v>
       </c>
       <c r="M24" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -18051,7 +18054,7 @@
       </c>
       <c r="L25" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L17Y#0001</v>
+        <v>USD_YCSTDRH_AM3L17Y#0002</v>
       </c>
       <c r="M25" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -18097,7 +18100,7 @@
       </c>
       <c r="L26" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L18Y#0001</v>
+        <v>USD_YCSTDRH_AM3L18Y#0002</v>
       </c>
       <c r="M26" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -18143,7 +18146,7 @@
       </c>
       <c r="L27" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L19Y#0001</v>
+        <v>USD_YCSTDRH_AM3L19Y#0002</v>
       </c>
       <c r="M27" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -18189,7 +18192,7 @@
       </c>
       <c r="L28" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L20Y#0001</v>
+        <v>USD_YCSTDRH_AM3L20Y#0002</v>
       </c>
       <c r="M28" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -18235,7 +18238,7 @@
       </c>
       <c r="L29" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L21Y#0001</v>
+        <v>USD_YCSTDRH_AM3L21Y#0002</v>
       </c>
       <c r="M29" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -18281,7 +18284,7 @@
       </c>
       <c r="L30" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L22Y#0001</v>
+        <v>USD_YCSTDRH_AM3L22Y#0002</v>
       </c>
       <c r="M30" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -18327,7 +18330,7 @@
       </c>
       <c r="L31" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L23Y#0001</v>
+        <v>USD_YCSTDRH_AM3L23Y#0002</v>
       </c>
       <c r="M31" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -18373,7 +18376,7 @@
       </c>
       <c r="L32" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L24Y#0001</v>
+        <v>USD_YCSTDRH_AM3L24Y#0002</v>
       </c>
       <c r="M32" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -18419,7 +18422,7 @@
       </c>
       <c r="L33" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L25Y#0001</v>
+        <v>USD_YCSTDRH_AM3L25Y#0002</v>
       </c>
       <c r="M33" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -18465,7 +18468,7 @@
       </c>
       <c r="L34" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L26Y#0001</v>
+        <v>USD_YCSTDRH_AM3L26Y#0002</v>
       </c>
       <c r="M34" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -18511,7 +18514,7 @@
       </c>
       <c r="L35" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L27Y#0001</v>
+        <v>USD_YCSTDRH_AM3L27Y#0002</v>
       </c>
       <c r="M35" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -18557,7 +18560,7 @@
       </c>
       <c r="L36" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L28Y#0001</v>
+        <v>USD_YCSTDRH_AM3L28Y#0002</v>
       </c>
       <c r="M36" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -18603,7 +18606,7 @@
       </c>
       <c r="L37" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L29Y#0001</v>
+        <v>USD_YCSTDRH_AM3L29Y#0002</v>
       </c>
       <c r="M37" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -18649,7 +18652,7 @@
       </c>
       <c r="L38" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L30Y#0001</v>
+        <v>USD_YCSTDRH_AM3L30Y#0002</v>
       </c>
       <c r="M38" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -18695,7 +18698,7 @@
       </c>
       <c r="L39" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L35Y#0001</v>
+        <v>USD_YCSTDRH_AM3L35Y#0002</v>
       </c>
       <c r="M39" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -18741,7 +18744,7 @@
       </c>
       <c r="L40" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L40Y#0001</v>
+        <v>USD_YCSTDRH_AM3L40Y#0002</v>
       </c>
       <c r="M40" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -18787,7 +18790,7 @@
       </c>
       <c r="L41" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L50Y#0001</v>
+        <v>USD_YCSTDRH_AM3L50Y#0002</v>
       </c>
       <c r="M41" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -18833,7 +18836,7 @@
       </c>
       <c r="L42" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_AM3L60Y#0001</v>
+        <v>USD_YCSTDRH_AM3L60Y#0002</v>
       </c>
       <c r="M42" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/USD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCSTDBootstrapping.xlsx
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="132">
   <si>
     <t>60Y</t>
   </si>
@@ -422,9 +422,6 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>UnitedKingdom::Exchange</t>
-  </si>
-  <si>
     <t>Calendar</t>
   </si>
   <si>
@@ -617,19 +614,7 @@
     <t>Instruments Selected</t>
   </si>
   <si>
-    <t>CALENDAR SETTINGS</t>
-  </si>
-  <si>
-    <t>US Calendar</t>
-  </si>
-  <si>
     <t>UnitedStates::Settlement</t>
-  </si>
-  <si>
-    <t>GB Calendar</t>
-  </si>
-  <si>
-    <t>HolidayCheck</t>
   </si>
 </sst>
 </file>
@@ -639,18 +624,18 @@
   <numFmts count="14">
     <numFmt numFmtId="164" formatCode="ddd\,\ d\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000000000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
-    <numFmt numFmtId="171" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ hh:mm:ss"/>
-    <numFmt numFmtId="172" formatCode="ddd\,\ d\-mmm\-yy"/>
-    <numFmt numFmtId="173" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
-    <numFmt numFmtId="174" formatCode="General_)"/>
-    <numFmt numFmtId="175" formatCode="#,##0.0;#,##0.0"/>
-    <numFmt numFmtId="176" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="178" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="170" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ hh:mm:ss"/>
+    <numFmt numFmtId="171" formatCode="ddd\,\ d\-mmm\-yy"/>
+    <numFmt numFmtId="172" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
+    <numFmt numFmtId="173" formatCode="General_)"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0;#,##0.0"/>
+    <numFmt numFmtId="175" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="177" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -864,7 +849,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1258,17 +1243,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1277,14 +1251,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="11" fillId="9" borderId="0">
+    <xf numFmtId="173" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="11" fillId="9" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1299,13 +1273,13 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1329,7 +1303,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1338,14 +1312,14 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="4" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="4" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1357,12 +1331,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="8" fillId="4" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="8" fillId="4" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="8" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="8" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1371,7 +1345,7 @@
     <xf numFmtId="15" fontId="8" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="8" fillId="4" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="8" fillId="4" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,26 +1356,26 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="17" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="17" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="17" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="16" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1428,7 +1402,7 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1443,7 +1417,7 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1456,7 +1430,7 @@
     <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1482,24 +1456,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="16" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="16" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
@@ -1571,10 +1545,10 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1609,14 +1583,14 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1630,7 +1604,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="17" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="17" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1676,17 +1650,6 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2028,7 +1991,7 @@
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="111" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="112"/>
       <c r="D2" s="112"/>
@@ -2036,7 +1999,7 @@
       <c r="F2" s="112"/>
       <c r="G2" s="27"/>
       <c r="K2" s="105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="106"/>
       <c r="M2" s="106"/>
@@ -2081,22 +2044,22 @@
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="27"/>
       <c r="H4" s="99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4" s="100"/>
       <c r="J4" s="3"/>
       <c r="K4" s="41"/>
       <c r="L4" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M4" s="35" t="b">
         <v>0</v>
@@ -2126,7 +2089,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
@@ -2135,15 +2098,15 @@
       <c r="F5" s="4"/>
       <c r="G5" s="27"/>
       <c r="H5" s="101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="41"/>
       <c r="L5" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M5" s="42"/>
       <c r="N5" s="39"/>
@@ -2171,22 +2134,22 @@
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="27"/>
       <c r="H6" s="101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="102"/>
       <c r="J6" s="3"/>
       <c r="K6" s="41"/>
       <c r="L6" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6" s="32" t="b">
         <v>1</v>
@@ -2216,7 +2179,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>Months&amp;IF(UPPER(Currency)="EUR","E","L")</f>
@@ -2226,7 +2189,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="27"/>
       <c r="H7" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" s="102"/>
       <c r="J7" s="3"/>
@@ -2258,7 +2221,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="6" t="str">
         <f>VLOOKUP(Currency,H4:I8,2)</f>
@@ -2268,10 +2231,10 @@
       <c r="F8" s="4"/>
       <c r="G8" s="27"/>
       <c r="H8" s="103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2302,7 +2265,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="6" t="str">
         <f>Currency&amp;"_"&amp;$E$16&amp;"RH"</f>
@@ -2315,7 +2278,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L9" s="106"/>
       <c r="M9" s="106"/>
@@ -2344,7 +2307,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="6" t="b">
         <v>1</v>
@@ -2383,9 +2346,11 @@
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="D11" s="24">
+        <v>41873.604583333334</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="27"/>
@@ -2394,10 +2359,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="34"/>
       <c r="L11" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="3"/>
@@ -2424,7 +2389,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="22" t="b">
         <v>1</v>
@@ -2437,10 +2402,10 @@
       <c r="J12" s="3"/>
       <c r="K12" s="34"/>
       <c r="L12" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N12" s="31"/>
       <c r="O12" s="3"/>
@@ -2476,10 +2441,10 @@
       <c r="J13" s="3"/>
       <c r="K13" s="34"/>
       <c r="L13" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N13" s="31"/>
       <c r="O13" s="3"/>
@@ -2506,11 +2471,11 @@
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="21" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYCSTD#0027</v>
+        <v>_USDYCSTD#0001</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2520,10 +2485,10 @@
       <c r="J14" s="3"/>
       <c r="K14" s="68"/>
       <c r="L14" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N14" s="67"/>
       <c r="O14" s="3"/>
@@ -2557,7 +2522,7 @@
         <v/>
       </c>
       <c r="E15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="27"/>
@@ -2588,18 +2553,18 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
     </row>
-    <row r="16" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
       <c r="C16" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="18" t="str">
         <f>"_"&amp;Currency&amp;$E$16</f>
         <v>_USDYCSTD</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="27"/>
@@ -2630,11 +2595,11 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
     </row>
-    <row r="17" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
       <c r="C17" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="4"/>
@@ -2643,12 +2608,10 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="177" t="s">
-        <v>132</v>
-      </c>
-      <c r="L17" s="178"/>
-      <c r="M17" s="178"/>
-      <c r="N17" s="179"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -2673,11 +2636,10 @@
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
       <c r="C18" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="16" t="str">
-        <f>IF(HolidayCheck,LocalCalendar,LiborCalendar)</f>
-        <v>UnitedKingdom::Exchange</v>
+        <v>67</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2685,10 +2647,10 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="181"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -2725,14 +2687,10 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="N19" s="39"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -2768,14 +2726,10 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="M20" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" s="39"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -2811,15 +2765,10 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="M21" s="32" t="b">
-        <f>_xll.qlCalendarIsHoliday(LocalCalendar,_xll.qlCalendarAdvance(LiborCalendar,_xll.qlSettingsEvaluationDate(Trigger),"2D","f",FALSE,Trigger))</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="39"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -2840,7 +2789,7 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
     </row>
-    <row r="22" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10"/>
@@ -2851,10 +2800,10 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="36"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2880,11 +2829,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41824</v>
-      </c>
-      <c r="D23" s="8">
+        <v>41873</v>
+      </c>
+      <c r="D23" s="8" t="e">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>3.5251131810928357E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2921,11 +2870,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>60091</v>
-      </c>
-      <c r="D24" s="6">
+        <v>60140</v>
+      </c>
+      <c r="D24" s="6" t="e">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.3466181457673352E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2964,8 +2913,8 @@
         <v>54</v>
       </c>
       <c r="D25" s="70" t="str">
-        <f>_xll.ohRangeRetrieveError(Selected!J1)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(Selected!J1)</f>
+        <v>qlPiecewiseYieldCurveData - 1st instrument (maturity: August 25th, 2014) has an invalid quote</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -3042,7 +2991,7 @@
       <c r="A27" s="93"/>
       <c r="B27" s="4"/>
       <c r="C27" s="94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" s="43" t="b">
         <f>_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
@@ -4381,7 +4330,7 @@
       <c r="F65" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21">
       <formula1>"Linear,BackwardFlat,ForwardFlat,Linear,LogLinear,CubicNaturalSpline,LogCubicNaturalSpline,MonotonicCubicNaturalSpline,MonotonicLogCubicNaturalSpline,FritschButlandCubic,FritschButlandLogCubic,KrugerCubic,KrugerLogCubic"</formula1>
     </dataValidation>
@@ -4399,9 +4348,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M13:M14">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M19:M20">
-      <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar,Australia,China,HongKong::HKEx"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4442,7 +4388,7 @@
         <v>53</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E1" s="117" t="s">
         <v>52</v>
@@ -4472,7 +4418,7 @@
       </c>
       <c r="C2" s="119" t="str">
         <f>Deposits!E3</f>
-        <v>obj_0049d#0004</v>
+        <v>obj_0049b#0000</v>
       </c>
       <c r="D2" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C2)</f>
@@ -4480,7 +4426,7 @@
       </c>
       <c r="E2" s="120">
         <f>_xll.qlRateHelperQuoteValue($C2,Trigger)</f>
-        <v>1.5000000000000002E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F2" s="120"/>
       <c r="G2" s="64" t="b">
@@ -4494,11 +4440,11 @@
       </c>
       <c r="J2" s="121">
         <f>_xll.qlRateHelperEarliestDate($C2,Trigger)</f>
-        <v>41827</v>
+        <v>41873</v>
       </c>
       <c r="K2" s="122">
         <f>_xll.qlRateHelperLatestDate($C2,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="L2" s="62">
         <v>10</v>
@@ -4513,7 +4459,7 @@
       </c>
       <c r="C3" s="119" t="str">
         <f>Deposits!E4</f>
-        <v>obj_004a0#0010</v>
+        <v>obj_0049c#0001</v>
       </c>
       <c r="D3" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C3)</f>
@@ -4521,7 +4467,7 @@
       </c>
       <c r="E3" s="120">
         <f>_xll.qlRateHelperQuoteValue($C3,Trigger)</f>
-        <v>1.23E-3</v>
+        <v>1.2100000000000001E-3</v>
       </c>
       <c r="F3" s="120"/>
       <c r="G3" s="64" t="b">
@@ -4535,11 +4481,11 @@
       </c>
       <c r="J3" s="121">
         <f>_xll.qlRateHelperEarliestDate($C3,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K3" s="122">
         <f>_xll.qlRateHelperLatestDate($C3,Trigger)</f>
-        <v>41835</v>
+        <v>41884</v>
       </c>
       <c r="L3" s="62">
         <v>40</v>
@@ -4554,7 +4500,7 @@
       </c>
       <c r="C4" s="119" t="str">
         <f>Deposits!E5</f>
-        <v>obj_004a3#0011</v>
+        <v>obj_0049d#0001</v>
       </c>
       <c r="D4" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C4)</f>
@@ -4562,7 +4508,7 @@
       </c>
       <c r="E4" s="120">
         <f>_xll.qlRateHelperQuoteValue($C4,Trigger)</f>
-        <v>1.5199999999999999E-3</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="F4" s="120"/>
       <c r="G4" s="64" t="b">
@@ -4576,11 +4522,11 @@
       </c>
       <c r="J4" s="121">
         <f>_xll.qlRateHelperEarliestDate($C4,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K4" s="122">
         <f>_xll.qlRateHelperLatestDate($C4,Trigger)</f>
-        <v>41859</v>
+        <v>41908</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4589,7 +4535,7 @@
       </c>
       <c r="C5" s="119" t="str">
         <f>Deposits!E6</f>
-        <v>obj_0049c#0013</v>
+        <v>obj_0049e#0001</v>
       </c>
       <c r="D5" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C5)</f>
@@ -4597,7 +4543,7 @@
       </c>
       <c r="E5" s="120">
         <f>_xll.qlRateHelperQuoteValue($C5,Trigger)</f>
-        <v>1.9625000000000003E-3</v>
+        <v>1.9510000000000003E-3</v>
       </c>
       <c r="F5" s="120"/>
       <c r="G5" s="64" t="b">
@@ -4611,11 +4557,11 @@
       </c>
       <c r="J5" s="121">
         <f>_xll.qlRateHelperEarliestDate($C5,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K5" s="122">
         <f>_xll.qlRateHelperLatestDate($C5,Trigger)</f>
-        <v>41890</v>
+        <v>41939</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4624,7 +4570,7 @@
       </c>
       <c r="C6" s="119" t="str">
         <f>Deposits!E7</f>
-        <v>obj_0049f#0013</v>
+        <v>obj_0049f#0001</v>
       </c>
       <c r="D6" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C6)</f>
@@ -4632,7 +4578,7 @@
       </c>
       <c r="E6" s="120">
         <f>_xll.qlRateHelperQuoteValue($C6,Trigger)</f>
-        <v>2.3259999999999999E-3</v>
+        <v>2.3840000000000003E-3</v>
       </c>
       <c r="F6" s="120"/>
       <c r="G6" s="64" t="b">
@@ -4646,11 +4592,11 @@
       </c>
       <c r="J6" s="121">
         <f>_xll.qlRateHelperEarliestDate($C6,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K6" s="122">
         <f>_xll.qlRateHelperLatestDate($C6,Trigger)</f>
-        <v>41920</v>
+        <v>41969</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4659,7 +4605,7 @@
       </c>
       <c r="C7" s="119" t="str">
         <f>Deposits!E8</f>
-        <v>obj_004a2#0013</v>
+        <v>obj_004a0#0001</v>
       </c>
       <c r="D7" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C7)</f>
@@ -4667,7 +4613,7 @@
       </c>
       <c r="E7" s="120">
         <f>_xll.qlRateHelperQuoteValue($C7,Trigger)</f>
-        <v>3.2529999999999998E-3</v>
+        <v>3.3050000000000002E-3</v>
       </c>
       <c r="F7" s="120"/>
       <c r="G7" s="64" t="b">
@@ -4681,11 +4627,11 @@
       </c>
       <c r="J7" s="121">
         <f>_xll.qlRateHelperEarliestDate($C7,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K7" s="122">
         <f>_xll.qlRateHelperLatestDate($C7,Trigger)</f>
-        <v>42012</v>
+        <v>42061</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4694,7 +4640,7 @@
       </c>
       <c r="C8" s="124" t="str">
         <f>Deposits!E9</f>
-        <v>obj_0049e#0013</v>
+        <v>obj_004a1#0001</v>
       </c>
       <c r="D8" s="124" t="str">
         <f>_xll.qlRateHelperQuoteName(C8)</f>
@@ -4702,7 +4648,7 @@
       </c>
       <c r="E8" s="125">
         <f>_xll.qlRateHelperQuoteValue($C8,Trigger)</f>
-        <v>5.4710000000000002E-3</v>
+        <v>5.6559999999999996E-3</v>
       </c>
       <c r="F8" s="125"/>
       <c r="G8" s="126" t="b">
@@ -4716,11 +4662,11 @@
       </c>
       <c r="J8" s="127">
         <f>_xll.qlRateHelperEarliestDate($C8,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K8" s="128">
         <f>_xll.qlRateHelperLatestDate($C8,Trigger)</f>
-        <v>42193</v>
+        <v>42242</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4729,23 +4675,23 @@
       </c>
       <c r="B9" s="119" t="str">
         <f t="array" ref="B9:B50">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A9:$A50)</f>
-        <v>N4</v>
+        <v>U4</v>
       </c>
       <c r="C9" s="119" t="str">
         <f>Futures!H3</f>
-        <v>obj_004f4#0003</v>
+        <v>obj_004aa#0000</v>
       </c>
       <c r="D9" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C9)</f>
-        <v>USDFUT3MN4_Quote</v>
+        <v>USDFUT3MU4_Quote</v>
       </c>
       <c r="E9" s="130">
         <f>_xll.qlRateHelperQuoteValue($C9,Trigger)</f>
-        <v>99.768749999999997</v>
+        <v>99.766249999999999</v>
       </c>
       <c r="F9" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C9,Trigger)</f>
-        <v>8.1137177894612393E-7</v>
+        <v>2.0459756029148974E-6</v>
       </c>
       <c r="G9" s="64" t="b">
         <v>0</v>
@@ -4758,11 +4704,11 @@
       </c>
       <c r="J9" s="121">
         <f>_xll.qlRateHelperEarliestDate($C9,Trigger)</f>
-        <v>41836</v>
+        <v>41899</v>
       </c>
       <c r="K9" s="122">
         <f>_xll.qlRateHelperLatestDate($C9,Trigger)</f>
-        <v>41928</v>
+        <v>41990</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4770,15 +4716,15 @@
         <v>0</v>
       </c>
       <c r="B10" s="119" t="str">
-        <v>Q4</v>
+        <v>V4</v>
       </c>
       <c r="C10" s="119" t="str">
         <f>Futures!H4</f>
-        <v>obj_004dc#0005</v>
+        <v>obj_004d3#0000</v>
       </c>
       <c r="D10" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C10)</f>
-        <v>USDFUT3MQ4_Quote</v>
+        <v>USDFUT3MV4_Quote</v>
       </c>
       <c r="E10" s="130">
         <f>_xll.qlRateHelperQuoteValue($C10,Trigger)</f>
@@ -4786,7 +4732,7 @@
       </c>
       <c r="F10" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C10,Trigger)</f>
-        <v>3.7365466096148681E-6</v>
+        <v>4.8524914958954814E-6</v>
       </c>
       <c r="G10" s="64" t="b">
         <v>0</v>
@@ -4799,11 +4745,11 @@
       </c>
       <c r="J10" s="121">
         <f>_xll.qlRateHelperEarliestDate($C10,Trigger)</f>
-        <v>41871</v>
+        <v>41927</v>
       </c>
       <c r="K10" s="122">
         <f>_xll.qlRateHelperLatestDate($C10,Trigger)</f>
-        <v>41963</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4811,15 +4757,15 @@
         <v>0</v>
       </c>
       <c r="B11" s="119" t="str">
-        <v>U4</v>
+        <v>X4</v>
       </c>
       <c r="C11" s="119" t="str">
         <f>Futures!H5</f>
-        <v>obj_004ee#0005</v>
+        <v>obj_004df#0000</v>
       </c>
       <c r="D11" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C11)</f>
-        <v>USDFUT3MU4_Quote</v>
+        <v>USDFUT3MX4_Quote</v>
       </c>
       <c r="E11" s="130">
         <f>_xll.qlRateHelperQuoteValue($C11,Trigger)</f>
@@ -4827,7 +4773,7 @@
       </c>
       <c r="F11" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C11,Trigger)</f>
-        <v>6.6209986253532765E-6</v>
+        <v>9.1506598392120666E-6</v>
       </c>
       <c r="G11" s="64" t="b">
         <v>0</v>
@@ -4840,11 +4786,11 @@
       </c>
       <c r="J11" s="121">
         <f>_xll.qlRateHelperEarliestDate($C11,Trigger)</f>
-        <v>41899</v>
+        <v>41962</v>
       </c>
       <c r="K11" s="122">
         <f>_xll.qlRateHelperLatestDate($C11,Trigger)</f>
-        <v>41990</v>
+        <v>42054</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4852,23 +4798,23 @@
         <v>0</v>
       </c>
       <c r="B12" s="119" t="str">
-        <v>V4</v>
+        <v>Z4</v>
       </c>
       <c r="C12" s="119" t="str">
         <f>Futures!H6</f>
-        <v>obj_004cf#0005</v>
+        <v>obj_004c8#0000</v>
       </c>
       <c r="D12" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C12)</f>
-        <v>USDFUT3MV4_Quote</v>
+        <v>USDFUT3MZ4_Quote</v>
       </c>
       <c r="E12" s="130">
         <f>_xll.qlRateHelperQuoteValue($C12,Trigger)</f>
-        <v>99.745000000000005</v>
+        <v>99.742500000000007</v>
       </c>
       <c r="F12" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C12,Trigger)</f>
-        <v>1.0132910552018576E-5</v>
+        <v>1.3062076844883182E-5</v>
       </c>
       <c r="G12" s="64" t="b">
         <v>0</v>
@@ -4881,11 +4827,11 @@
       </c>
       <c r="J12" s="121">
         <f>_xll.qlRateHelperEarliestDate($C12,Trigger)</f>
-        <v>41927</v>
+        <v>41990</v>
       </c>
       <c r="K12" s="122">
         <f>_xll.qlRateHelperLatestDate($C12,Trigger)</f>
-        <v>42019</v>
+        <v>42080</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4893,23 +4839,23 @@
         <v>0</v>
       </c>
       <c r="B13" s="119" t="str">
-        <v>X4</v>
+        <v>F5</v>
       </c>
       <c r="C13" s="119" t="str">
         <f>Futures!H7</f>
-        <v>obj_004f0#0005</v>
+        <v>obj_004cc#0000</v>
       </c>
       <c r="D13" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C13)</f>
-        <v>USDFUT3MX4_Quote</v>
+        <v>USDFUT3MF5_Quote</v>
       </c>
       <c r="E13" s="130">
         <f>_xll.qlRateHelperQuoteValue($C13,Trigger)</f>
-        <v>99.737499999999997</v>
+        <v>99.732500000000002</v>
       </c>
       <c r="F13" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C13,Trigger)</f>
-        <v>1.5191845019596221E-5</v>
+        <v>1.8919204896327325E-5</v>
       </c>
       <c r="G13" s="64" t="b">
         <v>0</v>
@@ -4922,11 +4868,11 @@
       </c>
       <c r="J13" s="121">
         <f>_xll.qlRateHelperEarliestDate($C13,Trigger)</f>
-        <v>41962</v>
+        <v>42025</v>
       </c>
       <c r="K13" s="122">
         <f>_xll.qlRateHelperLatestDate($C13,Trigger)</f>
-        <v>42054</v>
+        <v>42115</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4934,23 +4880,23 @@
         <v>0</v>
       </c>
       <c r="B14" s="119" t="str">
-        <v>Z4</v>
+        <v>G5</v>
       </c>
       <c r="C14" s="119" t="str">
         <f>Futures!H8</f>
-        <v>obj_004ce#0005</v>
+        <v>obj_004cb#0000</v>
       </c>
       <c r="D14" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C14)</f>
-        <v>USDFUT3MZ4_Quote</v>
+        <v>USDFUT3MG5_Quote</v>
       </c>
       <c r="E14" s="130">
         <f>_xll.qlRateHelperQuoteValue($C14,Trigger)</f>
-        <v>99.717500000000001</v>
+        <v>99.70750000000001</v>
       </c>
       <c r="F14" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C14,Trigger)</f>
-        <v>1.9597679918510378E-5</v>
+        <v>2.4109609722416127E-5</v>
       </c>
       <c r="G14" s="64" t="b">
         <v>0</v>
@@ -4963,11 +4909,11 @@
       </c>
       <c r="J14" s="121">
         <f>_xll.qlRateHelperEarliestDate($C14,Trigger)</f>
-        <v>41990</v>
+        <v>42053</v>
       </c>
       <c r="K14" s="122">
         <f>_xll.qlRateHelperLatestDate($C14,Trigger)</f>
-        <v>42080</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4975,15 +4921,15 @@
         <v>0</v>
       </c>
       <c r="B15" s="119" t="str">
-        <v>F5</v>
+        <v>H5</v>
       </c>
       <c r="C15" s="119" t="str">
         <f>Futures!H9</f>
-        <v>obj_004f3#0005</v>
+        <v>obj_004e3#0000</v>
       </c>
       <c r="D15" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C15)</f>
-        <v>USDFUT3MF5_Quote</v>
+        <v>USDFUT3MH5_Quote</v>
       </c>
       <c r="E15" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue($C15,Trigger)</f>
@@ -5004,11 +4950,11 @@
       </c>
       <c r="J15" s="121">
         <f>_xll.qlRateHelperEarliestDate($C15,Trigger)</f>
-        <v>42025</v>
+        <v>42081</v>
       </c>
       <c r="K15" s="122">
         <f>_xll.qlRateHelperLatestDate($C15,Trigger)</f>
-        <v>42115</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5016,23 +4962,23 @@
         <v>0</v>
       </c>
       <c r="B16" s="119" t="str">
-        <v>G5</v>
+        <v>J5</v>
       </c>
       <c r="C16" s="119" t="str">
         <f>Futures!H10</f>
-        <v>obj_004d8#0005</v>
+        <v>obj_004af#0000</v>
       </c>
       <c r="D16" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C16)</f>
-        <v>USDFUT3MG5_Quote</v>
-      </c>
-      <c r="E16" s="130" t="e">
+        <v>USDFUT3MJ5_Quote</v>
+      </c>
+      <c r="E16" s="130">
         <f>_xll.qlRateHelperQuoteValue($C16,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F16" s="120" t="e">
+        <v>99.632499999999993</v>
+      </c>
+      <c r="F16" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C16,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.6748559690313756E-5</v>
       </c>
       <c r="G16" s="64" t="b">
         <v>1</v>
@@ -5045,11 +4991,11 @@
       </c>
       <c r="J16" s="121">
         <f>_xll.qlRateHelperEarliestDate($C16,Trigger)</f>
-        <v>42053</v>
+        <v>42109</v>
       </c>
       <c r="K16" s="122">
         <f>_xll.qlRateHelperLatestDate($C16,Trigger)</f>
-        <v>42142</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5057,23 +5003,23 @@
         <v>0</v>
       </c>
       <c r="B17" s="119" t="str">
-        <v>H5</v>
+        <v>K5</v>
       </c>
       <c r="C17" s="119" t="str">
         <f>Futures!H11</f>
-        <v>obj_004d6#0005</v>
+        <v>obj_004ba#0000</v>
       </c>
       <c r="D17" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C17)</f>
-        <v>USDFUT3MH5_Quote</v>
-      </c>
-      <c r="E17" s="130">
+        <v>USDFUT3MK5_Quote</v>
+      </c>
+      <c r="E17" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue($C17,Trigger)</f>
-        <v>99.622500000000002</v>
-      </c>
-      <c r="F17" s="120">
+        <v>#NUM!</v>
+      </c>
+      <c r="F17" s="120" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C17,Trigger)</f>
-        <v>3.8400713411627372E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="G17" s="64" t="b">
         <v>1</v>
@@ -5086,11 +5032,11 @@
       </c>
       <c r="J17" s="121">
         <f>_xll.qlRateHelperEarliestDate($C17,Trigger)</f>
-        <v>42081</v>
+        <v>42144</v>
       </c>
       <c r="K17" s="122">
         <f>_xll.qlRateHelperLatestDate($C17,Trigger)</f>
-        <v>42173</v>
+        <v>42236</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5098,15 +5044,15 @@
         <v>0</v>
       </c>
       <c r="B18" s="119" t="str">
-        <v>J5</v>
+        <v>M5</v>
       </c>
       <c r="C18" s="119" t="str">
         <f>Futures!H12</f>
-        <v>obj_004cb#0005</v>
+        <v>obj_004c1#0000</v>
       </c>
       <c r="D18" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C18)</f>
-        <v>USDFUT3MJ5_Quote</v>
+        <v>USDFUT3MM5_Quote</v>
       </c>
       <c r="E18" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue($C18,Trigger)</f>
@@ -5127,11 +5073,11 @@
       </c>
       <c r="J18" s="121">
         <f>_xll.qlRateHelperEarliestDate($C18,Trigger)</f>
-        <v>42109</v>
+        <v>42172</v>
       </c>
       <c r="K18" s="122">
         <f>_xll.qlRateHelperLatestDate($C18,Trigger)</f>
-        <v>42200</v>
+        <v>42264</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5139,23 +5085,23 @@
         <v>0</v>
       </c>
       <c r="B19" s="119" t="str">
-        <v>K5</v>
+        <v>N5</v>
       </c>
       <c r="C19" s="119" t="str">
         <f>Futures!H13</f>
-        <v>obj_004e3#0005</v>
+        <v>obj_004e6#0000</v>
       </c>
       <c r="D19" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C19)</f>
-        <v>USDFUT3MK5_Quote</v>
-      </c>
-      <c r="E19" s="130" t="e">
+        <v>USDFUT3MN5_Quote</v>
+      </c>
+      <c r="E19" s="130">
         <f>_xll.qlRateHelperQuoteValue($C19,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F19" s="120" t="e">
+        <v>99.452500000000001</v>
+      </c>
+      <c r="F19" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C19,Trigger)</f>
-        <v>#NUM!</v>
+        <v>6.1822370139769954E-5</v>
       </c>
       <c r="G19" s="64" t="b">
         <v>1</v>
@@ -5168,11 +5114,11 @@
       </c>
       <c r="J19" s="121">
         <f>_xll.qlRateHelperEarliestDate($C19,Trigger)</f>
-        <v>42144</v>
+        <v>42200</v>
       </c>
       <c r="K19" s="122">
         <f>_xll.qlRateHelperLatestDate($C19,Trigger)</f>
-        <v>42236</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5180,23 +5126,23 @@
         <v>0</v>
       </c>
       <c r="B20" s="119" t="str">
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="C20" s="119" t="str">
         <f>Futures!H14</f>
-        <v>obj_004d3#0005</v>
+        <v>obj_004d2#0000</v>
       </c>
       <c r="D20" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C20)</f>
-        <v>USDFUT3MM5_Quote</v>
-      </c>
-      <c r="E20" s="130">
+        <v>USDFUT3MQ5_Quote</v>
+      </c>
+      <c r="E20" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue($C20,Trigger)</f>
-        <v>99.442499999999995</v>
-      </c>
-      <c r="F20" s="120">
+        <v>#NUM!</v>
+      </c>
+      <c r="F20" s="120" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C20,Trigger)</f>
-        <v>6.2301625989292329E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="G20" s="64" t="b">
         <v>1</v>
@@ -5209,11 +5155,11 @@
       </c>
       <c r="J20" s="121">
         <f>_xll.qlRateHelperEarliestDate($C20,Trigger)</f>
-        <v>42172</v>
+        <v>42235</v>
       </c>
       <c r="K20" s="122">
         <f>_xll.qlRateHelperLatestDate($C20,Trigger)</f>
-        <v>42264</v>
+        <v>42327</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5225,7 +5171,7 @@
       </c>
       <c r="C21" s="119" t="str">
         <f>Futures!H15</f>
-        <v>obj_004dd#0005</v>
+        <v>obj_004a9#0000</v>
       </c>
       <c r="D21" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C21)</f>
@@ -5233,11 +5179,11 @@
       </c>
       <c r="E21" s="130">
         <f>_xll.qlRateHelperQuoteValue($C21,Trigger)</f>
-        <v>99.217500000000001</v>
+        <v>99.232500000000002</v>
       </c>
       <c r="F21" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C21,Trigger)</f>
-        <v>9.1126005579898707E-5</v>
+        <v>8.2167170616203377E-5</v>
       </c>
       <c r="G21" s="64" t="b">
         <v>1</v>
@@ -5266,7 +5212,7 @@
       </c>
       <c r="C22" s="119" t="str">
         <f>Futures!H16</f>
-        <v>obj_004d1#0005</v>
+        <v>obj_004d9#0000</v>
       </c>
       <c r="D22" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C22)</f>
@@ -5274,11 +5220,11 @@
       </c>
       <c r="E22" s="130">
         <f>_xll.qlRateHelperQuoteValue($C22,Trigger)</f>
-        <v>98.972499999999997</v>
+        <v>98.997500000000002</v>
       </c>
       <c r="F22" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C22,Trigger)</f>
-        <v>1.2528605813437899E-4</v>
+        <v>1.1666858816597419E-4</v>
       </c>
       <c r="G22" s="64" t="b">
         <v>1</v>
@@ -5307,7 +5253,7 @@
       </c>
       <c r="C23" s="119" t="str">
         <f>Futures!H17</f>
-        <v>obj_004e5#0005</v>
+        <v>obj_004d4#0000</v>
       </c>
       <c r="D23" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C23)</f>
@@ -5315,11 +5261,11 @@
       </c>
       <c r="E23" s="130">
         <f>_xll.qlRateHelperQuoteValue($C23,Trigger)</f>
-        <v>98.702500000000001</v>
+        <v>98.742500000000007</v>
       </c>
       <c r="F23" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C23,Trigger)</f>
-        <v>1.6485515529024732E-4</v>
+        <v>1.5713341677008988E-4</v>
       </c>
       <c r="G23" s="64" t="b">
         <v>1</v>
@@ -5348,7 +5294,7 @@
       </c>
       <c r="C24" s="119" t="str">
         <f>Futures!H18</f>
-        <v>obj_004e0#0005</v>
+        <v>obj_004d0#0000</v>
       </c>
       <c r="D24" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C24)</f>
@@ -5356,11 +5302,11 @@
       </c>
       <c r="E24" s="130">
         <f>_xll.qlRateHelperQuoteValue($C24,Trigger)</f>
-        <v>98.422499999999999</v>
+        <v>98.472499999999997</v>
       </c>
       <c r="F24" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C24,Trigger)</f>
-        <v>2.0897287112181425E-4</v>
+        <v>2.0268706423503556E-4</v>
       </c>
       <c r="G24" s="64" t="b">
         <v>1</v>
@@ -5389,7 +5335,7 @@
       </c>
       <c r="C25" s="119" t="str">
         <f>Futures!H19</f>
-        <v>obj_004e4#0005</v>
+        <v>obj_004ea#0000</v>
       </c>
       <c r="D25" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C25)</f>
@@ -5397,11 +5343,11 @@
       </c>
       <c r="E25" s="130">
         <f>_xll.qlRateHelperQuoteValue($C25,Trigger)</f>
-        <v>98.137500000000003</v>
+        <v>98.1875</v>
       </c>
       <c r="F25" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C25,Trigger)</f>
-        <v>2.6130096236915383E-4</v>
+        <v>2.5714023437394418E-4</v>
       </c>
       <c r="G25" s="64" t="b">
         <v>1</v>
@@ -5430,7 +5376,7 @@
       </c>
       <c r="C26" s="119" t="str">
         <f>Futures!H20</f>
-        <v>obj_004d0#0005</v>
+        <v>obj_004dc#0000</v>
       </c>
       <c r="D26" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C26)</f>
@@ -5438,11 +5384,11 @@
       </c>
       <c r="E26" s="130">
         <f>_xll.qlRateHelperQuoteValue($C26,Trigger)</f>
-        <v>97.877499999999998</v>
+        <v>97.932500000000005</v>
       </c>
       <c r="F26" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C26,Trigger)</f>
-        <v>3.1459295658499284E-4</v>
+        <v>3.1292686609966469E-4</v>
       </c>
       <c r="G26" s="64" t="b">
         <v>1</v>
@@ -5471,7 +5417,7 @@
       </c>
       <c r="C27" s="119" t="str">
         <f>Futures!H21</f>
-        <v>obj_004da#0005</v>
+        <v>obj_004b6#0000</v>
       </c>
       <c r="D27" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C27)</f>
@@ -5479,11 +5425,11 @@
       </c>
       <c r="E27" s="130">
         <f>_xll.qlRateHelperQuoteValue($C27,Trigger)</f>
-        <v>97.662499999999994</v>
+        <v>97.717500000000001</v>
       </c>
       <c r="F27" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C27,Trigger)</f>
-        <v>3.6958232573622735E-4</v>
+        <v>3.7074664110130527E-4</v>
       </c>
       <c r="G27" s="64" t="b">
         <v>1</v>
@@ -5512,7 +5458,7 @@
       </c>
       <c r="C28" s="119" t="str">
         <f>Futures!H22</f>
-        <v>obj_004cc#0005</v>
+        <v>obj_004bf#0000</v>
       </c>
       <c r="D28" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C28)</f>
@@ -5520,11 +5466,11 @@
       </c>
       <c r="E28" s="130">
         <f>_xll.qlRateHelperQuoteValue($C28,Trigger)</f>
-        <v>97.462500000000006</v>
+        <v>97.522500000000008</v>
       </c>
       <c r="F28" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C28,Trigger)</f>
-        <v>4.3713062825643156E-4</v>
+        <v>4.4206946170263669E-4</v>
       </c>
       <c r="G28" s="64" t="b">
         <v>1</v>
@@ -5553,7 +5499,7 @@
       </c>
       <c r="C29" s="119" t="str">
         <f>Futures!H23</f>
-        <v>obj_004e8#0005</v>
+        <v>obj_004ab#0000</v>
       </c>
       <c r="D29" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C29)</f>
@@ -5561,11 +5507,11 @@
       </c>
       <c r="E29" s="130">
         <f>_xll.qlRateHelperQuoteValue($C29,Trigger)</f>
-        <v>97.292500000000004</v>
+        <v>97.357500000000002</v>
       </c>
       <c r="F29" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C29,Trigger)</f>
-        <v>5.0360059953597261E-4</v>
+        <v>5.1250413578733222E-4</v>
       </c>
       <c r="G29" s="64" t="b">
         <v>1</v>
@@ -5594,7 +5540,7 @@
       </c>
       <c r="C30" s="119" t="str">
         <f>Futures!H24</f>
-        <v>obj_004ef#0005</v>
+        <v>obj_004cf#0000</v>
       </c>
       <c r="D30" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C30)</f>
@@ -5602,11 +5548,11 @@
       </c>
       <c r="E30" s="130">
         <f>_xll.qlRateHelperQuoteValue($C30,Trigger)</f>
-        <v>97.13</v>
+        <v>97.207499999999996</v>
       </c>
       <c r="F30" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C30,Trigger)</f>
-        <v>5.7419345675523148E-4</v>
+        <v>5.8751059623652832E-4</v>
       </c>
       <c r="G30" s="64" t="b">
         <v>1</v>
@@ -5635,7 +5581,7 @@
       </c>
       <c r="C31" s="119" t="str">
         <f>Futures!H25</f>
-        <v>obj_004d9#0005</v>
+        <v>obj_004b0#0000</v>
       </c>
       <c r="D31" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C31)</f>
@@ -5643,11 +5589,11 @@
       </c>
       <c r="E31" s="130">
         <f>_xll.qlRateHelperQuoteValue($C31,Trigger)</f>
-        <v>97.002499999999998</v>
+        <v>97.092500000000001</v>
       </c>
       <c r="F31" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C31,Trigger)</f>
-        <v>6.5136436837114411E-4</v>
+        <v>6.6969348511601524E-4</v>
       </c>
       <c r="G31" s="64" t="b">
         <v>1</v>
@@ -5676,7 +5622,7 @@
       </c>
       <c r="C32" s="119" t="str">
         <f>Futures!H26</f>
-        <v>obj_004f2#0005</v>
+        <v>obj_004b5#0000</v>
       </c>
       <c r="D32" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C32)</f>
@@ -5684,11 +5630,11 @@
       </c>
       <c r="E32" s="130">
         <f>_xll.qlRateHelperQuoteValue($C32,Trigger)</f>
-        <v>96.877499999999998</v>
+        <v>96.992500000000007</v>
       </c>
       <c r="F32" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C32,Trigger)</f>
-        <v>7.3094595213410072E-4</v>
+        <v>7.5461659992177963E-4</v>
       </c>
       <c r="G32" s="64" t="b">
         <v>1</v>
@@ -5717,7 +5663,7 @@
       </c>
       <c r="C33" s="119" t="str">
         <f>Futures!H27</f>
-        <v>obj_004e9#0005</v>
+        <v>obj_004c4#0000</v>
       </c>
       <c r="D33" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C33)</f>
@@ -5725,11 +5671,11 @@
       </c>
       <c r="E33" s="130">
         <f>_xll.qlRateHelperQuoteValue($C33,Trigger)</f>
-        <v>96.767499999999998</v>
+        <v>96.907499999999999</v>
       </c>
       <c r="F33" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C33,Trigger)</f>
-        <v>8.1345946327449179E-4</v>
+        <v>8.4283889285989447E-4</v>
       </c>
       <c r="G33" s="64" t="b">
         <v>1</v>
@@ -5758,7 +5704,7 @@
       </c>
       <c r="C34" s="119" t="str">
         <f>Futures!H28</f>
-        <v>obj_004f1#0005</v>
+        <v>obj_004e7#0000</v>
       </c>
       <c r="D34" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C34)</f>
@@ -5766,11 +5712,11 @@
       </c>
       <c r="E34" s="130">
         <f>_xll.qlRateHelperQuoteValue($C34,Trigger)</f>
-        <v>96.667500000000004</v>
+        <v>96.83</v>
       </c>
       <c r="F34" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C34,Trigger)</f>
-        <v>8.9968054925519485E-4</v>
+        <v>9.3518223390080162E-4</v>
       </c>
       <c r="G34" s="64" t="b">
         <v>1</v>
@@ -5799,7 +5745,7 @@
       </c>
       <c r="C35" s="119" t="str">
         <f>Futures!H29</f>
-        <v>obj_004de#0005</v>
+        <v>obj_004ec#0000</v>
       </c>
       <c r="D35" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C35)</f>
@@ -5807,11 +5753,11 @@
       </c>
       <c r="E35" s="130">
         <f>_xll.qlRateHelperQuoteValue($C35,Trigger)</f>
-        <v>96.577500000000001</v>
+        <v>96.762500000000003</v>
       </c>
       <c r="F35" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C35,Trigger)</f>
-        <v>9.92773824983831E-4</v>
+        <v>1.0350041136838839E-3</v>
       </c>
       <c r="G35" s="64" t="b">
         <v>1</v>
@@ -5840,7 +5786,7 @@
       </c>
       <c r="C36" s="119" t="str">
         <f>Futures!H30</f>
-        <v>obj_004eb#0005</v>
+        <v>obj_004a7#0000</v>
       </c>
       <c r="D36" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C36)</f>
@@ -5848,11 +5794,11 @@
       </c>
       <c r="E36" s="130">
         <f>_xll.qlRateHelperQuoteValue($C36,Trigger)</f>
-        <v>96.487499999999997</v>
+        <v>96.692499999999995</v>
       </c>
       <c r="F36" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C36,Trigger)</f>
-        <v>1.0874489861907404E-3</v>
+        <v>1.1366816643625668E-3</v>
       </c>
       <c r="G36" s="64" t="b">
         <v>1</v>
@@ -5881,7 +5827,7 @@
       </c>
       <c r="C37" s="119" t="str">
         <f>Futures!H31</f>
-        <v>obj_004e7#0005</v>
+        <v>obj_004ef#0000</v>
       </c>
       <c r="D37" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C37)</f>
@@ -5889,11 +5835,11 @@
       </c>
       <c r="E37" s="130">
         <f>_xll.qlRateHelperQuoteValue($C37,Trigger)</f>
-        <v>96.405000000000001</v>
+        <v>96.625</v>
       </c>
       <c r="F37" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C37,Trigger)</f>
-        <v>1.1844631192781815E-3</v>
+        <v>1.2410225772916063E-3</v>
       </c>
       <c r="G37" s="64" t="b">
         <v>1</v>
@@ -5922,7 +5868,7 @@
       </c>
       <c r="C38" s="119" t="str">
         <f>Futures!H32</f>
-        <v>obj_004d5#0005</v>
+        <v>obj_004c0#0000</v>
       </c>
       <c r="D38" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C38)</f>
@@ -5930,11 +5876,11 @@
       </c>
       <c r="E38" s="130">
         <f>_xll.qlRateHelperQuoteValue($C38,Trigger)</f>
-        <v>96.32</v>
+        <v>96.557500000000005</v>
       </c>
       <c r="F38" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C38,Trigger)</f>
-        <v>1.2860936109413065E-3</v>
+        <v>1.3504257152557946E-3</v>
       </c>
       <c r="G38" s="64" t="b">
         <v>1</v>
@@ -5963,7 +5909,7 @@
       </c>
       <c r="C39" s="119" t="str">
         <f>Futures!H33</f>
-        <v>obj_004d7#0005</v>
+        <v>obj_004e0#0000</v>
       </c>
       <c r="D39" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C39)</f>
@@ -5971,11 +5917,11 @@
       </c>
       <c r="E39" s="130">
         <f>_xll.qlRateHelperQuoteValue($C39,Trigger)</f>
-        <v>96.245000000000005</v>
+        <v>96.497500000000002</v>
       </c>
       <c r="F39" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C39,Trigger)</f>
-        <v>1.3923745590655706E-3</v>
+        <v>1.4649417480053833E-3</v>
       </c>
       <c r="G39" s="64" t="b">
         <v>1</v>
@@ -6004,7 +5950,7 @@
       </c>
       <c r="C40" s="119" t="str">
         <f>Futures!H34</f>
-        <v>obj_004e6#0005</v>
+        <v>obj_004bc#0000</v>
       </c>
       <c r="D40" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C40)</f>
@@ -6012,11 +5958,11 @@
       </c>
       <c r="E40" s="130">
         <f>_xll.qlRateHelperQuoteValue($C40,Trigger)</f>
-        <v>96.175000000000011</v>
+        <v>96.442499999999995</v>
       </c>
       <c r="F40" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C40,Trigger)</f>
-        <v>1.5006756474347962E-3</v>
+        <v>1.5817551744624562E-3</v>
       </c>
       <c r="G40" s="64" t="b">
         <v>1</v>
@@ -6045,7 +5991,7 @@
       </c>
       <c r="C41" s="119" t="str">
         <f>Futures!H35</f>
-        <v>obj_004d2#0005</v>
+        <v>obj_004bd#0000</v>
       </c>
       <c r="D41" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C41)</f>
@@ -6053,11 +5999,11 @@
       </c>
       <c r="E41" s="130">
         <f>_xll.qlRateHelperQuoteValue($C41,Trigger)</f>
-        <v>96.107499999999987</v>
+        <v>96.39</v>
       </c>
       <c r="F41" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C41,Trigger)</f>
-        <v>1.6107581498844158E-3</v>
+        <v>1.7006065736136135E-3</v>
       </c>
       <c r="G41" s="64" t="b">
         <v>1</v>
@@ -6086,7 +6032,7 @@
       </c>
       <c r="C42" s="119" t="str">
         <f>Futures!H36</f>
-        <v>obj_004e1#0005</v>
+        <v>obj_004da#0000</v>
       </c>
       <c r="D42" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C42)</f>
@@ -6094,11 +6040,11 @@
       </c>
       <c r="E42" s="130">
         <f>_xll.qlRateHelperQuoteValue($C42,Trigger)</f>
-        <v>96.039999999999992</v>
+        <v>96.335000000000008</v>
       </c>
       <c r="F42" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C42,Trigger)</f>
-        <v>1.7238533873855108E-3</v>
+        <v>1.8228161452945905E-3</v>
       </c>
       <c r="G42" s="64" t="b">
         <v>1</v>
@@ -6127,7 +6073,7 @@
       </c>
       <c r="C43" s="119" t="str">
         <f>Futures!H37</f>
-        <v>obj_004ea#0005</v>
+        <v>obj_004a8#0000</v>
       </c>
       <c r="D43" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C43)</f>
@@ -6135,11 +6081,11 @@
       </c>
       <c r="E43" s="130">
         <f>_xll.qlRateHelperQuoteValue($C43,Trigger)</f>
-        <v>95.990000000000009</v>
+        <v>96.292500000000004</v>
       </c>
       <c r="F43" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C43,Trigger)</f>
-        <v>1.8443532079488918E-3</v>
+        <v>1.9530789174778981E-3</v>
       </c>
       <c r="G43" s="64" t="b">
         <v>1</v>
@@ -6168,7 +6114,7 @@
       </c>
       <c r="C44" s="119" t="str">
         <f>Futures!H38</f>
-        <v>obj_004ed#0005</v>
+        <v>obj_004e1#0000</v>
       </c>
       <c r="D44" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C44)</f>
@@ -6176,11 +6122,11 @@
       </c>
       <c r="E44" s="130">
         <f>_xll.qlRateHelperQuoteValue($C44,Trigger)</f>
-        <v>95.94</v>
+        <v>96.25</v>
       </c>
       <c r="F44" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C44,Trigger)</f>
-        <v>1.9648711470033656E-3</v>
+        <v>2.0834926825948172E-3</v>
       </c>
       <c r="G44" s="64" t="b">
         <v>1</v>
@@ -6209,7 +6155,7 @@
       </c>
       <c r="C45" s="119" t="str">
         <f>Futures!H39</f>
-        <v>obj_004db#0005</v>
+        <v>obj_004dd#0000</v>
       </c>
       <c r="D45" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C45)</f>
@@ -6217,11 +6163,11 @@
       </c>
       <c r="E45" s="130">
         <f>_xll.qlRateHelperQuoteValue($C45,Trigger)</f>
-        <v>95.9</v>
+        <v>96.21</v>
       </c>
       <c r="F45" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C45,Trigger)</f>
-        <v>2.0865848872888408E-3</v>
+        <v>2.2153510376372912E-3</v>
       </c>
       <c r="G45" s="64" t="b">
         <v>1</v>
@@ -6250,7 +6196,7 @@
       </c>
       <c r="C46" s="119" t="str">
         <f>Futures!H40</f>
-        <v>obj_004e2#0005</v>
+        <v>obj_004ed#0000</v>
       </c>
       <c r="D46" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C46)</f>
@@ -6258,11 +6204,11 @@
       </c>
       <c r="E46" s="130">
         <f>_xll.qlRateHelperQuoteValue($C46,Trigger)</f>
-        <v>95.86</v>
+        <v>96.18</v>
       </c>
       <c r="F46" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C46,Trigger)</f>
-        <v>2.2109821859306643E-3</v>
+        <v>2.3501415277969988E-3</v>
       </c>
       <c r="G46" s="64" t="b">
         <v>1</v>
@@ -6291,7 +6237,7 @@
       </c>
       <c r="C47" s="119" t="str">
         <f>Futures!H41</f>
-        <v>obj_004df#0005</v>
+        <v>obj_004b1#0000</v>
       </c>
       <c r="D47" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C47)</f>
@@ -6299,11 +6245,11 @@
       </c>
       <c r="E47" s="130">
         <f>_xll.qlRateHelperQuoteValue($C47,Trigger)</f>
-        <v>95.835000000000008</v>
+        <v>96.14500000000001</v>
       </c>
       <c r="F47" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C47,Trigger)</f>
-        <v>2.3430674724070296E-3</v>
+        <v>2.493378281328259E-3</v>
       </c>
       <c r="G47" s="64" t="b">
         <v>1</v>
@@ -6332,7 +6278,7 @@
       </c>
       <c r="C48" s="119" t="str">
         <f>Futures!H42</f>
-        <v>obj_004d4#0005</v>
+        <v>obj_004f0#0000</v>
       </c>
       <c r="D48" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C48)</f>
@@ -6340,11 +6286,11 @@
       </c>
       <c r="E48" s="130">
         <f>_xll.qlRateHelperQuoteValue($C48,Trigger)</f>
-        <v>95.807500000000005</v>
+        <v>96.115000000000009</v>
       </c>
       <c r="F48" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C48,Trigger)</f>
-        <v>2.4744499869389378E-3</v>
+        <v>2.6359444346652715E-3</v>
       </c>
       <c r="G48" s="64" t="b">
         <v>1</v>
@@ -6373,7 +6319,7 @@
       </c>
       <c r="C49" s="119" t="str">
         <f>Futures!H43</f>
-        <v>obj_004ec#0005</v>
+        <v>obj_004d6#0000</v>
       </c>
       <c r="D49" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C49)</f>
@@ -6381,11 +6327,11 @@
       </c>
       <c r="E49" s="130">
         <f>_xll.qlRateHelperQuoteValue($C49,Trigger)</f>
-        <v>95.772500000000008</v>
+        <v>96.092500000000001</v>
       </c>
       <c r="F49" s="120">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C49,Trigger)</f>
-        <v>2.617002699130338E-3</v>
+        <v>2.7906388007008531E-3</v>
       </c>
       <c r="G49" s="64" t="b">
         <v>1</v>
@@ -6414,7 +6360,7 @@
       </c>
       <c r="C50" s="124" t="str">
         <f>Futures!H44</f>
-        <v>obj_004cd#0005</v>
+        <v>obj_004d7#0000</v>
       </c>
       <c r="D50" s="124" t="str">
         <f>_xll.qlRateHelperQuoteName(C50)</f>
@@ -6422,11 +6368,11 @@
       </c>
       <c r="E50" s="131">
         <f>_xll.qlRateHelperQuoteValue($C50,Trigger)</f>
-        <v>95.75</v>
+        <v>96.072499999999991</v>
       </c>
       <c r="F50" s="125">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C50,Trigger)</f>
-        <v>2.7516520365034923E-3</v>
+        <v>2.9368936890700305E-3</v>
       </c>
       <c r="G50" s="126" t="b">
         <v>1</v>
@@ -6453,15 +6399,15 @@
       </c>
       <c r="C51" s="119" t="str">
         <f>Swaps!K5</f>
-        <v>obj_004ad#0012</v>
+        <v>obj_004c7#0001</v>
       </c>
       <c r="D51" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C51)</f>
         <v>USDAM3L1Y_Quote</v>
       </c>
-      <c r="E51" s="120">
+      <c r="E51" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C51,Trigger)</f>
-        <v>2.8900000000000002E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="F51" s="120">
         <f>_xll.qlSwapRateHelperSpread($C51,Trigger)</f>
@@ -6478,11 +6424,11 @@
       </c>
       <c r="J51" s="121">
         <f>_xll.qlRateHelperEarliestDate($C51,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K51" s="122">
         <f>_xll.qlRateHelperLatestDate($C51,Trigger)</f>
-        <v>42193</v>
+        <v>42242</v>
       </c>
       <c r="M51" s="133"/>
     </row>
@@ -6492,7 +6438,7 @@
       </c>
       <c r="C52" s="119" t="str">
         <f>Swaps!K6</f>
-        <v>obj_004a8#0014</v>
+        <v>obj_004be#0001</v>
       </c>
       <c r="D52" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C52)</f>
@@ -6517,11 +6463,11 @@
       </c>
       <c r="J52" s="121">
         <f>_xll.qlRateHelperEarliestDate($C52,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K52" s="122">
         <f>_xll.qlRateHelperLatestDate($C52,Trigger)</f>
-        <v>42285</v>
+        <v>42335</v>
       </c>
       <c r="M52" s="133"/>
     </row>
@@ -6531,7 +6477,7 @@
       </c>
       <c r="C53" s="119" t="str">
         <f>Swaps!K7</f>
-        <v>obj_004b5#0014</v>
+        <v>obj_004de#0001</v>
       </c>
       <c r="D53" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C53)</f>
@@ -6556,11 +6502,11 @@
       </c>
       <c r="J53" s="121">
         <f>_xll.qlRateHelperEarliestDate($C53,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K53" s="122">
         <f>_xll.qlRateHelperLatestDate($C53,Trigger)</f>
-        <v>42377</v>
+        <v>42426</v>
       </c>
       <c r="M53" s="133"/>
     </row>
@@ -6570,7 +6516,7 @@
       </c>
       <c r="C54" s="119" t="str">
         <f>Swaps!K8</f>
-        <v>obj_004ae#0014</v>
+        <v>obj_004ad#0001</v>
       </c>
       <c r="D54" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C54)</f>
@@ -6595,11 +6541,11 @@
       </c>
       <c r="J54" s="121">
         <f>_xll.qlRateHelperEarliestDate($C54,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K54" s="122">
         <f>_xll.qlRateHelperLatestDate($C54,Trigger)</f>
-        <v>42468</v>
+        <v>42516</v>
       </c>
       <c r="M54" s="133"/>
     </row>
@@ -6609,15 +6555,15 @@
       </c>
       <c r="C55" s="119" t="str">
         <f>Swaps!K9</f>
-        <v>obj_004bb#0014</v>
+        <v>obj_004b7#0001</v>
       </c>
       <c r="D55" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C55)</f>
         <v>USDAM3L2Y_Quote</v>
       </c>
-      <c r="E55" s="120">
+      <c r="E55" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C55,Trigger)</f>
-        <v>6.0899999999999999E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="F55" s="120">
         <f>_xll.qlSwapRateHelperSpread($C55,Trigger)</f>
@@ -6634,11 +6580,11 @@
       </c>
       <c r="J55" s="121">
         <f>_xll.qlRateHelperEarliestDate($C55,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K55" s="122">
         <f>_xll.qlRateHelperLatestDate($C55,Trigger)</f>
-        <v>42559</v>
+        <v>42608</v>
       </c>
       <c r="M55" s="133"/>
     </row>
@@ -6648,15 +6594,15 @@
       </c>
       <c r="C56" s="119" t="str">
         <f>Swaps!K10</f>
-        <v>obj_004c9#0014</v>
+        <v>obj_004a6#0001</v>
       </c>
       <c r="D56" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C56)</f>
         <v>USDAM3L3Y_Quote</v>
       </c>
-      <c r="E56" s="120">
+      <c r="E56" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C56,Trigger)</f>
-        <v>1.0489999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="F56" s="120">
         <f>_xll.qlSwapRateHelperSpread($C56,Trigger)</f>
@@ -6673,11 +6619,11 @@
       </c>
       <c r="J56" s="121">
         <f>_xll.qlRateHelperEarliestDate($C56,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K56" s="122">
         <f>_xll.qlRateHelperLatestDate($C56,Trigger)</f>
-        <v>42926</v>
+        <v>42975</v>
       </c>
       <c r="M56" s="133"/>
     </row>
@@ -6687,15 +6633,15 @@
       </c>
       <c r="C57" s="119" t="str">
         <f>Swaps!K11</f>
-        <v>obj_004c5#0014</v>
+        <v>obj_004ac#0001</v>
       </c>
       <c r="D57" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C57)</f>
         <v>USDAM3L4Y_Quote</v>
       </c>
-      <c r="E57" s="120">
+      <c r="E57" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C57,Trigger)</f>
-        <v>1.4500000000000002E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="F57" s="120">
         <f>_xll.qlSwapRateHelperSpread($C57,Trigger)</f>
@@ -6712,11 +6658,11 @@
       </c>
       <c r="J57" s="121">
         <f>_xll.qlRateHelperEarliestDate($C57,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K57" s="122">
         <f>_xll.qlRateHelperLatestDate($C57,Trigger)</f>
-        <v>43290</v>
+        <v>43339</v>
       </c>
       <c r="M57" s="133"/>
     </row>
@@ -6726,15 +6672,15 @@
       </c>
       <c r="C58" s="119" t="str">
         <f>Swaps!K12</f>
-        <v>obj_004b4#0014</v>
+        <v>obj_004ca#0001</v>
       </c>
       <c r="D58" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C58)</f>
         <v>USDAM3L5Y_Quote</v>
       </c>
-      <c r="E58" s="120">
+      <c r="E58" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C58,Trigger)</f>
-        <v>1.77E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="F58" s="120">
         <f>_xll.qlSwapRateHelperSpread($C58,Trigger)</f>
@@ -6751,11 +6697,11 @@
       </c>
       <c r="J58" s="121">
         <f>_xll.qlRateHelperEarliestDate($C58,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K58" s="122">
         <f>_xll.qlRateHelperLatestDate($C58,Trigger)</f>
-        <v>43654</v>
+        <v>43703</v>
       </c>
       <c r="M58" s="133"/>
     </row>
@@ -6765,15 +6711,15 @@
       </c>
       <c r="C59" s="119" t="str">
         <f>Swaps!K13</f>
-        <v>obj_004b0#0014</v>
+        <v>obj_004ae#0001</v>
       </c>
       <c r="D59" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C59)</f>
         <v>USDAM3L6Y_Quote</v>
       </c>
-      <c r="E59" s="120">
+      <c r="E59" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C59,Trigger)</f>
-        <v>2.0289999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="F59" s="120">
         <f>_xll.qlSwapRateHelperSpread($C59,Trigger)</f>
@@ -6790,11 +6736,11 @@
       </c>
       <c r="J59" s="121">
         <f>_xll.qlRateHelperEarliestDate($C59,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K59" s="122">
         <f>_xll.qlRateHelperLatestDate($C59,Trigger)</f>
-        <v>44020</v>
+        <v>44069</v>
       </c>
       <c r="M59" s="133"/>
     </row>
@@ -6804,15 +6750,15 @@
       </c>
       <c r="C60" s="119" t="str">
         <f>Swaps!K14</f>
-        <v>obj_004c0#0014</v>
+        <v>obj_004b2#0001</v>
       </c>
       <c r="D60" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C60)</f>
         <v>USDAM3L7Y_Quote</v>
       </c>
-      <c r="E60" s="120">
+      <c r="E60" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C60,Trigger)</f>
-        <v>2.2400000000000003E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="F60" s="120">
         <f>_xll.qlSwapRateHelperSpread($C60,Trigger)</f>
@@ -6829,11 +6775,11 @@
       </c>
       <c r="J60" s="121">
         <f>_xll.qlRateHelperEarliestDate($C60,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K60" s="122">
         <f>_xll.qlRateHelperLatestDate($C60,Trigger)</f>
-        <v>44385</v>
+        <v>44434</v>
       </c>
       <c r="M60" s="133"/>
     </row>
@@ -6843,15 +6789,15 @@
       </c>
       <c r="C61" s="119" t="str">
         <f>Swaps!K15</f>
-        <v>obj_004bf#0014</v>
+        <v>obj_004c2#0001</v>
       </c>
       <c r="D61" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C61)</f>
         <v>USDAM3L8Y_Quote</v>
       </c>
-      <c r="E61" s="120">
+      <c r="E61" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C61,Trigger)</f>
-        <v>2.4109999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="F61" s="120">
         <f>_xll.qlSwapRateHelperSpread($C61,Trigger)</f>
@@ -6868,11 +6814,11 @@
       </c>
       <c r="J61" s="121">
         <f>_xll.qlRateHelperEarliestDate($C61,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K61" s="122">
         <f>_xll.qlRateHelperLatestDate($C61,Trigger)</f>
-        <v>44750</v>
+        <v>44799</v>
       </c>
       <c r="M61" s="133"/>
     </row>
@@ -6882,15 +6828,15 @@
       </c>
       <c r="C62" s="119" t="str">
         <f>Swaps!K16</f>
-        <v>obj_004bc#0014</v>
+        <v>obj_004b9#0001</v>
       </c>
       <c r="D62" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C62)</f>
         <v>USDAM3L9Y_Quote</v>
       </c>
-      <c r="E62" s="120">
+      <c r="E62" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C62,Trigger)</f>
-        <v>2.5540000000000004E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="F62" s="120">
         <f>_xll.qlSwapRateHelperSpread($C62,Trigger)</f>
@@ -6907,11 +6853,11 @@
       </c>
       <c r="J62" s="121">
         <f>_xll.qlRateHelperEarliestDate($C62,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K62" s="122">
         <f>_xll.qlRateHelperLatestDate($C62,Trigger)</f>
-        <v>45117</v>
+        <v>45166</v>
       </c>
       <c r="M62" s="133"/>
     </row>
@@ -6921,15 +6867,15 @@
       </c>
       <c r="C63" s="119" t="str">
         <f>Swaps!K17</f>
-        <v>obj_004a6#0014</v>
+        <v>obj_004eb#0001</v>
       </c>
       <c r="D63" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C63)</f>
         <v>USDAM3L10Y_Quote</v>
       </c>
-      <c r="E63" s="120">
+      <c r="E63" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C63,Trigger)</f>
-        <v>2.6749999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="F63" s="120">
         <f>_xll.qlSwapRateHelperSpread($C63,Trigger)</f>
@@ -6946,11 +6892,11 @@
       </c>
       <c r="J63" s="121">
         <f>_xll.qlRateHelperEarliestDate($C63,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K63" s="122">
         <f>_xll.qlRateHelperLatestDate($C63,Trigger)</f>
-        <v>45481</v>
+        <v>45530</v>
       </c>
       <c r="M63" s="133"/>
     </row>
@@ -6960,7 +6906,7 @@
       </c>
       <c r="C64" s="119" t="str">
         <f>Swaps!K18</f>
-        <v>obj_004bd#0014</v>
+        <v>obj_004cd#0001</v>
       </c>
       <c r="D64" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C64)</f>
@@ -6985,11 +6931,11 @@
       </c>
       <c r="J64" s="121">
         <f>_xll.qlRateHelperEarliestDate($C64,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K64" s="122">
         <f>_xll.qlRateHelperLatestDate($C64,Trigger)</f>
-        <v>45846</v>
+        <v>45895</v>
       </c>
       <c r="M64" s="133"/>
     </row>
@@ -6999,15 +6945,15 @@
       </c>
       <c r="C65" s="119" t="str">
         <f>Swaps!K19</f>
-        <v>obj_004c2#0014</v>
+        <v>obj_004a4#0001</v>
       </c>
       <c r="D65" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C65)</f>
         <v>USDAM3L12Y_Quote</v>
       </c>
-      <c r="E65" s="120">
+      <c r="E65" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C65,Trigger)</f>
-        <v>2.8739999999999998E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="F65" s="120">
         <f>_xll.qlSwapRateHelperSpread($C65,Trigger)</f>
@@ -7024,11 +6970,11 @@
       </c>
       <c r="J65" s="121">
         <f>_xll.qlRateHelperEarliestDate($C65,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K65" s="122">
         <f>_xll.qlRateHelperLatestDate($C65,Trigger)</f>
-        <v>46211</v>
+        <v>46260</v>
       </c>
       <c r="M65" s="133"/>
     </row>
@@ -7038,7 +6984,7 @@
       </c>
       <c r="C66" s="119" t="str">
         <f>Swaps!K20</f>
-        <v>obj_004c6#0014</v>
+        <v>obj_004c3#0001</v>
       </c>
       <c r="D66" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C66)</f>
@@ -7063,11 +7009,11 @@
       </c>
       <c r="J66" s="121">
         <f>_xll.qlRateHelperEarliestDate($C66,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K66" s="122">
         <f>_xll.qlRateHelperLatestDate($C66,Trigger)</f>
-        <v>46576</v>
+        <v>46625</v>
       </c>
       <c r="M66" s="133"/>
     </row>
@@ -7077,7 +7023,7 @@
       </c>
       <c r="C67" s="119" t="str">
         <f>Swaps!K21</f>
-        <v>obj_004ab#0014</v>
+        <v>obj_004ce#0001</v>
       </c>
       <c r="D67" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C67)</f>
@@ -7102,11 +7048,11 @@
       </c>
       <c r="J67" s="121">
         <f>_xll.qlRateHelperEarliestDate($C67,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K67" s="122">
         <f>_xll.qlRateHelperLatestDate($C67,Trigger)</f>
-        <v>46944</v>
+        <v>46993</v>
       </c>
       <c r="M67" s="133"/>
     </row>
@@ -7116,15 +7062,15 @@
       </c>
       <c r="C68" s="119" t="str">
         <f>Swaps!K22</f>
-        <v>obj_004c8#0014</v>
+        <v>obj_004a3#0001</v>
       </c>
       <c r="D68" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C68)</f>
         <v>USDAM3L15Y_Quote</v>
       </c>
-      <c r="E68" s="120">
+      <c r="E68" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C68,Trigger)</f>
-        <v>3.074E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="F68" s="120">
         <f>_xll.qlSwapRateHelperSpread($C68,Trigger)</f>
@@ -7141,11 +7087,11 @@
       </c>
       <c r="J68" s="121">
         <f>_xll.qlRateHelperEarliestDate($C68,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K68" s="122">
         <f>_xll.qlRateHelperLatestDate($C68,Trigger)</f>
-        <v>47308</v>
+        <v>47357</v>
       </c>
       <c r="M68" s="133"/>
     </row>
@@ -7155,7 +7101,7 @@
       </c>
       <c r="C69" s="119" t="str">
         <f>Swaps!K23</f>
-        <v>obj_004ac#0014</v>
+        <v>obj_004c5#0001</v>
       </c>
       <c r="D69" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C69)</f>
@@ -7180,11 +7126,11 @@
       </c>
       <c r="J69" s="121">
         <f>_xll.qlRateHelperEarliestDate($C69,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K69" s="122">
         <f>_xll.qlRateHelperLatestDate($C69,Trigger)</f>
-        <v>47672</v>
+        <v>47721</v>
       </c>
       <c r="M69" s="133"/>
     </row>
@@ -7194,7 +7140,7 @@
       </c>
       <c r="C70" s="119" t="str">
         <f>Swaps!K24</f>
-        <v>obj_004b3#0014</v>
+        <v>obj_004a2#0001</v>
       </c>
       <c r="D70" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C70)</f>
@@ -7219,11 +7165,11 @@
       </c>
       <c r="J70" s="121">
         <f>_xll.qlRateHelperEarliestDate($C70,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K70" s="122">
         <f>_xll.qlRateHelperLatestDate($C70,Trigger)</f>
-        <v>48037</v>
+        <v>48086</v>
       </c>
       <c r="M70" s="133"/>
     </row>
@@ -7233,7 +7179,7 @@
       </c>
       <c r="C71" s="119" t="str">
         <f>Swaps!K25</f>
-        <v>obj_004be#0014</v>
+        <v>obj_004db#0001</v>
       </c>
       <c r="D71" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C71)</f>
@@ -7258,11 +7204,11 @@
       </c>
       <c r="J71" s="121">
         <f>_xll.qlRateHelperEarliestDate($C71,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K71" s="122">
         <f>_xll.qlRateHelperLatestDate($C71,Trigger)</f>
-        <v>48403</v>
+        <v>48452</v>
       </c>
       <c r="M71" s="133"/>
     </row>
@@ -7272,7 +7218,7 @@
       </c>
       <c r="C72" s="119" t="str">
         <f>Swaps!K26</f>
-        <v>obj_004c1#0014</v>
+        <v>obj_004bb#0001</v>
       </c>
       <c r="D72" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C72)</f>
@@ -7297,11 +7243,11 @@
       </c>
       <c r="J72" s="121">
         <f>_xll.qlRateHelperEarliestDate($C72,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K72" s="122">
         <f>_xll.qlRateHelperLatestDate($C72,Trigger)</f>
-        <v>48768</v>
+        <v>48817</v>
       </c>
       <c r="M72" s="133"/>
     </row>
@@ -7311,15 +7257,15 @@
       </c>
       <c r="C73" s="119" t="str">
         <f>Swaps!K27</f>
-        <v>obj_004ba#0014</v>
+        <v>obj_004d1#0001</v>
       </c>
       <c r="D73" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C73)</f>
         <v>USDAM3L20Y_Quote</v>
       </c>
-      <c r="E73" s="120">
+      <c r="E73" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C73,Trigger)</f>
-        <v>3.2489999999999998E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="F73" s="120">
         <f>_xll.qlSwapRateHelperSpread($C73,Trigger)</f>
@@ -7336,11 +7282,11 @@
       </c>
       <c r="J73" s="121">
         <f>_xll.qlRateHelperEarliestDate($C73,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K73" s="122">
         <f>_xll.qlRateHelperLatestDate($C73,Trigger)</f>
-        <v>49135</v>
+        <v>49184</v>
       </c>
       <c r="M73" s="133"/>
     </row>
@@ -7350,7 +7296,7 @@
       </c>
       <c r="C74" s="119" t="str">
         <f>Swaps!K28</f>
-        <v>obj_004b6#0014</v>
+        <v>obj_004a5#0001</v>
       </c>
       <c r="D74" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C74)</f>
@@ -7375,11 +7321,11 @@
       </c>
       <c r="J74" s="121">
         <f>_xll.qlRateHelperEarliestDate($C74,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K74" s="122">
         <f>_xll.qlRateHelperLatestDate($C74,Trigger)</f>
-        <v>49499</v>
+        <v>49548</v>
       </c>
       <c r="M74" s="133"/>
     </row>
@@ -7389,7 +7335,7 @@
       </c>
       <c r="C75" s="119" t="str">
         <f>Swaps!K29</f>
-        <v>obj_004b7#0014</v>
+        <v>obj_004e9#0001</v>
       </c>
       <c r="D75" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C75)</f>
@@ -7414,11 +7360,11 @@
       </c>
       <c r="J75" s="121">
         <f>_xll.qlRateHelperEarliestDate($C75,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K75" s="122">
         <f>_xll.qlRateHelperLatestDate($C75,Trigger)</f>
-        <v>49864</v>
+        <v>49913</v>
       </c>
       <c r="M75" s="133"/>
     </row>
@@ -7428,7 +7374,7 @@
       </c>
       <c r="C76" s="119" t="str">
         <f>Swaps!K30</f>
-        <v>obj_004ca#0014</v>
+        <v>obj_004b8#0001</v>
       </c>
       <c r="D76" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C76)</f>
@@ -7453,11 +7399,11 @@
       </c>
       <c r="J76" s="121">
         <f>_xll.qlRateHelperEarliestDate($C76,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K76" s="122">
         <f>_xll.qlRateHelperLatestDate($C76,Trigger)</f>
-        <v>50229</v>
+        <v>50278</v>
       </c>
       <c r="M76" s="133"/>
     </row>
@@ -7467,7 +7413,7 @@
       </c>
       <c r="C77" s="119" t="str">
         <f>Swaps!K31</f>
-        <v>obj_004af#0014</v>
+        <v>obj_004e2#0001</v>
       </c>
       <c r="D77" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C77)</f>
@@ -7492,11 +7438,11 @@
       </c>
       <c r="J77" s="121">
         <f>_xll.qlRateHelperEarliestDate($C77,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K77" s="122">
         <f>_xll.qlRateHelperLatestDate($C77,Trigger)</f>
-        <v>50594</v>
+        <v>50643</v>
       </c>
       <c r="M77" s="133"/>
     </row>
@@ -7506,15 +7452,15 @@
       </c>
       <c r="C78" s="119" t="str">
         <f>Swaps!K32</f>
-        <v>obj_004b9#0014</v>
+        <v>obj_004ee#0001</v>
       </c>
       <c r="D78" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C78)</f>
         <v>USDAM3L25Y_Quote</v>
       </c>
-      <c r="E78" s="120">
+      <c r="E78" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C78,Trigger)</f>
-        <v>3.3270000000000001E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="F78" s="120">
         <f>_xll.qlSwapRateHelperSpread($C78,Trigger)</f>
@@ -7531,11 +7477,11 @@
       </c>
       <c r="J78" s="121">
         <f>_xll.qlRateHelperEarliestDate($C78,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K78" s="122">
         <f>_xll.qlRateHelperLatestDate($C78,Trigger)</f>
-        <v>50959</v>
+        <v>51008</v>
       </c>
       <c r="M78" s="133"/>
     </row>
@@ -7545,7 +7491,7 @@
       </c>
       <c r="C79" s="119" t="str">
         <f>Swaps!K33</f>
-        <v>obj_004b8#0014</v>
+        <v>obj_004c9#0001</v>
       </c>
       <c r="D79" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C79)</f>
@@ -7570,11 +7516,11 @@
       </c>
       <c r="J79" s="121">
         <f>_xll.qlRateHelperEarliestDate($C79,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K79" s="122">
         <f>_xll.qlRateHelperLatestDate($C79,Trigger)</f>
-        <v>51326</v>
+        <v>51375</v>
       </c>
       <c r="M79" s="133"/>
     </row>
@@ -7584,7 +7530,7 @@
       </c>
       <c r="C80" s="119" t="str">
         <f>Swaps!K34</f>
-        <v>obj_004aa#0014</v>
+        <v>obj_004e8#0001</v>
       </c>
       <c r="D80" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C80)</f>
@@ -7609,11 +7555,11 @@
       </c>
       <c r="J80" s="121">
         <f>_xll.qlRateHelperEarliestDate($C80,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K80" s="122">
         <f>_xll.qlRateHelperLatestDate($C80,Trigger)</f>
-        <v>51690</v>
+        <v>51739</v>
       </c>
       <c r="M80" s="133"/>
     </row>
@@ -7623,7 +7569,7 @@
       </c>
       <c r="C81" s="119" t="str">
         <f>Swaps!K35</f>
-        <v>obj_004a9#0014</v>
+        <v>obj_004e5#0001</v>
       </c>
       <c r="D81" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C81)</f>
@@ -7648,11 +7594,11 @@
       </c>
       <c r="J81" s="121">
         <f>_xll.qlRateHelperEarliestDate($C81,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K81" s="122">
         <f>_xll.qlRateHelperLatestDate($C81,Trigger)</f>
-        <v>52055</v>
+        <v>52104</v>
       </c>
       <c r="M81" s="133"/>
     </row>
@@ -7662,7 +7608,7 @@
       </c>
       <c r="C82" s="119" t="str">
         <f>Swaps!K36</f>
-        <v>obj_004b2#0014</v>
+        <v>obj_004e4#0001</v>
       </c>
       <c r="D82" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C82)</f>
@@ -7687,11 +7633,11 @@
       </c>
       <c r="J82" s="121">
         <f>_xll.qlRateHelperEarliestDate($C82,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K82" s="122">
         <f>_xll.qlRateHelperLatestDate($C82,Trigger)</f>
-        <v>52420</v>
+        <v>52469</v>
       </c>
       <c r="M82" s="133"/>
     </row>
@@ -7701,15 +7647,15 @@
       </c>
       <c r="C83" s="119" t="str">
         <f>Swaps!K37</f>
-        <v>obj_004c4#0014</v>
+        <v>obj_004d8#0001</v>
       </c>
       <c r="D83" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C83)</f>
         <v>USDAM3L30Y_Quote</v>
       </c>
-      <c r="E83" s="120">
+      <c r="E83" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C83,Trigger)</f>
-        <v>3.363E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="F83" s="120">
         <f>_xll.qlSwapRateHelperSpread($C83,Trigger)</f>
@@ -7726,11 +7672,11 @@
       </c>
       <c r="J83" s="121">
         <f>_xll.qlRateHelperEarliestDate($C83,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K83" s="122">
         <f>_xll.qlRateHelperLatestDate($C83,Trigger)</f>
-        <v>52786</v>
+        <v>52835</v>
       </c>
       <c r="M83" s="133"/>
     </row>
@@ -7740,7 +7686,7 @@
       </c>
       <c r="C84" s="119" t="str">
         <f>Swaps!K38</f>
-        <v>obj_004c7#0014</v>
+        <v>obj_004d5#0001</v>
       </c>
       <c r="D84" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C84)</f>
@@ -7765,11 +7711,11 @@
       </c>
       <c r="J84" s="121">
         <f>_xll.qlRateHelperEarliestDate($C84,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K84" s="122">
         <f>_xll.qlRateHelperLatestDate($C84,Trigger)</f>
-        <v>54612</v>
+        <v>54661</v>
       </c>
       <c r="M84" s="133"/>
     </row>
@@ -7779,15 +7725,15 @@
       </c>
       <c r="C85" s="119" t="str">
         <f>Swaps!K39</f>
-        <v>obj_004a7#0014</v>
+        <v>obj_004b4#0001</v>
       </c>
       <c r="D85" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C85)</f>
         <v>USDAM3L40Y_Quote</v>
       </c>
-      <c r="E85" s="120">
+      <c r="E85" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C85,Trigger)</f>
-        <v>3.381E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="F85" s="120">
         <f>_xll.qlSwapRateHelperSpread($C85,Trigger)</f>
@@ -7804,11 +7750,11 @@
       </c>
       <c r="J85" s="121">
         <f>_xll.qlRateHelperEarliestDate($C85,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K85" s="122">
         <f>_xll.qlRateHelperLatestDate($C85,Trigger)</f>
-        <v>56438</v>
+        <v>56487</v>
       </c>
       <c r="M85" s="133"/>
     </row>
@@ -7818,15 +7764,15 @@
       </c>
       <c r="C86" s="119" t="str">
         <f>Swaps!K40</f>
-        <v>obj_004a5#0014</v>
+        <v>obj_004b3#0001</v>
       </c>
       <c r="D86" s="119" t="str">
         <f>_xll.qlRateHelperQuoteName(C86)</f>
         <v>USDAM3L50Y_Quote</v>
       </c>
-      <c r="E86" s="120">
+      <c r="E86" s="120" t="e">
         <f>_xll.qlRateHelperQuoteValue($C86,Trigger)</f>
-        <v>3.3620000000000004E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="F86" s="120">
         <f>_xll.qlSwapRateHelperSpread($C86,Trigger)</f>
@@ -7843,11 +7789,11 @@
       </c>
       <c r="J86" s="121">
         <f>_xll.qlRateHelperEarliestDate($C86,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K86" s="122">
         <f>_xll.qlRateHelperLatestDate($C86,Trigger)</f>
-        <v>60091</v>
+        <v>60140</v>
       </c>
       <c r="M86" s="133"/>
     </row>
@@ -7857,7 +7803,7 @@
       </c>
       <c r="C87" s="124" t="str">
         <f>Swaps!K41</f>
-        <v>obj_004c3#0014</v>
+        <v>obj_004c6#0001</v>
       </c>
       <c r="D87" s="124" t="str">
         <f>_xll.qlRateHelperQuoteName(C87)</f>
@@ -7882,11 +7828,11 @@
       </c>
       <c r="J87" s="127">
         <f>_xll.qlRateHelperEarliestDate($C87,Trigger)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="K87" s="128">
         <f>_xll.qlRateHelperLatestDate($C87,Trigger)</f>
-        <v>63744</v>
+        <v>63793</v>
       </c>
       <c r="M87" s="133"/>
     </row>
@@ -7930,7 +7876,7 @@
         <v>60</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F1" s="72" t="s">
         <v>52</v>
@@ -7942,9 +7888,9 @@
       <c r="I1" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="74">
+      <c r="J1" s="74" t="e">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>1.5208301649246123E-3</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -7956,15 +7902,15 @@
       </c>
       <c r="D2" s="77" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_0049d</v>
+        <v>obj_0049b</v>
       </c>
       <c r="E2" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
         <v>USDOND_Quote</v>
       </c>
-      <c r="F2" s="78">
+      <c r="F2" s="78" t="e">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>1.5000000000000002E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -7972,14 +7918,14 @@
       </c>
       <c r="H2" s="89">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41827</v>
+        <v>41873</v>
       </c>
       <c r="I2" s="90">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41828</v>
-      </c>
-      <c r="J2" s="74">
-        <v>1.5208301649246123E-3</v>
+        <v>41876</v>
+      </c>
+      <c r="J2" s="74" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K2" s="79"/>
     </row>
@@ -7991,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="77" t="str">
-        <v>obj_004a0</v>
+        <v>obj_0049c</v>
       </c>
       <c r="E3" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -7999,7 +7945,7 @@
       </c>
       <c r="F3" s="78">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>1.23E-3</v>
+        <v>1.2100000000000001E-3</v>
       </c>
       <c r="G3" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -8007,14 +7953,14 @@
       </c>
       <c r="H3" s="89">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I3" s="90">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41835</v>
-      </c>
-      <c r="J3" s="74">
-        <v>1.3466181457673352E-3</v>
+        <v>41884</v>
+      </c>
+      <c r="J3" s="74" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K3" s="79"/>
     </row>
@@ -8026,7 +7972,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="77" t="str">
-        <v>obj_004a3</v>
+        <v>obj_0049d</v>
       </c>
       <c r="E4" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -8034,7 +7980,7 @@
       </c>
       <c r="F4" s="78">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>1.5199999999999999E-3</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="G4" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -8042,14 +7988,14 @@
       </c>
       <c r="H4" s="89">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I4" s="90">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41859</v>
-      </c>
-      <c r="J4" s="74">
-        <v>1.5387039658551524E-3</v>
+        <v>41908</v>
+      </c>
+      <c r="J4" s="74" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K4" s="79"/>
     </row>
@@ -8061,7 +8007,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="77" t="str">
-        <v>obj_0049c</v>
+        <v>obj_0049e</v>
       </c>
       <c r="E5" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -8069,7 +8015,7 @@
       </c>
       <c r="F5" s="78">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>1.9625000000000003E-3</v>
+        <v>1.9510000000000003E-3</v>
       </c>
       <c r="G5" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -8077,14 +8023,14 @@
       </c>
       <c r="H5" s="89">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I5" s="90">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41890</v>
-      </c>
-      <c r="J5" s="74">
-        <v>1.961021334773598E-3</v>
+        <v>41939</v>
+      </c>
+      <c r="J5" s="74" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K5" s="79"/>
     </row>
@@ -8105,7 +8051,7 @@
       </c>
       <c r="F6" s="78">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>2.3259999999999999E-3</v>
+        <v>2.3840000000000003E-3</v>
       </c>
       <c r="G6" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -8113,28 +8059,28 @@
       </c>
       <c r="H6" s="89">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I6" s="90">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41920</v>
-      </c>
-      <c r="J6" s="74">
-        <v>2.3227393038409822E-3</v>
+        <v>41969</v>
+      </c>
+      <c r="J6" s="74" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="84" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_RateHelpersSelected#0027</v>
+        <v>USD_YCSTDRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="77" t="str">
-        <v>obj_004a2</v>
+        <v>obj_004a0</v>
       </c>
       <c r="E7" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -8142,7 +8088,7 @@
       </c>
       <c r="F7" s="78">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>3.2529999999999998E-3</v>
+        <v>3.3050000000000002E-3</v>
       </c>
       <c r="G7" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -8150,57 +8096,57 @@
       </c>
       <c r="H7" s="89">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I7" s="90">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42012</v>
-      </c>
-      <c r="J7" s="74">
-        <v>3.2576840470412618E-3</v>
+        <v>42061</v>
+      </c>
+      <c r="J7" s="74" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="77" t="str">
-        <v>obj_004d6</v>
+        <v>obj_004a1</v>
       </c>
       <c r="E8" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
-        <v>USDFUT3MH5_Quote</v>
+        <v>UsdLibor1YLastFixing_Quote</v>
       </c>
       <c r="F8" s="78">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>3.7365992865883452E-3</v>
+        <v>5.6559999999999996E-3</v>
       </c>
       <c r="G8" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
-        <v>3.8400713411627372E-5</v>
+        <v>0</v>
       </c>
       <c r="H8" s="89">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>42081</v>
+        <v>41877</v>
       </c>
       <c r="I8" s="90">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42173</v>
-      </c>
-      <c r="J8" s="74">
-        <v>3.461439472218511E-3</v>
+        <v>42242</v>
+      </c>
+      <c r="J8" s="74" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K8" s="79"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" s="77" t="str">
-        <v>obj_0049e</v>
+        <v>obj_004c1</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
-        <v>UsdLibor1YLastFixing_Quote</v>
-      </c>
-      <c r="F9" s="78">
+        <v>USDFUT3MM5_Quote</v>
+      </c>
+      <c r="F9" s="78" t="e">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>5.4710000000000002E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G9" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -8208,173 +8154,173 @@
       </c>
       <c r="H9" s="89">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41828</v>
+        <v>42172</v>
       </c>
       <c r="I9" s="90">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42193</v>
-      </c>
-      <c r="J9" s="74">
-        <v>5.488180428744229E-3</v>
+        <v>42264</v>
+      </c>
+      <c r="J9" s="74" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K9" s="79"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="77" t="str">
-        <v>obj_004d3</v>
+        <v>obj_004a9</v>
       </c>
       <c r="E10" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
-        <v>USDFUT3MM5_Quote</v>
-      </c>
-      <c r="F10" s="78">
+        <v>USDFUT3MU5_Quote</v>
+      </c>
+      <c r="F10" s="78" t="e">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>5.5126983740107043E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G10" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
-        <v>6.2301625989292329E-5</v>
+        <v>0</v>
       </c>
       <c r="H10" s="89">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="I10" s="90">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42264</v>
-      </c>
-      <c r="J10" s="74">
-        <v>3.9045247802208375E-3</v>
+        <v>42354</v>
+      </c>
+      <c r="J10" s="74" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K10" s="79"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="77" t="str">
-        <v>obj_004dd</v>
+        <v>obj_004d9</v>
       </c>
       <c r="E11" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
-        <v>USDFUT3MU5_Quote</v>
-      </c>
-      <c r="F11" s="78">
+        <v>USDFUT3MZ5_Quote</v>
+      </c>
+      <c r="F11" s="78" t="e">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>7.7338739944200719E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G11" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
-        <v>9.1126005579898707E-5</v>
+        <v>0</v>
       </c>
       <c r="H11" s="89">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="I11" s="90">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42354</v>
-      </c>
-      <c r="J11" s="74">
-        <v>4.5976207380897137E-3</v>
+        <v>42445</v>
+      </c>
+      <c r="J11" s="74" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K11" s="79"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="77" t="str">
-        <v>obj_004d1</v>
+        <v>obj_004d4</v>
       </c>
       <c r="E12" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
-        <v>USDFUT3MZ5_Quote</v>
-      </c>
-      <c r="F12" s="78">
+        <v>USDFUT3MH6_Quote</v>
+      </c>
+      <c r="F12" s="78" t="e">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>1.0149713941865654E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G12" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
-        <v>1.2528605813437899E-4</v>
+        <v>0</v>
       </c>
       <c r="H12" s="89">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="I12" s="90">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42445</v>
-      </c>
-      <c r="J12" s="74">
-        <v>5.4299385350584373E-3</v>
+        <v>42537</v>
+      </c>
+      <c r="J12" s="74" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K12" s="79"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" s="77" t="str">
-        <v>obj_004e5</v>
+        <v>obj_004d0</v>
       </c>
       <c r="E13" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
-        <v>USDFUT3MH6_Quote</v>
-      </c>
-      <c r="F13" s="78">
+        <v>USDFUT3MM6_Quote</v>
+      </c>
+      <c r="F13" s="78" t="e">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>1.2810144844709711E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G13" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
-        <v>1.6485515529024732E-4</v>
+        <v>0</v>
       </c>
       <c r="H13" s="89">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="I13" s="90">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42537</v>
-      </c>
-      <c r="J13" s="74">
-        <v>6.4024432753184779E-3</v>
+        <v>42628</v>
+      </c>
+      <c r="J13" s="74" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K13" s="79"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D14" s="77" t="str">
-        <v>obj_004e0</v>
+        <v>obj_004ea</v>
       </c>
       <c r="E14" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
-        <v>USDFUT3MM6_Quote</v>
-      </c>
-      <c r="F14" s="78">
+        <v>USDFUT3MU6_Quote</v>
+      </c>
+      <c r="F14" s="78" t="e">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>1.556602712887817E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G14" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
-        <v>2.0897287112181425E-4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="89">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="I14" s="90">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42628</v>
-      </c>
-      <c r="J14" s="74">
-        <v>7.4628076869453107E-3</v>
+        <v>42725</v>
+      </c>
+      <c r="J14" s="74" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K14" s="79"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D15" s="77" t="str">
-        <v>obj_004c9</v>
+        <v>obj_004a6</v>
       </c>
       <c r="E15" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
         <v>USDAM3L3Y_Quote</v>
       </c>
-      <c r="F15" s="78">
+      <c r="F15" s="78" t="e">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>1.0489999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G15" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -8382,28 +8328,28 @@
       </c>
       <c r="H15" s="89">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I15" s="90">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42926</v>
-      </c>
-      <c r="J15" s="74">
-        <v>1.0592165350570049E-2</v>
+        <v>42975</v>
+      </c>
+      <c r="J15" s="74" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K15" s="79"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="77" t="str">
-        <v>obj_004c5</v>
+        <v>obj_004ac</v>
       </c>
       <c r="E16" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
         <v>USDAM3L4Y_Quote</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="78" t="e">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.4500000000000002E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G16" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -8411,27 +8357,27 @@
       </c>
       <c r="H16" s="89">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I16" s="90">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43290</v>
-      </c>
-      <c r="J16" s="74">
-        <v>1.4696563572800714E-2</v>
+        <v>43339</v>
+      </c>
+      <c r="J16" s="74" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="77" t="str">
-        <v>obj_004b4</v>
+        <v>obj_004ca</v>
       </c>
       <c r="E17" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
         <v>USDAM3L5Y_Quote</v>
       </c>
-      <c r="F17" s="78">
+      <c r="F17" s="78" t="e">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.77E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G17" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -8439,27 +8385,27 @@
       </c>
       <c r="H17" s="89">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I17" s="90">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43654</v>
-      </c>
-      <c r="J17" s="74">
-        <v>1.8005096284823136E-2</v>
+        <v>43703</v>
+      </c>
+      <c r="J17" s="74" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="77" t="str">
-        <v>obj_004b0</v>
+        <v>obj_004ae</v>
       </c>
       <c r="E18" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
         <v>USDAM3L6Y_Quote</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="78" t="e">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>2.0289999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G18" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -8467,27 +8413,27 @@
       </c>
       <c r="H18" s="89">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I18" s="90">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>44020</v>
-      </c>
-      <c r="J18" s="74">
-        <v>2.0711261387783876E-2</v>
+        <v>44069</v>
+      </c>
+      <c r="J18" s="74" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="77" t="str">
-        <v>obj_004c0</v>
+        <v>obj_004b2</v>
       </c>
       <c r="E19" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
         <v>USDAM3L7Y_Quote</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="78" t="e">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>2.2400000000000003E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G19" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -8495,27 +8441,27 @@
       </c>
       <c r="H19" s="89">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I19" s="90">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44385</v>
-      </c>
-      <c r="J19" s="74">
-        <v>2.2940329367817605E-2</v>
+        <v>44434</v>
+      </c>
+      <c r="J19" s="74" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="77" t="str">
-        <v>obj_004bf</v>
+        <v>obj_004c2</v>
       </c>
       <c r="E20" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
         <v>USDAM3L8Y_Quote</v>
       </c>
-      <c r="F20" s="78">
+      <c r="F20" s="78" t="e">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.4109999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G20" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -8523,27 +8469,27 @@
       </c>
       <c r="H20" s="89">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I20" s="90">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44750</v>
-      </c>
-      <c r="J20" s="74">
-        <v>2.4765375931636965E-2</v>
+        <v>44799</v>
+      </c>
+      <c r="J20" s="74" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" s="77" t="str">
-        <v>obj_004bc</v>
+        <v>obj_004b9</v>
       </c>
       <c r="E21" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
         <v>USDAM3L9Y_Quote</v>
       </c>
-      <c r="F21" s="78">
+      <c r="F21" s="78" t="e">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.5540000000000004E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G21" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -8551,27 +8497,27 @@
       </c>
       <c r="H21" s="89">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I21" s="90">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>45117</v>
-      </c>
-      <c r="J21" s="74">
-        <v>2.6307401352627734E-2</v>
+        <v>45166</v>
+      </c>
+      <c r="J21" s="74" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D22" s="77" t="str">
-        <v>obj_004a6</v>
+        <v>obj_004eb</v>
       </c>
       <c r="E22" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
         <v>USDAM3L10Y_Quote</v>
       </c>
-      <c r="F22" s="78">
+      <c r="F22" s="78" t="e">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.6749999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G22" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -8579,27 +8525,27 @@
       </c>
       <c r="H22" s="89">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I22" s="90">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>45481</v>
-      </c>
-      <c r="J22" s="74">
-        <v>2.7627257172774783E-2</v>
+        <v>45530</v>
+      </c>
+      <c r="J22" s="74" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D23" s="77" t="str">
-        <v>obj_004c2</v>
+        <v>obj_004a4</v>
       </c>
       <c r="E23" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
         <v>USDAM3L12Y_Quote</v>
       </c>
-      <c r="F23" s="78">
+      <c r="F23" s="78" t="e">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.8739999999999998E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G23" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -8607,27 +8553,27 @@
       </c>
       <c r="H23" s="89">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I23" s="90">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>46211</v>
-      </c>
-      <c r="J23" s="74">
-        <v>2.9838585830070236E-2</v>
+        <v>46260</v>
+      </c>
+      <c r="J23" s="74" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D24" s="77" t="str">
-        <v>obj_004c8</v>
+        <v>obj_004a3</v>
       </c>
       <c r="E24" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
         <v>USDAM3L15Y_Quote</v>
       </c>
-      <c r="F24" s="78">
+      <c r="F24" s="78" t="e">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>3.074E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G24" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -8635,27 +8581,27 @@
       </c>
       <c r="H24" s="89">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I24" s="90">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>47308</v>
-      </c>
-      <c r="J24" s="74">
-        <v>3.2106945356741003E-2</v>
+        <v>47357</v>
+      </c>
+      <c r="J24" s="74" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D25" s="77" t="str">
-        <v>obj_004ba</v>
+        <v>obj_004d1</v>
       </c>
       <c r="E25" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
         <v>USDAM3L20Y_Quote</v>
       </c>
-      <c r="F25" s="78">
+      <c r="F25" s="78" t="e">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>3.2489999999999998E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G25" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -8663,27 +8609,27 @@
       </c>
       <c r="H25" s="89">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I25" s="90">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>49135</v>
-      </c>
-      <c r="J25" s="74">
-        <v>3.410920419310929E-2</v>
+        <v>49184</v>
+      </c>
+      <c r="J25" s="74" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D26" s="77" t="str">
-        <v>obj_004b9</v>
+        <v>obj_004ee</v>
       </c>
       <c r="E26" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
         <v>USDAM3L25Y_Quote</v>
       </c>
-      <c r="F26" s="78">
+      <c r="F26" s="78" t="e">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>3.3270000000000001E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G26" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -8691,27 +8637,27 @@
       </c>
       <c r="H26" s="89">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I26" s="90">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>50959</v>
-      </c>
-      <c r="J26" s="74">
-        <v>3.4943415177043524E-2</v>
+        <v>51008</v>
+      </c>
+      <c r="J26" s="74" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D27" s="77" t="str">
-        <v>obj_004c4</v>
+        <v>obj_004d8</v>
       </c>
       <c r="E27" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
         <v>USDAM3L30Y_Quote</v>
       </c>
-      <c r="F27" s="78">
+      <c r="F27" s="78" t="e">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>3.363E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G27" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -8719,27 +8665,27 @@
       </c>
       <c r="H27" s="89">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I27" s="90">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>52786</v>
-      </c>
-      <c r="J27" s="74">
-        <v>3.5251131810928357E-2</v>
+        <v>52835</v>
+      </c>
+      <c r="J27" s="74" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D28" s="77" t="str">
-        <v>obj_004a7</v>
+        <v>obj_004b4</v>
       </c>
       <c r="E28" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
         <v>USDAM3L40Y_Quote</v>
       </c>
-      <c r="F28" s="78">
+      <c r="F28" s="78" t="e">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>3.381E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G28" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -8747,27 +8693,27 @@
       </c>
       <c r="H28" s="89">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I28" s="90">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56438</v>
-      </c>
-      <c r="J28" s="74">
-        <v>3.5156537520424032E-2</v>
+        <v>56487</v>
+      </c>
+      <c r="J28" s="74" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D29" s="77" t="str">
-        <v>obj_004a5</v>
+        <v>obj_004b3</v>
       </c>
       <c r="E29" s="77" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
         <v>USDAM3L50Y_Quote</v>
       </c>
-      <c r="F29" s="78">
+      <c r="F29" s="78" t="e">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>3.3620000000000004E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G29" s="78">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -8775,14 +8721,14 @@
       </c>
       <c r="H29" s="89">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41828</v>
+        <v>41877</v>
       </c>
       <c r="I29" s="90">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>60091</v>
-      </c>
-      <c r="J29" s="74">
-        <v>3.4423543656691272E-2</v>
+        <v>60140</v>
+      </c>
+      <c r="J29" s="74" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.2">
@@ -8810,7 +8756,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J30" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.2">
@@ -8838,7 +8784,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J31" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.2">
@@ -8866,7 +8812,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J32" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.2">
@@ -8894,7 +8840,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J33" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.2">
@@ -8922,7 +8868,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J34" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.2">
@@ -8950,7 +8896,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J35" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.2">
@@ -8978,7 +8924,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J36" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.2">
@@ -9006,7 +8952,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J37" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.2">
@@ -9034,7 +8980,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J38" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.2">
@@ -9062,7 +9008,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J39" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.2">
@@ -9090,7 +9036,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J40" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.2">
@@ -9118,7 +9064,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J41" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.2">
@@ -9146,7 +9092,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J42" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.2">
@@ -9174,7 +9120,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J43" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.2">
@@ -9202,7 +9148,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J44" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.2">
@@ -9230,7 +9176,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J45" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.2">
@@ -9258,7 +9204,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J46" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.2">
@@ -9286,7 +9232,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J47" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.2">
@@ -9314,7 +9260,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J48" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.2">
@@ -9342,7 +9288,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J49" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.2">
@@ -9370,7 +9316,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J50" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.2">
@@ -9398,7 +9344,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J51" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.2">
@@ -9426,7 +9372,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J52" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.2">
@@ -9454,7 +9400,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J53" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.2">
@@ -9482,7 +9428,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J54" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.2">
@@ -9510,7 +9456,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J55" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.2">
@@ -9538,7 +9484,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J56" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="57" spans="4:10" x14ac:dyDescent="0.2">
@@ -9566,7 +9512,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J57" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="58" spans="4:10" x14ac:dyDescent="0.2">
@@ -9594,7 +9540,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J58" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.2">
@@ -9622,7 +9568,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J59" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.2">
@@ -9650,7 +9596,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J60" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.2">
@@ -9678,7 +9624,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J61" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.2">
@@ -9706,7 +9652,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J62" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.2">
@@ -9734,7 +9680,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J63" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="64" spans="4:10" x14ac:dyDescent="0.2">
@@ -9762,7 +9708,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J64" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="65" spans="4:10" x14ac:dyDescent="0.2">
@@ -9790,7 +9736,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J65" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.2">
@@ -9818,7 +9764,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J66" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="67" spans="4:10" x14ac:dyDescent="0.2">
@@ -9846,7 +9792,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J67" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.2">
@@ -9874,7 +9820,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J68" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="69" spans="4:10" x14ac:dyDescent="0.2">
@@ -9902,7 +9848,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J69" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="70" spans="4:10" x14ac:dyDescent="0.2">
@@ -9930,7 +9876,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J70" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="71" spans="4:10" x14ac:dyDescent="0.2">
@@ -9958,7 +9904,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J71" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.2">
@@ -9986,7 +9932,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J72" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="73" spans="4:10" x14ac:dyDescent="0.2">
@@ -10014,7 +9960,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J73" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.2">
@@ -10042,7 +9988,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J74" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.2">
@@ -10070,7 +10016,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J75" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="76" spans="4:10" x14ac:dyDescent="0.2">
@@ -10098,7 +10044,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J76" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="77" spans="4:10" x14ac:dyDescent="0.2">
@@ -10126,7 +10072,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J77" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="78" spans="4:10" x14ac:dyDescent="0.2">
@@ -10154,7 +10100,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J78" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="79" spans="4:10" x14ac:dyDescent="0.2">
@@ -10182,7 +10128,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J79" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="80" spans="4:10" x14ac:dyDescent="0.2">
@@ -10210,7 +10156,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="81" spans="4:10" x14ac:dyDescent="0.2">
@@ -10238,7 +10184,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J81" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="82" spans="4:10" x14ac:dyDescent="0.2">
@@ -10266,7 +10212,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J82" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="83" spans="4:10" x14ac:dyDescent="0.2">
@@ -10294,7 +10240,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J83" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="84" spans="4:10" x14ac:dyDescent="0.2">
@@ -10322,7 +10268,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J84" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="85" spans="4:10" x14ac:dyDescent="0.2">
@@ -10350,7 +10296,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J85" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="86" spans="4:10" x14ac:dyDescent="0.2">
@@ -10378,7 +10324,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J86" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="87" spans="4:10" x14ac:dyDescent="0.2">
@@ -10406,7 +10352,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J87" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="88" spans="4:10" x14ac:dyDescent="0.2">
@@ -10434,7 +10380,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J88" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.2">
@@ -10462,7 +10408,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J89" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.2">
@@ -10490,7 +10436,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J90" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.2">
@@ -10518,7 +10464,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J91" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.2">
@@ -10546,7 +10492,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J92" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="93" spans="4:10" x14ac:dyDescent="0.2">
@@ -10574,7 +10520,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J93" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="94" spans="4:10" x14ac:dyDescent="0.2">
@@ -10602,7 +10548,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J94" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="95" spans="4:10" x14ac:dyDescent="0.2">
@@ -10630,7 +10576,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J95" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="96" spans="4:10" x14ac:dyDescent="0.2">
@@ -10658,7 +10604,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J96" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="97" spans="4:10" x14ac:dyDescent="0.2">
@@ -10686,7 +10632,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J97" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="98" spans="4:10" x14ac:dyDescent="0.2">
@@ -10714,7 +10660,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J98" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="99" spans="4:10" x14ac:dyDescent="0.2">
@@ -10742,7 +10688,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J99" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="100" spans="4:10" x14ac:dyDescent="0.2">
@@ -10770,7 +10716,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J100" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.2">
@@ -10798,7 +10744,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J101" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.2">
@@ -10826,7 +10772,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J102" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.2">
@@ -10854,7 +10800,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J103" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="104" spans="4:10" x14ac:dyDescent="0.2">
@@ -10882,7 +10828,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J104" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="105" spans="4:10" x14ac:dyDescent="0.2">
@@ -10910,7 +10856,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J105" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="106" spans="4:10" x14ac:dyDescent="0.2">
@@ -10938,7 +10884,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J106" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="107" spans="4:10" x14ac:dyDescent="0.2">
@@ -10966,7 +10912,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J107" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="108" spans="4:10" x14ac:dyDescent="0.2">
@@ -10994,7 +10940,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J108" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="109" spans="4:10" x14ac:dyDescent="0.2">
@@ -11022,7 +10968,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J109" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="110" spans="4:10" x14ac:dyDescent="0.2">
@@ -11050,7 +10996,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J110" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="111" spans="4:10" x14ac:dyDescent="0.2">
@@ -11078,7 +11024,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J111" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="112" spans="4:10" x14ac:dyDescent="0.2">
@@ -11106,7 +11052,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J112" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="113" spans="4:10" x14ac:dyDescent="0.2">
@@ -11134,7 +11080,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J113" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="114" spans="4:10" x14ac:dyDescent="0.2">
@@ -11162,7 +11108,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J114" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="115" spans="4:10" x14ac:dyDescent="0.2">
@@ -11190,7 +11136,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J115" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="116" spans="4:10" x14ac:dyDescent="0.2">
@@ -11218,7 +11164,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J116" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="117" spans="4:10" x14ac:dyDescent="0.2">
@@ -11246,7 +11192,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J117" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="118" spans="4:10" x14ac:dyDescent="0.2">
@@ -11274,7 +11220,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J118" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="119" spans="4:10" x14ac:dyDescent="0.2">
@@ -11302,7 +11248,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J119" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="120" spans="4:10" x14ac:dyDescent="0.2">
@@ -11330,7 +11276,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J120" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="121" spans="4:10" x14ac:dyDescent="0.2">
@@ -11358,7 +11304,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J121" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="122" spans="4:10" x14ac:dyDescent="0.2">
@@ -11386,7 +11332,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J122" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="123" spans="4:10" x14ac:dyDescent="0.2">
@@ -11414,7 +11360,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J123" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="124" spans="4:10" x14ac:dyDescent="0.2">
@@ -11442,7 +11388,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J124" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="125" spans="4:10" x14ac:dyDescent="0.2">
@@ -11470,7 +11416,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J125" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="126" spans="4:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -11498,7 +11444,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J126" s="74" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -11542,7 +11488,7 @@
       <c r="A1" s="66"/>
       <c r="B1" s="65"/>
       <c r="C1" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="63" t="str">
         <f>Currency&amp;"_YC"&amp;$C$1&amp;"RH"</f>
@@ -11559,10 +11505,10 @@
       <c r="A2" s="54"/>
       <c r="B2" s="61"/>
       <c r="C2" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="59" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(E3:E9,SerializationPath&amp;E1,FileOverwrite,Serialize),"---")</f>
@@ -11577,10 +11523,10 @@
     <row r="3" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
       <c r="B3" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="51" t="str">
         <f>Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
@@ -11588,7 +11534,7 @@
       </c>
       <c r="E3" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0049d#0004</v>
+        <v>obj_0049b#0000</v>
       </c>
       <c r="F3" s="55" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -11599,11 +11545,11 @@
     <row r="4" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
       <c r="B4" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="52" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(B4="SW","1W",B4),2,Currency,Calendar,"f",FALSE,"actual/360",,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0049a#0018</v>
+        <v>obj_00495#0001</v>
       </c>
       <c r="D4" s="51" t="str">
         <f t="shared" ref="D4:D9" si="0">PROPER(Currency)&amp;FamilyName&amp;$B4&amp;"LastFixing"&amp;QuoteSuffix</f>
@@ -11611,7 +11557,7 @@
       </c>
       <c r="E4" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004a0#0010</v>
+        <v>obj_0049c#0001</v>
       </c>
       <c r="F4" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -11622,11 +11568,11 @@
     <row r="5" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
       <c r="B5" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="52" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(B5="SW","1W",B5),2,Currency,Calendar,"mf",TRUE,"actual/360",,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0049b#0018</v>
+        <v>obj_00496#0001</v>
       </c>
       <c r="D5" s="51" t="str">
         <f t="shared" si="0"/>
@@ -11634,7 +11580,7 @@
       </c>
       <c r="E5" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004a3#0011</v>
+        <v>obj_0049d#0001</v>
       </c>
       <c r="F5" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -11645,11 +11591,11 @@
     <row r="6" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
       <c r="B6" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="52" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(B6="SW","1W",B6),2,Currency,Calendar,"mf",TRUE,"actual/360",,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00499#0009</v>
+        <v>obj_0049a#0001</v>
       </c>
       <c r="D6" s="51" t="str">
         <f t="shared" si="0"/>
@@ -11657,7 +11603,7 @@
       </c>
       <c r="E6" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0049c#0013</v>
+        <v>obj_0049e#0001</v>
       </c>
       <c r="F6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -11668,11 +11614,11 @@
     <row r="7" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
       <c r="B7" s="53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="52" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(B7="SW","1W",B7),2,Currency,Calendar,"mf",TRUE,"actual/360",,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00496#0009</v>
+        <v>obj_00499#0001</v>
       </c>
       <c r="D7" s="51" t="str">
         <f t="shared" si="0"/>
@@ -11680,7 +11626,7 @@
       </c>
       <c r="E7" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0049f#0013</v>
+        <v>obj_0049f#0001</v>
       </c>
       <c r="F7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -11691,11 +11637,11 @@
     <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
       <c r="B8" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="52" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(B8="SW","1W",B8),2,Currency,Calendar,"mf",TRUE,"actual/360",,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00498#0009</v>
+        <v>obj_00498#0001</v>
       </c>
       <c r="D8" s="51" t="str">
         <f t="shared" si="0"/>
@@ -11703,7 +11649,7 @@
       </c>
       <c r="E8" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004a2#0013</v>
+        <v>obj_004a0#0001</v>
       </c>
       <c r="F8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -11718,7 +11664,7 @@
       </c>
       <c r="C9" s="52" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(B9="SW","1W",B9),2,Currency,Calendar,"mf",TRUE,"actual/360",,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00497#0009</v>
+        <v>obj_00497#0001</v>
       </c>
       <c r="D9" s="51" t="str">
         <f t="shared" si="0"/>
@@ -11726,7 +11672,7 @@
       </c>
       <c r="E9" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0049e#0013</v>
+        <v>obj_004a1#0001</v>
       </c>
       <c r="F9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -11778,7 +11724,7 @@
       <c r="C1" s="138"/>
       <c r="D1" s="138"/>
       <c r="E1" s="64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="139"/>
       <c r="G1" s="140" t="str">
@@ -11795,22 +11741,22 @@
     <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="66"/>
       <c r="B2" s="135" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="135" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H2" s="136" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H44,SerializationPath&amp;H1,FileOverwrite,Serialize),"---")</f>
@@ -11832,7 +11778,7 @@
       </c>
       <c r="D3" s="144" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C44)</f>
-        <v>N4</v>
+        <v>U4</v>
       </c>
       <c r="E3" s="144" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -11840,15 +11786,15 @@
       </c>
       <c r="F3" s="145" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>USDFUT3MN4_Quote</v>
+        <v>USDFUT3MU4_Quote</v>
       </c>
       <c r="G3" s="145" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>USDFUT3MN4ConvAdj_Quote</v>
+        <v>USDFUT3MU4ConvAdj_Quote</v>
       </c>
       <c r="H3" s="146" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f4#0003</v>
+        <v>obj_004aa#0000</v>
       </c>
       <c r="I3" s="55" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11866,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="148" t="str">
-        <v>Q4</v>
+        <v>V4</v>
       </c>
       <c r="E4" s="144" t="str">
         <f t="shared" si="0"/>
@@ -11874,15 +11820,15 @@
       </c>
       <c r="F4" s="145" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MQ4_Quote</v>
+        <v>USDFUT3MV4_Quote</v>
       </c>
       <c r="G4" s="145" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MQ4ConvAdj_Quote</v>
+        <v>USDFUT3MV4ConvAdj_Quote</v>
       </c>
       <c r="H4" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004dc#0005</v>
+        <v>obj_004d3#0000</v>
       </c>
       <c r="I4" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11900,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="148" t="str">
-        <v>U4</v>
+        <v>X4</v>
       </c>
       <c r="E5" s="144" t="str">
         <f t="shared" si="0"/>
@@ -11908,15 +11854,15 @@
       </c>
       <c r="F5" s="145" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MU4_Quote</v>
+        <v>USDFUT3MX4_Quote</v>
       </c>
       <c r="G5" s="145" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MU4ConvAdj_Quote</v>
+        <v>USDFUT3MX4ConvAdj_Quote</v>
       </c>
       <c r="H5" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ee#0005</v>
+        <v>obj_004df#0000</v>
       </c>
       <c r="I5" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -11934,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="148" t="str">
-        <v>V4</v>
+        <v>Z4</v>
       </c>
       <c r="E6" s="144" t="str">
         <f t="shared" si="0"/>
@@ -11942,15 +11888,15 @@
       </c>
       <c r="F6" s="145" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MV4_Quote</v>
+        <v>USDFUT3MZ4_Quote</v>
       </c>
       <c r="G6" s="145" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MV4ConvAdj_Quote</v>
+        <v>USDFUT3MZ4ConvAdj_Quote</v>
       </c>
       <c r="H6" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004cf#0005</v>
+        <v>obj_004c8#0000</v>
       </c>
       <c r="I6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -11968,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="148" t="str">
-        <v>X4</v>
+        <v>F5</v>
       </c>
       <c r="E7" s="144" t="str">
         <f t="shared" si="0"/>
@@ -11976,15 +11922,15 @@
       </c>
       <c r="F7" s="145" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MX4_Quote</v>
+        <v>USDFUT3MF5_Quote</v>
       </c>
       <c r="G7" s="145" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MX4ConvAdj_Quote</v>
+        <v>USDFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="H7" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f0#0005</v>
+        <v>obj_004cc#0000</v>
       </c>
       <c r="I7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -12002,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="148" t="str">
-        <v>Z4</v>
+        <v>G5</v>
       </c>
       <c r="E8" s="144" t="str">
         <f t="shared" si="0"/>
@@ -12010,15 +11956,15 @@
       </c>
       <c r="F8" s="145" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MZ4_Quote</v>
+        <v>USDFUT3MG5_Quote</v>
       </c>
       <c r="G8" s="145" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MZ4ConvAdj_Quote</v>
+        <v>USDFUT3MG5ConvAdj_Quote</v>
       </c>
       <c r="H8" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ce#0005</v>
+        <v>obj_004cb#0000</v>
       </c>
       <c r="I8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -12036,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="148" t="str">
-        <v>F5</v>
+        <v>H5</v>
       </c>
       <c r="E9" s="144" t="str">
         <f t="shared" si="0"/>
@@ -12044,15 +11990,15 @@
       </c>
       <c r="F9" s="145" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MF5_Quote</v>
+        <v>USDFUT3MH5_Quote</v>
       </c>
       <c r="G9" s="145" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MF5ConvAdj_Quote</v>
+        <v>USDFUT3MH5ConvAdj_Quote</v>
       </c>
       <c r="H9" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f3#0005</v>
+        <v>obj_004e3#0000</v>
       </c>
       <c r="I9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -12070,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="148" t="str">
-        <v>G5</v>
+        <v>J5</v>
       </c>
       <c r="E10" s="144" t="str">
         <f t="shared" si="0"/>
@@ -12078,15 +12024,15 @@
       </c>
       <c r="F10" s="145" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MG5_Quote</v>
+        <v>USDFUT3MJ5_Quote</v>
       </c>
       <c r="G10" s="145" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MG5ConvAdj_Quote</v>
+        <v>USDFUT3MJ5ConvAdj_Quote</v>
       </c>
       <c r="H10" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d8#0005</v>
+        <v>obj_004af#0000</v>
       </c>
       <c r="I10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -12104,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="148" t="str">
-        <v>H5</v>
+        <v>K5</v>
       </c>
       <c r="E11" s="144" t="str">
         <f t="shared" si="0"/>
@@ -12112,15 +12058,15 @@
       </c>
       <c r="F11" s="145" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MH5_Quote</v>
+        <v>USDFUT3MK5_Quote</v>
       </c>
       <c r="G11" s="145" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MH5ConvAdj_Quote</v>
+        <v>USDFUT3MK5ConvAdj_Quote</v>
       </c>
       <c r="H11" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d6#0005</v>
+        <v>obj_004ba#0000</v>
       </c>
       <c r="I11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -12138,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="148" t="str">
-        <v>J5</v>
+        <v>M5</v>
       </c>
       <c r="E12" s="144" t="str">
         <f t="shared" si="0"/>
@@ -12146,15 +12092,15 @@
       </c>
       <c r="F12" s="145" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MJ5_Quote</v>
+        <v>USDFUT3MM5_Quote</v>
       </c>
       <c r="G12" s="145" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MJ5ConvAdj_Quote</v>
+        <v>USDFUT3MM5ConvAdj_Quote</v>
       </c>
       <c r="H12" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004cb#0005</v>
+        <v>obj_004c1#0000</v>
       </c>
       <c r="I12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -12172,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="148" t="str">
-        <v>K5</v>
+        <v>N5</v>
       </c>
       <c r="E13" s="144" t="str">
         <f t="shared" si="0"/>
@@ -12180,15 +12126,15 @@
       </c>
       <c r="F13" s="145" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MK5_Quote</v>
+        <v>USDFUT3MN5_Quote</v>
       </c>
       <c r="G13" s="145" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MK5ConvAdj_Quote</v>
+        <v>USDFUT3MN5ConvAdj_Quote</v>
       </c>
       <c r="H13" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e3#0005</v>
+        <v>obj_004e6#0000</v>
       </c>
       <c r="I13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -12206,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="148" t="str">
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="E14" s="144" t="str">
         <f t="shared" si="0"/>
@@ -12214,15 +12160,15 @@
       </c>
       <c r="F14" s="145" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MM5_Quote</v>
+        <v>USDFUT3MQ5_Quote</v>
       </c>
       <c r="G14" s="145" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MM5ConvAdj_Quote</v>
+        <v>USDFUT3MQ5ConvAdj_Quote</v>
       </c>
       <c r="H14" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d3#0005</v>
+        <v>obj_004d2#0000</v>
       </c>
       <c r="I14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -12256,7 +12202,7 @@
       </c>
       <c r="H15" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004dd#0005</v>
+        <v>obj_004a9#0000</v>
       </c>
       <c r="I15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -12290,7 +12236,7 @@
       </c>
       <c r="H16" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d1#0005</v>
+        <v>obj_004d9#0000</v>
       </c>
       <c r="I16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -12324,7 +12270,7 @@
       </c>
       <c r="H17" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e5#0005</v>
+        <v>obj_004d4#0000</v>
       </c>
       <c r="I17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -12358,7 +12304,7 @@
       </c>
       <c r="H18" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e0#0005</v>
+        <v>obj_004d0#0000</v>
       </c>
       <c r="I18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -12392,7 +12338,7 @@
       </c>
       <c r="H19" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e4#0005</v>
+        <v>obj_004ea#0000</v>
       </c>
       <c r="I19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -12426,7 +12372,7 @@
       </c>
       <c r="H20" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d0#0005</v>
+        <v>obj_004dc#0000</v>
       </c>
       <c r="I20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -12460,7 +12406,7 @@
       </c>
       <c r="H21" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004da#0005</v>
+        <v>obj_004b6#0000</v>
       </c>
       <c r="I21" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -12494,7 +12440,7 @@
       </c>
       <c r="H22" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004cc#0005</v>
+        <v>obj_004bf#0000</v>
       </c>
       <c r="I22" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -12528,7 +12474,7 @@
       </c>
       <c r="H23" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e8#0005</v>
+        <v>obj_004ab#0000</v>
       </c>
       <c r="I23" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -12562,7 +12508,7 @@
       </c>
       <c r="H24" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ef#0005</v>
+        <v>obj_004cf#0000</v>
       </c>
       <c r="I24" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -12596,7 +12542,7 @@
       </c>
       <c r="H25" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d9#0005</v>
+        <v>obj_004b0#0000</v>
       </c>
       <c r="I25" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -12630,7 +12576,7 @@
       </c>
       <c r="H26" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f2#0005</v>
+        <v>obj_004b5#0000</v>
       </c>
       <c r="I26" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -12664,7 +12610,7 @@
       </c>
       <c r="H27" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e9#0005</v>
+        <v>obj_004c4#0000</v>
       </c>
       <c r="I27" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -12698,7 +12644,7 @@
       </c>
       <c r="H28" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f1#0005</v>
+        <v>obj_004e7#0000</v>
       </c>
       <c r="I28" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -12732,7 +12678,7 @@
       </c>
       <c r="H29" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004de#0005</v>
+        <v>obj_004ec#0000</v>
       </c>
       <c r="I29" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -12766,7 +12712,7 @@
       </c>
       <c r="H30" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004eb#0005</v>
+        <v>obj_004a7#0000</v>
       </c>
       <c r="I30" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -12800,7 +12746,7 @@
       </c>
       <c r="H31" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e7#0005</v>
+        <v>obj_004ef#0000</v>
       </c>
       <c r="I31" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -12834,7 +12780,7 @@
       </c>
       <c r="H32" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d5#0005</v>
+        <v>obj_004c0#0000</v>
       </c>
       <c r="I32" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -12868,7 +12814,7 @@
       </c>
       <c r="H33" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d7#0005</v>
+        <v>obj_004e0#0000</v>
       </c>
       <c r="I33" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -12902,7 +12848,7 @@
       </c>
       <c r="H34" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e6#0005</v>
+        <v>obj_004bc#0000</v>
       </c>
       <c r="I34" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -12936,7 +12882,7 @@
       </c>
       <c r="H35" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d2#0005</v>
+        <v>obj_004bd#0000</v>
       </c>
       <c r="I35" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -12970,7 +12916,7 @@
       </c>
       <c r="H36" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e1#0005</v>
+        <v>obj_004da#0000</v>
       </c>
       <c r="I36" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -13004,7 +12950,7 @@
       </c>
       <c r="H37" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ea#0005</v>
+        <v>obj_004a8#0000</v>
       </c>
       <c r="I37" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -13038,7 +12984,7 @@
       </c>
       <c r="H38" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ed#0005</v>
+        <v>obj_004e1#0000</v>
       </c>
       <c r="I38" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -13072,7 +13018,7 @@
       </c>
       <c r="H39" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004db#0005</v>
+        <v>obj_004dd#0000</v>
       </c>
       <c r="I39" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -13106,7 +13052,7 @@
       </c>
       <c r="H40" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e2#0005</v>
+        <v>obj_004ed#0000</v>
       </c>
       <c r="I40" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -13139,7 +13085,7 @@
       </c>
       <c r="H41" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004df#0005</v>
+        <v>obj_004b1#0000</v>
       </c>
       <c r="I41" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -13172,7 +13118,7 @@
       </c>
       <c r="H42" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d4#0005</v>
+        <v>obj_004f0#0000</v>
       </c>
       <c r="I42" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -13205,7 +13151,7 @@
       </c>
       <c r="H43" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ec#0005</v>
+        <v>obj_004d6#0000</v>
       </c>
       <c r="I43" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -13238,7 +13184,7 @@
       </c>
       <c r="H44" s="149" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004cd#0005</v>
+        <v>obj_004d7#0000</v>
       </c>
       <c r="I44" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -13301,7 +13247,7 @@
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
       <c r="H1" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I1" s="64" t="str">
         <f>Currency&amp;"_YC"&amp;"STDRH"</f>
@@ -13321,25 +13267,25 @@
     <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
       <c r="B2" s="61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
       <c r="F2" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J2" s="61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="136" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(K3:K41,SerializationPath&amp;J1,FileOverwrite,Serialize),"---")</f>
@@ -13364,7 +13310,7 @@
       <c r="J3" s="65"/>
       <c r="K3" s="156" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(,$H$1,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor(,Currency,$H$1,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_004a4#0006</v>
+        <v>obj_00494#0000</v>
       </c>
       <c r="L3" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -13390,7 +13336,7 @@
     <row r="5" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
       <c r="B5" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="158" t="s">
         <v>36</v>
@@ -13408,7 +13354,7 @@
         <v>Annual</v>
       </c>
       <c r="G5" s="148" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="148" t="str">
         <f t="shared" ref="H5:H41" si="1">IF(UPPER(RIGHT($D5))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D5))="M",MoneyMarketDayCounter,"--"))</f>
@@ -13423,7 +13369,7 @@
       </c>
       <c r="K5" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004ad#0012</v>
+        <v>obj_004c7#0001</v>
       </c>
       <c r="L5" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -13431,7 +13377,7 @@
       </c>
       <c r="M5" s="155"/>
       <c r="O5" s="162" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P5" s="134"/>
       <c r="Q5" s="163"/>
@@ -13439,7 +13385,7 @@
     <row r="6" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
       <c r="B6" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="158" t="s">
         <v>35</v>
@@ -13455,7 +13401,7 @@
         <v>Annual</v>
       </c>
       <c r="G6" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="144" t="str">
         <f t="shared" si="1"/>
@@ -13470,7 +13416,7 @@
       </c>
       <c r="K6" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004a8#0014</v>
+        <v>obj_004be#0001</v>
       </c>
       <c r="L6" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -13478,19 +13424,19 @@
       </c>
       <c r="M6" s="155"/>
       <c r="O6" s="165" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P6" s="166" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="167" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
       <c r="B7" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="158" t="s">
         <v>34</v>
@@ -13506,7 +13452,7 @@
         <v>Annual</v>
       </c>
       <c r="G7" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7" s="144" t="str">
         <f t="shared" si="1"/>
@@ -13521,7 +13467,7 @@
       </c>
       <c r="K7" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004b5#0014</v>
+        <v>obj_004de#0001</v>
       </c>
       <c r="L7" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -13529,19 +13475,19 @@
       </c>
       <c r="M7" s="155"/>
       <c r="O7" s="165" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P7" s="166" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="167" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
       <c r="B8" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="158" t="s">
         <v>33</v>
@@ -13557,7 +13503,7 @@
         <v>Annual</v>
       </c>
       <c r="G8" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H8" s="144" t="str">
         <f t="shared" si="1"/>
@@ -13572,7 +13518,7 @@
       </c>
       <c r="K8" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004ae#0014</v>
+        <v>obj_004ad#0001</v>
       </c>
       <c r="L8" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -13580,7 +13526,7 @@
       </c>
       <c r="M8" s="155"/>
       <c r="O8" s="165" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P8" s="166"/>
       <c r="Q8" s="167"/>
@@ -13588,7 +13534,7 @@
     <row r="9" spans="1:17" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="54"/>
       <c r="B9" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="158" t="s">
         <v>32</v>
@@ -13604,7 +13550,7 @@
         <v>Annual</v>
       </c>
       <c r="G9" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H9" s="144" t="str">
         <f t="shared" si="1"/>
@@ -13619,7 +13565,7 @@
       </c>
       <c r="K9" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004bb#0014</v>
+        <v>obj_004b7#0001</v>
       </c>
       <c r="L9" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -13627,19 +13573,19 @@
       </c>
       <c r="M9" s="155"/>
       <c r="O9" s="168" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P9" s="169" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="170" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
       <c r="B10" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="158" t="s">
         <v>31</v>
@@ -13655,7 +13601,7 @@
         <v>Annual</v>
       </c>
       <c r="G10" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H10" s="144" t="str">
         <f t="shared" si="1"/>
@@ -13670,7 +13616,7 @@
       </c>
       <c r="K10" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004c9#0014</v>
+        <v>obj_004a6#0001</v>
       </c>
       <c r="L10" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -13681,7 +13627,7 @@
     <row r="11" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
       <c r="B11" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="158" t="s">
         <v>30</v>
@@ -13697,7 +13643,7 @@
         <v>Annual</v>
       </c>
       <c r="G11" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" s="144" t="str">
         <f t="shared" si="1"/>
@@ -13712,7 +13658,7 @@
       </c>
       <c r="K11" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004c5#0014</v>
+        <v>obj_004ac#0001</v>
       </c>
       <c r="L11" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -13723,7 +13669,7 @@
     <row r="12" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
       <c r="B12" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="158" t="s">
         <v>29</v>
@@ -13739,7 +13685,7 @@
         <v>Annual</v>
       </c>
       <c r="G12" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="144" t="str">
         <f t="shared" si="1"/>
@@ -13754,7 +13700,7 @@
       </c>
       <c r="K12" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004b4#0014</v>
+        <v>obj_004ca#0001</v>
       </c>
       <c r="L12" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -13765,7 +13711,7 @@
     <row r="13" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
       <c r="B13" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="158" t="s">
         <v>28</v>
@@ -13781,7 +13727,7 @@
         <v>Annual</v>
       </c>
       <c r="G13" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="144" t="str">
         <f t="shared" si="1"/>
@@ -13796,7 +13742,7 @@
       </c>
       <c r="K13" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004b0#0014</v>
+        <v>obj_004ae#0001</v>
       </c>
       <c r="L13" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -13807,7 +13753,7 @@
     <row r="14" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
       <c r="B14" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="158" t="s">
         <v>27</v>
@@ -13823,7 +13769,7 @@
         <v>Annual</v>
       </c>
       <c r="G14" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H14" s="144" t="str">
         <f t="shared" si="1"/>
@@ -13838,7 +13784,7 @@
       </c>
       <c r="K14" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004c0#0014</v>
+        <v>obj_004b2#0001</v>
       </c>
       <c r="L14" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -13849,7 +13795,7 @@
     <row r="15" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
       <c r="B15" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="158" t="s">
         <v>26</v>
@@ -13865,7 +13811,7 @@
         <v>Annual</v>
       </c>
       <c r="G15" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="144" t="str">
         <f t="shared" si="1"/>
@@ -13880,7 +13826,7 @@
       </c>
       <c r="K15" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004bf#0014</v>
+        <v>obj_004c2#0001</v>
       </c>
       <c r="L15" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -13891,7 +13837,7 @@
     <row r="16" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
       <c r="B16" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="158" t="s">
         <v>25</v>
@@ -13907,7 +13853,7 @@
         <v>Annual</v>
       </c>
       <c r="G16" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H16" s="144" t="str">
         <f t="shared" si="1"/>
@@ -13922,7 +13868,7 @@
       </c>
       <c r="K16" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004bc#0014</v>
+        <v>obj_004b9#0001</v>
       </c>
       <c r="L16" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -13933,7 +13879,7 @@
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
       <c r="B17" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="158" t="s">
         <v>24</v>
@@ -13949,7 +13895,7 @@
         <v>Annual</v>
       </c>
       <c r="G17" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="144" t="str">
         <f t="shared" si="1"/>
@@ -13964,7 +13910,7 @@
       </c>
       <c r="K17" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004a6#0014</v>
+        <v>obj_004eb#0001</v>
       </c>
       <c r="L17" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -13975,7 +13921,7 @@
     <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
       <c r="B18" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="158" t="s">
         <v>23</v>
@@ -13991,7 +13937,7 @@
         <v>Annual</v>
       </c>
       <c r="G18" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14006,7 +13952,7 @@
       </c>
       <c r="K18" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004bd#0014</v>
+        <v>obj_004cd#0001</v>
       </c>
       <c r="L18" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -14017,7 +13963,7 @@
     <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
       <c r="B19" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="158" t="s">
         <v>22</v>
@@ -14033,7 +13979,7 @@
         <v>Annual</v>
       </c>
       <c r="G19" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H19" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14048,7 +13994,7 @@
       </c>
       <c r="K19" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004c2#0014</v>
+        <v>obj_004a4#0001</v>
       </c>
       <c r="L19" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -14059,7 +14005,7 @@
     <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
       <c r="B20" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="158" t="s">
         <v>21</v>
@@ -14075,7 +14021,7 @@
         <v>Annual</v>
       </c>
       <c r="G20" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H20" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14090,7 +14036,7 @@
       </c>
       <c r="K20" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004c6#0014</v>
+        <v>obj_004c3#0001</v>
       </c>
       <c r="L20" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -14101,7 +14047,7 @@
     <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
       <c r="B21" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="158" t="s">
         <v>20</v>
@@ -14117,7 +14063,7 @@
         <v>Annual</v>
       </c>
       <c r="G21" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H21" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14132,7 +14078,7 @@
       </c>
       <c r="K21" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004ab#0014</v>
+        <v>obj_004ce#0001</v>
       </c>
       <c r="L21" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -14143,7 +14089,7 @@
     <row r="22" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
       <c r="B22" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="158" t="s">
         <v>19</v>
@@ -14159,7 +14105,7 @@
         <v>Annual</v>
       </c>
       <c r="G22" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H22" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14174,7 +14120,7 @@
       </c>
       <c r="K22" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004c8#0014</v>
+        <v>obj_004a3#0001</v>
       </c>
       <c r="L22" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -14185,7 +14131,7 @@
     <row r="23" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
       <c r="B23" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="158" t="s">
         <v>18</v>
@@ -14201,7 +14147,7 @@
         <v>Annual</v>
       </c>
       <c r="G23" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H23" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14216,7 +14162,7 @@
       </c>
       <c r="K23" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004ac#0014</v>
+        <v>obj_004c5#0001</v>
       </c>
       <c r="L23" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -14227,7 +14173,7 @@
     <row r="24" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
       <c r="B24" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="158" t="s">
         <v>17</v>
@@ -14243,7 +14189,7 @@
         <v>Annual</v>
       </c>
       <c r="G24" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H24" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14258,7 +14204,7 @@
       </c>
       <c r="K24" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004b3#0014</v>
+        <v>obj_004a2#0001</v>
       </c>
       <c r="L24" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -14269,7 +14215,7 @@
     <row r="25" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
       <c r="B25" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="158" t="s">
         <v>16</v>
@@ -14285,7 +14231,7 @@
         <v>Annual</v>
       </c>
       <c r="G25" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H25" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14300,7 +14246,7 @@
       </c>
       <c r="K25" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004be#0014</v>
+        <v>obj_004db#0001</v>
       </c>
       <c r="L25" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -14311,7 +14257,7 @@
     <row r="26" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
       <c r="B26" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="158" t="s">
         <v>15</v>
@@ -14327,7 +14273,7 @@
         <v>Annual</v>
       </c>
       <c r="G26" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H26" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14342,7 +14288,7 @@
       </c>
       <c r="K26" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004c1#0014</v>
+        <v>obj_004bb#0001</v>
       </c>
       <c r="L26" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -14353,7 +14299,7 @@
     <row r="27" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
       <c r="B27" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="158" t="s">
         <v>14</v>
@@ -14369,7 +14315,7 @@
         <v>Annual</v>
       </c>
       <c r="G27" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H27" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14384,7 +14330,7 @@
       </c>
       <c r="K27" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004ba#0014</v>
+        <v>obj_004d1#0001</v>
       </c>
       <c r="L27" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -14395,7 +14341,7 @@
     <row r="28" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
       <c r="B28" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="158" t="s">
         <v>13</v>
@@ -14411,7 +14357,7 @@
         <v>Annual</v>
       </c>
       <c r="G28" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H28" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14426,7 +14372,7 @@
       </c>
       <c r="K28" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004b6#0014</v>
+        <v>obj_004a5#0001</v>
       </c>
       <c r="L28" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -14437,7 +14383,7 @@
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
       <c r="B29" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="158" t="s">
         <v>12</v>
@@ -14453,7 +14399,7 @@
         <v>Annual</v>
       </c>
       <c r="G29" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H29" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14468,7 +14414,7 @@
       </c>
       <c r="K29" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004b7#0014</v>
+        <v>obj_004e9#0001</v>
       </c>
       <c r="L29" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -14479,7 +14425,7 @@
     <row r="30" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="158" t="s">
         <v>11</v>
@@ -14495,7 +14441,7 @@
         <v>Annual</v>
       </c>
       <c r="G30" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H30" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14510,7 +14456,7 @@
       </c>
       <c r="K30" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004ca#0014</v>
+        <v>obj_004b8#0001</v>
       </c>
       <c r="L30" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -14521,7 +14467,7 @@
     <row r="31" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
       <c r="B31" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="158" t="s">
         <v>10</v>
@@ -14537,7 +14483,7 @@
         <v>Annual</v>
       </c>
       <c r="G31" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H31" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14552,7 +14498,7 @@
       </c>
       <c r="K31" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004af#0014</v>
+        <v>obj_004e2#0001</v>
       </c>
       <c r="L31" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -14563,7 +14509,7 @@
     <row r="32" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
       <c r="B32" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="158" t="s">
         <v>9</v>
@@ -14579,7 +14525,7 @@
         <v>Annual</v>
       </c>
       <c r="G32" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H32" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14594,7 +14540,7 @@
       </c>
       <c r="K32" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004b9#0014</v>
+        <v>obj_004ee#0001</v>
       </c>
       <c r="L32" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -14605,7 +14551,7 @@
     <row r="33" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="54"/>
       <c r="B33" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="158" t="s">
         <v>8</v>
@@ -14621,7 +14567,7 @@
         <v>Annual</v>
       </c>
       <c r="G33" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H33" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14636,7 +14582,7 @@
       </c>
       <c r="K33" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004b8#0014</v>
+        <v>obj_004c9#0001</v>
       </c>
       <c r="L33" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -14647,7 +14593,7 @@
     <row r="34" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="54"/>
       <c r="B34" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="158" t="s">
         <v>7</v>
@@ -14663,7 +14609,7 @@
         <v>Annual</v>
       </c>
       <c r="G34" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H34" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14678,7 +14624,7 @@
       </c>
       <c r="K34" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004aa#0014</v>
+        <v>obj_004e8#0001</v>
       </c>
       <c r="L34" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -14689,7 +14635,7 @@
     <row r="35" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="54"/>
       <c r="B35" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="158" t="s">
         <v>6</v>
@@ -14705,7 +14651,7 @@
         <v>Annual</v>
       </c>
       <c r="G35" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H35" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14720,7 +14666,7 @@
       </c>
       <c r="K35" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004a9#0014</v>
+        <v>obj_004e5#0001</v>
       </c>
       <c r="L35" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -14731,7 +14677,7 @@
     <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="54"/>
       <c r="B36" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="158" t="s">
         <v>5</v>
@@ -14747,7 +14693,7 @@
         <v>Annual</v>
       </c>
       <c r="G36" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H36" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14762,7 +14708,7 @@
       </c>
       <c r="K36" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004b2#0014</v>
+        <v>obj_004e4#0001</v>
       </c>
       <c r="L36" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -14773,7 +14719,7 @@
     <row r="37" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
       <c r="B37" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="158" t="s">
         <v>4</v>
@@ -14789,7 +14735,7 @@
         <v>Annual</v>
       </c>
       <c r="G37" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H37" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14804,7 +14750,7 @@
       </c>
       <c r="K37" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004c4#0014</v>
+        <v>obj_004d8#0001</v>
       </c>
       <c r="L37" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -14815,7 +14761,7 @@
     <row r="38" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54"/>
       <c r="B38" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="158" t="s">
         <v>3</v>
@@ -14831,7 +14777,7 @@
         <v>Annual</v>
       </c>
       <c r="G38" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H38" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14846,7 +14792,7 @@
       </c>
       <c r="K38" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004c7#0014</v>
+        <v>obj_004d5#0001</v>
       </c>
       <c r="L38" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -14857,7 +14803,7 @@
     <row r="39" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="54"/>
       <c r="B39" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="158" t="s">
         <v>2</v>
@@ -14873,7 +14819,7 @@
         <v>Annual</v>
       </c>
       <c r="G39" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H39" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14888,7 +14834,7 @@
       </c>
       <c r="K39" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004a7#0014</v>
+        <v>obj_004b4#0001</v>
       </c>
       <c r="L39" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -14899,7 +14845,7 @@
     <row r="40" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="54"/>
       <c r="B40" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="158" t="s">
         <v>1</v>
@@ -14915,7 +14861,7 @@
         <v>Annual</v>
       </c>
       <c r="G40" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H40" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14930,7 +14876,7 @@
       </c>
       <c r="K40" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004a5#0014</v>
+        <v>obj_004b3#0001</v>
       </c>
       <c r="L40" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -14941,7 +14887,7 @@
     <row r="41" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
       <c r="B41" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="158" t="s">
         <v>0</v>
@@ -14957,7 +14903,7 @@
         <v>Annual</v>
       </c>
       <c r="G41" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H41" s="144" t="str">
         <f t="shared" si="1"/>
@@ -14972,7 +14918,7 @@
       </c>
       <c r="K41" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004c3#0014</v>
+        <v>obj_004c6#0001</v>
       </c>
       <c r="L41" s="154" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>

--- a/QuantLibXL/Data2/XLS/USD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCSTDBootstrapping.xlsx
@@ -1871,7 +1871,7 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.40304354799999997</v>
+        <v>0.39918606600000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDXSTUBD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1880,7 +1880,7 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.42304354799999999</v>
+        <v>0.41918606600000002</v>
         <stp/>
         <stp xml:space="preserve">
 USDXSTUBD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2181,7 +2181,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="D14" s="21" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYCSTD#0014</v>
+        <v>_USDYCSTD#0007</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -3045,11 +3045,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41920</v>
+        <v>41921</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>3.1650086098709854E-2</v>
+        <v>3.1408571111038452E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3086,11 +3086,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>63837</v>
+        <v>63842</v>
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.4086905681302856E-3</v>
+        <v>1.5384533434061386E-3</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="C2" s="116" t="str">
         <f>Deposits!J3</f>
-        <v>obj_0053e#0002</v>
+        <v>obj_00586#0002</v>
       </c>
       <c r="D2" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C2)</f>
@@ -4659,11 +4659,11 @@
       </c>
       <c r="J2" s="118">
         <f>_xll.qlRateHelperEarliestDate($C2,Trigger)</f>
-        <v>41920</v>
+        <v>41921</v>
       </c>
       <c r="K2" s="119">
         <f>_xll.qlRateHelperLatestDate($C2,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="L2" s="60">
         <v>10</v>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C3" s="116" t="str">
         <f>Deposits!J4</f>
-        <v>obj_00538#0002</v>
+        <v>obj_00581#0002</v>
       </c>
       <c r="D3" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C3)</f>
@@ -4701,11 +4701,11 @@
       </c>
       <c r="J3" s="118">
         <f>_xll.qlRateHelperEarliestDate($C3,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="K3" s="119">
         <f>_xll.qlRateHelperLatestDate($C3,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="L3" s="60">
         <v>40</v>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="C4" s="116" t="str">
         <f>Deposits!J5</f>
-        <v>obj_0053b#0002</v>
+        <v>obj_00587#0002</v>
       </c>
       <c r="D4" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C4)</f>
@@ -4743,11 +4743,11 @@
       </c>
       <c r="J4" s="118">
         <f>_xll.qlRateHelperEarliestDate($C4,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K4" s="119">
         <f>_xll.qlRateHelperLatestDate($C4,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="C5" s="116" t="str">
         <f>Deposits!J6</f>
-        <v>obj_0053c#0002</v>
+        <v>obj_00582#0002</v>
       </c>
       <c r="D5" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C5)</f>
@@ -4779,11 +4779,11 @@
       </c>
       <c r="J5" s="118">
         <f>_xll.qlRateHelperEarliestDate($C5,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="K5" s="119">
         <f>_xll.qlRateHelperLatestDate($C5,Trigger)</f>
-        <v>41929</v>
+        <v>41932</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="C6" s="116" t="str">
         <f>Deposits!J7</f>
-        <v>obj_00546#0002</v>
+        <v>obj_00590#0002</v>
       </c>
       <c r="D6" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C6)</f>
@@ -4815,11 +4815,11 @@
       </c>
       <c r="J6" s="118">
         <f>_xll.qlRateHelperEarliestDate($C6,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K6" s="119">
         <f>_xll.qlRateHelperLatestDate($C6,Trigger)</f>
-        <v>41936</v>
+        <v>41940</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="C7" s="116" t="str">
         <f>Deposits!J8</f>
-        <v>obj_00544#0002</v>
+        <v>obj_00589#0002</v>
       </c>
       <c r="D7" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C7)</f>
@@ -4851,11 +4851,11 @@
       </c>
       <c r="J7" s="118">
         <f>_xll.qlRateHelperEarliestDate($C7,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K7" s="119">
         <f>_xll.qlRateHelperLatestDate($C7,Trigger)</f>
-        <v>41943</v>
+        <v>41947</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="C8" s="116" t="str">
         <f>Deposits!J9</f>
-        <v>obj_00539#0002</v>
+        <v>obj_00583#0002</v>
       </c>
       <c r="D8" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C8)</f>
@@ -4887,11 +4887,11 @@
       </c>
       <c r="J8" s="118">
         <f>_xll.qlRateHelperEarliestDate($C8,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="K8" s="119">
         <f>_xll.qlRateHelperLatestDate($C8,Trigger)</f>
-        <v>41953</v>
+        <v>41956</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="C9" s="116" t="str">
         <f>Deposits!J10</f>
-        <v>obj_0053a#0002</v>
+        <v>obj_00585#0002</v>
       </c>
       <c r="D9" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C9)</f>
@@ -4923,11 +4923,11 @@
       </c>
       <c r="J9" s="118">
         <f>_xll.qlRateHelperEarliestDate($C9,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="K9" s="119">
         <f>_xll.qlRateHelperLatestDate($C9,Trigger)</f>
-        <v>41983</v>
+        <v>41988</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="C10" s="116" t="str">
         <f>Deposits!J11</f>
-        <v>obj_0053f#0002</v>
+        <v>obj_00588#0002</v>
       </c>
       <c r="D10" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C10)</f>
@@ -4959,11 +4959,11 @@
       </c>
       <c r="J10" s="118">
         <f>_xll.qlRateHelperEarliestDate($C10,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="K10" s="119">
         <f>_xll.qlRateHelperLatestDate($C10,Trigger)</f>
-        <v>42016</v>
+        <v>42017</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="C11" s="116" t="str">
         <f>Deposits!J12</f>
-        <v>obj_00548#0002</v>
+        <v>obj_00591#0002</v>
       </c>
       <c r="D11" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C11)</f>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="E11" s="117">
         <f>_xll.qlRateHelperQuoteValue($C11,Trigger)</f>
-        <v>2.6042329499999998E-3</v>
+        <v>2.6500777799999997E-3</v>
       </c>
       <c r="F11" s="117"/>
       <c r="G11" s="62" t="b">
@@ -4995,11 +4995,11 @@
       </c>
       <c r="J11" s="118">
         <f>_xll.qlRateHelperEarliestDate($C11,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K11" s="119">
         <f>_xll.qlRateHelperLatestDate($C11,Trigger)</f>
-        <v>42045</v>
+        <v>42052</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C12" s="116" t="str">
         <f>Deposits!J13</f>
-        <v>obj_00547#0002</v>
+        <v>obj_0058e#0002</v>
       </c>
       <c r="D12" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C12)</f>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="E12" s="117">
         <f>_xll.qlRateHelperQuoteValue($C12,Trigger)</f>
-        <v>2.9066647699999997E-3</v>
+        <v>2.9352277799999998E-3</v>
       </c>
       <c r="F12" s="117"/>
       <c r="G12" s="62" t="b">
@@ -5031,11 +5031,11 @@
       </c>
       <c r="J12" s="118">
         <f>_xll.qlRateHelperEarliestDate($C12,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K12" s="119">
         <f>_xll.qlRateHelperLatestDate($C12,Trigger)</f>
-        <v>42073</v>
+        <v>42079</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="C13" s="116" t="str">
         <f>Deposits!J14</f>
-        <v>obj_0053d#0002</v>
+        <v>obj_00584#0002</v>
       </c>
       <c r="D13" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C13)</f>
@@ -5067,11 +5067,11 @@
       </c>
       <c r="J13" s="118">
         <f>_xll.qlRateHelperEarliestDate($C13,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="K13" s="119">
         <f>_xll.qlRateHelperLatestDate($C13,Trigger)</f>
-        <v>42104</v>
+        <v>42107</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="C14" s="116" t="str">
         <f>Deposits!J15</f>
-        <v>obj_00540#0002</v>
+        <v>obj_0058a#0002</v>
       </c>
       <c r="D14" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C14)</f>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="E14" s="117">
         <f>_xll.qlRateHelperQuoteValue($C14,Trigger)</f>
-        <v>3.6467499999999998E-3</v>
+        <v>3.6401065600000001E-3</v>
       </c>
       <c r="F14" s="117"/>
       <c r="G14" s="62" t="b">
@@ -5103,11 +5103,11 @@
       </c>
       <c r="J14" s="118">
         <f>_xll.qlRateHelperEarliestDate($C14,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K14" s="119">
         <f>_xll.qlRateHelperLatestDate($C14,Trigger)</f>
-        <v>42135</v>
+        <v>42138</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="C15" s="116" t="str">
         <f>Deposits!J16</f>
-        <v>obj_00543#0002</v>
+        <v>obj_0058f#0002</v>
       </c>
       <c r="D15" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C15)</f>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="E15" s="117">
         <f>_xll.qlRateHelperQuoteValue($C15,Trigger)</f>
-        <v>4.0389274200000004E-3</v>
+        <v>4.0652868900000003E-3</v>
       </c>
       <c r="F15" s="117"/>
       <c r="G15" s="62" t="b">
@@ -5139,11 +5139,11 @@
       </c>
       <c r="J15" s="118">
         <f>_xll.qlRateHelperEarliestDate($C15,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K15" s="119">
         <f>_xll.qlRateHelperLatestDate($C15,Trigger)</f>
-        <v>42165</v>
+        <v>42170</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="C16" s="116" t="str">
         <f>Deposits!J17</f>
-        <v>obj_00545#0002</v>
+        <v>obj_0058d#0002</v>
       </c>
       <c r="D16" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C16)</f>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="E16" s="117">
         <f>_xll.qlRateHelperQuoteValue($C16,Trigger)</f>
-        <v>4.4311048400000001E-3</v>
+        <v>4.4506065599999997E-3</v>
       </c>
       <c r="F16" s="117"/>
       <c r="G16" s="62" t="b">
@@ -5175,11 +5175,11 @@
       </c>
       <c r="J16" s="118">
         <f>_xll.qlRateHelperEarliestDate($C16,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K16" s="119">
         <f>_xll.qlRateHelperLatestDate($C16,Trigger)</f>
-        <v>42195</v>
+        <v>42199</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="C17" s="116" t="str">
         <f>Deposits!J18</f>
-        <v>obj_00542#0002</v>
+        <v>obj_0058b#0002</v>
       </c>
       <c r="D17" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C17)</f>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="E17" s="117">
         <f>_xll.qlRateHelperQuoteValue($C17,Trigger)</f>
-        <v>4.8363548400000003E-3</v>
+        <v>4.8625000000000005E-3</v>
       </c>
       <c r="F17" s="117"/>
       <c r="G17" s="62" t="b">
@@ -5211,11 +5211,11 @@
       </c>
       <c r="J17" s="118">
         <f>_xll.qlRateHelperEarliestDate($C17,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K17" s="119">
         <f>_xll.qlRateHelperLatestDate($C17,Trigger)</f>
-        <v>42226</v>
+        <v>42230</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="C18" s="116" t="str">
         <f>Deposits!J19</f>
-        <v>obj_00541#0002</v>
+        <v>obj_0058c#0002</v>
       </c>
       <c r="D18" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C18)</f>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="E18" s="117">
         <f>_xll.qlRateHelperQuoteValue($C18,Trigger)</f>
-        <v>5.2416048400000005E-3</v>
+        <v>5.2743934400000005E-3</v>
       </c>
       <c r="F18" s="117"/>
       <c r="G18" s="62" t="b">
@@ -5247,11 +5247,11 @@
       </c>
       <c r="J18" s="118">
         <f>_xll.qlRateHelperEarliestDate($C18,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K18" s="119">
         <f>_xll.qlRateHelperLatestDate($C18,Trigger)</f>
-        <v>42257</v>
+        <v>42261</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="C19" s="116" t="str">
         <f>Deposits!J20</f>
-        <v>obj_0052a#0002</v>
+        <v>obj_00547#0003</v>
       </c>
       <c r="D19" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C19)</f>
@@ -5283,21 +5283,21 @@
       </c>
       <c r="J19" s="118">
         <f>_xll.qlRateHelperEarliestDate($C19,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="K19" s="119">
         <f>_xll.qlRateHelperLatestDate($C19,Trigger)</f>
-        <v>42289</v>
+        <v>42290</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="121">
         <f>Deposits!B21</f>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="121" t="str">
         <f>Deposits!J21</f>
-        <v>obj_00537#0002</v>
+        <v>obj_00580#0002</v>
       </c>
       <c r="D20" s="121" t="str">
         <f>_xll.qlRateHelperQuoteName(C20)</f>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="E20" s="122">
         <f>_xll.qlRateHelperQuoteValue($C20,Trigger)</f>
-        <v>4.1304354799999998E-3</v>
+        <v>4.0918606600000001E-3</v>
       </c>
       <c r="F20" s="122"/>
       <c r="G20" s="123" t="b">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="J20" s="124">
         <f>_xll.qlRateHelperEarliestDate($C20,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K20" s="125">
         <f>_xll.qlRateHelperLatestDate($C20,Trigger)</f>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C21" s="116" t="str">
         <f>Futures!H3</f>
-        <v>obj_0057f#0002</v>
+        <v>obj_00599#0002</v>
       </c>
       <c r="D21" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C21)</f>
@@ -5344,7 +5344,7 @@
       </c>
       <c r="E21" s="127">
         <f>_xll.qlRateHelperQuoteValue($C21,Trigger)</f>
-        <v>99.771249999999995</v>
+        <v>99.773750000000007</v>
       </c>
       <c r="F21" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C21,Trigger)</f>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="C22" s="116" t="str">
         <f>Futures!H4</f>
-        <v>obj_0058a#0002</v>
+        <v>obj_005a3#0002</v>
       </c>
       <c r="D22" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C22)</f>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="E22" s="127">
         <f>_xll.qlRateHelperQuoteValue($C22,Trigger)</f>
-        <v>99.767499999999998</v>
+        <v>99.777500000000003</v>
       </c>
       <c r="F22" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C22,Trigger)</f>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="C23" s="116" t="str">
         <f>Futures!H5</f>
-        <v>obj_0054f#0002</v>
+        <v>obj_005c5#0002</v>
       </c>
       <c r="D23" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C23)</f>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="E23" s="127">
         <f>_xll.qlRateHelperQuoteValue($C23,Trigger)</f>
-        <v>99.762500000000003</v>
+        <v>99.777500000000003</v>
       </c>
       <c r="F23" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C23,Trigger)</f>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="C24" s="116" t="str">
         <f>Futures!H6</f>
-        <v>obj_00580#0002</v>
+        <v>obj_005b7#0002</v>
       </c>
       <c r="D24" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C24)</f>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="E24" s="127">
         <f>_xll.qlRateHelperQuoteValue($C24,Trigger)</f>
-        <v>99.747500000000002</v>
+        <v>99.775000000000006</v>
       </c>
       <c r="F24" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C24,Trigger)</f>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="C25" s="116" t="str">
         <f>Futures!H7</f>
-        <v>obj_00589#0002</v>
+        <v>obj_005ca#0002</v>
       </c>
       <c r="D25" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C25)</f>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="E25" s="127">
         <f>_xll.qlRateHelperQuoteValue($C25,Trigger)</f>
-        <v>99.722499999999997</v>
+        <v>99.757499999999993</v>
       </c>
       <c r="F25" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C25,Trigger)</f>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C26" s="116" t="str">
         <f>Futures!H8</f>
-        <v>obj_0058f#0002</v>
+        <v>obj_005b9#0002</v>
       </c>
       <c r="D26" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C26)</f>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="E26" s="127">
         <f>_xll.qlRateHelperQuoteValue($C26,Trigger)</f>
-        <v>99.692499999999995</v>
+        <v>99.742500000000007</v>
       </c>
       <c r="F26" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C26,Trigger)</f>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="C27" s="116" t="str">
         <f>Futures!H9</f>
-        <v>obj_00582#0002</v>
+        <v>obj_0059e#0002</v>
       </c>
       <c r="D27" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C27)</f>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="C28" s="116" t="str">
         <f>Futures!H10</f>
-        <v>obj_0055b#0002</v>
+        <v>obj_00594#0002</v>
       </c>
       <c r="D28" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C28)</f>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="C29" s="116" t="str">
         <f>Futures!H11</f>
-        <v>obj_00572#0002</v>
+        <v>obj_005dd#0002</v>
       </c>
       <c r="D29" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C29)</f>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="E29" s="127">
         <f>_xll.qlRateHelperQuoteValue($C29,Trigger)</f>
-        <v>99.512500000000003</v>
+        <v>99.602499999999992</v>
       </c>
       <c r="F29" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C29,Trigger)</f>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="C30" s="116" t="str">
         <f>Futures!H12</f>
-        <v>obj_00588#0002</v>
+        <v>obj_005c3#0002</v>
       </c>
       <c r="D30" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C30)</f>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="C31" s="116" t="str">
         <f>Futures!H13</f>
-        <v>obj_0056f#0002</v>
+        <v>obj_005cd#0002</v>
       </c>
       <c r="D31" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C31)</f>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="C32" s="116" t="str">
         <f>Futures!H14</f>
-        <v>obj_0056d#0002</v>
+        <v>obj_005bf#0002</v>
       </c>
       <c r="D32" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C32)</f>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="E32" s="127">
         <f>_xll.qlRateHelperQuoteValue($C32,Trigger)</f>
-        <v>99.277500000000003</v>
+        <v>99.387500000000003</v>
       </c>
       <c r="F32" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C32,Trigger)</f>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="C33" s="116" t="str">
         <f>Futures!H15</f>
-        <v>obj_0055d#0002</v>
+        <v>obj_005bd#0002</v>
       </c>
       <c r="D33" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C33)</f>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E33" s="127">
         <f>_xll.qlRateHelperQuoteValue($C33,Trigger)</f>
-        <v>99.017499999999998</v>
+        <v>99.137500000000003</v>
       </c>
       <c r="F33" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C33,Trigger)</f>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="C34" s="116" t="str">
         <f>Futures!H16</f>
-        <v>obj_00581#0002</v>
+        <v>obj_005c2#0002</v>
       </c>
       <c r="D34" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C34)</f>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="E34" s="127">
         <f>_xll.qlRateHelperQuoteValue($C34,Trigger)</f>
-        <v>98.757499999999993</v>
+        <v>98.887500000000003</v>
       </c>
       <c r="F34" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C34,Trigger)</f>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C35" s="116" t="str">
         <f>Futures!H17</f>
-        <v>obj_00594#0002</v>
+        <v>obj_005ac#0002</v>
       </c>
       <c r="D35" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C35)</f>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="E35" s="127">
         <f>_xll.qlRateHelperQuoteValue($C35,Trigger)</f>
-        <v>98.492500000000007</v>
+        <v>98.627499999999998</v>
       </c>
       <c r="F35" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C35,Trigger)</f>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="C36" s="116" t="str">
         <f>Futures!H18</f>
-        <v>obj_0058b#0002</v>
+        <v>obj_005a8#0002</v>
       </c>
       <c r="D36" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C36)</f>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E36" s="127">
         <f>_xll.qlRateHelperQuoteValue($C36,Trigger)</f>
-        <v>98.227499999999992</v>
+        <v>98.377499999999998</v>
       </c>
       <c r="F36" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C36,Trigger)</f>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="C37" s="116" t="str">
         <f>Futures!H19</f>
-        <v>obj_0056b#0002</v>
+        <v>obj_00596#0002</v>
       </c>
       <c r="D37" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C37)</f>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="E37" s="127">
         <f>_xll.qlRateHelperQuoteValue($C37,Trigger)</f>
-        <v>97.982500000000002</v>
+        <v>98.137500000000003</v>
       </c>
       <c r="F37" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C37,Trigger)</f>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="C38" s="116" t="str">
         <f>Futures!H20</f>
-        <v>obj_0056a#0002</v>
+        <v>obj_005af#0002</v>
       </c>
       <c r="D38" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C38)</f>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="E38" s="127">
         <f>_xll.qlRateHelperQuoteValue($C38,Trigger)</f>
-        <v>97.782499999999999</v>
+        <v>97.9375</v>
       </c>
       <c r="F38" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C38,Trigger)</f>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="C39" s="116" t="str">
         <f>Futures!H21</f>
-        <v>obj_00583#0002</v>
+        <v>obj_005ce#0002</v>
       </c>
       <c r="D39" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C39)</f>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="E39" s="127">
         <f>_xll.qlRateHelperQuoteValue($C39,Trigger)</f>
-        <v>97.602499999999992</v>
+        <v>97.757499999999993</v>
       </c>
       <c r="F39" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C39,Trigger)</f>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="C40" s="116" t="str">
         <f>Futures!H22</f>
-        <v>obj_00587#0002</v>
+        <v>obj_005b8#0002</v>
       </c>
       <c r="D40" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C40)</f>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="E40" s="127">
         <f>_xll.qlRateHelperQuoteValue($C40,Trigger)</f>
-        <v>97.462500000000006</v>
+        <v>97.607500000000002</v>
       </c>
       <c r="F40" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C40,Trigger)</f>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="C41" s="116" t="str">
         <f>Futures!H23</f>
-        <v>obj_00595#0002</v>
+        <v>obj_005e0#0002</v>
       </c>
       <c r="D41" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C41)</f>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="E41" s="127">
         <f>_xll.qlRateHelperQuoteValue($C41,Trigger)</f>
-        <v>97.332499999999996</v>
+        <v>97.474999999999994</v>
       </c>
       <c r="F41" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C41,Trigger)</f>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="C42" s="116" t="str">
         <f>Futures!H24</f>
-        <v>obj_00578#0002</v>
+        <v>obj_005ab#0002</v>
       </c>
       <c r="D42" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C42)</f>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="E42" s="127">
         <f>_xll.qlRateHelperQuoteValue($C42,Trigger)</f>
-        <v>97.242500000000007</v>
+        <v>97.377499999999998</v>
       </c>
       <c r="F42" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C42,Trigger)</f>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="C43" s="116" t="str">
         <f>Futures!H25</f>
-        <v>obj_00586#0002</v>
+        <v>obj_0059a#0002</v>
       </c>
       <c r="D43" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C43)</f>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="E43" s="127">
         <f>_xll.qlRateHelperQuoteValue($C43,Trigger)</f>
-        <v>97.157499999999999</v>
+        <v>97.282499999999999</v>
       </c>
       <c r="F43" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C43,Trigger)</f>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="C44" s="116" t="str">
         <f>Futures!H26</f>
-        <v>obj_00561#0002</v>
+        <v>obj_005d8#0002</v>
       </c>
       <c r="D44" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C44)</f>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="E44" s="127">
         <f>_xll.qlRateHelperQuoteValue($C44,Trigger)</f>
-        <v>97.077500000000001</v>
+        <v>97.197499999999991</v>
       </c>
       <c r="F44" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C44,Trigger)</f>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="C45" s="116" t="str">
         <f>Futures!H27</f>
-        <v>obj_00559#0002</v>
+        <v>obj_005a9#0002</v>
       </c>
       <c r="D45" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C45)</f>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="E45" s="127">
         <f>_xll.qlRateHelperQuoteValue($C45,Trigger)</f>
-        <v>97.002499999999998</v>
+        <v>97.107500000000002</v>
       </c>
       <c r="F45" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C45,Trigger)</f>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="C46" s="116" t="str">
         <f>Futures!H28</f>
-        <v>obj_0058c#0002</v>
+        <v>obj_005da#0002</v>
       </c>
       <c r="D46" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C46)</f>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="E46" s="127">
         <f>_xll.qlRateHelperQuoteValue($C46,Trigger)</f>
-        <v>96.942499999999995</v>
+        <v>97.042500000000004</v>
       </c>
       <c r="F46" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C46,Trigger)</f>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="C47" s="116" t="str">
         <f>Futures!H29</f>
-        <v>obj_00585#0002</v>
+        <v>obj_005de#0002</v>
       </c>
       <c r="D47" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C47)</f>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="E47" s="127">
         <f>_xll.qlRateHelperQuoteValue($C47,Trigger)</f>
-        <v>96.882499999999993</v>
+        <v>96.972499999999997</v>
       </c>
       <c r="F47" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C47,Trigger)</f>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="C48" s="116" t="str">
         <f>Futures!H30</f>
-        <v>obj_00550#0002</v>
+        <v>obj_005a0#0002</v>
       </c>
       <c r="D48" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C48)</f>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="E48" s="127">
         <f>_xll.qlRateHelperQuoteValue($C48,Trigger)</f>
-        <v>96.822499999999991</v>
+        <v>96.902500000000003</v>
       </c>
       <c r="F48" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C48,Trigger)</f>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="C49" s="116" t="str">
         <f>Futures!H31</f>
-        <v>obj_0057a#0002</v>
+        <v>obj_005b6#0002</v>
       </c>
       <c r="D49" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C49)</f>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="E49" s="127">
         <f>_xll.qlRateHelperQuoteValue($C49,Trigger)</f>
-        <v>96.757499999999993</v>
+        <v>96.835000000000008</v>
       </c>
       <c r="F49" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C49,Trigger)</f>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="C50" s="116" t="str">
         <f>Futures!H32</f>
-        <v>obj_00579#0002</v>
+        <v>obj_00598#0002</v>
       </c>
       <c r="D50" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C50)</f>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="E50" s="127">
         <f>_xll.qlRateHelperQuoteValue($C50,Trigger)</f>
-        <v>96.707499999999996</v>
+        <v>96.775000000000006</v>
       </c>
       <c r="F50" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C50,Trigger)</f>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="C51" s="116" t="str">
         <f>Futures!H33</f>
-        <v>obj_00557#0002</v>
+        <v>obj_005cb#0002</v>
       </c>
       <c r="D51" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C51)</f>
@@ -6574,7 +6574,7 @@
       </c>
       <c r="E51" s="127">
         <f>_xll.qlRateHelperQuoteValue($C51,Trigger)</f>
-        <v>96.657499999999999</v>
+        <v>96.715000000000003</v>
       </c>
       <c r="F51" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C51,Trigger)</f>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="C52" s="116" t="str">
         <f>Futures!H34</f>
-        <v>obj_00566#0002</v>
+        <v>obj_005c7#0002</v>
       </c>
       <c r="D52" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C52)</f>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="E52" s="127">
         <f>_xll.qlRateHelperQuoteValue($C52,Trigger)</f>
-        <v>96.607500000000002</v>
+        <v>96.657499999999999</v>
       </c>
       <c r="F52" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C52,Trigger)</f>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="C53" s="116" t="str">
         <f>Futures!H35</f>
-        <v>obj_00567#0002</v>
+        <v>obj_005a1#0002</v>
       </c>
       <c r="D53" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C53)</f>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="E53" s="127">
         <f>_xll.qlRateHelperQuoteValue($C53,Trigger)</f>
-        <v>96.555000000000007</v>
+        <v>96.607499999999987</v>
       </c>
       <c r="F53" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C53,Trigger)</f>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="C54" s="116" t="str">
         <f>Futures!H36</f>
-        <v>obj_00551#0002</v>
+        <v>obj_005a4#0002</v>
       </c>
       <c r="D54" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C54)</f>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="E54" s="127">
         <f>_xll.qlRateHelperQuoteValue($C54,Trigger)</f>
-        <v>96.517499999999998</v>
+        <v>96.564999999999998</v>
       </c>
       <c r="F54" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C54,Trigger)</f>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="C55" s="116" t="str">
         <f>Futures!H37</f>
-        <v>obj_00576#0002</v>
+        <v>obj_005a2#0002</v>
       </c>
       <c r="D55" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C55)</f>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="E55" s="127">
         <f>_xll.qlRateHelperQuoteValue($C55,Trigger)</f>
-        <v>96.484999999999999</v>
+        <v>96.525000000000006</v>
       </c>
       <c r="F55" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C55,Trigger)</f>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="C56" s="116" t="str">
         <f>Futures!H38</f>
-        <v>obj_00555#0002</v>
+        <v>obj_005b2#0002</v>
       </c>
       <c r="D56" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C56)</f>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="E56" s="127">
         <f>_xll.qlRateHelperQuoteValue($C56,Trigger)</f>
-        <v>96.447499999999991</v>
+        <v>96.492500000000007</v>
       </c>
       <c r="F56" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C56,Trigger)</f>
@@ -6812,7 +6812,7 @@
       </c>
       <c r="C57" s="116" t="str">
         <f>Futures!H39</f>
-        <v>obj_0055f#0002</v>
+        <v>obj_005cc#0002</v>
       </c>
       <c r="D57" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C57)</f>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="E57" s="127">
         <f>_xll.qlRateHelperQuoteValue($C57,Trigger)</f>
-        <v>96.414999999999992</v>
+        <v>96.454999999999998</v>
       </c>
       <c r="F57" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C57,Trigger)</f>
@@ -6853,7 +6853,7 @@
       </c>
       <c r="C58" s="116" t="str">
         <f>Futures!H40</f>
-        <v>obj_00564#0002</v>
+        <v>obj_005b4#0002</v>
       </c>
       <c r="D58" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C58)</f>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="E58" s="127">
         <f>_xll.qlRateHelperQuoteValue($C58,Trigger)</f>
-        <v>96.387500000000003</v>
+        <v>96.422499999999999</v>
       </c>
       <c r="F58" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C58,Trigger)</f>
@@ -6894,7 +6894,7 @@
       </c>
       <c r="C59" s="116" t="str">
         <f>Futures!H41</f>
-        <v>obj_0055a#0002</v>
+        <v>obj_005ae#0002</v>
       </c>
       <c r="D59" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C59)</f>
@@ -6902,7 +6902,7 @@
       </c>
       <c r="E59" s="127">
         <f>_xll.qlRateHelperQuoteValue($C59,Trigger)</f>
-        <v>96.352499999999992</v>
+        <v>96.392499999999998</v>
       </c>
       <c r="F59" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C59,Trigger)</f>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="C60" s="116" t="str">
         <f>Futures!H42</f>
-        <v>obj_0057d#0002</v>
+        <v>obj_005a7#0002</v>
       </c>
       <c r="D60" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C60)</f>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="E60" s="127">
         <f>_xll.qlRateHelperQuoteValue($C60,Trigger)</f>
-        <v>96.335000000000008</v>
+        <v>96.362499999999997</v>
       </c>
       <c r="F60" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C60,Trigger)</f>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="C61" s="116" t="str">
         <f>Futures!H43</f>
-        <v>obj_00593#0002</v>
+        <v>obj_005d5#0002</v>
       </c>
       <c r="D61" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C61)</f>
@@ -6984,7 +6984,7 @@
       </c>
       <c r="E61" s="127">
         <f>_xll.qlRateHelperQuoteValue($C61,Trigger)</f>
-        <v>96.295000000000002</v>
+        <v>96.33250000000001</v>
       </c>
       <c r="F61" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C61,Trigger)</f>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="C62" s="121" t="str">
         <f>Futures!H44</f>
-        <v>obj_0054a#0002</v>
+        <v>obj_005d6#0002</v>
       </c>
       <c r="D62" s="121" t="str">
         <f>_xll.qlRateHelperQuoteName(C62)</f>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="E62" s="128">
         <f>_xll.qlRateHelperQuoteValue($C62,Trigger)</f>
-        <v>96.282499999999999</v>
+        <v>96.3125</v>
       </c>
       <c r="F62" s="122">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C62,Trigger)</f>
@@ -7057,7 +7057,7 @@
       </c>
       <c r="C63" s="193" t="str">
         <f>Swaps!K5</f>
-        <v>obj_00597#0002</v>
+        <v>obj_005ba#0002</v>
       </c>
       <c r="D63" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(C63)</f>
@@ -7065,15 +7065,14 @@
       </c>
       <c r="E63" s="194">
         <f>_xll.qlRateHelperQuoteValue($C63,Trigger)</f>
-        <v>3.4199999999999999E-3</v>
+        <v>2.98E-3</v>
       </c>
       <c r="F63" s="194">
         <f>_xll.qlSwapRateHelperSpread($C63,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="G63" s="195" t="b">
-        <f>IF(ISERROR(E63),FALSE,TRUE)</f>
-        <v>1</v>
+      <c r="G63" s="62" t="b">
+        <v>0</v>
       </c>
       <c r="H63" s="195">
         <v>60</v>
@@ -7083,11 +7082,11 @@
       </c>
       <c r="J63" s="196">
         <f>_xll.qlRateHelperEarliestDate($C63,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K63" s="197">
         <f>_xll.qlRateHelperLatestDate($C63,Trigger)</f>
-        <v>42290</v>
+        <v>42291</v>
       </c>
       <c r="M63" s="130"/>
     </row>
@@ -7098,7 +7097,7 @@
       </c>
       <c r="C64" s="116" t="str">
         <f>Swaps!K6</f>
-        <v>obj_0054b#0002</v>
+        <v>obj_005ad#0002</v>
       </c>
       <c r="D64" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C64)</f>
@@ -7113,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="62" t="b">
-        <f t="shared" ref="G64:G127" si="0">IF(ISERROR(E64),FALSE,TRUE)</f>
+        <f t="shared" ref="G63:G127" si="0">IF(ISERROR(E64),FALSE,TRUE)</f>
         <v>0</v>
       </c>
       <c r="H64" s="62">
@@ -7124,11 +7123,11 @@
       </c>
       <c r="J64" s="118">
         <f>_xll.qlRateHelperEarliestDate($C64,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K64" s="119">
         <f>_xll.qlRateHelperLatestDate($C64,Trigger)</f>
-        <v>42380</v>
+        <v>42383</v>
       </c>
       <c r="M64" s="130"/>
     </row>
@@ -7139,7 +7138,7 @@
       </c>
       <c r="C65" s="116" t="str">
         <f>Swaps!K7</f>
-        <v>obj_0057c#0002</v>
+        <v>obj_005c9#0002</v>
       </c>
       <c r="D65" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C65)</f>
@@ -7165,11 +7164,11 @@
       </c>
       <c r="J65" s="118">
         <f>_xll.qlRateHelperEarliestDate($C65,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K65" s="119">
         <f>_xll.qlRateHelperLatestDate($C65,Trigger)</f>
-        <v>42471</v>
+        <v>42474</v>
       </c>
       <c r="M65" s="130"/>
     </row>
@@ -7180,7 +7179,7 @@
       </c>
       <c r="C66" s="116" t="str">
         <f>Swaps!K8</f>
-        <v>obj_00591#0002</v>
+        <v>obj_0059f#0002</v>
       </c>
       <c r="D66" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C66)</f>
@@ -7206,11 +7205,11 @@
       </c>
       <c r="J66" s="118">
         <f>_xll.qlRateHelperEarliestDate($C66,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K66" s="119">
         <f>_xll.qlRateHelperLatestDate($C66,Trigger)</f>
-        <v>42562</v>
+        <v>42565</v>
       </c>
       <c r="M66" s="130"/>
     </row>
@@ -7221,7 +7220,7 @@
       </c>
       <c r="C67" s="116" t="str">
         <f>Swaps!K9</f>
-        <v>obj_0058e#0002</v>
+        <v>obj_0059b#0002</v>
       </c>
       <c r="D67" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C67)</f>
@@ -7229,15 +7228,14 @@
       </c>
       <c r="E67" s="117">
         <f>_xll.qlRateHelperQuoteValue($C67,Trigger)</f>
-        <v>7.5399999999999998E-3</v>
+        <v>6.7200000000000003E-3</v>
       </c>
       <c r="F67" s="117">
         <f>_xll.qlSwapRateHelperSpread($C67,Trigger)</f>
         <v>0</v>
       </c>
       <c r="G67" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="62">
         <v>60</v>
@@ -7247,11 +7245,11 @@
       </c>
       <c r="J67" s="118">
         <f>_xll.qlRateHelperEarliestDate($C67,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K67" s="119">
         <f>_xll.qlRateHelperLatestDate($C67,Trigger)</f>
-        <v>42654</v>
+        <v>42657</v>
       </c>
       <c r="M67" s="130"/>
     </row>
@@ -7262,7 +7260,7 @@
       </c>
       <c r="C68" s="116" t="str">
         <f>Swaps!K10</f>
-        <v>obj_00574#0002</v>
+        <v>obj_005c0#0002</v>
       </c>
       <c r="D68" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C68)</f>
@@ -7270,7 +7268,7 @@
       </c>
       <c r="E68" s="117">
         <f>_xll.qlRateHelperQuoteValue($C68,Trigger)</f>
-        <v>1.1939999999999999E-2</v>
+        <v>1.0939999999999998E-2</v>
       </c>
       <c r="F68" s="117">
         <f>_xll.qlSwapRateHelperSpread($C68,Trigger)</f>
@@ -7288,11 +7286,11 @@
       </c>
       <c r="J68" s="118">
         <f>_xll.qlRateHelperEarliestDate($C68,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K68" s="119">
         <f>_xll.qlRateHelperLatestDate($C68,Trigger)</f>
-        <v>43018</v>
+        <v>43024</v>
       </c>
       <c r="M68" s="130"/>
       <c r="O68" s="201"/>
@@ -7304,7 +7302,7 @@
       </c>
       <c r="C69" s="116" t="str">
         <f>Swaps!K11</f>
-        <v>obj_00584#0002</v>
+        <v>obj_005d4#0002</v>
       </c>
       <c r="D69" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C69)</f>
@@ -7312,7 +7310,7 @@
       </c>
       <c r="E69" s="117">
         <f>_xll.qlRateHelperQuoteValue($C69,Trigger)</f>
-        <v>1.541E-2</v>
+        <v>1.4329999999999999E-2</v>
       </c>
       <c r="F69" s="117">
         <f>_xll.qlSwapRateHelperSpread($C69,Trigger)</f>
@@ -7330,11 +7328,11 @@
       </c>
       <c r="J69" s="118">
         <f>_xll.qlRateHelperEarliestDate($C69,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K69" s="119">
         <f>_xll.qlRateHelperLatestDate($C69,Trigger)</f>
-        <v>43383</v>
+        <v>43388</v>
       </c>
       <c r="M69" s="130"/>
       <c r="O69" s="201"/>
@@ -7346,7 +7344,7 @@
       </c>
       <c r="C70" s="116" t="str">
         <f>Swaps!K12</f>
-        <v>obj_0055e#0002</v>
+        <v>obj_005c6#0002</v>
       </c>
       <c r="D70" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C70)</f>
@@ -7354,7 +7352,7 @@
       </c>
       <c r="E70" s="117">
         <f>_xll.qlRateHelperQuoteValue($C70,Trigger)</f>
-        <v>1.797E-2</v>
+        <v>1.6920000000000001E-2</v>
       </c>
       <c r="F70" s="117">
         <f>_xll.qlSwapRateHelperSpread($C70,Trigger)</f>
@@ -7372,11 +7370,11 @@
       </c>
       <c r="J70" s="118">
         <f>_xll.qlRateHelperEarliestDate($C70,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K70" s="119">
         <f>_xll.qlRateHelperLatestDate($C70,Trigger)</f>
-        <v>43748</v>
+        <v>43753</v>
       </c>
       <c r="M70" s="130"/>
       <c r="O70" s="201"/>
@@ -7388,7 +7386,7 @@
       </c>
       <c r="C71" s="116" t="str">
         <f>Swaps!K13</f>
-        <v>obj_00590#0002</v>
+        <v>obj_005c4#0002</v>
       </c>
       <c r="D71" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C71)</f>
@@ -7396,7 +7394,7 @@
       </c>
       <c r="E71" s="117">
         <f>_xll.qlRateHelperQuoteValue($C71,Trigger)</f>
-        <v>1.9949999999999999E-2</v>
+        <v>1.8969999999999997E-2</v>
       </c>
       <c r="F71" s="117">
         <f>_xll.qlSwapRateHelperSpread($C71,Trigger)</f>
@@ -7414,11 +7412,11 @@
       </c>
       <c r="J71" s="118">
         <f>_xll.qlRateHelperEarliestDate($C71,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K71" s="119">
         <f>_xll.qlRateHelperLatestDate($C71,Trigger)</f>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="M71" s="130"/>
       <c r="O71" s="201"/>
@@ -7430,7 +7428,7 @@
       </c>
       <c r="C72" s="116" t="str">
         <f>Swaps!K14</f>
-        <v>obj_00554#0002</v>
+        <v>obj_00593#0002</v>
       </c>
       <c r="D72" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C72)</f>
@@ -7438,7 +7436,7 @@
       </c>
       <c r="E72" s="117">
         <f>_xll.qlRateHelperQuoteValue($C72,Trigger)</f>
-        <v>2.1520000000000001E-2</v>
+        <v>2.0649999999999998E-2</v>
       </c>
       <c r="F72" s="117">
         <f>_xll.qlSwapRateHelperSpread($C72,Trigger)</f>
@@ -7456,11 +7454,11 @@
       </c>
       <c r="J72" s="118">
         <f>_xll.qlRateHelperEarliestDate($C72,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K72" s="119">
         <f>_xll.qlRateHelperLatestDate($C72,Trigger)</f>
-        <v>44481</v>
+        <v>44483</v>
       </c>
       <c r="M72" s="130"/>
       <c r="O72" s="201"/>
@@ -7472,7 +7470,7 @@
       </c>
       <c r="C73" s="116" t="str">
         <f>Swaps!K15</f>
-        <v>obj_00560#0002</v>
+        <v>obj_005a5#0002</v>
       </c>
       <c r="D73" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C73)</f>
@@ -7480,7 +7478,7 @@
       </c>
       <c r="E73" s="117">
         <f>_xll.qlRateHelperQuoteValue($C73,Trigger)</f>
-        <v>2.2800000000000001E-2</v>
+        <v>2.2030000000000004E-2</v>
       </c>
       <c r="F73" s="117">
         <f>_xll.qlSwapRateHelperSpread($C73,Trigger)</f>
@@ -7498,11 +7496,11 @@
       </c>
       <c r="J73" s="118">
         <f>_xll.qlRateHelperEarliestDate($C73,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K73" s="119">
         <f>_xll.qlRateHelperLatestDate($C73,Trigger)</f>
-        <v>44845</v>
+        <v>44848</v>
       </c>
       <c r="M73" s="130"/>
       <c r="O73" s="201"/>
@@ -7514,7 +7512,7 @@
       </c>
       <c r="C74" s="116" t="str">
         <f>Swaps!K16</f>
-        <v>obj_00596#0002</v>
+        <v>obj_0059c#0002</v>
       </c>
       <c r="D74" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C74)</f>
@@ -7522,7 +7520,7 @@
       </c>
       <c r="E74" s="117">
         <f>_xll.qlRateHelperQuoteValue($C74,Trigger)</f>
-        <v>2.3879999999999998E-2</v>
+        <v>2.3209999999999998E-2</v>
       </c>
       <c r="F74" s="117">
         <f>_xll.qlSwapRateHelperSpread($C74,Trigger)</f>
@@ -7540,11 +7538,11 @@
       </c>
       <c r="J74" s="118">
         <f>_xll.qlRateHelperEarliestDate($C74,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K74" s="119">
         <f>_xll.qlRateHelperLatestDate($C74,Trigger)</f>
-        <v>45209</v>
+        <v>45215</v>
       </c>
       <c r="M74" s="130"/>
       <c r="O74" s="201"/>
@@ -7556,7 +7554,7 @@
       </c>
       <c r="C75" s="116" t="str">
         <f>Swaps!K17</f>
-        <v>obj_0056e#0002</v>
+        <v>obj_005c8#0002</v>
       </c>
       <c r="D75" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C75)</f>
@@ -7564,7 +7562,7 @@
       </c>
       <c r="E75" s="117">
         <f>_xll.qlRateHelperQuoteValue($C75,Trigger)</f>
-        <v>2.4820000000000002E-2</v>
+        <v>2.4210000000000002E-2</v>
       </c>
       <c r="F75" s="117">
         <f>_xll.qlSwapRateHelperSpread($C75,Trigger)</f>
@@ -7582,11 +7580,11 @@
       </c>
       <c r="J75" s="118">
         <f>_xll.qlRateHelperEarliestDate($C75,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K75" s="119">
         <f>_xll.qlRateHelperLatestDate($C75,Trigger)</f>
-        <v>45575</v>
+        <v>45580</v>
       </c>
       <c r="M75" s="130"/>
       <c r="O75" s="201"/>
@@ -7598,7 +7596,7 @@
       </c>
       <c r="C76" s="116" t="str">
         <f>Swaps!K18</f>
-        <v>obj_0057b#0002</v>
+        <v>obj_005c1#0002</v>
       </c>
       <c r="D76" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C76)</f>
@@ -7624,11 +7622,11 @@
       </c>
       <c r="J76" s="118">
         <f>_xll.qlRateHelperEarliestDate($C76,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K76" s="119">
         <f>_xll.qlRateHelperLatestDate($C76,Trigger)</f>
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="M76" s="130"/>
       <c r="O76" s="201"/>
@@ -7640,7 +7638,7 @@
       </c>
       <c r="C77" s="116" t="str">
         <f>Swaps!K19</f>
-        <v>obj_00570#0002</v>
+        <v>obj_005a6#0002</v>
       </c>
       <c r="D77" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C77)</f>
@@ -7648,7 +7646,7 @@
       </c>
       <c r="E77" s="117">
         <f>_xll.qlRateHelperQuoteValue($C77,Trigger)</f>
-        <v>2.6349999999999998E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="F77" s="117">
         <f>_xll.qlSwapRateHelperSpread($C77,Trigger)</f>
@@ -7666,11 +7664,11 @@
       </c>
       <c r="J77" s="118">
         <f>_xll.qlRateHelperEarliestDate($C77,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K77" s="119">
         <f>_xll.qlRateHelperLatestDate($C77,Trigger)</f>
-        <v>46308</v>
+        <v>46309</v>
       </c>
       <c r="M77" s="130"/>
       <c r="O77" s="201"/>
@@ -7682,7 +7680,7 @@
       </c>
       <c r="C78" s="116" t="str">
         <f>Swaps!K20</f>
-        <v>obj_00563#0002</v>
+        <v>obj_00595#0002</v>
       </c>
       <c r="D78" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C78)</f>
@@ -7708,11 +7706,11 @@
       </c>
       <c r="J78" s="118">
         <f>_xll.qlRateHelperEarliestDate($C78,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K78" s="119">
         <f>_xll.qlRateHelperLatestDate($C78,Trigger)</f>
-        <v>46672</v>
+        <v>46674</v>
       </c>
       <c r="M78" s="130"/>
       <c r="O78" s="201"/>
@@ -7724,7 +7722,7 @@
       </c>
       <c r="C79" s="116" t="str">
         <f>Swaps!K21</f>
-        <v>obj_00556#0002</v>
+        <v>obj_005bc#0002</v>
       </c>
       <c r="D79" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C79)</f>
@@ -7750,11 +7748,11 @@
       </c>
       <c r="J79" s="118">
         <f>_xll.qlRateHelperEarliestDate($C79,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K79" s="119">
         <f>_xll.qlRateHelperLatestDate($C79,Trigger)</f>
-        <v>47036</v>
+        <v>47042</v>
       </c>
       <c r="M79" s="130"/>
       <c r="O79" s="201"/>
@@ -7766,7 +7764,7 @@
       </c>
       <c r="C80" s="116" t="str">
         <f>Swaps!K22</f>
-        <v>obj_0056c#0002</v>
+        <v>obj_005b5#0002</v>
       </c>
       <c r="D80" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C80)</f>
@@ -7774,7 +7772,7 @@
       </c>
       <c r="E80" s="117">
         <f>_xll.qlRateHelperQuoteValue($C80,Trigger)</f>
-        <v>2.7910000000000001E-2</v>
+        <v>2.7430000000000003E-2</v>
       </c>
       <c r="F80" s="117">
         <f>_xll.qlSwapRateHelperSpread($C80,Trigger)</f>
@@ -7792,11 +7790,11 @@
       </c>
       <c r="J80" s="118">
         <f>_xll.qlRateHelperEarliestDate($C80,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K80" s="119">
         <f>_xll.qlRateHelperLatestDate($C80,Trigger)</f>
-        <v>47401</v>
+        <v>47406</v>
       </c>
       <c r="M80" s="130"/>
       <c r="O80" s="201"/>
@@ -7808,7 +7806,7 @@
       </c>
       <c r="C81" s="116" t="str">
         <f>Swaps!K23</f>
-        <v>obj_0054e#0002</v>
+        <v>obj_005bb#0002</v>
       </c>
       <c r="D81" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C81)</f>
@@ -7834,11 +7832,11 @@
       </c>
       <c r="J81" s="118">
         <f>_xll.qlRateHelperEarliestDate($C81,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K81" s="119">
         <f>_xll.qlRateHelperLatestDate($C81,Trigger)</f>
-        <v>47766</v>
+        <v>47771</v>
       </c>
       <c r="M81" s="130"/>
       <c r="O81" s="201"/>
@@ -7850,7 +7848,7 @@
       </c>
       <c r="C82" s="116" t="str">
         <f>Swaps!K24</f>
-        <v>obj_00592#0002</v>
+        <v>obj_005cf#0002</v>
       </c>
       <c r="D82" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C82)</f>
@@ -7876,11 +7874,11 @@
       </c>
       <c r="J82" s="118">
         <f>_xll.qlRateHelperEarliestDate($C82,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K82" s="119">
         <f>_xll.qlRateHelperLatestDate($C82,Trigger)</f>
-        <v>48131</v>
+        <v>48135</v>
       </c>
       <c r="M82" s="130"/>
       <c r="O82" s="201"/>
@@ -7892,7 +7890,7 @@
       </c>
       <c r="C83" s="116" t="str">
         <f>Swaps!K25</f>
-        <v>obj_00571#0002</v>
+        <v>obj_005d9#0002</v>
       </c>
       <c r="D83" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C83)</f>
@@ -7918,11 +7916,11 @@
       </c>
       <c r="J83" s="118">
         <f>_xll.qlRateHelperEarliestDate($C83,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K83" s="119">
         <f>_xll.qlRateHelperLatestDate($C83,Trigger)</f>
-        <v>48499</v>
+        <v>48501</v>
       </c>
       <c r="M83" s="130"/>
       <c r="O83" s="201"/>
@@ -7934,7 +7932,7 @@
       </c>
       <c r="C84" s="116" t="str">
         <f>Swaps!K26</f>
-        <v>obj_0054d#0002</v>
+        <v>obj_005b1#0002</v>
       </c>
       <c r="D84" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C84)</f>
@@ -7960,11 +7958,11 @@
       </c>
       <c r="J84" s="118">
         <f>_xll.qlRateHelperEarliestDate($C84,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K84" s="119">
         <f>_xll.qlRateHelperLatestDate($C84,Trigger)</f>
-        <v>48863</v>
+        <v>48866</v>
       </c>
       <c r="M84" s="130"/>
       <c r="O84" s="201"/>
@@ -7976,7 +7974,7 @@
       </c>
       <c r="C85" s="116" t="str">
         <f>Swaps!K27</f>
-        <v>obj_00568#0002</v>
+        <v>obj_005d2#0002</v>
       </c>
       <c r="D85" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C85)</f>
@@ -7984,7 +7982,7 @@
       </c>
       <c r="E85" s="117">
         <f>_xll.qlRateHelperQuoteValue($C85,Trigger)</f>
-        <v>2.9379999999999996E-2</v>
+        <v>2.896E-2</v>
       </c>
       <c r="F85" s="117">
         <f>_xll.qlSwapRateHelperSpread($C85,Trigger)</f>
@@ -8002,11 +8000,11 @@
       </c>
       <c r="J85" s="118">
         <f>_xll.qlRateHelperEarliestDate($C85,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K85" s="119">
         <f>_xll.qlRateHelperLatestDate($C85,Trigger)</f>
-        <v>49227</v>
+        <v>49233</v>
       </c>
       <c r="M85" s="130"/>
       <c r="O85" s="201"/>
@@ -8018,7 +8016,7 @@
       </c>
       <c r="C86" s="116" t="str">
         <f>Swaps!K28</f>
-        <v>obj_00562#0002</v>
+        <v>obj_005dc#0002</v>
       </c>
       <c r="D86" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C86)</f>
@@ -8044,11 +8042,11 @@
       </c>
       <c r="J86" s="118">
         <f>_xll.qlRateHelperEarliestDate($C86,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K86" s="119">
         <f>_xll.qlRateHelperLatestDate($C86,Trigger)</f>
-        <v>49592</v>
+        <v>49597</v>
       </c>
       <c r="M86" s="130"/>
       <c r="O86" s="201"/>
@@ -8060,7 +8058,7 @@
       </c>
       <c r="C87" s="116" t="str">
         <f>Swaps!K29</f>
-        <v>obj_00577#0002</v>
+        <v>obj_005d3#0002</v>
       </c>
       <c r="D87" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C87)</f>
@@ -8086,11 +8084,11 @@
       </c>
       <c r="J87" s="118">
         <f>_xll.qlRateHelperEarliestDate($C87,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K87" s="119">
         <f>_xll.qlRateHelperLatestDate($C87,Trigger)</f>
-        <v>49958</v>
+        <v>49962</v>
       </c>
       <c r="M87" s="130"/>
       <c r="O87" s="201"/>
@@ -8102,7 +8100,7 @@
       </c>
       <c r="C88" s="116" t="str">
         <f>Swaps!K30</f>
-        <v>obj_0057e#0002</v>
+        <v>obj_005df#0002</v>
       </c>
       <c r="D88" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C88)</f>
@@ -8128,11 +8126,11 @@
       </c>
       <c r="J88" s="118">
         <f>_xll.qlRateHelperEarliestDate($C88,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K88" s="119">
         <f>_xll.qlRateHelperLatestDate($C88,Trigger)</f>
-        <v>50326</v>
+        <v>50327</v>
       </c>
       <c r="M88" s="130"/>
       <c r="O88" s="201"/>
@@ -8144,7 +8142,7 @@
       </c>
       <c r="C89" s="116" t="str">
         <f>Swaps!K31</f>
-        <v>obj_00565#0002</v>
+        <v>obj_005be#0002</v>
       </c>
       <c r="D89" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C89)</f>
@@ -8170,11 +8168,11 @@
       </c>
       <c r="J89" s="118">
         <f>_xll.qlRateHelperEarliestDate($C89,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K89" s="119">
         <f>_xll.qlRateHelperLatestDate($C89,Trigger)</f>
-        <v>50690</v>
+        <v>50692</v>
       </c>
       <c r="M89" s="130"/>
       <c r="O89" s="201"/>
@@ -8186,7 +8184,7 @@
       </c>
       <c r="C90" s="116" t="str">
         <f>Swaps!K32</f>
-        <v>obj_0054c#0002</v>
+        <v>obj_00592#0002</v>
       </c>
       <c r="D90" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C90)</f>
@@ -8194,7 +8192,7 @@
       </c>
       <c r="E90" s="117">
         <f>_xll.qlRateHelperQuoteValue($C90,Trigger)</f>
-        <v>3.0069999999999996E-2</v>
+        <v>2.9699999999999997E-2</v>
       </c>
       <c r="F90" s="117">
         <f>_xll.qlSwapRateHelperSpread($C90,Trigger)</f>
@@ -8212,11 +8210,11 @@
       </c>
       <c r="J90" s="118">
         <f>_xll.qlRateHelperEarliestDate($C90,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K90" s="119">
         <f>_xll.qlRateHelperLatestDate($C90,Trigger)</f>
-        <v>51054</v>
+        <v>51057</v>
       </c>
       <c r="M90" s="130"/>
       <c r="O90" s="201"/>
@@ -8228,7 +8226,7 @@
       </c>
       <c r="C91" s="116" t="str">
         <f>Swaps!K33</f>
-        <v>obj_00552#0002</v>
+        <v>obj_005d7#0002</v>
       </c>
       <c r="D91" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C91)</f>
@@ -8254,11 +8252,11 @@
       </c>
       <c r="J91" s="118">
         <f>_xll.qlRateHelperEarliestDate($C91,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K91" s="119">
         <f>_xll.qlRateHelperLatestDate($C91,Trigger)</f>
-        <v>51419</v>
+        <v>51424</v>
       </c>
       <c r="M91" s="130"/>
       <c r="O91" s="201"/>
@@ -8270,7 +8268,7 @@
       </c>
       <c r="C92" s="116" t="str">
         <f>Swaps!K34</f>
-        <v>obj_0058d#0002</v>
+        <v>obj_005b0#0002</v>
       </c>
       <c r="D92" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C92)</f>
@@ -8296,11 +8294,11 @@
       </c>
       <c r="J92" s="118">
         <f>_xll.qlRateHelperEarliestDate($C92,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K92" s="119">
         <f>_xll.qlRateHelperLatestDate($C92,Trigger)</f>
-        <v>51784</v>
+        <v>51789</v>
       </c>
       <c r="M92" s="130"/>
       <c r="O92" s="201"/>
@@ -8312,7 +8310,7 @@
       </c>
       <c r="C93" s="116" t="str">
         <f>Swaps!K35</f>
-        <v>obj_00549#0002</v>
+        <v>obj_005d0#0002</v>
       </c>
       <c r="D93" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C93)</f>
@@ -8338,11 +8336,11 @@
       </c>
       <c r="J93" s="118">
         <f>_xll.qlRateHelperEarliestDate($C93,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K93" s="119">
         <f>_xll.qlRateHelperLatestDate($C93,Trigger)</f>
-        <v>52149</v>
+        <v>52153</v>
       </c>
       <c r="M93" s="130"/>
       <c r="O93" s="201"/>
@@ -8354,7 +8352,7 @@
       </c>
       <c r="C94" s="116" t="str">
         <f>Swaps!K36</f>
-        <v>obj_00575#0002</v>
+        <v>obj_0059d#0002</v>
       </c>
       <c r="D94" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C94)</f>
@@ -8380,11 +8378,11 @@
       </c>
       <c r="J94" s="118">
         <f>_xll.qlRateHelperEarliestDate($C94,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K94" s="119">
         <f>_xll.qlRateHelperLatestDate($C94,Trigger)</f>
-        <v>52517</v>
+        <v>52518</v>
       </c>
       <c r="M94" s="130"/>
       <c r="O94" s="201"/>
@@ -8396,7 +8394,7 @@
       </c>
       <c r="C95" s="116" t="str">
         <f>Swaps!K37</f>
-        <v>obj_0055c#0002</v>
+        <v>obj_005b3#0002</v>
       </c>
       <c r="D95" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C95)</f>
@@ -8404,7 +8402,7 @@
       </c>
       <c r="E95" s="117">
         <f>_xll.qlRateHelperQuoteValue($C95,Trigger)</f>
-        <v>3.0430000000000002E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="F95" s="117">
         <f>_xll.qlSwapRateHelperSpread($C95,Trigger)</f>
@@ -8422,11 +8420,11 @@
       </c>
       <c r="J95" s="118">
         <f>_xll.qlRateHelperEarliestDate($C95,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K95" s="119">
         <f>_xll.qlRateHelperLatestDate($C95,Trigger)</f>
-        <v>52881</v>
+        <v>52884</v>
       </c>
       <c r="M95" s="130"/>
       <c r="O95" s="201"/>
@@ -8438,7 +8436,7 @@
       </c>
       <c r="C96" s="116" t="str">
         <f>Swaps!K38</f>
-        <v>obj_00553#0002</v>
+        <v>obj_005db#0002</v>
       </c>
       <c r="D96" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C96)</f>
@@ -8464,11 +8462,11 @@
       </c>
       <c r="J96" s="118">
         <f>_xll.qlRateHelperEarliestDate($C96,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K96" s="119">
         <f>_xll.qlRateHelperLatestDate($C96,Trigger)</f>
-        <v>54708</v>
+        <v>54710</v>
       </c>
       <c r="M96" s="130"/>
       <c r="O96" s="201"/>
@@ -8480,7 +8478,7 @@
       </c>
       <c r="C97" s="116" t="str">
         <f>Swaps!K39</f>
-        <v>obj_00558#0002</v>
+        <v>obj_005d1#0002</v>
       </c>
       <c r="D97" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C97)</f>
@@ -8488,7 +8486,7 @@
       </c>
       <c r="E97" s="117">
         <f>_xll.qlRateHelperQuoteValue($C97,Trigger)</f>
-        <v>3.0620000000000001E-2</v>
+        <v>3.0309999999999997E-2</v>
       </c>
       <c r="F97" s="117">
         <f>_xll.qlSwapRateHelperSpread($C97,Trigger)</f>
@@ -8506,11 +8504,11 @@
       </c>
       <c r="J97" s="118">
         <f>_xll.qlRateHelperEarliestDate($C97,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K97" s="119">
         <f>_xll.qlRateHelperLatestDate($C97,Trigger)</f>
-        <v>56535</v>
+        <v>56536</v>
       </c>
       <c r="M97" s="130"/>
       <c r="O97" s="201"/>
@@ -8522,7 +8520,7 @@
       </c>
       <c r="C98" s="116" t="str">
         <f>Swaps!K40</f>
-        <v>obj_00569#0002</v>
+        <v>obj_005aa#0002</v>
       </c>
       <c r="D98" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C98)</f>
@@ -8530,7 +8528,7 @@
       </c>
       <c r="E98" s="117">
         <f>_xll.qlRateHelperQuoteValue($C98,Trigger)</f>
-        <v>3.0430000000000002E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="F98" s="117">
         <f>_xll.qlSwapRateHelperSpread($C98,Trigger)</f>
@@ -8548,11 +8546,11 @@
       </c>
       <c r="J98" s="118">
         <f>_xll.qlRateHelperEarliestDate($C98,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K98" s="119">
         <f>_xll.qlRateHelperLatestDate($C98,Trigger)</f>
-        <v>60185</v>
+        <v>60189</v>
       </c>
       <c r="M98" s="130"/>
       <c r="O98" s="201"/>
@@ -8564,7 +8562,7 @@
       </c>
       <c r="C99" s="116" t="str">
         <f>Swaps!K41</f>
-        <v>obj_00573#0002</v>
+        <v>obj_00597#0002</v>
       </c>
       <c r="D99" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C99)</f>
@@ -8590,11 +8588,11 @@
       </c>
       <c r="J99" s="118">
         <f>_xll.qlRateHelperEarliestDate($C99,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K99" s="119">
         <f>_xll.qlRateHelperLatestDate($C99,Trigger)</f>
-        <v>63837</v>
+        <v>63842</v>
       </c>
       <c r="M99" s="130"/>
     </row>
@@ -8606,7 +8604,7 @@
       </c>
       <c r="C100" s="193" t="str">
         <f>Swaps!K43</f>
-        <v>obj_0077d#0002</v>
+        <v>obj_00554#0003</v>
       </c>
       <c r="D100" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(C100)</f>
@@ -8614,15 +8612,14 @@
       </c>
       <c r="E100" s="194">
         <f>_xll.qlRateHelperQuoteValue($C100,Trigger)</f>
-        <v>3.4248738400000003E-3</v>
+        <v>2.9500916300000003E-3</v>
       </c>
       <c r="F100" s="194">
         <f>_xll.qlSwapRateHelperSpread($C100,Trigger)</f>
         <v>0</v>
       </c>
       <c r="G100" s="195" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" s="195">
         <v>50</v>
@@ -8632,11 +8629,11 @@
       </c>
       <c r="J100" s="196">
         <f>_xll.qlRateHelperEarliestDate($C100,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K100" s="197">
         <f>_xll.qlRateHelperLatestDate($C100,Trigger)</f>
-        <v>42290</v>
+        <v>42291</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8647,7 +8644,7 @@
       </c>
       <c r="C101" s="116" t="str">
         <f>Swaps!K44</f>
-        <v>obj_00775#0002</v>
+        <v>obj_0055e#0003</v>
       </c>
       <c r="D101" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C101)</f>
@@ -8673,11 +8670,11 @@
       </c>
       <c r="J101" s="118">
         <f>_xll.qlRateHelperEarliestDate($C101,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K101" s="119">
         <f>_xll.qlRateHelperLatestDate($C101,Trigger)</f>
-        <v>42380</v>
+        <v>42383</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8688,7 +8685,7 @@
       </c>
       <c r="C102" s="116" t="str">
         <f>Swaps!K45</f>
-        <v>obj_00763#0002</v>
+        <v>obj_00568#0003</v>
       </c>
       <c r="D102" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C102)</f>
@@ -8714,11 +8711,11 @@
       </c>
       <c r="J102" s="118">
         <f>_xll.qlRateHelperEarliestDate($C102,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K102" s="119">
         <f>_xll.qlRateHelperLatestDate($C102,Trigger)</f>
-        <v>42471</v>
+        <v>42474</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8729,7 +8726,7 @@
       </c>
       <c r="C103" s="116" t="str">
         <f>Swaps!K46</f>
-        <v>obj_0076f#0002</v>
+        <v>obj_0056f#0003</v>
       </c>
       <c r="D103" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C103)</f>
@@ -8755,11 +8752,11 @@
       </c>
       <c r="J103" s="118">
         <f>_xll.qlRateHelperEarliestDate($C103,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K103" s="119">
         <f>_xll.qlRateHelperLatestDate($C103,Trigger)</f>
-        <v>42562</v>
+        <v>42565</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8770,7 +8767,7 @@
       </c>
       <c r="C104" s="116" t="str">
         <f>Swaps!K47</f>
-        <v>obj_00764#0002</v>
+        <v>obj_0055c#0003</v>
       </c>
       <c r="D104" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C104)</f>
@@ -8778,15 +8775,14 @@
       </c>
       <c r="E104" s="117">
         <f>_xll.qlRateHelperQuoteValue($C104,Trigger)</f>
-        <v>7.5617196399999998E-3</v>
+        <v>6.7521264400000006E-3</v>
       </c>
       <c r="F104" s="117">
         <f>_xll.qlSwapRateHelperSpread($C104,Trigger)</f>
         <v>0</v>
       </c>
       <c r="G104" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" s="62">
         <v>50</v>
@@ -8796,11 +8792,11 @@
       </c>
       <c r="J104" s="118">
         <f>_xll.qlRateHelperEarliestDate($C104,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K104" s="119">
         <f>_xll.qlRateHelperLatestDate($C104,Trigger)</f>
-        <v>42654</v>
+        <v>42657</v>
       </c>
       <c r="O104" s="201"/>
     </row>
@@ -8812,7 +8808,7 @@
       </c>
       <c r="C105" s="116" t="str">
         <f>Swaps!K48</f>
-        <v>obj_0076d#0002</v>
+        <v>obj_0056c#0003</v>
       </c>
       <c r="D105" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C105)</f>
@@ -8820,7 +8816,7 @@
       </c>
       <c r="E105" s="117">
         <f>_xll.qlRateHelperQuoteValue($C105,Trigger)</f>
-        <v>1.1939999999999999E-2</v>
+        <v>1.0933828580000001E-2</v>
       </c>
       <c r="F105" s="117">
         <f>_xll.qlSwapRateHelperSpread($C105,Trigger)</f>
@@ -8838,11 +8834,11 @@
       </c>
       <c r="J105" s="118">
         <f>_xll.qlRateHelperEarliestDate($C105,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K105" s="119">
         <f>_xll.qlRateHelperLatestDate($C105,Trigger)</f>
-        <v>43018</v>
+        <v>43024</v>
       </c>
       <c r="O105" s="201"/>
     </row>
@@ -8854,7 +8850,7 @@
       </c>
       <c r="C106" s="116" t="str">
         <f>Swaps!K49</f>
-        <v>obj_0076a#0002</v>
+        <v>obj_00558#0003</v>
       </c>
       <c r="D106" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C106)</f>
@@ -8862,7 +8858,7 @@
       </c>
       <c r="E106" s="117">
         <f>_xll.qlRateHelperQuoteValue($C106,Trigger)</f>
-        <v>1.5429999999999999E-2</v>
+        <v>1.43253228E-2</v>
       </c>
       <c r="F106" s="117">
         <f>_xll.qlSwapRateHelperSpread($C106,Trigger)</f>
@@ -8880,11 +8876,11 @@
       </c>
       <c r="J106" s="118">
         <f>_xll.qlRateHelperEarliestDate($C106,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K106" s="119">
         <f>_xll.qlRateHelperLatestDate($C106,Trigger)</f>
-        <v>43383</v>
+        <v>43388</v>
       </c>
       <c r="O106" s="201"/>
     </row>
@@ -8896,7 +8892,7 @@
       </c>
       <c r="C107" s="116" t="str">
         <f>Swaps!K50</f>
-        <v>obj_00780#0002</v>
+        <v>obj_00566#0003</v>
       </c>
       <c r="D107" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C107)</f>
@@ -8904,7 +8900,7 @@
       </c>
       <c r="E107" s="117">
         <f>_xll.qlRateHelperQuoteValue($C107,Trigger)</f>
-        <v>1.8000000000000002E-2</v>
+        <v>1.690121571E-2</v>
       </c>
       <c r="F107" s="117">
         <f>_xll.qlSwapRateHelperSpread($C107,Trigger)</f>
@@ -8922,11 +8918,11 @@
       </c>
       <c r="J107" s="118">
         <f>_xll.qlRateHelperEarliestDate($C107,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K107" s="119">
         <f>_xll.qlRateHelperLatestDate($C107,Trigger)</f>
-        <v>43748</v>
+        <v>43753</v>
       </c>
       <c r="O107" s="201"/>
     </row>
@@ -8938,7 +8934,7 @@
       </c>
       <c r="C108" s="116" t="str">
         <f>Swaps!K51</f>
-        <v>obj_0077a#0002</v>
+        <v>obj_00528#0003</v>
       </c>
       <c r="D108" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C108)</f>
@@ -8946,7 +8942,7 @@
       </c>
       <c r="E108" s="117">
         <f>_xll.qlRateHelperQuoteValue($C108,Trigger)</f>
-        <v>1.9980000000000001E-2</v>
+        <v>1.8966811809999998E-2</v>
       </c>
       <c r="F108" s="117">
         <f>_xll.qlSwapRateHelperSpread($C108,Trigger)</f>
@@ -8964,11 +8960,11 @@
       </c>
       <c r="J108" s="118">
         <f>_xll.qlRateHelperEarliestDate($C108,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K108" s="119">
         <f>_xll.qlRateHelperLatestDate($C108,Trigger)</f>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="O108" s="201"/>
     </row>
@@ -8980,7 +8976,7 @@
       </c>
       <c r="C109" s="116" t="str">
         <f>Swaps!K52</f>
-        <v>obj_00768#0002</v>
+        <v>obj_00563#0003</v>
       </c>
       <c r="D109" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C109)</f>
@@ -8988,7 +8984,7 @@
       </c>
       <c r="E109" s="117">
         <f>_xll.qlRateHelperQuoteValue($C109,Trigger)</f>
-        <v>2.155E-2</v>
+        <v>2.0647233649999999E-2</v>
       </c>
       <c r="F109" s="117">
         <f>_xll.qlSwapRateHelperSpread($C109,Trigger)</f>
@@ -9006,11 +9002,11 @@
       </c>
       <c r="J109" s="118">
         <f>_xll.qlRateHelperEarliestDate($C109,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K109" s="119">
         <f>_xll.qlRateHelperLatestDate($C109,Trigger)</f>
-        <v>44481</v>
+        <v>44483</v>
       </c>
       <c r="O109" s="201"/>
     </row>
@@ -9022,7 +9018,7 @@
       </c>
       <c r="C110" s="116" t="str">
         <f>Swaps!K53</f>
-        <v>obj_00776#0002</v>
+        <v>obj_0055f#0003</v>
       </c>
       <c r="D110" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C110)</f>
@@ -9030,7 +9026,7 @@
       </c>
       <c r="E110" s="117">
         <f>_xll.qlRateHelperQuoteValue($C110,Trigger)</f>
-        <v>2.282E-2</v>
+        <v>2.2027548470000002E-2</v>
       </c>
       <c r="F110" s="117">
         <f>_xll.qlSwapRateHelperSpread($C110,Trigger)</f>
@@ -9048,11 +9044,11 @@
       </c>
       <c r="J110" s="118">
         <f>_xll.qlRateHelperEarliestDate($C110,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K110" s="119">
         <f>_xll.qlRateHelperLatestDate($C110,Trigger)</f>
-        <v>44845</v>
+        <v>44848</v>
       </c>
       <c r="O110" s="201"/>
     </row>
@@ -9064,7 +9060,7 @@
       </c>
       <c r="C111" s="116" t="str">
         <f>Swaps!K54</f>
-        <v>obj_0076c#0002</v>
+        <v>obj_00552#0003</v>
       </c>
       <c r="D111" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C111)</f>
@@ -9072,7 +9068,7 @@
       </c>
       <c r="E111" s="117">
         <f>_xll.qlRateHelperQuoteValue($C111,Trigger)</f>
-        <v>2.3910000000000001E-2</v>
+        <v>2.3207792550000002E-2</v>
       </c>
       <c r="F111" s="117">
         <f>_xll.qlSwapRateHelperSpread($C111,Trigger)</f>
@@ -9090,11 +9086,11 @@
       </c>
       <c r="J111" s="118">
         <f>_xll.qlRateHelperEarliestDate($C111,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K111" s="119">
         <f>_xll.qlRateHelperLatestDate($C111,Trigger)</f>
-        <v>45209</v>
+        <v>45215</v>
       </c>
       <c r="O111" s="201"/>
     </row>
@@ -9106,7 +9102,7 @@
       </c>
       <c r="C112" s="116" t="str">
         <f>Swaps!K55</f>
-        <v>obj_00774#0002</v>
+        <v>obj_0056b#0003</v>
       </c>
       <c r="D112" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C112)</f>
@@ -9114,7 +9110,7 @@
       </c>
       <c r="E112" s="117">
         <f>_xll.qlRateHelperQuoteValue($C112,Trigger)</f>
-        <v>2.4849999999999997E-2</v>
+        <v>2.4199731350000003E-2</v>
       </c>
       <c r="F112" s="117">
         <f>_xll.qlSwapRateHelperSpread($C112,Trigger)</f>
@@ -9132,11 +9128,11 @@
       </c>
       <c r="J112" s="118">
         <f>_xll.qlRateHelperEarliestDate($C112,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K112" s="119">
         <f>_xll.qlRateHelperLatestDate($C112,Trigger)</f>
-        <v>45575</v>
+        <v>45580</v>
       </c>
       <c r="O112" s="201"/>
     </row>
@@ -9148,7 +9144,7 @@
       </c>
       <c r="C113" s="116" t="str">
         <f>Swaps!K56</f>
-        <v>obj_00762#0002</v>
+        <v>obj_00529#0003</v>
       </c>
       <c r="D113" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C113)</f>
@@ -9156,7 +9152,7 @@
       </c>
       <c r="E113" s="117">
         <f>_xll.qlRateHelperQuoteValue($C113,Trigger)</f>
-        <v>2.5668974900000002E-2</v>
+        <v>2.5063208910000002E-2</v>
       </c>
       <c r="F113" s="117">
         <f>_xll.qlSwapRateHelperSpread($C113,Trigger)</f>
@@ -9174,11 +9170,11 @@
       </c>
       <c r="J113" s="118">
         <f>_xll.qlRateHelperEarliestDate($C113,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K113" s="119">
         <f>_xll.qlRateHelperLatestDate($C113,Trigger)</f>
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="O113" s="201"/>
     </row>
@@ -9190,7 +9186,7 @@
       </c>
       <c r="C114" s="116" t="str">
         <f>Swaps!K57</f>
-        <v>obj_00778#0002</v>
+        <v>obj_00565#0003</v>
       </c>
       <c r="D114" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C114)</f>
@@ -9198,7 +9194,7 @@
       </c>
       <c r="E114" s="117">
         <f>_xll.qlRateHelperQuoteValue($C114,Trigger)</f>
-        <v>2.6380000000000001E-2</v>
+        <v>2.5798273950000002E-2</v>
       </c>
       <c r="F114" s="117">
         <f>_xll.qlSwapRateHelperSpread($C114,Trigger)</f>
@@ -9216,11 +9212,11 @@
       </c>
       <c r="J114" s="118">
         <f>_xll.qlRateHelperEarliestDate($C114,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K114" s="119">
         <f>_xll.qlRateHelperLatestDate($C114,Trigger)</f>
-        <v>46308</v>
+        <v>46309</v>
       </c>
       <c r="O114" s="201"/>
     </row>
@@ -9232,7 +9228,7 @@
       </c>
       <c r="C115" s="116" t="str">
         <f>Swaps!K58</f>
-        <v>obj_0077e#0002</v>
+        <v>obj_0056e#0003</v>
       </c>
       <c r="D115" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C115)</f>
@@ -9240,7 +9236,7 @@
       </c>
       <c r="E115" s="117">
         <f>_xll.qlRateHelperQuoteValue($C115,Trigger)</f>
-        <v>2.6977785460000001E-2</v>
+        <v>2.6425421590000001E-2</v>
       </c>
       <c r="F115" s="117">
         <f>_xll.qlSwapRateHelperSpread($C115,Trigger)</f>
@@ -9258,11 +9254,11 @@
       </c>
       <c r="J115" s="118">
         <f>_xll.qlRateHelperEarliestDate($C115,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K115" s="119">
         <f>_xll.qlRateHelperLatestDate($C115,Trigger)</f>
-        <v>46672</v>
+        <v>46674</v>
       </c>
       <c r="O115" s="201"/>
     </row>
@@ -9274,7 +9270,7 @@
       </c>
       <c r="C116" s="116" t="str">
         <f>Swaps!K59</f>
-        <v>obj_00766#0002</v>
+        <v>obj_0056d#0003</v>
       </c>
       <c r="D116" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C116)</f>
@@ -9282,7 +9278,7 @@
       </c>
       <c r="E116" s="117">
         <f>_xll.qlRateHelperQuoteValue($C116,Trigger)</f>
-        <v>2.748923399E-2</v>
+        <v>2.696725275E-2</v>
       </c>
       <c r="F116" s="117">
         <f>_xll.qlSwapRateHelperSpread($C116,Trigger)</f>
@@ -9300,11 +9296,11 @@
       </c>
       <c r="J116" s="118">
         <f>_xll.qlRateHelperEarliestDate($C116,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K116" s="119">
         <f>_xll.qlRateHelperLatestDate($C116,Trigger)</f>
-        <v>47036</v>
+        <v>47042</v>
       </c>
       <c r="O116" s="201"/>
     </row>
@@ -9316,7 +9312,7 @@
       </c>
       <c r="C117" s="116" t="str">
         <f>Swaps!K60</f>
-        <v>obj_00771#0002</v>
+        <v>obj_00572#0003</v>
       </c>
       <c r="D117" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C117)</f>
@@ -9324,7 +9320,7 @@
       </c>
       <c r="E117" s="117">
         <f>_xll.qlRateHelperQuoteValue($C117,Trigger)</f>
-        <v>2.793E-2</v>
+        <v>2.7428557429999997E-2</v>
       </c>
       <c r="F117" s="117">
         <f>_xll.qlSwapRateHelperSpread($C117,Trigger)</f>
@@ -9342,11 +9338,11 @@
       </c>
       <c r="J117" s="118">
         <f>_xll.qlRateHelperEarliestDate($C117,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K117" s="119">
         <f>_xll.qlRateHelperLatestDate($C117,Trigger)</f>
-        <v>47401</v>
+        <v>47406</v>
       </c>
       <c r="O117" s="201"/>
     </row>
@@ -9358,7 +9354,7 @@
       </c>
       <c r="C118" s="116" t="str">
         <f>Swaps!K61</f>
-        <v>obj_00760#0002</v>
+        <v>obj_00562#0003</v>
       </c>
       <c r="D118" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C118)</f>
@@ -9366,7 +9362,7 @@
       </c>
       <c r="E118" s="117">
         <f>_xll.qlRateHelperQuoteValue($C118,Trigger)</f>
-        <v>2.831272126E-2</v>
+        <v>2.7823812140000001E-2</v>
       </c>
       <c r="F118" s="117">
         <f>_xll.qlSwapRateHelperSpread($C118,Trigger)</f>
@@ -9384,11 +9380,11 @@
       </c>
       <c r="J118" s="118">
         <f>_xll.qlRateHelperEarliestDate($C118,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K118" s="119">
         <f>_xll.qlRateHelperLatestDate($C118,Trigger)</f>
-        <v>47766</v>
+        <v>47771</v>
       </c>
       <c r="O118" s="201"/>
     </row>
@@ -9400,7 +9396,7 @@
       </c>
       <c r="C119" s="116" t="str">
         <f>Swaps!K62</f>
-        <v>obj_00777#0002</v>
+        <v>obj_00557#0003</v>
       </c>
       <c r="D119" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C119)</f>
@@ -9408,7 +9404,7 @@
       </c>
       <c r="E119" s="117">
         <f>_xll.qlRateHelperQuoteValue($C119,Trigger)</f>
-        <v>2.8645521260000001E-2</v>
+        <v>2.8173871699999999E-2</v>
       </c>
       <c r="F119" s="117">
         <f>_xll.qlSwapRateHelperSpread($C119,Trigger)</f>
@@ -9426,11 +9422,11 @@
       </c>
       <c r="J119" s="118">
         <f>_xll.qlRateHelperEarliestDate($C119,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K119" s="119">
         <f>_xll.qlRateHelperLatestDate($C119,Trigger)</f>
-        <v>48131</v>
+        <v>48135</v>
       </c>
       <c r="O119" s="201"/>
     </row>
@@ -9442,7 +9438,7 @@
       </c>
       <c r="C120" s="116" t="str">
         <f>Swaps!K63</f>
-        <v>obj_0077c#0002</v>
+        <v>obj_0055d#0003</v>
       </c>
       <c r="D120" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C120)</f>
@@ -9450,7 +9446,7 @@
       </c>
       <c r="E120" s="117">
         <f>_xll.qlRateHelperQuoteValue($C120,Trigger)</f>
-        <v>2.893604608E-2</v>
+        <v>2.84747443E-2</v>
       </c>
       <c r="F120" s="117">
         <f>_xll.qlSwapRateHelperSpread($C120,Trigger)</f>
@@ -9468,11 +9464,11 @@
       </c>
       <c r="J120" s="118">
         <f>_xll.qlRateHelperEarliestDate($C120,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K120" s="119">
         <f>_xll.qlRateHelperLatestDate($C120,Trigger)</f>
-        <v>48499</v>
+        <v>48501</v>
       </c>
       <c r="O120" s="201"/>
     </row>
@@ -9484,7 +9480,7 @@
       </c>
       <c r="C121" s="116" t="str">
         <f>Swaps!K64</f>
-        <v>obj_0077b#0002</v>
+        <v>obj_0055b#0003</v>
       </c>
       <c r="D121" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C121)</f>
@@ -9492,7 +9488,7 @@
       </c>
       <c r="E121" s="117">
         <f>_xll.qlRateHelperQuoteValue($C121,Trigger)</f>
-        <v>2.918511558E-2</v>
+        <v>2.8734107999999998E-2</v>
       </c>
       <c r="F121" s="117">
         <f>_xll.qlSwapRateHelperSpread($C121,Trigger)</f>
@@ -9510,11 +9506,11 @@
       </c>
       <c r="J121" s="118">
         <f>_xll.qlRateHelperEarliestDate($C121,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K121" s="119">
         <f>_xll.qlRateHelperLatestDate($C121,Trigger)</f>
-        <v>48863</v>
+        <v>48866</v>
       </c>
       <c r="O121" s="201"/>
     </row>
@@ -9526,7 +9522,7 @@
       </c>
       <c r="C122" s="116" t="str">
         <f>Swaps!K65</f>
-        <v>obj_0076b#0002</v>
+        <v>obj_0055a#0003</v>
       </c>
       <c r="D122" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C122)</f>
@@ -9534,7 +9530,7 @@
       </c>
       <c r="E122" s="117">
         <f>_xll.qlRateHelperQuoteValue($C122,Trigger)</f>
-        <v>2.9399999999999999E-2</v>
+        <v>2.89588416E-2</v>
       </c>
       <c r="F122" s="117">
         <f>_xll.qlSwapRateHelperSpread($C122,Trigger)</f>
@@ -9552,11 +9548,11 @@
       </c>
       <c r="J122" s="118">
         <f>_xll.qlRateHelperEarliestDate($C122,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K122" s="119">
         <f>_xll.qlRateHelperLatestDate($C122,Trigger)</f>
-        <v>49227</v>
+        <v>49233</v>
       </c>
       <c r="O122" s="201"/>
     </row>
@@ -9568,7 +9564,7 @@
       </c>
       <c r="C123" s="116" t="str">
         <f>Swaps!K66</f>
-        <v>obj_00770#0002</v>
+        <v>obj_00564#0003</v>
       </c>
       <c r="D123" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C123)</f>
@@ -9576,7 +9572,7 @@
       </c>
       <c r="E123" s="117">
         <f>_xll.qlRateHelperQuoteValue($C123,Trigger)</f>
-        <v>2.9583726099999999E-2</v>
+        <v>2.9150121420000001E-2</v>
       </c>
       <c r="F123" s="117">
         <f>_xll.qlSwapRateHelperSpread($C123,Trigger)</f>
@@ -9594,11 +9590,11 @@
       </c>
       <c r="J123" s="118">
         <f>_xll.qlRateHelperEarliestDate($C123,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K123" s="119">
         <f>_xll.qlRateHelperLatestDate($C123,Trigger)</f>
-        <v>49592</v>
+        <v>49597</v>
       </c>
       <c r="O123" s="201"/>
     </row>
@@ -9610,7 +9606,7 @@
       </c>
       <c r="C124" s="116" t="str">
         <f>Swaps!K67</f>
-        <v>obj_00761#0002</v>
+        <v>obj_00570#0003</v>
       </c>
       <c r="D124" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C124)</f>
@@ -9618,7 +9614,7 @@
       </c>
       <c r="E124" s="117">
         <f>_xll.qlRateHelperQuoteValue($C124,Trigger)</f>
-        <v>2.9741805289999999E-2</v>
+        <v>2.9315809659999997E-2</v>
       </c>
       <c r="F124" s="117">
         <f>_xll.qlSwapRateHelperSpread($C124,Trigger)</f>
@@ -9636,11 +9632,11 @@
       </c>
       <c r="J124" s="118">
         <f>_xll.qlRateHelperEarliestDate($C124,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K124" s="119">
         <f>_xll.qlRateHelperLatestDate($C124,Trigger)</f>
-        <v>49958</v>
+        <v>49962</v>
       </c>
       <c r="O124" s="201"/>
     </row>
@@ -9652,7 +9648,7 @@
       </c>
       <c r="C125" s="116" t="str">
         <f>Swaps!K68</f>
-        <v>obj_00767#0002</v>
+        <v>obj_00560#0003</v>
       </c>
       <c r="D125" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C125)</f>
@@ -9660,7 +9656,7 @@
       </c>
       <c r="E125" s="117">
         <f>_xll.qlRateHelperQuoteValue($C125,Trigger)</f>
-        <v>2.9878659280000001E-2</v>
+        <v>2.9460038769999999E-2</v>
       </c>
       <c r="F125" s="117">
         <f>_xll.qlSwapRateHelperSpread($C125,Trigger)</f>
@@ -9678,11 +9674,11 @@
       </c>
       <c r="J125" s="118">
         <f>_xll.qlRateHelperEarliestDate($C125,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K125" s="119">
         <f>_xll.qlRateHelperLatestDate($C125,Trigger)</f>
-        <v>50326</v>
+        <v>50327</v>
       </c>
       <c r="O125" s="201"/>
     </row>
@@ -9694,7 +9690,7 @@
       </c>
       <c r="C126" s="116" t="str">
         <f>Swaps!K69</f>
-        <v>obj_00773#0002</v>
+        <v>obj_00569#0003</v>
       </c>
       <c r="D126" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C126)</f>
@@ -9702,7 +9698,7 @@
       </c>
       <c r="E126" s="117">
         <f>_xll.qlRateHelperQuoteValue($C126,Trigger)</f>
-        <v>2.999658631E-2</v>
+        <v>2.9586700490000003E-2</v>
       </c>
       <c r="F126" s="117">
         <f>_xll.qlSwapRateHelperSpread($C126,Trigger)</f>
@@ -9720,11 +9716,11 @@
       </c>
       <c r="J126" s="118">
         <f>_xll.qlRateHelperEarliestDate($C126,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K126" s="119">
         <f>_xll.qlRateHelperLatestDate($C126,Trigger)</f>
-        <v>50690</v>
+        <v>50692</v>
       </c>
       <c r="O126" s="201"/>
     </row>
@@ -9736,7 +9732,7 @@
       </c>
       <c r="C127" s="116" t="str">
         <f>Swaps!K70</f>
-        <v>obj_00765#0002</v>
+        <v>obj_00553#0003</v>
       </c>
       <c r="D127" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C127)</f>
@@ -9744,7 +9740,7 @@
       </c>
       <c r="E127" s="117">
         <f>_xll.qlRateHelperQuoteValue($C127,Trigger)</f>
-        <v>3.0099999999999998E-2</v>
+        <v>2.9699010559999999E-2</v>
       </c>
       <c r="F127" s="117">
         <f>_xll.qlSwapRateHelperSpread($C127,Trigger)</f>
@@ -9762,11 +9758,11 @@
       </c>
       <c r="J127" s="118">
         <f>_xll.qlRateHelperEarliestDate($C127,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K127" s="119">
         <f>_xll.qlRateHelperLatestDate($C127,Trigger)</f>
-        <v>51054</v>
+        <v>51057</v>
       </c>
       <c r="O127" s="201"/>
     </row>
@@ -9778,7 +9774,7 @@
       </c>
       <c r="C128" s="116" t="str">
         <f>Swaps!K71</f>
-        <v>obj_0076e#0002</v>
+        <v>obj_00555#0003</v>
       </c>
       <c r="D128" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C128)</f>
@@ -9786,7 +9782,7 @@
       </c>
       <c r="E128" s="117">
         <f>_xll.qlRateHelperQuoteValue($C128,Trigger)</f>
-        <v>3.0191842399999998E-2</v>
+        <v>2.979997165E-2</v>
       </c>
       <c r="F128" s="117">
         <f>_xll.qlSwapRateHelperSpread($C128,Trigger)</f>
@@ -9804,11 +9800,11 @@
       </c>
       <c r="J128" s="118">
         <f>_xll.qlRateHelperEarliestDate($C128,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K128" s="119">
         <f>_xll.qlRateHelperLatestDate($C128,Trigger)</f>
-        <v>51419</v>
+        <v>51424</v>
       </c>
       <c r="O128" s="201"/>
     </row>
@@ -9820,7 +9816,7 @@
       </c>
       <c r="C129" s="116" t="str">
         <f>Swaps!K72</f>
-        <v>obj_0077f#0002</v>
+        <v>obj_00561#0003</v>
       </c>
       <c r="D129" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C129)</f>
@@ -9828,7 +9824,7 @@
       </c>
       <c r="E129" s="117">
         <f>_xll.qlRateHelperQuoteValue($C129,Trigger)</f>
-        <v>3.027259497E-2</v>
+        <v>2.988726261E-2</v>
       </c>
       <c r="F129" s="117">
         <f>_xll.qlSwapRateHelperSpread($C129,Trigger)</f>
@@ -9846,11 +9842,11 @@
       </c>
       <c r="J129" s="118">
         <f>_xll.qlRateHelperEarliestDate($C129,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K129" s="119">
         <f>_xll.qlRateHelperLatestDate($C129,Trigger)</f>
-        <v>51784</v>
+        <v>51789</v>
       </c>
       <c r="O129" s="201"/>
     </row>
@@ -9862,7 +9858,7 @@
       </c>
       <c r="C130" s="116" t="str">
         <f>Swaps!K73</f>
-        <v>obj_00781#0002</v>
+        <v>obj_00574#0003</v>
       </c>
       <c r="D130" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C130)</f>
@@ -9870,7 +9866,7 @@
       </c>
       <c r="E130" s="117">
         <f>_xll.qlRateHelperQuoteValue($C130,Trigger)</f>
-        <v>3.0343595730000002E-2</v>
+        <v>2.9968450600000002E-2</v>
       </c>
       <c r="F130" s="117">
         <f>_xll.qlSwapRateHelperSpread($C130,Trigger)</f>
@@ -9888,11 +9884,11 @@
       </c>
       <c r="J130" s="118">
         <f>_xll.qlRateHelperEarliestDate($C130,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K130" s="119">
         <f>_xll.qlRateHelperLatestDate($C130,Trigger)</f>
-        <v>52149</v>
+        <v>52153</v>
       </c>
       <c r="O130" s="201"/>
     </row>
@@ -9904,7 +9900,7 @@
       </c>
       <c r="C131" s="116" t="str">
         <f>Swaps!K74</f>
-        <v>obj_00782#0002</v>
+        <v>obj_00559#0003</v>
       </c>
       <c r="D131" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C131)</f>
@@ -9912,7 +9908,7 @@
       </c>
       <c r="E131" s="117">
         <f>_xll.qlRateHelperQuoteValue($C131,Trigger)</f>
-        <v>3.0406120500000001E-2</v>
+        <v>3.0038192330000001E-2</v>
       </c>
       <c r="F131" s="117">
         <f>_xll.qlSwapRateHelperSpread($C131,Trigger)</f>
@@ -9930,11 +9926,11 @@
       </c>
       <c r="J131" s="118">
         <f>_xll.qlRateHelperEarliestDate($C131,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K131" s="119">
         <f>_xll.qlRateHelperLatestDate($C131,Trigger)</f>
-        <v>52517</v>
+        <v>52518</v>
       </c>
       <c r="O131" s="201"/>
     </row>
@@ -9946,7 +9942,7 @@
       </c>
       <c r="C132" s="116" t="str">
         <f>Swaps!K75</f>
-        <v>obj_00783#0002</v>
+        <v>obj_0056a#0003</v>
       </c>
       <c r="D132" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C132)</f>
@@ -9954,7 +9950,7 @@
       </c>
       <c r="E132" s="117">
         <f>_xll.qlRateHelperQuoteValue($C132,Trigger)</f>
-        <v>3.0459999999999997E-2</v>
+        <v>3.0099117780000004E-2</v>
       </c>
       <c r="F132" s="117">
         <f>_xll.qlSwapRateHelperSpread($C132,Trigger)</f>
@@ -9972,11 +9968,11 @@
       </c>
       <c r="J132" s="118">
         <f>_xll.qlRateHelperEarliestDate($C132,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K132" s="119">
         <f>_xll.qlRateHelperLatestDate($C132,Trigger)</f>
-        <v>52881</v>
+        <v>52884</v>
       </c>
       <c r="O132" s="201"/>
     </row>
@@ -9988,7 +9984,7 @@
       </c>
       <c r="C133" s="116" t="str">
         <f>Swaps!K76</f>
-        <v>obj_00772#0002</v>
+        <v>obj_00567#0003</v>
       </c>
       <c r="D133" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C133)</f>
@@ -10014,11 +10010,11 @@
       </c>
       <c r="J133" s="118">
         <f>_xll.qlRateHelperEarliestDate($C133,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K133" s="119">
         <f>_xll.qlRateHelperLatestDate($C133,Trigger)</f>
-        <v>54708</v>
+        <v>54710</v>
       </c>
       <c r="O133" s="201"/>
     </row>
@@ -10030,7 +10026,7 @@
       </c>
       <c r="C134" s="116" t="str">
         <f>Swaps!K77</f>
-        <v>obj_00779#0002</v>
+        <v>obj_00573#0003</v>
       </c>
       <c r="D134" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C134)</f>
@@ -10038,7 +10034,7 @@
       </c>
       <c r="E134" s="117">
         <f>_xll.qlRateHelperQuoteValue($C134,Trigger)</f>
-        <v>3.065E-2</v>
+        <v>3.030925093E-2</v>
       </c>
       <c r="F134" s="117">
         <f>_xll.qlSwapRateHelperSpread($C134,Trigger)</f>
@@ -10056,11 +10052,11 @@
       </c>
       <c r="J134" s="118">
         <f>_xll.qlRateHelperEarliestDate($C134,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K134" s="119">
         <f>_xll.qlRateHelperLatestDate($C134,Trigger)</f>
-        <v>56535</v>
+        <v>56536</v>
       </c>
       <c r="O134" s="201"/>
     </row>
@@ -10072,7 +10068,7 @@
       </c>
       <c r="C135" s="116" t="str">
         <f>Swaps!K78</f>
-        <v>obj_0075f#0002</v>
+        <v>obj_00556#0003</v>
       </c>
       <c r="D135" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C135)</f>
@@ -10080,7 +10076,7 @@
       </c>
       <c r="E135" s="117">
         <f>_xll.qlRateHelperQuoteValue($C135,Trigger)</f>
-        <v>3.0459999999999997E-2</v>
+        <v>3.0099328970000002E-2</v>
       </c>
       <c r="F135" s="117">
         <f>_xll.qlSwapRateHelperSpread($C135,Trigger)</f>
@@ -10098,11 +10094,11 @@
       </c>
       <c r="J135" s="118">
         <f>_xll.qlRateHelperEarliestDate($C135,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K135" s="119">
         <f>_xll.qlRateHelperLatestDate($C135,Trigger)</f>
-        <v>60185</v>
+        <v>60189</v>
       </c>
       <c r="O135" s="201"/>
     </row>
@@ -10114,7 +10110,7 @@
       </c>
       <c r="C136" s="121" t="str">
         <f>Swaps!K79</f>
-        <v>obj_00769#0002</v>
+        <v>obj_00571#0003</v>
       </c>
       <c r="D136" s="121" t="str">
         <f>_xll.qlRateHelperQuoteName(C136)</f>
@@ -10122,7 +10118,7 @@
       </c>
       <c r="E136" s="122">
         <f>_xll.qlRateHelperQuoteValue($C136,Trigger)</f>
-        <v>3.028875591E-2</v>
+        <v>2.9908861389999999E-2</v>
       </c>
       <c r="F136" s="122">
         <f>_xll.qlSwapRateHelperSpread($C136,Trigger)</f>
@@ -10140,11 +10136,11 @@
       </c>
       <c r="J136" s="124">
         <f>_xll.qlRateHelperEarliestDate($C136,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K136" s="125">
         <f>_xll.qlRateHelperLatestDate($C136,Trigger)</f>
-        <v>63837</v>
+        <v>63842</v>
       </c>
     </row>
   </sheetData>
@@ -10223,7 +10219,7 @@
       </c>
       <c r="D2" s="75" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_0053e</v>
+        <v>obj_00586</v>
       </c>
       <c r="E2" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -10239,11 +10235,11 @@
       </c>
       <c r="H2" s="86">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41920</v>
+        <v>41921</v>
       </c>
       <c r="I2" s="87">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J2" s="72">
         <v>2.2305487400137241E-3</v>
@@ -10262,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="75" t="str">
-        <v>obj_00538</v>
+        <v>obj_00581</v>
       </c>
       <c r="E3" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -10278,14 +10274,14 @@
       </c>
       <c r="H3" s="86">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I3" s="87">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="J3" s="72">
-        <v>2.2305487400120796E-3</v>
+        <v>2.2305323829247825E-3</v>
       </c>
       <c r="M3" s="186"/>
       <c r="O3" s="186"/>
@@ -10301,7 +10297,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="75" t="str">
-        <v>obj_0053b</v>
+        <v>obj_00587</v>
       </c>
       <c r="E4" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -10317,14 +10313,14 @@
       </c>
       <c r="H4" s="86">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I4" s="87">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="J4" s="72">
-        <v>2.2981260119245305E-3</v>
+        <v>2.247433151632938E-3</v>
       </c>
       <c r="M4" s="186"/>
       <c r="V4" s="130"/>
@@ -10339,7 +10335,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="75" t="str">
-        <v>obj_0053c</v>
+        <v>obj_00582</v>
       </c>
       <c r="E5" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -10355,14 +10351,14 @@
       </c>
       <c r="H5" s="86">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I5" s="87">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41929</v>
+        <v>41932</v>
       </c>
       <c r="J5" s="72">
-        <v>1.4206715786617471E-3</v>
+        <v>1.5679175106157906E-3</v>
       </c>
       <c r="M5" s="186"/>
       <c r="V5" s="130"/>
@@ -10378,7 +10374,7 @@
         <v/>
       </c>
       <c r="D6" s="75" t="str">
-        <v>obj_00546</v>
+        <v>obj_00590</v>
       </c>
       <c r="E6" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -10394,14 +10390,14 @@
       </c>
       <c r="H6" s="86">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I6" s="87">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41936</v>
+        <v>41940</v>
       </c>
       <c r="J6" s="72">
-        <v>1.4086905681302856E-3</v>
+        <v>1.5384533434061386E-3</v>
       </c>
       <c r="M6" s="186"/>
       <c r="V6" s="130"/>
@@ -10411,14 +10407,14 @@
     <row r="7" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_RateHelpersSelected#0014</v>
+        <v>USD_YCSTDRH_RateHelpersSelected#0007</v>
       </c>
       <c r="B7" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="75" t="str">
-        <v>obj_00544</v>
+        <v>obj_00589</v>
       </c>
       <c r="E7" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -10434,14 +10430,14 @@
       </c>
       <c r="H7" s="86">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I7" s="87">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41943</v>
+        <v>41947</v>
       </c>
       <c r="J7" s="72">
-        <v>1.4660868544796842E-3</v>
+        <v>1.55429084945384E-3</v>
       </c>
       <c r="M7" s="186"/>
       <c r="V7" s="130"/>
@@ -10450,7 +10446,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D8" s="75" t="str">
-        <v>obj_00539</v>
+        <v>obj_00583</v>
       </c>
       <c r="E8" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -10466,14 +10462,14 @@
       </c>
       <c r="H8" s="86">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I8" s="87">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41953</v>
+        <v>41956</v>
       </c>
       <c r="J8" s="72">
-        <v>1.5808958405974581E-3</v>
+        <v>1.6180174610297708E-3</v>
       </c>
       <c r="M8" s="186"/>
       <c r="O8" s="186"/>
@@ -10483,7 +10479,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D9" s="75" t="str">
-        <v>obj_0053a</v>
+        <v>obj_00585</v>
       </c>
       <c r="E9" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -10499,14 +10495,14 @@
       </c>
       <c r="H9" s="86">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I9" s="87">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41983</v>
+        <v>41988</v>
       </c>
       <c r="J9" s="72">
-        <v>1.9946274308650217E-3</v>
+        <v>2.0014280575333747E-3</v>
       </c>
       <c r="M9" s="186"/>
       <c r="O9" s="186"/>
@@ -10516,7 +10512,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D10" s="75" t="str">
-        <v>obj_0053f</v>
+        <v>obj_00588</v>
       </c>
       <c r="E10" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -10532,14 +10528,14 @@
       </c>
       <c r="H10" s="86">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I10" s="87">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42016</v>
+        <v>42017</v>
       </c>
       <c r="J10" s="72">
-        <v>2.3202171217361765E-3</v>
+        <v>2.318322927738317E-3</v>
       </c>
       <c r="M10" s="186"/>
       <c r="O10" s="186"/>
@@ -10549,7 +10545,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D11" s="75" t="str">
-        <v>obj_00548</v>
+        <v>obj_00591</v>
       </c>
       <c r="E11" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -10557,7 +10553,7 @@
       </c>
       <c r="F11" s="76">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>2.6042329499999998E-3</v>
+        <v>2.6500777799999997E-3</v>
       </c>
       <c r="G11" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -10565,14 +10561,14 @@
       </c>
       <c r="H11" s="86">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I11" s="87">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="J11" s="72">
-        <v>2.6326899782206066E-3</v>
+        <v>2.6682686209559664E-3</v>
       </c>
       <c r="M11" s="186"/>
       <c r="O11" s="186"/>
@@ -10582,7 +10578,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D12" s="75" t="str">
-        <v>obj_00547</v>
+        <v>obj_0058e</v>
       </c>
       <c r="E12" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -10590,7 +10586,7 @@
       </c>
       <c r="F12" s="76">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>2.9066647699999997E-3</v>
+        <v>2.9352277799999998E-3</v>
       </c>
       <c r="G12" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10598,14 +10594,14 @@
       </c>
       <c r="H12" s="86">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I12" s="87">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42073</v>
+        <v>42079</v>
       </c>
       <c r="J12" s="72">
-        <v>2.9358977127820055E-3</v>
+        <v>2.9506082489206206E-3</v>
       </c>
       <c r="M12" s="186"/>
       <c r="O12" s="186"/>
@@ -10615,7 +10611,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D13" s="75" t="str">
-        <v>obj_0053d</v>
+        <v>obj_00584</v>
       </c>
       <c r="E13" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -10631,14 +10627,14 @@
       </c>
       <c r="H13" s="86">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I13" s="87">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42104</v>
+        <v>42107</v>
       </c>
       <c r="J13" s="72">
-        <v>3.272382146296366E-3</v>
+        <v>3.2611793727169462E-3</v>
       </c>
       <c r="M13" s="186"/>
       <c r="O13" s="186"/>
@@ -10648,7 +10644,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D14" s="75" t="str">
-        <v>obj_00540</v>
+        <v>obj_0058a</v>
       </c>
       <c r="E14" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
@@ -10656,7 +10652,7 @@
       </c>
       <c r="F14" s="76">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>3.6467499999999998E-3</v>
+        <v>3.6401065600000001E-3</v>
       </c>
       <c r="G14" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10664,14 +10660,14 @@
       </c>
       <c r="H14" s="86">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I14" s="87">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42135</v>
+        <v>42138</v>
       </c>
       <c r="J14" s="72">
-        <v>3.6798080988708929E-3</v>
+        <v>3.6531609909362557E-3</v>
       </c>
       <c r="M14" s="186"/>
       <c r="O14" s="186"/>
@@ -10681,7 +10677,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D15" s="75" t="str">
-        <v>obj_00543</v>
+        <v>obj_0058f</v>
       </c>
       <c r="E15" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
@@ -10689,7 +10685,7 @@
       </c>
       <c r="F15" s="76">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>4.0389274200000004E-3</v>
+        <v>4.0652868900000003E-3</v>
       </c>
       <c r="G15" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10697,14 +10693,14 @@
       </c>
       <c r="H15" s="86">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I15" s="87">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42165</v>
+        <v>42170</v>
       </c>
       <c r="J15" s="72">
-        <v>4.074276958805698E-3</v>
+        <v>4.07821873814524E-3</v>
       </c>
       <c r="M15" s="186"/>
       <c r="O15" s="186"/>
@@ -10714,7 +10710,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="75" t="str">
-        <v>obj_00537</v>
+        <v>obj_00580</v>
       </c>
       <c r="E16" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
@@ -10722,7 +10718,7 @@
       </c>
       <c r="F16" s="76">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>4.1304354799999998E-3</v>
+        <v>4.0918606600000001E-3</v>
       </c>
       <c r="G16" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10730,14 +10726,14 @@
       </c>
       <c r="H16" s="86">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I16" s="87">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
         <v>42172</v>
       </c>
       <c r="J16" s="72">
-        <v>4.1663218563370314E-3</v>
+        <v>4.1048077309492684E-3</v>
       </c>
       <c r="M16" s="186"/>
       <c r="V16" s="130"/>
@@ -10746,7 +10742,7 @@
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D17" s="75" t="str">
-        <v>obj_00572</v>
+        <v>obj_005dd</v>
       </c>
       <c r="E17" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
@@ -10754,7 +10750,7 @@
       </c>
       <c r="F17" s="76">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>4.8259999999999623E-3</v>
+        <v>3.9260000000000614E-3</v>
       </c>
       <c r="G17" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10769,7 +10765,7 @@
         <v>42264</v>
       </c>
       <c r="J17" s="72">
-        <v>4.3598671471555732E-3</v>
+        <v>4.0709379250420449E-3</v>
       </c>
       <c r="M17" s="186"/>
       <c r="O17" s="186"/>
@@ -10780,30 +10776,30 @@
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D18" s="75" t="str">
-        <v>obj_00597</v>
+        <v>obj_005bf</v>
       </c>
       <c r="E18" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
-        <v>USDAM3L1Y_Quote</v>
+        <v>USDFUT3MU5_Quote</v>
       </c>
       <c r="F18" s="76">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>3.4199999999999999E-3</v>
+        <v>6.045999999999936E-3</v>
       </c>
       <c r="G18" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>0</v>
+        <v>7.9000000000000009E-5</v>
       </c>
       <c r="H18" s="86">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41922</v>
+        <v>42263</v>
       </c>
       <c r="I18" s="87">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42290</v>
+        <v>42354</v>
       </c>
       <c r="J18" s="72">
-        <v>3.4547993637303914E-3</v>
+        <v>4.5029753381082239E-3</v>
       </c>
       <c r="M18" s="186"/>
       <c r="O18" s="186"/>
@@ -10814,30 +10810,30 @@
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D19" s="75" t="str">
-        <v>obj_0056d</v>
+        <v>obj_005bd</v>
       </c>
       <c r="E19" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
-        <v>USDFUT3MU5_Quote</v>
+        <v>USDFUT3MZ5_Quote</v>
       </c>
       <c r="F19" s="76">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>7.1459999999999258E-3</v>
+        <v>8.508999999999994E-3</v>
       </c>
       <c r="G19" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>7.9000000000000009E-5</v>
+        <v>1.1599999999999999E-4</v>
       </c>
       <c r="H19" s="86">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="I19" s="87">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="J19" s="72">
-        <v>4.9618337118796877E-3</v>
+        <v>5.2175928605007376E-3</v>
       </c>
       <c r="M19" s="186"/>
       <c r="O19" s="186"/>
@@ -10848,30 +10844,30 @@
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D20" s="75" t="str">
-        <v>obj_0055d</v>
+        <v>obj_005c2</v>
       </c>
       <c r="E20" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
-        <v>USDFUT3MZ5_Quote</v>
+        <v>USDFUT3MH6_Quote</v>
       </c>
       <c r="F20" s="76">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>9.7089999999999729E-3</v>
+        <v>1.0965999999999941E-2</v>
       </c>
       <c r="G20" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>1.1599999999999999E-4</v>
+        <v>1.5900000000000002E-4</v>
       </c>
       <c r="H20" s="86">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="I20" s="87">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
       <c r="J20" s="72">
-        <v>5.8059590297948093E-3</v>
+        <v>6.0965457233443376E-3</v>
       </c>
       <c r="M20" s="186"/>
       <c r="O20" s="186"/>
@@ -10882,30 +10878,30 @@
     </row>
     <row r="21" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D21" s="75" t="str">
-        <v>obj_00581</v>
+        <v>obj_005ac</v>
       </c>
       <c r="E21" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
-        <v>USDFUT3MH6_Quote</v>
+        <v>USDFUT3MM6_Quote</v>
       </c>
       <c r="F21" s="76">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.226600000000002E-2</v>
+        <v>1.3516999999999987E-2</v>
       </c>
       <c r="G21" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
-        <v>1.5900000000000002E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="H21" s="86">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="I21" s="87">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42537</v>
+        <v>42628</v>
       </c>
       <c r="J21" s="72">
-        <v>6.7917086018323145E-3</v>
+        <v>7.0751952686003644E-3</v>
       </c>
       <c r="M21" s="186"/>
       <c r="O21" s="186"/>
@@ -10916,30 +10912,30 @@
     </row>
     <row r="22" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D22" s="75" t="str">
-        <v>obj_00594</v>
+        <v>obj_005a8</v>
       </c>
       <c r="E22" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
-        <v>USDFUT3MM6_Quote</v>
+        <v>USDFUT3MU6_Quote</v>
       </c>
       <c r="F22" s="76">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.486699999999995E-2</v>
+        <v>1.5959000000000046E-2</v>
       </c>
       <c r="G22" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
-        <v>2.0799999999999999E-4</v>
+        <v>2.6599999999999996E-4</v>
       </c>
       <c r="H22" s="86">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="I22" s="87">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>42628</v>
+        <v>42725</v>
       </c>
       <c r="J22" s="72">
-        <v>7.8548379200390449E-3</v>
+        <v>8.1617040031342937E-3</v>
       </c>
       <c r="M22" s="186"/>
       <c r="O22" s="186"/>
@@ -10950,15 +10946,15 @@
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D23" s="75" t="str">
-        <v>obj_0058e</v>
+        <v>obj_005c0</v>
       </c>
       <c r="E23" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
-        <v>USDAM3L2Y_Quote</v>
+        <v>USDAM3L3Y_Quote</v>
       </c>
       <c r="F23" s="76">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>7.5399999999999998E-3</v>
+        <v>1.0939999999999998E-2</v>
       </c>
       <c r="G23" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10966,14 +10962,14 @@
       </c>
       <c r="H23" s="86">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I23" s="87">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>42654</v>
+        <v>43024</v>
       </c>
       <c r="J23" s="72">
-        <v>7.6169821937310716E-3</v>
+        <v>1.103657978340857E-2</v>
       </c>
       <c r="M23" s="186"/>
       <c r="O23" s="186"/>
@@ -10983,30 +10979,30 @@
     </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D24" s="75" t="str">
-        <v>obj_0058b</v>
+        <v>obj_005d4</v>
       </c>
       <c r="E24" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
-        <v>USDFUT3MU6_Quote</v>
+        <v>USDAM3L4Y_Quote</v>
       </c>
       <c r="F24" s="76">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.7459000000000103E-2</v>
+        <v>1.4329999999999999E-2</v>
       </c>
       <c r="G24" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
-        <v>2.6599999999999996E-4</v>
+        <v>0</v>
       </c>
       <c r="H24" s="86">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>42634</v>
+        <v>41926</v>
       </c>
       <c r="I24" s="87">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>42725</v>
+        <v>43388</v>
       </c>
       <c r="J24" s="72">
-        <v>8.9148498414154034E-3</v>
+        <v>1.4504839939908783E-2</v>
       </c>
       <c r="M24" s="186"/>
       <c r="O24" s="186"/>
@@ -11016,15 +11012,15 @@
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D25" s="75" t="str">
-        <v>obj_00574</v>
+        <v>obj_005c6</v>
       </c>
       <c r="E25" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
-        <v>USDAM3L3Y_Quote</v>
+        <v>USDAM3L5Y_Quote</v>
       </c>
       <c r="F25" s="76">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>1.1939999999999999E-2</v>
+        <v>1.6920000000000001E-2</v>
       </c>
       <c r="G25" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -11032,14 +11028,14 @@
       </c>
       <c r="H25" s="86">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I25" s="87">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>43018</v>
+        <v>43753</v>
       </c>
       <c r="J25" s="72">
-        <v>1.2086447029298569E-2</v>
+        <v>1.7176880939239463E-2</v>
       </c>
       <c r="M25" s="186"/>
       <c r="O25" s="186"/>
@@ -11049,15 +11045,15 @@
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D26" s="75" t="str">
-        <v>obj_00584</v>
+        <v>obj_005c4</v>
       </c>
       <c r="E26" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
-        <v>USDAM3L4Y_Quote</v>
+        <v>USDAM3L6Y_Quote</v>
       </c>
       <c r="F26" s="76">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>1.541E-2</v>
+        <v>1.8969999999999997E-2</v>
       </c>
       <c r="G26" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -11065,14 +11061,14 @@
       </c>
       <c r="H26" s="86">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I26" s="87">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>43383</v>
+        <v>44118</v>
       </c>
       <c r="J26" s="72">
-        <v>1.5637243577596417E-2</v>
+        <v>1.9310277038479647E-2</v>
       </c>
       <c r="M26" s="186"/>
       <c r="O26" s="186"/>
@@ -11082,15 +11078,15 @@
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D27" s="75" t="str">
-        <v>obj_0055e</v>
+        <v>obj_00593</v>
       </c>
       <c r="E27" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
-        <v>USDAM3L5Y_Quote</v>
+        <v>USDAM3L7Y_Quote</v>
       </c>
       <c r="F27" s="76">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>1.797E-2</v>
+        <v>2.0649999999999998E-2</v>
       </c>
       <c r="G27" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -11098,14 +11094,14 @@
       </c>
       <c r="H27" s="86">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I27" s="87">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>43748</v>
+        <v>44483</v>
       </c>
       <c r="J27" s="72">
-        <v>1.8276886233606869E-2</v>
+        <v>2.1074706063607836E-2</v>
       </c>
       <c r="M27" s="186"/>
       <c r="O27" s="186"/>
@@ -11115,15 +11111,15 @@
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D28" s="75" t="str">
-        <v>obj_00590</v>
+        <v>obj_005a5</v>
       </c>
       <c r="E28" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
-        <v>USDAM3L6Y_Quote</v>
+        <v>USDAM3L8Y_Quote</v>
       </c>
       <c r="F28" s="76">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>1.9949999999999999E-2</v>
+        <v>2.2030000000000004E-2</v>
       </c>
       <c r="G28" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -11131,14 +11127,14 @@
       </c>
       <c r="H28" s="86">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I28" s="87">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>44117</v>
+        <v>44848</v>
       </c>
       <c r="J28" s="72">
-        <v>2.033207953086456E-2</v>
+        <v>2.2536946511965823E-2</v>
       </c>
       <c r="M28" s="186"/>
       <c r="O28" s="186"/>
@@ -11148,15 +11144,15 @@
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D29" s="75" t="str">
-        <v>obj_00554</v>
+        <v>obj_0059c</v>
       </c>
       <c r="E29" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
-        <v>USDAM3L7Y_Quote</v>
+        <v>USDAM3L9Y_Quote</v>
       </c>
       <c r="F29" s="76">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.1520000000000001E-2</v>
+        <v>2.3209999999999998E-2</v>
       </c>
       <c r="G29" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -11164,14 +11160,14 @@
       </c>
       <c r="H29" s="86">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I29" s="87">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>44481</v>
+        <v>45215</v>
       </c>
       <c r="J29" s="72">
-        <v>2.1977822803754082E-2</v>
+        <v>2.3799207969933622E-2</v>
       </c>
       <c r="M29" s="186"/>
       <c r="O29" s="186"/>
@@ -11180,15 +11176,15 @@
     </row>
     <row r="30" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D30" s="75" t="str">
-        <v>obj_00560</v>
+        <v>obj_005c8</v>
       </c>
       <c r="E30" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
-        <v>USDAM3L8Y_Quote</v>
+        <v>USDAM3L10Y_Quote</v>
       </c>
       <c r="F30" s="76">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.2800000000000001E-2</v>
+        <v>2.4210000000000002E-2</v>
       </c>
       <c r="G30" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -11196,14 +11192,14 @@
       </c>
       <c r="H30" s="86">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I30" s="87">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>44845</v>
+        <v>45580</v>
       </c>
       <c r="J30" s="72">
-        <v>2.3330563245086356E-2</v>
+        <v>2.4879171238792609E-2</v>
       </c>
       <c r="M30" s="186"/>
       <c r="O30" s="186"/>
@@ -11212,15 +11208,15 @@
     </row>
     <row r="31" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D31" s="75" t="str">
-        <v>obj_00596</v>
+        <v>obj_00529</v>
       </c>
       <c r="E31" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
-        <v>USDAM3L9Y_Quote</v>
+        <v>USD_CURVE_3M_11Y_Quote</v>
       </c>
       <c r="F31" s="76">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.3879999999999998E-2</v>
+        <v>2.5063208910000002E-2</v>
       </c>
       <c r="G31" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -11228,14 +11224,14 @@
       </c>
       <c r="H31" s="86">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I31" s="87">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>45209</v>
+        <v>45944</v>
       </c>
       <c r="J31" s="72">
-        <v>2.4482053862760787E-2</v>
+        <v>2.5808884103247342E-2</v>
       </c>
       <c r="M31" s="186"/>
       <c r="O31" s="186"/>
@@ -11244,15 +11240,15 @@
     </row>
     <row r="32" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D32" s="75" t="str">
-        <v>obj_0056e</v>
+        <v>obj_005a6</v>
       </c>
       <c r="E32" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
-        <v>USDAM3L10Y_Quote</v>
+        <v>USDAM3L12Y_Quote</v>
       </c>
       <c r="F32" s="76">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.4820000000000002E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="G32" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -11260,14 +11256,14 @@
       </c>
       <c r="H32" s="86">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I32" s="87">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>45575</v>
+        <v>46309</v>
       </c>
       <c r="J32" s="72">
-        <v>2.5494177041014674E-2</v>
+        <v>2.6618482342726089E-2</v>
       </c>
       <c r="M32" s="186"/>
       <c r="O32" s="186"/>
@@ -11276,15 +11272,15 @@
     </row>
     <row r="33" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D33" s="75" t="str">
-        <v>obj_00762</v>
+        <v>obj_0056e</v>
       </c>
       <c r="E33" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
-        <v>USD_CURVE_3M_11Y_Quote</v>
+        <v>USD_CURVE_3M_13Y_Quote</v>
       </c>
       <c r="F33" s="76">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.5668974900000002E-2</v>
+        <v>2.6425421590000001E-2</v>
       </c>
       <c r="G33" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -11292,14 +11288,14 @@
       </c>
       <c r="H33" s="86">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I33" s="87">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>45940</v>
+        <v>46674</v>
       </c>
       <c r="J33" s="72">
-        <v>2.6419964839025648E-2</v>
+        <v>2.731001962863093E-2</v>
       </c>
       <c r="M33" s="186"/>
       <c r="O33" s="186"/>
@@ -11308,15 +11304,15 @@
     </row>
     <row r="34" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D34" s="75" t="str">
-        <v>obj_00570</v>
+        <v>obj_0056d</v>
       </c>
       <c r="E34" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
-        <v>USDAM3L12Y_Quote</v>
+        <v>USD_CURVE_3M_14Y_Quote</v>
       </c>
       <c r="F34" s="76">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.6349999999999998E-2</v>
+        <v>2.696725275E-2</v>
       </c>
       <c r="G34" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -11324,14 +11320,14 @@
       </c>
       <c r="H34" s="86">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I34" s="87">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>46308</v>
+        <v>47042</v>
       </c>
       <c r="J34" s="72">
-        <v>2.7163857169094828E-2</v>
+        <v>2.7912348995181826E-2</v>
       </c>
       <c r="M34" s="186"/>
       <c r="O34" s="186"/>
@@ -11340,15 +11336,15 @@
     </row>
     <row r="35" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D35" s="75" t="str">
-        <v>obj_0077e</v>
+        <v>obj_005b5</v>
       </c>
       <c r="E35" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
-        <v>USD_CURVE_3M_13Y_Quote</v>
+        <v>USDAM3L15Y_Quote</v>
       </c>
       <c r="F35" s="76">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.6977785460000001E-2</v>
+        <v>2.7430000000000003E-2</v>
       </c>
       <c r="G35" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -11356,14 +11352,14 @@
       </c>
       <c r="H35" s="86">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I35" s="87">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>46672</v>
+        <v>47406</v>
       </c>
       <c r="J35" s="72">
-        <v>2.7860235677214303E-2</v>
+        <v>2.8430120617272254E-2</v>
       </c>
       <c r="M35" s="186"/>
       <c r="O35" s="186"/>
@@ -11372,15 +11368,15 @@
     </row>
     <row r="36" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D36" s="75" t="str">
-        <v>obj_00766</v>
+        <v>obj_00562</v>
       </c>
       <c r="E36" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
-        <v>USD_CURVE_3M_14Y_Quote</v>
+        <v>USD_CURVE_3M_16Y_Quote</v>
       </c>
       <c r="F36" s="76">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.748923399E-2</v>
+        <v>2.7823812140000001E-2</v>
       </c>
       <c r="G36" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -11388,14 +11384,14 @@
       </c>
       <c r="H36" s="86">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I36" s="87">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>47036</v>
+        <v>47771</v>
       </c>
       <c r="J36" s="72">
-        <v>2.8427789252813297E-2</v>
+        <v>2.8871310401757184E-2</v>
       </c>
       <c r="M36" s="186"/>
       <c r="O36" s="186"/>
@@ -11404,15 +11400,15 @@
     </row>
     <row r="37" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D37" s="75" t="str">
-        <v>obj_0056c</v>
+        <v>obj_00557</v>
       </c>
       <c r="E37" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D37)</f>
-        <v>USDAM3L15Y_Quote</v>
+        <v>USD_CURVE_3M_17Y_Quote</v>
       </c>
       <c r="F37" s="76">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>2.7910000000000001E-2</v>
+        <v>2.8173871699999999E-2</v>
       </c>
       <c r="G37" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -11420,14 +11416,14 @@
       </c>
       <c r="H37" s="86">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I37" s="87">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>47401</v>
+        <v>48135</v>
       </c>
       <c r="J37" s="72">
-        <v>2.889381108116703E-2</v>
+        <v>2.9266397966194218E-2</v>
       </c>
       <c r="M37" s="186"/>
       <c r="O37" s="186"/>
@@ -11436,15 +11432,15 @@
     </row>
     <row r="38" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D38" s="75" t="str">
-        <v>obj_00760</v>
+        <v>obj_0055d</v>
       </c>
       <c r="E38" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D38)</f>
-        <v>USD_CURVE_3M_16Y_Quote</v>
+        <v>USD_CURVE_3M_18Y_Quote</v>
       </c>
       <c r="F38" s="76">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>2.831272126E-2</v>
+        <v>2.84747443E-2</v>
       </c>
       <c r="G38" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -11452,14 +11448,14 @@
       </c>
       <c r="H38" s="86">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I38" s="87">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>47766</v>
+        <v>48501</v>
       </c>
       <c r="J38" s="72">
-        <v>2.9348170848940053E-2</v>
+        <v>2.9605457123241599E-2</v>
       </c>
       <c r="M38" s="186"/>
       <c r="O38" s="186"/>
@@ -11468,15 +11464,15 @@
     </row>
     <row r="39" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D39" s="75" t="str">
-        <v>obj_00777</v>
+        <v>obj_0055b</v>
       </c>
       <c r="E39" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D39)</f>
-        <v>USD_CURVE_3M_17Y_Quote</v>
+        <v>USD_CURVE_3M_19Y_Quote</v>
       </c>
       <c r="F39" s="76">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>2.8645521260000001E-2</v>
+        <v>2.8734107999999998E-2</v>
       </c>
       <c r="G39" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -11484,14 +11480,14 @@
       </c>
       <c r="H39" s="86">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I39" s="87">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>48131</v>
+        <v>48866</v>
       </c>
       <c r="J39" s="72">
-        <v>2.9721927420944608E-2</v>
+        <v>2.989744499512284E-2</v>
       </c>
       <c r="M39" s="186"/>
       <c r="O39" s="186"/>
@@ -11500,15 +11496,15 @@
     </row>
     <row r="40" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D40" s="75" t="str">
-        <v>obj_0077c</v>
+        <v>obj_005d2</v>
       </c>
       <c r="E40" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D40)</f>
-        <v>USD_CURVE_3M_18Y_Quote</v>
+        <v>USDAM3L20Y_Quote</v>
       </c>
       <c r="F40" s="76">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>2.893604608E-2</v>
+        <v>2.896E-2</v>
       </c>
       <c r="G40" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -11516,14 +11512,14 @@
       </c>
       <c r="H40" s="86">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I40" s="87">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>48499</v>
+        <v>49233</v>
       </c>
       <c r="J40" s="72">
-        <v>3.0048268682411568E-2</v>
+        <v>3.0150854397919785E-2</v>
       </c>
       <c r="M40" s="186"/>
       <c r="O40" s="186"/>
@@ -11532,15 +11528,15 @@
     </row>
     <row r="41" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D41" s="75" t="str">
-        <v>obj_0077b</v>
+        <v>obj_00564</v>
       </c>
       <c r="E41" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D41)</f>
-        <v>USD_CURVE_3M_19Y_Quote</v>
+        <v>USD_CURVE_3M_21Y_Quote</v>
       </c>
       <c r="F41" s="76">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>2.918511558E-2</v>
+        <v>2.9150121420000001E-2</v>
       </c>
       <c r="G41" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -11548,14 +11544,14 @@
       </c>
       <c r="H41" s="86">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I41" s="87">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>48863</v>
+        <v>49597</v>
       </c>
       <c r="J41" s="72">
-        <v>3.0328078448920319E-2</v>
+        <v>3.0361967762830809E-2</v>
       </c>
       <c r="M41" s="186"/>
       <c r="O41" s="186"/>
@@ -11564,15 +11560,15 @@
     </row>
     <row r="42" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D42" s="75" t="str">
-        <v>obj_00568</v>
+        <v>obj_00570</v>
       </c>
       <c r="E42" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D42)</f>
-        <v>USDAM3L20Y_Quote</v>
+        <v>USD_CURVE_3M_22Y_Quote</v>
       </c>
       <c r="F42" s="76">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>2.9379999999999996E-2</v>
+        <v>2.9315809659999997E-2</v>
       </c>
       <c r="G42" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -11580,14 +11576,14 @@
       </c>
       <c r="H42" s="86">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I42" s="87">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>49227</v>
+        <v>49962</v>
       </c>
       <c r="J42" s="72">
-        <v>3.0540572673387098E-2</v>
+        <v>3.0544445775407148E-2</v>
       </c>
       <c r="M42" s="186"/>
       <c r="O42" s="186"/>
@@ -11596,15 +11592,15 @@
     </row>
     <row r="43" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D43" s="75" t="str">
-        <v>obj_00770</v>
+        <v>obj_00560</v>
       </c>
       <c r="E43" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D43)</f>
-        <v>USD_CURVE_3M_21Y_Quote</v>
+        <v>USD_CURVE_3M_23Y_Quote</v>
       </c>
       <c r="F43" s="76">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>2.9583726099999999E-2</v>
+        <v>2.9460038769999999E-2</v>
       </c>
       <c r="G43" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -11612,14 +11608,14 @@
       </c>
       <c r="H43" s="86">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I43" s="87">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>49592</v>
+        <v>50327</v>
       </c>
       <c r="J43" s="72">
-        <v>3.0772536141642073E-2</v>
+        <v>3.0701677135236811E-2</v>
       </c>
       <c r="M43" s="186"/>
       <c r="O43" s="186"/>
@@ -11628,15 +11624,15 @@
     </row>
     <row r="44" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D44" s="75" t="str">
-        <v>obj_00761</v>
+        <v>obj_00569</v>
       </c>
       <c r="E44" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D44)</f>
-        <v>USD_CURVE_3M_22Y_Quote</v>
+        <v>USD_CURVE_3M_24Y_Quote</v>
       </c>
       <c r="F44" s="76">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>2.9741805289999999E-2</v>
+        <v>2.9586700490000003E-2</v>
       </c>
       <c r="G44" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -11644,14 +11640,14 @@
       </c>
       <c r="H44" s="86">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I44" s="87">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>49958</v>
+        <v>50692</v>
       </c>
       <c r="J44" s="72">
-        <v>3.0945270244664556E-2</v>
+        <v>3.0838358834722451E-2</v>
       </c>
       <c r="M44" s="186"/>
       <c r="O44" s="186"/>
@@ -11660,15 +11656,15 @@
     </row>
     <row r="45" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D45" s="75" t="str">
-        <v>obj_00767</v>
+        <v>obj_00592</v>
       </c>
       <c r="E45" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D45)</f>
-        <v>USD_CURVE_3M_23Y_Quote</v>
+        <v>USDAM3L25Y_Quote</v>
       </c>
       <c r="F45" s="76">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>2.9878659280000001E-2</v>
+        <v>2.9699999999999997E-2</v>
       </c>
       <c r="G45" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -11676,14 +11672,14 @@
       </c>
       <c r="H45" s="86">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I45" s="87">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>50326</v>
+        <v>51057</v>
       </c>
       <c r="J45" s="72">
-        <v>3.1092494675207548E-2</v>
+        <v>3.0959958843046725E-2</v>
       </c>
       <c r="M45" s="186"/>
       <c r="O45" s="186"/>
@@ -11692,15 +11688,15 @@
     </row>
     <row r="46" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D46" s="75" t="str">
-        <v>obj_00773</v>
+        <v>obj_00555</v>
       </c>
       <c r="E46" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D46)</f>
-        <v>USD_CURVE_3M_24Y_Quote</v>
+        <v>USD_CURVE_3M_26Y_Quote</v>
       </c>
       <c r="F46" s="76">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>2.999658631E-2</v>
+        <v>2.979997165E-2</v>
       </c>
       <c r="G46" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -11708,14 +11704,14 @@
       </c>
       <c r="H46" s="86">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I46" s="87">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>50690</v>
+        <v>51424</v>
       </c>
       <c r="J46" s="72">
-        <v>3.1217773141263325E-2</v>
+        <v>3.1065390614048088E-2</v>
       </c>
       <c r="M46" s="186"/>
       <c r="O46" s="186"/>
@@ -11724,15 +11720,15 @@
     </row>
     <row r="47" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D47" s="75" t="str">
-        <v>obj_0054c</v>
+        <v>obj_00561</v>
       </c>
       <c r="E47" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D47)</f>
-        <v>USDAM3L25Y_Quote</v>
+        <v>USD_CURVE_3M_27Y_Quote</v>
       </c>
       <c r="F47" s="76">
         <f>_xll.qlRateHelperRate($D47)</f>
-        <v>3.0069999999999996E-2</v>
+        <v>2.988726261E-2</v>
       </c>
       <c r="G47" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
@@ -11740,14 +11736,14 @@
       </c>
       <c r="H47" s="86">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I47" s="87">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>51054</v>
+        <v>51789</v>
       </c>
       <c r="J47" s="72">
-        <v>3.1279977643216016E-2</v>
+        <v>3.1155682108812345E-2</v>
       </c>
       <c r="M47" s="186"/>
       <c r="O47" s="186"/>
@@ -11756,15 +11752,15 @@
     </row>
     <row r="48" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D48" s="75" t="str">
-        <v>obj_0076e</v>
+        <v>obj_00574</v>
       </c>
       <c r="E48" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D48)</f>
-        <v>USD_CURVE_3M_26Y_Quote</v>
+        <v>USD_CURVE_3M_28Y_Quote</v>
       </c>
       <c r="F48" s="76">
         <f>_xll.qlRateHelperRate($D48)</f>
-        <v>3.0191842399999998E-2</v>
+        <v>2.9968450600000002E-2</v>
       </c>
       <c r="G48" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
@@ -11772,14 +11768,14 @@
       </c>
       <c r="H48" s="86">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I48" s="87">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>51419</v>
+        <v>52153</v>
       </c>
       <c r="J48" s="72">
-        <v>3.1421974897996412E-2</v>
+        <v>3.1240508885513475E-2</v>
       </c>
       <c r="M48" s="186"/>
       <c r="O48" s="186"/>
@@ -11788,15 +11784,15 @@
     </row>
     <row r="49" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D49" s="75" t="str">
-        <v>obj_0077f</v>
+        <v>obj_00559</v>
       </c>
       <c r="E49" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D49)</f>
-        <v>USD_CURVE_3M_27Y_Quote</v>
+        <v>USD_CURVE_3M_29Y_Quote</v>
       </c>
       <c r="F49" s="76">
         <f>_xll.qlRateHelperRate($D49)</f>
-        <v>3.027259497E-2</v>
+        <v>3.0038192330000001E-2</v>
       </c>
       <c r="G49" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
@@ -11804,14 +11800,14 @@
       </c>
       <c r="H49" s="86">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I49" s="87">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>51784</v>
+        <v>52518</v>
       </c>
       <c r="J49" s="72">
-        <v>3.1503369719866767E-2</v>
+        <v>3.1310266587316969E-2</v>
       </c>
       <c r="M49" s="186"/>
       <c r="O49" s="186"/>
@@ -11820,15 +11816,15 @@
     </row>
     <row r="50" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D50" s="75" t="str">
-        <v>obj_00781</v>
+        <v>obj_005b3</v>
       </c>
       <c r="E50" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D50)</f>
-        <v>USD_CURVE_3M_28Y_Quote</v>
+        <v>USDAM3L30Y_Quote</v>
       </c>
       <c r="F50" s="76">
         <f>_xll.qlRateHelperRate($D50)</f>
-        <v>3.0343595730000002E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="G50" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
@@ -11836,14 +11832,14 @@
       </c>
       <c r="H50" s="86">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I50" s="87">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>52149</v>
+        <v>52884</v>
       </c>
       <c r="J50" s="72">
-        <v>3.1573035764852556E-2</v>
+        <v>3.1370214085816521E-2</v>
       </c>
       <c r="M50" s="186"/>
       <c r="O50" s="186"/>
@@ -11852,15 +11848,15 @@
     </row>
     <row r="51" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D51" s="75" t="str">
-        <v>obj_00782</v>
+        <v>obj_005d1</v>
       </c>
       <c r="E51" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D51)</f>
-        <v>USD_CURVE_3M_29Y_Quote</v>
+        <v>USDAM3L40Y_Quote</v>
       </c>
       <c r="F51" s="76">
         <f>_xll.qlRateHelperRate($D51)</f>
-        <v>3.0406120500000001E-2</v>
+        <v>3.0309999999999997E-2</v>
       </c>
       <c r="G51" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
@@ -11868,14 +11864,14 @@
       </c>
       <c r="H51" s="86">
         <f>_xll.qlRateHelperEarliestDate($D51)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I51" s="87">
         <f>_xll.qlRateHelperLatestDate($D51)</f>
-        <v>52517</v>
+        <v>56536</v>
       </c>
       <c r="J51" s="72">
-        <v>3.1631988818637657E-2</v>
+        <v>3.1408571111038452E-2</v>
       </c>
       <c r="M51" s="186"/>
       <c r="O51" s="186"/>
@@ -11884,15 +11880,15 @@
     </row>
     <row r="52" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D52" s="75" t="str">
-        <v>obj_0055c</v>
+        <v>obj_005aa</v>
       </c>
       <c r="E52" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D52)</f>
-        <v>USDAM3L30Y_Quote</v>
+        <v>USDAM3L50Y_Quote</v>
       </c>
       <c r="F52" s="76">
         <f>_xll.qlRateHelperRate($D52)</f>
-        <v>3.0430000000000002E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="G52" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
@@ -11900,14 +11896,14 @@
       </c>
       <c r="H52" s="86">
         <f>_xll.qlRateHelperEarliestDate($D52)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I52" s="87">
         <f>_xll.qlRateHelperLatestDate($D52)</f>
-        <v>52881</v>
+        <v>60189</v>
       </c>
       <c r="J52" s="72">
-        <v>3.1630048924574959E-2</v>
+        <v>3.0738821341739327E-2</v>
       </c>
       <c r="M52" s="186"/>
       <c r="O52" s="186"/>
@@ -11916,15 +11912,15 @@
     </row>
     <row r="53" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D53" s="75" t="str">
-        <v>obj_00558</v>
+        <v>obj_00571</v>
       </c>
       <c r="E53" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D53)</f>
-        <v>USDAM3L40Y_Quote</v>
+        <v>USD_CURVE_3M_60Y_Quote</v>
       </c>
       <c r="F53" s="76">
         <f>_xll.qlRateHelperRate($D53)</f>
-        <v>3.0620000000000001E-2</v>
+        <v>2.9908861389999999E-2</v>
       </c>
       <c r="G53" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
@@ -11932,14 +11928,14 @@
       </c>
       <c r="H53" s="86">
         <f>_xll.qlRateHelperEarliestDate($D53)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I53" s="87">
         <f>_xll.qlRateHelperLatestDate($D53)</f>
-        <v>56535</v>
+        <v>63842</v>
       </c>
       <c r="J53" s="72">
-        <v>3.1650086098709854E-2</v>
+        <v>3.0154526764370963E-2</v>
       </c>
       <c r="M53" s="186"/>
       <c r="O53" s="186"/>
@@ -11947,59 +11943,59 @@
       <c r="Y53" s="203"/>
     </row>
     <row r="54" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D54" s="75" t="str">
-        <v>obj_00569</v>
-      </c>
-      <c r="E54" s="75" t="str">
+      <c r="D54" s="75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E54" s="75" t="e">
         <f>_xll.qlRateHelperQuoteName(D54)</f>
-        <v>USDAM3L50Y_Quote</v>
-      </c>
-      <c r="F54" s="76">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" s="76" t="e">
         <f>_xll.qlRateHelperRate($D54)</f>
-        <v>3.0430000000000002E-2</v>
-      </c>
-      <c r="G54" s="76">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G54" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="86">
+        <v>--</v>
+      </c>
+      <c r="H54" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D54)</f>
-        <v>41922</v>
-      </c>
-      <c r="I54" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I54" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D54)</f>
-        <v>60185</v>
-      </c>
-      <c r="J54" s="72">
-        <v>3.1033156011725523E-2</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J54" s="72" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D55" s="75" t="str">
-        <v>obj_00769</v>
-      </c>
-      <c r="E55" s="75" t="str">
+      <c r="D55" s="75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E55" s="75" t="e">
         <f>_xll.qlRateHelperQuoteName(D55)</f>
-        <v>USD_CURVE_3M_60Y_Quote</v>
-      </c>
-      <c r="F55" s="76">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F55" s="76" t="e">
         <f>_xll.qlRateHelperRate($D55)</f>
-        <v>3.028875591E-2</v>
-      </c>
-      <c r="G55" s="76">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G55" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D55)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D55)),_xll.qlSwapRateHelperSpread($D55))</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="86">
+        <v>--</v>
+      </c>
+      <c r="H55" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D55)</f>
-        <v>41922</v>
-      </c>
-      <c r="I55" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I55" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D55)</f>
-        <v>63837</v>
-      </c>
-      <c r="J55" s="72">
-        <v>3.0572689540804811E-2</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J55" s="72" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="4:25" x14ac:dyDescent="0.2">
@@ -14136,7 +14132,7 @@
       </c>
       <c r="J3" s="174" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0053e#0002</v>
+        <v>obj_00586#0002</v>
       </c>
       <c r="K3" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -14160,15 +14156,15 @@
       </c>
       <c r="R3" s="188">
         <f>_xll.RtGet("DTSIMI1",$Q$3,R2)/100</f>
-        <v>4.0304354799999996E-3</v>
+        <v>3.9918606599999998E-3</v>
       </c>
       <c r="S3" s="188">
         <f>_xll.RtGet("DTSIMI1",$Q$3,S2)/100</f>
-        <v>4.2304354800000001E-3</v>
+        <v>4.1918606600000003E-3</v>
       </c>
       <c r="T3" s="188">
         <f>AVERAGE(R3:S3)</f>
-        <v>4.1304354799999998E-3</v>
+        <v>4.0918606600000001E-3</v>
       </c>
       <c r="U3" s="188" t="e">
         <f>_xll.qlSimpleQuoteSetValue(I21,T3,Trigger)</f>
@@ -14198,7 +14194,7 @@
       </c>
       <c r="H4" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,"1D",C4,Currency,Calendar,E4,F4,G4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00532#0002</v>
+        <v>obj_00576#0002</v>
       </c>
       <c r="I4" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14206,7 +14202,7 @@
       </c>
       <c r="J4" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,I4,H4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00538#0002</v>
+        <v>obj_00581#0002</v>
       </c>
       <c r="K4" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -14237,7 +14233,7 @@
       </c>
       <c r="H5" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,"1D",C5,Currency,Calendar,E5,F5,G5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00530#0002</v>
+        <v>obj_0057f#0002</v>
       </c>
       <c r="I5" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14245,7 +14241,7 @@
       </c>
       <c r="J5" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0053b#0002</v>
+        <v>obj_00587#0002</v>
       </c>
       <c r="K5" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -14284,7 +14280,7 @@
       </c>
       <c r="J6" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I6,H6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0053c#0002</v>
+        <v>obj_00582#0002</v>
       </c>
       <c r="K6" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -14317,7 +14313,7 @@
       </c>
       <c r="H7" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B7,C7,Currency,Calendar,E7,F7,G7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0052f#0002</v>
+        <v>obj_0057d#0002</v>
       </c>
       <c r="I7" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14325,7 +14321,7 @@
       </c>
       <c r="J7" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I7,H7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00546#0002</v>
+        <v>obj_00590#0002</v>
       </c>
       <c r="K7" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -14358,7 +14354,7 @@
       </c>
       <c r="H8" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B8,C8,Currency,Calendar,E8,F8,G8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00531#0002</v>
+        <v>obj_00575#0002</v>
       </c>
       <c r="I8" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14366,7 +14362,7 @@
       </c>
       <c r="J8" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00544#0002</v>
+        <v>obj_00589#0002</v>
       </c>
       <c r="K8" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -14405,7 +14401,7 @@
       </c>
       <c r="J9" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00539#0002</v>
+        <v>obj_00583#0002</v>
       </c>
       <c r="K9" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -14444,7 +14440,7 @@
       </c>
       <c r="J10" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0053a#0002</v>
+        <v>obj_00585#0002</v>
       </c>
       <c r="K10" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -14483,7 +14479,7 @@
       </c>
       <c r="J11" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I11,H11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0053f#0002</v>
+        <v>obj_00588#0002</v>
       </c>
       <c r="K11" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -14516,7 +14512,7 @@
       </c>
       <c r="H12" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B12,C12,Currency,Calendar,E12,F12,G12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0052c#0002</v>
+        <v>obj_00577#0002</v>
       </c>
       <c r="I12" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14524,7 +14520,7 @@
       </c>
       <c r="J12" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I12,H12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00548#0002</v>
+        <v>obj_00591#0002</v>
       </c>
       <c r="K12" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -14557,7 +14553,7 @@
       </c>
       <c r="H13" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B13,C13,Currency,Calendar,E13,F13,G13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00535#0002</v>
+        <v>obj_0057c#0002</v>
       </c>
       <c r="I13" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14565,7 +14561,7 @@
       </c>
       <c r="J13" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00547#0002</v>
+        <v>obj_0058e#0002</v>
       </c>
       <c r="K13" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -14604,7 +14600,7 @@
       </c>
       <c r="J14" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I14,H14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0053d#0002</v>
+        <v>obj_00584#0002</v>
       </c>
       <c r="K14" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -14637,7 +14633,7 @@
       </c>
       <c r="H15" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B15,C15,Currency,Calendar,E15,F15,G15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00534#0002</v>
+        <v>obj_0057a#0002</v>
       </c>
       <c r="I15" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14645,7 +14641,7 @@
       </c>
       <c r="J15" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I15,H15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00540#0002</v>
+        <v>obj_0058a#0002</v>
       </c>
       <c r="K15" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -14678,7 +14674,7 @@
       </c>
       <c r="H16" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B16,C16,Currency,Calendar,E16,F16,G16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0052e#0002</v>
+        <v>obj_0057b#0002</v>
       </c>
       <c r="I16" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14686,7 +14682,7 @@
       </c>
       <c r="J16" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I16,H16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00543#0002</v>
+        <v>obj_0058f#0002</v>
       </c>
       <c r="K16" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -14719,7 +14715,7 @@
       </c>
       <c r="H17" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B17,C17,Currency,Calendar,E17,F17,G17,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00536#0002</v>
+        <v>obj_0057e#0002</v>
       </c>
       <c r="I17" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14727,7 +14723,7 @@
       </c>
       <c r="J17" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I17,H17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00545#0002</v>
+        <v>obj_0058d#0002</v>
       </c>
       <c r="K17" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -14760,7 +14756,7 @@
       </c>
       <c r="H18" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B18,C18,Currency,Calendar,E18,F18,G18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0052d#0002</v>
+        <v>obj_00579#0002</v>
       </c>
       <c r="I18" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14768,7 +14764,7 @@
       </c>
       <c r="J18" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I18,H18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00542#0002</v>
+        <v>obj_0058b#0002</v>
       </c>
       <c r="K18" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -14801,7 +14797,7 @@
       </c>
       <c r="H19" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B19,C19,Currency,Calendar,E19,F19,G19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00533#0002</v>
+        <v>obj_00578#0002</v>
       </c>
       <c r="I19" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14809,7 +14805,7 @@
       </c>
       <c r="J19" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00541#0002</v>
+        <v>obj_0058c#0002</v>
       </c>
       <c r="K19" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -14848,7 +14844,7 @@
       </c>
       <c r="J20" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I20,H20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0052a#0002</v>
+        <v>obj_00547#0003</v>
       </c>
       <c r="K20" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J20)</f>
@@ -14860,7 +14856,7 @@
       <c r="A21" s="53"/>
       <c r="B21" s="179">
         <f>_xll.qlCalendarBusinessDaysBetween(Calendar,_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),C21&amp;"D",,,Trigger),O3,Trigger)-1</f>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="177">
         <v>2</v>
@@ -14881,11 +14877,11 @@
       <c r="H21" s="174"/>
       <c r="I21" s="174" t="str">
         <f>_xll.qlSimpleQuote("USD_Stub",,,,Trigger)</f>
-        <v>USD_Stub#0002</v>
+        <v>USD_Stub#0003</v>
       </c>
       <c r="J21" s="175" t="str">
         <f>_xll.qlDepositRateHelper2(,I21,B21&amp;"D",C20,Deposits!D21,E21,F21,G21)</f>
-        <v>obj_00537#0002</v>
+        <v>obj_00580#0002</v>
       </c>
       <c r="K21" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J21)</f>
@@ -15037,7 +15033,7 @@
       </c>
       <c r="H3" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057f#0002</v>
+        <v>obj_00599#0002</v>
       </c>
       <c r="I3" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -15081,7 +15077,7 @@
       </c>
       <c r="H4" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058a#0002</v>
+        <v>obj_005a3#0002</v>
       </c>
       <c r="I4" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -15125,7 +15121,7 @@
       </c>
       <c r="H5" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0054f#0002</v>
+        <v>obj_005c5#0002</v>
       </c>
       <c r="I5" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -15166,7 +15162,7 @@
       </c>
       <c r="H6" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00580#0002</v>
+        <v>obj_005b7#0002</v>
       </c>
       <c r="I6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -15207,7 +15203,7 @@
       </c>
       <c r="H7" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00589#0002</v>
+        <v>obj_005ca#0002</v>
       </c>
       <c r="I7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -15248,7 +15244,7 @@
       </c>
       <c r="H8" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058f#0002</v>
+        <v>obj_005b9#0002</v>
       </c>
       <c r="I8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -15289,7 +15285,7 @@
       </c>
       <c r="H9" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00582#0002</v>
+        <v>obj_0059e#0002</v>
       </c>
       <c r="I9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -15323,7 +15319,7 @@
       </c>
       <c r="H10" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0055b#0002</v>
+        <v>obj_00594#0002</v>
       </c>
       <c r="I10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -15357,7 +15353,7 @@
       </c>
       <c r="H11" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00572#0002</v>
+        <v>obj_005dd#0002</v>
       </c>
       <c r="I11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -15391,7 +15387,7 @@
       </c>
       <c r="H12" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00588#0002</v>
+        <v>obj_005c3#0002</v>
       </c>
       <c r="I12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -15425,7 +15421,7 @@
       </c>
       <c r="H13" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0056f#0002</v>
+        <v>obj_005cd#0002</v>
       </c>
       <c r="I13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -15459,7 +15455,7 @@
       </c>
       <c r="H14" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0056d#0002</v>
+        <v>obj_005bf#0002</v>
       </c>
       <c r="I14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -15493,7 +15489,7 @@
       </c>
       <c r="H15" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0055d#0002</v>
+        <v>obj_005bd#0002</v>
       </c>
       <c r="I15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -15527,7 +15523,7 @@
       </c>
       <c r="H16" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00581#0002</v>
+        <v>obj_005c2#0002</v>
       </c>
       <c r="I16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -15561,7 +15557,7 @@
       </c>
       <c r="H17" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00594#0002</v>
+        <v>obj_005ac#0002</v>
       </c>
       <c r="I17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -15595,7 +15591,7 @@
       </c>
       <c r="H18" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058b#0002</v>
+        <v>obj_005a8#0002</v>
       </c>
       <c r="I18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -15629,7 +15625,7 @@
       </c>
       <c r="H19" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0056b#0002</v>
+        <v>obj_00596#0002</v>
       </c>
       <c r="I19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -15663,7 +15659,7 @@
       </c>
       <c r="H20" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0056a#0002</v>
+        <v>obj_005af#0002</v>
       </c>
       <c r="I20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -15697,7 +15693,7 @@
       </c>
       <c r="H21" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00583#0002</v>
+        <v>obj_005ce#0002</v>
       </c>
       <c r="I21" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -15731,7 +15727,7 @@
       </c>
       <c r="H22" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00587#0002</v>
+        <v>obj_005b8#0002</v>
       </c>
       <c r="I22" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -15765,7 +15761,7 @@
       </c>
       <c r="H23" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00595#0002</v>
+        <v>obj_005e0#0002</v>
       </c>
       <c r="I23" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -15799,7 +15795,7 @@
       </c>
       <c r="H24" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00578#0002</v>
+        <v>obj_005ab#0002</v>
       </c>
       <c r="I24" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -15833,7 +15829,7 @@
       </c>
       <c r="H25" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00586#0002</v>
+        <v>obj_0059a#0002</v>
       </c>
       <c r="I25" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -15867,7 +15863,7 @@
       </c>
       <c r="H26" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00561#0002</v>
+        <v>obj_005d8#0002</v>
       </c>
       <c r="I26" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -15901,7 +15897,7 @@
       </c>
       <c r="H27" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00559#0002</v>
+        <v>obj_005a9#0002</v>
       </c>
       <c r="I27" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -15935,7 +15931,7 @@
       </c>
       <c r="H28" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058c#0002</v>
+        <v>obj_005da#0002</v>
       </c>
       <c r="I28" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -15969,7 +15965,7 @@
       </c>
       <c r="H29" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00585#0002</v>
+        <v>obj_005de#0002</v>
       </c>
       <c r="I29" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -16003,7 +15999,7 @@
       </c>
       <c r="H30" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00550#0002</v>
+        <v>obj_005a0#0002</v>
       </c>
       <c r="I30" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -16037,7 +16033,7 @@
       </c>
       <c r="H31" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057a#0002</v>
+        <v>obj_005b6#0002</v>
       </c>
       <c r="I31" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -16071,7 +16067,7 @@
       </c>
       <c r="H32" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00579#0002</v>
+        <v>obj_00598#0002</v>
       </c>
       <c r="I32" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -16105,7 +16101,7 @@
       </c>
       <c r="H33" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00557#0002</v>
+        <v>obj_005cb#0002</v>
       </c>
       <c r="I33" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -16139,7 +16135,7 @@
       </c>
       <c r="H34" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00566#0002</v>
+        <v>obj_005c7#0002</v>
       </c>
       <c r="I34" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -16173,7 +16169,7 @@
       </c>
       <c r="H35" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00567#0002</v>
+        <v>obj_005a1#0002</v>
       </c>
       <c r="I35" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -16207,7 +16203,7 @@
       </c>
       <c r="H36" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00551#0002</v>
+        <v>obj_005a4#0002</v>
       </c>
       <c r="I36" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -16241,7 +16237,7 @@
       </c>
       <c r="H37" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00576#0002</v>
+        <v>obj_005a2#0002</v>
       </c>
       <c r="I37" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -16275,7 +16271,7 @@
       </c>
       <c r="H38" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00555#0002</v>
+        <v>obj_005b2#0002</v>
       </c>
       <c r="I38" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -16309,7 +16305,7 @@
       </c>
       <c r="H39" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0055f#0002</v>
+        <v>obj_005cc#0002</v>
       </c>
       <c r="I39" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -16343,7 +16339,7 @@
       </c>
       <c r="H40" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00564#0002</v>
+        <v>obj_005b4#0002</v>
       </c>
       <c r="I40" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -16376,7 +16372,7 @@
       </c>
       <c r="H41" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0055a#0002</v>
+        <v>obj_005ae#0002</v>
       </c>
       <c r="I41" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -16409,7 +16405,7 @@
       </c>
       <c r="H42" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057d#0002</v>
+        <v>obj_005a7#0002</v>
       </c>
       <c r="I42" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -16442,7 +16438,7 @@
       </c>
       <c r="H43" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00593#0002</v>
+        <v>obj_005d5#0002</v>
       </c>
       <c r="I43" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -16475,7 +16471,7 @@
       </c>
       <c r="H44" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0054a#0002</v>
+        <v>obj_005d6#0002</v>
       </c>
       <c r="I44" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -16601,7 +16597,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="152" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(,$H$1,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor(,Currency,$H$1,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_004fe#0002</v>
+        <v>obj_00524#0003</v>
       </c>
       <c r="L3" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -16655,12 +16651,12 @@
         <v>0</v>
       </c>
       <c r="J5" s="156" t="str">
-        <f t="shared" ref="J5:J68" si="2">Currency&amp;$D5&amp;$E5&amp;$C5&amp;QuoteSuffix</f>
+        <f t="shared" ref="J5:J41" si="2">Currency&amp;$D5&amp;$E5&amp;$C5&amp;QuoteSuffix</f>
         <v>USDAM3L1Y_Quote</v>
       </c>
       <c r="K5" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00597#0002</v>
+        <v>obj_005ba#0002</v>
       </c>
       <c r="L5" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -16707,7 +16703,7 @@
       </c>
       <c r="K6" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0054b#0002</v>
+        <v>obj_005ad#0002</v>
       </c>
       <c r="L6" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -16758,7 +16754,7 @@
       </c>
       <c r="K7" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0057c#0002</v>
+        <v>obj_005c9#0002</v>
       </c>
       <c r="L7" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -16809,7 +16805,7 @@
       </c>
       <c r="K8" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00591#0002</v>
+        <v>obj_0059f#0002</v>
       </c>
       <c r="L8" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -16856,7 +16852,7 @@
       </c>
       <c r="K9" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0058e#0002</v>
+        <v>obj_0059b#0002</v>
       </c>
       <c r="L9" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -16907,7 +16903,7 @@
       </c>
       <c r="K10" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00574#0002</v>
+        <v>obj_005c0#0002</v>
       </c>
       <c r="L10" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -16949,7 +16945,7 @@
       </c>
       <c r="K11" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00584#0002</v>
+        <v>obj_005d4#0002</v>
       </c>
       <c r="L11" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -16991,7 +16987,7 @@
       </c>
       <c r="K12" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0055e#0002</v>
+        <v>obj_005c6#0002</v>
       </c>
       <c r="L12" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -17033,7 +17029,7 @@
       </c>
       <c r="K13" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00590#0002</v>
+        <v>obj_005c4#0002</v>
       </c>
       <c r="L13" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -17075,7 +17071,7 @@
       </c>
       <c r="K14" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00554#0002</v>
+        <v>obj_00593#0002</v>
       </c>
       <c r="L14" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -17117,7 +17113,7 @@
       </c>
       <c r="K15" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00560#0002</v>
+        <v>obj_005a5#0002</v>
       </c>
       <c r="L15" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -17159,7 +17155,7 @@
       </c>
       <c r="K16" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00596#0002</v>
+        <v>obj_0059c#0002</v>
       </c>
       <c r="L16" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -17201,7 +17197,7 @@
       </c>
       <c r="K17" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056e#0002</v>
+        <v>obj_005c8#0002</v>
       </c>
       <c r="L17" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -17243,7 +17239,7 @@
       </c>
       <c r="K18" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0057b#0002</v>
+        <v>obj_005c1#0002</v>
       </c>
       <c r="L18" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -17285,7 +17281,7 @@
       </c>
       <c r="K19" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00570#0002</v>
+        <v>obj_005a6#0002</v>
       </c>
       <c r="L19" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -17327,7 +17323,7 @@
       </c>
       <c r="K20" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00563#0002</v>
+        <v>obj_00595#0002</v>
       </c>
       <c r="L20" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -17369,7 +17365,7 @@
       </c>
       <c r="K21" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00556#0002</v>
+        <v>obj_005bc#0002</v>
       </c>
       <c r="L21" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -17411,7 +17407,7 @@
       </c>
       <c r="K22" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056c#0002</v>
+        <v>obj_005b5#0002</v>
       </c>
       <c r="L22" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -17453,7 +17449,7 @@
       </c>
       <c r="K23" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0054e#0002</v>
+        <v>obj_005bb#0002</v>
       </c>
       <c r="L23" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -17495,7 +17491,7 @@
       </c>
       <c r="K24" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00592#0002</v>
+        <v>obj_005cf#0002</v>
       </c>
       <c r="L24" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -17537,7 +17533,7 @@
       </c>
       <c r="K25" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00571#0002</v>
+        <v>obj_005d9#0002</v>
       </c>
       <c r="L25" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -17579,7 +17575,7 @@
       </c>
       <c r="K26" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0054d#0002</v>
+        <v>obj_005b1#0002</v>
       </c>
       <c r="L26" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -17621,7 +17617,7 @@
       </c>
       <c r="K27" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00568#0002</v>
+        <v>obj_005d2#0002</v>
       </c>
       <c r="L27" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -17663,7 +17659,7 @@
       </c>
       <c r="K28" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00562#0002</v>
+        <v>obj_005dc#0002</v>
       </c>
       <c r="L28" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -17705,7 +17701,7 @@
       </c>
       <c r="K29" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00577#0002</v>
+        <v>obj_005d3#0002</v>
       </c>
       <c r="L29" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -17747,7 +17743,7 @@
       </c>
       <c r="K30" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0057e#0002</v>
+        <v>obj_005df#0002</v>
       </c>
       <c r="L30" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -17789,7 +17785,7 @@
       </c>
       <c r="K31" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00565#0002</v>
+        <v>obj_005be#0002</v>
       </c>
       <c r="L31" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -17831,7 +17827,7 @@
       </c>
       <c r="K32" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0054c#0002</v>
+        <v>obj_00592#0002</v>
       </c>
       <c r="L32" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -17873,7 +17869,7 @@
       </c>
       <c r="K33" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00552#0002</v>
+        <v>obj_005d7#0002</v>
       </c>
       <c r="L33" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -17915,7 +17911,7 @@
       </c>
       <c r="K34" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0058d#0002</v>
+        <v>obj_005b0#0002</v>
       </c>
       <c r="L34" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -17957,7 +17953,7 @@
       </c>
       <c r="K35" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00549#0002</v>
+        <v>obj_005d0#0002</v>
       </c>
       <c r="L35" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -17999,7 +17995,7 @@
       </c>
       <c r="K36" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00575#0002</v>
+        <v>obj_0059d#0002</v>
       </c>
       <c r="L36" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -18041,7 +18037,7 @@
       </c>
       <c r="K37" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0055c#0002</v>
+        <v>obj_005b3#0002</v>
       </c>
       <c r="L37" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -18083,7 +18079,7 @@
       </c>
       <c r="K38" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00553#0002</v>
+        <v>obj_005db#0002</v>
       </c>
       <c r="L38" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -18125,7 +18121,7 @@
       </c>
       <c r="K39" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00558#0002</v>
+        <v>obj_005d1#0002</v>
       </c>
       <c r="L39" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -18167,7 +18163,7 @@
       </c>
       <c r="K40" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00569#0002</v>
+        <v>obj_005aa#0002</v>
       </c>
       <c r="L40" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -18209,7 +18205,7 @@
       </c>
       <c r="K41" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00573#0002</v>
+        <v>obj_00597#0002</v>
       </c>
       <c r="L41" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -18263,12 +18259,12 @@
         <v>0</v>
       </c>
       <c r="J43" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C43&amp;QuoteSuffix</f>
+        <f t="shared" ref="J43:J79" si="3">Currency&amp;"_CURVE_3M_"&amp;C43&amp;QuoteSuffix</f>
         <v>USD_CURVE_3M_1Y_Quote</v>
       </c>
       <c r="K43" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J43,$C43,Calendar,$F43,$G43,$H43,$K$3,$I43,B43,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0077d#0002</v>
+        <v>obj_00554#0003</v>
       </c>
       <c r="L43" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K43)</f>
@@ -18305,12 +18301,12 @@
         <v>0</v>
       </c>
       <c r="J44" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C44&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_15M_Quote</v>
       </c>
       <c r="K44" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J44,$C44,Calendar,$F44,$G44,$H44,$K$3,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00775#0002</v>
+        <v>obj_0055e#0003</v>
       </c>
       <c r="L44" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K44)</f>
@@ -18347,12 +18343,12 @@
         <v>0</v>
       </c>
       <c r="J45" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C45&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_18M_Quote</v>
       </c>
       <c r="K45" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J45,$C45,Calendar,$F45,$G45,$H45,$K$3,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00763#0002</v>
+        <v>obj_00568#0003</v>
       </c>
       <c r="L45" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K45)</f>
@@ -18389,12 +18385,12 @@
         <v>0</v>
       </c>
       <c r="J46" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C46&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_21M_Quote</v>
       </c>
       <c r="K46" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J46,$C46,Calendar,$F46,$G46,$H46,$K$3,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0076f#0002</v>
+        <v>obj_0056f#0003</v>
       </c>
       <c r="L46" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K46)</f>
@@ -18431,12 +18427,12 @@
         <v>0</v>
       </c>
       <c r="J47" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C47&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_2Y_Quote</v>
       </c>
       <c r="K47" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J47,$C47,Calendar,$F47,$G47,$H47,$K$3,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00764#0002</v>
+        <v>obj_0055c#0003</v>
       </c>
       <c r="L47" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K47)</f>
@@ -18473,12 +18469,12 @@
         <v>0</v>
       </c>
       <c r="J48" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C48&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_3Y_Quote</v>
       </c>
       <c r="K48" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J48,$C48,Calendar,$F48,$G48,$H48,$K$3,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0076d#0002</v>
+        <v>obj_0056c#0003</v>
       </c>
       <c r="L48" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K48)</f>
@@ -18515,12 +18511,12 @@
         <v>0</v>
       </c>
       <c r="J49" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C49&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_4Y_Quote</v>
       </c>
       <c r="K49" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J49,$C49,Calendar,$F49,$G49,$H49,$K$3,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0076a#0002</v>
+        <v>obj_00558#0003</v>
       </c>
       <c r="L49" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K49)</f>
@@ -18557,12 +18553,12 @@
         <v>0</v>
       </c>
       <c r="J50" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C50&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_5Y_Quote</v>
       </c>
       <c r="K50" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J50,$C50,Calendar,$F50,$G50,$H50,$K$3,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00780#0002</v>
+        <v>obj_00566#0003</v>
       </c>
       <c r="L50" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K50)</f>
@@ -18599,12 +18595,12 @@
         <v>0</v>
       </c>
       <c r="J51" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C51&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_6Y_Quote</v>
       </c>
       <c r="K51" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J51,$C51,Calendar,$F51,$G51,$H51,$K$3,$I51,B51,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0077a#0002</v>
+        <v>obj_00528#0003</v>
       </c>
       <c r="L51" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K51)</f>
@@ -18641,12 +18637,12 @@
         <v>0</v>
       </c>
       <c r="J52" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C52&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_7Y_Quote</v>
       </c>
       <c r="K52" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J52,$C52,Calendar,$F52,$G52,$H52,$K$3,$I52,B52,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00768#0002</v>
+        <v>obj_00563#0003</v>
       </c>
       <c r="L52" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K52)</f>
@@ -18683,12 +18679,12 @@
         <v>0</v>
       </c>
       <c r="J53" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C53&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_8Y_Quote</v>
       </c>
       <c r="K53" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J53,$C53,Calendar,$F53,$G53,$H53,$K$3,$I53,B53,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00776#0002</v>
+        <v>obj_0055f#0003</v>
       </c>
       <c r="L53" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K53)</f>
@@ -18725,12 +18721,12 @@
         <v>0</v>
       </c>
       <c r="J54" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C54&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_9Y_Quote</v>
       </c>
       <c r="K54" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J54,$C54,Calendar,$F54,$G54,$H54,$K$3,$I54,B54,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0076c#0002</v>
+        <v>obj_00552#0003</v>
       </c>
       <c r="L54" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K54)</f>
@@ -18767,12 +18763,12 @@
         <v>0</v>
       </c>
       <c r="J55" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C55&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_10Y_Quote</v>
       </c>
       <c r="K55" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J55,$C55,Calendar,$F55,$G55,$H55,$K$3,$I55,B55,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00774#0002</v>
+        <v>obj_0056b#0003</v>
       </c>
       <c r="L55" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K55)</f>
@@ -18809,12 +18805,12 @@
         <v>0</v>
       </c>
       <c r="J56" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C56&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_11Y_Quote</v>
       </c>
       <c r="K56" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J56,$C56,Calendar,$F56,$G56,$H56,$K$3,$I56,B56,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00762#0002</v>
+        <v>obj_00529#0003</v>
       </c>
       <c r="L56" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K56)</f>
@@ -18851,12 +18847,12 @@
         <v>0</v>
       </c>
       <c r="J57" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C57&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_12Y_Quote</v>
       </c>
       <c r="K57" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J57,$C57,Calendar,$F57,$G57,$H57,$K$3,$I57,B57,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00778#0002</v>
+        <v>obj_00565#0003</v>
       </c>
       <c r="L57" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K57)</f>
@@ -18893,12 +18889,12 @@
         <v>0</v>
       </c>
       <c r="J58" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C58&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_13Y_Quote</v>
       </c>
       <c r="K58" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J58,$C58,Calendar,$F58,$G58,$H58,$K$3,$I58,B58,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0077e#0002</v>
+        <v>obj_0056e#0003</v>
       </c>
       <c r="L58" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K58)</f>
@@ -18935,12 +18931,12 @@
         <v>0</v>
       </c>
       <c r="J59" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C59&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_14Y_Quote</v>
       </c>
       <c r="K59" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J59,$C59,Calendar,$F59,$G59,$H59,$K$3,$I59,B59,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00766#0002</v>
+        <v>obj_0056d#0003</v>
       </c>
       <c r="L59" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K59)</f>
@@ -18977,12 +18973,12 @@
         <v>0</v>
       </c>
       <c r="J60" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C60&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_15Y_Quote</v>
       </c>
       <c r="K60" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J60,$C60,Calendar,$F60,$G60,$H60,$K$3,$I60,B60,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00771#0002</v>
+        <v>obj_00572#0003</v>
       </c>
       <c r="L60" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K60)</f>
@@ -19019,12 +19015,12 @@
         <v>0</v>
       </c>
       <c r="J61" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C61&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_16Y_Quote</v>
       </c>
       <c r="K61" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J61,$C61,Calendar,$F61,$G61,$H61,$K$3,$I61,B61,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00760#0002</v>
+        <v>obj_00562#0003</v>
       </c>
       <c r="L61" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K61)</f>
@@ -19061,12 +19057,12 @@
         <v>0</v>
       </c>
       <c r="J62" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C62&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_17Y_Quote</v>
       </c>
       <c r="K62" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J62,$C62,Calendar,$F62,$G62,$H62,$K$3,$I62,B62,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00777#0002</v>
+        <v>obj_00557#0003</v>
       </c>
       <c r="L62" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K62)</f>
@@ -19103,12 +19099,12 @@
         <v>0</v>
       </c>
       <c r="J63" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C63&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_18Y_Quote</v>
       </c>
       <c r="K63" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J63,$C63,Calendar,$F63,$G63,$H63,$K$3,$I63,B63,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0077c#0002</v>
+        <v>obj_0055d#0003</v>
       </c>
       <c r="L63" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K63)</f>
@@ -19145,12 +19141,12 @@
         <v>0</v>
       </c>
       <c r="J64" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C64&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_19Y_Quote</v>
       </c>
       <c r="K64" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J64,$C64,Calendar,$F64,$G64,$H64,$K$3,$I64,B64,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0077b#0002</v>
+        <v>obj_0055b#0003</v>
       </c>
       <c r="L64" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K64)</f>
@@ -19187,12 +19183,12 @@
         <v>0</v>
       </c>
       <c r="J65" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C65&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_20Y_Quote</v>
       </c>
       <c r="K65" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J65,$C65,Calendar,$F65,$G65,$H65,$K$3,$I65,B65,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0076b#0002</v>
+        <v>obj_0055a#0003</v>
       </c>
       <c r="L65" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K65)</f>
@@ -19229,12 +19225,12 @@
         <v>0</v>
       </c>
       <c r="J66" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C66&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_21Y_Quote</v>
       </c>
       <c r="K66" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J66,$C66,Calendar,$F66,$G66,$H66,$K$3,$I66,B66,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00770#0002</v>
+        <v>obj_00564#0003</v>
       </c>
       <c r="L66" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K66)</f>
@@ -19271,12 +19267,12 @@
         <v>0</v>
       </c>
       <c r="J67" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C67&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_22Y_Quote</v>
       </c>
       <c r="K67" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J67,$C67,Calendar,$F67,$G67,$H67,$K$3,$I67,B67,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00761#0002</v>
+        <v>obj_00570#0003</v>
       </c>
       <c r="L67" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K67)</f>
@@ -19313,12 +19309,12 @@
         <v>0</v>
       </c>
       <c r="J68" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C68&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_23Y_Quote</v>
       </c>
       <c r="K68" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J68,$C68,Calendar,$F68,$G68,$H68,$K$3,$I68,B68,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00767#0002</v>
+        <v>obj_00560#0003</v>
       </c>
       <c r="L68" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K68)</f>
@@ -19341,26 +19337,26 @@
         <v>3L</v>
       </c>
       <c r="F69" s="141" t="str">
-        <f t="shared" ref="F69:F80" si="3">IF(UPPER(LEFT($D69))="A","Annual",IF(UPPER(LEFT($D69))="S","Semiannual","--"))</f>
+        <f t="shared" ref="F69:F79" si="4">IF(UPPER(LEFT($D69))="A","Annual",IF(UPPER(LEFT($D69))="S","Semiannual","--"))</f>
         <v>Annual</v>
       </c>
       <c r="G69" s="141" t="s">
         <v>104</v>
       </c>
       <c r="H69" s="141" t="str">
-        <f t="shared" ref="H69:H80" si="4">IF(UPPER(RIGHT($D69))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D69))="M",MoneyMarketDayCounter,"--"))</f>
+        <f t="shared" ref="H69:H79" si="5">IF(UPPER(RIGHT($D69))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D69))="M",MoneyMarketDayCounter,"--"))</f>
         <v>Actual/360</v>
       </c>
       <c r="I69" s="155">
         <v>0</v>
       </c>
       <c r="J69" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C69&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_24Y_Quote</v>
       </c>
       <c r="K69" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J69,$C69,Calendar,$F69,$G69,$H69,$K$3,$I69,B69,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00773#0002</v>
+        <v>obj_00569#0003</v>
       </c>
       <c r="L69" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K69)</f>
@@ -19383,26 +19379,26 @@
         <v>3L</v>
       </c>
       <c r="F70" s="141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Annual</v>
       </c>
       <c r="G70" s="141" t="s">
         <v>104</v>
       </c>
       <c r="H70" s="141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Actual/360</v>
       </c>
       <c r="I70" s="155">
         <v>0</v>
       </c>
       <c r="J70" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C70&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_25Y_Quote</v>
       </c>
       <c r="K70" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J70,$C70,Calendar,$F70,$G70,$H70,$K$3,$I70,B70,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00765#0002</v>
+        <v>obj_00553#0003</v>
       </c>
       <c r="L70" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K70)</f>
@@ -19425,26 +19421,26 @@
         <v>3L</v>
       </c>
       <c r="F71" s="141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Annual</v>
       </c>
       <c r="G71" s="141" t="s">
         <v>104</v>
       </c>
       <c r="H71" s="141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Actual/360</v>
       </c>
       <c r="I71" s="155">
         <v>0</v>
       </c>
       <c r="J71" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C71&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_26Y_Quote</v>
       </c>
       <c r="K71" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J71,$C71,Calendar,$F71,$G71,$H71,$K$3,$I71,B71,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0076e#0002</v>
+        <v>obj_00555#0003</v>
       </c>
       <c r="L71" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K71)</f>
@@ -19467,26 +19463,26 @@
         <v>3L</v>
       </c>
       <c r="F72" s="141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Annual</v>
       </c>
       <c r="G72" s="141" t="s">
         <v>104</v>
       </c>
       <c r="H72" s="141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Actual/360</v>
       </c>
       <c r="I72" s="155">
         <v>0</v>
       </c>
       <c r="J72" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C72&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_27Y_Quote</v>
       </c>
       <c r="K72" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J72,$C72,Calendar,$F72,$G72,$H72,$K$3,$I72,B72,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0077f#0002</v>
+        <v>obj_00561#0003</v>
       </c>
       <c r="L72" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K72)</f>
@@ -19509,26 +19505,26 @@
         <v>3L</v>
       </c>
       <c r="F73" s="141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Annual</v>
       </c>
       <c r="G73" s="141" t="s">
         <v>104</v>
       </c>
       <c r="H73" s="141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Actual/360</v>
       </c>
       <c r="I73" s="155">
         <v>0</v>
       </c>
       <c r="J73" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C73&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_28Y_Quote</v>
       </c>
       <c r="K73" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J73,$C73,Calendar,$F73,$G73,$H73,$K$3,$I73,B73,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00781#0002</v>
+        <v>obj_00574#0003</v>
       </c>
       <c r="L73" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K73)</f>
@@ -19551,26 +19547,26 @@
         <v>3L</v>
       </c>
       <c r="F74" s="141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Annual</v>
       </c>
       <c r="G74" s="141" t="s">
         <v>104</v>
       </c>
       <c r="H74" s="141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Actual/360</v>
       </c>
       <c r="I74" s="155">
         <v>0</v>
       </c>
       <c r="J74" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C74&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_29Y_Quote</v>
       </c>
       <c r="K74" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J74,$C74,Calendar,$F74,$G74,$H74,$K$3,$I74,B74,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00782#0002</v>
+        <v>obj_00559#0003</v>
       </c>
       <c r="L74" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K74)</f>
@@ -19593,26 +19589,26 @@
         <v>3L</v>
       </c>
       <c r="F75" s="141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Annual</v>
       </c>
       <c r="G75" s="141" t="s">
         <v>104</v>
       </c>
       <c r="H75" s="141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Actual/360</v>
       </c>
       <c r="I75" s="155">
         <v>0</v>
       </c>
       <c r="J75" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C75&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_30Y_Quote</v>
       </c>
       <c r="K75" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J75,$C75,Calendar,$F75,$G75,$H75,$K$3,$I75,B75,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00783#0002</v>
+        <v>obj_0056a#0003</v>
       </c>
       <c r="L75" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K75)</f>
@@ -19635,26 +19631,26 @@
         <v>3L</v>
       </c>
       <c r="F76" s="141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Annual</v>
       </c>
       <c r="G76" s="141" t="s">
         <v>104</v>
       </c>
       <c r="H76" s="141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Actual/360</v>
       </c>
       <c r="I76" s="155">
         <v>0</v>
       </c>
       <c r="J76" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C76&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_35Y_Quote</v>
       </c>
       <c r="K76" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J76,$C76,Calendar,$F76,$G76,$H76,$K$3,$I76,B76,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00772#0002</v>
+        <v>obj_00567#0003</v>
       </c>
       <c r="L76" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K76)</f>
@@ -19677,26 +19673,26 @@
         <v>3L</v>
       </c>
       <c r="F77" s="141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Annual</v>
       </c>
       <c r="G77" s="141" t="s">
         <v>104</v>
       </c>
       <c r="H77" s="141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Actual/360</v>
       </c>
       <c r="I77" s="155">
         <v>0</v>
       </c>
       <c r="J77" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C77&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_40Y_Quote</v>
       </c>
       <c r="K77" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J77,$C77,Calendar,$F77,$G77,$H77,$K$3,$I77,B77,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00779#0002</v>
+        <v>obj_00573#0003</v>
       </c>
       <c r="L77" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K77)</f>
@@ -19719,26 +19715,26 @@
         <v>3L</v>
       </c>
       <c r="F78" s="141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Annual</v>
       </c>
       <c r="G78" s="141" t="s">
         <v>104</v>
       </c>
       <c r="H78" s="141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Actual/360</v>
       </c>
       <c r="I78" s="155">
         <v>0</v>
       </c>
       <c r="J78" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C78&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_50Y_Quote</v>
       </c>
       <c r="K78" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J78,$C78,Calendar,$F78,$G78,$H78,$K$3,$I78,B78,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0075f#0002</v>
+        <v>obj_00556#0003</v>
       </c>
       <c r="L78" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K78)</f>
@@ -19761,26 +19757,26 @@
         <v>3L</v>
       </c>
       <c r="F79" s="141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Annual</v>
       </c>
       <c r="G79" s="141" t="s">
         <v>104</v>
       </c>
       <c r="H79" s="141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Actual/360</v>
       </c>
       <c r="I79" s="155">
         <v>0</v>
       </c>
       <c r="J79" s="156" t="str">
-        <f>Currency&amp;"_CURVE_3M_"&amp;C79&amp;QuoteSuffix</f>
+        <f t="shared" si="3"/>
         <v>USD_CURVE_3M_60Y_Quote</v>
       </c>
       <c r="K79" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J79,$C79,Calendar,$F79,$G79,$H79,$K$3,$I79,B79,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00769#0002</v>
+        <v>obj_00571#0003</v>
       </c>
       <c r="L79" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K79)</f>
@@ -19819,9 +19815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19831,12 +19825,12 @@
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="8" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="23" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" customWidth="1"/>
     <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
@@ -19916,7 +19910,7 @@
       <c r="K3" s="63"/>
       <c r="L3" s="152" t="str">
         <f>_xll.qlLibor(,Currency,$F$1,K1,,Trigger)</f>
-        <v>obj_004b9#0002</v>
+        <v>obj_004dd#0003</v>
       </c>
       <c r="M3" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L3)</f>
@@ -19962,23 +19956,23 @@
       </c>
       <c r="H5" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C5,2,Currency,Calendar,D5,E5,F5,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004ba#0002</v>
-      </c>
-      <c r="I5" s="155" t="e">
+        <v>obj_004f4#0003</v>
+      </c>
+      <c r="I5" s="155">
         <f>_xll.qlIndexFixing(H5,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H5)</f>
-        <v>#NUM!</v>
+        <v>2.9500363161171226E-3</v>
       </c>
       <c r="J5" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C5&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L1Y_Quote#0002</v>
+        <v>USD3L1Y_Quote#0003</v>
       </c>
       <c r="K5" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J5,I5,I5)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L5" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J5,$C5,Calendar,"Annual",$E5,$F5,$L$3,$G5,B5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00528#0002</v>
+        <v>obj_00538#0003</v>
       </c>
       <c r="M5" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L5)</f>
@@ -20010,23 +20004,23 @@
       </c>
       <c r="H6" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C6,2,Currency,Calendar,D6,E6,F6,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00523#0002</v>
-      </c>
-      <c r="I6" s="155" t="e">
+        <v>obj_00532#0003</v>
+      </c>
+      <c r="I6" s="155">
         <f>_xll.qlIndexFixing(H6,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H6)</f>
-        <v>#NUM!</v>
+        <v>3.7303659331458672E-3</v>
       </c>
       <c r="J6" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C6&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L15M_Quote#0002</v>
+        <v>USD3L15M_Quote#0003</v>
       </c>
       <c r="K6" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J6,I6,I6)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L6" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J6,$C6,Calendar,"Annual",$E6,$F6,$L$3,$G6,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00517#0002</v>
+        <v>obj_0052e#0003</v>
       </c>
       <c r="M6" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -20058,23 +20052,23 @@
       </c>
       <c r="H7" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C7,2,Currency,Calendar,D7,E7,F7,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004fb#0002</v>
-      </c>
-      <c r="I7" s="155" t="e">
+        <v>obj_00501#0003</v>
+      </c>
+      <c r="I7" s="155">
         <f>_xll.qlIndexFixing(H7,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H7)</f>
-        <v>#NUM!</v>
+        <v>4.6565622386753169E-3</v>
       </c>
       <c r="J7" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C7&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L18M_Quote#0002</v>
+        <v>USD3L18M_Quote#0003</v>
       </c>
       <c r="K7" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J7,I7,I7)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L7" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J7,$C7,Calendar,"Annual",$E7,$F7,$L$3,$G7,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00511#0002</v>
+        <v>obj_0054d#0003</v>
       </c>
       <c r="M7" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -20106,23 +20100,23 @@
       </c>
       <c r="H8" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C8,2,Currency,Calendar,D8,E8,F8,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004e9#0002</v>
-      </c>
-      <c r="I8" s="155" t="e">
+        <v>obj_004fa#0003</v>
+      </c>
+      <c r="I8" s="155">
         <f>_xll.qlIndexFixing(H8,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H8)</f>
-        <v>#NUM!</v>
+        <v>5.6724313680841486E-3</v>
       </c>
       <c r="J8" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C8&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L21M_Quote#0002</v>
+        <v>USD3L21M_Quote#0003</v>
       </c>
       <c r="K8" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J8,I8,I8)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L8" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J8,$C8,Calendar,"Annual",$E8,$F8,$L$3,$G8,B8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050b#0002</v>
+        <v>obj_0053a#0003</v>
       </c>
       <c r="M8" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -20154,23 +20148,23 @@
       </c>
       <c r="H9" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C9,2,Currency,Calendar,D9,E9,F9,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004f3#0002</v>
-      </c>
-      <c r="I9" s="155" t="e">
+        <v>obj_004e7#0003</v>
+      </c>
+      <c r="I9" s="155">
         <f>_xll.qlIndexFixing(H9,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H9)</f>
-        <v>#NUM!</v>
+        <v>6.75928590244848E-3</v>
       </c>
       <c r="J9" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C9&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L2Y_Quote#0002</v>
+        <v>USD3L2Y_Quote#0003</v>
       </c>
       <c r="K9" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J9,I9,I9)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L9" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J9,$C9,Calendar,"Annual",$E9,$F9,$L$3,$G9,B9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00524#0002</v>
+        <v>obj_0054a#0003</v>
       </c>
       <c r="M9" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -20202,23 +20196,23 @@
       </c>
       <c r="H10" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C10,2,Currency,Calendar,D10,E10,F10,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004ef#0002</v>
-      </c>
-      <c r="I10" s="155" t="e">
+        <v>obj_00527#0003</v>
+      </c>
+      <c r="I10" s="155">
         <f>_xll.qlIndexFixing(H10,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H10)</f>
-        <v>#NUM!</v>
+        <v>1.0933826099301091E-2</v>
       </c>
       <c r="J10" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C10&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L3Y_Quote#0002</v>
+        <v>USD3L3Y_Quote#0003</v>
       </c>
       <c r="K10" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J10,I10,I10)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L10" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J10,$C10,Calendar,"Annual",$E10,$F10,$L$3,$G10,B10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00508#0002</v>
+        <v>obj_0053b#0003</v>
       </c>
       <c r="M10" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -20251,23 +20245,23 @@
       </c>
       <c r="H11" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C11,2,Currency,Calendar,D11,E11,F11,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004f9#0002</v>
-      </c>
-      <c r="I11" s="155" t="e">
+        <v>obj_004fc#0003</v>
+      </c>
+      <c r="I11" s="155">
         <f>_xll.qlIndexFixing(H11,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H11)</f>
-        <v>#NUM!</v>
+        <v>1.4325320988726742E-2</v>
       </c>
       <c r="J11" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C11&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L4Y_Quote#0002</v>
+        <v>USD3L4Y_Quote#0003</v>
       </c>
       <c r="K11" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J11,I11,I11)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L11" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J11,$C11,Calendar,"Annual",$E11,$F11,$L$3,$G11,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00529#0002</v>
+        <v>obj_0054b#0003</v>
       </c>
       <c r="M11" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -20300,23 +20294,23 @@
       </c>
       <c r="H12" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C12,2,Currency,Calendar,D12,E12,F12,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004de#0002</v>
-      </c>
-      <c r="I12" s="155" t="e">
+        <v>obj_0050a#0003</v>
+      </c>
+      <c r="I12" s="155">
         <f>_xll.qlIndexFixing(H12,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H12)</f>
-        <v>#NUM!</v>
+        <v>1.6901214867224304E-2</v>
       </c>
       <c r="J12" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C12&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L5Y_Quote#0002</v>
+        <v>USD3L5Y_Quote#0003</v>
       </c>
       <c r="K12" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J12,I12,I12)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L12" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J12,$C12,Calendar,"Annual",$E12,$F12,$L$3,$G12,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0051c#0002</v>
+        <v>obj_00531#0003</v>
       </c>
       <c r="M12" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -20349,23 +20343,23 @@
       </c>
       <c r="H13" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C13,2,Currency,Calendar,D13,E13,F13,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004d9#0002</v>
-      </c>
-      <c r="I13" s="155" t="e">
+        <v>obj_004f8#0003</v>
+      </c>
+      <c r="I13" s="155">
         <f>_xll.qlIndexFixing(H13,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H13)</f>
-        <v>#NUM!</v>
+        <v>1.8966810507590189E-2</v>
       </c>
       <c r="J13" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C13&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L6Y_Quote#0002</v>
+        <v>USD3L6Y_Quote#0003</v>
       </c>
       <c r="K13" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J13,I13,I13)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L13" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J13,$C13,Calendar,"Annual",$E13,$F13,$L$3,$G13,B13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0051f#0002</v>
+        <v>obj_0053d#0003</v>
       </c>
       <c r="M13" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -20398,23 +20392,23 @@
       </c>
       <c r="H14" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C14,2,Currency,Calendar,D14,E14,F14,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004c1#0002</v>
-      </c>
-      <c r="I14" s="155" t="e">
+        <v>obj_004f5#0003</v>
+      </c>
+      <c r="I14" s="155">
         <f>_xll.qlIndexFixing(H14,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H14)</f>
-        <v>#NUM!</v>
+        <v>2.0647232531970313E-2</v>
       </c>
       <c r="J14" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C14&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L7Y_Quote#0002</v>
+        <v>USD3L7Y_Quote#0003</v>
       </c>
       <c r="K14" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J14,I14,I14)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L14" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J14,$C14,Calendar,"Annual",$E14,$F14,$L$3,$G14,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00515#0002</v>
+        <v>obj_00534#0003</v>
       </c>
       <c r="M14" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -20447,23 +20441,23 @@
       </c>
       <c r="H15" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C15,2,Currency,Calendar,D15,E15,F15,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004eb#0002</v>
-      </c>
-      <c r="I15" s="155" t="e">
+        <v>obj_00519#0003</v>
+      </c>
+      <c r="I15" s="155">
         <f>_xll.qlIndexFixing(H15,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H15)</f>
-        <v>#NUM!</v>
+        <v>2.2027547486887494E-2</v>
       </c>
       <c r="J15" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C15&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L8Y_Quote#0002</v>
+        <v>USD3L8Y_Quote#0003</v>
       </c>
       <c r="K15" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J15,I15,I15)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L15" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J15,$C15,Calendar,"Annual",$E15,$F15,$L$3,$G15,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00516#0002</v>
+        <v>obj_0053e#0003</v>
       </c>
       <c r="M15" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -20496,23 +20490,23 @@
       </c>
       <c r="H16" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C16,2,Currency,Calendar,D16,E16,F16,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004cf#0002</v>
-      </c>
-      <c r="I16" s="155" t="e">
+        <v>obj_00525#0003</v>
+      </c>
+      <c r="I16" s="155">
         <f>_xll.qlIndexFixing(H16,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H16)</f>
-        <v>#NUM!</v>
+        <v>2.3207791669002678E-2</v>
       </c>
       <c r="J16" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C16&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L9Y_Quote#0002</v>
+        <v>USD3L9Y_Quote#0003</v>
       </c>
       <c r="K16" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J16,I16,I16)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L16" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J16,$C16,Calendar,"Annual",$E16,$F16,$L$3,$G16,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00519#0002</v>
+        <v>obj_0052f#0003</v>
       </c>
       <c r="M16" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -20545,23 +20539,23 @@
       </c>
       <c r="H17" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C17,2,Currency,Calendar,D17,E17,F17,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004ed#0002</v>
-      </c>
-      <c r="I17" s="155" t="e">
+        <v>obj_00520#0003</v>
+      </c>
+      <c r="I17" s="155">
         <f>_xll.qlIndexFixing(H17,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H17)</f>
-        <v>#NUM!</v>
+        <v>2.4199730492321398E-2</v>
       </c>
       <c r="J17" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C17&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L10Y_Quote#0002</v>
+        <v>USD3L10Y_Quote#0003</v>
       </c>
       <c r="K17" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J17,I17,I17)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L17" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J17,$C17,Calendar,"Annual",$E17,$F17,$L$3,$G17,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0051a#0002</v>
+        <v>obj_00530#0003</v>
       </c>
       <c r="M17" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -20594,23 +20588,23 @@
       </c>
       <c r="H18" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C18,2,Currency,Calendar,D18,E18,F18,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004df#0002</v>
-      </c>
-      <c r="I18" s="155" t="e">
+        <v>obj_00526#0003</v>
+      </c>
+      <c r="I18" s="155">
         <f>_xll.qlIndexFixing(H18,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H18)</f>
-        <v>#NUM!</v>
+        <v>2.5063207134064597E-2</v>
       </c>
       <c r="J18" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C18&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L11Y_Quote#0002</v>
+        <v>USD3L11Y_Quote#0003</v>
       </c>
       <c r="K18" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J18,I18,I18)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L18" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J18,$C18,Calendar,"Annual",$E18,$F18,$L$3,$G18,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00509#0002</v>
+        <v>obj_0052b#0003</v>
       </c>
       <c r="M18" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -20643,23 +20637,23 @@
       </c>
       <c r="H19" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C19,2,Currency,Calendar,D19,E19,F19,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004fd#0002</v>
-      </c>
-      <c r="I19" s="155" t="e">
+        <v>obj_004ed#0003</v>
+      </c>
+      <c r="I19" s="155">
         <f>_xll.qlIndexFixing(H19,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H19)</f>
-        <v>#NUM!</v>
+        <v>2.579827326627036E-2</v>
       </c>
       <c r="J19" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C19&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L12Y_Quote#0002</v>
+        <v>USD3L12Y_Quote#0003</v>
       </c>
       <c r="K19" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J19,I19,I19)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L19" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J19,$C19,Calendar,"Annual",$E19,$F19,$L$3,$G19,B19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050d#0002</v>
+        <v>obj_00551#0003</v>
       </c>
       <c r="M19" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -20692,23 +20686,23 @@
       </c>
       <c r="H20" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C20,2,Currency,Calendar,D20,E20,F20,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004d0#0002</v>
-      </c>
-      <c r="I20" s="155" t="e">
+        <v>obj_004df#0003</v>
+      </c>
+      <c r="I20" s="155">
         <f>_xll.qlIndexFixing(H20,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H20)</f>
-        <v>#NUM!</v>
+        <v>2.6425421484141193E-2</v>
       </c>
       <c r="J20" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C20&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L13Y_Quote#0002</v>
+        <v>USD3L13Y_Quote#0003</v>
       </c>
       <c r="K20" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J20,I20,I20)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L20" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J20,$C20,Calendar,"Annual",$E20,$F20,$L$3,$G20,B20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0051d#0002</v>
+        <v>obj_00542#0003</v>
       </c>
       <c r="M20" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -20741,23 +20735,23 @@
       </c>
       <c r="H21" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C21,2,Currency,Calendar,D21,E21,F21,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004cd#0002</v>
-      </c>
-      <c r="I21" s="155" t="e">
+        <v>obj_0051e#0003</v>
+      </c>
+      <c r="I21" s="155">
         <f>_xll.qlIndexFixing(H21,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H21)</f>
-        <v>#NUM!</v>
+        <v>2.6967252517188647E-2</v>
       </c>
       <c r="J21" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C21&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L14Y_Quote#0002</v>
+        <v>USD3L14Y_Quote#0003</v>
       </c>
       <c r="K21" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J21,I21,I21)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L21" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J21,$C21,Calendar,"Annual",$E21,$F21,$L$3,$G21,B21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0051b#0002</v>
+        <v>obj_00541#0003</v>
       </c>
       <c r="M21" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -20790,23 +20784,23 @@
       </c>
       <c r="H22" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C22,2,Currency,Calendar,D22,E22,F22,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004cc#0002</v>
-      </c>
-      <c r="I22" s="155" t="e">
+        <v>obj_0051b#0003</v>
+      </c>
+      <c r="I22" s="155">
         <f>_xll.qlIndexFixing(H22,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H22)</f>
-        <v>#NUM!</v>
+        <v>2.7428556866086719E-2</v>
       </c>
       <c r="J22" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C22&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L15Y_Quote#0002</v>
+        <v>USD3L15Y_Quote#0003</v>
       </c>
       <c r="K22" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J22,I22,I22)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L22" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J22,$C22,Calendar,"Annual",$E22,$F22,$L$3,$G22,B22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00522#0002</v>
+        <v>obj_0054e#0003</v>
       </c>
       <c r="M22" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -20839,23 +20833,23 @@
       </c>
       <c r="H23" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C23,2,Currency,Calendar,D23,E23,F23,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004f6#0002</v>
-      </c>
-      <c r="I23" s="155" t="e">
+        <v>obj_0050b#0003</v>
+      </c>
+      <c r="I23" s="155">
         <f>_xll.qlIndexFixing(H23,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H23)</f>
-        <v>#NUM!</v>
+        <v>2.7823811343874707E-2</v>
       </c>
       <c r="J23" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C23&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L16Y_Quote#0002</v>
+        <v>USD3L16Y_Quote#0003</v>
       </c>
       <c r="K23" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J23,I23,I23)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L23" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J23,$C23,Calendar,"Annual",$E23,$F23,$L$3,$G23,B23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00520#0002</v>
+        <v>obj_00535#0003</v>
       </c>
       <c r="M23" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -20888,23 +20882,23 @@
       </c>
       <c r="H24" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C24,2,Currency,Calendar,D24,E24,F24,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004fa#0002</v>
-      </c>
-      <c r="I24" s="155" t="e">
+        <v>obj_004fe#0003</v>
+      </c>
+      <c r="I24" s="155">
         <f>_xll.qlIndexFixing(H24,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H24)</f>
-        <v>#NUM!</v>
+        <v>2.8173870906178976E-2</v>
       </c>
       <c r="J24" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C24&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L17Y_Quote#0002</v>
+        <v>USD3L17Y_Quote#0003</v>
       </c>
       <c r="K24" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J24,I24,I24)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L24" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J24,$C24,Calendar,"Annual",$E24,$F24,$L$3,$G24,B24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00507#0002</v>
+        <v>obj_0054c#0003</v>
       </c>
       <c r="M24" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -20937,23 +20931,23 @@
       </c>
       <c r="H25" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C25,2,Currency,Calendar,D25,E25,F25,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004d6#0002</v>
-      </c>
-      <c r="I25" s="155" t="e">
+        <v>obj_004ef#0003</v>
+      </c>
+      <c r="I25" s="155">
         <f>_xll.qlIndexFixing(H25,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H25)</f>
-        <v>#NUM!</v>
+        <v>2.847474358900717E-2</v>
       </c>
       <c r="J25" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C25&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L18Y_Quote#0002</v>
+        <v>USD3L18Y_Quote#0003</v>
       </c>
       <c r="K25" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J25,I25,I25)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L25" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J25,$C25,Calendar,"Annual",$E25,$F25,$L$3,$G25,B25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00514#0002</v>
+        <v>obj_00540#0003</v>
       </c>
       <c r="M25" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -20986,23 +20980,23 @@
       </c>
       <c r="H26" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C26,2,Currency,Calendar,D26,E26,F26,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004db#0002</v>
-      </c>
-      <c r="I26" s="155" t="e">
+        <v>obj_00518#0003</v>
+      </c>
+      <c r="I26" s="155">
         <f>_xll.qlIndexFixing(H26,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H26)</f>
-        <v>#NUM!</v>
+        <v>2.8734107419729933E-2</v>
       </c>
       <c r="J26" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C26&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L19Y_Quote#0002</v>
+        <v>USD3L19Y_Quote#0003</v>
       </c>
       <c r="K26" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J26,I26,I26)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L26" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J26,$C26,Calendar,"Annual",$E26,$F26,$L$3,$G26,B26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00518#0002</v>
+        <v>obj_00550#0003</v>
       </c>
       <c r="M26" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -21035,23 +21029,23 @@
       </c>
       <c r="H27" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C27,2,Currency,Calendar,D27,E27,F27,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004ea#0002</v>
-      </c>
-      <c r="I27" s="155" t="e">
+        <v>obj_00514#0003</v>
+      </c>
+      <c r="I27" s="155">
         <f>_xll.qlIndexFixing(H27,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H27)</f>
-        <v>#NUM!</v>
+        <v>2.8958841142550439E-2</v>
       </c>
       <c r="J27" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C27&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L20Y_Quote#0002</v>
+        <v>USD3L20Y_Quote#0003</v>
       </c>
       <c r="K27" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J27,I27,I27)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L27" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J27,$C27,Calendar,"Annual",$E27,$F27,$L$3,$G27,B27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00513#0002</v>
+        <v>obj_0052d#0003</v>
       </c>
       <c r="M27" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -21084,23 +21078,23 @@
       </c>
       <c r="H28" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C28,2,Currency,Calendar,D28,E28,F28,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004d3#0002</v>
-      </c>
-      <c r="I28" s="155" t="e">
+        <v>obj_004e6#0003</v>
+      </c>
+      <c r="I28" s="155">
         <f>_xll.qlIndexFixing(H28,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H28)</f>
-        <v>#NUM!</v>
+        <v>2.9150121027296121E-2</v>
       </c>
       <c r="J28" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C28&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L21Y_Quote#0002</v>
+        <v>USD3L21Y_Quote#0003</v>
       </c>
       <c r="K28" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J28,I28,I28)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L28" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J28,$C28,Calendar,"Annual",$E28,$F28,$L$3,$G28,B28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0051e#0002</v>
+        <v>obj_00537#0003</v>
       </c>
       <c r="M28" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -21133,23 +21127,23 @@
       </c>
       <c r="H29" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C29,2,Currency,Calendar,D29,E29,F29,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004d4#0002</v>
-      </c>
-      <c r="I29" s="155" t="e">
+        <v>obj_00503#0003</v>
+      </c>
+      <c r="I29" s="155">
         <f>_xll.qlIndexFixing(H29,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H29)</f>
-        <v>#NUM!</v>
+        <v>2.9315809289642367E-2</v>
       </c>
       <c r="J29" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C29&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L22Y_Quote#0002</v>
+        <v>USD3L22Y_Quote#0003</v>
       </c>
       <c r="K29" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J29,I29,I29)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L29" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J29,$C29,Calendar,"Annual",$E29,$F29,$L$3,$G29,B29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00505#0002</v>
+        <v>obj_0053f#0003</v>
       </c>
       <c r="M29" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -21182,23 +21176,23 @@
       </c>
       <c r="H30" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C30,2,Currency,Calendar,D30,E30,F30,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004bb#0002</v>
-      </c>
-      <c r="I30" s="155" t="e">
+        <v>obj_0050e#0003</v>
+      </c>
+      <c r="I30" s="155">
         <f>_xll.qlIndexFixing(H30,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H30)</f>
-        <v>#NUM!</v>
+        <v>2.9460038401487355E-2</v>
       </c>
       <c r="J30" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C30&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L23Y_Quote#0002</v>
+        <v>USD3L23Y_Quote#0003</v>
       </c>
       <c r="K30" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J30,I30,I30)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L30" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J30,$C30,Calendar,"Annual",$E30,$F30,$L$3,$G30,B30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00525#0002</v>
+        <v>obj_00533#0003</v>
       </c>
       <c r="M30" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -21231,23 +21225,23 @@
       </c>
       <c r="H31" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C31,2,Currency,Calendar,D31,E31,F31,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004bc#0002</v>
-      </c>
-      <c r="I31" s="155" t="e">
+        <v>obj_004e5#0003</v>
+      </c>
+      <c r="I31" s="155">
         <f>_xll.qlIndexFixing(H31,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H31)</f>
-        <v>#NUM!</v>
+        <v>2.9586700107963378E-2</v>
       </c>
       <c r="J31" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C31&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L24Y_Quote#0002</v>
+        <v>USD3L24Y_Quote#0003</v>
       </c>
       <c r="K31" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J31,I31,I31)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L31" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J31,$C31,Calendar,"Annual",$E31,$F31,$L$3,$G31,B31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00512#0002</v>
+        <v>obj_0054f#0003</v>
       </c>
       <c r="M31" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -21280,23 +21274,23 @@
       </c>
       <c r="H32" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C32,2,Currency,Calendar,D32,E32,F32,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004e5#0002</v>
-      </c>
-      <c r="I32" s="155" t="e">
+        <v>obj_004ec#0003</v>
+      </c>
+      <c r="I32" s="155">
         <f>_xll.qlIndexFixing(H32,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H32)</f>
-        <v>#NUM!</v>
+        <v>2.9699010173749745E-2</v>
       </c>
       <c r="J32" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C32&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L25Y_Quote#0002</v>
+        <v>USD3L25Y_Quote#0003</v>
       </c>
       <c r="K32" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J32,I32,I32)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L32" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J32,$C32,Calendar,"Annual",$E32,$F32,$L$3,$G32,B32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00527#0002</v>
+        <v>obj_00536#0003</v>
       </c>
       <c r="M32" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -21329,23 +21323,23 @@
       </c>
       <c r="H33" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C33,2,Currency,Calendar,D33,E33,F33,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004ee#0002</v>
-      </c>
-      <c r="I33" s="155" t="e">
+        <v>obj_004f0#0003</v>
+      </c>
+      <c r="I33" s="155">
         <f>_xll.qlIndexFixing(H33,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H33)</f>
-        <v>#NUM!</v>
+        <v>2.9799971265468229E-2</v>
       </c>
       <c r="J33" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C33&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L26Y_Quote#0002</v>
+        <v>USD3L26Y_Quote#0003</v>
       </c>
       <c r="K33" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J33,I33,I33)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L33" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J33,$C33,Calendar,"Annual",$E33,$F33,$L$3,$G33,B33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00506#0002</v>
+        <v>obj_00544#0003</v>
       </c>
       <c r="M33" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -21378,23 +21372,23 @@
       </c>
       <c r="H34" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C34,2,Currency,Calendar,D34,E34,F34,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004c6#0002</v>
-      </c>
-      <c r="I34" s="155" t="e">
+        <v>obj_00509#0003</v>
+      </c>
+      <c r="I34" s="155">
         <f>_xll.qlIndexFixing(H34,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H34)</f>
-        <v>#NUM!</v>
+        <v>2.9887262218474177E-2</v>
       </c>
       <c r="J34" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C34&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L27Y_Quote#0002</v>
+        <v>USD3L27Y_Quote#0003</v>
       </c>
       <c r="K34" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J34,I34,I34)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L34" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J34,$C34,Calendar,"Annual",$E34,$F34,$L$3,$G34,B34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050a#0002</v>
+        <v>obj_00545#0003</v>
       </c>
       <c r="M34" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -21427,23 +21421,23 @@
       </c>
       <c r="H35" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C35,2,Currency,Calendar,D35,E35,F35,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004dc#0002</v>
-      </c>
-      <c r="I35" s="155" t="e">
+        <v>obj_0051c#0003</v>
+      </c>
+      <c r="I35" s="155">
         <f>_xll.qlIndexFixing(H35,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H35)</f>
-        <v>#NUM!</v>
+        <v>2.9968450228550218E-2</v>
       </c>
       <c r="J35" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C35&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L28Y_Quote#0002</v>
+        <v>USD3L28Y_Quote#0003</v>
       </c>
       <c r="K35" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J35,I35,I35)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L35" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J35,$C35,Calendar,"Annual",$E35,$F35,$L$3,$G35,B35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050e#0002</v>
+        <v>obj_0052c#0003</v>
       </c>
       <c r="M35" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -21476,23 +21470,23 @@
       </c>
       <c r="H36" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C36,2,Currency,Calendar,D36,E36,F36,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00500#0002</v>
-      </c>
-      <c r="I36" s="155" t="e">
+        <v>obj_004fd#0003</v>
+      </c>
+      <c r="I36" s="155">
         <f>_xll.qlIndexFixing(H36,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H36)</f>
-        <v>#NUM!</v>
+        <v>3.0038191966666038E-2</v>
       </c>
       <c r="J36" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C36&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L29Y_Quote#0002</v>
+        <v>USD3L29Y_Quote#0003</v>
       </c>
       <c r="K36" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J36,I36,I36)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L36" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J36,$C36,Calendar,"Annual",$E36,$F36,$L$3,$G36,B36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00521#0002</v>
+        <v>obj_00549#0003</v>
       </c>
       <c r="M36" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -21525,23 +21519,23 @@
       </c>
       <c r="H37" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C37,2,Currency,Calendar,D37,E37,F37,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004f2#0002</v>
-      </c>
-      <c r="I37" s="155" t="e">
+        <v>obj_00515#0003</v>
+      </c>
+      <c r="I37" s="155">
         <f>_xll.qlIndexFixing(H37,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H37)</f>
-        <v>#NUM!</v>
+        <v>3.0099117434996735E-2</v>
       </c>
       <c r="J37" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C37&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L30Y_Quote#0002</v>
+        <v>USD3L30Y_Quote#0003</v>
       </c>
       <c r="K37" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J37,I37,I37)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L37" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J37,$C37,Calendar,"Annual",$E37,$F37,$L$3,$G37,B37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0052b#0002</v>
+        <v>obj_00539#0003</v>
       </c>
       <c r="M37" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -21574,23 +21568,23 @@
       </c>
       <c r="H38" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C38,2,Currency,Calendar,D38,E38,F38,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004bf#0002</v>
-      </c>
-      <c r="I38" s="155" t="e">
+        <v>obj_004ee#0003</v>
+      </c>
+      <c r="I38" s="155">
         <f>_xll.qlIndexFixing(H38,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H38)</f>
-        <v>#NUM!</v>
+        <v>3.0284897939854505E-2</v>
       </c>
       <c r="J38" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C38&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L35Y_Quote#0002</v>
+        <v>USD3L35Y_Quote#0003</v>
       </c>
       <c r="K38" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J38,I38,I38)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L38" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J38,$C38,Calendar,"Annual",$E38,$F38,$L$3,$G38,B38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00526#0002</v>
+        <v>obj_00543#0003</v>
       </c>
       <c r="M38" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -21623,23 +21617,23 @@
       </c>
       <c r="H39" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C39,2,Currency,Calendar,D39,E39,F39,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004e1#0002</v>
-      </c>
-      <c r="I39" s="155" t="e">
+        <v>obj_004f9#0003</v>
+      </c>
+      <c r="I39" s="155">
         <f>_xll.qlIndexFixing(H39,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H39)</f>
-        <v>#NUM!</v>
+        <v>3.0309250637137332E-2</v>
       </c>
       <c r="J39" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C39&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L40Y_Quote#0002</v>
+        <v>USD3L40Y_Quote#0003</v>
       </c>
       <c r="K39" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J39,I39,I39)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L39" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J39,$C39,Calendar,"Annual",$E39,$F39,$L$3,$G39,B39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050f#0002</v>
+        <v>obj_00546#0003</v>
       </c>
       <c r="M39" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -21672,23 +21666,23 @@
       </c>
       <c r="H40" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C40,2,Currency,Calendar,D40,E40,F40,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004d8#0002</v>
-      </c>
-      <c r="I40" s="155" t="e">
+        <v>obj_004e0#0003</v>
+      </c>
+      <c r="I40" s="155">
         <f>_xll.qlIndexFixing(H40,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H40)</f>
-        <v>#NUM!</v>
+        <v>3.0099328704554059E-2</v>
       </c>
       <c r="J40" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C40&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L50Y_Quote#0002</v>
+        <v>USD3L50Y_Quote#0003</v>
       </c>
       <c r="K40" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J40,I40,I40)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L40" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J40,$C40,Calendar,"Annual",$E40,$F40,$L$3,$G40,B40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00510#0002</v>
+        <v>obj_00548#0003</v>
       </c>
       <c r="M40" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -21721,23 +21715,23 @@
       </c>
       <c r="H41" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C41,2,Currency,Calendar,D41,E41,F41,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004cb#0002</v>
-      </c>
-      <c r="I41" s="155" t="e">
+        <v>obj_00517#0003</v>
+      </c>
+      <c r="I41" s="155">
         <f>_xll.qlIndexFixing(H41,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H41)</f>
-        <v>#NUM!</v>
+        <v>2.9908861314996694E-2</v>
       </c>
       <c r="J41" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C41&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L60Y_Quote#0002</v>
+        <v>USD3L60Y_Quote#0003</v>
       </c>
       <c r="K41" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J41,I41,I41)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L41" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J41,$C41,Calendar,"Annual",$E41,$F41,$L$3,$G41,B41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050c#0002</v>
+        <v>obj_0053c#0003</v>
       </c>
       <c r="M41" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>

--- a/QuantLibXL/Data2/XLS/USD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="-15" windowWidth="15270" windowHeight="8220" tabRatio="726" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15150" windowHeight="8385" tabRatio="726" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="153">
   <si>
     <t>60Y</t>
   </si>
@@ -666,24 +666,6 @@
   </si>
   <si>
     <t>Stub End Date</t>
-  </si>
-  <si>
-    <t>Stub Name</t>
-  </si>
-  <si>
-    <t>BID</t>
-  </si>
-  <si>
-    <t>ASK</t>
-  </si>
-  <si>
-    <t>MID</t>
-  </si>
-  <si>
-    <t>Set Quote</t>
-  </si>
-  <si>
-    <t>USDXSTUBD=</t>
   </si>
   <si>
     <t>USDON</t>
@@ -1866,31 +1848,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.39918606600000001</v>
-        <stp/>
-        <stp xml:space="preserve">
-USDXSTUBD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="R3" s="11"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.41918606600000002</v>
-        <stp/>
-        <stp xml:space="preserve">
-USDXSTUBD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="S3" s="11"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3045,11 +3002,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>3.1408571111038452E-2</v>
+        <v>3.1502034337080084E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3090,7 +3047,7 @@
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.5384533434061386E-3</v>
+        <v>1.5752842618961406E-3</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -4637,7 +4594,7 @@
       </c>
       <c r="C2" s="116" t="str">
         <f>Deposits!J3</f>
-        <v>obj_00586#0002</v>
+        <v>obj_00585#0001</v>
       </c>
       <c r="D2" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C2)</f>
@@ -4645,7 +4602,7 @@
       </c>
       <c r="E2" s="117">
         <f>_xll.qlRateHelperQuoteValue($C2,Trigger)</f>
-        <v>2.2000000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F2" s="117"/>
       <c r="G2" s="62" t="b">
@@ -4659,11 +4616,11 @@
       </c>
       <c r="J2" s="118">
         <f>_xll.qlRateHelperEarliestDate($C2,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="K2" s="119">
         <f>_xll.qlRateHelperLatestDate($C2,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="L2" s="60">
         <v>10</v>
@@ -4679,7 +4636,7 @@
       </c>
       <c r="C3" s="116" t="str">
         <f>Deposits!J4</f>
-        <v>obj_00581#0002</v>
+        <v>obj_00581#0001</v>
       </c>
       <c r="D3" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C3)</f>
@@ -4687,7 +4644,7 @@
       </c>
       <c r="E3" s="117">
         <f>_xll.qlRateHelperQuoteValue($C3,Trigger)</f>
-        <v>2.2000000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F3" s="117"/>
       <c r="G3" s="62" t="b">
@@ -4701,11 +4658,11 @@
       </c>
       <c r="J3" s="118">
         <f>_xll.qlRateHelperEarliestDate($C3,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="K3" s="119">
         <f>_xll.qlRateHelperLatestDate($C3,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="L3" s="60">
         <v>40</v>
@@ -4721,7 +4678,7 @@
       </c>
       <c r="C4" s="116" t="str">
         <f>Deposits!J5</f>
-        <v>obj_00587#0002</v>
+        <v>obj_00586#0001</v>
       </c>
       <c r="D4" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C4)</f>
@@ -4743,11 +4700,11 @@
       </c>
       <c r="J4" s="118">
         <f>_xll.qlRateHelperEarliestDate($C4,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K4" s="119">
         <f>_xll.qlRateHelperLatestDate($C4,Trigger)</f>
-        <v>41927</v>
+        <v>41928</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4757,7 +4714,7 @@
       </c>
       <c r="C5" s="116" t="str">
         <f>Deposits!J6</f>
-        <v>obj_00582#0002</v>
+        <v>obj_00582#0001</v>
       </c>
       <c r="D5" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C5)</f>
@@ -4765,7 +4722,7 @@
       </c>
       <c r="E5" s="117">
         <f>_xll.qlRateHelperQuoteValue($C5,Trigger)</f>
-        <v>1.173E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F5" s="117"/>
       <c r="G5" s="62" t="b">
@@ -4779,11 +4736,11 @@
       </c>
       <c r="J5" s="118">
         <f>_xll.qlRateHelperEarliestDate($C5,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="K5" s="119">
         <f>_xll.qlRateHelperLatestDate($C5,Trigger)</f>
-        <v>41932</v>
+        <v>41933</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4793,7 +4750,7 @@
       </c>
       <c r="C6" s="116" t="str">
         <f>Deposits!J7</f>
-        <v>obj_00590#0002</v>
+        <v>obj_0058e#0001</v>
       </c>
       <c r="D6" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C6)</f>
@@ -4801,7 +4758,7 @@
       </c>
       <c r="E6" s="117">
         <f>_xll.qlRateHelperQuoteValue($C6,Trigger)</f>
-        <v>1.2736249999999998E-3</v>
+        <v>1.2880384599999999E-3</v>
       </c>
       <c r="F6" s="117"/>
       <c r="G6" s="62" t="b">
@@ -4815,11 +4772,11 @@
       </c>
       <c r="J6" s="118">
         <f>_xll.qlRateHelperEarliestDate($C6,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K6" s="119">
         <f>_xll.qlRateHelperLatestDate($C6,Trigger)</f>
-        <v>41940</v>
+        <v>41941</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4829,7 +4786,7 @@
       </c>
       <c r="C7" s="116" t="str">
         <f>Deposits!J8</f>
-        <v>obj_00589#0002</v>
+        <v>obj_0058f#0001</v>
       </c>
       <c r="D7" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C7)</f>
@@ -4837,7 +4794,7 @@
       </c>
       <c r="E7" s="117">
         <f>_xll.qlRateHelperQuoteValue($C7,Trigger)</f>
-        <v>1.3742499999999998E-3</v>
+        <v>1.37607692E-3</v>
       </c>
       <c r="F7" s="117"/>
       <c r="G7" s="62" t="b">
@@ -4851,11 +4808,11 @@
       </c>
       <c r="J7" s="118">
         <f>_xll.qlRateHelperEarliestDate($C7,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K7" s="119">
         <f>_xll.qlRateHelperLatestDate($C7,Trigger)</f>
-        <v>41947</v>
+        <v>41948</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4865,7 +4822,7 @@
       </c>
       <c r="C8" s="116" t="str">
         <f>Deposits!J9</f>
-        <v>obj_00583#0002</v>
+        <v>obj_00588#0001</v>
       </c>
       <c r="D8" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C8)</f>
@@ -4873,7 +4830,7 @@
       </c>
       <c r="E8" s="117">
         <f>_xll.qlRateHelperQuoteValue($C8,Trigger)</f>
-        <v>1.5179999999999998E-3</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="F8" s="117"/>
       <c r="G8" s="62" t="b">
@@ -4887,11 +4844,11 @@
       </c>
       <c r="J8" s="118">
         <f>_xll.qlRateHelperEarliestDate($C8,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="K8" s="119">
         <f>_xll.qlRateHelperLatestDate($C8,Trigger)</f>
-        <v>41956</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4901,7 +4858,7 @@
       </c>
       <c r="C9" s="116" t="str">
         <f>Deposits!J10</f>
-        <v>obj_00585#0002</v>
+        <v>obj_00584#0001</v>
       </c>
       <c r="D9" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C9)</f>
@@ -4909,7 +4866,7 @@
       </c>
       <c r="E9" s="117">
         <f>_xll.qlRateHelperQuoteValue($C9,Trigger)</f>
-        <v>1.9599999999999999E-3</v>
+        <v>1.954E-3</v>
       </c>
       <c r="F9" s="117"/>
       <c r="G9" s="62" t="b">
@@ -4923,7 +4880,7 @@
       </c>
       <c r="J9" s="118">
         <f>_xll.qlRateHelperEarliestDate($C9,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="K9" s="119">
         <f>_xll.qlRateHelperLatestDate($C9,Trigger)</f>
@@ -4937,7 +4894,7 @@
       </c>
       <c r="C10" s="116" t="str">
         <f>Deposits!J11</f>
-        <v>obj_00588#0002</v>
+        <v>obj_00587#0001</v>
       </c>
       <c r="D10" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C10)</f>
@@ -4959,11 +4916,11 @@
       </c>
       <c r="J10" s="118">
         <f>_xll.qlRateHelperEarliestDate($C10,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="K10" s="119">
         <f>_xll.qlRateHelperLatestDate($C10,Trigger)</f>
-        <v>42017</v>
+        <v>42018</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4973,7 +4930,7 @@
       </c>
       <c r="C11" s="116" t="str">
         <f>Deposits!J12</f>
-        <v>obj_00591#0002</v>
+        <v>obj_00591#0001</v>
       </c>
       <c r="D11" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C11)</f>
@@ -4981,7 +4938,7 @@
       </c>
       <c r="E11" s="117">
         <f>_xll.qlRateHelperQuoteValue($C11,Trigger)</f>
-        <v>2.6500777799999997E-3</v>
+        <v>2.6221E-3</v>
       </c>
       <c r="F11" s="117"/>
       <c r="G11" s="62" t="b">
@@ -4995,7 +4952,7 @@
       </c>
       <c r="J11" s="118">
         <f>_xll.qlRateHelperEarliestDate($C11,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K11" s="119">
         <f>_xll.qlRateHelperLatestDate($C11,Trigger)</f>
@@ -5009,7 +4966,7 @@
       </c>
       <c r="C12" s="116" t="str">
         <f>Deposits!J13</f>
-        <v>obj_0058e#0002</v>
+        <v>obj_0058c#0001</v>
       </c>
       <c r="D12" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C12)</f>
@@ -5017,7 +4974,7 @@
       </c>
       <c r="E12" s="117">
         <f>_xll.qlRateHelperQuoteValue($C12,Trigger)</f>
-        <v>2.9352277799999998E-3</v>
+        <v>2.8930000000000002E-3</v>
       </c>
       <c r="F12" s="117"/>
       <c r="G12" s="62" t="b">
@@ -5031,7 +4988,7 @@
       </c>
       <c r="J12" s="118">
         <f>_xll.qlRateHelperEarliestDate($C12,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K12" s="119">
         <f>_xll.qlRateHelperLatestDate($C12,Trigger)</f>
@@ -5045,7 +5002,7 @@
       </c>
       <c r="C13" s="116" t="str">
         <f>Deposits!J14</f>
-        <v>obj_00584#0002</v>
+        <v>obj_00583#0001</v>
       </c>
       <c r="D13" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C13)</f>
@@ -5053,7 +5010,7 @@
       </c>
       <c r="E13" s="117">
         <f>_xll.qlRateHelperQuoteValue($C13,Trigger)</f>
-        <v>3.2415E-3</v>
+        <v>3.1940000000000002E-3</v>
       </c>
       <c r="F13" s="117"/>
       <c r="G13" s="62" t="b">
@@ -5067,11 +5024,11 @@
       </c>
       <c r="J13" s="118">
         <f>_xll.qlRateHelperEarliestDate($C13,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="K13" s="119">
         <f>_xll.qlRateHelperLatestDate($C13,Trigger)</f>
-        <v>42107</v>
+        <v>42108</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5081,7 +5038,7 @@
       </c>
       <c r="C14" s="116" t="str">
         <f>Deposits!J15</f>
-        <v>obj_0058a#0002</v>
+        <v>obj_0058b#0001</v>
       </c>
       <c r="D14" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C14)</f>
@@ -5089,7 +5046,7 @@
       </c>
       <c r="E14" s="117">
         <f>_xll.qlRateHelperQuoteValue($C14,Trigger)</f>
-        <v>3.6401065600000001E-3</v>
+        <v>3.5729344299999998E-3</v>
       </c>
       <c r="F14" s="117"/>
       <c r="G14" s="62" t="b">
@@ -5103,11 +5060,11 @@
       </c>
       <c r="J14" s="118">
         <f>_xll.qlRateHelperEarliestDate($C14,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K14" s="119">
         <f>_xll.qlRateHelperLatestDate($C14,Trigger)</f>
-        <v>42138</v>
+        <v>42139</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5117,7 +5074,7 @@
       </c>
       <c r="C15" s="116" t="str">
         <f>Deposits!J16</f>
-        <v>obj_0058f#0002</v>
+        <v>obj_00590#0001</v>
       </c>
       <c r="D15" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C15)</f>
@@ -5125,7 +5082,7 @@
       </c>
       <c r="E15" s="117">
         <f>_xll.qlRateHelperQuoteValue($C15,Trigger)</f>
-        <v>4.0652868900000003E-3</v>
+        <v>3.9644999999999993E-3</v>
       </c>
       <c r="F15" s="117"/>
       <c r="G15" s="62" t="b">
@@ -5139,7 +5096,7 @@
       </c>
       <c r="J15" s="118">
         <f>_xll.qlRateHelperEarliestDate($C15,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K15" s="119">
         <f>_xll.qlRateHelperLatestDate($C15,Trigger)</f>
@@ -5153,7 +5110,7 @@
       </c>
       <c r="C16" s="116" t="str">
         <f>Deposits!J17</f>
-        <v>obj_0058d#0002</v>
+        <v>obj_0058a#0001</v>
       </c>
       <c r="D16" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C16)</f>
@@ -5161,7 +5118,7 @@
       </c>
       <c r="E16" s="117">
         <f>_xll.qlRateHelperQuoteValue($C16,Trigger)</f>
-        <v>4.4506065599999997E-3</v>
+        <v>4.3434344300000002E-3</v>
       </c>
       <c r="F16" s="117"/>
       <c r="G16" s="62" t="b">
@@ -5175,11 +5132,11 @@
       </c>
       <c r="J16" s="118">
         <f>_xll.qlRateHelperEarliestDate($C16,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K16" s="119">
         <f>_xll.qlRateHelperLatestDate($C16,Trigger)</f>
-        <v>42199</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5189,7 +5146,7 @@
       </c>
       <c r="C17" s="116" t="str">
         <f>Deposits!J18</f>
-        <v>obj_0058b#0002</v>
+        <v>obj_0058d#0001</v>
       </c>
       <c r="D17" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C17)</f>
@@ -5197,7 +5154,7 @@
       </c>
       <c r="E17" s="117">
         <f>_xll.qlRateHelperQuoteValue($C17,Trigger)</f>
-        <v>4.8625000000000005E-3</v>
+        <v>4.7602623E-3</v>
       </c>
       <c r="F17" s="117"/>
       <c r="G17" s="62" t="b">
@@ -5211,11 +5168,11 @@
       </c>
       <c r="J17" s="118">
         <f>_xll.qlRateHelperEarliestDate($C17,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K17" s="119">
         <f>_xll.qlRateHelperLatestDate($C17,Trigger)</f>
-        <v>42230</v>
+        <v>42233</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5225,7 +5182,7 @@
       </c>
       <c r="C18" s="116" t="str">
         <f>Deposits!J19</f>
-        <v>obj_0058c#0002</v>
+        <v>obj_00589#0001</v>
       </c>
       <c r="D18" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C18)</f>
@@ -5233,7 +5190,7 @@
       </c>
       <c r="E18" s="117">
         <f>_xll.qlRateHelperQuoteValue($C18,Trigger)</f>
-        <v>5.2743934400000005E-3</v>
+        <v>5.1265655699999999E-3</v>
       </c>
       <c r="F18" s="117"/>
       <c r="G18" s="62" t="b">
@@ -5247,11 +5204,11 @@
       </c>
       <c r="J18" s="118">
         <f>_xll.qlRateHelperEarliestDate($C18,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K18" s="119">
         <f>_xll.qlRateHelperLatestDate($C18,Trigger)</f>
-        <v>42261</v>
+        <v>42262</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5261,7 +5218,7 @@
       </c>
       <c r="C19" s="116" t="str">
         <f>Deposits!J20</f>
-        <v>obj_00547#0003</v>
+        <v>obj_00559#0001</v>
       </c>
       <c r="D19" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C19)</f>
@@ -5269,7 +5226,7 @@
       </c>
       <c r="E19" s="117">
         <f>_xll.qlRateHelperQuoteValue($C19,Trigger)</f>
-        <v>5.6730000000000001E-3</v>
+        <v>5.5055E-3</v>
       </c>
       <c r="F19" s="117"/>
       <c r="G19" s="62" t="b">
@@ -5283,29 +5240,29 @@
       </c>
       <c r="J19" s="118">
         <f>_xll.qlRateHelperEarliestDate($C19,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="K19" s="119">
         <f>_xll.qlRateHelperLatestDate($C19,Trigger)</f>
-        <v>42290</v>
+        <v>42291</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="121">
+      <c r="B20" s="121" t="str">
         <f>Deposits!B21</f>
-        <v>169</v>
+        <v>168D</v>
       </c>
       <c r="C20" s="121" t="str">
         <f>Deposits!J21</f>
-        <v>obj_00580#0002</v>
+        <v>obj_00580#0007</v>
       </c>
       <c r="D20" s="121" t="str">
         <f>_xll.qlRateHelperQuoteName(C20)</f>
-        <v>USD_Stub</v>
+        <v>USD_STUB_Quote</v>
       </c>
       <c r="E20" s="122">
         <f>_xll.qlRateHelperQuoteValue($C20,Trigger)</f>
-        <v>4.0918606600000001E-3</v>
+        <v>3.9897622999999997E-3</v>
       </c>
       <c r="F20" s="122"/>
       <c r="G20" s="123" t="b">
@@ -5319,11 +5276,11 @@
       </c>
       <c r="J20" s="124">
         <f>_xll.qlRateHelperEarliestDate($C20,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K20" s="125">
         <f>_xll.qlRateHelperLatestDate($C20,Trigger)</f>
-        <v>42172</v>
+        <v>42095</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5336,7 +5293,7 @@
       </c>
       <c r="C21" s="116" t="str">
         <f>Futures!H3</f>
-        <v>obj_00599#0002</v>
+        <v>obj_005b1#0001</v>
       </c>
       <c r="D21" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C21)</f>
@@ -5344,7 +5301,7 @@
       </c>
       <c r="E21" s="127">
         <f>_xll.qlRateHelperQuoteValue($C21,Trigger)</f>
-        <v>99.773750000000007</v>
+        <v>99.771249999999995</v>
       </c>
       <c r="F21" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C21,Trigger)</f>
@@ -5377,7 +5334,7 @@
       </c>
       <c r="C22" s="116" t="str">
         <f>Futures!H4</f>
-        <v>obj_005a3#0002</v>
+        <v>obj_005d5#0001</v>
       </c>
       <c r="D22" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C22)</f>
@@ -5385,7 +5342,7 @@
       </c>
       <c r="E22" s="127">
         <f>_xll.qlRateHelperQuoteValue($C22,Trigger)</f>
-        <v>99.777500000000003</v>
+        <v>99.772500000000008</v>
       </c>
       <c r="F22" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C22,Trigger)</f>
@@ -5418,7 +5375,7 @@
       </c>
       <c r="C23" s="116" t="str">
         <f>Futures!H5</f>
-        <v>obj_005c5#0002</v>
+        <v>obj_005ca#0001</v>
       </c>
       <c r="D23" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C23)</f>
@@ -5426,7 +5383,7 @@
       </c>
       <c r="E23" s="127">
         <f>_xll.qlRateHelperQuoteValue($C23,Trigger)</f>
-        <v>99.777500000000003</v>
+        <v>99.767499999999998</v>
       </c>
       <c r="F23" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C23,Trigger)</f>
@@ -5459,7 +5416,7 @@
       </c>
       <c r="C24" s="116" t="str">
         <f>Futures!H6</f>
-        <v>obj_005b7#0002</v>
+        <v>obj_005b7#0001</v>
       </c>
       <c r="D24" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C24)</f>
@@ -5467,7 +5424,7 @@
       </c>
       <c r="E24" s="127">
         <f>_xll.qlRateHelperQuoteValue($C24,Trigger)</f>
-        <v>99.775000000000006</v>
+        <v>99.757499999999993</v>
       </c>
       <c r="F24" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C24,Trigger)</f>
@@ -5500,7 +5457,7 @@
       </c>
       <c r="C25" s="116" t="str">
         <f>Futures!H7</f>
-        <v>obj_005ca#0002</v>
+        <v>obj_005a4#0001</v>
       </c>
       <c r="D25" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C25)</f>
@@ -5508,7 +5465,7 @@
       </c>
       <c r="E25" s="127">
         <f>_xll.qlRateHelperQuoteValue($C25,Trigger)</f>
-        <v>99.757499999999993</v>
+        <v>99.72</v>
       </c>
       <c r="F25" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C25,Trigger)</f>
@@ -5541,7 +5498,7 @@
       </c>
       <c r="C26" s="116" t="str">
         <f>Futures!H8</f>
-        <v>obj_005b9#0002</v>
+        <v>obj_005db#0001</v>
       </c>
       <c r="D26" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C26)</f>
@@ -5549,7 +5506,7 @@
       </c>
       <c r="E26" s="127">
         <f>_xll.qlRateHelperQuoteValue($C26,Trigger)</f>
-        <v>99.742500000000007</v>
+        <v>99.722499999999997</v>
       </c>
       <c r="F26" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C26,Trigger)</f>
@@ -5582,7 +5539,7 @@
       </c>
       <c r="C27" s="116" t="str">
         <f>Futures!H9</f>
-        <v>obj_0059e#0002</v>
+        <v>obj_0059e#0001</v>
       </c>
       <c r="D27" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C27)</f>
@@ -5623,7 +5580,7 @@
       </c>
       <c r="C28" s="116" t="str">
         <f>Futures!H10</f>
-        <v>obj_00594#0002</v>
+        <v>obj_005d9#0001</v>
       </c>
       <c r="D28" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C28)</f>
@@ -5664,7 +5621,7 @@
       </c>
       <c r="C29" s="116" t="str">
         <f>Futures!H11</f>
-        <v>obj_005dd#0002</v>
+        <v>obj_005de#0001</v>
       </c>
       <c r="D29" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C29)</f>
@@ -5672,7 +5629,7 @@
       </c>
       <c r="E29" s="127">
         <f>_xll.qlRateHelperQuoteValue($C29,Trigger)</f>
-        <v>99.602499999999992</v>
+        <v>99.577500000000001</v>
       </c>
       <c r="F29" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C29,Trigger)</f>
@@ -5705,7 +5662,7 @@
       </c>
       <c r="C30" s="116" t="str">
         <f>Futures!H12</f>
-        <v>obj_005c3#0002</v>
+        <v>obj_005a3#0001</v>
       </c>
       <c r="D30" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C30)</f>
@@ -5746,7 +5703,7 @@
       </c>
       <c r="C31" s="116" t="str">
         <f>Futures!H13</f>
-        <v>obj_005cd#0002</v>
+        <v>obj_005ce#0001</v>
       </c>
       <c r="D31" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C31)</f>
@@ -5787,7 +5744,7 @@
       </c>
       <c r="C32" s="116" t="str">
         <f>Futures!H14</f>
-        <v>obj_005bf#0002</v>
+        <v>obj_005d3#0001</v>
       </c>
       <c r="D32" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C32)</f>
@@ -5795,7 +5752,7 @@
       </c>
       <c r="E32" s="127">
         <f>_xll.qlRateHelperQuoteValue($C32,Trigger)</f>
-        <v>99.387500000000003</v>
+        <v>99.357500000000002</v>
       </c>
       <c r="F32" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C32,Trigger)</f>
@@ -5828,7 +5785,7 @@
       </c>
       <c r="C33" s="116" t="str">
         <f>Futures!H15</f>
-        <v>obj_005bd#0002</v>
+        <v>obj_005ae#0001</v>
       </c>
       <c r="D33" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C33)</f>
@@ -5836,7 +5793,7 @@
       </c>
       <c r="E33" s="127">
         <f>_xll.qlRateHelperQuoteValue($C33,Trigger)</f>
-        <v>99.137500000000003</v>
+        <v>99.102499999999992</v>
       </c>
       <c r="F33" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C33,Trigger)</f>
@@ -5869,7 +5826,7 @@
       </c>
       <c r="C34" s="116" t="str">
         <f>Futures!H16</f>
-        <v>obj_005c2#0002</v>
+        <v>obj_00598#0001</v>
       </c>
       <c r="D34" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C34)</f>
@@ -5877,7 +5834,7 @@
       </c>
       <c r="E34" s="127">
         <f>_xll.qlRateHelperQuoteValue($C34,Trigger)</f>
-        <v>98.887500000000003</v>
+        <v>98.842500000000001</v>
       </c>
       <c r="F34" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C34,Trigger)</f>
@@ -5910,7 +5867,7 @@
       </c>
       <c r="C35" s="116" t="str">
         <f>Futures!H17</f>
-        <v>obj_005ac#0002</v>
+        <v>obj_00595#0001</v>
       </c>
       <c r="D35" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C35)</f>
@@ -5918,7 +5875,7 @@
       </c>
       <c r="E35" s="127">
         <f>_xll.qlRateHelperQuoteValue($C35,Trigger)</f>
-        <v>98.627499999999998</v>
+        <v>98.582499999999996</v>
       </c>
       <c r="F35" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C35,Trigger)</f>
@@ -5951,7 +5908,7 @@
       </c>
       <c r="C36" s="116" t="str">
         <f>Futures!H18</f>
-        <v>obj_005a8#0002</v>
+        <v>obj_005ac#0001</v>
       </c>
       <c r="D36" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C36)</f>
@@ -5959,7 +5916,7 @@
       </c>
       <c r="E36" s="127">
         <f>_xll.qlRateHelperQuoteValue($C36,Trigger)</f>
-        <v>98.377499999999998</v>
+        <v>98.327500000000001</v>
       </c>
       <c r="F36" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C36,Trigger)</f>
@@ -5992,7 +5949,7 @@
       </c>
       <c r="C37" s="116" t="str">
         <f>Futures!H19</f>
-        <v>obj_00596#0002</v>
+        <v>obj_0059d#0001</v>
       </c>
       <c r="D37" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C37)</f>
@@ -6000,7 +5957,7 @@
       </c>
       <c r="E37" s="127">
         <f>_xll.qlRateHelperQuoteValue($C37,Trigger)</f>
-        <v>98.137500000000003</v>
+        <v>98.092500000000001</v>
       </c>
       <c r="F37" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C37,Trigger)</f>
@@ -6033,7 +5990,7 @@
       </c>
       <c r="C38" s="116" t="str">
         <f>Futures!H20</f>
-        <v>obj_005af#0002</v>
+        <v>obj_005ad#0001</v>
       </c>
       <c r="D38" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C38)</f>
@@ -6041,7 +5998,7 @@
       </c>
       <c r="E38" s="127">
         <f>_xll.qlRateHelperQuoteValue($C38,Trigger)</f>
-        <v>97.9375</v>
+        <v>97.892499999999998</v>
       </c>
       <c r="F38" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C38,Trigger)</f>
@@ -6074,7 +6031,7 @@
       </c>
       <c r="C39" s="116" t="str">
         <f>Futures!H21</f>
-        <v>obj_005ce#0002</v>
+        <v>obj_005d8#0001</v>
       </c>
       <c r="D39" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C39)</f>
@@ -6082,7 +6039,7 @@
       </c>
       <c r="E39" s="127">
         <f>_xll.qlRateHelperQuoteValue($C39,Trigger)</f>
-        <v>97.757499999999993</v>
+        <v>97.712500000000006</v>
       </c>
       <c r="F39" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C39,Trigger)</f>
@@ -6115,7 +6072,7 @@
       </c>
       <c r="C40" s="116" t="str">
         <f>Futures!H22</f>
-        <v>obj_005b8#0002</v>
+        <v>obj_005bc#0001</v>
       </c>
       <c r="D40" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C40)</f>
@@ -6123,7 +6080,7 @@
       </c>
       <c r="E40" s="127">
         <f>_xll.qlRateHelperQuoteValue($C40,Trigger)</f>
-        <v>97.607500000000002</v>
+        <v>97.567499999999995</v>
       </c>
       <c r="F40" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C40,Trigger)</f>
@@ -6156,7 +6113,7 @@
       </c>
       <c r="C41" s="116" t="str">
         <f>Futures!H23</f>
-        <v>obj_005e0#0002</v>
+        <v>obj_005c3#0001</v>
       </c>
       <c r="D41" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C41)</f>
@@ -6164,7 +6121,7 @@
       </c>
       <c r="E41" s="127">
         <f>_xll.qlRateHelperQuoteValue($C41,Trigger)</f>
-        <v>97.474999999999994</v>
+        <v>97.4375</v>
       </c>
       <c r="F41" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C41,Trigger)</f>
@@ -6197,7 +6154,7 @@
       </c>
       <c r="C42" s="116" t="str">
         <f>Futures!H24</f>
-        <v>obj_005ab#0002</v>
+        <v>obj_005bb#0001</v>
       </c>
       <c r="D42" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C42)</f>
@@ -6205,7 +6162,7 @@
       </c>
       <c r="E42" s="127">
         <f>_xll.qlRateHelperQuoteValue($C42,Trigger)</f>
-        <v>97.377499999999998</v>
+        <v>97.337500000000006</v>
       </c>
       <c r="F42" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C42,Trigger)</f>
@@ -6238,7 +6195,7 @@
       </c>
       <c r="C43" s="116" t="str">
         <f>Futures!H25</f>
-        <v>obj_0059a#0002</v>
+        <v>obj_005b5#0001</v>
       </c>
       <c r="D43" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C43)</f>
@@ -6246,7 +6203,7 @@
       </c>
       <c r="E43" s="127">
         <f>_xll.qlRateHelperQuoteValue($C43,Trigger)</f>
-        <v>97.282499999999999</v>
+        <v>97.252499999999998</v>
       </c>
       <c r="F43" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C43,Trigger)</f>
@@ -6279,7 +6236,7 @@
       </c>
       <c r="C44" s="116" t="str">
         <f>Futures!H26</f>
-        <v>obj_005d8#0002</v>
+        <v>obj_0059b#0001</v>
       </c>
       <c r="D44" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C44)</f>
@@ -6287,7 +6244,7 @@
       </c>
       <c r="E44" s="127">
         <f>_xll.qlRateHelperQuoteValue($C44,Trigger)</f>
-        <v>97.197499999999991</v>
+        <v>97.17</v>
       </c>
       <c r="F44" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C44,Trigger)</f>
@@ -6320,7 +6277,7 @@
       </c>
       <c r="C45" s="116" t="str">
         <f>Futures!H27</f>
-        <v>obj_005a9#0002</v>
+        <v>obj_005b2#0001</v>
       </c>
       <c r="D45" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C45)</f>
@@ -6328,7 +6285,7 @@
       </c>
       <c r="E45" s="127">
         <f>_xll.qlRateHelperQuoteValue($C45,Trigger)</f>
-        <v>97.107500000000002</v>
+        <v>97.09</v>
       </c>
       <c r="F45" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C45,Trigger)</f>
@@ -6361,7 +6318,7 @@
       </c>
       <c r="C46" s="116" t="str">
         <f>Futures!H28</f>
-        <v>obj_005da#0002</v>
+        <v>obj_005b0#0001</v>
       </c>
       <c r="D46" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C46)</f>
@@ -6369,7 +6326,7 @@
       </c>
       <c r="E46" s="127">
         <f>_xll.qlRateHelperQuoteValue($C46,Trigger)</f>
-        <v>97.042500000000004</v>
+        <v>97.027500000000003</v>
       </c>
       <c r="F46" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C46,Trigger)</f>
@@ -6402,7 +6359,7 @@
       </c>
       <c r="C47" s="116" t="str">
         <f>Futures!H29</f>
-        <v>obj_005de#0002</v>
+        <v>obj_005c2#0001</v>
       </c>
       <c r="D47" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C47)</f>
@@ -6410,7 +6367,7 @@
       </c>
       <c r="E47" s="127">
         <f>_xll.qlRateHelperQuoteValue($C47,Trigger)</f>
-        <v>96.972499999999997</v>
+        <v>96.965000000000003</v>
       </c>
       <c r="F47" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C47,Trigger)</f>
@@ -6443,7 +6400,7 @@
       </c>
       <c r="C48" s="116" t="str">
         <f>Futures!H30</f>
-        <v>obj_005a0#0002</v>
+        <v>obj_005c9#0001</v>
       </c>
       <c r="D48" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C48)</f>
@@ -6451,7 +6408,7 @@
       </c>
       <c r="E48" s="127">
         <f>_xll.qlRateHelperQuoteValue($C48,Trigger)</f>
-        <v>96.902500000000003</v>
+        <v>96.9</v>
       </c>
       <c r="F48" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C48,Trigger)</f>
@@ -6484,7 +6441,7 @@
       </c>
       <c r="C49" s="116" t="str">
         <f>Futures!H31</f>
-        <v>obj_005b6#0002</v>
+        <v>obj_005b3#0001</v>
       </c>
       <c r="D49" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C49)</f>
@@ -6525,7 +6482,7 @@
       </c>
       <c r="C50" s="116" t="str">
         <f>Futures!H32</f>
-        <v>obj_00598#0002</v>
+        <v>obj_005ab#0001</v>
       </c>
       <c r="D50" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C50)</f>
@@ -6533,7 +6490,7 @@
       </c>
       <c r="E50" s="127">
         <f>_xll.qlRateHelperQuoteValue($C50,Trigger)</f>
-        <v>96.775000000000006</v>
+        <v>96.777500000000003</v>
       </c>
       <c r="F50" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C50,Trigger)</f>
@@ -6566,7 +6523,7 @@
       </c>
       <c r="C51" s="116" t="str">
         <f>Futures!H33</f>
-        <v>obj_005cb#0002</v>
+        <v>obj_005aa#0001</v>
       </c>
       <c r="D51" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C51)</f>
@@ -6574,7 +6531,7 @@
       </c>
       <c r="E51" s="127">
         <f>_xll.qlRateHelperQuoteValue($C51,Trigger)</f>
-        <v>96.715000000000003</v>
+        <v>96.72</v>
       </c>
       <c r="F51" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C51,Trigger)</f>
@@ -6607,7 +6564,7 @@
       </c>
       <c r="C52" s="116" t="str">
         <f>Futures!H34</f>
-        <v>obj_005c7#0002</v>
+        <v>obj_005bd#0001</v>
       </c>
       <c r="D52" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C52)</f>
@@ -6615,7 +6572,7 @@
       </c>
       <c r="E52" s="127">
         <f>_xll.qlRateHelperQuoteValue($C52,Trigger)</f>
-        <v>96.657499999999999</v>
+        <v>96.664999999999992</v>
       </c>
       <c r="F52" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C52,Trigger)</f>
@@ -6648,7 +6605,7 @@
       </c>
       <c r="C53" s="116" t="str">
         <f>Futures!H35</f>
-        <v>obj_005a1#0002</v>
+        <v>obj_005cc#0001</v>
       </c>
       <c r="D53" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C53)</f>
@@ -6656,7 +6613,7 @@
       </c>
       <c r="E53" s="127">
         <f>_xll.qlRateHelperQuoteValue($C53,Trigger)</f>
-        <v>96.607499999999987</v>
+        <v>96.615000000000009</v>
       </c>
       <c r="F53" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C53,Trigger)</f>
@@ -6689,7 +6646,7 @@
       </c>
       <c r="C54" s="116" t="str">
         <f>Futures!H36</f>
-        <v>obj_005a4#0002</v>
+        <v>obj_005da#0001</v>
       </c>
       <c r="D54" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C54)</f>
@@ -6697,7 +6654,7 @@
       </c>
       <c r="E54" s="127">
         <f>_xll.qlRateHelperQuoteValue($C54,Trigger)</f>
-        <v>96.564999999999998</v>
+        <v>96.577499999999986</v>
       </c>
       <c r="F54" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C54,Trigger)</f>
@@ -6730,7 +6687,7 @@
       </c>
       <c r="C55" s="116" t="str">
         <f>Futures!H37</f>
-        <v>obj_005a2#0002</v>
+        <v>obj_005d1#0001</v>
       </c>
       <c r="D55" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C55)</f>
@@ -6738,7 +6695,7 @@
       </c>
       <c r="E55" s="127">
         <f>_xll.qlRateHelperQuoteValue($C55,Trigger)</f>
-        <v>96.525000000000006</v>
+        <v>96.532499999999999</v>
       </c>
       <c r="F55" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C55,Trigger)</f>
@@ -6771,7 +6728,7 @@
       </c>
       <c r="C56" s="116" t="str">
         <f>Futures!H38</f>
-        <v>obj_005b2#0002</v>
+        <v>obj_005c0#0001</v>
       </c>
       <c r="D56" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C56)</f>
@@ -6779,7 +6736,7 @@
       </c>
       <c r="E56" s="127">
         <f>_xll.qlRateHelperQuoteValue($C56,Trigger)</f>
-        <v>96.492500000000007</v>
+        <v>96.502499999999998</v>
       </c>
       <c r="F56" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C56,Trigger)</f>
@@ -6812,7 +6769,7 @@
       </c>
       <c r="C57" s="116" t="str">
         <f>Futures!H39</f>
-        <v>obj_005cc#0002</v>
+        <v>obj_005af#0001</v>
       </c>
       <c r="D57" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C57)</f>
@@ -6820,7 +6777,7 @@
       </c>
       <c r="E57" s="127">
         <f>_xll.qlRateHelperQuoteValue($C57,Trigger)</f>
-        <v>96.454999999999998</v>
+        <v>96.457499999999996</v>
       </c>
       <c r="F57" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C57,Trigger)</f>
@@ -6853,7 +6810,7 @@
       </c>
       <c r="C58" s="116" t="str">
         <f>Futures!H40</f>
-        <v>obj_005b4#0002</v>
+        <v>obj_005a1#0001</v>
       </c>
       <c r="D58" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C58)</f>
@@ -6861,7 +6818,7 @@
       </c>
       <c r="E58" s="127">
         <f>_xll.qlRateHelperQuoteValue($C58,Trigger)</f>
-        <v>96.422499999999999</v>
+        <v>96.367500000000007</v>
       </c>
       <c r="F58" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C58,Trigger)</f>
@@ -6894,7 +6851,7 @@
       </c>
       <c r="C59" s="116" t="str">
         <f>Futures!H41</f>
-        <v>obj_005ae#0002</v>
+        <v>obj_005a8#0001</v>
       </c>
       <c r="D59" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C59)</f>
@@ -6902,7 +6859,7 @@
       </c>
       <c r="E59" s="127">
         <f>_xll.qlRateHelperQuoteValue($C59,Trigger)</f>
-        <v>96.392499999999998</v>
+        <v>96.39</v>
       </c>
       <c r="F59" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C59,Trigger)</f>
@@ -6935,7 +6892,7 @@
       </c>
       <c r="C60" s="116" t="str">
         <f>Futures!H42</f>
-        <v>obj_005a7#0002</v>
+        <v>obj_005c5#0001</v>
       </c>
       <c r="D60" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C60)</f>
@@ -6943,7 +6900,7 @@
       </c>
       <c r="E60" s="127">
         <f>_xll.qlRateHelperQuoteValue($C60,Trigger)</f>
-        <v>96.362499999999997</v>
+        <v>96.297499999999999</v>
       </c>
       <c r="F60" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C60,Trigger)</f>
@@ -6976,7 +6933,7 @@
       </c>
       <c r="C61" s="116" t="str">
         <f>Futures!H43</f>
-        <v>obj_005d5#0002</v>
+        <v>obj_005d4#0001</v>
       </c>
       <c r="D61" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C61)</f>
@@ -6984,7 +6941,7 @@
       </c>
       <c r="E61" s="127">
         <f>_xll.qlRateHelperQuoteValue($C61,Trigger)</f>
-        <v>96.33250000000001</v>
+        <v>96.33</v>
       </c>
       <c r="F61" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C61,Trigger)</f>
@@ -7017,7 +6974,7 @@
       </c>
       <c r="C62" s="121" t="str">
         <f>Futures!H44</f>
-        <v>obj_005d6#0002</v>
+        <v>obj_005be#0001</v>
       </c>
       <c r="D62" s="121" t="str">
         <f>_xll.qlRateHelperQuoteName(C62)</f>
@@ -7025,7 +6982,7 @@
       </c>
       <c r="E62" s="128">
         <f>_xll.qlRateHelperQuoteValue($C62,Trigger)</f>
-        <v>96.3125</v>
+        <v>95.795000000000002</v>
       </c>
       <c r="F62" s="122">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C62,Trigger)</f>
@@ -7057,7 +7014,7 @@
       </c>
       <c r="C63" s="193" t="str">
         <f>Swaps!K5</f>
-        <v>obj_005ba#0002</v>
+        <v>obj_00597#0001</v>
       </c>
       <c r="D63" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(C63)</f>
@@ -7065,7 +7022,7 @@
       </c>
       <c r="E63" s="194">
         <f>_xll.qlRateHelperQuoteValue($C63,Trigger)</f>
-        <v>2.98E-3</v>
+        <v>3.14E-3</v>
       </c>
       <c r="F63" s="194">
         <f>_xll.qlSwapRateHelperSpread($C63,Trigger)</f>
@@ -7082,11 +7039,11 @@
       </c>
       <c r="J63" s="196">
         <f>_xll.qlRateHelperEarliestDate($C63,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K63" s="197">
         <f>_xll.qlRateHelperLatestDate($C63,Trigger)</f>
-        <v>42291</v>
+        <v>42292</v>
       </c>
       <c r="M63" s="130"/>
     </row>
@@ -7097,7 +7054,7 @@
       </c>
       <c r="C64" s="116" t="str">
         <f>Swaps!K6</f>
-        <v>obj_005ad#0002</v>
+        <v>obj_005a0#0001</v>
       </c>
       <c r="D64" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C64)</f>
@@ -7112,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="62" t="b">
-        <f t="shared" ref="G63:G127" si="0">IF(ISERROR(E64),FALSE,TRUE)</f>
+        <f t="shared" ref="G64:G127" si="0">IF(ISERROR(E64),FALSE,TRUE)</f>
         <v>0</v>
       </c>
       <c r="H64" s="62">
@@ -7123,11 +7080,11 @@
       </c>
       <c r="J64" s="118">
         <f>_xll.qlRateHelperEarliestDate($C64,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K64" s="119">
         <f>_xll.qlRateHelperLatestDate($C64,Trigger)</f>
-        <v>42383</v>
+        <v>42384</v>
       </c>
       <c r="M64" s="130"/>
     </row>
@@ -7138,7 +7095,7 @@
       </c>
       <c r="C65" s="116" t="str">
         <f>Swaps!K7</f>
-        <v>obj_005c9#0002</v>
+        <v>obj_00599#0001</v>
       </c>
       <c r="D65" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C65)</f>
@@ -7164,11 +7121,11 @@
       </c>
       <c r="J65" s="118">
         <f>_xll.qlRateHelperEarliestDate($C65,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K65" s="119">
         <f>_xll.qlRateHelperLatestDate($C65,Trigger)</f>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="M65" s="130"/>
     </row>
@@ -7179,7 +7136,7 @@
       </c>
       <c r="C66" s="116" t="str">
         <f>Swaps!K8</f>
-        <v>obj_0059f#0002</v>
+        <v>obj_005a7#0001</v>
       </c>
       <c r="D66" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C66)</f>
@@ -7205,11 +7162,11 @@
       </c>
       <c r="J66" s="118">
         <f>_xll.qlRateHelperEarliestDate($C66,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K66" s="119">
         <f>_xll.qlRateHelperLatestDate($C66,Trigger)</f>
-        <v>42565</v>
+        <v>42566</v>
       </c>
       <c r="M66" s="130"/>
     </row>
@@ -7220,7 +7177,7 @@
       </c>
       <c r="C67" s="116" t="str">
         <f>Swaps!K9</f>
-        <v>obj_0059b#0002</v>
+        <v>obj_005dd#0001</v>
       </c>
       <c r="D67" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C67)</f>
@@ -7228,7 +7185,7 @@
       </c>
       <c r="E67" s="117">
         <f>_xll.qlRateHelperQuoteValue($C67,Trigger)</f>
-        <v>6.7200000000000003E-3</v>
+        <v>7.0100000000000006E-3</v>
       </c>
       <c r="F67" s="117">
         <f>_xll.qlSwapRateHelperSpread($C67,Trigger)</f>
@@ -7245,11 +7202,11 @@
       </c>
       <c r="J67" s="118">
         <f>_xll.qlRateHelperEarliestDate($C67,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K67" s="119">
         <f>_xll.qlRateHelperLatestDate($C67,Trigger)</f>
-        <v>42657</v>
+        <v>42660</v>
       </c>
       <c r="M67" s="130"/>
     </row>
@@ -7260,7 +7217,7 @@
       </c>
       <c r="C68" s="116" t="str">
         <f>Swaps!K10</f>
-        <v>obj_005c0#0002</v>
+        <v>obj_005d7#0001</v>
       </c>
       <c r="D68" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C68)</f>
@@ -7268,7 +7225,7 @@
       </c>
       <c r="E68" s="117">
         <f>_xll.qlRateHelperQuoteValue($C68,Trigger)</f>
-        <v>1.0939999999999998E-2</v>
+        <v>1.129E-2</v>
       </c>
       <c r="F68" s="117">
         <f>_xll.qlSwapRateHelperSpread($C68,Trigger)</f>
@@ -7286,7 +7243,7 @@
       </c>
       <c r="J68" s="118">
         <f>_xll.qlRateHelperEarliestDate($C68,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K68" s="119">
         <f>_xll.qlRateHelperLatestDate($C68,Trigger)</f>
@@ -7302,7 +7259,7 @@
       </c>
       <c r="C69" s="116" t="str">
         <f>Swaps!K11</f>
-        <v>obj_005d4#0002</v>
+        <v>obj_005b4#0001</v>
       </c>
       <c r="D69" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C69)</f>
@@ -7310,7 +7267,7 @@
       </c>
       <c r="E69" s="117">
         <f>_xll.qlRateHelperQuoteValue($C69,Trigger)</f>
-        <v>1.4329999999999999E-2</v>
+        <v>1.468E-2</v>
       </c>
       <c r="F69" s="117">
         <f>_xll.qlSwapRateHelperSpread($C69,Trigger)</f>
@@ -7328,7 +7285,7 @@
       </c>
       <c r="J69" s="118">
         <f>_xll.qlRateHelperEarliestDate($C69,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K69" s="119">
         <f>_xll.qlRateHelperLatestDate($C69,Trigger)</f>
@@ -7344,7 +7301,7 @@
       </c>
       <c r="C70" s="116" t="str">
         <f>Swaps!K12</f>
-        <v>obj_005c6#0002</v>
+        <v>obj_005b8#0001</v>
       </c>
       <c r="D70" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C70)</f>
@@ -7352,7 +7309,7 @@
       </c>
       <c r="E70" s="117">
         <f>_xll.qlRateHelperQuoteValue($C70,Trigger)</f>
-        <v>1.6920000000000001E-2</v>
+        <v>1.7229999999999999E-2</v>
       </c>
       <c r="F70" s="117">
         <f>_xll.qlSwapRateHelperSpread($C70,Trigger)</f>
@@ -7370,7 +7327,7 @@
       </c>
       <c r="J70" s="118">
         <f>_xll.qlRateHelperEarliestDate($C70,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K70" s="119">
         <f>_xll.qlRateHelperLatestDate($C70,Trigger)</f>
@@ -7386,7 +7343,7 @@
       </c>
       <c r="C71" s="116" t="str">
         <f>Swaps!K13</f>
-        <v>obj_005c4#0002</v>
+        <v>obj_005c7#0001</v>
       </c>
       <c r="D71" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C71)</f>
@@ -7394,7 +7351,7 @@
       </c>
       <c r="E71" s="117">
         <f>_xll.qlRateHelperQuoteValue($C71,Trigger)</f>
-        <v>1.8969999999999997E-2</v>
+        <v>1.9209999999999998E-2</v>
       </c>
       <c r="F71" s="117">
         <f>_xll.qlSwapRateHelperSpread($C71,Trigger)</f>
@@ -7412,11 +7369,11 @@
       </c>
       <c r="J71" s="118">
         <f>_xll.qlRateHelperEarliestDate($C71,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K71" s="119">
         <f>_xll.qlRateHelperLatestDate($C71,Trigger)</f>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="M71" s="130"/>
       <c r="O71" s="201"/>
@@ -7428,7 +7385,7 @@
       </c>
       <c r="C72" s="116" t="str">
         <f>Swaps!K14</f>
-        <v>obj_00593#0002</v>
+        <v>obj_005ba#0001</v>
       </c>
       <c r="D72" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C72)</f>
@@ -7436,7 +7393,7 @@
       </c>
       <c r="E72" s="117">
         <f>_xll.qlRateHelperQuoteValue($C72,Trigger)</f>
-        <v>2.0649999999999998E-2</v>
+        <v>2.0840000000000001E-2</v>
       </c>
       <c r="F72" s="117">
         <f>_xll.qlSwapRateHelperSpread($C72,Trigger)</f>
@@ -7454,11 +7411,11 @@
       </c>
       <c r="J72" s="118">
         <f>_xll.qlRateHelperEarliestDate($C72,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K72" s="119">
         <f>_xll.qlRateHelperLatestDate($C72,Trigger)</f>
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="M72" s="130"/>
       <c r="O72" s="201"/>
@@ -7470,7 +7427,7 @@
       </c>
       <c r="C73" s="116" t="str">
         <f>Swaps!K15</f>
-        <v>obj_005a5#0002</v>
+        <v>obj_00594#0001</v>
       </c>
       <c r="D73" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C73)</f>
@@ -7478,7 +7435,7 @@
       </c>
       <c r="E73" s="117">
         <f>_xll.qlRateHelperQuoteValue($C73,Trigger)</f>
-        <v>2.2030000000000004E-2</v>
+        <v>2.2170000000000002E-2</v>
       </c>
       <c r="F73" s="117">
         <f>_xll.qlSwapRateHelperSpread($C73,Trigger)</f>
@@ -7496,11 +7453,11 @@
       </c>
       <c r="J73" s="118">
         <f>_xll.qlRateHelperEarliestDate($C73,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K73" s="119">
         <f>_xll.qlRateHelperLatestDate($C73,Trigger)</f>
-        <v>44848</v>
+        <v>44851</v>
       </c>
       <c r="M73" s="130"/>
       <c r="O73" s="201"/>
@@ -7512,7 +7469,7 @@
       </c>
       <c r="C74" s="116" t="str">
         <f>Swaps!K16</f>
-        <v>obj_0059c#0002</v>
+        <v>obj_005bf#0001</v>
       </c>
       <c r="D74" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C74)</f>
@@ -7520,7 +7477,7 @@
       </c>
       <c r="E74" s="117">
         <f>_xll.qlRateHelperQuoteValue($C74,Trigger)</f>
-        <v>2.3209999999999998E-2</v>
+        <v>2.3310000000000001E-2</v>
       </c>
       <c r="F74" s="117">
         <f>_xll.qlSwapRateHelperSpread($C74,Trigger)</f>
@@ -7538,7 +7495,7 @@
       </c>
       <c r="J74" s="118">
         <f>_xll.qlRateHelperEarliestDate($C74,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K74" s="119">
         <f>_xll.qlRateHelperLatestDate($C74,Trigger)</f>
@@ -7554,7 +7511,7 @@
       </c>
       <c r="C75" s="116" t="str">
         <f>Swaps!K17</f>
-        <v>obj_005c8#0002</v>
+        <v>obj_005c1#0001</v>
       </c>
       <c r="D75" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C75)</f>
@@ -7562,7 +7519,7 @@
       </c>
       <c r="E75" s="117">
         <f>_xll.qlRateHelperQuoteValue($C75,Trigger)</f>
-        <v>2.4210000000000002E-2</v>
+        <v>2.427E-2</v>
       </c>
       <c r="F75" s="117">
         <f>_xll.qlSwapRateHelperSpread($C75,Trigger)</f>
@@ -7580,7 +7537,7 @@
       </c>
       <c r="J75" s="118">
         <f>_xll.qlRateHelperEarliestDate($C75,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K75" s="119">
         <f>_xll.qlRateHelperLatestDate($C75,Trigger)</f>
@@ -7596,7 +7553,7 @@
       </c>
       <c r="C76" s="116" t="str">
         <f>Swaps!K18</f>
-        <v>obj_005c1#0002</v>
+        <v>obj_005df#0001</v>
       </c>
       <c r="D76" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C76)</f>
@@ -7622,11 +7579,11 @@
       </c>
       <c r="J76" s="118">
         <f>_xll.qlRateHelperEarliestDate($C76,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K76" s="119">
         <f>_xll.qlRateHelperLatestDate($C76,Trigger)</f>
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="M76" s="130"/>
       <c r="O76" s="201"/>
@@ -7638,7 +7595,7 @@
       </c>
       <c r="C77" s="116" t="str">
         <f>Swaps!K19</f>
-        <v>obj_005a6#0002</v>
+        <v>obj_0059f#0001</v>
       </c>
       <c r="D77" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C77)</f>
@@ -7646,7 +7603,7 @@
       </c>
       <c r="E77" s="117">
         <f>_xll.qlRateHelperQuoteValue($C77,Trigger)</f>
-        <v>2.58E-2</v>
+        <v>2.5849999999999998E-2</v>
       </c>
       <c r="F77" s="117">
         <f>_xll.qlSwapRateHelperSpread($C77,Trigger)</f>
@@ -7664,11 +7621,11 @@
       </c>
       <c r="J77" s="118">
         <f>_xll.qlRateHelperEarliestDate($C77,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K77" s="119">
         <f>_xll.qlRateHelperLatestDate($C77,Trigger)</f>
-        <v>46309</v>
+        <v>46310</v>
       </c>
       <c r="M77" s="130"/>
       <c r="O77" s="201"/>
@@ -7680,7 +7637,7 @@
       </c>
       <c r="C78" s="116" t="str">
         <f>Swaps!K20</f>
-        <v>obj_00595#0002</v>
+        <v>obj_00592#0001</v>
       </c>
       <c r="D78" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C78)</f>
@@ -7706,11 +7663,11 @@
       </c>
       <c r="J78" s="118">
         <f>_xll.qlRateHelperEarliestDate($C78,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K78" s="119">
         <f>_xll.qlRateHelperLatestDate($C78,Trigger)</f>
-        <v>46674</v>
+        <v>46675</v>
       </c>
       <c r="M78" s="130"/>
       <c r="O78" s="201"/>
@@ -7722,7 +7679,7 @@
       </c>
       <c r="C79" s="116" t="str">
         <f>Swaps!K21</f>
-        <v>obj_005bc#0002</v>
+        <v>obj_005a9#0001</v>
       </c>
       <c r="D79" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C79)</f>
@@ -7748,7 +7705,7 @@
       </c>
       <c r="J79" s="118">
         <f>_xll.qlRateHelperEarliestDate($C79,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K79" s="119">
         <f>_xll.qlRateHelperLatestDate($C79,Trigger)</f>
@@ -7764,7 +7721,7 @@
       </c>
       <c r="C80" s="116" t="str">
         <f>Swaps!K22</f>
-        <v>obj_005b5#0002</v>
+        <v>obj_005c6#0001</v>
       </c>
       <c r="D80" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C80)</f>
@@ -7772,7 +7729,7 @@
       </c>
       <c r="E80" s="117">
         <f>_xll.qlRateHelperQuoteValue($C80,Trigger)</f>
-        <v>2.7430000000000003E-2</v>
+        <v>2.7489999999999997E-2</v>
       </c>
       <c r="F80" s="117">
         <f>_xll.qlSwapRateHelperSpread($C80,Trigger)</f>
@@ -7790,7 +7747,7 @@
       </c>
       <c r="J80" s="118">
         <f>_xll.qlRateHelperEarliestDate($C80,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K80" s="119">
         <f>_xll.qlRateHelperLatestDate($C80,Trigger)</f>
@@ -7806,7 +7763,7 @@
       </c>
       <c r="C81" s="116" t="str">
         <f>Swaps!K23</f>
-        <v>obj_005bb#0002</v>
+        <v>obj_005a2#0001</v>
       </c>
       <c r="D81" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C81)</f>
@@ -7832,7 +7789,7 @@
       </c>
       <c r="J81" s="118">
         <f>_xll.qlRateHelperEarliestDate($C81,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K81" s="119">
         <f>_xll.qlRateHelperLatestDate($C81,Trigger)</f>
@@ -7848,7 +7805,7 @@
       </c>
       <c r="C82" s="116" t="str">
         <f>Swaps!K24</f>
-        <v>obj_005cf#0002</v>
+        <v>obj_005dc#0001</v>
       </c>
       <c r="D82" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C82)</f>
@@ -7874,11 +7831,11 @@
       </c>
       <c r="J82" s="118">
         <f>_xll.qlRateHelperEarliestDate($C82,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K82" s="119">
         <f>_xll.qlRateHelperLatestDate($C82,Trigger)</f>
-        <v>48135</v>
+        <v>48136</v>
       </c>
       <c r="M82" s="130"/>
       <c r="O82" s="201"/>
@@ -7890,7 +7847,7 @@
       </c>
       <c r="C83" s="116" t="str">
         <f>Swaps!K25</f>
-        <v>obj_005d9#0002</v>
+        <v>obj_005a6#0001</v>
       </c>
       <c r="D83" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C83)</f>
@@ -7916,11 +7873,11 @@
       </c>
       <c r="J83" s="118">
         <f>_xll.qlRateHelperEarliestDate($C83,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K83" s="119">
         <f>_xll.qlRateHelperLatestDate($C83,Trigger)</f>
-        <v>48501</v>
+        <v>48502</v>
       </c>
       <c r="M83" s="130"/>
       <c r="O83" s="201"/>
@@ -7932,7 +7889,7 @@
       </c>
       <c r="C84" s="116" t="str">
         <f>Swaps!K26</f>
-        <v>obj_005b1#0002</v>
+        <v>obj_005d6#0001</v>
       </c>
       <c r="D84" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C84)</f>
@@ -7958,11 +7915,11 @@
       </c>
       <c r="J84" s="118">
         <f>_xll.qlRateHelperEarliestDate($C84,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K84" s="119">
         <f>_xll.qlRateHelperLatestDate($C84,Trigger)</f>
-        <v>48866</v>
+        <v>48869</v>
       </c>
       <c r="M84" s="130"/>
       <c r="O84" s="201"/>
@@ -7974,7 +7931,7 @@
       </c>
       <c r="C85" s="116" t="str">
         <f>Swaps!K27</f>
-        <v>obj_005d2#0002</v>
+        <v>obj_005c8#0001</v>
       </c>
       <c r="D85" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C85)</f>
@@ -7982,7 +7939,7 @@
       </c>
       <c r="E85" s="117">
         <f>_xll.qlRateHelperQuoteValue($C85,Trigger)</f>
-        <v>2.896E-2</v>
+        <v>2.904E-2</v>
       </c>
       <c r="F85" s="117">
         <f>_xll.qlSwapRateHelperSpread($C85,Trigger)</f>
@@ -8000,7 +7957,7 @@
       </c>
       <c r="J85" s="118">
         <f>_xll.qlRateHelperEarliestDate($C85,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K85" s="119">
         <f>_xll.qlRateHelperLatestDate($C85,Trigger)</f>
@@ -8016,7 +7973,7 @@
       </c>
       <c r="C86" s="116" t="str">
         <f>Swaps!K28</f>
-        <v>obj_005dc#0002</v>
+        <v>obj_005b9#0001</v>
       </c>
       <c r="D86" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C86)</f>
@@ -8042,7 +7999,7 @@
       </c>
       <c r="J86" s="118">
         <f>_xll.qlRateHelperEarliestDate($C86,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K86" s="119">
         <f>_xll.qlRateHelperLatestDate($C86,Trigger)</f>
@@ -8058,7 +8015,7 @@
       </c>
       <c r="C87" s="116" t="str">
         <f>Swaps!K29</f>
-        <v>obj_005d3#0002</v>
+        <v>obj_005cb#0001</v>
       </c>
       <c r="D87" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C87)</f>
@@ -8084,11 +8041,11 @@
       </c>
       <c r="J87" s="118">
         <f>_xll.qlRateHelperEarliestDate($C87,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K87" s="119">
         <f>_xll.qlRateHelperLatestDate($C87,Trigger)</f>
-        <v>49962</v>
+        <v>49963</v>
       </c>
       <c r="M87" s="130"/>
       <c r="O87" s="201"/>
@@ -8100,7 +8057,7 @@
       </c>
       <c r="C88" s="116" t="str">
         <f>Swaps!K30</f>
-        <v>obj_005df#0002</v>
+        <v>obj_0059c#0001</v>
       </c>
       <c r="D88" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C88)</f>
@@ -8126,11 +8083,11 @@
       </c>
       <c r="J88" s="118">
         <f>_xll.qlRateHelperEarliestDate($C88,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K88" s="119">
         <f>_xll.qlRateHelperLatestDate($C88,Trigger)</f>
-        <v>50327</v>
+        <v>50328</v>
       </c>
       <c r="M88" s="130"/>
       <c r="O88" s="201"/>
@@ -8142,7 +8099,7 @@
       </c>
       <c r="C89" s="116" t="str">
         <f>Swaps!K31</f>
-        <v>obj_005be#0002</v>
+        <v>obj_005cd#0001</v>
       </c>
       <c r="D89" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C89)</f>
@@ -8168,11 +8125,11 @@
       </c>
       <c r="J89" s="118">
         <f>_xll.qlRateHelperEarliestDate($C89,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K89" s="119">
         <f>_xll.qlRateHelperLatestDate($C89,Trigger)</f>
-        <v>50692</v>
+        <v>50693</v>
       </c>
       <c r="M89" s="130"/>
       <c r="O89" s="201"/>
@@ -8184,7 +8141,7 @@
       </c>
       <c r="C90" s="116" t="str">
         <f>Swaps!K32</f>
-        <v>obj_00592#0002</v>
+        <v>obj_005d0#0001</v>
       </c>
       <c r="D90" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C90)</f>
@@ -8192,7 +8149,7 @@
       </c>
       <c r="E90" s="117">
         <f>_xll.qlRateHelperQuoteValue($C90,Trigger)</f>
-        <v>2.9699999999999997E-2</v>
+        <v>2.9779999999999997E-2</v>
       </c>
       <c r="F90" s="117">
         <f>_xll.qlSwapRateHelperSpread($C90,Trigger)</f>
@@ -8210,11 +8167,11 @@
       </c>
       <c r="J90" s="118">
         <f>_xll.qlRateHelperEarliestDate($C90,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K90" s="119">
         <f>_xll.qlRateHelperLatestDate($C90,Trigger)</f>
-        <v>51057</v>
+        <v>51060</v>
       </c>
       <c r="M90" s="130"/>
       <c r="O90" s="201"/>
@@ -8226,7 +8183,7 @@
       </c>
       <c r="C91" s="116" t="str">
         <f>Swaps!K33</f>
-        <v>obj_005d7#0002</v>
+        <v>obj_005e0#0001</v>
       </c>
       <c r="D91" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C91)</f>
@@ -8252,7 +8209,7 @@
       </c>
       <c r="J91" s="118">
         <f>_xll.qlRateHelperEarliestDate($C91,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K91" s="119">
         <f>_xll.qlRateHelperLatestDate($C91,Trigger)</f>
@@ -8268,7 +8225,7 @@
       </c>
       <c r="C92" s="116" t="str">
         <f>Swaps!K34</f>
-        <v>obj_005b0#0002</v>
+        <v>obj_005d2#0001</v>
       </c>
       <c r="D92" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C92)</f>
@@ -8294,7 +8251,7 @@
       </c>
       <c r="J92" s="118">
         <f>_xll.qlRateHelperEarliestDate($C92,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K92" s="119">
         <f>_xll.qlRateHelperLatestDate($C92,Trigger)</f>
@@ -8310,7 +8267,7 @@
       </c>
       <c r="C93" s="116" t="str">
         <f>Swaps!K35</f>
-        <v>obj_005d0#0002</v>
+        <v>obj_0059a#0001</v>
       </c>
       <c r="D93" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C93)</f>
@@ -8336,11 +8293,11 @@
       </c>
       <c r="J93" s="118">
         <f>_xll.qlRateHelperEarliestDate($C93,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K93" s="119">
         <f>_xll.qlRateHelperLatestDate($C93,Trigger)</f>
-        <v>52153</v>
+        <v>52154</v>
       </c>
       <c r="M93" s="130"/>
       <c r="O93" s="201"/>
@@ -8352,7 +8309,7 @@
       </c>
       <c r="C94" s="116" t="str">
         <f>Swaps!K36</f>
-        <v>obj_0059d#0002</v>
+        <v>obj_00593#0001</v>
       </c>
       <c r="D94" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C94)</f>
@@ -8378,11 +8335,11 @@
       </c>
       <c r="J94" s="118">
         <f>_xll.qlRateHelperEarliestDate($C94,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K94" s="119">
         <f>_xll.qlRateHelperLatestDate($C94,Trigger)</f>
-        <v>52518</v>
+        <v>52519</v>
       </c>
       <c r="M94" s="130"/>
       <c r="O94" s="201"/>
@@ -8394,7 +8351,7 @@
       </c>
       <c r="C95" s="116" t="str">
         <f>Swaps!K37</f>
-        <v>obj_005b3#0002</v>
+        <v>obj_00596#0001</v>
       </c>
       <c r="D95" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C95)</f>
@@ -8402,7 +8359,7 @@
       </c>
       <c r="E95" s="117">
         <f>_xll.qlRateHelperQuoteValue($C95,Trigger)</f>
-        <v>3.0099999999999998E-2</v>
+        <v>3.0190000000000002E-2</v>
       </c>
       <c r="F95" s="117">
         <f>_xll.qlSwapRateHelperSpread($C95,Trigger)</f>
@@ -8420,11 +8377,11 @@
       </c>
       <c r="J95" s="118">
         <f>_xll.qlRateHelperEarliestDate($C95,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K95" s="119">
         <f>_xll.qlRateHelperLatestDate($C95,Trigger)</f>
-        <v>52884</v>
+        <v>52887</v>
       </c>
       <c r="M95" s="130"/>
       <c r="O95" s="201"/>
@@ -8436,7 +8393,7 @@
       </c>
       <c r="C96" s="116" t="str">
         <f>Swaps!K38</f>
-        <v>obj_005db#0002</v>
+        <v>obj_005cf#0001</v>
       </c>
       <c r="D96" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C96)</f>
@@ -8462,11 +8419,11 @@
       </c>
       <c r="J96" s="118">
         <f>_xll.qlRateHelperEarliestDate($C96,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K96" s="119">
         <f>_xll.qlRateHelperLatestDate($C96,Trigger)</f>
-        <v>54710</v>
+        <v>54711</v>
       </c>
       <c r="M96" s="130"/>
       <c r="O96" s="201"/>
@@ -8478,7 +8435,7 @@
       </c>
       <c r="C97" s="116" t="str">
         <f>Swaps!K39</f>
-        <v>obj_005d1#0002</v>
+        <v>obj_005a5#0001</v>
       </c>
       <c r="D97" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C97)</f>
@@ -8486,7 +8443,7 @@
       </c>
       <c r="E97" s="117">
         <f>_xll.qlRateHelperQuoteValue($C97,Trigger)</f>
-        <v>3.0309999999999997E-2</v>
+        <v>3.04E-2</v>
       </c>
       <c r="F97" s="117">
         <f>_xll.qlSwapRateHelperSpread($C97,Trigger)</f>
@@ -8504,11 +8461,11 @@
       </c>
       <c r="J97" s="118">
         <f>_xll.qlRateHelperEarliestDate($C97,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K97" s="119">
         <f>_xll.qlRateHelperLatestDate($C97,Trigger)</f>
-        <v>56536</v>
+        <v>56537</v>
       </c>
       <c r="M97" s="130"/>
       <c r="O97" s="201"/>
@@ -8520,7 +8477,7 @@
       </c>
       <c r="C98" s="116" t="str">
         <f>Swaps!K40</f>
-        <v>obj_005aa#0002</v>
+        <v>obj_005b6#0001</v>
       </c>
       <c r="D98" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C98)</f>
@@ -8528,7 +8485,7 @@
       </c>
       <c r="E98" s="117">
         <f>_xll.qlRateHelperQuoteValue($C98,Trigger)</f>
-        <v>3.0099999999999998E-2</v>
+        <v>3.0190000000000002E-2</v>
       </c>
       <c r="F98" s="117">
         <f>_xll.qlSwapRateHelperSpread($C98,Trigger)</f>
@@ -8546,11 +8503,11 @@
       </c>
       <c r="J98" s="118">
         <f>_xll.qlRateHelperEarliestDate($C98,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K98" s="119">
         <f>_xll.qlRateHelperLatestDate($C98,Trigger)</f>
-        <v>60189</v>
+        <v>60190</v>
       </c>
       <c r="M98" s="130"/>
       <c r="O98" s="201"/>
@@ -8562,7 +8519,7 @@
       </c>
       <c r="C99" s="116" t="str">
         <f>Swaps!K41</f>
-        <v>obj_00597#0002</v>
+        <v>obj_005c4#0001</v>
       </c>
       <c r="D99" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C99)</f>
@@ -8588,7 +8545,7 @@
       </c>
       <c r="J99" s="118">
         <f>_xll.qlRateHelperEarliestDate($C99,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K99" s="119">
         <f>_xll.qlRateHelperLatestDate($C99,Trigger)</f>
@@ -8604,7 +8561,7 @@
       </c>
       <c r="C100" s="193" t="str">
         <f>Swaps!K43</f>
-        <v>obj_00554#0003</v>
+        <v>obj_00517#0001</v>
       </c>
       <c r="D100" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(C100)</f>
@@ -8612,7 +8569,7 @@
       </c>
       <c r="E100" s="194">
         <f>_xll.qlRateHelperQuoteValue($C100,Trigger)</f>
-        <v>2.9500916300000003E-3</v>
+        <v>3.1186784699999996E-3</v>
       </c>
       <c r="F100" s="194">
         <f>_xll.qlSwapRateHelperSpread($C100,Trigger)</f>
@@ -8629,11 +8586,11 @@
       </c>
       <c r="J100" s="196">
         <f>_xll.qlRateHelperEarliestDate($C100,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K100" s="197">
         <f>_xll.qlRateHelperLatestDate($C100,Trigger)</f>
-        <v>42291</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8644,7 +8601,7 @@
       </c>
       <c r="C101" s="116" t="str">
         <f>Swaps!K44</f>
-        <v>obj_0055e#0003</v>
+        <v>obj_004f4#0001</v>
       </c>
       <c r="D101" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C101)</f>
@@ -8670,11 +8627,11 @@
       </c>
       <c r="J101" s="118">
         <f>_xll.qlRateHelperEarliestDate($C101,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K101" s="119">
         <f>_xll.qlRateHelperLatestDate($C101,Trigger)</f>
-        <v>42383</v>
+        <v>42384</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8685,7 +8642,7 @@
       </c>
       <c r="C102" s="116" t="str">
         <f>Swaps!K45</f>
-        <v>obj_00568#0003</v>
+        <v>obj_00535#0001</v>
       </c>
       <c r="D102" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C102)</f>
@@ -8711,11 +8668,11 @@
       </c>
       <c r="J102" s="118">
         <f>_xll.qlRateHelperEarliestDate($C102,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K102" s="119">
         <f>_xll.qlRateHelperLatestDate($C102,Trigger)</f>
-        <v>42474</v>
+        <v>42475</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8726,7 +8683,7 @@
       </c>
       <c r="C103" s="116" t="str">
         <f>Swaps!K46</f>
-        <v>obj_0056f#0003</v>
+        <v>obj_0054c#0001</v>
       </c>
       <c r="D103" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C103)</f>
@@ -8752,11 +8709,11 @@
       </c>
       <c r="J103" s="118">
         <f>_xll.qlRateHelperEarliestDate($C103,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K103" s="119">
         <f>_xll.qlRateHelperLatestDate($C103,Trigger)</f>
-        <v>42565</v>
+        <v>42566</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8767,7 +8724,7 @@
       </c>
       <c r="C104" s="116" t="str">
         <f>Swaps!K47</f>
-        <v>obj_0055c#0003</v>
+        <v>obj_0056c#0001</v>
       </c>
       <c r="D104" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C104)</f>
@@ -8775,7 +8732,7 @@
       </c>
       <c r="E104" s="117">
         <f>_xll.qlRateHelperQuoteValue($C104,Trigger)</f>
-        <v>6.7521264400000006E-3</v>
+        <v>7.0405521099999998E-3</v>
       </c>
       <c r="F104" s="117">
         <f>_xll.qlSwapRateHelperSpread($C104,Trigger)</f>
@@ -8792,11 +8749,11 @@
       </c>
       <c r="J104" s="118">
         <f>_xll.qlRateHelperEarliestDate($C104,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K104" s="119">
         <f>_xll.qlRateHelperLatestDate($C104,Trigger)</f>
-        <v>42657</v>
+        <v>42660</v>
       </c>
       <c r="O104" s="201"/>
     </row>
@@ -8808,7 +8765,7 @@
       </c>
       <c r="C105" s="116" t="str">
         <f>Swaps!K48</f>
-        <v>obj_0056c#0003</v>
+        <v>obj_0056b#0001</v>
       </c>
       <c r="D105" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C105)</f>
@@ -8816,7 +8773,7 @@
       </c>
       <c r="E105" s="117">
         <f>_xll.qlRateHelperQuoteValue($C105,Trigger)</f>
-        <v>1.0933828580000001E-2</v>
+        <v>1.129E-2</v>
       </c>
       <c r="F105" s="117">
         <f>_xll.qlSwapRateHelperSpread($C105,Trigger)</f>
@@ -8834,7 +8791,7 @@
       </c>
       <c r="J105" s="118">
         <f>_xll.qlRateHelperEarliestDate($C105,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K105" s="119">
         <f>_xll.qlRateHelperLatestDate($C105,Trigger)</f>
@@ -8850,7 +8807,7 @@
       </c>
       <c r="C106" s="116" t="str">
         <f>Swaps!K49</f>
-        <v>obj_00558#0003</v>
+        <v>obj_00501#0001</v>
       </c>
       <c r="D106" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C106)</f>
@@ -8858,7 +8815,7 @@
       </c>
       <c r="E106" s="117">
         <f>_xll.qlRateHelperQuoteValue($C106,Trigger)</f>
-        <v>1.43253228E-2</v>
+        <v>1.468E-2</v>
       </c>
       <c r="F106" s="117">
         <f>_xll.qlSwapRateHelperSpread($C106,Trigger)</f>
@@ -8876,7 +8833,7 @@
       </c>
       <c r="J106" s="118">
         <f>_xll.qlRateHelperEarliestDate($C106,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K106" s="119">
         <f>_xll.qlRateHelperLatestDate($C106,Trigger)</f>
@@ -8892,7 +8849,7 @@
       </c>
       <c r="C107" s="116" t="str">
         <f>Swaps!K50</f>
-        <v>obj_00566#0003</v>
+        <v>obj_00544#0001</v>
       </c>
       <c r="D107" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C107)</f>
@@ -8900,7 +8857,7 @@
       </c>
       <c r="E107" s="117">
         <f>_xll.qlRateHelperQuoteValue($C107,Trigger)</f>
-        <v>1.690121571E-2</v>
+        <v>1.7230000000000002E-2</v>
       </c>
       <c r="F107" s="117">
         <f>_xll.qlSwapRateHelperSpread($C107,Trigger)</f>
@@ -8918,7 +8875,7 @@
       </c>
       <c r="J107" s="118">
         <f>_xll.qlRateHelperEarliestDate($C107,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K107" s="119">
         <f>_xll.qlRateHelperLatestDate($C107,Trigger)</f>
@@ -8934,7 +8891,7 @@
       </c>
       <c r="C108" s="116" t="str">
         <f>Swaps!K51</f>
-        <v>obj_00528#0003</v>
+        <v>obj_00506#0001</v>
       </c>
       <c r="D108" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C108)</f>
@@ -8942,7 +8899,7 @@
       </c>
       <c r="E108" s="117">
         <f>_xll.qlRateHelperQuoteValue($C108,Trigger)</f>
-        <v>1.8966811809999998E-2</v>
+        <v>1.9210000000000001E-2</v>
       </c>
       <c r="F108" s="117">
         <f>_xll.qlSwapRateHelperSpread($C108,Trigger)</f>
@@ -8960,11 +8917,11 @@
       </c>
       <c r="J108" s="118">
         <f>_xll.qlRateHelperEarliestDate($C108,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K108" s="119">
         <f>_xll.qlRateHelperLatestDate($C108,Trigger)</f>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="O108" s="201"/>
     </row>
@@ -8976,7 +8933,7 @@
       </c>
       <c r="C109" s="116" t="str">
         <f>Swaps!K52</f>
-        <v>obj_00563#0003</v>
+        <v>obj_0056f#0001</v>
       </c>
       <c r="D109" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C109)</f>
@@ -8984,7 +8941,7 @@
       </c>
       <c r="E109" s="117">
         <f>_xll.qlRateHelperQuoteValue($C109,Trigger)</f>
-        <v>2.0647233649999999E-2</v>
+        <v>2.0840000000000001E-2</v>
       </c>
       <c r="F109" s="117">
         <f>_xll.qlSwapRateHelperSpread($C109,Trigger)</f>
@@ -9002,11 +8959,11 @@
       </c>
       <c r="J109" s="118">
         <f>_xll.qlRateHelperEarliestDate($C109,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K109" s="119">
         <f>_xll.qlRateHelperLatestDate($C109,Trigger)</f>
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="O109" s="201"/>
     </row>
@@ -9018,7 +8975,7 @@
       </c>
       <c r="C110" s="116" t="str">
         <f>Swaps!K53</f>
-        <v>obj_0055f#0003</v>
+        <v>obj_0052f#0001</v>
       </c>
       <c r="D110" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C110)</f>
@@ -9026,7 +8983,7 @@
       </c>
       <c r="E110" s="117">
         <f>_xll.qlRateHelperQuoteValue($C110,Trigger)</f>
-        <v>2.2027548470000002E-2</v>
+        <v>2.2170000000000002E-2</v>
       </c>
       <c r="F110" s="117">
         <f>_xll.qlSwapRateHelperSpread($C110,Trigger)</f>
@@ -9044,11 +9001,11 @@
       </c>
       <c r="J110" s="118">
         <f>_xll.qlRateHelperEarliestDate($C110,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K110" s="119">
         <f>_xll.qlRateHelperLatestDate($C110,Trigger)</f>
-        <v>44848</v>
+        <v>44851</v>
       </c>
       <c r="O110" s="201"/>
     </row>
@@ -9060,7 +9017,7 @@
       </c>
       <c r="C111" s="116" t="str">
         <f>Swaps!K54</f>
-        <v>obj_00552#0003</v>
+        <v>obj_0050f#0001</v>
       </c>
       <c r="D111" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C111)</f>
@@ -9068,7 +9025,7 @@
       </c>
       <c r="E111" s="117">
         <f>_xll.qlRateHelperQuoteValue($C111,Trigger)</f>
-        <v>2.3207792550000002E-2</v>
+        <v>2.3310000000000001E-2</v>
       </c>
       <c r="F111" s="117">
         <f>_xll.qlSwapRateHelperSpread($C111,Trigger)</f>
@@ -9086,7 +9043,7 @@
       </c>
       <c r="J111" s="118">
         <f>_xll.qlRateHelperEarliestDate($C111,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K111" s="119">
         <f>_xll.qlRateHelperLatestDate($C111,Trigger)</f>
@@ -9102,7 +9059,7 @@
       </c>
       <c r="C112" s="116" t="str">
         <f>Swaps!K55</f>
-        <v>obj_0056b#0003</v>
+        <v>obj_0056e#0001</v>
       </c>
       <c r="D112" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C112)</f>
@@ -9110,7 +9067,7 @@
       </c>
       <c r="E112" s="117">
         <f>_xll.qlRateHelperQuoteValue($C112,Trigger)</f>
-        <v>2.4199731350000003E-2</v>
+        <v>2.427E-2</v>
       </c>
       <c r="F112" s="117">
         <f>_xll.qlSwapRateHelperSpread($C112,Trigger)</f>
@@ -9128,7 +9085,7 @@
       </c>
       <c r="J112" s="118">
         <f>_xll.qlRateHelperEarliestDate($C112,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K112" s="119">
         <f>_xll.qlRateHelperLatestDate($C112,Trigger)</f>
@@ -9144,7 +9101,7 @@
       </c>
       <c r="C113" s="116" t="str">
         <f>Swaps!K56</f>
-        <v>obj_00529#0003</v>
+        <v>obj_0055f#0001</v>
       </c>
       <c r="D113" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C113)</f>
@@ -9152,7 +9109,7 @@
       </c>
       <c r="E113" s="117">
         <f>_xll.qlRateHelperQuoteValue($C113,Trigger)</f>
-        <v>2.5063208910000002E-2</v>
+        <v>2.5114325999999999E-2</v>
       </c>
       <c r="F113" s="117">
         <f>_xll.qlSwapRateHelperSpread($C113,Trigger)</f>
@@ -9170,11 +9127,11 @@
       </c>
       <c r="J113" s="118">
         <f>_xll.qlRateHelperEarliestDate($C113,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K113" s="119">
         <f>_xll.qlRateHelperLatestDate($C113,Trigger)</f>
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="O113" s="201"/>
     </row>
@@ -9186,7 +9143,7 @@
       </c>
       <c r="C114" s="116" t="str">
         <f>Swaps!K57</f>
-        <v>obj_00565#0003</v>
+        <v>obj_00522#0001</v>
       </c>
       <c r="D114" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C114)</f>
@@ -9194,7 +9151,7 @@
       </c>
       <c r="E114" s="117">
         <f>_xll.qlRateHelperQuoteValue($C114,Trigger)</f>
-        <v>2.5798273950000002E-2</v>
+        <v>2.5849999999999998E-2</v>
       </c>
       <c r="F114" s="117">
         <f>_xll.qlSwapRateHelperSpread($C114,Trigger)</f>
@@ -9212,11 +9169,11 @@
       </c>
       <c r="J114" s="118">
         <f>_xll.qlRateHelperEarliestDate($C114,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K114" s="119">
         <f>_xll.qlRateHelperLatestDate($C114,Trigger)</f>
-        <v>46309</v>
+        <v>46310</v>
       </c>
       <c r="O114" s="201"/>
     </row>
@@ -9228,7 +9185,7 @@
       </c>
       <c r="C115" s="116" t="str">
         <f>Swaps!K58</f>
-        <v>obj_0056e#0003</v>
+        <v>obj_00529#0001</v>
       </c>
       <c r="D115" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C115)</f>
@@ -9236,7 +9193,7 @@
       </c>
       <c r="E115" s="117">
         <f>_xll.qlRateHelperQuoteValue($C115,Trigger)</f>
-        <v>2.6425421590000001E-2</v>
+        <v>2.647976581E-2</v>
       </c>
       <c r="F115" s="117">
         <f>_xll.qlSwapRateHelperSpread($C115,Trigger)</f>
@@ -9254,11 +9211,11 @@
       </c>
       <c r="J115" s="118">
         <f>_xll.qlRateHelperEarliestDate($C115,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K115" s="119">
         <f>_xll.qlRateHelperLatestDate($C115,Trigger)</f>
-        <v>46674</v>
+        <v>46675</v>
       </c>
       <c r="O115" s="201"/>
     </row>
@@ -9270,7 +9227,7 @@
       </c>
       <c r="C116" s="116" t="str">
         <f>Swaps!K59</f>
-        <v>obj_0056d#0003</v>
+        <v>obj_004ee#0001</v>
       </c>
       <c r="D116" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C116)</f>
@@ -9278,7 +9235,7 @@
       </c>
       <c r="E116" s="117">
         <f>_xll.qlRateHelperQuoteValue($C116,Trigger)</f>
-        <v>2.696725275E-2</v>
+        <v>2.702473046E-2</v>
       </c>
       <c r="F116" s="117">
         <f>_xll.qlSwapRateHelperSpread($C116,Trigger)</f>
@@ -9296,7 +9253,7 @@
       </c>
       <c r="J116" s="118">
         <f>_xll.qlRateHelperEarliestDate($C116,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K116" s="119">
         <f>_xll.qlRateHelperLatestDate($C116,Trigger)</f>
@@ -9312,7 +9269,7 @@
       </c>
       <c r="C117" s="116" t="str">
         <f>Swaps!K60</f>
-        <v>obj_00572#0003</v>
+        <v>obj_00562#0001</v>
       </c>
       <c r="D117" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C117)</f>
@@ -9320,7 +9277,7 @@
       </c>
       <c r="E117" s="117">
         <f>_xll.qlRateHelperQuoteValue($C117,Trigger)</f>
-        <v>2.7428557429999997E-2</v>
+        <v>2.7490000000000001E-2</v>
       </c>
       <c r="F117" s="117">
         <f>_xll.qlSwapRateHelperSpread($C117,Trigger)</f>
@@ -9338,7 +9295,7 @@
       </c>
       <c r="J117" s="118">
         <f>_xll.qlRateHelperEarliestDate($C117,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K117" s="119">
         <f>_xll.qlRateHelperLatestDate($C117,Trigger)</f>
@@ -9354,7 +9311,7 @@
       </c>
       <c r="C118" s="116" t="str">
         <f>Swaps!K61</f>
-        <v>obj_00562#0003</v>
+        <v>obj_00543#0001</v>
       </c>
       <c r="D118" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C118)</f>
@@ -9362,7 +9319,7 @@
       </c>
       <c r="E118" s="117">
         <f>_xll.qlRateHelperQuoteValue($C118,Trigger)</f>
-        <v>2.7823812140000001E-2</v>
+        <v>2.7893705229999999E-2</v>
       </c>
       <c r="F118" s="117">
         <f>_xll.qlSwapRateHelperSpread($C118,Trigger)</f>
@@ -9380,7 +9337,7 @@
       </c>
       <c r="J118" s="118">
         <f>_xll.qlRateHelperEarliestDate($C118,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K118" s="119">
         <f>_xll.qlRateHelperLatestDate($C118,Trigger)</f>
@@ -9396,7 +9353,7 @@
       </c>
       <c r="C119" s="116" t="str">
         <f>Swaps!K62</f>
-        <v>obj_00557#0003</v>
+        <v>obj_0054b#0001</v>
       </c>
       <c r="D119" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C119)</f>
@@ -9404,7 +9361,7 @@
       </c>
       <c r="E119" s="117">
         <f>_xll.qlRateHelperQuoteValue($C119,Trigger)</f>
-        <v>2.8173871699999999E-2</v>
+        <v>2.824515297E-2</v>
       </c>
       <c r="F119" s="117">
         <f>_xll.qlSwapRateHelperSpread($C119,Trigger)</f>
@@ -9422,11 +9379,11 @@
       </c>
       <c r="J119" s="118">
         <f>_xll.qlRateHelperEarliestDate($C119,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K119" s="119">
         <f>_xll.qlRateHelperLatestDate($C119,Trigger)</f>
-        <v>48135</v>
+        <v>48136</v>
       </c>
       <c r="O119" s="201"/>
     </row>
@@ -9438,7 +9395,7 @@
       </c>
       <c r="C120" s="116" t="str">
         <f>Swaps!K63</f>
-        <v>obj_0055d#0003</v>
+        <v>obj_004ed#0001</v>
       </c>
       <c r="D120" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C120)</f>
@@ -9446,7 +9403,7 @@
       </c>
       <c r="E120" s="117">
         <f>_xll.qlRateHelperQuoteValue($C120,Trigger)</f>
-        <v>2.84747443E-2</v>
+        <v>2.855049443E-2</v>
       </c>
       <c r="F120" s="117">
         <f>_xll.qlSwapRateHelperSpread($C120,Trigger)</f>
@@ -9464,11 +9421,11 @@
       </c>
       <c r="J120" s="118">
         <f>_xll.qlRateHelperEarliestDate($C120,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K120" s="119">
         <f>_xll.qlRateHelperLatestDate($C120,Trigger)</f>
-        <v>48501</v>
+        <v>48502</v>
       </c>
       <c r="O120" s="201"/>
     </row>
@@ -9480,7 +9437,7 @@
       </c>
       <c r="C121" s="116" t="str">
         <f>Swaps!K64</f>
-        <v>obj_0055b#0003</v>
+        <v>obj_00570#0001</v>
       </c>
       <c r="D121" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C121)</f>
@@ -9488,7 +9445,7 @@
       </c>
       <c r="E121" s="117">
         <f>_xll.qlRateHelperQuoteValue($C121,Trigger)</f>
-        <v>2.8734107999999998E-2</v>
+        <v>2.8813265920000001E-2</v>
       </c>
       <c r="F121" s="117">
         <f>_xll.qlSwapRateHelperSpread($C121,Trigger)</f>
@@ -9506,11 +9463,11 @@
       </c>
       <c r="J121" s="118">
         <f>_xll.qlRateHelperEarliestDate($C121,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K121" s="119">
         <f>_xll.qlRateHelperLatestDate($C121,Trigger)</f>
-        <v>48866</v>
+        <v>48869</v>
       </c>
       <c r="O121" s="201"/>
     </row>
@@ -9522,7 +9479,7 @@
       </c>
       <c r="C122" s="116" t="str">
         <f>Swaps!K65</f>
-        <v>obj_0055a#0003</v>
+        <v>obj_00561#0001</v>
       </c>
       <c r="D122" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C122)</f>
@@ -9530,7 +9487,7 @@
       </c>
       <c r="E122" s="117">
         <f>_xll.qlRateHelperQuoteValue($C122,Trigger)</f>
-        <v>2.89588416E-2</v>
+        <v>2.904E-2</v>
       </c>
       <c r="F122" s="117">
         <f>_xll.qlSwapRateHelperSpread($C122,Trigger)</f>
@@ -9548,7 +9505,7 @@
       </c>
       <c r="J122" s="118">
         <f>_xll.qlRateHelperEarliestDate($C122,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K122" s="119">
         <f>_xll.qlRateHelperLatestDate($C122,Trigger)</f>
@@ -9564,7 +9521,7 @@
       </c>
       <c r="C123" s="116" t="str">
         <f>Swaps!K66</f>
-        <v>obj_00564#0003</v>
+        <v>obj_00518#0001</v>
       </c>
       <c r="D123" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C123)</f>
@@ -9572,7 +9529,7 @@
       </c>
       <c r="E123" s="117">
         <f>_xll.qlRateHelperQuoteValue($C123,Trigger)</f>
-        <v>2.9150121420000001E-2</v>
+        <v>2.9231765850000001E-2</v>
       </c>
       <c r="F123" s="117">
         <f>_xll.qlSwapRateHelperSpread($C123,Trigger)</f>
@@ -9590,7 +9547,7 @@
       </c>
       <c r="J123" s="118">
         <f>_xll.qlRateHelperEarliestDate($C123,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K123" s="119">
         <f>_xll.qlRateHelperLatestDate($C123,Trigger)</f>
@@ -9606,7 +9563,7 @@
       </c>
       <c r="C124" s="116" t="str">
         <f>Swaps!K67</f>
-        <v>obj_00570#0003</v>
+        <v>obj_00502#0001</v>
       </c>
       <c r="D124" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C124)</f>
@@ -9614,7 +9571,7 @@
       </c>
       <c r="E124" s="117">
         <f>_xll.qlRateHelperQuoteValue($C124,Trigger)</f>
-        <v>2.9315809659999997E-2</v>
+        <v>2.9397080820000001E-2</v>
       </c>
       <c r="F124" s="117">
         <f>_xll.qlSwapRateHelperSpread($C124,Trigger)</f>
@@ -9632,11 +9589,11 @@
       </c>
       <c r="J124" s="118">
         <f>_xll.qlRateHelperEarliestDate($C124,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K124" s="119">
         <f>_xll.qlRateHelperLatestDate($C124,Trigger)</f>
-        <v>49962</v>
+        <v>49963</v>
       </c>
       <c r="O124" s="201"/>
     </row>
@@ -9648,7 +9605,7 @@
       </c>
       <c r="C125" s="116" t="str">
         <f>Swaps!K68</f>
-        <v>obj_00560#0003</v>
+        <v>obj_00553#0001</v>
       </c>
       <c r="D125" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C125)</f>
@@ -9656,7 +9613,7 @@
       </c>
       <c r="E125" s="117">
         <f>_xll.qlRateHelperQuoteValue($C125,Trigger)</f>
-        <v>2.9460038769999999E-2</v>
+        <v>2.9540740520000001E-2</v>
       </c>
       <c r="F125" s="117">
         <f>_xll.qlSwapRateHelperSpread($C125,Trigger)</f>
@@ -9674,11 +9631,11 @@
       </c>
       <c r="J125" s="118">
         <f>_xll.qlRateHelperEarliestDate($C125,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K125" s="119">
         <f>_xll.qlRateHelperLatestDate($C125,Trigger)</f>
-        <v>50327</v>
+        <v>50328</v>
       </c>
       <c r="O125" s="201"/>
     </row>
@@ -9690,7 +9647,7 @@
       </c>
       <c r="C126" s="116" t="str">
         <f>Swaps!K69</f>
-        <v>obj_00569#0003</v>
+        <v>obj_0055b#0001</v>
       </c>
       <c r="D126" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C126)</f>
@@ -9698,7 +9655,7 @@
       </c>
       <c r="E126" s="117">
         <f>_xll.qlRateHelperQuoteValue($C126,Trigger)</f>
-        <v>2.9586700490000003E-2</v>
+        <v>2.9667167040000001E-2</v>
       </c>
       <c r="F126" s="117">
         <f>_xll.qlSwapRateHelperSpread($C126,Trigger)</f>
@@ -9716,11 +9673,11 @@
       </c>
       <c r="J126" s="118">
         <f>_xll.qlRateHelperEarliestDate($C126,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K126" s="119">
         <f>_xll.qlRateHelperLatestDate($C126,Trigger)</f>
-        <v>50692</v>
+        <v>50693</v>
       </c>
       <c r="O126" s="201"/>
     </row>
@@ -9732,7 +9689,7 @@
       </c>
       <c r="C127" s="116" t="str">
         <f>Swaps!K70</f>
-        <v>obj_00553#0003</v>
+        <v>obj_00571#0001</v>
       </c>
       <c r="D127" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C127)</f>
@@ -9740,7 +9697,7 @@
       </c>
       <c r="E127" s="117">
         <f>_xll.qlRateHelperQuoteValue($C127,Trigger)</f>
-        <v>2.9699010559999999E-2</v>
+        <v>2.9780000000000001E-2</v>
       </c>
       <c r="F127" s="117">
         <f>_xll.qlSwapRateHelperSpread($C127,Trigger)</f>
@@ -9758,11 +9715,11 @@
       </c>
       <c r="J127" s="118">
         <f>_xll.qlRateHelperEarliestDate($C127,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K127" s="119">
         <f>_xll.qlRateHelperLatestDate($C127,Trigger)</f>
-        <v>51057</v>
+        <v>51060</v>
       </c>
       <c r="O127" s="201"/>
     </row>
@@ -9774,7 +9731,7 @@
       </c>
       <c r="C128" s="116" t="str">
         <f>Swaps!K71</f>
-        <v>obj_00555#0003</v>
+        <v>obj_00521#0001</v>
       </c>
       <c r="D128" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C128)</f>
@@ -9782,7 +9739,7 @@
       </c>
       <c r="E128" s="117">
         <f>_xll.qlRateHelperQuoteValue($C128,Trigger)</f>
-        <v>2.979997165E-2</v>
+        <v>2.988245812E-2</v>
       </c>
       <c r="F128" s="117">
         <f>_xll.qlSwapRateHelperSpread($C128,Trigger)</f>
@@ -9800,7 +9757,7 @@
       </c>
       <c r="J128" s="118">
         <f>_xll.qlRateHelperEarliestDate($C128,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K128" s="119">
         <f>_xll.qlRateHelperLatestDate($C128,Trigger)</f>
@@ -9816,7 +9773,7 @@
       </c>
       <c r="C129" s="116" t="str">
         <f>Swaps!K72</f>
-        <v>obj_00561#0003</v>
+        <v>obj_0053c#0001</v>
       </c>
       <c r="D129" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C129)</f>
@@ -9824,7 +9781,7 @@
       </c>
       <c r="E129" s="117">
         <f>_xll.qlRateHelperQuoteValue($C129,Trigger)</f>
-        <v>2.988726261E-2</v>
+        <v>2.997374086E-2</v>
       </c>
       <c r="F129" s="117">
         <f>_xll.qlSwapRateHelperSpread($C129,Trigger)</f>
@@ -9842,7 +9799,7 @@
       </c>
       <c r="J129" s="118">
         <f>_xll.qlRateHelperEarliestDate($C129,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K129" s="119">
         <f>_xll.qlRateHelperLatestDate($C129,Trigger)</f>
@@ -9858,7 +9815,7 @@
       </c>
       <c r="C130" s="116" t="str">
         <f>Swaps!K73</f>
-        <v>obj_00574#0003</v>
+        <v>obj_0056a#0001</v>
       </c>
       <c r="D130" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C130)</f>
@@ -9866,7 +9823,7 @@
       </c>
       <c r="E130" s="117">
         <f>_xll.qlRateHelperQuoteValue($C130,Trigger)</f>
-        <v>2.9968450600000002E-2</v>
+        <v>3.0055355239999998E-2</v>
       </c>
       <c r="F130" s="117">
         <f>_xll.qlSwapRateHelperSpread($C130,Trigger)</f>
@@ -9884,11 +9841,11 @@
       </c>
       <c r="J130" s="118">
         <f>_xll.qlRateHelperEarliestDate($C130,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K130" s="119">
         <f>_xll.qlRateHelperLatestDate($C130,Trigger)</f>
-        <v>52153</v>
+        <v>52154</v>
       </c>
       <c r="O130" s="201"/>
     </row>
@@ -9900,7 +9857,7 @@
       </c>
       <c r="C131" s="116" t="str">
         <f>Swaps!K74</f>
-        <v>obj_00559#0003</v>
+        <v>obj_00508#0001</v>
       </c>
       <c r="D131" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C131)</f>
@@ -9908,7 +9865,7 @@
       </c>
       <c r="E131" s="117">
         <f>_xll.qlRateHelperQuoteValue($C131,Trigger)</f>
-        <v>3.0038192330000001E-2</v>
+        <v>3.012728756E-2</v>
       </c>
       <c r="F131" s="117">
         <f>_xll.qlSwapRateHelperSpread($C131,Trigger)</f>
@@ -9926,11 +9883,11 @@
       </c>
       <c r="J131" s="118">
         <f>_xll.qlRateHelperEarliestDate($C131,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K131" s="119">
         <f>_xll.qlRateHelperLatestDate($C131,Trigger)</f>
-        <v>52518</v>
+        <v>52519</v>
       </c>
       <c r="O131" s="201"/>
     </row>
@@ -9942,7 +9899,7 @@
       </c>
       <c r="C132" s="116" t="str">
         <f>Swaps!K75</f>
-        <v>obj_0056a#0003</v>
+        <v>obj_00510#0001</v>
       </c>
       <c r="D132" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C132)</f>
@@ -9950,7 +9907,7 @@
       </c>
       <c r="E132" s="117">
         <f>_xll.qlRateHelperQuoteValue($C132,Trigger)</f>
-        <v>3.0099117780000004E-2</v>
+        <v>3.0190000000000002E-2</v>
       </c>
       <c r="F132" s="117">
         <f>_xll.qlSwapRateHelperSpread($C132,Trigger)</f>
@@ -9968,11 +9925,11 @@
       </c>
       <c r="J132" s="118">
         <f>_xll.qlRateHelperEarliestDate($C132,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K132" s="119">
         <f>_xll.qlRateHelperLatestDate($C132,Trigger)</f>
-        <v>52884</v>
+        <v>52887</v>
       </c>
       <c r="O132" s="201"/>
     </row>
@@ -9984,7 +9941,7 @@
       </c>
       <c r="C133" s="116" t="str">
         <f>Swaps!K76</f>
-        <v>obj_00567#0003</v>
+        <v>obj_004f9#0001</v>
       </c>
       <c r="D133" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C133)</f>
@@ -10010,11 +9967,11 @@
       </c>
       <c r="J133" s="118">
         <f>_xll.qlRateHelperEarliestDate($C133,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K133" s="119">
         <f>_xll.qlRateHelperLatestDate($C133,Trigger)</f>
-        <v>54710</v>
+        <v>54711</v>
       </c>
       <c r="O133" s="201"/>
     </row>
@@ -10026,7 +9983,7 @@
       </c>
       <c r="C134" s="116" t="str">
         <f>Swaps!K77</f>
-        <v>obj_00573#0003</v>
+        <v>obj_0056d#0001</v>
       </c>
       <c r="D134" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C134)</f>
@@ -10034,7 +9991,7 @@
       </c>
       <c r="E134" s="117">
         <f>_xll.qlRateHelperQuoteValue($C134,Trigger)</f>
-        <v>3.030925093E-2</v>
+        <v>3.04E-2</v>
       </c>
       <c r="F134" s="117">
         <f>_xll.qlSwapRateHelperSpread($C134,Trigger)</f>
@@ -10052,11 +10009,11 @@
       </c>
       <c r="J134" s="118">
         <f>_xll.qlRateHelperEarliestDate($C134,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K134" s="119">
         <f>_xll.qlRateHelperLatestDate($C134,Trigger)</f>
-        <v>56536</v>
+        <v>56537</v>
       </c>
       <c r="O134" s="201"/>
     </row>
@@ -10068,7 +10025,7 @@
       </c>
       <c r="C135" s="116" t="str">
         <f>Swaps!K78</f>
-        <v>obj_00556#0003</v>
+        <v>obj_00528#0001</v>
       </c>
       <c r="D135" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C135)</f>
@@ -10076,7 +10033,7 @@
       </c>
       <c r="E135" s="117">
         <f>_xll.qlRateHelperQuoteValue($C135,Trigger)</f>
-        <v>3.0099328970000002E-2</v>
+        <v>3.0190000000000002E-2</v>
       </c>
       <c r="F135" s="117">
         <f>_xll.qlSwapRateHelperSpread($C135,Trigger)</f>
@@ -10094,11 +10051,11 @@
       </c>
       <c r="J135" s="118">
         <f>_xll.qlRateHelperEarliestDate($C135,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K135" s="119">
         <f>_xll.qlRateHelperLatestDate($C135,Trigger)</f>
-        <v>60189</v>
+        <v>60190</v>
       </c>
       <c r="O135" s="201"/>
     </row>
@@ -10110,7 +10067,7 @@
       </c>
       <c r="C136" s="121" t="str">
         <f>Swaps!K79</f>
-        <v>obj_00571#0003</v>
+        <v>obj_00509#0001</v>
       </c>
       <c r="D136" s="121" t="str">
         <f>_xll.qlRateHelperQuoteName(C136)</f>
@@ -10118,7 +10075,7 @@
       </c>
       <c r="E136" s="122">
         <f>_xll.qlRateHelperQuoteValue($C136,Trigger)</f>
-        <v>2.9908861389999999E-2</v>
+        <v>3.000045673E-2</v>
       </c>
       <c r="F136" s="122">
         <f>_xll.qlSwapRateHelperSpread($C136,Trigger)</f>
@@ -10136,7 +10093,7 @@
       </c>
       <c r="J136" s="124">
         <f>_xll.qlRateHelperEarliestDate($C136,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K136" s="125">
         <f>_xll.qlRateHelperLatestDate($C136,Trigger)</f>
@@ -10156,7 +10113,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -10206,7 +10163,7 @@
       </c>
       <c r="J1" s="72">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>2.2305487400137241E-3</v>
+        <v>2.3319146478933696E-3</v>
       </c>
       <c r="O1" s="180"/>
     </row>
@@ -10219,7 +10176,7 @@
       </c>
       <c r="D2" s="75" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00586</v>
+        <v>obj_00585</v>
       </c>
       <c r="E2" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -10227,7 +10184,7 @@
       </c>
       <c r="F2" s="76">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>2.2000000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="G2" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -10235,14 +10192,14 @@
       </c>
       <c r="H2" s="86">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I2" s="87">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="J2" s="72">
-        <v>2.2305487400137241E-3</v>
+        <v>2.3319146478933696E-3</v>
       </c>
       <c r="M2" s="186"/>
       <c r="O2" s="186"/>
@@ -10266,7 +10223,7 @@
       </c>
       <c r="F3" s="76">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>2.2000000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="G3" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -10274,14 +10231,14 @@
       </c>
       <c r="H3" s="86">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I3" s="87">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="J3" s="72">
-        <v>2.2305323829247825E-3</v>
+        <v>2.3319191173535123E-3</v>
       </c>
       <c r="M3" s="186"/>
       <c r="O3" s="186"/>
@@ -10297,7 +10254,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="75" t="str">
-        <v>obj_00587</v>
+        <v>obj_00586</v>
       </c>
       <c r="E4" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -10313,14 +10270,14 @@
       </c>
       <c r="H4" s="86">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I4" s="87">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41927</v>
+        <v>41928</v>
       </c>
       <c r="J4" s="72">
-        <v>2.247433151632938E-3</v>
+        <v>2.3319220969928952E-3</v>
       </c>
       <c r="M4" s="186"/>
       <c r="V4" s="130"/>
@@ -10343,7 +10300,7 @@
       </c>
       <c r="F5" s="76">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>1.173E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G5" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -10351,14 +10308,14 @@
       </c>
       <c r="H5" s="86">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I5" s="87">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41932</v>
+        <v>41933</v>
       </c>
       <c r="J5" s="72">
-        <v>1.5679175106157906E-3</v>
+        <v>1.6222023544260025E-3</v>
       </c>
       <c r="M5" s="186"/>
       <c r="V5" s="130"/>
@@ -10374,7 +10331,7 @@
         <v/>
       </c>
       <c r="D6" s="75" t="str">
-        <v>obj_00590</v>
+        <v>obj_0058e</v>
       </c>
       <c r="E6" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -10382,7 +10339,7 @@
       </c>
       <c r="F6" s="76">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>1.2736249999999998E-3</v>
+        <v>1.2880384599999999E-3</v>
       </c>
       <c r="G6" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -10390,14 +10347,14 @@
       </c>
       <c r="H6" s="86">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I6" s="87">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41940</v>
+        <v>41941</v>
       </c>
       <c r="J6" s="72">
-        <v>1.5384533434061386E-3</v>
+        <v>1.5759014770433228E-3</v>
       </c>
       <c r="M6" s="186"/>
       <c r="V6" s="130"/>
@@ -10414,7 +10371,7 @@
         <v/>
       </c>
       <c r="D7" s="75" t="str">
-        <v>obj_00589</v>
+        <v>obj_0058f</v>
       </c>
       <c r="E7" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -10422,7 +10379,7 @@
       </c>
       <c r="F7" s="76">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1.3742499999999998E-3</v>
+        <v>1.37607692E-3</v>
       </c>
       <c r="G7" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -10430,14 +10387,14 @@
       </c>
       <c r="H7" s="86">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I7" s="87">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41947</v>
+        <v>41948</v>
       </c>
       <c r="J7" s="72">
-        <v>1.55429084945384E-3</v>
+        <v>1.5752842618961406E-3</v>
       </c>
       <c r="M7" s="186"/>
       <c r="V7" s="130"/>
@@ -10446,7 +10403,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D8" s="75" t="str">
-        <v>obj_00583</v>
+        <v>obj_00588</v>
       </c>
       <c r="E8" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -10454,7 +10411,7 @@
       </c>
       <c r="F8" s="76">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>1.5179999999999998E-3</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="G8" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -10462,14 +10419,14 @@
       </c>
       <c r="H8" s="86">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I8" s="87">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="J8" s="72">
-        <v>1.6180174610297708E-3</v>
+        <v>1.6376846218813361E-3</v>
       </c>
       <c r="M8" s="186"/>
       <c r="O8" s="186"/>
@@ -10479,7 +10436,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D9" s="75" t="str">
-        <v>obj_00585</v>
+        <v>obj_00584</v>
       </c>
       <c r="E9" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -10487,7 +10444,7 @@
       </c>
       <c r="F9" s="76">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>1.9599999999999999E-3</v>
+        <v>1.954E-3</v>
       </c>
       <c r="G9" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -10495,14 +10452,14 @@
       </c>
       <c r="H9" s="86">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I9" s="87">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
         <v>41988</v>
       </c>
       <c r="J9" s="72">
-        <v>2.0014280575333747E-3</v>
+        <v>2.0020849503500429E-3</v>
       </c>
       <c r="M9" s="186"/>
       <c r="O9" s="186"/>
@@ -10512,7 +10469,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D10" s="75" t="str">
-        <v>obj_00588</v>
+        <v>obj_00587</v>
       </c>
       <c r="E10" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -10528,14 +10485,14 @@
       </c>
       <c r="H10" s="86">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I10" s="87">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42017</v>
+        <v>42018</v>
       </c>
       <c r="J10" s="72">
-        <v>2.318322927738317E-3</v>
+        <v>2.3225470183925378E-3</v>
       </c>
       <c r="M10" s="186"/>
       <c r="O10" s="186"/>
@@ -10553,7 +10510,7 @@
       </c>
       <c r="F11" s="76">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>2.6500777799999997E-3</v>
+        <v>2.6221E-3</v>
       </c>
       <c r="G11" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -10561,14 +10518,14 @@
       </c>
       <c r="H11" s="86">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I11" s="87">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
         <v>42052</v>
       </c>
       <c r="J11" s="72">
-        <v>2.6682686209559664E-3</v>
+        <v>2.6447935851811443E-3</v>
       </c>
       <c r="M11" s="186"/>
       <c r="O11" s="186"/>
@@ -10578,7 +10535,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D12" s="75" t="str">
-        <v>obj_0058e</v>
+        <v>obj_0058c</v>
       </c>
       <c r="E12" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -10586,7 +10543,7 @@
       </c>
       <c r="F12" s="76">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>2.9352277799999998E-3</v>
+        <v>2.8930000000000002E-3</v>
       </c>
       <c r="G12" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10594,14 +10551,14 @@
       </c>
       <c r="H12" s="86">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I12" s="87">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
         <v>42079</v>
       </c>
       <c r="J12" s="72">
-        <v>2.9506082489206206E-3</v>
+        <v>2.9122991411430956E-3</v>
       </c>
       <c r="M12" s="186"/>
       <c r="O12" s="186"/>
@@ -10611,15 +10568,15 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D13" s="75" t="str">
-        <v>obj_00584</v>
+        <v>obj_00580</v>
       </c>
       <c r="E13" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
-        <v>USD6MD_Quote</v>
+        <v>USD_STUB_Quote</v>
       </c>
       <c r="F13" s="76">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>3.2415E-3</v>
+        <v>3.9897622999999997E-3</v>
       </c>
       <c r="G13" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10627,14 +10584,14 @@
       </c>
       <c r="H13" s="86">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41925</v>
+        <v>41927</v>
       </c>
       <c r="I13" s="87">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42107</v>
+        <v>42095</v>
       </c>
       <c r="J13" s="72">
-        <v>3.2611793727169462E-3</v>
+        <v>3.9920071179808279E-3</v>
       </c>
       <c r="M13" s="186"/>
       <c r="O13" s="186"/>
@@ -10644,15 +10601,15 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D14" s="75" t="str">
-        <v>obj_0058a</v>
+        <v>obj_00583</v>
       </c>
       <c r="E14" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
-        <v>USD7MD_Mx_Quote</v>
+        <v>USD6MD_Quote</v>
       </c>
       <c r="F14" s="76">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>3.6401065600000001E-3</v>
+        <v>3.1940000000000002E-3</v>
       </c>
       <c r="G14" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10664,10 +10621,10 @@
       </c>
       <c r="I14" s="87">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42138</v>
+        <v>42108</v>
       </c>
       <c r="J14" s="72">
-        <v>3.6531609909362557E-3</v>
+        <v>3.2163120538548019E-3</v>
       </c>
       <c r="M14" s="186"/>
       <c r="O14" s="186"/>
@@ -10677,15 +10634,15 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D15" s="75" t="str">
-        <v>obj_0058f</v>
+        <v>obj_0058b</v>
       </c>
       <c r="E15" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
-        <v>USD8MD_Mx_Quote</v>
+        <v>USD7MD_Mx_Quote</v>
       </c>
       <c r="F15" s="76">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>4.0652868900000003E-3</v>
+        <v>3.5729344299999998E-3</v>
       </c>
       <c r="G15" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10693,14 +10650,14 @@
       </c>
       <c r="H15" s="86">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I15" s="87">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42170</v>
+        <v>42139</v>
       </c>
       <c r="J15" s="72">
-        <v>4.07821873814524E-3</v>
+        <v>3.5891022679084427E-3</v>
       </c>
       <c r="M15" s="186"/>
       <c r="O15" s="186"/>
@@ -10710,15 +10667,15 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="75" t="str">
-        <v>obj_00580</v>
+        <v>obj_00590</v>
       </c>
       <c r="E16" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
-        <v>USD_Stub</v>
+        <v>USD8MD_Mx_Quote</v>
       </c>
       <c r="F16" s="76">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>4.0918606600000001E-3</v>
+        <v>3.9644999999999993E-3</v>
       </c>
       <c r="G16" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10726,14 +10683,14 @@
       </c>
       <c r="H16" s="86">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I16" s="87">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42172</v>
+        <v>42170</v>
       </c>
       <c r="J16" s="72">
-        <v>4.1048077309492684E-3</v>
+        <v>3.9802769969267682E-3</v>
       </c>
       <c r="M16" s="186"/>
       <c r="V16" s="130"/>
@@ -10742,30 +10699,30 @@
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D17" s="75" t="str">
-        <v>obj_005dd</v>
+        <v>obj_0058a</v>
       </c>
       <c r="E17" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
-        <v>USDFUT3MM5_Quote</v>
+        <v>USD9MD_Mx_Quote</v>
       </c>
       <c r="F17" s="76">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>3.9260000000000614E-3</v>
-      </c>
-      <c r="G17" s="76">
+        <v>4.3434344300000002E-3</v>
+      </c>
+      <c r="G17" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>4.8999999999999998E-5</v>
+        <v>--</v>
       </c>
       <c r="H17" s="86">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>42172</v>
+        <v>41927</v>
       </c>
       <c r="I17" s="87">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42264</v>
+        <v>42200</v>
       </c>
       <c r="J17" s="72">
-        <v>4.0709379250420449E-3</v>
+        <v>4.3593901368966575E-3</v>
       </c>
       <c r="M17" s="186"/>
       <c r="O17" s="186"/>
@@ -10776,30 +10733,30 @@
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D18" s="75" t="str">
-        <v>obj_005bf</v>
+        <v>obj_005de</v>
       </c>
       <c r="E18" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
-        <v>USDFUT3MU5_Quote</v>
+        <v>USDFUT3MM5_Quote</v>
       </c>
       <c r="F18" s="76">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>6.045999999999936E-3</v>
+        <v>4.1760000000000339E-3</v>
       </c>
       <c r="G18" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>7.9000000000000009E-5</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="H18" s="86">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>42263</v>
+        <v>42172</v>
       </c>
       <c r="I18" s="87">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42354</v>
+        <v>42264</v>
       </c>
       <c r="J18" s="72">
-        <v>4.5029753381082239E-3</v>
+        <v>4.0663979450460104E-3</v>
       </c>
       <c r="M18" s="186"/>
       <c r="O18" s="186"/>
@@ -10810,30 +10767,30 @@
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D19" s="75" t="str">
-        <v>obj_005bd</v>
+        <v>obj_005d3</v>
       </c>
       <c r="E19" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
-        <v>USDFUT3MZ5_Quote</v>
+        <v>USDFUT3MU5_Quote</v>
       </c>
       <c r="F19" s="76">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>8.508999999999994E-3</v>
+        <v>6.346000000000014E-3</v>
       </c>
       <c r="G19" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>1.1599999999999999E-4</v>
+        <v>7.9000000000000009E-5</v>
       </c>
       <c r="H19" s="86">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42354</v>
+        <v>42263</v>
       </c>
       <c r="I19" s="87">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42445</v>
+        <v>42354</v>
       </c>
       <c r="J19" s="72">
-        <v>5.2175928605007376E-3</v>
+        <v>4.5676859376163051E-3</v>
       </c>
       <c r="M19" s="186"/>
       <c r="O19" s="186"/>
@@ -10844,30 +10801,30 @@
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D20" s="75" t="str">
-        <v>obj_005c2</v>
+        <v>obj_005ae</v>
       </c>
       <c r="E20" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
-        <v>USDFUT3MH6_Quote</v>
+        <v>USDFUT3MZ5_Quote</v>
       </c>
       <c r="F20" s="76">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.0965999999999941E-2</v>
+        <v>8.8590000000000665E-3</v>
       </c>
       <c r="G20" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>1.5900000000000002E-4</v>
+        <v>1.1599999999999999E-4</v>
       </c>
       <c r="H20" s="86">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42445</v>
+        <v>42354</v>
       </c>
       <c r="I20" s="87">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42537</v>
+        <v>42445</v>
       </c>
       <c r="J20" s="72">
-        <v>6.0965457233443376E-3</v>
+        <v>5.3340196811975165E-3</v>
       </c>
       <c r="M20" s="186"/>
       <c r="O20" s="186"/>
@@ -10878,30 +10835,30 @@
     </row>
     <row r="21" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D21" s="75" t="str">
-        <v>obj_005ac</v>
+        <v>obj_00598</v>
       </c>
       <c r="E21" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
-        <v>USDFUT3MM6_Quote</v>
+        <v>USDFUT3MH6_Quote</v>
       </c>
       <c r="F21" s="76">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.3516999999999987E-2</v>
+        <v>1.1416000000000003E-2</v>
       </c>
       <c r="G21" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
-        <v>2.0799999999999999E-4</v>
+        <v>1.5900000000000002E-4</v>
       </c>
       <c r="H21" s="86">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42536</v>
+        <v>42445</v>
       </c>
       <c r="I21" s="87">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42628</v>
+        <v>42537</v>
       </c>
       <c r="J21" s="72">
-        <v>7.0751952686003644E-3</v>
+        <v>6.2650424343018091E-3</v>
       </c>
       <c r="M21" s="186"/>
       <c r="O21" s="186"/>
@@ -10912,30 +10869,30 @@
     </row>
     <row r="22" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D22" s="75" t="str">
-        <v>obj_005a8</v>
+        <v>obj_00595</v>
       </c>
       <c r="E22" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
-        <v>USDFUT3MU6_Quote</v>
+        <v>USDFUT3MM6_Quote</v>
       </c>
       <c r="F22" s="76">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.5959000000000046E-2</v>
+        <v>1.3967000000000049E-2</v>
       </c>
       <c r="G22" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
-        <v>2.6599999999999996E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="H22" s="86">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>42634</v>
+        <v>42536</v>
       </c>
       <c r="I22" s="87">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>42725</v>
+        <v>42628</v>
       </c>
       <c r="J22" s="72">
-        <v>8.1617040031342937E-3</v>
+        <v>7.2818890084443829E-3</v>
       </c>
       <c r="M22" s="186"/>
       <c r="O22" s="186"/>
@@ -10946,30 +10903,30 @@
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D23" s="75" t="str">
-        <v>obj_005c0</v>
+        <v>obj_005ac</v>
       </c>
       <c r="E23" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
-        <v>USDAM3L3Y_Quote</v>
+        <v>USDFUT3MU6_Quote</v>
       </c>
       <c r="F23" s="76">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.0939999999999998E-2</v>
+        <v>1.6458999999999991E-2</v>
       </c>
       <c r="G23" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
-        <v>0</v>
+        <v>2.6599999999999996E-4</v>
       </c>
       <c r="H23" s="86">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41926</v>
+        <v>42634</v>
       </c>
       <c r="I23" s="87">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>43024</v>
+        <v>42725</v>
       </c>
       <c r="J23" s="72">
-        <v>1.103657978340857E-2</v>
+        <v>8.4054931341847675E-3</v>
       </c>
       <c r="M23" s="186"/>
       <c r="O23" s="186"/>
@@ -10979,15 +10936,15 @@
     </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D24" s="75" t="str">
-        <v>obj_005d4</v>
+        <v>obj_005d7</v>
       </c>
       <c r="E24" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
-        <v>USDAM3L4Y_Quote</v>
+        <v>USDAM3L3Y_Quote</v>
       </c>
       <c r="F24" s="76">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.4329999999999999E-2</v>
+        <v>1.129E-2</v>
       </c>
       <c r="G24" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10995,14 +10952,14 @@
       </c>
       <c r="H24" s="86">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I24" s="87">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>43388</v>
+        <v>43024</v>
       </c>
       <c r="J24" s="72">
-        <v>1.4504839939908783E-2</v>
+        <v>1.1394883208201584E-2</v>
       </c>
       <c r="M24" s="186"/>
       <c r="O24" s="186"/>
@@ -11012,15 +10969,15 @@
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D25" s="75" t="str">
-        <v>obj_005c6</v>
+        <v>obj_005b4</v>
       </c>
       <c r="E25" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
-        <v>USDAM3L5Y_Quote</v>
+        <v>USDAM3L4Y_Quote</v>
       </c>
       <c r="F25" s="76">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>1.6920000000000001E-2</v>
+        <v>1.468E-2</v>
       </c>
       <c r="G25" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -11028,14 +10985,14 @@
       </c>
       <c r="H25" s="86">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I25" s="87">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>43753</v>
+        <v>43388</v>
       </c>
       <c r="J25" s="72">
-        <v>1.7176880939239463E-2</v>
+        <v>1.4862461219498694E-2</v>
       </c>
       <c r="M25" s="186"/>
       <c r="O25" s="186"/>
@@ -11045,15 +11002,15 @@
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D26" s="75" t="str">
-        <v>obj_005c4</v>
+        <v>obj_005b8</v>
       </c>
       <c r="E26" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
-        <v>USDAM3L6Y_Quote</v>
+        <v>USDAM3L5Y_Quote</v>
       </c>
       <c r="F26" s="76">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>1.8969999999999997E-2</v>
+        <v>1.7229999999999999E-2</v>
       </c>
       <c r="G26" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -11061,14 +11018,14 @@
       </c>
       <c r="H26" s="86">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I26" s="87">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>44118</v>
+        <v>43753</v>
       </c>
       <c r="J26" s="72">
-        <v>1.9310277038479647E-2</v>
+        <v>1.7492496399032331E-2</v>
       </c>
       <c r="M26" s="186"/>
       <c r="O26" s="186"/>
@@ -11078,15 +11035,15 @@
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D27" s="75" t="str">
-        <v>obj_00593</v>
+        <v>obj_005c7</v>
       </c>
       <c r="E27" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
-        <v>USDAM3L7Y_Quote</v>
+        <v>USDAM3L6Y_Quote</v>
       </c>
       <c r="F27" s="76">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.0649999999999998E-2</v>
+        <v>1.9209999999999998E-2</v>
       </c>
       <c r="G27" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -11094,14 +11051,14 @@
       </c>
       <c r="H27" s="86">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I27" s="87">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>44483</v>
+        <v>44119</v>
       </c>
       <c r="J27" s="72">
-        <v>2.1074706063607836E-2</v>
+        <v>1.9551499105783972E-2</v>
       </c>
       <c r="M27" s="186"/>
       <c r="O27" s="186"/>
@@ -11111,15 +11068,15 @@
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D28" s="75" t="str">
-        <v>obj_005a5</v>
+        <v>obj_005ba</v>
       </c>
       <c r="E28" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
-        <v>USDAM3L8Y_Quote</v>
+        <v>USDAM3L7Y_Quote</v>
       </c>
       <c r="F28" s="76">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.2030000000000004E-2</v>
+        <v>2.0840000000000001E-2</v>
       </c>
       <c r="G28" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -11127,14 +11084,14 @@
       </c>
       <c r="H28" s="86">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I28" s="87">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>44848</v>
+        <v>44484</v>
       </c>
       <c r="J28" s="72">
-        <v>2.2536946511965823E-2</v>
+        <v>2.1262346638725234E-2</v>
       </c>
       <c r="M28" s="186"/>
       <c r="O28" s="186"/>
@@ -11144,15 +11101,15 @@
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D29" s="75" t="str">
-        <v>obj_0059c</v>
+        <v>obj_00594</v>
       </c>
       <c r="E29" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
-        <v>USDAM3L9Y_Quote</v>
+        <v>USDAM3L8Y_Quote</v>
       </c>
       <c r="F29" s="76">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.3209999999999998E-2</v>
+        <v>2.2170000000000002E-2</v>
       </c>
       <c r="G29" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -11160,14 +11117,14 @@
       </c>
       <c r="H29" s="86">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I29" s="87">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>45215</v>
+        <v>44851</v>
       </c>
       <c r="J29" s="72">
-        <v>2.3799207969933622E-2</v>
+        <v>2.2668827187138297E-2</v>
       </c>
       <c r="M29" s="186"/>
       <c r="O29" s="186"/>
@@ -11176,15 +11133,15 @@
     </row>
     <row r="30" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D30" s="75" t="str">
-        <v>obj_005c8</v>
+        <v>obj_005bf</v>
       </c>
       <c r="E30" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
-        <v>USDAM3L10Y_Quote</v>
+        <v>USDAM3L9Y_Quote</v>
       </c>
       <c r="F30" s="76">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.4210000000000002E-2</v>
+        <v>2.3310000000000001E-2</v>
       </c>
       <c r="G30" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -11192,14 +11149,14 @@
       </c>
       <c r="H30" s="86">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I30" s="87">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>45580</v>
+        <v>45215</v>
       </c>
       <c r="J30" s="72">
-        <v>2.4879171238792609E-2</v>
+        <v>2.3887997551672955E-2</v>
       </c>
       <c r="M30" s="186"/>
       <c r="O30" s="186"/>
@@ -11208,15 +11165,15 @@
     </row>
     <row r="31" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D31" s="75" t="str">
-        <v>obj_00529</v>
+        <v>obj_005c1</v>
       </c>
       <c r="E31" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
-        <v>USD_CURVE_3M_11Y_Quote</v>
+        <v>USDAM3L10Y_Quote</v>
       </c>
       <c r="F31" s="76">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.5063208910000002E-2</v>
+        <v>2.427E-2</v>
       </c>
       <c r="G31" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -11224,14 +11181,14 @@
       </c>
       <c r="H31" s="86">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I31" s="87">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>45944</v>
+        <v>45580</v>
       </c>
       <c r="J31" s="72">
-        <v>2.5808884103247342E-2</v>
+        <v>2.49231612741623E-2</v>
       </c>
       <c r="M31" s="186"/>
       <c r="O31" s="186"/>
@@ -11240,15 +11197,15 @@
     </row>
     <row r="32" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D32" s="75" t="str">
-        <v>obj_005a6</v>
+        <v>obj_0055f</v>
       </c>
       <c r="E32" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
-        <v>USDAM3L12Y_Quote</v>
+        <v>USD_CURVE_3M_11Y_Quote</v>
       </c>
       <c r="F32" s="76">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.58E-2</v>
+        <v>2.5114325999999999E-2</v>
       </c>
       <c r="G32" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -11256,14 +11213,14 @@
       </c>
       <c r="H32" s="86">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I32" s="87">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>46309</v>
+        <v>45945</v>
       </c>
       <c r="J32" s="72">
-        <v>2.6618482342726089E-2</v>
+        <v>2.5843173018115544E-2</v>
       </c>
       <c r="M32" s="186"/>
       <c r="O32" s="186"/>
@@ -11272,15 +11229,15 @@
     </row>
     <row r="33" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D33" s="75" t="str">
-        <v>obj_0056e</v>
+        <v>obj_0059f</v>
       </c>
       <c r="E33" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
-        <v>USD_CURVE_3M_13Y_Quote</v>
+        <v>USDAM3L12Y_Quote</v>
       </c>
       <c r="F33" s="76">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.6425421590000001E-2</v>
+        <v>2.5849999999999998E-2</v>
       </c>
       <c r="G33" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -11288,14 +11245,14 @@
       </c>
       <c r="H33" s="86">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I33" s="87">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>46674</v>
+        <v>46310</v>
       </c>
       <c r="J33" s="72">
-        <v>2.731001962863093E-2</v>
+        <v>2.6652353468075627E-2</v>
       </c>
       <c r="M33" s="186"/>
       <c r="O33" s="186"/>
@@ -11304,15 +11261,15 @@
     </row>
     <row r="34" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D34" s="75" t="str">
-        <v>obj_0056d</v>
+        <v>obj_00529</v>
       </c>
       <c r="E34" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
-        <v>USD_CURVE_3M_14Y_Quote</v>
+        <v>USD_CURVE_3M_13Y_Quote</v>
       </c>
       <c r="F34" s="76">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.696725275E-2</v>
+        <v>2.647976581E-2</v>
       </c>
       <c r="G34" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -11320,14 +11277,14 @@
       </c>
       <c r="H34" s="86">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I34" s="87">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>47042</v>
+        <v>46675</v>
       </c>
       <c r="J34" s="72">
-        <v>2.7912348995181826E-2</v>
+        <v>2.7349988672926272E-2</v>
       </c>
       <c r="M34" s="186"/>
       <c r="O34" s="186"/>
@@ -11336,15 +11293,15 @@
     </row>
     <row r="35" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D35" s="75" t="str">
-        <v>obj_005b5</v>
+        <v>obj_004ee</v>
       </c>
       <c r="E35" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
-        <v>USDAM3L15Y_Quote</v>
+        <v>USD_CURVE_3M_14Y_Quote</v>
       </c>
       <c r="F35" s="76">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.7430000000000003E-2</v>
+        <v>2.702473046E-2</v>
       </c>
       <c r="G35" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -11352,14 +11309,14 @@
       </c>
       <c r="H35" s="86">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I35" s="87">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>47406</v>
+        <v>47042</v>
       </c>
       <c r="J35" s="72">
-        <v>2.8430120617272254E-2</v>
+        <v>2.7957369709993147E-2</v>
       </c>
       <c r="M35" s="186"/>
       <c r="O35" s="186"/>
@@ -11368,15 +11325,15 @@
     </row>
     <row r="36" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D36" s="75" t="str">
-        <v>obj_00562</v>
+        <v>obj_005c6</v>
       </c>
       <c r="E36" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
-        <v>USD_CURVE_3M_16Y_Quote</v>
+        <v>USDAM3L15Y_Quote</v>
       </c>
       <c r="F36" s="76">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.7823812140000001E-2</v>
+        <v>2.7489999999999997E-2</v>
       </c>
       <c r="G36" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -11384,14 +11341,14 @@
       </c>
       <c r="H36" s="86">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I36" s="87">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>47771</v>
+        <v>47406</v>
       </c>
       <c r="J36" s="72">
-        <v>2.8871310401757184E-2</v>
+        <v>2.8478936107062248E-2</v>
       </c>
       <c r="M36" s="186"/>
       <c r="O36" s="186"/>
@@ -11400,15 +11357,15 @@
     </row>
     <row r="37" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D37" s="75" t="str">
-        <v>obj_00557</v>
+        <v>obj_00543</v>
       </c>
       <c r="E37" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D37)</f>
-        <v>USD_CURVE_3M_17Y_Quote</v>
+        <v>USD_CURVE_3M_16Y_Quote</v>
       </c>
       <c r="F37" s="76">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>2.8173871699999999E-2</v>
+        <v>2.7893705229999999E-2</v>
       </c>
       <c r="G37" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -11416,14 +11373,14 @@
       </c>
       <c r="H37" s="86">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I37" s="87">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>48135</v>
+        <v>47771</v>
       </c>
       <c r="J37" s="72">
-        <v>2.9266397966194218E-2</v>
+        <v>2.8933382599358425E-2</v>
       </c>
       <c r="M37" s="186"/>
       <c r="O37" s="186"/>
@@ -11432,15 +11389,15 @@
     </row>
     <row r="38" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D38" s="75" t="str">
-        <v>obj_0055d</v>
+        <v>obj_0054b</v>
       </c>
       <c r="E38" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D38)</f>
-        <v>USD_CURVE_3M_18Y_Quote</v>
+        <v>USD_CURVE_3M_17Y_Quote</v>
       </c>
       <c r="F38" s="76">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>2.84747443E-2</v>
+        <v>2.824515297E-2</v>
       </c>
       <c r="G38" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -11448,14 +11405,14 @@
       </c>
       <c r="H38" s="86">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I38" s="87">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>48501</v>
+        <v>48136</v>
       </c>
       <c r="J38" s="72">
-        <v>2.9605457123241599E-2</v>
+        <v>2.9330513412179467E-2</v>
       </c>
       <c r="M38" s="186"/>
       <c r="O38" s="186"/>
@@ -11464,15 +11421,15 @@
     </row>
     <row r="39" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D39" s="75" t="str">
-        <v>obj_0055b</v>
+        <v>obj_004ed</v>
       </c>
       <c r="E39" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D39)</f>
-        <v>USD_CURVE_3M_19Y_Quote</v>
+        <v>USD_CURVE_3M_18Y_Quote</v>
       </c>
       <c r="F39" s="76">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>2.8734107999999998E-2</v>
+        <v>2.855049443E-2</v>
       </c>
       <c r="G39" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -11480,14 +11437,14 @@
       </c>
       <c r="H39" s="86">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I39" s="87">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>48866</v>
+        <v>48502</v>
       </c>
       <c r="J39" s="72">
-        <v>2.989744499512284E-2</v>
+        <v>2.9675968261956186E-2</v>
       </c>
       <c r="M39" s="186"/>
       <c r="O39" s="186"/>
@@ -11496,15 +11453,15 @@
     </row>
     <row r="40" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D40" s="75" t="str">
-        <v>obj_005d2</v>
+        <v>obj_00570</v>
       </c>
       <c r="E40" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D40)</f>
-        <v>USDAM3L20Y_Quote</v>
+        <v>USD_CURVE_3M_19Y_Quote</v>
       </c>
       <c r="F40" s="76">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>2.896E-2</v>
+        <v>2.8813265920000001E-2</v>
       </c>
       <c r="G40" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -11512,14 +11469,14 @@
       </c>
       <c r="H40" s="86">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I40" s="87">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>49233</v>
+        <v>48869</v>
       </c>
       <c r="J40" s="72">
-        <v>3.0150854397919785E-2</v>
+        <v>2.9972410775167154E-2</v>
       </c>
       <c r="M40" s="186"/>
       <c r="O40" s="186"/>
@@ -11528,15 +11485,15 @@
     </row>
     <row r="41" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D41" s="75" t="str">
-        <v>obj_00564</v>
+        <v>obj_005c8</v>
       </c>
       <c r="E41" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D41)</f>
-        <v>USD_CURVE_3M_21Y_Quote</v>
+        <v>USDAM3L20Y_Quote</v>
       </c>
       <c r="F41" s="76">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>2.9150121420000001E-2</v>
+        <v>2.904E-2</v>
       </c>
       <c r="G41" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -11544,14 +11501,14 @@
       </c>
       <c r="H41" s="86">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I41" s="87">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>49597</v>
+        <v>49233</v>
       </c>
       <c r="J41" s="72">
-        <v>3.0361967762830809E-2</v>
+        <v>3.0228007634548155E-2</v>
       </c>
       <c r="M41" s="186"/>
       <c r="O41" s="186"/>
@@ -11560,15 +11517,15 @@
     </row>
     <row r="42" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D42" s="75" t="str">
-        <v>obj_00570</v>
+        <v>obj_00518</v>
       </c>
       <c r="E42" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D42)</f>
-        <v>USD_CURVE_3M_22Y_Quote</v>
+        <v>USD_CURVE_3M_21Y_Quote</v>
       </c>
       <c r="F42" s="76">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>2.9315809659999997E-2</v>
+        <v>2.9231765850000001E-2</v>
       </c>
       <c r="G42" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -11576,14 +11533,14 @@
       </c>
       <c r="H42" s="86">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I42" s="87">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>49962</v>
+        <v>49597</v>
       </c>
       <c r="J42" s="72">
-        <v>3.0544445775407148E-2</v>
+        <v>3.0441671356918713E-2</v>
       </c>
       <c r="M42" s="186"/>
       <c r="O42" s="186"/>
@@ -11592,15 +11549,15 @@
     </row>
     <row r="43" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D43" s="75" t="str">
-        <v>obj_00560</v>
+        <v>obj_00502</v>
       </c>
       <c r="E43" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D43)</f>
-        <v>USD_CURVE_3M_23Y_Quote</v>
+        <v>USD_CURVE_3M_22Y_Quote</v>
       </c>
       <c r="F43" s="76">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>2.9460038769999999E-2</v>
+        <v>2.9397080820000001E-2</v>
       </c>
       <c r="G43" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -11608,14 +11565,14 @@
       </c>
       <c r="H43" s="86">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I43" s="87">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>50327</v>
+        <v>49963</v>
       </c>
       <c r="J43" s="72">
-        <v>3.0701677135236811E-2</v>
+        <v>3.0623594582881539E-2</v>
       </c>
       <c r="M43" s="186"/>
       <c r="O43" s="186"/>
@@ -11624,15 +11581,15 @@
     </row>
     <row r="44" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D44" s="75" t="str">
-        <v>obj_00569</v>
+        <v>obj_00553</v>
       </c>
       <c r="E44" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D44)</f>
-        <v>USD_CURVE_3M_24Y_Quote</v>
+        <v>USD_CURVE_3M_23Y_Quote</v>
       </c>
       <c r="F44" s="76">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>2.9586700490000003E-2</v>
+        <v>2.9540740520000001E-2</v>
       </c>
       <c r="G44" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -11640,14 +11597,14 @@
       </c>
       <c r="H44" s="86">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I44" s="87">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>50692</v>
+        <v>50328</v>
       </c>
       <c r="J44" s="72">
-        <v>3.0838358834722451E-2</v>
+        <v>3.0780183232162493E-2</v>
       </c>
       <c r="M44" s="186"/>
       <c r="O44" s="186"/>
@@ -11656,15 +11613,15 @@
     </row>
     <row r="45" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D45" s="75" t="str">
-        <v>obj_00592</v>
+        <v>obj_0055b</v>
       </c>
       <c r="E45" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D45)</f>
-        <v>USDAM3L25Y_Quote</v>
+        <v>USD_CURVE_3M_24Y_Quote</v>
       </c>
       <c r="F45" s="76">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>2.9699999999999997E-2</v>
+        <v>2.9667167040000001E-2</v>
       </c>
       <c r="G45" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -11672,14 +11629,14 @@
       </c>
       <c r="H45" s="86">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I45" s="87">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>51057</v>
+        <v>50693</v>
       </c>
       <c r="J45" s="72">
-        <v>3.0959958843046725E-2</v>
+        <v>3.0916700130489177E-2</v>
       </c>
       <c r="M45" s="186"/>
       <c r="O45" s="186"/>
@@ -11688,15 +11645,15 @@
     </row>
     <row r="46" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D46" s="75" t="str">
-        <v>obj_00555</v>
+        <v>obj_005d0</v>
       </c>
       <c r="E46" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D46)</f>
-        <v>USD_CURVE_3M_26Y_Quote</v>
+        <v>USDAM3L25Y_Quote</v>
       </c>
       <c r="F46" s="76">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>2.979997165E-2</v>
+        <v>2.9779999999999997E-2</v>
       </c>
       <c r="G46" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -11704,14 +11661,14 @@
       </c>
       <c r="H46" s="86">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I46" s="87">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>51424</v>
+        <v>51060</v>
       </c>
       <c r="J46" s="72">
-        <v>3.1065390614048088E-2</v>
+        <v>3.1037386662927335E-2</v>
       </c>
       <c r="M46" s="186"/>
       <c r="O46" s="186"/>
@@ -11720,15 +11677,15 @@
     </row>
     <row r="47" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D47" s="75" t="str">
-        <v>obj_00561</v>
+        <v>obj_00521</v>
       </c>
       <c r="E47" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D47)</f>
-        <v>USD_CURVE_3M_27Y_Quote</v>
+        <v>USD_CURVE_3M_26Y_Quote</v>
       </c>
       <c r="F47" s="76">
         <f>_xll.qlRateHelperRate($D47)</f>
-        <v>2.988726261E-2</v>
+        <v>2.988245812E-2</v>
       </c>
       <c r="G47" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
@@ -11736,14 +11693,14 @@
       </c>
       <c r="H47" s="86">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I47" s="87">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>51789</v>
+        <v>51424</v>
       </c>
       <c r="J47" s="72">
-        <v>3.1155682108812345E-2</v>
+        <v>3.1147454722330825E-2</v>
       </c>
       <c r="M47" s="186"/>
       <c r="O47" s="186"/>
@@ -11752,15 +11709,15 @@
     </row>
     <row r="48" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D48" s="75" t="str">
-        <v>obj_00574</v>
+        <v>obj_0053c</v>
       </c>
       <c r="E48" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D48)</f>
-        <v>USD_CURVE_3M_28Y_Quote</v>
+        <v>USD_CURVE_3M_27Y_Quote</v>
       </c>
       <c r="F48" s="76">
         <f>_xll.qlRateHelperRate($D48)</f>
-        <v>2.9968450600000002E-2</v>
+        <v>2.997374086E-2</v>
       </c>
       <c r="G48" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
@@ -11768,14 +11725,14 @@
       </c>
       <c r="H48" s="86">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I48" s="87">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>52153</v>
+        <v>51789</v>
       </c>
       <c r="J48" s="72">
-        <v>3.1240508885513475E-2</v>
+        <v>3.1244190336168143E-2</v>
       </c>
       <c r="M48" s="186"/>
       <c r="O48" s="186"/>
@@ -11784,15 +11741,15 @@
     </row>
     <row r="49" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D49" s="75" t="str">
-        <v>obj_00559</v>
+        <v>obj_0056a</v>
       </c>
       <c r="E49" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D49)</f>
-        <v>USD_CURVE_3M_29Y_Quote</v>
+        <v>USD_CURVE_3M_28Y_Quote</v>
       </c>
       <c r="F49" s="76">
         <f>_xll.qlRateHelperRate($D49)</f>
-        <v>3.0038192330000001E-2</v>
+        <v>3.0055355239999998E-2</v>
       </c>
       <c r="G49" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
@@ -11800,14 +11757,14 @@
       </c>
       <c r="H49" s="86">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I49" s="87">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>52518</v>
+        <v>52154</v>
       </c>
       <c r="J49" s="72">
-        <v>3.1310266587316969E-2</v>
+        <v>3.1329570185519989E-2</v>
       </c>
       <c r="M49" s="186"/>
       <c r="O49" s="186"/>
@@ -11816,15 +11773,15 @@
     </row>
     <row r="50" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D50" s="75" t="str">
-        <v>obj_005b3</v>
+        <v>obj_00508</v>
       </c>
       <c r="E50" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D50)</f>
-        <v>USDAM3L30Y_Quote</v>
+        <v>USD_CURVE_3M_29Y_Quote</v>
       </c>
       <c r="F50" s="76">
         <f>_xll.qlRateHelperRate($D50)</f>
-        <v>3.0099999999999998E-2</v>
+        <v>3.012728756E-2</v>
       </c>
       <c r="G50" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
@@ -11832,14 +11789,14 @@
       </c>
       <c r="H50" s="86">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I50" s="87">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>52884</v>
+        <v>52519</v>
       </c>
       <c r="J50" s="72">
-        <v>3.1370214085816521E-2</v>
+        <v>3.1402976265708968E-2</v>
       </c>
       <c r="M50" s="186"/>
       <c r="O50" s="186"/>
@@ -11848,15 +11805,15 @@
     </row>
     <row r="51" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D51" s="75" t="str">
-        <v>obj_005d1</v>
+        <v>obj_00596</v>
       </c>
       <c r="E51" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D51)</f>
-        <v>USDAM3L40Y_Quote</v>
+        <v>USDAM3L30Y_Quote</v>
       </c>
       <c r="F51" s="76">
         <f>_xll.qlRateHelperRate($D51)</f>
-        <v>3.0309999999999997E-2</v>
+        <v>3.0190000000000002E-2</v>
       </c>
       <c r="G51" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
@@ -11864,14 +11821,14 @@
       </c>
       <c r="H51" s="86">
         <f>_xll.qlRateHelperEarliestDate($D51)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I51" s="87">
         <f>_xll.qlRateHelperLatestDate($D51)</f>
-        <v>56536</v>
+        <v>52887</v>
       </c>
       <c r="J51" s="72">
-        <v>3.1408571111038452E-2</v>
+        <v>3.1464098942023795E-2</v>
       </c>
       <c r="M51" s="186"/>
       <c r="O51" s="186"/>
@@ -11880,15 +11837,15 @@
     </row>
     <row r="52" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D52" s="75" t="str">
-        <v>obj_005aa</v>
+        <v>obj_005a5</v>
       </c>
       <c r="E52" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D52)</f>
-        <v>USDAM3L50Y_Quote</v>
+        <v>USDAM3L40Y_Quote</v>
       </c>
       <c r="F52" s="76">
         <f>_xll.qlRateHelperRate($D52)</f>
-        <v>3.0099999999999998E-2</v>
+        <v>3.04E-2</v>
       </c>
       <c r="G52" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
@@ -11896,14 +11853,14 @@
       </c>
       <c r="H52" s="86">
         <f>_xll.qlRateHelperEarliestDate($D52)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I52" s="87">
         <f>_xll.qlRateHelperLatestDate($D52)</f>
-        <v>60189</v>
+        <v>56537</v>
       </c>
       <c r="J52" s="72">
-        <v>3.0738821341739327E-2</v>
+        <v>3.1502034337080084E-2</v>
       </c>
       <c r="M52" s="186"/>
       <c r="O52" s="186"/>
@@ -11912,15 +11869,15 @@
     </row>
     <row r="53" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D53" s="75" t="str">
-        <v>obj_00571</v>
+        <v>obj_005b6</v>
       </c>
       <c r="E53" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D53)</f>
-        <v>USD_CURVE_3M_60Y_Quote</v>
+        <v>USDAM3L50Y_Quote</v>
       </c>
       <c r="F53" s="76">
         <f>_xll.qlRateHelperRate($D53)</f>
-        <v>2.9908861389999999E-2</v>
+        <v>3.0190000000000002E-2</v>
       </c>
       <c r="G53" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
@@ -11928,14 +11885,14 @@
       </c>
       <c r="H53" s="86">
         <f>_xll.qlRateHelperEarliestDate($D53)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I53" s="87">
         <f>_xll.qlRateHelperLatestDate($D53)</f>
-        <v>63842</v>
+        <v>60190</v>
       </c>
       <c r="J53" s="72">
-        <v>3.0154526764370963E-2</v>
+        <v>3.0830238428433746E-2</v>
       </c>
       <c r="M53" s="186"/>
       <c r="O53" s="186"/>
@@ -11943,31 +11900,31 @@
       <c r="Y53" s="203"/>
     </row>
     <row r="54" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D54" s="75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E54" s="75" t="e">
+      <c r="D54" s="75" t="str">
+        <v>obj_00509</v>
+      </c>
+      <c r="E54" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F54" s="76" t="e">
+        <v>USD_CURVE_3M_60Y_Quote</v>
+      </c>
+      <c r="F54" s="76">
         <f>_xll.qlRateHelperRate($D54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G54" s="76" t="str">
+        <v>3.000045673E-2</v>
+      </c>
+      <c r="G54" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
-        <v>--</v>
-      </c>
-      <c r="H54" s="86" t="e">
+        <v>0</v>
+      </c>
+      <c r="H54" s="86">
         <f>_xll.qlRateHelperEarliestDate($D54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I54" s="87" t="e">
+        <v>41927</v>
+      </c>
+      <c r="I54" s="87">
         <f>_xll.qlRateHelperLatestDate($D54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J54" s="72" t="e">
-        <v>#N/A</v>
+        <v>63842</v>
+      </c>
+      <c r="J54" s="72">
+        <v>3.0247996184321488E-2</v>
       </c>
     </row>
     <row r="55" spans="4:25" x14ac:dyDescent="0.2">
@@ -14005,7 +13962,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14031,7 +13988,7 @@
     <col min="18" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63"/>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -14050,7 +14007,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="48"/>
     </row>
-    <row r="2" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
       <c r="B2" s="59"/>
       <c r="C2" s="59" t="s">
@@ -14077,32 +14034,8 @@
       <c r="J2" s="57"/>
       <c r="K2" s="56"/>
       <c r="L2" s="48"/>
-      <c r="N2" s="114" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" s="114" t="s">
-        <v>145</v>
-      </c>
-      <c r="P2" s="114" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q2" s="114" t="s">
-        <v>148</v>
-      </c>
-      <c r="R2" s="114" t="s">
-        <v>149</v>
-      </c>
-      <c r="S2" s="114" t="s">
-        <v>150</v>
-      </c>
-      <c r="T2" s="114" t="s">
-        <v>151</v>
-      </c>
-      <c r="U2" s="114" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
       <c r="B3" s="177" t="s">
         <v>103</v>
@@ -14132,46 +14065,15 @@
       </c>
       <c r="J3" s="174" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00586#0002</v>
+        <v>obj_00585#0001</v>
       </c>
       <c r="K3" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
         <v/>
       </c>
       <c r="L3" s="48"/>
-      <c r="N3" s="188" t="str">
-        <f>Futures!M3</f>
-        <v>M5</v>
-      </c>
-      <c r="O3" s="189">
-        <f>_xll.qlIMMdate(N3,,Trigger)</f>
-        <v>42172</v>
-      </c>
-      <c r="P3" s="189">
-        <f>_xll.qlRateHelperLatestDate(J21,Trigger)</f>
-        <v>42172</v>
-      </c>
-      <c r="Q3" s="188" t="s">
-        <v>153</v>
-      </c>
-      <c r="R3" s="188">
-        <f>_xll.RtGet("DTSIMI1",$Q$3,R2)/100</f>
-        <v>3.9918606599999998E-3</v>
-      </c>
-      <c r="S3" s="188">
-        <f>_xll.RtGet("DTSIMI1",$Q$3,S2)/100</f>
-        <v>4.1918606600000003E-3</v>
-      </c>
-      <c r="T3" s="188">
-        <f>AVERAGE(R3:S3)</f>
-        <v>4.0918606600000001E-3</v>
-      </c>
-      <c r="U3" s="188" t="e">
-        <f>_xll.qlSimpleQuoteSetValue(I21,T3,Trigger)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
       <c r="B4" s="52" t="s">
         <v>125</v>
@@ -14194,7 +14096,7 @@
       </c>
       <c r="H4" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,"1D",C4,Currency,Calendar,E4,F4,G4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00576#0002</v>
+        <v>obj_0057c#0001</v>
       </c>
       <c r="I4" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14202,7 +14104,7 @@
       </c>
       <c r="J4" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,I4,H4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00581#0002</v>
+        <v>obj_00581#0001</v>
       </c>
       <c r="K4" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -14210,7 +14112,7 @@
       </c>
       <c r="L4" s="48"/>
     </row>
-    <row r="5" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53"/>
       <c r="B5" s="52" t="s">
         <v>126</v>
@@ -14233,7 +14135,7 @@
       </c>
       <c r="H5" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,"1D",C5,Currency,Calendar,E5,F5,G5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057f#0002</v>
+        <v>obj_0057f#0001</v>
       </c>
       <c r="I5" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14241,7 +14143,7 @@
       </c>
       <c r="J5" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00587#0002</v>
+        <v>obj_00586#0001</v>
       </c>
       <c r="K5" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -14249,7 +14151,7 @@
       </c>
       <c r="L5" s="48"/>
     </row>
-    <row r="6" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
       <c r="B6" s="179" t="s">
         <v>102</v>
@@ -14280,7 +14182,7 @@
       </c>
       <c r="J6" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I6,H6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00582#0002</v>
+        <v>obj_00582#0001</v>
       </c>
       <c r="K6" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -14288,7 +14190,7 @@
       </c>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>136</v>
       </c>
@@ -14313,7 +14215,7 @@
       </c>
       <c r="H7" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B7,C7,Currency,Calendar,E7,F7,G7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057d#0002</v>
+        <v>obj_0057b#0001</v>
       </c>
       <c r="I7" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14321,7 +14223,7 @@
       </c>
       <c r="J7" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I7,H7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00590#0002</v>
+        <v>obj_0058e#0001</v>
       </c>
       <c r="K7" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -14329,7 +14231,7 @@
       </c>
       <c r="L7" s="48"/>
     </row>
-    <row r="8" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>136</v>
       </c>
@@ -14354,7 +14256,7 @@
       </c>
       <c r="H8" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B8,C8,Currency,Calendar,E8,F8,G8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00575#0002</v>
+        <v>obj_00578#0001</v>
       </c>
       <c r="I8" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14362,7 +14264,7 @@
       </c>
       <c r="J8" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00589#0002</v>
+        <v>obj_0058f#0001</v>
       </c>
       <c r="K8" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -14370,7 +14272,7 @@
       </c>
       <c r="L8" s="48"/>
     </row>
-    <row r="9" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53"/>
       <c r="B9" s="179" t="s">
         <v>101</v>
@@ -14401,7 +14303,7 @@
       </c>
       <c r="J9" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00583#0002</v>
+        <v>obj_00588#0001</v>
       </c>
       <c r="K9" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -14409,7 +14311,7 @@
       </c>
       <c r="L9" s="48"/>
     </row>
-    <row r="10" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
       <c r="B10" s="179" t="s">
         <v>100</v>
@@ -14440,7 +14342,7 @@
       </c>
       <c r="J10" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00585#0002</v>
+        <v>obj_00584#0001</v>
       </c>
       <c r="K10" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -14448,7 +14350,7 @@
       </c>
       <c r="L10" s="48"/>
     </row>
-    <row r="11" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="179" t="s">
         <v>75</v>
@@ -14479,7 +14381,7 @@
       </c>
       <c r="J11" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I11,H11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00588#0002</v>
+        <v>obj_00587#0001</v>
       </c>
       <c r="K11" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -14487,7 +14389,7 @@
       </c>
       <c r="L11" s="48"/>
     </row>
-    <row r="12" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>136</v>
       </c>
@@ -14512,7 +14414,7 @@
       </c>
       <c r="H12" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B12,C12,Currency,Calendar,E12,F12,G12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00577#0002</v>
+        <v>obj_0057e#0001</v>
       </c>
       <c r="I12" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14520,7 +14422,7 @@
       </c>
       <c r="J12" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I12,H12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00591#0002</v>
+        <v>obj_00591#0001</v>
       </c>
       <c r="K12" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -14528,7 +14430,7 @@
       </c>
       <c r="L12" s="48"/>
     </row>
-    <row r="13" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>136</v>
       </c>
@@ -14553,7 +14455,7 @@
       </c>
       <c r="H13" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B13,C13,Currency,Calendar,E13,F13,G13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057c#0002</v>
+        <v>obj_0057a#0001</v>
       </c>
       <c r="I13" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14561,7 +14463,7 @@
       </c>
       <c r="J13" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058e#0002</v>
+        <v>obj_0058c#0001</v>
       </c>
       <c r="K13" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -14569,7 +14471,7 @@
       </c>
       <c r="L13" s="48"/>
     </row>
-    <row r="14" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="179" t="s">
         <v>99</v>
@@ -14600,7 +14502,7 @@
       </c>
       <c r="J14" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I14,H14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00584#0002</v>
+        <v>obj_00583#0001</v>
       </c>
       <c r="K14" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -14608,7 +14510,7 @@
       </c>
       <c r="L14" s="48"/>
     </row>
-    <row r="15" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>136</v>
       </c>
@@ -14633,7 +14535,7 @@
       </c>
       <c r="H15" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B15,C15,Currency,Calendar,E15,F15,G15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057a#0002</v>
+        <v>obj_00577#0001</v>
       </c>
       <c r="I15" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14641,7 +14543,7 @@
       </c>
       <c r="J15" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I15,H15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058a#0002</v>
+        <v>obj_0058b#0001</v>
       </c>
       <c r="K15" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -14649,7 +14551,7 @@
       </c>
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>136</v>
       </c>
@@ -14674,7 +14576,7 @@
       </c>
       <c r="H16" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B16,C16,Currency,Calendar,E16,F16,G16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057b#0002</v>
+        <v>obj_00579#0001</v>
       </c>
       <c r="I16" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14682,7 +14584,7 @@
       </c>
       <c r="J16" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I16,H16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058f#0002</v>
+        <v>obj_00590#0001</v>
       </c>
       <c r="K16" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -14715,7 +14617,7 @@
       </c>
       <c r="H17" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B17,C17,Currency,Calendar,E17,F17,G17,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057e#0002</v>
+        <v>obj_0057d#0001</v>
       </c>
       <c r="I17" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14723,7 +14625,7 @@
       </c>
       <c r="J17" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I17,H17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058d#0002</v>
+        <v>obj_0058a#0001</v>
       </c>
       <c r="K17" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -14756,7 +14658,7 @@
       </c>
       <c r="H18" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B18,C18,Currency,Calendar,E18,F18,G18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00579#0002</v>
+        <v>obj_00576#0001</v>
       </c>
       <c r="I18" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14764,7 +14666,7 @@
       </c>
       <c r="J18" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I18,H18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058b#0002</v>
+        <v>obj_0058d#0001</v>
       </c>
       <c r="K18" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -14797,7 +14699,7 @@
       </c>
       <c r="H19" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B19,C19,Currency,Calendar,E19,F19,G19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00578#0002</v>
+        <v>obj_00575#0001</v>
       </c>
       <c r="I19" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14805,7 +14707,7 @@
       </c>
       <c r="J19" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058c#0002</v>
+        <v>obj_00589#0001</v>
       </c>
       <c r="K19" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -14844,7 +14746,7 @@
       </c>
       <c r="J20" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I20,H20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00547#0003</v>
+        <v>obj_00559#0001</v>
       </c>
       <c r="K20" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J20)</f>
@@ -14854,9 +14756,9 @@
     </row>
     <row r="21" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
-      <c r="B21" s="179">
-        <f>_xll.qlCalendarBusinessDaysBetween(Calendar,_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),C21&amp;"D",,,Trigger),O3,Trigger)-1</f>
-        <v>169</v>
+      <c r="B21" s="179" t="str">
+        <f>(_xll.qlCalendarBusinessDaysBetween(Calendar,_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),C21&amp;"D",,,Trigger),D25,Trigger)-1)&amp;"D"</f>
+        <v>168D</v>
       </c>
       <c r="C21" s="177">
         <v>2</v>
@@ -14876,12 +14778,12 @@
       </c>
       <c r="H21" s="174"/>
       <c r="I21" s="174" t="str">
-        <f>_xll.qlSimpleQuote("USD_Stub",,,,Trigger)</f>
-        <v>USD_Stub#0003</v>
+        <f>Currency&amp;"_STUB"&amp;QuoteSuffix</f>
+        <v>USD_STUB_Quote</v>
       </c>
       <c r="J21" s="175" t="str">
-        <f>_xll.qlDepositRateHelper2(,I21,B21&amp;"D",C20,Deposits!D21,E21,F21,G21)</f>
-        <v>obj_00580#0002</v>
+        <f>_xll.qlDepositRateHelper2(,I21,B21,C20,Deposits!D21,E21,F21,G21)</f>
+        <v>obj_00580#0007</v>
       </c>
       <c r="K21" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J21)</f>
@@ -14904,8 +14806,39 @@
       <c r="L22" s="173"/>
     </row>
     <row r="23" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="182" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlSettingsEvaluationDate(Trigger),TRUE,Trigger)</f>
+        <v>Z4</v>
+      </c>
+      <c r="C24" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="114" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="182" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(B24,,Trigger),TRUE,Trigger)</f>
+        <v>H5</v>
+      </c>
+      <c r="C25" s="188" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(B25,,Trigger),TRUE,Trigger)</f>
+        <v>M5</v>
+      </c>
+      <c r="D25" s="189">
+        <f>_xll.qlIMMdate(C25,,Trigger)</f>
+        <v>42172</v>
+      </c>
+      <c r="E25" s="189">
+        <f>_xll.qlRateHelperLatestDate(J21,Trigger)</f>
+        <v>42095</v>
+      </c>
+    </row>
     <row r="26" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -14929,7 +14862,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -15033,7 +14966,7 @@
       </c>
       <c r="H3" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00599#0002</v>
+        <v>obj_005b1#0001</v>
       </c>
       <c r="I3" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -15077,7 +15010,7 @@
       </c>
       <c r="H4" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a3#0002</v>
+        <v>obj_005d5#0001</v>
       </c>
       <c r="I4" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -15121,7 +15054,7 @@
       </c>
       <c r="H5" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c5#0002</v>
+        <v>obj_005ca#0001</v>
       </c>
       <c r="I5" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -15162,7 +15095,7 @@
       </c>
       <c r="H6" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b7#0002</v>
+        <v>obj_005b7#0001</v>
       </c>
       <c r="I6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -15203,7 +15136,7 @@
       </c>
       <c r="H7" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ca#0002</v>
+        <v>obj_005a4#0001</v>
       </c>
       <c r="I7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -15244,7 +15177,7 @@
       </c>
       <c r="H8" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b9#0002</v>
+        <v>obj_005db#0001</v>
       </c>
       <c r="I8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -15285,7 +15218,7 @@
       </c>
       <c r="H9" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059e#0002</v>
+        <v>obj_0059e#0001</v>
       </c>
       <c r="I9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -15319,7 +15252,7 @@
       </c>
       <c r="H10" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00594#0002</v>
+        <v>obj_005d9#0001</v>
       </c>
       <c r="I10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -15353,7 +15286,7 @@
       </c>
       <c r="H11" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005dd#0002</v>
+        <v>obj_005de#0001</v>
       </c>
       <c r="I11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -15387,7 +15320,7 @@
       </c>
       <c r="H12" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c3#0002</v>
+        <v>obj_005a3#0001</v>
       </c>
       <c r="I12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -15421,7 +15354,7 @@
       </c>
       <c r="H13" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005cd#0002</v>
+        <v>obj_005ce#0001</v>
       </c>
       <c r="I13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -15455,7 +15388,7 @@
       </c>
       <c r="H14" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005bf#0002</v>
+        <v>obj_005d3#0001</v>
       </c>
       <c r="I14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -15489,7 +15422,7 @@
       </c>
       <c r="H15" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005bd#0002</v>
+        <v>obj_005ae#0001</v>
       </c>
       <c r="I15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -15523,7 +15456,7 @@
       </c>
       <c r="H16" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c2#0002</v>
+        <v>obj_00598#0001</v>
       </c>
       <c r="I16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -15557,7 +15490,7 @@
       </c>
       <c r="H17" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ac#0002</v>
+        <v>obj_00595#0001</v>
       </c>
       <c r="I17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -15591,7 +15524,7 @@
       </c>
       <c r="H18" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a8#0002</v>
+        <v>obj_005ac#0001</v>
       </c>
       <c r="I18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -15625,7 +15558,7 @@
       </c>
       <c r="H19" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00596#0002</v>
+        <v>obj_0059d#0001</v>
       </c>
       <c r="I19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -15659,7 +15592,7 @@
       </c>
       <c r="H20" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005af#0002</v>
+        <v>obj_005ad#0001</v>
       </c>
       <c r="I20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -15693,7 +15626,7 @@
       </c>
       <c r="H21" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ce#0002</v>
+        <v>obj_005d8#0001</v>
       </c>
       <c r="I21" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -15727,7 +15660,7 @@
       </c>
       <c r="H22" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b8#0002</v>
+        <v>obj_005bc#0001</v>
       </c>
       <c r="I22" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -15761,7 +15694,7 @@
       </c>
       <c r="H23" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005e0#0002</v>
+        <v>obj_005c3#0001</v>
       </c>
       <c r="I23" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -15795,7 +15728,7 @@
       </c>
       <c r="H24" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ab#0002</v>
+        <v>obj_005bb#0001</v>
       </c>
       <c r="I24" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -15829,7 +15762,7 @@
       </c>
       <c r="H25" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059a#0002</v>
+        <v>obj_005b5#0001</v>
       </c>
       <c r="I25" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -15863,7 +15796,7 @@
       </c>
       <c r="H26" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d8#0002</v>
+        <v>obj_0059b#0001</v>
       </c>
       <c r="I26" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -15897,7 +15830,7 @@
       </c>
       <c r="H27" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a9#0002</v>
+        <v>obj_005b2#0001</v>
       </c>
       <c r="I27" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -15931,7 +15864,7 @@
       </c>
       <c r="H28" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005da#0002</v>
+        <v>obj_005b0#0001</v>
       </c>
       <c r="I28" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -15965,7 +15898,7 @@
       </c>
       <c r="H29" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005de#0002</v>
+        <v>obj_005c2#0001</v>
       </c>
       <c r="I29" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -15999,7 +15932,7 @@
       </c>
       <c r="H30" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a0#0002</v>
+        <v>obj_005c9#0001</v>
       </c>
       <c r="I30" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -16033,7 +15966,7 @@
       </c>
       <c r="H31" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b6#0002</v>
+        <v>obj_005b3#0001</v>
       </c>
       <c r="I31" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -16067,7 +16000,7 @@
       </c>
       <c r="H32" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00598#0002</v>
+        <v>obj_005ab#0001</v>
       </c>
       <c r="I32" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -16101,7 +16034,7 @@
       </c>
       <c r="H33" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005cb#0002</v>
+        <v>obj_005aa#0001</v>
       </c>
       <c r="I33" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -16135,7 +16068,7 @@
       </c>
       <c r="H34" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c7#0002</v>
+        <v>obj_005bd#0001</v>
       </c>
       <c r="I34" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -16169,7 +16102,7 @@
       </c>
       <c r="H35" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a1#0002</v>
+        <v>obj_005cc#0001</v>
       </c>
       <c r="I35" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -16203,7 +16136,7 @@
       </c>
       <c r="H36" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a4#0002</v>
+        <v>obj_005da#0001</v>
       </c>
       <c r="I36" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -16237,7 +16170,7 @@
       </c>
       <c r="H37" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a2#0002</v>
+        <v>obj_005d1#0001</v>
       </c>
       <c r="I37" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -16271,7 +16204,7 @@
       </c>
       <c r="H38" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b2#0002</v>
+        <v>obj_005c0#0001</v>
       </c>
       <c r="I38" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -16305,7 +16238,7 @@
       </c>
       <c r="H39" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005cc#0002</v>
+        <v>obj_005af#0001</v>
       </c>
       <c r="I39" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -16339,7 +16272,7 @@
       </c>
       <c r="H40" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b4#0002</v>
+        <v>obj_005a1#0001</v>
       </c>
       <c r="I40" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -16372,7 +16305,7 @@
       </c>
       <c r="H41" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ae#0002</v>
+        <v>obj_005a8#0001</v>
       </c>
       <c r="I41" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -16405,7 +16338,7 @@
       </c>
       <c r="H42" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a7#0002</v>
+        <v>obj_005c5#0001</v>
       </c>
       <c r="I42" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -16438,7 +16371,7 @@
       </c>
       <c r="H43" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d5#0002</v>
+        <v>obj_005d4#0001</v>
       </c>
       <c r="I43" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -16471,7 +16404,7 @@
       </c>
       <c r="H44" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d6#0002</v>
+        <v>obj_005be#0001</v>
       </c>
       <c r="I44" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -16597,7 +16530,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="152" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(,$H$1,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor(,Currency,$H$1,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_00524#0003</v>
+        <v>obj_004ec#0001</v>
       </c>
       <c r="L3" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -16656,7 +16589,7 @@
       </c>
       <c r="K5" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005ba#0002</v>
+        <v>obj_00597#0001</v>
       </c>
       <c r="L5" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -16703,7 +16636,7 @@
       </c>
       <c r="K6" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005ad#0002</v>
+        <v>obj_005a0#0001</v>
       </c>
       <c r="L6" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -16754,7 +16687,7 @@
       </c>
       <c r="K7" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005c9#0002</v>
+        <v>obj_00599#0001</v>
       </c>
       <c r="L7" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -16805,7 +16738,7 @@
       </c>
       <c r="K8" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0059f#0002</v>
+        <v>obj_005a7#0001</v>
       </c>
       <c r="L8" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -16852,7 +16785,7 @@
       </c>
       <c r="K9" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0059b#0002</v>
+        <v>obj_005dd#0001</v>
       </c>
       <c r="L9" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -16903,7 +16836,7 @@
       </c>
       <c r="K10" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005c0#0002</v>
+        <v>obj_005d7#0001</v>
       </c>
       <c r="L10" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -16945,7 +16878,7 @@
       </c>
       <c r="K11" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005d4#0002</v>
+        <v>obj_005b4#0001</v>
       </c>
       <c r="L11" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -16987,7 +16920,7 @@
       </c>
       <c r="K12" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005c6#0002</v>
+        <v>obj_005b8#0001</v>
       </c>
       <c r="L12" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -17029,7 +16962,7 @@
       </c>
       <c r="K13" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005c4#0002</v>
+        <v>obj_005c7#0001</v>
       </c>
       <c r="L13" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -17071,7 +17004,7 @@
       </c>
       <c r="K14" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00593#0002</v>
+        <v>obj_005ba#0001</v>
       </c>
       <c r="L14" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -17113,7 +17046,7 @@
       </c>
       <c r="K15" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005a5#0002</v>
+        <v>obj_00594#0001</v>
       </c>
       <c r="L15" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -17155,7 +17088,7 @@
       </c>
       <c r="K16" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0059c#0002</v>
+        <v>obj_005bf#0001</v>
       </c>
       <c r="L16" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -17197,7 +17130,7 @@
       </c>
       <c r="K17" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005c8#0002</v>
+        <v>obj_005c1#0001</v>
       </c>
       <c r="L17" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -17239,7 +17172,7 @@
       </c>
       <c r="K18" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005c1#0002</v>
+        <v>obj_005df#0001</v>
       </c>
       <c r="L18" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -17281,7 +17214,7 @@
       </c>
       <c r="K19" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005a6#0002</v>
+        <v>obj_0059f#0001</v>
       </c>
       <c r="L19" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -17323,7 +17256,7 @@
       </c>
       <c r="K20" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00595#0002</v>
+        <v>obj_00592#0001</v>
       </c>
       <c r="L20" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -17365,7 +17298,7 @@
       </c>
       <c r="K21" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005bc#0002</v>
+        <v>obj_005a9#0001</v>
       </c>
       <c r="L21" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -17407,7 +17340,7 @@
       </c>
       <c r="K22" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005b5#0002</v>
+        <v>obj_005c6#0001</v>
       </c>
       <c r="L22" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -17449,7 +17382,7 @@
       </c>
       <c r="K23" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005bb#0002</v>
+        <v>obj_005a2#0001</v>
       </c>
       <c r="L23" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -17491,7 +17424,7 @@
       </c>
       <c r="K24" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005cf#0002</v>
+        <v>obj_005dc#0001</v>
       </c>
       <c r="L24" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -17533,7 +17466,7 @@
       </c>
       <c r="K25" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005d9#0002</v>
+        <v>obj_005a6#0001</v>
       </c>
       <c r="L25" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -17575,7 +17508,7 @@
       </c>
       <c r="K26" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005b1#0002</v>
+        <v>obj_005d6#0001</v>
       </c>
       <c r="L26" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -17617,7 +17550,7 @@
       </c>
       <c r="K27" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005d2#0002</v>
+        <v>obj_005c8#0001</v>
       </c>
       <c r="L27" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -17659,7 +17592,7 @@
       </c>
       <c r="K28" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005dc#0002</v>
+        <v>obj_005b9#0001</v>
       </c>
       <c r="L28" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -17701,7 +17634,7 @@
       </c>
       <c r="K29" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005d3#0002</v>
+        <v>obj_005cb#0001</v>
       </c>
       <c r="L29" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -17743,7 +17676,7 @@
       </c>
       <c r="K30" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005df#0002</v>
+        <v>obj_0059c#0001</v>
       </c>
       <c r="L30" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -17785,7 +17718,7 @@
       </c>
       <c r="K31" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005be#0002</v>
+        <v>obj_005cd#0001</v>
       </c>
       <c r="L31" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -17827,7 +17760,7 @@
       </c>
       <c r="K32" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00592#0002</v>
+        <v>obj_005d0#0001</v>
       </c>
       <c r="L32" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -17869,7 +17802,7 @@
       </c>
       <c r="K33" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005d7#0002</v>
+        <v>obj_005e0#0001</v>
       </c>
       <c r="L33" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -17911,7 +17844,7 @@
       </c>
       <c r="K34" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005b0#0002</v>
+        <v>obj_005d2#0001</v>
       </c>
       <c r="L34" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -17953,7 +17886,7 @@
       </c>
       <c r="K35" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005d0#0002</v>
+        <v>obj_0059a#0001</v>
       </c>
       <c r="L35" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -17995,7 +17928,7 @@
       </c>
       <c r="K36" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0059d#0002</v>
+        <v>obj_00593#0001</v>
       </c>
       <c r="L36" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -18037,7 +17970,7 @@
       </c>
       <c r="K37" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005b3#0002</v>
+        <v>obj_00596#0001</v>
       </c>
       <c r="L37" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -18079,7 +18012,7 @@
       </c>
       <c r="K38" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005db#0002</v>
+        <v>obj_005cf#0001</v>
       </c>
       <c r="L38" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -18121,7 +18054,7 @@
       </c>
       <c r="K39" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005d1#0002</v>
+        <v>obj_005a5#0001</v>
       </c>
       <c r="L39" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -18163,7 +18096,7 @@
       </c>
       <c r="K40" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005aa#0002</v>
+        <v>obj_005b6#0001</v>
       </c>
       <c r="L40" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -18205,7 +18138,7 @@
       </c>
       <c r="K41" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00597#0002</v>
+        <v>obj_005c4#0001</v>
       </c>
       <c r="L41" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -18264,7 +18197,7 @@
       </c>
       <c r="K43" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J43,$C43,Calendar,$F43,$G43,$H43,$K$3,$I43,B43,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00554#0003</v>
+        <v>obj_00517#0001</v>
       </c>
       <c r="L43" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K43)</f>
@@ -18306,7 +18239,7 @@
       </c>
       <c r="K44" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J44,$C44,Calendar,$F44,$G44,$H44,$K$3,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0055e#0003</v>
+        <v>obj_004f4#0001</v>
       </c>
       <c r="L44" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K44)</f>
@@ -18348,7 +18281,7 @@
       </c>
       <c r="K45" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J45,$C45,Calendar,$F45,$G45,$H45,$K$3,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00568#0003</v>
+        <v>obj_00535#0001</v>
       </c>
       <c r="L45" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K45)</f>
@@ -18390,7 +18323,7 @@
       </c>
       <c r="K46" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J46,$C46,Calendar,$F46,$G46,$H46,$K$3,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056f#0003</v>
+        <v>obj_0054c#0001</v>
       </c>
       <c r="L46" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K46)</f>
@@ -18432,7 +18365,7 @@
       </c>
       <c r="K47" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J47,$C47,Calendar,$F47,$G47,$H47,$K$3,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0055c#0003</v>
+        <v>obj_0056c#0001</v>
       </c>
       <c r="L47" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K47)</f>
@@ -18474,7 +18407,7 @@
       </c>
       <c r="K48" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J48,$C48,Calendar,$F48,$G48,$H48,$K$3,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056c#0003</v>
+        <v>obj_0056b#0001</v>
       </c>
       <c r="L48" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K48)</f>
@@ -18516,7 +18449,7 @@
       </c>
       <c r="K49" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J49,$C49,Calendar,$F49,$G49,$H49,$K$3,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00558#0003</v>
+        <v>obj_00501#0001</v>
       </c>
       <c r="L49" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K49)</f>
@@ -18558,7 +18491,7 @@
       </c>
       <c r="K50" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J50,$C50,Calendar,$F50,$G50,$H50,$K$3,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00566#0003</v>
+        <v>obj_00544#0001</v>
       </c>
       <c r="L50" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K50)</f>
@@ -18600,7 +18533,7 @@
       </c>
       <c r="K51" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J51,$C51,Calendar,$F51,$G51,$H51,$K$3,$I51,B51,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00528#0003</v>
+        <v>obj_00506#0001</v>
       </c>
       <c r="L51" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K51)</f>
@@ -18642,7 +18575,7 @@
       </c>
       <c r="K52" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J52,$C52,Calendar,$F52,$G52,$H52,$K$3,$I52,B52,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00563#0003</v>
+        <v>obj_0056f#0001</v>
       </c>
       <c r="L52" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K52)</f>
@@ -18684,7 +18617,7 @@
       </c>
       <c r="K53" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J53,$C53,Calendar,$F53,$G53,$H53,$K$3,$I53,B53,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0055f#0003</v>
+        <v>obj_0052f#0001</v>
       </c>
       <c r="L53" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K53)</f>
@@ -18726,7 +18659,7 @@
       </c>
       <c r="K54" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J54,$C54,Calendar,$F54,$G54,$H54,$K$3,$I54,B54,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00552#0003</v>
+        <v>obj_0050f#0001</v>
       </c>
       <c r="L54" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K54)</f>
@@ -18768,7 +18701,7 @@
       </c>
       <c r="K55" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J55,$C55,Calendar,$F55,$G55,$H55,$K$3,$I55,B55,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056b#0003</v>
+        <v>obj_0056e#0001</v>
       </c>
       <c r="L55" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K55)</f>
@@ -18810,7 +18743,7 @@
       </c>
       <c r="K56" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J56,$C56,Calendar,$F56,$G56,$H56,$K$3,$I56,B56,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00529#0003</v>
+        <v>obj_0055f#0001</v>
       </c>
       <c r="L56" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K56)</f>
@@ -18852,7 +18785,7 @@
       </c>
       <c r="K57" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J57,$C57,Calendar,$F57,$G57,$H57,$K$3,$I57,B57,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00565#0003</v>
+        <v>obj_00522#0001</v>
       </c>
       <c r="L57" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K57)</f>
@@ -18894,7 +18827,7 @@
       </c>
       <c r="K58" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J58,$C58,Calendar,$F58,$G58,$H58,$K$3,$I58,B58,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056e#0003</v>
+        <v>obj_00529#0001</v>
       </c>
       <c r="L58" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K58)</f>
@@ -18936,7 +18869,7 @@
       </c>
       <c r="K59" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J59,$C59,Calendar,$F59,$G59,$H59,$K$3,$I59,B59,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056d#0003</v>
+        <v>obj_004ee#0001</v>
       </c>
       <c r="L59" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K59)</f>
@@ -18978,7 +18911,7 @@
       </c>
       <c r="K60" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J60,$C60,Calendar,$F60,$G60,$H60,$K$3,$I60,B60,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00572#0003</v>
+        <v>obj_00562#0001</v>
       </c>
       <c r="L60" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K60)</f>
@@ -19020,7 +18953,7 @@
       </c>
       <c r="K61" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J61,$C61,Calendar,$F61,$G61,$H61,$K$3,$I61,B61,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00562#0003</v>
+        <v>obj_00543#0001</v>
       </c>
       <c r="L61" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K61)</f>
@@ -19062,7 +18995,7 @@
       </c>
       <c r="K62" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J62,$C62,Calendar,$F62,$G62,$H62,$K$3,$I62,B62,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00557#0003</v>
+        <v>obj_0054b#0001</v>
       </c>
       <c r="L62" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K62)</f>
@@ -19104,7 +19037,7 @@
       </c>
       <c r="K63" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J63,$C63,Calendar,$F63,$G63,$H63,$K$3,$I63,B63,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0055d#0003</v>
+        <v>obj_004ed#0001</v>
       </c>
       <c r="L63" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K63)</f>
@@ -19146,7 +19079,7 @@
       </c>
       <c r="K64" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J64,$C64,Calendar,$F64,$G64,$H64,$K$3,$I64,B64,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0055b#0003</v>
+        <v>obj_00570#0001</v>
       </c>
       <c r="L64" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K64)</f>
@@ -19188,7 +19121,7 @@
       </c>
       <c r="K65" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J65,$C65,Calendar,$F65,$G65,$H65,$K$3,$I65,B65,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0055a#0003</v>
+        <v>obj_00561#0001</v>
       </c>
       <c r="L65" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K65)</f>
@@ -19230,7 +19163,7 @@
       </c>
       <c r="K66" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J66,$C66,Calendar,$F66,$G66,$H66,$K$3,$I66,B66,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00564#0003</v>
+        <v>obj_00518#0001</v>
       </c>
       <c r="L66" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K66)</f>
@@ -19272,7 +19205,7 @@
       </c>
       <c r="K67" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J67,$C67,Calendar,$F67,$G67,$H67,$K$3,$I67,B67,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00570#0003</v>
+        <v>obj_00502#0001</v>
       </c>
       <c r="L67" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K67)</f>
@@ -19314,7 +19247,7 @@
       </c>
       <c r="K68" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J68,$C68,Calendar,$F68,$G68,$H68,$K$3,$I68,B68,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00560#0003</v>
+        <v>obj_00553#0001</v>
       </c>
       <c r="L68" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K68)</f>
@@ -19356,7 +19289,7 @@
       </c>
       <c r="K69" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J69,$C69,Calendar,$F69,$G69,$H69,$K$3,$I69,B69,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00569#0003</v>
+        <v>obj_0055b#0001</v>
       </c>
       <c r="L69" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K69)</f>
@@ -19398,7 +19331,7 @@
       </c>
       <c r="K70" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J70,$C70,Calendar,$F70,$G70,$H70,$K$3,$I70,B70,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00553#0003</v>
+        <v>obj_00571#0001</v>
       </c>
       <c r="L70" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K70)</f>
@@ -19440,7 +19373,7 @@
       </c>
       <c r="K71" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J71,$C71,Calendar,$F71,$G71,$H71,$K$3,$I71,B71,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00555#0003</v>
+        <v>obj_00521#0001</v>
       </c>
       <c r="L71" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K71)</f>
@@ -19482,7 +19415,7 @@
       </c>
       <c r="K72" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J72,$C72,Calendar,$F72,$G72,$H72,$K$3,$I72,B72,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00561#0003</v>
+        <v>obj_0053c#0001</v>
       </c>
       <c r="L72" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K72)</f>
@@ -19524,7 +19457,7 @@
       </c>
       <c r="K73" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J73,$C73,Calendar,$F73,$G73,$H73,$K$3,$I73,B73,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00574#0003</v>
+        <v>obj_0056a#0001</v>
       </c>
       <c r="L73" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K73)</f>
@@ -19566,7 +19499,7 @@
       </c>
       <c r="K74" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J74,$C74,Calendar,$F74,$G74,$H74,$K$3,$I74,B74,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00559#0003</v>
+        <v>obj_00508#0001</v>
       </c>
       <c r="L74" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K74)</f>
@@ -19608,7 +19541,7 @@
       </c>
       <c r="K75" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J75,$C75,Calendar,$F75,$G75,$H75,$K$3,$I75,B75,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056a#0003</v>
+        <v>obj_00510#0001</v>
       </c>
       <c r="L75" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K75)</f>
@@ -19650,7 +19583,7 @@
       </c>
       <c r="K76" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J76,$C76,Calendar,$F76,$G76,$H76,$K$3,$I76,B76,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00567#0003</v>
+        <v>obj_004f9#0001</v>
       </c>
       <c r="L76" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K76)</f>
@@ -19692,7 +19625,7 @@
       </c>
       <c r="K77" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J77,$C77,Calendar,$F77,$G77,$H77,$K$3,$I77,B77,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00573#0003</v>
+        <v>obj_0056d#0001</v>
       </c>
       <c r="L77" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K77)</f>
@@ -19734,7 +19667,7 @@
       </c>
       <c r="K78" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J78,$C78,Calendar,$F78,$G78,$H78,$K$3,$I78,B78,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00556#0003</v>
+        <v>obj_00528#0001</v>
       </c>
       <c r="L78" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K78)</f>
@@ -19776,7 +19709,7 @@
       </c>
       <c r="K79" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J79,$C79,Calendar,$F79,$G79,$H79,$K$3,$I79,B79,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00571#0003</v>
+        <v>obj_00509#0001</v>
       </c>
       <c r="L79" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K79)</f>
@@ -19852,10 +19785,10 @@
       <c r="I1" s="149"/>
       <c r="J1" s="190"/>
       <c r="K1" s="63" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M1" s="63"/>
       <c r="N1" s="148"/>
@@ -19866,7 +19799,7 @@
         <v>114</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D2" s="59" t="s">
         <v>113</v>
@@ -19882,10 +19815,10 @@
       </c>
       <c r="H2" s="59"/>
       <c r="I2" s="59" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K2" s="59"/>
       <c r="L2" s="59" t="s">
@@ -19910,7 +19843,7 @@
       <c r="K3" s="63"/>
       <c r="L3" s="152" t="str">
         <f>_xll.qlLibor(,Currency,$F$1,K1,,Trigger)</f>
-        <v>obj_004dd#0003</v>
+        <v>obj_004e7#0001</v>
       </c>
       <c r="M3" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L3)</f>
@@ -19956,15 +19889,15 @@
       </c>
       <c r="H5" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C5,2,Currency,Calendar,D5,E5,F5,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004f4#0003</v>
+        <v>obj_004e9#0001</v>
       </c>
       <c r="I5" s="155">
         <f>_xll.qlIndexFixing(H5,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H5)</f>
-        <v>2.9500363161171226E-3</v>
+        <v>3.1289651535722079E-3</v>
       </c>
       <c r="J5" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C5&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L1Y_Quote#0003</v>
+        <v>USD3L1Y_Quote#0001</v>
       </c>
       <c r="K5" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J5,I5,I5)</f>
@@ -19972,7 +19905,7 @@
       </c>
       <c r="L5" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J5,$C5,Calendar,"Annual",$E5,$F5,$L$3,$G5,B5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00538#0003</v>
+        <v>obj_00541#0001</v>
       </c>
       <c r="M5" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L5)</f>
@@ -20004,15 +19937,15 @@
       </c>
       <c r="H6" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C6,2,Currency,Calendar,D6,E6,F6,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00532#0003</v>
+        <v>obj_0051e#0001</v>
       </c>
       <c r="I6" s="155">
         <f>_xll.qlIndexFixing(H6,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H6)</f>
-        <v>3.7303659331458672E-3</v>
+        <v>3.9408247774347224E-3</v>
       </c>
       <c r="J6" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C6&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L15M_Quote#0003</v>
+        <v>USD3L15M_Quote#0001</v>
       </c>
       <c r="K6" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J6,I6,I6)</f>
@@ -20020,7 +19953,7 @@
       </c>
       <c r="L6" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J6,$C6,Calendar,"Annual",$E6,$F6,$L$3,$G6,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0052e#0003</v>
+        <v>obj_00533#0001</v>
       </c>
       <c r="M6" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -20052,15 +19985,15 @@
       </c>
       <c r="H7" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C7,2,Currency,Calendar,D7,E7,F7,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00501#0003</v>
+        <v>obj_0053e#0001</v>
       </c>
       <c r="I7" s="155">
         <f>_xll.qlIndexFixing(H7,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H7)</f>
-        <v>4.6565622386753169E-3</v>
+        <v>4.8996833774739819E-3</v>
       </c>
       <c r="J7" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C7&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L18M_Quote#0003</v>
+        <v>USD3L18M_Quote#0001</v>
       </c>
       <c r="K7" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J7,I7,I7)</f>
@@ -20068,7 +20001,7 @@
       </c>
       <c r="L7" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J7,$C7,Calendar,"Annual",$E7,$F7,$L$3,$G7,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0054d#0003</v>
+        <v>obj_00563#0001</v>
       </c>
       <c r="M7" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -20100,15 +20033,15 @@
       </c>
       <c r="H8" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C8,2,Currency,Calendar,D8,E8,F8,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004fa#0003</v>
+        <v>obj_00569#0001</v>
       </c>
       <c r="I8" s="155">
         <f>_xll.qlIndexFixing(H8,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H8)</f>
-        <v>5.6724313680841486E-3</v>
+        <v>5.949118443872946E-3</v>
       </c>
       <c r="J8" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C8&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L21M_Quote#0003</v>
+        <v>USD3L21M_Quote#0001</v>
       </c>
       <c r="K8" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J8,I8,I8)</f>
@@ -20116,7 +20049,7 @@
       </c>
       <c r="L8" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J8,$C8,Calendar,"Annual",$E8,$F8,$L$3,$G8,B8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0053a#0003</v>
+        <v>obj_0055d#0001</v>
       </c>
       <c r="M8" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -20148,15 +20081,15 @@
       </c>
       <c r="H9" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C9,2,Currency,Calendar,D9,E9,F9,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004e7#0003</v>
+        <v>obj_004fa#0001</v>
       </c>
       <c r="I9" s="155">
         <f>_xll.qlIndexFixing(H9,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H9)</f>
-        <v>6.75928590244848E-3</v>
+        <v>7.0854909382880114E-3</v>
       </c>
       <c r="J9" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C9&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L2Y_Quote#0003</v>
+        <v>USD3L2Y_Quote#0001</v>
       </c>
       <c r="K9" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J9,I9,I9)</f>
@@ -20164,7 +20097,7 @@
       </c>
       <c r="L9" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J9,$C9,Calendar,"Annual",$E9,$F9,$L$3,$G9,B9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0054a#0003</v>
+        <v>obj_00537#0001</v>
       </c>
       <c r="M9" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -20196,15 +20129,15 @@
       </c>
       <c r="H10" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C10,2,Currency,Calendar,D10,E10,F10,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00527#0003</v>
+        <v>obj_004fe#0001</v>
       </c>
       <c r="I10" s="155">
         <f>_xll.qlIndexFixing(H10,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H10)</f>
-        <v>1.0933826099301091E-2</v>
+        <v>1.1298248890404297E-2</v>
       </c>
       <c r="J10" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C10&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L3Y_Quote#0003</v>
+        <v>USD3L3Y_Quote#0001</v>
       </c>
       <c r="K10" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J10,I10,I10)</f>
@@ -20212,7 +20145,7 @@
       </c>
       <c r="L10" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J10,$C10,Calendar,"Annual",$E10,$F10,$L$3,$G10,B10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0053b#0003</v>
+        <v>obj_00560#0001</v>
       </c>
       <c r="M10" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -20245,15 +20178,15 @@
       </c>
       <c r="H11" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C11,2,Currency,Calendar,D11,E11,F11,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004fc#0003</v>
+        <v>obj_0051a#0001</v>
       </c>
       <c r="I11" s="155">
         <f>_xll.qlIndexFixing(H11,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H11)</f>
-        <v>1.4325320988726742E-2</v>
+        <v>1.46885830925298E-2</v>
       </c>
       <c r="J11" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C11&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L4Y_Quote#0003</v>
+        <v>USD3L4Y_Quote#0001</v>
       </c>
       <c r="K11" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J11,I11,I11)</f>
@@ -20261,7 +20194,7 @@
       </c>
       <c r="L11" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J11,$C11,Calendar,"Annual",$E11,$F11,$L$3,$G11,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0054b#0003</v>
+        <v>obj_0054a#0001</v>
       </c>
       <c r="M11" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -20294,15 +20227,15 @@
       </c>
       <c r="H12" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C12,2,Currency,Calendar,D12,E12,F12,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0050a#0003</v>
+        <v>obj_00568#0001</v>
       </c>
       <c r="I12" s="155">
         <f>_xll.qlIndexFixing(H12,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H12)</f>
-        <v>1.6901214867224304E-2</v>
+        <v>1.7244554294935249E-2</v>
       </c>
       <c r="J12" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C12&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L5Y_Quote#0003</v>
+        <v>USD3L5Y_Quote#0001</v>
       </c>
       <c r="K12" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J12,I12,I12)</f>
@@ -20310,7 +20243,7 @@
       </c>
       <c r="L12" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J12,$C12,Calendar,"Annual",$E12,$F12,$L$3,$G12,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00531#0003</v>
+        <v>obj_00567#0001</v>
       </c>
       <c r="M12" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -20343,15 +20276,15 @@
       </c>
       <c r="H13" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C13,2,Currency,Calendar,D13,E13,F13,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004f8#0003</v>
+        <v>obj_00504#0001</v>
       </c>
       <c r="I13" s="155">
         <f>_xll.qlIndexFixing(H13,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H13)</f>
-        <v>1.8966810507590189E-2</v>
+        <v>1.9222980536687979E-2</v>
       </c>
       <c r="J13" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C13&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L6Y_Quote#0003</v>
+        <v>USD3L6Y_Quote#0001</v>
       </c>
       <c r="K13" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J13,I13,I13)</f>
@@ -20359,7 +20292,7 @@
       </c>
       <c r="L13" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J13,$C13,Calendar,"Annual",$E13,$F13,$L$3,$G13,B13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0053d#0003</v>
+        <v>obj_0054f#0001</v>
       </c>
       <c r="M13" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -20392,15 +20325,15 @@
       </c>
       <c r="H14" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C14,2,Currency,Calendar,D14,E14,F14,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004f5#0003</v>
+        <v>obj_004f0#0001</v>
       </c>
       <c r="I14" s="155">
         <f>_xll.qlIndexFixing(H14,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H14)</f>
-        <v>2.0647232531970313E-2</v>
+        <v>2.0851707676844793E-2</v>
       </c>
       <c r="J14" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C14&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L7Y_Quote#0003</v>
+        <v>USD3L7Y_Quote#0001</v>
       </c>
       <c r="K14" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J14,I14,I14)</f>
@@ -20408,7 +20341,7 @@
       </c>
       <c r="L14" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J14,$C14,Calendar,"Annual",$E14,$F14,$L$3,$G14,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00534#0003</v>
+        <v>obj_0053a#0001</v>
       </c>
       <c r="M14" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -20441,15 +20374,15 @@
       </c>
       <c r="H15" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C15,2,Currency,Calendar,D15,E15,F15,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00519#0003</v>
+        <v>obj_0053f#0001</v>
       </c>
       <c r="I15" s="155">
         <f>_xll.qlIndexFixing(H15,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H15)</f>
-        <v>2.2027547486887494E-2</v>
+        <v>2.2187554733316437E-2</v>
       </c>
       <c r="J15" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C15&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L8Y_Quote#0003</v>
+        <v>USD3L8Y_Quote#0001</v>
       </c>
       <c r="K15" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J15,I15,I15)</f>
@@ -20457,7 +20390,7 @@
       </c>
       <c r="L15" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J15,$C15,Calendar,"Annual",$E15,$F15,$L$3,$G15,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0053e#0003</v>
+        <v>obj_00534#0001</v>
       </c>
       <c r="M15" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -20490,15 +20423,15 @@
       </c>
       <c r="H16" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C16,2,Currency,Calendar,D16,E16,F16,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00525#0003</v>
+        <v>obj_00526#0001</v>
       </c>
       <c r="I16" s="155">
         <f>_xll.qlIndexFixing(H16,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H16)</f>
-        <v>2.3207791669002678E-2</v>
+        <v>2.3316842993851627E-2</v>
       </c>
       <c r="J16" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C16&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L9Y_Quote#0003</v>
+        <v>USD3L9Y_Quote#0001</v>
       </c>
       <c r="K16" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J16,I16,I16)</f>
@@ -20506,7 +20439,7 @@
       </c>
       <c r="L16" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J16,$C16,Calendar,"Annual",$E16,$F16,$L$3,$G16,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0052f#0003</v>
+        <v>obj_00558#0001</v>
       </c>
       <c r="M16" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -20539,15 +20472,15 @@
       </c>
       <c r="H17" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C17,2,Currency,Calendar,D17,E17,F17,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00520#0003</v>
+        <v>obj_00539#0001</v>
       </c>
       <c r="I17" s="155">
         <f>_xll.qlIndexFixing(H17,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H17)</f>
-        <v>2.4199730492321398E-2</v>
+        <v>2.4279082489156743E-2</v>
       </c>
       <c r="J17" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C17&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L10Y_Quote#0003</v>
+        <v>USD3L10Y_Quote#0001</v>
       </c>
       <c r="K17" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J17,I17,I17)</f>
@@ -20555,7 +20488,7 @@
       </c>
       <c r="L17" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J17,$C17,Calendar,"Annual",$E17,$F17,$L$3,$G17,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00530#0003</v>
+        <v>obj_00540#0001</v>
       </c>
       <c r="M17" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -20588,15 +20521,15 @@
       </c>
       <c r="H18" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C18,2,Currency,Calendar,D18,E18,F18,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00526#0003</v>
+        <v>obj_004f8#0001</v>
       </c>
       <c r="I18" s="155">
         <f>_xll.qlIndexFixing(H18,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H18)</f>
-        <v>2.5063207134064597E-2</v>
+        <v>2.5122828626215045E-2</v>
       </c>
       <c r="J18" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C18&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L11Y_Quote#0003</v>
+        <v>USD3L11Y_Quote#0001</v>
       </c>
       <c r="K18" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J18,I18,I18)</f>
@@ -20604,7 +20537,7 @@
       </c>
       <c r="L18" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J18,$C18,Calendar,"Annual",$E18,$F18,$L$3,$G18,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0052b#0003</v>
+        <v>obj_0051d#0001</v>
       </c>
       <c r="M18" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -20637,15 +20570,15 @@
       </c>
       <c r="H19" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C19,2,Currency,Calendar,D19,E19,F19,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004ed#0003</v>
+        <v>obj_00523#0001</v>
       </c>
       <c r="I19" s="155">
         <f>_xll.qlIndexFixing(H19,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H19)</f>
-        <v>2.579827326627036E-2</v>
+        <v>2.5857944862991037E-2</v>
       </c>
       <c r="J19" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C19&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L12Y_Quote#0003</v>
+        <v>USD3L12Y_Quote#0001</v>
       </c>
       <c r="K19" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J19,I19,I19)</f>
@@ -20653,7 +20586,7 @@
       </c>
       <c r="L19" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J19,$C19,Calendar,"Annual",$E19,$F19,$L$3,$G19,B19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00551#0003</v>
+        <v>obj_004fd#0001</v>
       </c>
       <c r="M19" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -20686,15 +20619,15 @@
       </c>
       <c r="H20" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C20,2,Currency,Calendar,D20,E20,F20,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004df#0003</v>
+        <v>obj_00530#0001</v>
       </c>
       <c r="I20" s="155">
         <f>_xll.qlIndexFixing(H20,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H20)</f>
-        <v>2.6425421484141193E-2</v>
+        <v>2.6487203627164328E-2</v>
       </c>
       <c r="J20" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C20&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L13Y_Quote#0003</v>
+        <v>USD3L13Y_Quote#0001</v>
       </c>
       <c r="K20" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J20,I20,I20)</f>
@@ -20702,7 +20635,7 @@
       </c>
       <c r="L20" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J20,$C20,Calendar,"Annual",$E20,$F20,$L$3,$G20,B20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00542#0003</v>
+        <v>obj_00548#0001</v>
       </c>
       <c r="M20" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -20735,15 +20668,15 @@
       </c>
       <c r="H21" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C21,2,Currency,Calendar,D21,E21,F21,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0051e#0003</v>
+        <v>obj_0052d#0001</v>
       </c>
       <c r="I21" s="155">
         <f>_xll.qlIndexFixing(H21,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H21)</f>
-        <v>2.6967252517188647E-2</v>
+        <v>2.7030280337040045E-2</v>
       </c>
       <c r="J21" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C21&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L14Y_Quote#0003</v>
+        <v>USD3L14Y_Quote#0001</v>
       </c>
       <c r="K21" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J21,I21,I21)</f>
@@ -20751,7 +20684,7 @@
       </c>
       <c r="L21" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J21,$C21,Calendar,"Annual",$E21,$F21,$L$3,$G21,B21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00541#0003</v>
+        <v>obj_0053b#0001</v>
       </c>
       <c r="M21" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -20784,15 +20717,15 @@
       </c>
       <c r="H22" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C22,2,Currency,Calendar,D22,E22,F22,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0051b#0003</v>
+        <v>obj_00565#0001</v>
       </c>
       <c r="I22" s="155">
         <f>_xll.qlIndexFixing(H22,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H22)</f>
-        <v>2.7428556866086719E-2</v>
+        <v>2.7495353502943822E-2</v>
       </c>
       <c r="J22" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C22&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L15Y_Quote#0003</v>
+        <v>USD3L15Y_Quote#0001</v>
       </c>
       <c r="K22" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J22,I22,I22)</f>
@@ -20800,7 +20733,7 @@
       </c>
       <c r="L22" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J22,$C22,Calendar,"Annual",$E22,$F22,$L$3,$G22,B22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0054e#0003</v>
+        <v>obj_00516#0001</v>
       </c>
       <c r="M22" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -20833,15 +20766,15 @@
       </c>
       <c r="H23" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C23,2,Currency,Calendar,D23,E23,F23,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0050b#0003</v>
+        <v>obj_00514#0001</v>
       </c>
       <c r="I23" s="155">
         <f>_xll.qlIndexFixing(H23,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H23)</f>
-        <v>2.7823811343874707E-2</v>
+        <v>2.7899974277373809E-2</v>
       </c>
       <c r="J23" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C23&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L16Y_Quote#0003</v>
+        <v>USD3L16Y_Quote#0001</v>
       </c>
       <c r="K23" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J23,I23,I23)</f>
@@ -20849,7 +20782,7 @@
       </c>
       <c r="L23" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J23,$C23,Calendar,"Annual",$E23,$F23,$L$3,$G23,B23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00535#0003</v>
+        <v>obj_00573#0001</v>
       </c>
       <c r="M23" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -20882,15 +20815,15 @@
       </c>
       <c r="H24" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C24,2,Currency,Calendar,D24,E24,F24,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004fe#0003</v>
+        <v>obj_0052b#0001</v>
       </c>
       <c r="I24" s="155">
         <f>_xll.qlIndexFixing(H24,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H24)</f>
-        <v>2.8173870906178976E-2</v>
+        <v>2.825111629158612E-2</v>
       </c>
       <c r="J24" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C24&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L17Y_Quote#0003</v>
+        <v>USD3L17Y_Quote#0001</v>
       </c>
       <c r="K24" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J24,I24,I24)</f>
@@ -20898,7 +20831,7 @@
       </c>
       <c r="L24" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J24,$C24,Calendar,"Annual",$E24,$F24,$L$3,$G24,B24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0054c#0003</v>
+        <v>obj_00551#0001</v>
       </c>
       <c r="M24" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -20931,15 +20864,15 @@
       </c>
       <c r="H25" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C25,2,Currency,Calendar,D25,E25,F25,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004ef#0003</v>
+        <v>obj_0054d#0001</v>
       </c>
       <c r="I25" s="155">
         <f>_xll.qlIndexFixing(H25,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H25)</f>
-        <v>2.847474358900717E-2</v>
+        <v>2.8556180283615892E-2</v>
       </c>
       <c r="J25" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C25&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L18Y_Quote#0003</v>
+        <v>USD3L18Y_Quote#0001</v>
       </c>
       <c r="K25" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J25,I25,I25)</f>
@@ -20947,7 +20880,7 @@
       </c>
       <c r="L25" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J25,$C25,Calendar,"Annual",$E25,$F25,$L$3,$G25,B25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00540#0003</v>
+        <v>obj_00556#0001</v>
       </c>
       <c r="M25" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -20980,15 +20913,15 @@
       </c>
       <c r="H26" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C26,2,Currency,Calendar,D26,E26,F26,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00518#0003</v>
+        <v>obj_00557#0001</v>
       </c>
       <c r="I26" s="155">
         <f>_xll.qlIndexFixing(H26,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H26)</f>
-        <v>2.8734107419729933E-2</v>
+        <v>2.8820136577155719E-2</v>
       </c>
       <c r="J26" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C26&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L19Y_Quote#0003</v>
+        <v>USD3L19Y_Quote#0001</v>
       </c>
       <c r="K26" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J26,I26,I26)</f>
@@ -20996,7 +20929,7 @@
       </c>
       <c r="L26" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J26,$C26,Calendar,"Annual",$E26,$F26,$L$3,$G26,B26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00550#0003</v>
+        <v>obj_0055a#0001</v>
       </c>
       <c r="M26" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -21029,15 +20962,15 @@
       </c>
       <c r="H27" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C27,2,Currency,Calendar,D27,E27,F27,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00514#0003</v>
+        <v>obj_004eb#0001</v>
       </c>
       <c r="I27" s="155">
         <f>_xll.qlIndexFixing(H27,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H27)</f>
-        <v>2.8958841142550439E-2</v>
+        <v>2.9044588124757197E-2</v>
       </c>
       <c r="J27" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C27&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L20Y_Quote#0003</v>
+        <v>USD3L20Y_Quote#0001</v>
       </c>
       <c r="K27" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J27,I27,I27)</f>
@@ -21045,7 +20978,7 @@
       </c>
       <c r="L27" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J27,$C27,Calendar,"Annual",$E27,$F27,$L$3,$G27,B27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0052d#0003</v>
+        <v>obj_00549#0001</v>
       </c>
       <c r="M27" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -21078,15 +21011,15 @@
       </c>
       <c r="H28" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C28,2,Currency,Calendar,D28,E28,F28,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004e6#0003</v>
+        <v>obj_004f5#0001</v>
       </c>
       <c r="I28" s="155">
         <f>_xll.qlIndexFixing(H28,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H28)</f>
-        <v>2.9150121027296121E-2</v>
+        <v>2.9236229933548789E-2</v>
       </c>
       <c r="J28" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C28&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L21Y_Quote#0003</v>
+        <v>USD3L21Y_Quote#0001</v>
       </c>
       <c r="K28" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J28,I28,I28)</f>
@@ -21094,7 +21027,7 @@
       </c>
       <c r="L28" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J28,$C28,Calendar,"Annual",$E28,$F28,$L$3,$G28,B28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00537#0003</v>
+        <v>obj_004ff#0001</v>
       </c>
       <c r="M28" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -21127,15 +21060,15 @@
       </c>
       <c r="H29" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C29,2,Currency,Calendar,D29,E29,F29,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00503#0003</v>
+        <v>obj_00566#0001</v>
       </c>
       <c r="I29" s="155">
         <f>_xll.qlIndexFixing(H29,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H29)</f>
-        <v>2.9315809289642367E-2</v>
+        <v>2.9401891422424661E-2</v>
       </c>
       <c r="J29" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C29&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L22Y_Quote#0003</v>
+        <v>USD3L22Y_Quote#0001</v>
       </c>
       <c r="K29" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J29,I29,I29)</f>
@@ -21143,7 +21076,7 @@
       </c>
       <c r="L29" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J29,$C29,Calendar,"Annual",$E29,$F29,$L$3,$G29,B29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0053f#0003</v>
+        <v>obj_00572#0001</v>
       </c>
       <c r="M29" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -21176,15 +21109,15 @@
       </c>
       <c r="H30" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C30,2,Currency,Calendar,D30,E30,F30,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0050e#0003</v>
+        <v>obj_0052c#0001</v>
       </c>
       <c r="I30" s="155">
         <f>_xll.qlIndexFixing(H30,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H30)</f>
-        <v>2.9460038401487355E-2</v>
+        <v>2.9545389058335821E-2</v>
       </c>
       <c r="J30" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C30&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L23Y_Quote#0003</v>
+        <v>USD3L23Y_Quote#0001</v>
       </c>
       <c r="K30" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J30,I30,I30)</f>
@@ -21192,7 +21125,7 @@
       </c>
       <c r="L30" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J30,$C30,Calendar,"Annual",$E30,$F30,$L$3,$G30,B30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00533#0003</v>
+        <v>obj_0052e#0001</v>
       </c>
       <c r="M30" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -21225,15 +21158,15 @@
       </c>
       <c r="H31" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C31,2,Currency,Calendar,D31,E31,F31,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004e5#0003</v>
+        <v>obj_004ef#0001</v>
       </c>
       <c r="I31" s="155">
         <f>_xll.qlIndexFixing(H31,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H31)</f>
-        <v>2.9586700107963378E-2</v>
+        <v>2.9671671956640337E-2</v>
       </c>
       <c r="J31" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C31&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L24Y_Quote#0003</v>
+        <v>USD3L24Y_Quote#0001</v>
       </c>
       <c r="K31" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J31,I31,I31)</f>
@@ -21241,7 +21174,7 @@
       </c>
       <c r="L31" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J31,$C31,Calendar,"Annual",$E31,$F31,$L$3,$G31,B31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0054f#0003</v>
+        <v>obj_00500#0001</v>
       </c>
       <c r="M31" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -21274,15 +21207,15 @@
       </c>
       <c r="H32" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C32,2,Currency,Calendar,D32,E32,F32,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004ec#0003</v>
+        <v>obj_004e8#0001</v>
       </c>
       <c r="I32" s="155">
         <f>_xll.qlIndexFixing(H32,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H32)</f>
-        <v>2.9699010173749745E-2</v>
+        <v>2.9785033597518069E-2</v>
       </c>
       <c r="J32" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C32&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L25Y_Quote#0003</v>
+        <v>USD3L25Y_Quote#0001</v>
       </c>
       <c r="K32" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J32,I32,I32)</f>
@@ -21290,7 +21223,7 @@
       </c>
       <c r="L32" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J32,$C32,Calendar,"Annual",$E32,$F32,$L$3,$G32,B32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00536#0003</v>
+        <v>obj_00564#0001</v>
       </c>
       <c r="M32" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -21323,15 +21256,15 @@
       </c>
       <c r="H33" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C33,2,Currency,Calendar,D33,E33,F33,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004f0#0003</v>
+        <v>obj_00503#0001</v>
       </c>
       <c r="I33" s="155">
         <f>_xll.qlIndexFixing(H33,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H33)</f>
-        <v>2.9799971265468229E-2</v>
+        <v>2.9886423035562635E-2</v>
       </c>
       <c r="J33" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C33&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L26Y_Quote#0003</v>
+        <v>USD3L26Y_Quote#0001</v>
       </c>
       <c r="K33" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J33,I33,I33)</f>
@@ -21339,7 +21272,7 @@
       </c>
       <c r="L33" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J33,$C33,Calendar,"Annual",$E33,$F33,$L$3,$G33,B33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00544#0003</v>
+        <v>obj_00552#0001</v>
       </c>
       <c r="M33" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -21372,15 +21305,15 @@
       </c>
       <c r="H34" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C34,2,Currency,Calendar,D34,E34,F34,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00509#0003</v>
+        <v>obj_0055e#0001</v>
       </c>
       <c r="I34" s="155">
         <f>_xll.qlIndexFixing(H34,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H34)</f>
-        <v>2.9887262218474177E-2</v>
+        <v>2.997789237521829E-2</v>
       </c>
       <c r="J34" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C34&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L27Y_Quote#0003</v>
+        <v>USD3L27Y_Quote#0001</v>
       </c>
       <c r="K34" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J34,I34,I34)</f>
@@ -21388,7 +21321,7 @@
       </c>
       <c r="L34" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J34,$C34,Calendar,"Annual",$E34,$F34,$L$3,$G34,B34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00545#0003</v>
+        <v>obj_00507#0001</v>
       </c>
       <c r="M34" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -21421,15 +21354,15 @@
       </c>
       <c r="H35" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C35,2,Currency,Calendar,D35,E35,F35,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0051c#0003</v>
+        <v>obj_0051c#0001</v>
       </c>
       <c r="I35" s="155">
         <f>_xll.qlIndexFixing(H35,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H35)</f>
-        <v>2.9968450228550218E-2</v>
+        <v>3.0059402674244107E-2</v>
       </c>
       <c r="J35" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C35&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L28Y_Quote#0003</v>
+        <v>USD3L28Y_Quote#0001</v>
       </c>
       <c r="K35" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J35,I35,I35)</f>
@@ -21437,7 +21370,7 @@
       </c>
       <c r="L35" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J35,$C35,Calendar,"Annual",$E35,$F35,$L$3,$G35,B35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0052c#0003</v>
+        <v>obj_00527#0001</v>
       </c>
       <c r="M35" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -21470,15 +21403,15 @@
       </c>
       <c r="H36" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C36,2,Currency,Calendar,D36,E36,F36,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004fd#0003</v>
+        <v>obj_00524#0001</v>
       </c>
       <c r="I36" s="155">
         <f>_xll.qlIndexFixing(H36,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H36)</f>
-        <v>3.0038191966666038E-2</v>
+        <v>3.0131236323586521E-2</v>
       </c>
       <c r="J36" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C36&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L29Y_Quote#0003</v>
+        <v>USD3L29Y_Quote#0001</v>
       </c>
       <c r="K36" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J36,I36,I36)</f>
@@ -21486,7 +21419,7 @@
       </c>
       <c r="L36" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J36,$C36,Calendar,"Annual",$E36,$F36,$L$3,$G36,B36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00549#0003</v>
+        <v>obj_00520#0001</v>
       </c>
       <c r="M36" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -21519,15 +21452,15 @@
       </c>
       <c r="H37" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C37,2,Currency,Calendar,D37,E37,F37,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00515#0003</v>
+        <v>obj_004f2#0001</v>
       </c>
       <c r="I37" s="155">
         <f>_xll.qlIndexFixing(H37,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H37)</f>
-        <v>3.0099117434996735E-2</v>
+        <v>3.0194225199662209E-2</v>
       </c>
       <c r="J37" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C37&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L30Y_Quote#0003</v>
+        <v>USD3L30Y_Quote#0001</v>
       </c>
       <c r="K37" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J37,I37,I37)</f>
@@ -21535,7 +21468,7 @@
       </c>
       <c r="L37" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J37,$C37,Calendar,"Annual",$E37,$F37,$L$3,$G37,B37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00539#0003</v>
+        <v>obj_00574#0001</v>
       </c>
       <c r="M37" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -21568,15 +21501,15 @@
       </c>
       <c r="H38" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C38,2,Currency,Calendar,D38,E38,F38,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004ee#0003</v>
+        <v>obj_0052a#0001</v>
       </c>
       <c r="I38" s="155">
         <f>_xll.qlIndexFixing(H38,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H38)</f>
-        <v>3.0284897939854505E-2</v>
+        <v>3.0381161227646766E-2</v>
       </c>
       <c r="J38" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C38&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L35Y_Quote#0003</v>
+        <v>USD3L35Y_Quote#0001</v>
       </c>
       <c r="K38" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J38,I38,I38)</f>
@@ -21584,7 +21517,7 @@
       </c>
       <c r="L38" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J38,$C38,Calendar,"Annual",$E38,$F38,$L$3,$G38,B38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00543#0003</v>
+        <v>obj_00546#0001</v>
       </c>
       <c r="M38" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -21617,15 +21550,15 @@
       </c>
       <c r="H39" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C39,2,Currency,Calendar,D39,E39,F39,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004f9#0003</v>
+        <v>obj_0050b#0001</v>
       </c>
       <c r="I39" s="155">
         <f>_xll.qlIndexFixing(H39,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H39)</f>
-        <v>3.0309250637137332E-2</v>
+        <v>3.0403149618659954E-2</v>
       </c>
       <c r="J39" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C39&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L40Y_Quote#0003</v>
+        <v>USD3L40Y_Quote#0001</v>
       </c>
       <c r="K39" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J39,I39,I39)</f>
@@ -21633,7 +21566,7 @@
       </c>
       <c r="L39" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J39,$C39,Calendar,"Annual",$E39,$F39,$L$3,$G39,B39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00546#0003</v>
+        <v>obj_00542#0001</v>
       </c>
       <c r="M39" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -21666,15 +21599,15 @@
       </c>
       <c r="H40" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C40,2,Currency,Calendar,D40,E40,F40,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004e0#0003</v>
+        <v>obj_00554#0001</v>
       </c>
       <c r="I40" s="155">
         <f>_xll.qlIndexFixing(H40,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H40)</f>
-        <v>3.0099328704554059E-2</v>
+        <v>3.0192768108934589E-2</v>
       </c>
       <c r="J40" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C40&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L50Y_Quote#0003</v>
+        <v>USD3L50Y_Quote#0001</v>
       </c>
       <c r="K40" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J40,I40,I40)</f>
@@ -21682,7 +21615,7 @@
       </c>
       <c r="L40" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J40,$C40,Calendar,"Annual",$E40,$F40,$L$3,$G40,B40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00548#0003</v>
+        <v>obj_0050d#0001</v>
       </c>
       <c r="M40" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -21715,15 +21648,15 @@
       </c>
       <c r="H41" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C41,2,Currency,Calendar,D41,E41,F41,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00517#0003</v>
+        <v>obj_00532#0001</v>
       </c>
       <c r="I41" s="155">
         <f>_xll.qlIndexFixing(H41,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H41)</f>
-        <v>2.9908861314996694E-2</v>
+        <v>3.0003059096700632E-2</v>
       </c>
       <c r="J41" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C41&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L60Y_Quote#0003</v>
+        <v>USD3L60Y_Quote#0001</v>
       </c>
       <c r="K41" s="156" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J41,I41,I41)</f>
@@ -21731,7 +21664,7 @@
       </c>
       <c r="L41" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J41,$C41,Calendar,"Annual",$E41,$F41,$L$3,$G41,B41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0053c#0003</v>
+        <v>obj_0051f#0001</v>
       </c>
       <c r="M41" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>

--- a/QuantLibXL/Data2/XLS/USD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCSTDBootstrapping.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Swaps" sheetId="13" r:id="rId6"/>
     <sheet name="SwapsCalculated" sheetId="14" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$19</definedName>
     <definedName name="BondBasisDayCounter">'General Settings'!$M$13</definedName>
@@ -1848,6 +1851,79 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="General Settings"/>
+      <sheetName val="Libor"/>
+      <sheetName val="LiborSwapIsdaFixAm"/>
+      <sheetName val="LiborSwapForBasisCalc"/>
+      <sheetName val="LiborSwapIsdaFixPm"/>
+      <sheetName val="BasisSwap1MxM"/>
+      <sheetName val="BasisSwap3M6M"/>
+      <sheetName val="BasisSwapxM12M"/>
+      <sheetName val="Deposits"/>
+      <sheetName val="FRA"/>
+      <sheetName val="Futures1M"/>
+      <sheetName val="Futures3M"/>
+      <sheetName val="ImmFra6M "/>
+      <sheetName val="FuturesHWConvAdj"/>
+      <sheetName val="OIS"/>
+      <sheetName val="Swaps1M"/>
+      <sheetName val="SwapsIMMDated"/>
+      <sheetName val="Swap3M"/>
+      <sheetName val="Swap6M"/>
+      <sheetName val="ON"/>
+      <sheetName val="1M (2)"/>
+      <sheetName val="3M (2)"/>
+      <sheetName val="FwdEONIAOIS"/>
+      <sheetName val="SFIX3"/>
+      <sheetName val="IB365"/>
+      <sheetName val="IBOR"/>
+      <sheetName val="MxQuotes"/>
+      <sheetName val="Swap3M_Mx"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="13">
+          <cell r="D13" t="str">
+            <v>USDSTD#0000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2161,7 +2237,7 @@
     <row r="1" spans="1:33" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Oct  1 2014 18:48:11</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Oct 13 2014 15:51:57</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2648,7 +2724,7 @@
       </c>
       <c r="D14" s="21" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYCSTD#0007</v>
+        <v>_USDYCSTD#0001</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -3002,11 +3078,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41922</v>
+        <v>41943</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>3.1502034337080084E-2</v>
+        <v>3.1509856656507226E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3043,11 +3119,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>63842</v>
+        <v>63863</v>
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.5752842618961406E-3</v>
+        <v>1.5323449918077359E-3</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3123,8 +3199,8 @@
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
       <c r="C26" s="7" t="str">
-        <f>Currency&amp;"STD"</f>
-        <v>USDSTD</v>
+        <f>[1]Libor!$D$13</f>
+        <v>USDSTD#0000</v>
       </c>
       <c r="D26" s="6" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
@@ -4594,7 +4670,7 @@
       </c>
       <c r="C2" s="116" t="str">
         <f>Deposits!J3</f>
-        <v>obj_00585#0001</v>
+        <v>obj_00582#0001</v>
       </c>
       <c r="D2" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C2)</f>
@@ -4602,7 +4678,7 @@
       </c>
       <c r="E2" s="117">
         <f>_xll.qlRateHelperQuoteValue($C2,Trigger)</f>
-        <v>2.3E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F2" s="117"/>
       <c r="G2" s="62" t="b">
@@ -4616,11 +4692,11 @@
       </c>
       <c r="J2" s="118">
         <f>_xll.qlRateHelperEarliestDate($C2,Trigger)</f>
-        <v>41922</v>
+        <v>41943</v>
       </c>
       <c r="K2" s="119">
         <f>_xll.qlRateHelperLatestDate($C2,Trigger)</f>
-        <v>41926</v>
+        <v>41946</v>
       </c>
       <c r="L2" s="60">
         <v>10</v>
@@ -4636,7 +4712,7 @@
       </c>
       <c r="C3" s="116" t="str">
         <f>Deposits!J4</f>
-        <v>obj_00581#0001</v>
+        <v>obj_00580#0001</v>
       </c>
       <c r="D3" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C3)</f>
@@ -4644,7 +4720,7 @@
       </c>
       <c r="E3" s="117">
         <f>_xll.qlRateHelperQuoteValue($C3,Trigger)</f>
-        <v>2.3E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F3" s="117"/>
       <c r="G3" s="62" t="b">
@@ -4658,11 +4734,11 @@
       </c>
       <c r="J3" s="118">
         <f>_xll.qlRateHelperEarliestDate($C3,Trigger)</f>
-        <v>41926</v>
+        <v>41946</v>
       </c>
       <c r="K3" s="119">
         <f>_xll.qlRateHelperLatestDate($C3,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="L3" s="60">
         <v>40</v>
@@ -4678,7 +4754,7 @@
       </c>
       <c r="C4" s="116" t="str">
         <f>Deposits!J5</f>
-        <v>obj_00586#0001</v>
+        <v>obj_00583#0001</v>
       </c>
       <c r="D4" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C4)</f>
@@ -4686,7 +4762,7 @@
       </c>
       <c r="E4" s="117">
         <f>_xll.qlRateHelperQuoteValue($C4,Trigger)</f>
-        <v>2.3E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F4" s="117"/>
       <c r="G4" s="62" t="b">
@@ -4700,11 +4776,11 @@
       </c>
       <c r="J4" s="118">
         <f>_xll.qlRateHelperEarliestDate($C4,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K4" s="119">
         <f>_xll.qlRateHelperLatestDate($C4,Trigger)</f>
-        <v>41928</v>
+        <v>41948</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4714,7 +4790,7 @@
       </c>
       <c r="C5" s="116" t="str">
         <f>Deposits!J6</f>
-        <v>obj_00582#0001</v>
+        <v>obj_00584#0001</v>
       </c>
       <c r="D5" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C5)</f>
@@ -4722,7 +4798,7 @@
       </c>
       <c r="E5" s="117">
         <f>_xll.qlRateHelperQuoteValue($C5,Trigger)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="F5" s="117"/>
       <c r="G5" s="62" t="b">
@@ -4736,11 +4812,11 @@
       </c>
       <c r="J5" s="118">
         <f>_xll.qlRateHelperEarliestDate($C5,Trigger)</f>
-        <v>41926</v>
+        <v>41947</v>
       </c>
       <c r="K5" s="119">
         <f>_xll.qlRateHelperLatestDate($C5,Trigger)</f>
-        <v>41933</v>
+        <v>41954</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4758,7 +4834,7 @@
       </c>
       <c r="E6" s="117">
         <f>_xll.qlRateHelperQuoteValue($C6,Trigger)</f>
-        <v>1.2880384599999999E-3</v>
+        <v>1.31463636E-3</v>
       </c>
       <c r="F6" s="117"/>
       <c r="G6" s="62" t="b">
@@ -4772,11 +4848,11 @@
       </c>
       <c r="J6" s="118">
         <f>_xll.qlRateHelperEarliestDate($C6,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K6" s="119">
         <f>_xll.qlRateHelperLatestDate($C6,Trigger)</f>
-        <v>41941</v>
+        <v>41961</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4786,7 +4862,7 @@
       </c>
       <c r="C7" s="116" t="str">
         <f>Deposits!J8</f>
-        <v>obj_0058f#0001</v>
+        <v>obj_0058d#0001</v>
       </c>
       <c r="D7" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C7)</f>
@@ -4794,7 +4870,7 @@
       </c>
       <c r="E7" s="117">
         <f>_xll.qlRateHelperQuoteValue($C7,Trigger)</f>
-        <v>1.37607692E-3</v>
+        <v>1.4250454499999997E-3</v>
       </c>
       <c r="F7" s="117"/>
       <c r="G7" s="62" t="b">
@@ -4808,11 +4884,11 @@
       </c>
       <c r="J7" s="118">
         <f>_xll.qlRateHelperEarliestDate($C7,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K7" s="119">
         <f>_xll.qlRateHelperLatestDate($C7,Trigger)</f>
-        <v>41948</v>
+        <v>41968</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4822,7 +4898,7 @@
       </c>
       <c r="C8" s="116" t="str">
         <f>Deposits!J9</f>
-        <v>obj_00588#0001</v>
+        <v>obj_00587#0001</v>
       </c>
       <c r="D8" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C8)</f>
@@ -4830,7 +4906,7 @@
       </c>
       <c r="E8" s="117">
         <f>_xll.qlRateHelperQuoteValue($C8,Trigger)</f>
-        <v>1.5269999999999999E-3</v>
+        <v>1.567E-3</v>
       </c>
       <c r="F8" s="117"/>
       <c r="G8" s="62" t="b">
@@ -4844,11 +4920,11 @@
       </c>
       <c r="J8" s="118">
         <f>_xll.qlRateHelperEarliestDate($C8,Trigger)</f>
-        <v>41926</v>
+        <v>41947</v>
       </c>
       <c r="K8" s="119">
         <f>_xll.qlRateHelperLatestDate($C8,Trigger)</f>
-        <v>41957</v>
+        <v>41977</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4858,7 +4934,7 @@
       </c>
       <c r="C9" s="116" t="str">
         <f>Deposits!J10</f>
-        <v>obj_00584#0001</v>
+        <v>obj_00588#0001</v>
       </c>
       <c r="D9" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C9)</f>
@@ -4866,7 +4942,7 @@
       </c>
       <c r="E9" s="117">
         <f>_xll.qlRateHelperQuoteValue($C9,Trigger)</f>
-        <v>1.954E-3</v>
+        <v>2.0010000000000002E-3</v>
       </c>
       <c r="F9" s="117"/>
       <c r="G9" s="62" t="b">
@@ -4880,11 +4956,11 @@
       </c>
       <c r="J9" s="118">
         <f>_xll.qlRateHelperEarliestDate($C9,Trigger)</f>
-        <v>41926</v>
+        <v>41947</v>
       </c>
       <c r="K9" s="119">
         <f>_xll.qlRateHelperLatestDate($C9,Trigger)</f>
-        <v>41988</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4894,7 +4970,7 @@
       </c>
       <c r="C10" s="116" t="str">
         <f>Deposits!J11</f>
-        <v>obj_00587#0001</v>
+        <v>obj_00586#0001</v>
       </c>
       <c r="D10" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C10)</f>
@@ -4902,7 +4978,7 @@
       </c>
       <c r="E10" s="117">
         <f>_xll.qlRateHelperQuoteValue($C10,Trigger)</f>
-        <v>2.2910000000000001E-3</v>
+        <v>2.3235E-3</v>
       </c>
       <c r="F10" s="117"/>
       <c r="G10" s="62" t="b">
@@ -4916,11 +4992,11 @@
       </c>
       <c r="J10" s="118">
         <f>_xll.qlRateHelperEarliestDate($C10,Trigger)</f>
-        <v>41926</v>
+        <v>41947</v>
       </c>
       <c r="K10" s="119">
         <f>_xll.qlRateHelperLatestDate($C10,Trigger)</f>
-        <v>42018</v>
+        <v>42039</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4938,7 +5014,7 @@
       </c>
       <c r="E11" s="117">
         <f>_xll.qlRateHelperQuoteValue($C11,Trigger)</f>
-        <v>2.6221E-3</v>
+        <v>2.6264662900000002E-3</v>
       </c>
       <c r="F11" s="117"/>
       <c r="G11" s="62" t="b">
@@ -4952,11 +5028,11 @@
       </c>
       <c r="J11" s="118">
         <f>_xll.qlRateHelperEarliestDate($C11,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K11" s="119">
         <f>_xll.qlRateHelperLatestDate($C11,Trigger)</f>
-        <v>42052</v>
+        <v>42067</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4966,7 +5042,7 @@
       </c>
       <c r="C12" s="116" t="str">
         <f>Deposits!J13</f>
-        <v>obj_0058c#0001</v>
+        <v>obj_00589#0001</v>
       </c>
       <c r="D12" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C12)</f>
@@ -4974,7 +5050,7 @@
       </c>
       <c r="E12" s="117">
         <f>_xll.qlRateHelperQuoteValue($C12,Trigger)</f>
-        <v>2.8930000000000002E-3</v>
+        <v>2.9835337099999998E-3</v>
       </c>
       <c r="F12" s="117"/>
       <c r="G12" s="62" t="b">
@@ -4988,11 +5064,11 @@
       </c>
       <c r="J12" s="118">
         <f>_xll.qlRateHelperEarliestDate($C12,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K12" s="119">
         <f>_xll.qlRateHelperLatestDate($C12,Trigger)</f>
-        <v>42079</v>
+        <v>42100</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5002,7 +5078,7 @@
       </c>
       <c r="C13" s="116" t="str">
         <f>Deposits!J14</f>
-        <v>obj_00583#0001</v>
+        <v>obj_00585#0001</v>
       </c>
       <c r="D13" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C13)</f>
@@ -5010,7 +5086,7 @@
       </c>
       <c r="E13" s="117">
         <f>_xll.qlRateHelperQuoteValue($C13,Trigger)</f>
-        <v>3.1940000000000002E-3</v>
+        <v>3.2864999999999999E-3</v>
       </c>
       <c r="F13" s="117"/>
       <c r="G13" s="62" t="b">
@@ -5024,11 +5100,11 @@
       </c>
       <c r="J13" s="118">
         <f>_xll.qlRateHelperEarliestDate($C13,Trigger)</f>
-        <v>41926</v>
+        <v>41947</v>
       </c>
       <c r="K13" s="119">
         <f>_xll.qlRateHelperLatestDate($C13,Trigger)</f>
-        <v>42108</v>
+        <v>42129</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5038,7 +5114,7 @@
       </c>
       <c r="C14" s="116" t="str">
         <f>Deposits!J15</f>
-        <v>obj_0058b#0001</v>
+        <v>obj_0058f#0001</v>
       </c>
       <c r="D14" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C14)</f>
@@ -5046,7 +5122,7 @@
       </c>
       <c r="E14" s="117">
         <f>_xll.qlRateHelperQuoteValue($C14,Trigger)</f>
-        <v>3.5729344299999998E-3</v>
+        <v>3.6691983699999996E-3</v>
       </c>
       <c r="F14" s="117"/>
       <c r="G14" s="62" t="b">
@@ -5060,11 +5136,11 @@
       </c>
       <c r="J14" s="118">
         <f>_xll.qlRateHelperEarliestDate($C14,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K14" s="119">
         <f>_xll.qlRateHelperLatestDate($C14,Trigger)</f>
-        <v>42139</v>
+        <v>42159</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5082,7 +5158,7 @@
       </c>
       <c r="E15" s="117">
         <f>_xll.qlRateHelperQuoteValue($C15,Trigger)</f>
-        <v>3.9644999999999993E-3</v>
+        <v>4.0642418499999998E-3</v>
       </c>
       <c r="F15" s="117"/>
       <c r="G15" s="62" t="b">
@@ -5096,11 +5172,11 @@
       </c>
       <c r="J15" s="118">
         <f>_xll.qlRateHelperEarliestDate($C15,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K15" s="119">
         <f>_xll.qlRateHelperLatestDate($C15,Trigger)</f>
-        <v>42170</v>
+        <v>42191</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5110,7 +5186,7 @@
       </c>
       <c r="C16" s="116" t="str">
         <f>Deposits!J17</f>
-        <v>obj_0058a#0001</v>
+        <v>obj_0058b#0001</v>
       </c>
       <c r="D16" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C16)</f>
@@ -5118,7 +5194,7 @@
       </c>
       <c r="E16" s="117">
         <f>_xll.qlRateHelperQuoteValue($C16,Trigger)</f>
-        <v>4.3434344300000002E-3</v>
+        <v>4.42225E-3</v>
       </c>
       <c r="F16" s="117"/>
       <c r="G16" s="62" t="b">
@@ -5132,11 +5208,11 @@
       </c>
       <c r="J16" s="118">
         <f>_xll.qlRateHelperEarliestDate($C16,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K16" s="119">
         <f>_xll.qlRateHelperLatestDate($C16,Trigger)</f>
-        <v>42200</v>
+        <v>42220</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5146,7 +5222,7 @@
       </c>
       <c r="C17" s="116" t="str">
         <f>Deposits!J18</f>
-        <v>obj_0058d#0001</v>
+        <v>obj_0058c#0001</v>
       </c>
       <c r="D17" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C17)</f>
@@ -5154,7 +5230,7 @@
       </c>
       <c r="E17" s="117">
         <f>_xll.qlRateHelperQuoteValue($C17,Trigger)</f>
-        <v>4.7602623E-3</v>
+        <v>4.8049483700000001E-3</v>
       </c>
       <c r="F17" s="117"/>
       <c r="G17" s="62" t="b">
@@ -5168,11 +5244,11 @@
       </c>
       <c r="J17" s="118">
         <f>_xll.qlRateHelperEarliestDate($C17,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K17" s="119">
         <f>_xll.qlRateHelperLatestDate($C17,Trigger)</f>
-        <v>42233</v>
+        <v>42251</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5182,7 +5258,7 @@
       </c>
       <c r="C18" s="116" t="str">
         <f>Deposits!J19</f>
-        <v>obj_00589#0001</v>
+        <v>obj_0058a#0001</v>
       </c>
       <c r="D18" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C18)</f>
@@ -5190,7 +5266,7 @@
       </c>
       <c r="E18" s="117">
         <f>_xll.qlRateHelperQuoteValue($C18,Trigger)</f>
-        <v>5.1265655699999999E-3</v>
+        <v>5.1876467400000003E-3</v>
       </c>
       <c r="F18" s="117"/>
       <c r="G18" s="62" t="b">
@@ -5204,11 +5280,11 @@
       </c>
       <c r="J18" s="118">
         <f>_xll.qlRateHelperEarliestDate($C18,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K18" s="119">
         <f>_xll.qlRateHelperLatestDate($C18,Trigger)</f>
-        <v>42262</v>
+        <v>42282</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5218,7 +5294,7 @@
       </c>
       <c r="C19" s="116" t="str">
         <f>Deposits!J20</f>
-        <v>obj_00559#0001</v>
+        <v>obj_004e2#0001</v>
       </c>
       <c r="D19" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C19)</f>
@@ -5226,7 +5302,7 @@
       </c>
       <c r="E19" s="117">
         <f>_xll.qlRateHelperQuoteValue($C19,Trigger)</f>
-        <v>5.5055E-3</v>
+        <v>5.5579999999999996E-3</v>
       </c>
       <c r="F19" s="117"/>
       <c r="G19" s="62" t="b">
@@ -5240,21 +5316,21 @@
       </c>
       <c r="J19" s="118">
         <f>_xll.qlRateHelperEarliestDate($C19,Trigger)</f>
-        <v>41926</v>
+        <v>41947</v>
       </c>
       <c r="K19" s="119">
         <f>_xll.qlRateHelperLatestDate($C19,Trigger)</f>
-        <v>42291</v>
+        <v>42312</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="121" t="str">
         <f>Deposits!B21</f>
-        <v>168D</v>
+        <v>154D</v>
       </c>
       <c r="C20" s="121" t="str">
         <f>Deposits!J21</f>
-        <v>obj_00580#0007</v>
+        <v>obj_00581#0001</v>
       </c>
       <c r="D20" s="121" t="str">
         <f>_xll.qlRateHelperQuoteName(C20)</f>
@@ -5262,7 +5338,7 @@
       </c>
       <c r="E20" s="122">
         <f>_xll.qlRateHelperQuoteValue($C20,Trigger)</f>
-        <v>3.9897622999999997E-3</v>
+        <v>3.8296847800000002E-3</v>
       </c>
       <c r="F20" s="122"/>
       <c r="G20" s="123" t="b">
@@ -5276,11 +5352,11 @@
       </c>
       <c r="J20" s="124">
         <f>_xll.qlRateHelperEarliestDate($C20,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K20" s="125">
         <f>_xll.qlRateHelperLatestDate($C20,Trigger)</f>
-        <v>42095</v>
+        <v>42172</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5289,19 +5365,19 @@
       </c>
       <c r="B21" s="116" t="str">
         <f t="array" ref="B21:B62">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A21:$A62)</f>
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="C21" s="116" t="str">
         <f>Futures!H3</f>
-        <v>obj_005b1#0001</v>
+        <v>obj_005cf#0001</v>
       </c>
       <c r="D21" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C21)</f>
-        <v>USDFUT3MV4_Quote</v>
+        <v>USDFUT3MX4_Quote</v>
       </c>
       <c r="E21" s="127">
         <f>_xll.qlRateHelperQuoteValue($C21,Trigger)</f>
-        <v>99.771249999999995</v>
+        <v>99.766249999999999</v>
       </c>
       <c r="F21" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C21,Trigger)</f>
@@ -5318,11 +5394,11 @@
       </c>
       <c r="J21" s="118">
         <f>_xll.qlRateHelperEarliestDate($C21,Trigger)</f>
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="K21" s="119">
         <f>_xll.qlRateHelperLatestDate($C21,Trigger)</f>
-        <v>42019</v>
+        <v>42054</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5330,19 +5406,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="116" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="C22" s="116" t="str">
         <f>Futures!H4</f>
-        <v>obj_005d5#0001</v>
+        <v>obj_005d6#0001</v>
       </c>
       <c r="D22" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C22)</f>
-        <v>USDFUT3MX4_Quote</v>
+        <v>USDFUT3MZ4_Quote</v>
       </c>
       <c r="E22" s="127">
         <f>_xll.qlRateHelperQuoteValue($C22,Trigger)</f>
-        <v>99.772500000000008</v>
+        <v>99.767499999999998</v>
       </c>
       <c r="F22" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C22,Trigger)</f>
@@ -5359,11 +5435,11 @@
       </c>
       <c r="J22" s="118">
         <f>_xll.qlRateHelperEarliestDate($C22,Trigger)</f>
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="K22" s="119">
         <f>_xll.qlRateHelperLatestDate($C22,Trigger)</f>
-        <v>42054</v>
+        <v>42080</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5371,19 +5447,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="116" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="C23" s="116" t="str">
         <f>Futures!H5</f>
-        <v>obj_005ca#0001</v>
+        <v>obj_00598#0001</v>
       </c>
       <c r="D23" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C23)</f>
-        <v>USDFUT3MZ4_Quote</v>
+        <v>USDFUT3MF5_Quote</v>
       </c>
       <c r="E23" s="127">
         <f>_xll.qlRateHelperQuoteValue($C23,Trigger)</f>
-        <v>99.767499999999998</v>
+        <v>99.759999999999991</v>
       </c>
       <c r="F23" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C23,Trigger)</f>
@@ -5400,11 +5476,11 @@
       </c>
       <c r="J23" s="118">
         <f>_xll.qlRateHelperEarliestDate($C23,Trigger)</f>
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="K23" s="119">
         <f>_xll.qlRateHelperLatestDate($C23,Trigger)</f>
-        <v>42080</v>
+        <v>42115</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5412,19 +5488,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="116" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="C24" s="116" t="str">
         <f>Futures!H6</f>
-        <v>obj_005b7#0001</v>
+        <v>obj_005ca#0001</v>
       </c>
       <c r="D24" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C24)</f>
-        <v>USDFUT3MF5_Quote</v>
+        <v>USDFUT3MG5_Quote</v>
       </c>
       <c r="E24" s="127">
         <f>_xll.qlRateHelperQuoteValue($C24,Trigger)</f>
-        <v>99.757499999999993</v>
+        <v>99.75</v>
       </c>
       <c r="F24" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C24,Trigger)</f>
@@ -5441,11 +5517,11 @@
       </c>
       <c r="J24" s="118">
         <f>_xll.qlRateHelperEarliestDate($C24,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="K24" s="119">
         <f>_xll.qlRateHelperLatestDate($C24,Trigger)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5453,19 +5529,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="116" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="C25" s="116" t="str">
         <f>Futures!H7</f>
-        <v>obj_005a4#0001</v>
+        <v>obj_005dd#0001</v>
       </c>
       <c r="D25" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C25)</f>
-        <v>USDFUT3MG5_Quote</v>
+        <v>USDFUT3MH5_Quote</v>
       </c>
       <c r="E25" s="127">
         <f>_xll.qlRateHelperQuoteValue($C25,Trigger)</f>
-        <v>99.72</v>
+        <v>99.742500000000007</v>
       </c>
       <c r="F25" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C25,Trigger)</f>
@@ -5482,11 +5558,11 @@
       </c>
       <c r="J25" s="118">
         <f>_xll.qlRateHelperEarliestDate($C25,Trigger)</f>
-        <v>42053</v>
+        <v>42081</v>
       </c>
       <c r="K25" s="119">
         <f>_xll.qlRateHelperLatestDate($C25,Trigger)</f>
-        <v>42142</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5494,19 +5570,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="116" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="C26" s="116" t="str">
         <f>Futures!H8</f>
-        <v>obj_005db#0001</v>
+        <v>obj_005c7#0001</v>
       </c>
       <c r="D26" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C26)</f>
-        <v>USDFUT3MH5_Quote</v>
+        <v>USDFUT3MJ5_Quote</v>
       </c>
       <c r="E26" s="127">
         <f>_xll.qlRateHelperQuoteValue($C26,Trigger)</f>
-        <v>99.722499999999997</v>
+        <v>99.69</v>
       </c>
       <c r="F26" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C26,Trigger)</f>
@@ -5523,11 +5599,11 @@
       </c>
       <c r="J26" s="118">
         <f>_xll.qlRateHelperEarliestDate($C26,Trigger)</f>
-        <v>42081</v>
+        <v>42109</v>
       </c>
       <c r="K26" s="119">
         <f>_xll.qlRateHelperLatestDate($C26,Trigger)</f>
-        <v>42173</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5535,15 +5611,15 @@
         <v>0</v>
       </c>
       <c r="B27" s="116" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="C27" s="116" t="str">
         <f>Futures!H9</f>
-        <v>obj_0059e#0001</v>
+        <v>obj_0059d#0001</v>
       </c>
       <c r="D27" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C27)</f>
-        <v>USDFUT3MJ5_Quote</v>
+        <v>USDFUT3MK5_Quote</v>
       </c>
       <c r="E27" s="127" t="e">
         <f>_xll.qlRateHelperQuoteValue($C27,Trigger)</f>
@@ -5564,11 +5640,11 @@
       </c>
       <c r="J27" s="118">
         <f>_xll.qlRateHelperEarliestDate($C27,Trigger)</f>
-        <v>42109</v>
+        <v>42144</v>
       </c>
       <c r="K27" s="119">
         <f>_xll.qlRateHelperLatestDate($C27,Trigger)</f>
-        <v>42200</v>
+        <v>42236</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5576,23 +5652,23 @@
         <v>0</v>
       </c>
       <c r="B28" s="116" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="C28" s="116" t="str">
         <f>Futures!H10</f>
-        <v>obj_005d9#0001</v>
+        <v>obj_005a4#0001</v>
       </c>
       <c r="D28" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C28)</f>
-        <v>USDFUT3MK5_Quote</v>
-      </c>
-      <c r="E28" s="127" t="e">
+        <v>USDFUT3MM5_Quote</v>
+      </c>
+      <c r="E28" s="127">
         <f>_xll.qlRateHelperQuoteValue($C28,Trigger)</f>
-        <v>#NUM!</v>
+        <v>99.617500000000007</v>
       </c>
       <c r="F28" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C28,Trigger)</f>
-        <v>0</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="G28" s="62" t="b">
         <v>1</v>
@@ -5605,11 +5681,11 @@
       </c>
       <c r="J28" s="118">
         <f>_xll.qlRateHelperEarliestDate($C28,Trigger)</f>
-        <v>42144</v>
+        <v>42172</v>
       </c>
       <c r="K28" s="119">
         <f>_xll.qlRateHelperLatestDate($C28,Trigger)</f>
-        <v>42236</v>
+        <v>42264</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5617,23 +5693,23 @@
         <v>0</v>
       </c>
       <c r="B29" s="116" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="C29" s="116" t="str">
         <f>Futures!H11</f>
-        <v>obj_005de#0001</v>
+        <v>obj_005bc#0001</v>
       </c>
       <c r="D29" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C29)</f>
-        <v>USDFUT3MM5_Quote</v>
-      </c>
-      <c r="E29" s="127">
+        <v>USDFUT3MN5_Quote</v>
+      </c>
+      <c r="E29" s="127" t="e">
         <f>_xll.qlRateHelperQuoteValue($C29,Trigger)</f>
-        <v>99.577500000000001</v>
+        <v>#NUM!</v>
       </c>
       <c r="F29" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C29,Trigger)</f>
-        <v>4.8999999999999998E-5</v>
+        <v>0</v>
       </c>
       <c r="G29" s="62" t="b">
         <v>1</v>
@@ -5646,11 +5722,11 @@
       </c>
       <c r="J29" s="118">
         <f>_xll.qlRateHelperEarliestDate($C29,Trigger)</f>
-        <v>42172</v>
+        <v>42200</v>
       </c>
       <c r="K29" s="119">
         <f>_xll.qlRateHelperLatestDate($C29,Trigger)</f>
-        <v>42264</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5658,15 +5734,15 @@
         <v>0</v>
       </c>
       <c r="B30" s="116" t="str">
-        <v>N5</v>
+        <v>Q5</v>
       </c>
       <c r="C30" s="116" t="str">
         <f>Futures!H12</f>
-        <v>obj_005a3#0001</v>
+        <v>obj_005b9#0001</v>
       </c>
       <c r="D30" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C30)</f>
-        <v>USDFUT3MN5_Quote</v>
+        <v>USDFUT3MQ5_Quote</v>
       </c>
       <c r="E30" s="127" t="e">
         <f>_xll.qlRateHelperQuoteValue($C30,Trigger)</f>
@@ -5687,11 +5763,11 @@
       </c>
       <c r="J30" s="118">
         <f>_xll.qlRateHelperEarliestDate($C30,Trigger)</f>
-        <v>42200</v>
+        <v>42235</v>
       </c>
       <c r="K30" s="119">
         <f>_xll.qlRateHelperLatestDate($C30,Trigger)</f>
-        <v>42292</v>
+        <v>42327</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5699,23 +5775,23 @@
         <v>0</v>
       </c>
       <c r="B31" s="116" t="str">
-        <v>Q5</v>
+        <v>U5</v>
       </c>
       <c r="C31" s="116" t="str">
         <f>Futures!H13</f>
-        <v>obj_005ce#0001</v>
+        <v>obj_005d1#0001</v>
       </c>
       <c r="D31" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C31)</f>
-        <v>USDFUT3MQ5_Quote</v>
-      </c>
-      <c r="E31" s="127" t="e">
+        <v>USDFUT3MU5_Quote</v>
+      </c>
+      <c r="E31" s="127">
         <f>_xll.qlRateHelperQuoteValue($C31,Trigger)</f>
-        <v>#NUM!</v>
+        <v>99.417500000000004</v>
       </c>
       <c r="F31" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C31,Trigger)</f>
-        <v>0</v>
+        <v>7.9000000000000009E-5</v>
       </c>
       <c r="G31" s="62" t="b">
         <v>1</v>
@@ -5728,11 +5804,11 @@
       </c>
       <c r="J31" s="118">
         <f>_xll.qlRateHelperEarliestDate($C31,Trigger)</f>
-        <v>42235</v>
+        <v>42263</v>
       </c>
       <c r="K31" s="119">
         <f>_xll.qlRateHelperLatestDate($C31,Trigger)</f>
-        <v>42327</v>
+        <v>42354</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5740,23 +5816,23 @@
         <v>0</v>
       </c>
       <c r="B32" s="116" t="str">
-        <v>U5</v>
+        <v>V5</v>
       </c>
       <c r="C32" s="116" t="str">
         <f>Futures!H14</f>
-        <v>obj_005d3#0001</v>
+        <v>obj_005c3#0001</v>
       </c>
       <c r="D32" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C32)</f>
-        <v>USDFUT3MU5_Quote</v>
-      </c>
-      <c r="E32" s="127">
+        <v>USDFUT3MV5_Quote</v>
+      </c>
+      <c r="E32" s="127" t="e">
         <f>_xll.qlRateHelperQuoteValue($C32,Trigger)</f>
-        <v>99.357500000000002</v>
+        <v>#NUM!</v>
       </c>
       <c r="F32" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C32,Trigger)</f>
-        <v>7.9000000000000009E-5</v>
+        <v>0</v>
       </c>
       <c r="G32" s="62" t="b">
         <v>1</v>
@@ -5769,11 +5845,11 @@
       </c>
       <c r="J32" s="118">
         <f>_xll.qlRateHelperEarliestDate($C32,Trigger)</f>
-        <v>42263</v>
+        <v>42298</v>
       </c>
       <c r="K32" s="119">
         <f>_xll.qlRateHelperLatestDate($C32,Trigger)</f>
-        <v>42354</v>
+        <v>42390</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5785,7 +5861,7 @@
       </c>
       <c r="C33" s="116" t="str">
         <f>Futures!H15</f>
-        <v>obj_005ae#0001</v>
+        <v>obj_005a7#0001</v>
       </c>
       <c r="D33" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C33)</f>
@@ -5793,7 +5869,7 @@
       </c>
       <c r="E33" s="127">
         <f>_xll.qlRateHelperQuoteValue($C33,Trigger)</f>
-        <v>99.102499999999992</v>
+        <v>99.177500000000009</v>
       </c>
       <c r="F33" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C33,Trigger)</f>
@@ -5826,7 +5902,7 @@
       </c>
       <c r="C34" s="116" t="str">
         <f>Futures!H16</f>
-        <v>obj_00598#0001</v>
+        <v>obj_005ab#0001</v>
       </c>
       <c r="D34" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C34)</f>
@@ -5834,7 +5910,7 @@
       </c>
       <c r="E34" s="127">
         <f>_xll.qlRateHelperQuoteValue($C34,Trigger)</f>
-        <v>98.842500000000001</v>
+        <v>98.942499999999995</v>
       </c>
       <c r="F34" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C34,Trigger)</f>
@@ -5867,7 +5943,7 @@
       </c>
       <c r="C35" s="116" t="str">
         <f>Futures!H17</f>
-        <v>obj_00595#0001</v>
+        <v>obj_00592#0001</v>
       </c>
       <c r="D35" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C35)</f>
@@ -5875,7 +5951,7 @@
       </c>
       <c r="E35" s="127">
         <f>_xll.qlRateHelperQuoteValue($C35,Trigger)</f>
-        <v>98.582499999999996</v>
+        <v>98.694999999999993</v>
       </c>
       <c r="F35" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C35,Trigger)</f>
@@ -5908,7 +5984,7 @@
       </c>
       <c r="C36" s="116" t="str">
         <f>Futures!H18</f>
-        <v>obj_005ac#0001</v>
+        <v>obj_00595#0001</v>
       </c>
       <c r="D36" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C36)</f>
@@ -5916,7 +5992,7 @@
       </c>
       <c r="E36" s="127">
         <f>_xll.qlRateHelperQuoteValue($C36,Trigger)</f>
-        <v>98.327500000000001</v>
+        <v>98.447499999999991</v>
       </c>
       <c r="F36" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C36,Trigger)</f>
@@ -5949,7 +6025,7 @@
       </c>
       <c r="C37" s="116" t="str">
         <f>Futures!H19</f>
-        <v>obj_0059d#0001</v>
+        <v>obj_00593#0001</v>
       </c>
       <c r="D37" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C37)</f>
@@ -5957,7 +6033,7 @@
       </c>
       <c r="E37" s="127">
         <f>_xll.qlRateHelperQuoteValue($C37,Trigger)</f>
-        <v>98.092500000000001</v>
+        <v>98.197499999999991</v>
       </c>
       <c r="F37" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C37,Trigger)</f>
@@ -5990,7 +6066,7 @@
       </c>
       <c r="C38" s="116" t="str">
         <f>Futures!H20</f>
-        <v>obj_005ad#0001</v>
+        <v>obj_0059f#0001</v>
       </c>
       <c r="D38" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C38)</f>
@@ -5998,7 +6074,7 @@
       </c>
       <c r="E38" s="127">
         <f>_xll.qlRateHelperQuoteValue($C38,Trigger)</f>
-        <v>97.892499999999998</v>
+        <v>97.992500000000007</v>
       </c>
       <c r="F38" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C38,Trigger)</f>
@@ -6031,7 +6107,7 @@
       </c>
       <c r="C39" s="116" t="str">
         <f>Futures!H21</f>
-        <v>obj_005d8#0001</v>
+        <v>obj_0059a#0001</v>
       </c>
       <c r="D39" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C39)</f>
@@ -6039,7 +6115,7 @@
       </c>
       <c r="E39" s="127">
         <f>_xll.qlRateHelperQuoteValue($C39,Trigger)</f>
-        <v>97.712500000000006</v>
+        <v>97.797499999999999</v>
       </c>
       <c r="F39" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C39,Trigger)</f>
@@ -6072,7 +6148,7 @@
       </c>
       <c r="C40" s="116" t="str">
         <f>Futures!H22</f>
-        <v>obj_005bc#0001</v>
+        <v>obj_005be#0001</v>
       </c>
       <c r="D40" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C40)</f>
@@ -6080,7 +6156,7 @@
       </c>
       <c r="E40" s="127">
         <f>_xll.qlRateHelperQuoteValue($C40,Trigger)</f>
-        <v>97.567499999999995</v>
+        <v>97.632499999999993</v>
       </c>
       <c r="F40" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C40,Trigger)</f>
@@ -6113,7 +6189,7 @@
       </c>
       <c r="C41" s="116" t="str">
         <f>Futures!H23</f>
-        <v>obj_005c3#0001</v>
+        <v>obj_00597#0001</v>
       </c>
       <c r="D41" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C41)</f>
@@ -6121,7 +6197,7 @@
       </c>
       <c r="E41" s="127">
         <f>_xll.qlRateHelperQuoteValue($C41,Trigger)</f>
-        <v>97.4375</v>
+        <v>97.477499999999992</v>
       </c>
       <c r="F41" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C41,Trigger)</f>
@@ -6154,7 +6230,7 @@
       </c>
       <c r="C42" s="116" t="str">
         <f>Futures!H24</f>
-        <v>obj_005bb#0001</v>
+        <v>obj_00596#0001</v>
       </c>
       <c r="D42" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C42)</f>
@@ -6162,7 +6238,7 @@
       </c>
       <c r="E42" s="127">
         <f>_xll.qlRateHelperQuoteValue($C42,Trigger)</f>
-        <v>97.337500000000006</v>
+        <v>97.357500000000002</v>
       </c>
       <c r="F42" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C42,Trigger)</f>
@@ -6195,7 +6271,7 @@
       </c>
       <c r="C43" s="116" t="str">
         <f>Futures!H25</f>
-        <v>obj_005b5#0001</v>
+        <v>obj_005c1#0001</v>
       </c>
       <c r="D43" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C43)</f>
@@ -6203,7 +6279,7 @@
       </c>
       <c r="E43" s="127">
         <f>_xll.qlRateHelperQuoteValue($C43,Trigger)</f>
-        <v>97.252499999999998</v>
+        <v>97.25</v>
       </c>
       <c r="F43" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C43,Trigger)</f>
@@ -6236,7 +6312,7 @@
       </c>
       <c r="C44" s="116" t="str">
         <f>Futures!H26</f>
-        <v>obj_0059b#0001</v>
+        <v>obj_005d2#0001</v>
       </c>
       <c r="D44" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C44)</f>
@@ -6244,7 +6320,7 @@
       </c>
       <c r="E44" s="127">
         <f>_xll.qlRateHelperQuoteValue($C44,Trigger)</f>
-        <v>97.17</v>
+        <v>97.157499999999999</v>
       </c>
       <c r="F44" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C44,Trigger)</f>
@@ -6277,7 +6353,7 @@
       </c>
       <c r="C45" s="116" t="str">
         <f>Futures!H27</f>
-        <v>obj_005b2#0001</v>
+        <v>obj_005ba#0001</v>
       </c>
       <c r="D45" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C45)</f>
@@ -6285,7 +6361,7 @@
       </c>
       <c r="E45" s="127">
         <f>_xll.qlRateHelperQuoteValue($C45,Trigger)</f>
-        <v>97.09</v>
+        <v>97.072499999999991</v>
       </c>
       <c r="F45" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C45,Trigger)</f>
@@ -6318,7 +6394,7 @@
       </c>
       <c r="C46" s="116" t="str">
         <f>Futures!H28</f>
-        <v>obj_005b0#0001</v>
+        <v>obj_005c9#0001</v>
       </c>
       <c r="D46" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C46)</f>
@@ -6326,7 +6402,7 @@
       </c>
       <c r="E46" s="127">
         <f>_xll.qlRateHelperQuoteValue($C46,Trigger)</f>
-        <v>97.027500000000003</v>
+        <v>97.007499999999993</v>
       </c>
       <c r="F46" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C46,Trigger)</f>
@@ -6359,7 +6435,7 @@
       </c>
       <c r="C47" s="116" t="str">
         <f>Futures!H29</f>
-        <v>obj_005c2#0001</v>
+        <v>obj_005e0#0001</v>
       </c>
       <c r="D47" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C47)</f>
@@ -6367,7 +6443,7 @@
       </c>
       <c r="E47" s="127">
         <f>_xll.qlRateHelperQuoteValue($C47,Trigger)</f>
-        <v>96.965000000000003</v>
+        <v>96.94</v>
       </c>
       <c r="F47" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C47,Trigger)</f>
@@ -6400,7 +6476,7 @@
       </c>
       <c r="C48" s="116" t="str">
         <f>Futures!H30</f>
-        <v>obj_005c9#0001</v>
+        <v>obj_005bb#0001</v>
       </c>
       <c r="D48" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C48)</f>
@@ -6408,7 +6484,7 @@
       </c>
       <c r="E48" s="127">
         <f>_xll.qlRateHelperQuoteValue($C48,Trigger)</f>
-        <v>96.9</v>
+        <v>96.875</v>
       </c>
       <c r="F48" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C48,Trigger)</f>
@@ -6441,7 +6517,7 @@
       </c>
       <c r="C49" s="116" t="str">
         <f>Futures!H31</f>
-        <v>obj_005b3#0001</v>
+        <v>obj_005df#0001</v>
       </c>
       <c r="D49" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C49)</f>
@@ -6449,7 +6525,7 @@
       </c>
       <c r="E49" s="127">
         <f>_xll.qlRateHelperQuoteValue($C49,Trigger)</f>
-        <v>96.835000000000008</v>
+        <v>96.81</v>
       </c>
       <c r="F49" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C49,Trigger)</f>
@@ -6482,7 +6558,7 @@
       </c>
       <c r="C50" s="116" t="str">
         <f>Futures!H32</f>
-        <v>obj_005ab#0001</v>
+        <v>obj_005de#0001</v>
       </c>
       <c r="D50" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C50)</f>
@@ -6490,7 +6566,7 @@
       </c>
       <c r="E50" s="127">
         <f>_xll.qlRateHelperQuoteValue($C50,Trigger)</f>
-        <v>96.777500000000003</v>
+        <v>96.754999999999995</v>
       </c>
       <c r="F50" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C50,Trigger)</f>
@@ -6523,7 +6599,7 @@
       </c>
       <c r="C51" s="116" t="str">
         <f>Futures!H33</f>
-        <v>obj_005aa#0001</v>
+        <v>obj_005b5#0001</v>
       </c>
       <c r="D51" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C51)</f>
@@ -6531,7 +6607,7 @@
       </c>
       <c r="E51" s="127">
         <f>_xll.qlRateHelperQuoteValue($C51,Trigger)</f>
-        <v>96.72</v>
+        <v>96.704999999999998</v>
       </c>
       <c r="F51" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C51,Trigger)</f>
@@ -6564,7 +6640,7 @@
       </c>
       <c r="C52" s="116" t="str">
         <f>Futures!H34</f>
-        <v>obj_005bd#0001</v>
+        <v>obj_005a8#0001</v>
       </c>
       <c r="D52" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C52)</f>
@@ -6572,7 +6648,7 @@
       </c>
       <c r="E52" s="127">
         <f>_xll.qlRateHelperQuoteValue($C52,Trigger)</f>
-        <v>96.664999999999992</v>
+        <v>96.655000000000001</v>
       </c>
       <c r="F52" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C52,Trigger)</f>
@@ -6605,7 +6681,7 @@
       </c>
       <c r="C53" s="116" t="str">
         <f>Futures!H35</f>
-        <v>obj_005cc#0001</v>
+        <v>obj_005a9#0001</v>
       </c>
       <c r="D53" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C53)</f>
@@ -6613,7 +6689,7 @@
       </c>
       <c r="E53" s="127">
         <f>_xll.qlRateHelperQuoteValue($C53,Trigger)</f>
-        <v>96.615000000000009</v>
+        <v>96.602499999999992</v>
       </c>
       <c r="F53" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C53,Trigger)</f>
@@ -6646,7 +6722,7 @@
       </c>
       <c r="C54" s="116" t="str">
         <f>Futures!H36</f>
-        <v>obj_005da#0001</v>
+        <v>obj_005aa#0001</v>
       </c>
       <c r="D54" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C54)</f>
@@ -6654,7 +6730,7 @@
       </c>
       <c r="E54" s="127">
         <f>_xll.qlRateHelperQuoteValue($C54,Trigger)</f>
-        <v>96.577499999999986</v>
+        <v>96.567499999999995</v>
       </c>
       <c r="F54" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C54,Trigger)</f>
@@ -6687,7 +6763,7 @@
       </c>
       <c r="C55" s="116" t="str">
         <f>Futures!H37</f>
-        <v>obj_005d1#0001</v>
+        <v>obj_00599#0001</v>
       </c>
       <c r="D55" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C55)</f>
@@ -6695,7 +6771,7 @@
       </c>
       <c r="E55" s="127">
         <f>_xll.qlRateHelperQuoteValue($C55,Trigger)</f>
-        <v>96.532499999999999</v>
+        <v>96.527500000000003</v>
       </c>
       <c r="F55" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C55,Trigger)</f>
@@ -6728,7 +6804,7 @@
       </c>
       <c r="C56" s="116" t="str">
         <f>Futures!H38</f>
-        <v>obj_005c0#0001</v>
+        <v>obj_005d0#0001</v>
       </c>
       <c r="D56" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C56)</f>
@@ -6736,7 +6812,7 @@
       </c>
       <c r="E56" s="127">
         <f>_xll.qlRateHelperQuoteValue($C56,Trigger)</f>
-        <v>96.502499999999998</v>
+        <v>96.492500000000007</v>
       </c>
       <c r="F56" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C56,Trigger)</f>
@@ -6769,7 +6845,7 @@
       </c>
       <c r="C57" s="116" t="str">
         <f>Futures!H39</f>
-        <v>obj_005af#0001</v>
+        <v>obj_005c5#0001</v>
       </c>
       <c r="D57" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C57)</f>
@@ -6810,7 +6886,7 @@
       </c>
       <c r="C58" s="116" t="str">
         <f>Futures!H40</f>
-        <v>obj_005a1#0001</v>
+        <v>obj_005af#0001</v>
       </c>
       <c r="D58" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C58)</f>
@@ -6818,7 +6894,7 @@
       </c>
       <c r="E58" s="127">
         <f>_xll.qlRateHelperQuoteValue($C58,Trigger)</f>
-        <v>96.367500000000007</v>
+        <v>96.43</v>
       </c>
       <c r="F58" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C58,Trigger)</f>
@@ -6851,7 +6927,7 @@
       </c>
       <c r="C59" s="116" t="str">
         <f>Futures!H41</f>
-        <v>obj_005a8#0001</v>
+        <v>obj_005ac#0001</v>
       </c>
       <c r="D59" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C59)</f>
@@ -6859,7 +6935,7 @@
       </c>
       <c r="E59" s="127">
         <f>_xll.qlRateHelperQuoteValue($C59,Trigger)</f>
-        <v>96.39</v>
+        <v>96.384999999999991</v>
       </c>
       <c r="F59" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C59,Trigger)</f>
@@ -6892,7 +6968,7 @@
       </c>
       <c r="C60" s="116" t="str">
         <f>Futures!H42</f>
-        <v>obj_005c5#0001</v>
+        <v>obj_005c2#0001</v>
       </c>
       <c r="D60" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C60)</f>
@@ -6900,7 +6976,7 @@
       </c>
       <c r="E60" s="127">
         <f>_xll.qlRateHelperQuoteValue($C60,Trigger)</f>
-        <v>96.297499999999999</v>
+        <v>96.36</v>
       </c>
       <c r="F60" s="117">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C60,Trigger)</f>
@@ -6933,7 +7009,7 @@
       </c>
       <c r="C61" s="116" t="str">
         <f>Futures!H43</f>
-        <v>obj_005d4#0001</v>
+        <v>obj_005cc#0001</v>
       </c>
       <c r="D61" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C61)</f>
@@ -6974,7 +7050,7 @@
       </c>
       <c r="C62" s="121" t="str">
         <f>Futures!H44</f>
-        <v>obj_005be#0001</v>
+        <v>obj_005c6#0001</v>
       </c>
       <c r="D62" s="121" t="str">
         <f>_xll.qlRateHelperQuoteName(C62)</f>
@@ -6982,7 +7058,7 @@
       </c>
       <c r="E62" s="128">
         <f>_xll.qlRateHelperQuoteValue($C62,Trigger)</f>
-        <v>95.795000000000002</v>
+        <v>96.297499999999999</v>
       </c>
       <c r="F62" s="122">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C62,Trigger)</f>
@@ -7014,7 +7090,7 @@
       </c>
       <c r="C63" s="193" t="str">
         <f>Swaps!K5</f>
-        <v>obj_00597#0001</v>
+        <v>obj_005bf#0001</v>
       </c>
       <c r="D63" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(C63)</f>
@@ -7022,7 +7098,7 @@
       </c>
       <c r="E63" s="194">
         <f>_xll.qlRateHelperQuoteValue($C63,Trigger)</f>
-        <v>3.14E-3</v>
+        <v>3.1700000000000001E-3</v>
       </c>
       <c r="F63" s="194">
         <f>_xll.qlSwapRateHelperSpread($C63,Trigger)</f>
@@ -7039,11 +7115,11 @@
       </c>
       <c r="J63" s="196">
         <f>_xll.qlRateHelperEarliestDate($C63,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K63" s="197">
         <f>_xll.qlRateHelperLatestDate($C63,Trigger)</f>
-        <v>42292</v>
+        <v>42312</v>
       </c>
       <c r="M63" s="130"/>
     </row>
@@ -7054,7 +7130,7 @@
       </c>
       <c r="C64" s="116" t="str">
         <f>Swaps!K6</f>
-        <v>obj_005a0#0001</v>
+        <v>obj_005c4#0001</v>
       </c>
       <c r="D64" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C64)</f>
@@ -7080,11 +7156,11 @@
       </c>
       <c r="J64" s="118">
         <f>_xll.qlRateHelperEarliestDate($C64,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K64" s="119">
         <f>_xll.qlRateHelperLatestDate($C64,Trigger)</f>
-        <v>42384</v>
+        <v>42404</v>
       </c>
       <c r="M64" s="130"/>
     </row>
@@ -7095,7 +7171,7 @@
       </c>
       <c r="C65" s="116" t="str">
         <f>Swaps!K7</f>
-        <v>obj_00599#0001</v>
+        <v>obj_005c8#0001</v>
       </c>
       <c r="D65" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C65)</f>
@@ -7121,11 +7197,11 @@
       </c>
       <c r="J65" s="118">
         <f>_xll.qlRateHelperEarliestDate($C65,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K65" s="119">
         <f>_xll.qlRateHelperLatestDate($C65,Trigger)</f>
-        <v>42475</v>
+        <v>42494</v>
       </c>
       <c r="M65" s="130"/>
     </row>
@@ -7136,7 +7212,7 @@
       </c>
       <c r="C66" s="116" t="str">
         <f>Swaps!K8</f>
-        <v>obj_005a7#0001</v>
+        <v>obj_005c0#0001</v>
       </c>
       <c r="D66" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C66)</f>
@@ -7162,11 +7238,11 @@
       </c>
       <c r="J66" s="118">
         <f>_xll.qlRateHelperEarliestDate($C66,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K66" s="119">
         <f>_xll.qlRateHelperLatestDate($C66,Trigger)</f>
-        <v>42566</v>
+        <v>42586</v>
       </c>
       <c r="M66" s="130"/>
     </row>
@@ -7177,7 +7253,7 @@
       </c>
       <c r="C67" s="116" t="str">
         <f>Swaps!K9</f>
-        <v>obj_005dd#0001</v>
+        <v>obj_005b8#0001</v>
       </c>
       <c r="D67" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C67)</f>
@@ -7185,7 +7261,7 @@
       </c>
       <c r="E67" s="117">
         <f>_xll.qlRateHelperQuoteValue($C67,Trigger)</f>
-        <v>7.0100000000000006E-3</v>
+        <v>6.8799999999999998E-3</v>
       </c>
       <c r="F67" s="117">
         <f>_xll.qlSwapRateHelperSpread($C67,Trigger)</f>
@@ -7202,11 +7278,11 @@
       </c>
       <c r="J67" s="118">
         <f>_xll.qlRateHelperEarliestDate($C67,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K67" s="119">
         <f>_xll.qlRateHelperLatestDate($C67,Trigger)</f>
-        <v>42660</v>
+        <v>42678</v>
       </c>
       <c r="M67" s="130"/>
     </row>
@@ -7217,7 +7293,7 @@
       </c>
       <c r="C68" s="116" t="str">
         <f>Swaps!K10</f>
-        <v>obj_005d7#0001</v>
+        <v>obj_005bd#0001</v>
       </c>
       <c r="D68" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C68)</f>
@@ -7225,7 +7301,7 @@
       </c>
       <c r="E68" s="117">
         <f>_xll.qlRateHelperQuoteValue($C68,Trigger)</f>
-        <v>1.129E-2</v>
+        <v>1.1049999999999999E-2</v>
       </c>
       <c r="F68" s="117">
         <f>_xll.qlSwapRateHelperSpread($C68,Trigger)</f>
@@ -7243,11 +7319,11 @@
       </c>
       <c r="J68" s="118">
         <f>_xll.qlRateHelperEarliestDate($C68,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K68" s="119">
         <f>_xll.qlRateHelperLatestDate($C68,Trigger)</f>
-        <v>43024</v>
+        <v>43045</v>
       </c>
       <c r="M68" s="130"/>
       <c r="O68" s="201"/>
@@ -7259,7 +7335,7 @@
       </c>
       <c r="C69" s="116" t="str">
         <f>Swaps!K11</f>
-        <v>obj_005b4#0001</v>
+        <v>obj_005a0#0001</v>
       </c>
       <c r="D69" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C69)</f>
@@ -7267,7 +7343,7 @@
       </c>
       <c r="E69" s="117">
         <f>_xll.qlRateHelperQuoteValue($C69,Trigger)</f>
-        <v>1.468E-2</v>
+        <v>1.4569999999999998E-2</v>
       </c>
       <c r="F69" s="117">
         <f>_xll.qlSwapRateHelperSpread($C69,Trigger)</f>
@@ -7285,11 +7361,11 @@
       </c>
       <c r="J69" s="118">
         <f>_xll.qlRateHelperEarliestDate($C69,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K69" s="119">
         <f>_xll.qlRateHelperLatestDate($C69,Trigger)</f>
-        <v>43388</v>
+        <v>43409</v>
       </c>
       <c r="M69" s="130"/>
       <c r="O69" s="201"/>
@@ -7301,7 +7377,7 @@
       </c>
       <c r="C70" s="116" t="str">
         <f>Swaps!K12</f>
-        <v>obj_005b8#0001</v>
+        <v>obj_005b6#0001</v>
       </c>
       <c r="D70" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C70)</f>
@@ -7309,7 +7385,7 @@
       </c>
       <c r="E70" s="117">
         <f>_xll.qlRateHelperQuoteValue($C70,Trigger)</f>
-        <v>1.7229999999999999E-2</v>
+        <v>1.7269999999999997E-2</v>
       </c>
       <c r="F70" s="117">
         <f>_xll.qlSwapRateHelperSpread($C70,Trigger)</f>
@@ -7327,11 +7403,11 @@
       </c>
       <c r="J70" s="118">
         <f>_xll.qlRateHelperEarliestDate($C70,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K70" s="119">
         <f>_xll.qlRateHelperLatestDate($C70,Trigger)</f>
-        <v>43753</v>
+        <v>43773</v>
       </c>
       <c r="M70" s="130"/>
       <c r="O70" s="201"/>
@@ -7343,7 +7419,7 @@
       </c>
       <c r="C71" s="116" t="str">
         <f>Swaps!K13</f>
-        <v>obj_005c7#0001</v>
+        <v>obj_005cb#0001</v>
       </c>
       <c r="D71" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C71)</f>
@@ -7351,7 +7427,7 @@
       </c>
       <c r="E71" s="117">
         <f>_xll.qlRateHelperQuoteValue($C71,Trigger)</f>
-        <v>1.9209999999999998E-2</v>
+        <v>1.9349999999999999E-2</v>
       </c>
       <c r="F71" s="117">
         <f>_xll.qlSwapRateHelperSpread($C71,Trigger)</f>
@@ -7369,11 +7445,11 @@
       </c>
       <c r="J71" s="118">
         <f>_xll.qlRateHelperEarliestDate($C71,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K71" s="119">
         <f>_xll.qlRateHelperLatestDate($C71,Trigger)</f>
-        <v>44119</v>
+        <v>44139</v>
       </c>
       <c r="M71" s="130"/>
       <c r="O71" s="201"/>
@@ -7385,7 +7461,7 @@
       </c>
       <c r="C72" s="116" t="str">
         <f>Swaps!K14</f>
-        <v>obj_005ba#0001</v>
+        <v>obj_005da#0001</v>
       </c>
       <c r="D72" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C72)</f>
@@ -7393,7 +7469,7 @@
       </c>
       <c r="E72" s="117">
         <f>_xll.qlRateHelperQuoteValue($C72,Trigger)</f>
-        <v>2.0840000000000001E-2</v>
+        <v>2.1010000000000001E-2</v>
       </c>
       <c r="F72" s="117">
         <f>_xll.qlSwapRateHelperSpread($C72,Trigger)</f>
@@ -7411,11 +7487,11 @@
       </c>
       <c r="J72" s="118">
         <f>_xll.qlRateHelperEarliestDate($C72,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K72" s="119">
         <f>_xll.qlRateHelperLatestDate($C72,Trigger)</f>
-        <v>44484</v>
+        <v>44504</v>
       </c>
       <c r="M72" s="130"/>
       <c r="O72" s="201"/>
@@ -7427,7 +7503,7 @@
       </c>
       <c r="C73" s="116" t="str">
         <f>Swaps!K15</f>
-        <v>obj_00594#0001</v>
+        <v>obj_005db#0001</v>
       </c>
       <c r="D73" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C73)</f>
@@ -7435,7 +7511,7 @@
       </c>
       <c r="E73" s="117">
         <f>_xll.qlRateHelperQuoteValue($C73,Trigger)</f>
-        <v>2.2170000000000002E-2</v>
+        <v>2.2339999999999999E-2</v>
       </c>
       <c r="F73" s="117">
         <f>_xll.qlSwapRateHelperSpread($C73,Trigger)</f>
@@ -7453,11 +7529,11 @@
       </c>
       <c r="J73" s="118">
         <f>_xll.qlRateHelperEarliestDate($C73,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K73" s="119">
         <f>_xll.qlRateHelperLatestDate($C73,Trigger)</f>
-        <v>44851</v>
+        <v>44869</v>
       </c>
       <c r="M73" s="130"/>
       <c r="O73" s="201"/>
@@ -7469,7 +7545,7 @@
       </c>
       <c r="C74" s="116" t="str">
         <f>Swaps!K16</f>
-        <v>obj_005bf#0001</v>
+        <v>obj_005b1#0001</v>
       </c>
       <c r="D74" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C74)</f>
@@ -7477,7 +7553,7 @@
       </c>
       <c r="E74" s="117">
         <f>_xll.qlRateHelperQuoteValue($C74,Trigger)</f>
-        <v>2.3310000000000001E-2</v>
+        <v>2.3470000000000001E-2</v>
       </c>
       <c r="F74" s="117">
         <f>_xll.qlSwapRateHelperSpread($C74,Trigger)</f>
@@ -7495,11 +7571,11 @@
       </c>
       <c r="J74" s="118">
         <f>_xll.qlRateHelperEarliestDate($C74,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K74" s="119">
         <f>_xll.qlRateHelperLatestDate($C74,Trigger)</f>
-        <v>45215</v>
+        <v>45236</v>
       </c>
       <c r="M74" s="130"/>
       <c r="O74" s="201"/>
@@ -7511,7 +7587,7 @@
       </c>
       <c r="C75" s="116" t="str">
         <f>Swaps!K17</f>
-        <v>obj_005c1#0001</v>
+        <v>obj_005d8#0001</v>
       </c>
       <c r="D75" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C75)</f>
@@ -7519,7 +7595,7 @@
       </c>
       <c r="E75" s="117">
         <f>_xll.qlRateHelperQuoteValue($C75,Trigger)</f>
-        <v>2.427E-2</v>
+        <v>2.443E-2</v>
       </c>
       <c r="F75" s="117">
         <f>_xll.qlSwapRateHelperSpread($C75,Trigger)</f>
@@ -7537,11 +7613,11 @@
       </c>
       <c r="J75" s="118">
         <f>_xll.qlRateHelperEarliestDate($C75,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K75" s="119">
         <f>_xll.qlRateHelperLatestDate($C75,Trigger)</f>
-        <v>45580</v>
+        <v>45600</v>
       </c>
       <c r="M75" s="130"/>
       <c r="O75" s="201"/>
@@ -7553,7 +7629,7 @@
       </c>
       <c r="C76" s="116" t="str">
         <f>Swaps!K18</f>
-        <v>obj_005df#0001</v>
+        <v>obj_0059b#0001</v>
       </c>
       <c r="D76" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C76)</f>
@@ -7579,11 +7655,11 @@
       </c>
       <c r="J76" s="118">
         <f>_xll.qlRateHelperEarliestDate($C76,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K76" s="119">
         <f>_xll.qlRateHelperLatestDate($C76,Trigger)</f>
-        <v>45945</v>
+        <v>45965</v>
       </c>
       <c r="M76" s="130"/>
       <c r="O76" s="201"/>
@@ -7595,7 +7671,7 @@
       </c>
       <c r="C77" s="116" t="str">
         <f>Swaps!K19</f>
-        <v>obj_0059f#0001</v>
+        <v>obj_005a6#0001</v>
       </c>
       <c r="D77" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C77)</f>
@@ -7603,7 +7679,7 @@
       </c>
       <c r="E77" s="117">
         <f>_xll.qlRateHelperQuoteValue($C77,Trigger)</f>
-        <v>2.5849999999999998E-2</v>
+        <v>2.5990000000000003E-2</v>
       </c>
       <c r="F77" s="117">
         <f>_xll.qlSwapRateHelperSpread($C77,Trigger)</f>
@@ -7621,11 +7697,11 @@
       </c>
       <c r="J77" s="118">
         <f>_xll.qlRateHelperEarliestDate($C77,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K77" s="119">
         <f>_xll.qlRateHelperLatestDate($C77,Trigger)</f>
-        <v>46310</v>
+        <v>46330</v>
       </c>
       <c r="M77" s="130"/>
       <c r="O77" s="201"/>
@@ -7637,7 +7713,7 @@
       </c>
       <c r="C78" s="116" t="str">
         <f>Swaps!K20</f>
-        <v>obj_00592#0001</v>
+        <v>obj_005cd#0001</v>
       </c>
       <c r="D78" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C78)</f>
@@ -7663,11 +7739,11 @@
       </c>
       <c r="J78" s="118">
         <f>_xll.qlRateHelperEarliestDate($C78,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K78" s="119">
         <f>_xll.qlRateHelperLatestDate($C78,Trigger)</f>
-        <v>46675</v>
+        <v>46695</v>
       </c>
       <c r="M78" s="130"/>
       <c r="O78" s="201"/>
@@ -7679,7 +7755,7 @@
       </c>
       <c r="C79" s="116" t="str">
         <f>Swaps!K21</f>
-        <v>obj_005a9#0001</v>
+        <v>obj_005b0#0001</v>
       </c>
       <c r="D79" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C79)</f>
@@ -7705,11 +7781,11 @@
       </c>
       <c r="J79" s="118">
         <f>_xll.qlRateHelperEarliestDate($C79,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K79" s="119">
         <f>_xll.qlRateHelperLatestDate($C79,Trigger)</f>
-        <v>47042</v>
+        <v>47063</v>
       </c>
       <c r="M79" s="130"/>
       <c r="O79" s="201"/>
@@ -7721,7 +7797,7 @@
       </c>
       <c r="C80" s="116" t="str">
         <f>Swaps!K22</f>
-        <v>obj_005c6#0001</v>
+        <v>obj_005ae#0001</v>
       </c>
       <c r="D80" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C80)</f>
@@ -7729,7 +7805,7 @@
       </c>
       <c r="E80" s="117">
         <f>_xll.qlRateHelperQuoteValue($C80,Trigger)</f>
-        <v>2.7489999999999997E-2</v>
+        <v>2.758E-2</v>
       </c>
       <c r="F80" s="117">
         <f>_xll.qlSwapRateHelperSpread($C80,Trigger)</f>
@@ -7747,11 +7823,11 @@
       </c>
       <c r="J80" s="118">
         <f>_xll.qlRateHelperEarliestDate($C80,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K80" s="119">
         <f>_xll.qlRateHelperLatestDate($C80,Trigger)</f>
-        <v>47406</v>
+        <v>47427</v>
       </c>
       <c r="M80" s="130"/>
       <c r="O80" s="201"/>
@@ -7763,7 +7839,7 @@
       </c>
       <c r="C81" s="116" t="str">
         <f>Swaps!K23</f>
-        <v>obj_005a2#0001</v>
+        <v>obj_005ce#0001</v>
       </c>
       <c r="D81" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C81)</f>
@@ -7789,11 +7865,11 @@
       </c>
       <c r="J81" s="118">
         <f>_xll.qlRateHelperEarliestDate($C81,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K81" s="119">
         <f>_xll.qlRateHelperLatestDate($C81,Trigger)</f>
-        <v>47771</v>
+        <v>47791</v>
       </c>
       <c r="M81" s="130"/>
       <c r="O81" s="201"/>
@@ -7805,7 +7881,7 @@
       </c>
       <c r="C82" s="116" t="str">
         <f>Swaps!K24</f>
-        <v>obj_005dc#0001</v>
+        <v>obj_005b3#0001</v>
       </c>
       <c r="D82" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C82)</f>
@@ -7831,11 +7907,11 @@
       </c>
       <c r="J82" s="118">
         <f>_xll.qlRateHelperEarliestDate($C82,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K82" s="119">
         <f>_xll.qlRateHelperLatestDate($C82,Trigger)</f>
-        <v>48136</v>
+        <v>48156</v>
       </c>
       <c r="M82" s="130"/>
       <c r="O82" s="201"/>
@@ -7847,7 +7923,7 @@
       </c>
       <c r="C83" s="116" t="str">
         <f>Swaps!K25</f>
-        <v>obj_005a6#0001</v>
+        <v>obj_0059e#0001</v>
       </c>
       <c r="D83" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C83)</f>
@@ -7873,11 +7949,11 @@
       </c>
       <c r="J83" s="118">
         <f>_xll.qlRateHelperEarliestDate($C83,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K83" s="119">
         <f>_xll.qlRateHelperLatestDate($C83,Trigger)</f>
-        <v>48502</v>
+        <v>48522</v>
       </c>
       <c r="M83" s="130"/>
       <c r="O83" s="201"/>
@@ -7889,7 +7965,7 @@
       </c>
       <c r="C84" s="116" t="str">
         <f>Swaps!K26</f>
-        <v>obj_005d6#0001</v>
+        <v>obj_005d9#0001</v>
       </c>
       <c r="D84" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C84)</f>
@@ -7915,11 +7991,11 @@
       </c>
       <c r="J84" s="118">
         <f>_xll.qlRateHelperEarliestDate($C84,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K84" s="119">
         <f>_xll.qlRateHelperLatestDate($C84,Trigger)</f>
-        <v>48869</v>
+        <v>48887</v>
       </c>
       <c r="M84" s="130"/>
       <c r="O84" s="201"/>
@@ -7931,7 +8007,7 @@
       </c>
       <c r="C85" s="116" t="str">
         <f>Swaps!K27</f>
-        <v>obj_005c8#0001</v>
+        <v>obj_005b7#0001</v>
       </c>
       <c r="D85" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C85)</f>
@@ -7939,7 +8015,7 @@
       </c>
       <c r="E85" s="117">
         <f>_xll.qlRateHelperQuoteValue($C85,Trigger)</f>
-        <v>2.904E-2</v>
+        <v>2.9130000000000003E-2</v>
       </c>
       <c r="F85" s="117">
         <f>_xll.qlSwapRateHelperSpread($C85,Trigger)</f>
@@ -7957,11 +8033,11 @@
       </c>
       <c r="J85" s="118">
         <f>_xll.qlRateHelperEarliestDate($C85,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K85" s="119">
         <f>_xll.qlRateHelperLatestDate($C85,Trigger)</f>
-        <v>49233</v>
+        <v>49254</v>
       </c>
       <c r="M85" s="130"/>
       <c r="O85" s="201"/>
@@ -7973,7 +8049,7 @@
       </c>
       <c r="C86" s="116" t="str">
         <f>Swaps!K28</f>
-        <v>obj_005b9#0001</v>
+        <v>obj_005d3#0001</v>
       </c>
       <c r="D86" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C86)</f>
@@ -7999,11 +8075,11 @@
       </c>
       <c r="J86" s="118">
         <f>_xll.qlRateHelperEarliestDate($C86,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K86" s="119">
         <f>_xll.qlRateHelperLatestDate($C86,Trigger)</f>
-        <v>49597</v>
+        <v>49618</v>
       </c>
       <c r="M86" s="130"/>
       <c r="O86" s="201"/>
@@ -8015,7 +8091,7 @@
       </c>
       <c r="C87" s="116" t="str">
         <f>Swaps!K29</f>
-        <v>obj_005cb#0001</v>
+        <v>obj_005a2#0001</v>
       </c>
       <c r="D87" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C87)</f>
@@ -8041,11 +8117,11 @@
       </c>
       <c r="J87" s="118">
         <f>_xll.qlRateHelperEarliestDate($C87,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K87" s="119">
         <f>_xll.qlRateHelperLatestDate($C87,Trigger)</f>
-        <v>49963</v>
+        <v>49983</v>
       </c>
       <c r="M87" s="130"/>
       <c r="O87" s="201"/>
@@ -8057,7 +8133,7 @@
       </c>
       <c r="C88" s="116" t="str">
         <f>Swaps!K30</f>
-        <v>obj_0059c#0001</v>
+        <v>obj_005dc#0001</v>
       </c>
       <c r="D88" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C88)</f>
@@ -8083,11 +8159,11 @@
       </c>
       <c r="J88" s="118">
         <f>_xll.qlRateHelperEarliestDate($C88,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K88" s="119">
         <f>_xll.qlRateHelperLatestDate($C88,Trigger)</f>
-        <v>50328</v>
+        <v>50348</v>
       </c>
       <c r="M88" s="130"/>
       <c r="O88" s="201"/>
@@ -8099,7 +8175,7 @@
       </c>
       <c r="C89" s="116" t="str">
         <f>Swaps!K31</f>
-        <v>obj_005cd#0001</v>
+        <v>obj_005b2#0001</v>
       </c>
       <c r="D89" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C89)</f>
@@ -8125,11 +8201,11 @@
       </c>
       <c r="J89" s="118">
         <f>_xll.qlRateHelperEarliestDate($C89,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K89" s="119">
         <f>_xll.qlRateHelperLatestDate($C89,Trigger)</f>
-        <v>50693</v>
+        <v>50713</v>
       </c>
       <c r="M89" s="130"/>
       <c r="O89" s="201"/>
@@ -8141,7 +8217,7 @@
       </c>
       <c r="C90" s="116" t="str">
         <f>Swaps!K32</f>
-        <v>obj_005d0#0001</v>
+        <v>obj_005d5#0001</v>
       </c>
       <c r="D90" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C90)</f>
@@ -8149,7 +8225,7 @@
       </c>
       <c r="E90" s="117">
         <f>_xll.qlRateHelperQuoteValue($C90,Trigger)</f>
-        <v>2.9779999999999997E-2</v>
+        <v>2.9870000000000001E-2</v>
       </c>
       <c r="F90" s="117">
         <f>_xll.qlSwapRateHelperSpread($C90,Trigger)</f>
@@ -8167,11 +8243,11 @@
       </c>
       <c r="J90" s="118">
         <f>_xll.qlRateHelperEarliestDate($C90,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K90" s="119">
         <f>_xll.qlRateHelperLatestDate($C90,Trigger)</f>
-        <v>51060</v>
+        <v>51078</v>
       </c>
       <c r="M90" s="130"/>
       <c r="O90" s="201"/>
@@ -8183,7 +8259,7 @@
       </c>
       <c r="C91" s="116" t="str">
         <f>Swaps!K33</f>
-        <v>obj_005e0#0001</v>
+        <v>obj_005a5#0001</v>
       </c>
       <c r="D91" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C91)</f>
@@ -8209,11 +8285,11 @@
       </c>
       <c r="J91" s="118">
         <f>_xll.qlRateHelperEarliestDate($C91,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K91" s="119">
         <f>_xll.qlRateHelperLatestDate($C91,Trigger)</f>
-        <v>51424</v>
+        <v>51445</v>
       </c>
       <c r="M91" s="130"/>
       <c r="O91" s="201"/>
@@ -8225,7 +8301,7 @@
       </c>
       <c r="C92" s="116" t="str">
         <f>Swaps!K34</f>
-        <v>obj_005d2#0001</v>
+        <v>obj_005a3#0001</v>
       </c>
       <c r="D92" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C92)</f>
@@ -8251,11 +8327,11 @@
       </c>
       <c r="J92" s="118">
         <f>_xll.qlRateHelperEarliestDate($C92,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K92" s="119">
         <f>_xll.qlRateHelperLatestDate($C92,Trigger)</f>
-        <v>51789</v>
+        <v>51809</v>
       </c>
       <c r="M92" s="130"/>
       <c r="O92" s="201"/>
@@ -8267,7 +8343,7 @@
       </c>
       <c r="C93" s="116" t="str">
         <f>Swaps!K35</f>
-        <v>obj_0059a#0001</v>
+        <v>obj_005b4#0001</v>
       </c>
       <c r="D93" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C93)</f>
@@ -8293,11 +8369,11 @@
       </c>
       <c r="J93" s="118">
         <f>_xll.qlRateHelperEarliestDate($C93,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K93" s="119">
         <f>_xll.qlRateHelperLatestDate($C93,Trigger)</f>
-        <v>52154</v>
+        <v>52174</v>
       </c>
       <c r="M93" s="130"/>
       <c r="O93" s="201"/>
@@ -8309,7 +8385,7 @@
       </c>
       <c r="C94" s="116" t="str">
         <f>Swaps!K36</f>
-        <v>obj_00593#0001</v>
+        <v>obj_005d7#0001</v>
       </c>
       <c r="D94" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C94)</f>
@@ -8335,11 +8411,11 @@
       </c>
       <c r="J94" s="118">
         <f>_xll.qlRateHelperEarliestDate($C94,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K94" s="119">
         <f>_xll.qlRateHelperLatestDate($C94,Trigger)</f>
-        <v>52519</v>
+        <v>52539</v>
       </c>
       <c r="M94" s="130"/>
       <c r="O94" s="201"/>
@@ -8351,7 +8427,7 @@
       </c>
       <c r="C95" s="116" t="str">
         <f>Swaps!K37</f>
-        <v>obj_00596#0001</v>
+        <v>obj_0059c#0001</v>
       </c>
       <c r="D95" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C95)</f>
@@ -8359,7 +8435,7 @@
       </c>
       <c r="E95" s="117">
         <f>_xll.qlRateHelperQuoteValue($C95,Trigger)</f>
-        <v>3.0190000000000002E-2</v>
+        <v>3.0249999999999999E-2</v>
       </c>
       <c r="F95" s="117">
         <f>_xll.qlSwapRateHelperSpread($C95,Trigger)</f>
@@ -8377,11 +8453,11 @@
       </c>
       <c r="J95" s="118">
         <f>_xll.qlRateHelperEarliestDate($C95,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K95" s="119">
         <f>_xll.qlRateHelperLatestDate($C95,Trigger)</f>
-        <v>52887</v>
+        <v>52905</v>
       </c>
       <c r="M95" s="130"/>
       <c r="O95" s="201"/>
@@ -8393,7 +8469,7 @@
       </c>
       <c r="C96" s="116" t="str">
         <f>Swaps!K38</f>
-        <v>obj_005cf#0001</v>
+        <v>obj_005d4#0001</v>
       </c>
       <c r="D96" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C96)</f>
@@ -8419,11 +8495,11 @@
       </c>
       <c r="J96" s="118">
         <f>_xll.qlRateHelperEarliestDate($C96,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K96" s="119">
         <f>_xll.qlRateHelperLatestDate($C96,Trigger)</f>
-        <v>54711</v>
+        <v>54731</v>
       </c>
       <c r="M96" s="130"/>
       <c r="O96" s="201"/>
@@ -8435,7 +8511,7 @@
       </c>
       <c r="C97" s="116" t="str">
         <f>Swaps!K39</f>
-        <v>obj_005a5#0001</v>
+        <v>obj_00594#0001</v>
       </c>
       <c r="D97" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C97)</f>
@@ -8443,7 +8519,7 @@
       </c>
       <c r="E97" s="117">
         <f>_xll.qlRateHelperQuoteValue($C97,Trigger)</f>
-        <v>3.04E-2</v>
+        <v>3.041E-2</v>
       </c>
       <c r="F97" s="117">
         <f>_xll.qlSwapRateHelperSpread($C97,Trigger)</f>
@@ -8461,11 +8537,11 @@
       </c>
       <c r="J97" s="118">
         <f>_xll.qlRateHelperEarliestDate($C97,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K97" s="119">
         <f>_xll.qlRateHelperLatestDate($C97,Trigger)</f>
-        <v>56537</v>
+        <v>56557</v>
       </c>
       <c r="M97" s="130"/>
       <c r="O97" s="201"/>
@@ -8477,7 +8553,7 @@
       </c>
       <c r="C98" s="116" t="str">
         <f>Swaps!K40</f>
-        <v>obj_005b6#0001</v>
+        <v>obj_005ad#0001</v>
       </c>
       <c r="D98" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C98)</f>
@@ -8485,7 +8561,7 @@
       </c>
       <c r="E98" s="117">
         <f>_xll.qlRateHelperQuoteValue($C98,Trigger)</f>
-        <v>3.0190000000000002E-2</v>
+        <v>3.0249999999999999E-2</v>
       </c>
       <c r="F98" s="117">
         <f>_xll.qlSwapRateHelperSpread($C98,Trigger)</f>
@@ -8503,11 +8579,11 @@
       </c>
       <c r="J98" s="118">
         <f>_xll.qlRateHelperEarliestDate($C98,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K98" s="119">
         <f>_xll.qlRateHelperLatestDate($C98,Trigger)</f>
-        <v>60190</v>
+        <v>60210</v>
       </c>
       <c r="M98" s="130"/>
       <c r="O98" s="201"/>
@@ -8519,7 +8595,7 @@
       </c>
       <c r="C99" s="116" t="str">
         <f>Swaps!K41</f>
-        <v>obj_005c4#0001</v>
+        <v>obj_005a1#0001</v>
       </c>
       <c r="D99" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C99)</f>
@@ -8545,11 +8621,11 @@
       </c>
       <c r="J99" s="118">
         <f>_xll.qlRateHelperEarliestDate($C99,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K99" s="119">
         <f>_xll.qlRateHelperLatestDate($C99,Trigger)</f>
-        <v>63842</v>
+        <v>63863</v>
       </c>
       <c r="M99" s="130"/>
     </row>
@@ -8561,7 +8637,7 @@
       </c>
       <c r="C100" s="193" t="str">
         <f>Swaps!K43</f>
-        <v>obj_00517#0001</v>
+        <v>obj_0053a#0001</v>
       </c>
       <c r="D100" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(C100)</f>
@@ -8569,7 +8645,7 @@
       </c>
       <c r="E100" s="194">
         <f>_xll.qlRateHelperQuoteValue($C100,Trigger)</f>
-        <v>3.1186784699999996E-3</v>
+        <v>3.1287906E-3</v>
       </c>
       <c r="F100" s="194">
         <f>_xll.qlSwapRateHelperSpread($C100,Trigger)</f>
@@ -8586,11 +8662,11 @@
       </c>
       <c r="J100" s="196">
         <f>_xll.qlRateHelperEarliestDate($C100,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K100" s="197">
         <f>_xll.qlRateHelperLatestDate($C100,Trigger)</f>
-        <v>42292</v>
+        <v>42312</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8601,7 +8677,7 @@
       </c>
       <c r="C101" s="116" t="str">
         <f>Swaps!K44</f>
-        <v>obj_004f4#0001</v>
+        <v>obj_004f1#0001</v>
       </c>
       <c r="D101" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C101)</f>
@@ -8627,11 +8703,11 @@
       </c>
       <c r="J101" s="118">
         <f>_xll.qlRateHelperEarliestDate($C101,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K101" s="119">
         <f>_xll.qlRateHelperLatestDate($C101,Trigger)</f>
-        <v>42384</v>
+        <v>42404</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8642,7 +8718,7 @@
       </c>
       <c r="C102" s="116" t="str">
         <f>Swaps!K45</f>
-        <v>obj_00535#0001</v>
+        <v>obj_0051b#0001</v>
       </c>
       <c r="D102" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C102)</f>
@@ -8668,11 +8744,11 @@
       </c>
       <c r="J102" s="118">
         <f>_xll.qlRateHelperEarliestDate($C102,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K102" s="119">
         <f>_xll.qlRateHelperLatestDate($C102,Trigger)</f>
-        <v>42475</v>
+        <v>42494</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8683,7 +8759,7 @@
       </c>
       <c r="C103" s="116" t="str">
         <f>Swaps!K46</f>
-        <v>obj_0054c#0001</v>
+        <v>obj_00541#0001</v>
       </c>
       <c r="D103" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C103)</f>
@@ -8709,11 +8785,11 @@
       </c>
       <c r="J103" s="118">
         <f>_xll.qlRateHelperEarliestDate($C103,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K103" s="119">
         <f>_xll.qlRateHelperLatestDate($C103,Trigger)</f>
-        <v>42566</v>
+        <v>42586</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8724,7 +8800,7 @@
       </c>
       <c r="C104" s="116" t="str">
         <f>Swaps!K47</f>
-        <v>obj_0056c#0001</v>
+        <v>obj_00537#0001</v>
       </c>
       <c r="D104" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C104)</f>
@@ -8732,7 +8808,7 @@
       </c>
       <c r="E104" s="117">
         <f>_xll.qlRateHelperQuoteValue($C104,Trigger)</f>
-        <v>7.0405521099999998E-3</v>
+        <v>6.8611686800000007E-3</v>
       </c>
       <c r="F104" s="117">
         <f>_xll.qlSwapRateHelperSpread($C104,Trigger)</f>
@@ -8749,11 +8825,11 @@
       </c>
       <c r="J104" s="118">
         <f>_xll.qlRateHelperEarliestDate($C104,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K104" s="119">
         <f>_xll.qlRateHelperLatestDate($C104,Trigger)</f>
-        <v>42660</v>
+        <v>42678</v>
       </c>
       <c r="O104" s="201"/>
     </row>
@@ -8765,7 +8841,7 @@
       </c>
       <c r="C105" s="116" t="str">
         <f>Swaps!K48</f>
-        <v>obj_0056b#0001</v>
+        <v>obj_004f8#0001</v>
       </c>
       <c r="D105" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C105)</f>
@@ -8773,7 +8849,7 @@
       </c>
       <c r="E105" s="117">
         <f>_xll.qlRateHelperQuoteValue($C105,Trigger)</f>
-        <v>1.129E-2</v>
+        <v>1.1049999999999999E-2</v>
       </c>
       <c r="F105" s="117">
         <f>_xll.qlSwapRateHelperSpread($C105,Trigger)</f>
@@ -8791,11 +8867,11 @@
       </c>
       <c r="J105" s="118">
         <f>_xll.qlRateHelperEarliestDate($C105,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K105" s="119">
         <f>_xll.qlRateHelperLatestDate($C105,Trigger)</f>
-        <v>43024</v>
+        <v>43045</v>
       </c>
       <c r="O105" s="201"/>
     </row>
@@ -8807,7 +8883,7 @@
       </c>
       <c r="C106" s="116" t="str">
         <f>Swaps!K49</f>
-        <v>obj_00501#0001</v>
+        <v>obj_00545#0001</v>
       </c>
       <c r="D106" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C106)</f>
@@ -8815,7 +8891,7 @@
       </c>
       <c r="E106" s="117">
         <f>_xll.qlRateHelperQuoteValue($C106,Trigger)</f>
-        <v>1.468E-2</v>
+        <v>1.4570000000000001E-2</v>
       </c>
       <c r="F106" s="117">
         <f>_xll.qlSwapRateHelperSpread($C106,Trigger)</f>
@@ -8833,11 +8909,11 @@
       </c>
       <c r="J106" s="118">
         <f>_xll.qlRateHelperEarliestDate($C106,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K106" s="119">
         <f>_xll.qlRateHelperLatestDate($C106,Trigger)</f>
-        <v>43388</v>
+        <v>43409</v>
       </c>
       <c r="O106" s="201"/>
     </row>
@@ -8849,7 +8925,7 @@
       </c>
       <c r="C107" s="116" t="str">
         <f>Swaps!K50</f>
-        <v>obj_00544#0001</v>
+        <v>obj_004eb#0001</v>
       </c>
       <c r="D107" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C107)</f>
@@ -8857,7 +8933,7 @@
       </c>
       <c r="E107" s="117">
         <f>_xll.qlRateHelperQuoteValue($C107,Trigger)</f>
-        <v>1.7230000000000002E-2</v>
+        <v>1.7270000000000001E-2</v>
       </c>
       <c r="F107" s="117">
         <f>_xll.qlSwapRateHelperSpread($C107,Trigger)</f>
@@ -8875,11 +8951,11 @@
       </c>
       <c r="J107" s="118">
         <f>_xll.qlRateHelperEarliestDate($C107,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K107" s="119">
         <f>_xll.qlRateHelperLatestDate($C107,Trigger)</f>
-        <v>43753</v>
+        <v>43773</v>
       </c>
       <c r="O107" s="201"/>
     </row>
@@ -8891,7 +8967,7 @@
       </c>
       <c r="C108" s="116" t="str">
         <f>Swaps!K51</f>
-        <v>obj_00506#0001</v>
+        <v>obj_00515#0001</v>
       </c>
       <c r="D108" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C108)</f>
@@ -8899,7 +8975,7 @@
       </c>
       <c r="E108" s="117">
         <f>_xll.qlRateHelperQuoteValue($C108,Trigger)</f>
-        <v>1.9210000000000001E-2</v>
+        <v>1.9349999999999999E-2</v>
       </c>
       <c r="F108" s="117">
         <f>_xll.qlSwapRateHelperSpread($C108,Trigger)</f>
@@ -8917,11 +8993,11 @@
       </c>
       <c r="J108" s="118">
         <f>_xll.qlRateHelperEarliestDate($C108,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K108" s="119">
         <f>_xll.qlRateHelperLatestDate($C108,Trigger)</f>
-        <v>44119</v>
+        <v>44139</v>
       </c>
       <c r="O108" s="201"/>
     </row>
@@ -8933,7 +9009,7 @@
       </c>
       <c r="C109" s="116" t="str">
         <f>Swaps!K52</f>
-        <v>obj_0056f#0001</v>
+        <v>obj_00542#0001</v>
       </c>
       <c r="D109" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C109)</f>
@@ -8941,7 +9017,7 @@
       </c>
       <c r="E109" s="117">
         <f>_xll.qlRateHelperQuoteValue($C109,Trigger)</f>
-        <v>2.0840000000000001E-2</v>
+        <v>2.1010000000000001E-2</v>
       </c>
       <c r="F109" s="117">
         <f>_xll.qlSwapRateHelperSpread($C109,Trigger)</f>
@@ -8959,11 +9035,11 @@
       </c>
       <c r="J109" s="118">
         <f>_xll.qlRateHelperEarliestDate($C109,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K109" s="119">
         <f>_xll.qlRateHelperLatestDate($C109,Trigger)</f>
-        <v>44484</v>
+        <v>44504</v>
       </c>
       <c r="O109" s="201"/>
     </row>
@@ -8975,7 +9051,7 @@
       </c>
       <c r="C110" s="116" t="str">
         <f>Swaps!K53</f>
-        <v>obj_0052f#0001</v>
+        <v>obj_0050b#0001</v>
       </c>
       <c r="D110" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C110)</f>
@@ -8983,7 +9059,7 @@
       </c>
       <c r="E110" s="117">
         <f>_xll.qlRateHelperQuoteValue($C110,Trigger)</f>
-        <v>2.2170000000000002E-2</v>
+        <v>2.2339999999999999E-2</v>
       </c>
       <c r="F110" s="117">
         <f>_xll.qlSwapRateHelperSpread($C110,Trigger)</f>
@@ -9001,11 +9077,11 @@
       </c>
       <c r="J110" s="118">
         <f>_xll.qlRateHelperEarliestDate($C110,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K110" s="119">
         <f>_xll.qlRateHelperLatestDate($C110,Trigger)</f>
-        <v>44851</v>
+        <v>44869</v>
       </c>
       <c r="O110" s="201"/>
     </row>
@@ -9017,7 +9093,7 @@
       </c>
       <c r="C111" s="116" t="str">
         <f>Swaps!K54</f>
-        <v>obj_0050f#0001</v>
+        <v>obj_00538#0001</v>
       </c>
       <c r="D111" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C111)</f>
@@ -9025,7 +9101,7 @@
       </c>
       <c r="E111" s="117">
         <f>_xll.qlRateHelperQuoteValue($C111,Trigger)</f>
-        <v>2.3310000000000001E-2</v>
+        <v>2.3470000000000001E-2</v>
       </c>
       <c r="F111" s="117">
         <f>_xll.qlSwapRateHelperSpread($C111,Trigger)</f>
@@ -9043,11 +9119,11 @@
       </c>
       <c r="J111" s="118">
         <f>_xll.qlRateHelperEarliestDate($C111,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K111" s="119">
         <f>_xll.qlRateHelperLatestDate($C111,Trigger)</f>
-        <v>45215</v>
+        <v>45236</v>
       </c>
       <c r="O111" s="201"/>
     </row>
@@ -9059,7 +9135,7 @@
       </c>
       <c r="C112" s="116" t="str">
         <f>Swaps!K55</f>
-        <v>obj_0056e#0001</v>
+        <v>obj_00531#0001</v>
       </c>
       <c r="D112" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C112)</f>
@@ -9067,7 +9143,7 @@
       </c>
       <c r="E112" s="117">
         <f>_xll.qlRateHelperQuoteValue($C112,Trigger)</f>
-        <v>2.427E-2</v>
+        <v>2.443E-2</v>
       </c>
       <c r="F112" s="117">
         <f>_xll.qlSwapRateHelperSpread($C112,Trigger)</f>
@@ -9085,11 +9161,11 @@
       </c>
       <c r="J112" s="118">
         <f>_xll.qlRateHelperEarliestDate($C112,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K112" s="119">
         <f>_xll.qlRateHelperLatestDate($C112,Trigger)</f>
-        <v>45580</v>
+        <v>45600</v>
       </c>
       <c r="O112" s="201"/>
     </row>
@@ -9101,7 +9177,7 @@
       </c>
       <c r="C113" s="116" t="str">
         <f>Swaps!K56</f>
-        <v>obj_0055f#0001</v>
+        <v>obj_0051e#0001</v>
       </c>
       <c r="D113" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C113)</f>
@@ -9109,7 +9185,7 @@
       </c>
       <c r="E113" s="117">
         <f>_xll.qlRateHelperQuoteValue($C113,Trigger)</f>
-        <v>2.5114325999999999E-2</v>
+        <v>2.526832721E-2</v>
       </c>
       <c r="F113" s="117">
         <f>_xll.qlSwapRateHelperSpread($C113,Trigger)</f>
@@ -9127,11 +9203,11 @@
       </c>
       <c r="J113" s="118">
         <f>_xll.qlRateHelperEarliestDate($C113,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K113" s="119">
         <f>_xll.qlRateHelperLatestDate($C113,Trigger)</f>
-        <v>45945</v>
+        <v>45965</v>
       </c>
       <c r="O113" s="201"/>
     </row>
@@ -9143,7 +9219,7 @@
       </c>
       <c r="C114" s="116" t="str">
         <f>Swaps!K57</f>
-        <v>obj_00522#0001</v>
+        <v>obj_00509#0001</v>
       </c>
       <c r="D114" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C114)</f>
@@ -9151,7 +9227,7 @@
       </c>
       <c r="E114" s="117">
         <f>_xll.qlRateHelperQuoteValue($C114,Trigger)</f>
-        <v>2.5849999999999998E-2</v>
+        <v>2.5990000000000003E-2</v>
       </c>
       <c r="F114" s="117">
         <f>_xll.qlSwapRateHelperSpread($C114,Trigger)</f>
@@ -9169,11 +9245,11 @@
       </c>
       <c r="J114" s="118">
         <f>_xll.qlRateHelperEarliestDate($C114,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K114" s="119">
         <f>_xll.qlRateHelperLatestDate($C114,Trigger)</f>
-        <v>46310</v>
+        <v>46330</v>
       </c>
       <c r="O114" s="201"/>
     </row>
@@ -9185,7 +9261,7 @@
       </c>
       <c r="C115" s="116" t="str">
         <f>Swaps!K58</f>
-        <v>obj_00529#0001</v>
+        <v>obj_0051a#0001</v>
       </c>
       <c r="D115" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C115)</f>
@@ -9193,7 +9269,7 @@
       </c>
       <c r="E115" s="117">
         <f>_xll.qlRateHelperQuoteValue($C115,Trigger)</f>
-        <v>2.647976581E-2</v>
+        <v>2.6601208139999999E-2</v>
       </c>
       <c r="F115" s="117">
         <f>_xll.qlSwapRateHelperSpread($C115,Trigger)</f>
@@ -9211,11 +9287,11 @@
       </c>
       <c r="J115" s="118">
         <f>_xll.qlRateHelperEarliestDate($C115,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K115" s="119">
         <f>_xll.qlRateHelperLatestDate($C115,Trigger)</f>
-        <v>46675</v>
+        <v>46695</v>
       </c>
       <c r="O115" s="201"/>
     </row>
@@ -9227,7 +9303,7 @@
       </c>
       <c r="C116" s="116" t="str">
         <f>Swaps!K59</f>
-        <v>obj_004ee#0001</v>
+        <v>obj_00502#0001</v>
       </c>
       <c r="D116" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C116)</f>
@@ -9235,7 +9311,7 @@
       </c>
       <c r="E116" s="117">
         <f>_xll.qlRateHelperQuoteValue($C116,Trigger)</f>
-        <v>2.702473046E-2</v>
+        <v>2.7127998760000001E-2</v>
       </c>
       <c r="F116" s="117">
         <f>_xll.qlSwapRateHelperSpread($C116,Trigger)</f>
@@ -9253,11 +9329,11 @@
       </c>
       <c r="J116" s="118">
         <f>_xll.qlRateHelperEarliestDate($C116,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K116" s="119">
         <f>_xll.qlRateHelperLatestDate($C116,Trigger)</f>
-        <v>47042</v>
+        <v>47063</v>
       </c>
       <c r="O116" s="201"/>
     </row>
@@ -9269,7 +9345,7 @@
       </c>
       <c r="C117" s="116" t="str">
         <f>Swaps!K60</f>
-        <v>obj_00562#0001</v>
+        <v>obj_004f6#0001</v>
       </c>
       <c r="D117" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C117)</f>
@@ -9277,7 +9353,7 @@
       </c>
       <c r="E117" s="117">
         <f>_xll.qlRateHelperQuoteValue($C117,Trigger)</f>
-        <v>2.7490000000000001E-2</v>
+        <v>2.758E-2</v>
       </c>
       <c r="F117" s="117">
         <f>_xll.qlSwapRateHelperSpread($C117,Trigger)</f>
@@ -9295,11 +9371,11 @@
       </c>
       <c r="J117" s="118">
         <f>_xll.qlRateHelperEarliestDate($C117,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K117" s="119">
         <f>_xll.qlRateHelperLatestDate($C117,Trigger)</f>
-        <v>47406</v>
+        <v>47427</v>
       </c>
       <c r="O117" s="201"/>
     </row>
@@ -9311,7 +9387,7 @@
       </c>
       <c r="C118" s="116" t="str">
         <f>Swaps!K61</f>
-        <v>obj_00543#0001</v>
+        <v>obj_0051c#0001</v>
       </c>
       <c r="D118" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C118)</f>
@@ -9319,7 +9395,7 @@
       </c>
       <c r="E118" s="117">
         <f>_xll.qlRateHelperQuoteValue($C118,Trigger)</f>
-        <v>2.7893705229999999E-2</v>
+        <v>2.797722238E-2</v>
       </c>
       <c r="F118" s="117">
         <f>_xll.qlSwapRateHelperSpread($C118,Trigger)</f>
@@ -9337,11 +9413,11 @@
       </c>
       <c r="J118" s="118">
         <f>_xll.qlRateHelperEarliestDate($C118,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K118" s="119">
         <f>_xll.qlRateHelperLatestDate($C118,Trigger)</f>
-        <v>47771</v>
+        <v>47791</v>
       </c>
       <c r="O118" s="201"/>
     </row>
@@ -9353,7 +9429,7 @@
       </c>
       <c r="C119" s="116" t="str">
         <f>Swaps!K62</f>
-        <v>obj_0054b#0001</v>
+        <v>obj_00543#0001</v>
       </c>
       <c r="D119" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C119)</f>
@@ -9361,7 +9437,7 @@
       </c>
       <c r="E119" s="117">
         <f>_xll.qlRateHelperQuoteValue($C119,Trigger)</f>
-        <v>2.824515297E-2</v>
+        <v>2.8327272180000002E-2</v>
       </c>
       <c r="F119" s="117">
         <f>_xll.qlSwapRateHelperSpread($C119,Trigger)</f>
@@ -9379,11 +9455,11 @@
       </c>
       <c r="J119" s="118">
         <f>_xll.qlRateHelperEarliestDate($C119,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K119" s="119">
         <f>_xll.qlRateHelperLatestDate($C119,Trigger)</f>
-        <v>48136</v>
+        <v>48156</v>
       </c>
       <c r="O119" s="201"/>
     </row>
@@ -9395,7 +9471,7 @@
       </c>
       <c r="C120" s="116" t="str">
         <f>Swaps!K63</f>
-        <v>obj_004ed#0001</v>
+        <v>obj_004fc#0001</v>
       </c>
       <c r="D120" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C120)</f>
@@ -9403,7 +9479,7 @@
       </c>
       <c r="E120" s="117">
         <f>_xll.qlRateHelperQuoteValue($C120,Trigger)</f>
-        <v>2.855049443E-2</v>
+        <v>2.8634247799999998E-2</v>
       </c>
       <c r="F120" s="117">
         <f>_xll.qlSwapRateHelperSpread($C120,Trigger)</f>
@@ -9421,11 +9497,11 @@
       </c>
       <c r="J120" s="118">
         <f>_xll.qlRateHelperEarliestDate($C120,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K120" s="119">
         <f>_xll.qlRateHelperLatestDate($C120,Trigger)</f>
-        <v>48502</v>
+        <v>48522</v>
       </c>
       <c r="O120" s="201"/>
     </row>
@@ -9437,7 +9513,7 @@
       </c>
       <c r="C121" s="116" t="str">
         <f>Swaps!K64</f>
-        <v>obj_00570#0001</v>
+        <v>obj_0053f#0001</v>
       </c>
       <c r="D121" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C121)</f>
@@ -9445,7 +9521,7 @@
       </c>
       <c r="E121" s="117">
         <f>_xll.qlRateHelperQuoteValue($C121,Trigger)</f>
-        <v>2.8813265920000001E-2</v>
+        <v>2.8900058789999999E-2</v>
       </c>
       <c r="F121" s="117">
         <f>_xll.qlSwapRateHelperSpread($C121,Trigger)</f>
@@ -9463,11 +9539,11 @@
       </c>
       <c r="J121" s="118">
         <f>_xll.qlRateHelperEarliestDate($C121,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K121" s="119">
         <f>_xll.qlRateHelperLatestDate($C121,Trigger)</f>
-        <v>48869</v>
+        <v>48887</v>
       </c>
       <c r="O121" s="201"/>
     </row>
@@ -9479,7 +9555,7 @@
       </c>
       <c r="C122" s="116" t="str">
         <f>Swaps!K65</f>
-        <v>obj_00561#0001</v>
+        <v>obj_00540#0001</v>
       </c>
       <c r="D122" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C122)</f>
@@ -9487,7 +9563,7 @@
       </c>
       <c r="E122" s="117">
         <f>_xll.qlRateHelperQuoteValue($C122,Trigger)</f>
-        <v>2.904E-2</v>
+        <v>2.913E-2</v>
       </c>
       <c r="F122" s="117">
         <f>_xll.qlSwapRateHelperSpread($C122,Trigger)</f>
@@ -9505,11 +9581,11 @@
       </c>
       <c r="J122" s="118">
         <f>_xll.qlRateHelperEarliestDate($C122,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K122" s="119">
         <f>_xll.qlRateHelperLatestDate($C122,Trigger)</f>
-        <v>49233</v>
+        <v>49254</v>
       </c>
       <c r="O122" s="201"/>
     </row>
@@ -9521,7 +9597,7 @@
       </c>
       <c r="C123" s="116" t="str">
         <f>Swaps!K66</f>
-        <v>obj_00518#0001</v>
+        <v>obj_00527#0001</v>
       </c>
       <c r="D123" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C123)</f>
@@ -9529,7 +9605,7 @@
       </c>
       <c r="E123" s="117">
         <f>_xll.qlRateHelperQuoteValue($C123,Trigger)</f>
-        <v>2.9231765850000001E-2</v>
+        <v>2.932420161E-2</v>
       </c>
       <c r="F123" s="117">
         <f>_xll.qlSwapRateHelperSpread($C123,Trigger)</f>
@@ -9547,11 +9623,11 @@
       </c>
       <c r="J123" s="118">
         <f>_xll.qlRateHelperEarliestDate($C123,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K123" s="119">
         <f>_xll.qlRateHelperLatestDate($C123,Trigger)</f>
-        <v>49597</v>
+        <v>49618</v>
       </c>
       <c r="O123" s="201"/>
     </row>
@@ -9563,7 +9639,7 @@
       </c>
       <c r="C124" s="116" t="str">
         <f>Swaps!K67</f>
-        <v>obj_00502#0001</v>
+        <v>obj_004e7#0001</v>
       </c>
       <c r="D124" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C124)</f>
@@ -9571,7 +9647,7 @@
       </c>
       <c r="E124" s="117">
         <f>_xll.qlRateHelperQuoteValue($C124,Trigger)</f>
-        <v>2.9397080820000001E-2</v>
+        <v>2.9490875499999999E-2</v>
       </c>
       <c r="F124" s="117">
         <f>_xll.qlSwapRateHelperSpread($C124,Trigger)</f>
@@ -9589,11 +9665,11 @@
       </c>
       <c r="J124" s="118">
         <f>_xll.qlRateHelperEarliestDate($C124,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K124" s="119">
         <f>_xll.qlRateHelperLatestDate($C124,Trigger)</f>
-        <v>49963</v>
+        <v>49983</v>
       </c>
       <c r="O124" s="201"/>
     </row>
@@ -9605,7 +9681,7 @@
       </c>
       <c r="C125" s="116" t="str">
         <f>Swaps!K68</f>
-        <v>obj_00553#0001</v>
+        <v>obj_0053e#0001</v>
       </c>
       <c r="D125" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C125)</f>
@@ -9613,7 +9689,7 @@
       </c>
       <c r="E125" s="117">
         <f>_xll.qlRateHelperQuoteValue($C125,Trigger)</f>
-        <v>2.9540740520000001E-2</v>
+        <v>2.9634649860000001E-2</v>
       </c>
       <c r="F125" s="117">
         <f>_xll.qlSwapRateHelperSpread($C125,Trigger)</f>
@@ -9631,11 +9707,11 @@
       </c>
       <c r="J125" s="118">
         <f>_xll.qlRateHelperEarliestDate($C125,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K125" s="119">
         <f>_xll.qlRateHelperLatestDate($C125,Trigger)</f>
-        <v>50328</v>
+        <v>50348</v>
       </c>
       <c r="O125" s="201"/>
     </row>
@@ -9647,7 +9723,7 @@
       </c>
       <c r="C126" s="116" t="str">
         <f>Swaps!K69</f>
-        <v>obj_0055b#0001</v>
+        <v>obj_004ec#0001</v>
       </c>
       <c r="D126" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C126)</f>
@@ -9655,7 +9731,7 @@
       </c>
       <c r="E126" s="117">
         <f>_xll.qlRateHelperQuoteValue($C126,Trigger)</f>
-        <v>2.9667167040000001E-2</v>
+        <v>2.9759836580000001E-2</v>
       </c>
       <c r="F126" s="117">
         <f>_xll.qlSwapRateHelperSpread($C126,Trigger)</f>
@@ -9673,11 +9749,11 @@
       </c>
       <c r="J126" s="118">
         <f>_xll.qlRateHelperEarliestDate($C126,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K126" s="119">
         <f>_xll.qlRateHelperLatestDate($C126,Trigger)</f>
-        <v>50693</v>
+        <v>50713</v>
       </c>
       <c r="O126" s="201"/>
     </row>
@@ -9689,7 +9765,7 @@
       </c>
       <c r="C127" s="116" t="str">
         <f>Swaps!K70</f>
-        <v>obj_00571#0001</v>
+        <v>obj_0053d#0001</v>
       </c>
       <c r="D127" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C127)</f>
@@ -9697,7 +9773,7 @@
       </c>
       <c r="E127" s="117">
         <f>_xll.qlRateHelperQuoteValue($C127,Trigger)</f>
-        <v>2.9780000000000001E-2</v>
+        <v>2.9870000000000001E-2</v>
       </c>
       <c r="F127" s="117">
         <f>_xll.qlSwapRateHelperSpread($C127,Trigger)</f>
@@ -9715,11 +9791,11 @@
       </c>
       <c r="J127" s="118">
         <f>_xll.qlRateHelperEarliestDate($C127,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K127" s="119">
         <f>_xll.qlRateHelperLatestDate($C127,Trigger)</f>
-        <v>51060</v>
+        <v>51078</v>
       </c>
       <c r="O127" s="201"/>
     </row>
@@ -9731,7 +9807,7 @@
       </c>
       <c r="C128" s="116" t="str">
         <f>Swaps!K71</f>
-        <v>obj_00521#0001</v>
+        <v>obj_0053c#0001</v>
       </c>
       <c r="D128" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C128)</f>
@@ -9739,7 +9815,7 @@
       </c>
       <c r="E128" s="117">
         <f>_xll.qlRateHelperQuoteValue($C128,Trigger)</f>
-        <v>2.988245812E-2</v>
+        <v>2.9968346170000004E-2</v>
       </c>
       <c r="F128" s="117">
         <f>_xll.qlSwapRateHelperSpread($C128,Trigger)</f>
@@ -9757,11 +9833,11 @@
       </c>
       <c r="J128" s="118">
         <f>_xll.qlRateHelperEarliestDate($C128,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K128" s="119">
         <f>_xll.qlRateHelperLatestDate($C128,Trigger)</f>
-        <v>51424</v>
+        <v>51445</v>
       </c>
       <c r="O128" s="201"/>
     </row>
@@ -9773,7 +9849,7 @@
       </c>
       <c r="C129" s="116" t="str">
         <f>Swaps!K72</f>
-        <v>obj_0053c#0001</v>
+        <v>obj_004ed#0001</v>
       </c>
       <c r="D129" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C129)</f>
@@ -9781,7 +9857,7 @@
       </c>
       <c r="E129" s="117">
         <f>_xll.qlRateHelperQuoteValue($C129,Trigger)</f>
-        <v>2.997374086E-2</v>
+        <v>3.0054377630000004E-2</v>
       </c>
       <c r="F129" s="117">
         <f>_xll.qlSwapRateHelperSpread($C129,Trigger)</f>
@@ -9799,11 +9875,11 @@
       </c>
       <c r="J129" s="118">
         <f>_xll.qlRateHelperEarliestDate($C129,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K129" s="119">
         <f>_xll.qlRateHelperLatestDate($C129,Trigger)</f>
-        <v>51789</v>
+        <v>51809</v>
       </c>
       <c r="O129" s="201"/>
     </row>
@@ -9815,7 +9891,7 @@
       </c>
       <c r="C130" s="116" t="str">
         <f>Swaps!K73</f>
-        <v>obj_0056a#0001</v>
+        <v>obj_0053b#0001</v>
       </c>
       <c r="D130" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C130)</f>
@@ -9823,7 +9899,7 @@
       </c>
       <c r="E130" s="117">
         <f>_xll.qlRateHelperQuoteValue($C130,Trigger)</f>
-        <v>3.0055355239999998E-2</v>
+        <v>3.0129796990000002E-2</v>
       </c>
       <c r="F130" s="117">
         <f>_xll.qlSwapRateHelperSpread($C130,Trigger)</f>
@@ -9841,11 +9917,11 @@
       </c>
       <c r="J130" s="118">
         <f>_xll.qlRateHelperEarliestDate($C130,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K130" s="119">
         <f>_xll.qlRateHelperLatestDate($C130,Trigger)</f>
-        <v>52154</v>
+        <v>52174</v>
       </c>
       <c r="O130" s="201"/>
     </row>
@@ -9857,7 +9933,7 @@
       </c>
       <c r="C131" s="116" t="str">
         <f>Swaps!K74</f>
-        <v>obj_00508#0001</v>
+        <v>obj_00544#0001</v>
       </c>
       <c r="D131" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C131)</f>
@@ -9865,7 +9941,7 @@
       </c>
       <c r="E131" s="117">
         <f>_xll.qlRateHelperQuoteValue($C131,Trigger)</f>
-        <v>3.012728756E-2</v>
+        <v>3.019480334E-2</v>
       </c>
       <c r="F131" s="117">
         <f>_xll.qlSwapRateHelperSpread($C131,Trigger)</f>
@@ -9883,11 +9959,11 @@
       </c>
       <c r="J131" s="118">
         <f>_xll.qlRateHelperEarliestDate($C131,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K131" s="119">
         <f>_xll.qlRateHelperLatestDate($C131,Trigger)</f>
-        <v>52519</v>
+        <v>52539</v>
       </c>
       <c r="O131" s="201"/>
     </row>
@@ -9899,7 +9975,7 @@
       </c>
       <c r="C132" s="116" t="str">
         <f>Swaps!K75</f>
-        <v>obj_00510#0001</v>
+        <v>obj_00526#0001</v>
       </c>
       <c r="D132" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C132)</f>
@@ -9907,7 +9983,7 @@
       </c>
       <c r="E132" s="117">
         <f>_xll.qlRateHelperQuoteValue($C132,Trigger)</f>
-        <v>3.0190000000000002E-2</v>
+        <v>3.0249999999999999E-2</v>
       </c>
       <c r="F132" s="117">
         <f>_xll.qlSwapRateHelperSpread($C132,Trigger)</f>
@@ -9925,11 +10001,11 @@
       </c>
       <c r="J132" s="118">
         <f>_xll.qlRateHelperEarliestDate($C132,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K132" s="119">
         <f>_xll.qlRateHelperLatestDate($C132,Trigger)</f>
-        <v>52887</v>
+        <v>52905</v>
       </c>
       <c r="O132" s="201"/>
     </row>
@@ -9941,7 +10017,7 @@
       </c>
       <c r="C133" s="116" t="str">
         <f>Swaps!K76</f>
-        <v>obj_004f9#0001</v>
+        <v>obj_00546#0001</v>
       </c>
       <c r="D133" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C133)</f>
@@ -9967,11 +10043,11 @@
       </c>
       <c r="J133" s="118">
         <f>_xll.qlRateHelperEarliestDate($C133,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K133" s="119">
         <f>_xll.qlRateHelperLatestDate($C133,Trigger)</f>
-        <v>54711</v>
+        <v>54731</v>
       </c>
       <c r="O133" s="201"/>
     </row>
@@ -9983,7 +10059,7 @@
       </c>
       <c r="C134" s="116" t="str">
         <f>Swaps!K77</f>
-        <v>obj_0056d#0001</v>
+        <v>obj_004ff#0001</v>
       </c>
       <c r="D134" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C134)</f>
@@ -9991,7 +10067,7 @@
       </c>
       <c r="E134" s="117">
         <f>_xll.qlRateHelperQuoteValue($C134,Trigger)</f>
-        <v>3.04E-2</v>
+        <v>3.041E-2</v>
       </c>
       <c r="F134" s="117">
         <f>_xll.qlSwapRateHelperSpread($C134,Trigger)</f>
@@ -10009,11 +10085,11 @@
       </c>
       <c r="J134" s="118">
         <f>_xll.qlRateHelperEarliestDate($C134,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K134" s="119">
         <f>_xll.qlRateHelperLatestDate($C134,Trigger)</f>
-        <v>56537</v>
+        <v>56557</v>
       </c>
       <c r="O134" s="201"/>
     </row>
@@ -10025,7 +10101,7 @@
       </c>
       <c r="C135" s="116" t="str">
         <f>Swaps!K78</f>
-        <v>obj_00528#0001</v>
+        <v>obj_0050a#0001</v>
       </c>
       <c r="D135" s="116" t="str">
         <f>_xll.qlRateHelperQuoteName(C135)</f>
@@ -10033,7 +10109,7 @@
       </c>
       <c r="E135" s="117">
         <f>_xll.qlRateHelperQuoteValue($C135,Trigger)</f>
-        <v>3.0190000000000002E-2</v>
+        <v>3.0249999999999999E-2</v>
       </c>
       <c r="F135" s="117">
         <f>_xll.qlSwapRateHelperSpread($C135,Trigger)</f>
@@ -10051,11 +10127,11 @@
       </c>
       <c r="J135" s="118">
         <f>_xll.qlRateHelperEarliestDate($C135,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K135" s="119">
         <f>_xll.qlRateHelperLatestDate($C135,Trigger)</f>
-        <v>60190</v>
+        <v>60210</v>
       </c>
       <c r="O135" s="201"/>
     </row>
@@ -10067,7 +10143,7 @@
       </c>
       <c r="C136" s="121" t="str">
         <f>Swaps!K79</f>
-        <v>obj_00509#0001</v>
+        <v>obj_004e8#0001</v>
       </c>
       <c r="D136" s="121" t="str">
         <f>_xll.qlRateHelperQuoteName(C136)</f>
@@ -10075,7 +10151,7 @@
       </c>
       <c r="E136" s="122">
         <f>_xll.qlRateHelperQuoteValue($C136,Trigger)</f>
-        <v>3.000045673E-2</v>
+        <v>3.0109570460000002E-2</v>
       </c>
       <c r="F136" s="122">
         <f>_xll.qlSwapRateHelperSpread($C136,Trigger)</f>
@@ -10093,11 +10169,11 @@
       </c>
       <c r="J136" s="124">
         <f>_xll.qlRateHelperEarliestDate($C136,Trigger)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="K136" s="125">
         <f>_xll.qlRateHelperLatestDate($C136,Trigger)</f>
-        <v>63842</v>
+        <v>63863</v>
       </c>
     </row>
   </sheetData>
@@ -10163,7 +10239,7 @@
       </c>
       <c r="J1" s="72">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>2.3319146478933696E-3</v>
+        <v>2.2305351090543993E-3</v>
       </c>
       <c r="O1" s="180"/>
     </row>
@@ -10176,7 +10252,7 @@
       </c>
       <c r="D2" s="75" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00585</v>
+        <v>obj_00582</v>
       </c>
       <c r="E2" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -10184,7 +10260,7 @@
       </c>
       <c r="F2" s="76">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>2.3E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="G2" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -10192,14 +10268,14 @@
       </c>
       <c r="H2" s="86">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41922</v>
+        <v>41943</v>
       </c>
       <c r="I2" s="87">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41926</v>
+        <v>41946</v>
       </c>
       <c r="J2" s="72">
-        <v>2.3319146478933696E-3</v>
+        <v>2.2305351090543993E-3</v>
       </c>
       <c r="M2" s="186"/>
       <c r="O2" s="186"/>
@@ -10215,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="75" t="str">
-        <v>obj_00581</v>
+        <v>obj_00580</v>
       </c>
       <c r="E3" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -10223,7 +10299,7 @@
       </c>
       <c r="F3" s="76">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>2.3E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="G3" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -10231,14 +10307,14 @@
       </c>
       <c r="H3" s="86">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41926</v>
+        <v>41946</v>
       </c>
       <c r="I3" s="87">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="J3" s="72">
-        <v>2.3319191173535123E-3</v>
+        <v>2.2305385167763559E-3</v>
       </c>
       <c r="M3" s="186"/>
       <c r="O3" s="186"/>
@@ -10254,7 +10330,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="75" t="str">
-        <v>obj_00586</v>
+        <v>obj_00583</v>
       </c>
       <c r="E4" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -10262,7 +10338,7 @@
       </c>
       <c r="F4" s="76">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>2.3E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="G4" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -10270,14 +10346,14 @@
       </c>
       <c r="H4" s="86">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I4" s="87">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41928</v>
+        <v>41948</v>
       </c>
       <c r="J4" s="72">
-        <v>2.3319220969928952E-3</v>
+        <v>2.2305405614250419E-3</v>
       </c>
       <c r="M4" s="186"/>
       <c r="V4" s="130"/>
@@ -10292,7 +10368,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="75" t="str">
-        <v>obj_00582</v>
+        <v>obj_00584</v>
       </c>
       <c r="E5" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -10300,7 +10376,7 @@
       </c>
       <c r="F5" s="76">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="G5" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -10308,14 +10384,14 @@
       </c>
       <c r="H5" s="86">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41926</v>
+        <v>41947</v>
       </c>
       <c r="I5" s="87">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41933</v>
+        <v>41954</v>
       </c>
       <c r="J5" s="72">
-        <v>1.6222023544260025E-3</v>
+        <v>1.5982420435542415E-3</v>
       </c>
       <c r="M5" s="186"/>
       <c r="V5" s="130"/>
@@ -10339,7 +10415,7 @@
       </c>
       <c r="F6" s="76">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>1.2880384599999999E-3</v>
+        <v>1.31463636E-3</v>
       </c>
       <c r="G6" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -10347,14 +10423,14 @@
       </c>
       <c r="H6" s="86">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I6" s="87">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41941</v>
+        <v>41961</v>
       </c>
       <c r="J6" s="72">
-        <v>1.5759014770433228E-3</v>
+        <v>1.5323449918077359E-3</v>
       </c>
       <c r="M6" s="186"/>
       <c r="V6" s="130"/>
@@ -10364,14 +10440,14 @@
     <row r="7" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YCSTDRH_RateHelpersSelected#0007</v>
+        <v>USD_YCSTDRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="75" t="str">
-        <v>obj_0058f</v>
+        <v>obj_0058d</v>
       </c>
       <c r="E7" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -10379,7 +10455,7 @@
       </c>
       <c r="F7" s="76">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1.37607692E-3</v>
+        <v>1.4250454499999997E-3</v>
       </c>
       <c r="G7" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -10387,14 +10463,14 @@
       </c>
       <c r="H7" s="86">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I7" s="87">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41948</v>
+        <v>41968</v>
       </c>
       <c r="J7" s="72">
-        <v>1.5752842618961406E-3</v>
+        <v>1.5704994292228918E-3</v>
       </c>
       <c r="M7" s="186"/>
       <c r="V7" s="130"/>
@@ -10403,7 +10479,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D8" s="75" t="str">
-        <v>obj_00588</v>
+        <v>obj_00587</v>
       </c>
       <c r="E8" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -10411,7 +10487,7 @@
       </c>
       <c r="F8" s="76">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>1.5269999999999999E-3</v>
+        <v>1.567E-3</v>
       </c>
       <c r="G8" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -10419,14 +10495,14 @@
       </c>
       <c r="H8" s="86">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41926</v>
+        <v>41947</v>
       </c>
       <c r="I8" s="87">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41957</v>
+        <v>41977</v>
       </c>
       <c r="J8" s="72">
-        <v>1.6376846218813361E-3</v>
+        <v>1.6641752648553856E-3</v>
       </c>
       <c r="M8" s="186"/>
       <c r="O8" s="186"/>
@@ -10436,7 +10512,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D9" s="75" t="str">
-        <v>obj_00584</v>
+        <v>obj_00588</v>
       </c>
       <c r="E9" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -10444,7 +10520,7 @@
       </c>
       <c r="F9" s="76">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>1.954E-3</v>
+        <v>2.0010000000000002E-3</v>
       </c>
       <c r="G9" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -10452,14 +10528,14 @@
       </c>
       <c r="H9" s="86">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41926</v>
+        <v>41947</v>
       </c>
       <c r="I9" s="87">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41988</v>
+        <v>42009</v>
       </c>
       <c r="J9" s="72">
-        <v>2.0020849503500429E-3</v>
+        <v>2.0406904327348869E-3</v>
       </c>
       <c r="M9" s="186"/>
       <c r="O9" s="186"/>
@@ -10469,7 +10545,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D10" s="75" t="str">
-        <v>obj_00587</v>
+        <v>obj_00586</v>
       </c>
       <c r="E10" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -10477,7 +10553,7 @@
       </c>
       <c r="F10" s="76">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>2.2910000000000001E-3</v>
+        <v>2.3235E-3</v>
       </c>
       <c r="G10" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -10485,14 +10561,14 @@
       </c>
       <c r="H10" s="86">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41926</v>
+        <v>41947</v>
       </c>
       <c r="I10" s="87">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42018</v>
+        <v>42039</v>
       </c>
       <c r="J10" s="72">
-        <v>2.3225470183925378E-3</v>
+        <v>2.3498828186554748E-3</v>
       </c>
       <c r="M10" s="186"/>
       <c r="O10" s="186"/>
@@ -10510,7 +10586,7 @@
       </c>
       <c r="F11" s="76">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>2.6221E-3</v>
+        <v>2.6264662900000002E-3</v>
       </c>
       <c r="G11" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -10518,14 +10594,14 @@
       </c>
       <c r="H11" s="86">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I11" s="87">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42052</v>
+        <v>42067</v>
       </c>
       <c r="J11" s="72">
-        <v>2.6447935851811443E-3</v>
+        <v>2.6478689642651381E-3</v>
       </c>
       <c r="M11" s="186"/>
       <c r="O11" s="186"/>
@@ -10535,7 +10611,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D12" s="75" t="str">
-        <v>obj_0058c</v>
+        <v>obj_00589</v>
       </c>
       <c r="E12" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -10543,7 +10619,7 @@
       </c>
       <c r="F12" s="76">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>2.8930000000000002E-3</v>
+        <v>2.9835337099999998E-3</v>
       </c>
       <c r="G12" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10551,14 +10627,14 @@
       </c>
       <c r="H12" s="86">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I12" s="87">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42079</v>
+        <v>42100</v>
       </c>
       <c r="J12" s="72">
-        <v>2.9122991411430956E-3</v>
+        <v>3.0028639486625332E-3</v>
       </c>
       <c r="M12" s="186"/>
       <c r="O12" s="186"/>
@@ -10568,15 +10644,15 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D13" s="75" t="str">
-        <v>obj_00580</v>
+        <v>obj_00585</v>
       </c>
       <c r="E13" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
-        <v>USD_STUB_Quote</v>
+        <v>USD6MD_Quote</v>
       </c>
       <c r="F13" s="76">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>3.9897622999999997E-3</v>
+        <v>3.2864999999999999E-3</v>
       </c>
       <c r="G13" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10584,14 +10660,14 @@
       </c>
       <c r="H13" s="86">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I13" s="87">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42095</v>
+        <v>42129</v>
       </c>
       <c r="J13" s="72">
-        <v>3.9920071179808279E-3</v>
+        <v>3.305749687003741E-3</v>
       </c>
       <c r="M13" s="186"/>
       <c r="O13" s="186"/>
@@ -10601,15 +10677,15 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D14" s="75" t="str">
-        <v>obj_00583</v>
+        <v>obj_0058f</v>
       </c>
       <c r="E14" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
-        <v>USD6MD_Quote</v>
+        <v>USD7MD_Mx_Quote</v>
       </c>
       <c r="F14" s="76">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>3.1940000000000002E-3</v>
+        <v>3.6691983699999996E-3</v>
       </c>
       <c r="G14" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10617,14 +10693,14 @@
       </c>
       <c r="H14" s="86">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41926</v>
+        <v>41947</v>
       </c>
       <c r="I14" s="87">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42108</v>
+        <v>42159</v>
       </c>
       <c r="J14" s="72">
-        <v>3.2163120538548019E-3</v>
+        <v>3.6886348201530784E-3</v>
       </c>
       <c r="M14" s="186"/>
       <c r="O14" s="186"/>
@@ -10634,15 +10710,15 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D15" s="75" t="str">
-        <v>obj_0058b</v>
+        <v>obj_00581</v>
       </c>
       <c r="E15" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
-        <v>USD7MD_Mx_Quote</v>
+        <v>USD_STUB_Quote</v>
       </c>
       <c r="F15" s="76">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>3.5729344299999998E-3</v>
+        <v>3.8296847800000002E-3</v>
       </c>
       <c r="G15" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10650,14 +10726,14 @@
       </c>
       <c r="H15" s="86">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I15" s="87">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42139</v>
+        <v>42172</v>
       </c>
       <c r="J15" s="72">
-        <v>3.5891022679084427E-3</v>
+        <v>3.849454584781347E-3</v>
       </c>
       <c r="M15" s="186"/>
       <c r="O15" s="186"/>
@@ -10667,30 +10743,30 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="75" t="str">
-        <v>obj_00590</v>
+        <v>obj_005a4</v>
       </c>
       <c r="E16" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
-        <v>USD8MD_Mx_Quote</v>
+        <v>USDFUT3MM5_Quote</v>
       </c>
       <c r="F16" s="76">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>3.9644999999999993E-3</v>
-      </c>
-      <c r="G16" s="76" t="str">
+        <v>3.7759999999999673E-3</v>
+      </c>
+      <c r="G16" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
-        <v>--</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="H16" s="86">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41927</v>
+        <v>42172</v>
       </c>
       <c r="I16" s="87">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42170</v>
+        <v>42264</v>
       </c>
       <c r="J16" s="72">
-        <v>3.9802769969267682E-3</v>
+        <v>3.8429039169201843E-3</v>
       </c>
       <c r="M16" s="186"/>
       <c r="V16" s="130"/>
@@ -10699,30 +10775,30 @@
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D17" s="75" t="str">
-        <v>obj_0058a</v>
+        <v>obj_005d1</v>
       </c>
       <c r="E17" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
-        <v>USD9MD_Mx_Quote</v>
+        <v>USDFUT3MU5_Quote</v>
       </c>
       <c r="F17" s="76">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>4.3434344300000002E-3</v>
-      </c>
-      <c r="G17" s="76" t="str">
+        <v>5.745999999999969E-3</v>
+      </c>
+      <c r="G17" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>--</v>
+        <v>7.9000000000000009E-5</v>
       </c>
       <c r="H17" s="86">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41927</v>
+        <v>42263</v>
       </c>
       <c r="I17" s="87">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42200</v>
+        <v>42354</v>
       </c>
       <c r="J17" s="72">
-        <v>4.3593901368966575E-3</v>
+        <v>4.2810601129087949E-3</v>
       </c>
       <c r="M17" s="186"/>
       <c r="O17" s="186"/>
@@ -10733,30 +10809,30 @@
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D18" s="75" t="str">
-        <v>obj_005de</v>
+        <v>obj_005a7</v>
       </c>
       <c r="E18" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
-        <v>USDFUT3MM5_Quote</v>
+        <v>USDFUT3MZ5_Quote</v>
       </c>
       <c r="F18" s="76">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>4.1760000000000339E-3</v>
+        <v>8.108999999999927E-3</v>
       </c>
       <c r="G18" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>4.8999999999999998E-5</v>
+        <v>1.1599999999999999E-4</v>
       </c>
       <c r="H18" s="86">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>42172</v>
+        <v>42354</v>
       </c>
       <c r="I18" s="87">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42264</v>
+        <v>42445</v>
       </c>
       <c r="J18" s="72">
-        <v>4.0663979450460104E-3</v>
+        <v>4.9938602384916502E-3</v>
       </c>
       <c r="M18" s="186"/>
       <c r="O18" s="186"/>
@@ -10767,30 +10843,30 @@
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D19" s="75" t="str">
-        <v>obj_005d3</v>
+        <v>obj_005ab</v>
       </c>
       <c r="E19" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
-        <v>USDFUT3MU5_Quote</v>
+        <v>USDFUT3MH6_Quote</v>
       </c>
       <c r="F19" s="76">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>6.346000000000014E-3</v>
+        <v>1.0416000000000002E-2</v>
       </c>
       <c r="G19" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>7.9000000000000009E-5</v>
+        <v>1.5900000000000002E-4</v>
       </c>
       <c r="H19" s="86">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42263</v>
+        <v>42445</v>
       </c>
       <c r="I19" s="87">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42354</v>
+        <v>42537</v>
       </c>
       <c r="J19" s="72">
-        <v>4.5676859376163051E-3</v>
+        <v>5.8538861165890249E-3</v>
       </c>
       <c r="M19" s="186"/>
       <c r="O19" s="186"/>
@@ -10801,30 +10877,30 @@
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D20" s="75" t="str">
-        <v>obj_005ae</v>
+        <v>obj_00592</v>
       </c>
       <c r="E20" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
-        <v>USDFUT3MZ5_Quote</v>
+        <v>USDFUT3MM6_Quote</v>
       </c>
       <c r="F20" s="76">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>8.8590000000000665E-3</v>
+        <v>1.2842000000000117E-2</v>
       </c>
       <c r="G20" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>1.1599999999999999E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="H20" s="86">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42354</v>
+        <v>42536</v>
       </c>
       <c r="I20" s="87">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42445</v>
+        <v>42628</v>
       </c>
       <c r="J20" s="72">
-        <v>5.3340196811975165E-3</v>
+        <v>6.8054349416733998E-3</v>
       </c>
       <c r="M20" s="186"/>
       <c r="O20" s="186"/>
@@ -10835,30 +10911,30 @@
     </row>
     <row r="21" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D21" s="75" t="str">
-        <v>obj_00598</v>
+        <v>obj_00595</v>
       </c>
       <c r="E21" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
-        <v>USDFUT3MH6_Quote</v>
+        <v>USDFUT3MU6_Quote</v>
       </c>
       <c r="F21" s="76">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.1416000000000003E-2</v>
+        <v>1.5259000000000121E-2</v>
       </c>
       <c r="G21" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
-        <v>1.5900000000000002E-4</v>
+        <v>2.6599999999999996E-4</v>
       </c>
       <c r="H21" s="86">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42445</v>
+        <v>42634</v>
       </c>
       <c r="I21" s="87">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42537</v>
+        <v>42725</v>
       </c>
       <c r="J21" s="72">
-        <v>6.2650424343018091E-3</v>
+        <v>7.8684632807005054E-3</v>
       </c>
       <c r="M21" s="186"/>
       <c r="O21" s="186"/>
@@ -10869,30 +10945,30 @@
     </row>
     <row r="22" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D22" s="75" t="str">
-        <v>obj_00595</v>
+        <v>obj_005bd</v>
       </c>
       <c r="E22" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
-        <v>USDFUT3MM6_Quote</v>
+        <v>USDAM3L3Y_Quote</v>
       </c>
       <c r="F22" s="76">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.3967000000000049E-2</v>
+        <v>1.1049999999999999E-2</v>
       </c>
       <c r="G22" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
-        <v>2.0799999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="H22" s="86">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>42536</v>
+        <v>41947</v>
       </c>
       <c r="I22" s="87">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>42628</v>
+        <v>43045</v>
       </c>
       <c r="J22" s="72">
-        <v>7.2818890084443829E-3</v>
+        <v>1.1162740869344927E-2</v>
       </c>
       <c r="M22" s="186"/>
       <c r="O22" s="186"/>
@@ -10903,30 +10979,30 @@
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D23" s="75" t="str">
-        <v>obj_005ac</v>
+        <v>obj_005a0</v>
       </c>
       <c r="E23" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
-        <v>USDFUT3MU6_Quote</v>
+        <v>USDAM3L4Y_Quote</v>
       </c>
       <c r="F23" s="76">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.6458999999999991E-2</v>
+        <v>1.4569999999999998E-2</v>
       </c>
       <c r="G23" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
-        <v>2.6599999999999996E-4</v>
+        <v>0</v>
       </c>
       <c r="H23" s="86">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>42634</v>
+        <v>41947</v>
       </c>
       <c r="I23" s="87">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>42725</v>
+        <v>43409</v>
       </c>
       <c r="J23" s="72">
-        <v>8.4054931341847675E-3</v>
+        <v>1.476385332441948E-2</v>
       </c>
       <c r="M23" s="186"/>
       <c r="O23" s="186"/>
@@ -10936,15 +11012,15 @@
     </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D24" s="75" t="str">
-        <v>obj_005d7</v>
+        <v>obj_005b6</v>
       </c>
       <c r="E24" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
-        <v>USDAM3L3Y_Quote</v>
+        <v>USDAM3L5Y_Quote</v>
       </c>
       <c r="F24" s="76">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.129E-2</v>
+        <v>1.7269999999999997E-2</v>
       </c>
       <c r="G24" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10952,14 +11028,14 @@
       </c>
       <c r="H24" s="86">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I24" s="87">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>43024</v>
+        <v>43773</v>
       </c>
       <c r="J24" s="72">
-        <v>1.1394883208201584E-2</v>
+        <v>1.7549230017320359E-2</v>
       </c>
       <c r="M24" s="186"/>
       <c r="O24" s="186"/>
@@ -10969,15 +11045,15 @@
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D25" s="75" t="str">
-        <v>obj_005b4</v>
+        <v>obj_005cb</v>
       </c>
       <c r="E25" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
-        <v>USDAM3L4Y_Quote</v>
+        <v>USDAM3L6Y_Quote</v>
       </c>
       <c r="F25" s="76">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>1.468E-2</v>
+        <v>1.9349999999999999E-2</v>
       </c>
       <c r="G25" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10985,14 +11061,14 @@
       </c>
       <c r="H25" s="86">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I25" s="87">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>43388</v>
+        <v>44139</v>
       </c>
       <c r="J25" s="72">
-        <v>1.4862461219498694E-2</v>
+        <v>1.9712937030075876E-2</v>
       </c>
       <c r="M25" s="186"/>
       <c r="O25" s="186"/>
@@ -11002,15 +11078,15 @@
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D26" s="75" t="str">
-        <v>obj_005b8</v>
+        <v>obj_005da</v>
       </c>
       <c r="E26" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
-        <v>USDAM3L5Y_Quote</v>
+        <v>USDAM3L7Y_Quote</v>
       </c>
       <c r="F26" s="76">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>1.7229999999999999E-2</v>
+        <v>2.1010000000000001E-2</v>
       </c>
       <c r="G26" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -11018,14 +11094,14 @@
       </c>
       <c r="H26" s="86">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I26" s="87">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>43753</v>
+        <v>44504</v>
       </c>
       <c r="J26" s="72">
-        <v>1.7492496399032331E-2</v>
+        <v>2.1455254875773298E-2</v>
       </c>
       <c r="M26" s="186"/>
       <c r="O26" s="186"/>
@@ -11035,15 +11111,15 @@
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D27" s="75" t="str">
-        <v>obj_005c7</v>
+        <v>obj_005db</v>
       </c>
       <c r="E27" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
-        <v>USDAM3L6Y_Quote</v>
+        <v>USDAM3L8Y_Quote</v>
       </c>
       <c r="F27" s="76">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>1.9209999999999998E-2</v>
+        <v>2.2339999999999999E-2</v>
       </c>
       <c r="G27" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -11051,14 +11127,14 @@
       </c>
       <c r="H27" s="86">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I27" s="87">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>44119</v>
+        <v>44869</v>
       </c>
       <c r="J27" s="72">
-        <v>1.9551499105783972E-2</v>
+        <v>2.2862194384329359E-2</v>
       </c>
       <c r="M27" s="186"/>
       <c r="O27" s="186"/>
@@ -11068,15 +11144,15 @@
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D28" s="75" t="str">
-        <v>obj_005ba</v>
+        <v>obj_005b1</v>
       </c>
       <c r="E28" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
-        <v>USDAM3L7Y_Quote</v>
+        <v>USDAM3L9Y_Quote</v>
       </c>
       <c r="F28" s="76">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.0840000000000001E-2</v>
+        <v>2.3470000000000001E-2</v>
       </c>
       <c r="G28" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -11084,14 +11160,14 @@
       </c>
       <c r="H28" s="86">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I28" s="87">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>44484</v>
+        <v>45236</v>
       </c>
       <c r="J28" s="72">
-        <v>2.1262346638725234E-2</v>
+        <v>2.406841501373062E-2</v>
       </c>
       <c r="M28" s="186"/>
       <c r="O28" s="186"/>
@@ -11101,15 +11177,15 @@
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D29" s="75" t="str">
-        <v>obj_00594</v>
+        <v>obj_005d8</v>
       </c>
       <c r="E29" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
-        <v>USDAM3L8Y_Quote</v>
+        <v>USDAM3L10Y_Quote</v>
       </c>
       <c r="F29" s="76">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.2170000000000002E-2</v>
+        <v>2.443E-2</v>
       </c>
       <c r="G29" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -11117,14 +11193,14 @@
       </c>
       <c r="H29" s="86">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I29" s="87">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>44851</v>
+        <v>45600</v>
       </c>
       <c r="J29" s="72">
-        <v>2.2668827187138297E-2</v>
+        <v>2.5103035576313125E-2</v>
       </c>
       <c r="M29" s="186"/>
       <c r="O29" s="186"/>
@@ -11133,15 +11209,15 @@
     </row>
     <row r="30" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D30" s="75" t="str">
-        <v>obj_005bf</v>
+        <v>obj_0051e</v>
       </c>
       <c r="E30" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
-        <v>USDAM3L9Y_Quote</v>
+        <v>USD_CURVE_3M_11Y_Quote</v>
       </c>
       <c r="F30" s="76">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.3310000000000001E-2</v>
+        <v>2.526832721E-2</v>
       </c>
       <c r="G30" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -11149,14 +11225,14 @@
       </c>
       <c r="H30" s="86">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I30" s="87">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>45215</v>
+        <v>45965</v>
       </c>
       <c r="J30" s="72">
-        <v>2.3887997551672955E-2</v>
+        <v>2.6015376971060551E-2</v>
       </c>
       <c r="M30" s="186"/>
       <c r="O30" s="186"/>
@@ -11165,15 +11241,15 @@
     </row>
     <row r="31" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D31" s="75" t="str">
-        <v>obj_005c1</v>
+        <v>obj_005a6</v>
       </c>
       <c r="E31" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
-        <v>USDAM3L10Y_Quote</v>
+        <v>USDAM3L12Y_Quote</v>
       </c>
       <c r="F31" s="76">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.427E-2</v>
+        <v>2.5990000000000003E-2</v>
       </c>
       <c r="G31" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -11181,14 +11257,14 @@
       </c>
       <c r="H31" s="86">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I31" s="87">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>45580</v>
+        <v>46330</v>
       </c>
       <c r="J31" s="72">
-        <v>2.49231612741623E-2</v>
+        <v>2.6807406663961152E-2</v>
       </c>
       <c r="M31" s="186"/>
       <c r="O31" s="186"/>
@@ -11197,15 +11273,15 @@
     </row>
     <row r="32" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D32" s="75" t="str">
-        <v>obj_0055f</v>
+        <v>obj_0051a</v>
       </c>
       <c r="E32" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
-        <v>USD_CURVE_3M_11Y_Quote</v>
+        <v>USD_CURVE_3M_13Y_Quote</v>
       </c>
       <c r="F32" s="76">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.5114325999999999E-2</v>
+        <v>2.6601208139999999E-2</v>
       </c>
       <c r="G32" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -11213,14 +11289,14 @@
       </c>
       <c r="H32" s="86">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I32" s="87">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>45945</v>
+        <v>46695</v>
       </c>
       <c r="J32" s="72">
-        <v>2.5843173018115544E-2</v>
+        <v>2.7482263217001566E-2</v>
       </c>
       <c r="M32" s="186"/>
       <c r="O32" s="186"/>
@@ -11229,15 +11305,15 @@
     </row>
     <row r="33" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D33" s="75" t="str">
-        <v>obj_0059f</v>
+        <v>obj_00502</v>
       </c>
       <c r="E33" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
-        <v>USDAM3L12Y_Quote</v>
+        <v>USD_CURVE_3M_14Y_Quote</v>
       </c>
       <c r="F33" s="76">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.5849999999999998E-2</v>
+        <v>2.7127998760000001E-2</v>
       </c>
       <c r="G33" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -11245,14 +11321,14 @@
       </c>
       <c r="H33" s="86">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I33" s="87">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>46310</v>
+        <v>47063</v>
       </c>
       <c r="J33" s="72">
-        <v>2.6652353468075627E-2</v>
+        <v>2.8066842157740992E-2</v>
       </c>
       <c r="M33" s="186"/>
       <c r="O33" s="186"/>
@@ -11261,15 +11337,15 @@
     </row>
     <row r="34" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D34" s="75" t="str">
-        <v>obj_00529</v>
+        <v>obj_005ae</v>
       </c>
       <c r="E34" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
-        <v>USD_CURVE_3M_13Y_Quote</v>
+        <v>USDAM3L15Y_Quote</v>
       </c>
       <c r="F34" s="76">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.647976581E-2</v>
+        <v>2.758E-2</v>
       </c>
       <c r="G34" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -11277,14 +11353,14 @@
       </c>
       <c r="H34" s="86">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I34" s="87">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>46675</v>
+        <v>47427</v>
       </c>
       <c r="J34" s="72">
-        <v>2.7349988672926272E-2</v>
+        <v>2.857171837580167E-2</v>
       </c>
       <c r="M34" s="186"/>
       <c r="O34" s="186"/>
@@ -11293,15 +11369,15 @@
     </row>
     <row r="35" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D35" s="75" t="str">
-        <v>obj_004ee</v>
+        <v>obj_0051c</v>
       </c>
       <c r="E35" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
-        <v>USD_CURVE_3M_14Y_Quote</v>
+        <v>USD_CURVE_3M_16Y_Quote</v>
       </c>
       <c r="F35" s="76">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.702473046E-2</v>
+        <v>2.797722238E-2</v>
       </c>
       <c r="G35" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -11309,14 +11385,14 @@
       </c>
       <c r="H35" s="86">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I35" s="87">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>47042</v>
+        <v>47791</v>
       </c>
       <c r="J35" s="72">
-        <v>2.7957369709993147E-2</v>
+        <v>2.9018164835667347E-2</v>
       </c>
       <c r="M35" s="186"/>
       <c r="O35" s="186"/>
@@ -11325,15 +11401,15 @@
     </row>
     <row r="36" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D36" s="75" t="str">
-        <v>obj_005c6</v>
+        <v>obj_00543</v>
       </c>
       <c r="E36" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
-        <v>USDAM3L15Y_Quote</v>
+        <v>USD_CURVE_3M_17Y_Quote</v>
       </c>
       <c r="F36" s="76">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.7489999999999997E-2</v>
+        <v>2.8327272180000002E-2</v>
       </c>
       <c r="G36" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -11341,14 +11417,14 @@
       </c>
       <c r="H36" s="86">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I36" s="87">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>47406</v>
+        <v>48156</v>
       </c>
       <c r="J36" s="72">
-        <v>2.8478936107062248E-2</v>
+        <v>2.9413560436605757E-2</v>
       </c>
       <c r="M36" s="186"/>
       <c r="O36" s="186"/>
@@ -11357,15 +11433,15 @@
     </row>
     <row r="37" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D37" s="75" t="str">
-        <v>obj_00543</v>
+        <v>obj_004fc</v>
       </c>
       <c r="E37" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D37)</f>
-        <v>USD_CURVE_3M_16Y_Quote</v>
+        <v>USD_CURVE_3M_18Y_Quote</v>
       </c>
       <c r="F37" s="76">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>2.7893705229999999E-2</v>
+        <v>2.8634247799999998E-2</v>
       </c>
       <c r="G37" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -11373,14 +11449,14 @@
       </c>
       <c r="H37" s="86">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I37" s="87">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>47771</v>
+        <v>48522</v>
       </c>
       <c r="J37" s="72">
-        <v>2.8933382599358425E-2</v>
+        <v>2.9761329976223619E-2</v>
       </c>
       <c r="M37" s="186"/>
       <c r="O37" s="186"/>
@@ -11389,15 +11465,15 @@
     </row>
     <row r="38" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D38" s="75" t="str">
-        <v>obj_0054b</v>
+        <v>obj_0053f</v>
       </c>
       <c r="E38" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D38)</f>
-        <v>USD_CURVE_3M_17Y_Quote</v>
+        <v>USD_CURVE_3M_19Y_Quote</v>
       </c>
       <c r="F38" s="76">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>2.824515297E-2</v>
+        <v>2.8900058789999999E-2</v>
       </c>
       <c r="G38" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -11405,14 +11481,14 @@
       </c>
       <c r="H38" s="86">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I38" s="87">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>48136</v>
+        <v>48887</v>
       </c>
       <c r="J38" s="72">
-        <v>2.9330513412179467E-2</v>
+        <v>3.0062553211110295E-2</v>
       </c>
       <c r="M38" s="186"/>
       <c r="O38" s="186"/>
@@ -11421,15 +11497,15 @@
     </row>
     <row r="39" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D39" s="75" t="str">
-        <v>obj_004ed</v>
+        <v>obj_005b7</v>
       </c>
       <c r="E39" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D39)</f>
-        <v>USD_CURVE_3M_18Y_Quote</v>
+        <v>USDAM3L20Y_Quote</v>
       </c>
       <c r="F39" s="76">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>2.855049443E-2</v>
+        <v>2.9130000000000003E-2</v>
       </c>
       <c r="G39" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -11437,14 +11513,14 @@
       </c>
       <c r="H39" s="86">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I39" s="87">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>48502</v>
+        <v>49254</v>
       </c>
       <c r="J39" s="72">
-        <v>2.9675968261956186E-2</v>
+        <v>3.0321928246773735E-2</v>
       </c>
       <c r="M39" s="186"/>
       <c r="O39" s="186"/>
@@ -11453,15 +11529,15 @@
     </row>
     <row r="40" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D40" s="75" t="str">
-        <v>obj_00570</v>
+        <v>obj_00527</v>
       </c>
       <c r="E40" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D40)</f>
-        <v>USD_CURVE_3M_19Y_Quote</v>
+        <v>USD_CURVE_3M_21Y_Quote</v>
       </c>
       <c r="F40" s="76">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>2.8813265920000001E-2</v>
+        <v>2.932420161E-2</v>
       </c>
       <c r="G40" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -11469,14 +11545,14 @@
       </c>
       <c r="H40" s="86">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I40" s="87">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>48869</v>
+        <v>49618</v>
       </c>
       <c r="J40" s="72">
-        <v>2.9972410775167154E-2</v>
+        <v>3.0539073652139124E-2</v>
       </c>
       <c r="M40" s="186"/>
       <c r="O40" s="186"/>
@@ -11485,15 +11561,15 @@
     </row>
     <row r="41" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D41" s="75" t="str">
-        <v>obj_005c8</v>
+        <v>obj_004e7</v>
       </c>
       <c r="E41" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D41)</f>
-        <v>USDAM3L20Y_Quote</v>
+        <v>USD_CURVE_3M_22Y_Quote</v>
       </c>
       <c r="F41" s="76">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>2.904E-2</v>
+        <v>2.9490875499999999E-2</v>
       </c>
       <c r="G41" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -11501,14 +11577,14 @@
       </c>
       <c r="H41" s="86">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I41" s="87">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>49233</v>
+        <v>49983</v>
       </c>
       <c r="J41" s="72">
-        <v>3.0228007634548155E-2</v>
+        <v>3.0723143260455405E-2</v>
       </c>
       <c r="M41" s="186"/>
       <c r="O41" s="186"/>
@@ -11517,15 +11593,15 @@
     </row>
     <row r="42" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D42" s="75" t="str">
-        <v>obj_00518</v>
+        <v>obj_0053e</v>
       </c>
       <c r="E42" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D42)</f>
-        <v>USD_CURVE_3M_21Y_Quote</v>
+        <v>USD_CURVE_3M_23Y_Quote</v>
       </c>
       <c r="F42" s="76">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>2.9231765850000001E-2</v>
+        <v>2.9634649860000001E-2</v>
       </c>
       <c r="G42" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -11533,14 +11609,14 @@
       </c>
       <c r="H42" s="86">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I42" s="87">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>49597</v>
+        <v>50348</v>
       </c>
       <c r="J42" s="72">
-        <v>3.0441671356918713E-2</v>
+        <v>3.0879827747241795E-2</v>
       </c>
       <c r="M42" s="186"/>
       <c r="O42" s="186"/>
@@ -11549,15 +11625,15 @@
     </row>
     <row r="43" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D43" s="75" t="str">
-        <v>obj_00502</v>
+        <v>obj_004ec</v>
       </c>
       <c r="E43" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D43)</f>
-        <v>USD_CURVE_3M_22Y_Quote</v>
+        <v>USD_CURVE_3M_24Y_Quote</v>
       </c>
       <c r="F43" s="76">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>2.9397080820000001E-2</v>
+        <v>2.9759836580000001E-2</v>
       </c>
       <c r="G43" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -11565,14 +11641,14 @@
       </c>
       <c r="H43" s="86">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I43" s="87">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>49963</v>
+        <v>50713</v>
       </c>
       <c r="J43" s="72">
-        <v>3.0623594582881539E-2</v>
+        <v>3.101441623879379E-2</v>
       </c>
       <c r="M43" s="186"/>
       <c r="O43" s="186"/>
@@ -11581,15 +11657,15 @@
     </row>
     <row r="44" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D44" s="75" t="str">
-        <v>obj_00553</v>
+        <v>obj_005d5</v>
       </c>
       <c r="E44" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D44)</f>
-        <v>USD_CURVE_3M_23Y_Quote</v>
+        <v>USDAM3L25Y_Quote</v>
       </c>
       <c r="F44" s="76">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>2.9540740520000001E-2</v>
+        <v>2.9870000000000001E-2</v>
       </c>
       <c r="G44" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -11597,14 +11673,14 @@
       </c>
       <c r="H44" s="86">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I44" s="87">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>50328</v>
+        <v>51078</v>
       </c>
       <c r="J44" s="72">
-        <v>3.0780183232162493E-2</v>
+        <v>3.1131348998559544E-2</v>
       </c>
       <c r="M44" s="186"/>
       <c r="O44" s="186"/>
@@ -11613,15 +11689,15 @@
     </row>
     <row r="45" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D45" s="75" t="str">
-        <v>obj_0055b</v>
+        <v>obj_0053c</v>
       </c>
       <c r="E45" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D45)</f>
-        <v>USD_CURVE_3M_24Y_Quote</v>
+        <v>USD_CURVE_3M_26Y_Quote</v>
       </c>
       <c r="F45" s="76">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>2.9667167040000001E-2</v>
+        <v>2.9968346170000004E-2</v>
       </c>
       <c r="G45" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -11629,14 +11705,14 @@
       </c>
       <c r="H45" s="86">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I45" s="87">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>50693</v>
+        <v>51445</v>
       </c>
       <c r="J45" s="72">
-        <v>3.0916700130489177E-2</v>
+        <v>3.1234410132559742E-2</v>
       </c>
       <c r="M45" s="186"/>
       <c r="O45" s="186"/>
@@ -11645,15 +11721,15 @@
     </row>
     <row r="46" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D46" s="75" t="str">
-        <v>obj_005d0</v>
+        <v>obj_004ed</v>
       </c>
       <c r="E46" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D46)</f>
-        <v>USDAM3L25Y_Quote</v>
+        <v>USD_CURVE_3M_27Y_Quote</v>
       </c>
       <c r="F46" s="76">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>2.9779999999999997E-2</v>
+        <v>3.0054377630000004E-2</v>
       </c>
       <c r="G46" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -11661,14 +11737,14 @@
       </c>
       <c r="H46" s="86">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I46" s="87">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>51060</v>
+        <v>51809</v>
       </c>
       <c r="J46" s="72">
-        <v>3.1037386662927335E-2</v>
+        <v>3.1323044515206344E-2</v>
       </c>
       <c r="M46" s="186"/>
       <c r="O46" s="186"/>
@@ -11677,15 +11753,15 @@
     </row>
     <row r="47" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D47" s="75" t="str">
-        <v>obj_00521</v>
+        <v>obj_0053b</v>
       </c>
       <c r="E47" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D47)</f>
-        <v>USD_CURVE_3M_26Y_Quote</v>
+        <v>USD_CURVE_3M_28Y_Quote</v>
       </c>
       <c r="F47" s="76">
         <f>_xll.qlRateHelperRate($D47)</f>
-        <v>2.988245812E-2</v>
+        <v>3.0129796990000002E-2</v>
       </c>
       <c r="G47" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
@@ -11693,14 +11769,14 @@
       </c>
       <c r="H47" s="86">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I47" s="87">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>51424</v>
+        <v>52174</v>
       </c>
       <c r="J47" s="72">
-        <v>3.1147454722330825E-2</v>
+        <v>3.1398518503148919E-2</v>
       </c>
       <c r="M47" s="186"/>
       <c r="O47" s="186"/>
@@ -11709,15 +11785,15 @@
     </row>
     <row r="48" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D48" s="75" t="str">
-        <v>obj_0053c</v>
+        <v>obj_00544</v>
       </c>
       <c r="E48" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D48)</f>
-        <v>USD_CURVE_3M_27Y_Quote</v>
+        <v>USD_CURVE_3M_29Y_Quote</v>
       </c>
       <c r="F48" s="76">
         <f>_xll.qlRateHelperRate($D48)</f>
-        <v>2.997374086E-2</v>
+        <v>3.019480334E-2</v>
       </c>
       <c r="G48" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
@@ -11725,14 +11801,14 @@
       </c>
       <c r="H48" s="86">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I48" s="87">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>51789</v>
+        <v>52539</v>
       </c>
       <c r="J48" s="72">
-        <v>3.1244190336168143E-2</v>
+        <v>3.1460713183676048E-2</v>
       </c>
       <c r="M48" s="186"/>
       <c r="O48" s="186"/>
@@ -11741,15 +11817,15 @@
     </row>
     <row r="49" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D49" s="75" t="str">
-        <v>obj_0056a</v>
+        <v>obj_0059c</v>
       </c>
       <c r="E49" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D49)</f>
-        <v>USD_CURVE_3M_28Y_Quote</v>
+        <v>USDAM3L30Y_Quote</v>
       </c>
       <c r="F49" s="76">
         <f>_xll.qlRateHelperRate($D49)</f>
-        <v>3.0055355239999998E-2</v>
+        <v>3.0249999999999999E-2</v>
       </c>
       <c r="G49" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
@@ -11757,14 +11833,14 @@
       </c>
       <c r="H49" s="86">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I49" s="87">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>52154</v>
+        <v>52905</v>
       </c>
       <c r="J49" s="72">
-        <v>3.1329570185519989E-2</v>
+        <v>3.1509856656507226E-2</v>
       </c>
       <c r="M49" s="186"/>
       <c r="O49" s="186"/>
@@ -11773,15 +11849,15 @@
     </row>
     <row r="50" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D50" s="75" t="str">
-        <v>obj_00508</v>
+        <v>obj_00594</v>
       </c>
       <c r="E50" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D50)</f>
-        <v>USD_CURVE_3M_29Y_Quote</v>
+        <v>USDAM3L40Y_Quote</v>
       </c>
       <c r="F50" s="76">
         <f>_xll.qlRateHelperRate($D50)</f>
-        <v>3.012728756E-2</v>
+        <v>3.041E-2</v>
       </c>
       <c r="G50" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
@@ -11789,14 +11865,14 @@
       </c>
       <c r="H50" s="86">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I50" s="87">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>52519</v>
+        <v>56557</v>
       </c>
       <c r="J50" s="72">
-        <v>3.1402976265708968E-2</v>
+        <v>3.1462402544575406E-2</v>
       </c>
       <c r="M50" s="186"/>
       <c r="O50" s="186"/>
@@ -11805,15 +11881,15 @@
     </row>
     <row r="51" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D51" s="75" t="str">
-        <v>obj_00596</v>
+        <v>obj_005ad</v>
       </c>
       <c r="E51" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D51)</f>
-        <v>USDAM3L30Y_Quote</v>
+        <v>USDAM3L50Y_Quote</v>
       </c>
       <c r="F51" s="76">
         <f>_xll.qlRateHelperRate($D51)</f>
-        <v>3.0190000000000002E-2</v>
+        <v>3.0249999999999999E-2</v>
       </c>
       <c r="G51" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
@@ -11821,14 +11897,14 @@
       </c>
       <c r="H51" s="86">
         <f>_xll.qlRateHelperEarliestDate($D51)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I51" s="87">
         <f>_xll.qlRateHelperLatestDate($D51)</f>
-        <v>52887</v>
+        <v>60210</v>
       </c>
       <c r="J51" s="72">
-        <v>3.1464098942023795E-2</v>
+        <v>3.090545435569118E-2</v>
       </c>
       <c r="M51" s="186"/>
       <c r="O51" s="186"/>
@@ -11837,15 +11913,15 @@
     </row>
     <row r="52" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D52" s="75" t="str">
-        <v>obj_005a5</v>
+        <v>obj_004e8</v>
       </c>
       <c r="E52" s="75" t="str">
         <f>_xll.qlRateHelperQuoteName(D52)</f>
-        <v>USDAM3L40Y_Quote</v>
+        <v>USD_CURVE_3M_60Y_Quote</v>
       </c>
       <c r="F52" s="76">
         <f>_xll.qlRateHelperRate($D52)</f>
-        <v>3.04E-2</v>
+        <v>3.0109570460000002E-2</v>
       </c>
       <c r="G52" s="76">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
@@ -11853,14 +11929,14 @@
       </c>
       <c r="H52" s="86">
         <f>_xll.qlRateHelperEarliestDate($D52)</f>
-        <v>41927</v>
+        <v>41947</v>
       </c>
       <c r="I52" s="87">
         <f>_xll.qlRateHelperLatestDate($D52)</f>
-        <v>56537</v>
+        <v>63863</v>
       </c>
       <c r="J52" s="72">
-        <v>3.1502034337080084E-2</v>
+        <v>3.0439611010174214E-2</v>
       </c>
       <c r="M52" s="186"/>
       <c r="O52" s="186"/>
@@ -11868,31 +11944,31 @@
       <c r="Y52" s="203"/>
     </row>
     <row r="53" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D53" s="75" t="str">
-        <v>obj_005b6</v>
-      </c>
-      <c r="E53" s="75" t="str">
+      <c r="D53" s="75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E53" s="75" t="e">
         <f>_xll.qlRateHelperQuoteName(D53)</f>
-        <v>USDAM3L50Y_Quote</v>
-      </c>
-      <c r="F53" s="76">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F53" s="76" t="e">
         <f>_xll.qlRateHelperRate($D53)</f>
-        <v>3.0190000000000002E-2</v>
-      </c>
-      <c r="G53" s="76">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G53" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="86">
+        <v>--</v>
+      </c>
+      <c r="H53" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D53)</f>
-        <v>41927</v>
-      </c>
-      <c r="I53" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I53" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D53)</f>
-        <v>60190</v>
-      </c>
-      <c r="J53" s="72">
-        <v>3.0830238428433746E-2</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J53" s="72" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M53" s="186"/>
       <c r="O53" s="186"/>
@@ -11900,31 +11976,31 @@
       <c r="Y53" s="203"/>
     </row>
     <row r="54" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D54" s="75" t="str">
-        <v>obj_00509</v>
-      </c>
-      <c r="E54" s="75" t="str">
+      <c r="D54" s="75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E54" s="75" t="e">
         <f>_xll.qlRateHelperQuoteName(D54)</f>
-        <v>USD_CURVE_3M_60Y_Quote</v>
-      </c>
-      <c r="F54" s="76">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" s="76" t="e">
         <f>_xll.qlRateHelperRate($D54)</f>
-        <v>3.000045673E-2</v>
-      </c>
-      <c r="G54" s="76">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G54" s="76" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="86">
+        <v>--</v>
+      </c>
+      <c r="H54" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D54)</f>
-        <v>41927</v>
-      </c>
-      <c r="I54" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I54" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D54)</f>
-        <v>63842</v>
-      </c>
-      <c r="J54" s="72">
-        <v>3.0247996184321488E-2</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J54" s="72" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="4:25" x14ac:dyDescent="0.2">
@@ -14065,7 +14141,7 @@
       </c>
       <c r="J3" s="174" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00585#0001</v>
+        <v>obj_00582#0001</v>
       </c>
       <c r="K3" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -14096,7 +14172,7 @@
       </c>
       <c r="H4" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,"1D",C4,Currency,Calendar,E4,F4,G4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057c#0001</v>
+        <v>obj_00578#0001</v>
       </c>
       <c r="I4" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14104,7 +14180,7 @@
       </c>
       <c r="J4" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,I4,H4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00581#0001</v>
+        <v>obj_00580#0001</v>
       </c>
       <c r="K4" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -14135,7 +14211,7 @@
       </c>
       <c r="H5" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,"1D",C5,Currency,Calendar,E5,F5,G5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057f#0001</v>
+        <v>obj_0057e#0001</v>
       </c>
       <c r="I5" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14143,7 +14219,7 @@
       </c>
       <c r="J5" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00586#0001</v>
+        <v>obj_00583#0001</v>
       </c>
       <c r="K5" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -14182,7 +14258,7 @@
       </c>
       <c r="J6" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I6,H6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00582#0001</v>
+        <v>obj_00584#0001</v>
       </c>
       <c r="K6" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -14215,7 +14291,7 @@
       </c>
       <c r="H7" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B7,C7,Currency,Calendar,E7,F7,G7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057b#0001</v>
+        <v>obj_00576#0001</v>
       </c>
       <c r="I7" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14256,7 +14332,7 @@
       </c>
       <c r="H8" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B8,C8,Currency,Calendar,E8,F8,G8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00578#0001</v>
+        <v>obj_0057d#0001</v>
       </c>
       <c r="I8" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14264,7 +14340,7 @@
       </c>
       <c r="J8" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058f#0001</v>
+        <v>obj_0058d#0001</v>
       </c>
       <c r="K8" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -14303,7 +14379,7 @@
       </c>
       <c r="J9" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00588#0001</v>
+        <v>obj_00587#0001</v>
       </c>
       <c r="K9" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -14342,7 +14418,7 @@
       </c>
       <c r="J10" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00584#0001</v>
+        <v>obj_00588#0001</v>
       </c>
       <c r="K10" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -14381,7 +14457,7 @@
       </c>
       <c r="J11" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I11,H11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00587#0001</v>
+        <v>obj_00586#0001</v>
       </c>
       <c r="K11" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -14414,7 +14490,7 @@
       </c>
       <c r="H12" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B12,C12,Currency,Calendar,E12,F12,G12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057e#0001</v>
+        <v>obj_0057c#0001</v>
       </c>
       <c r="I12" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14455,7 +14531,7 @@
       </c>
       <c r="H13" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B13,C13,Currency,Calendar,E13,F13,G13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057a#0001</v>
+        <v>obj_00575#0001</v>
       </c>
       <c r="I13" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14463,7 +14539,7 @@
       </c>
       <c r="J13" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058c#0001</v>
+        <v>obj_00589#0001</v>
       </c>
       <c r="K13" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -14502,7 +14578,7 @@
       </c>
       <c r="J14" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I14,H14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00583#0001</v>
+        <v>obj_00585#0001</v>
       </c>
       <c r="K14" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -14535,7 +14611,7 @@
       </c>
       <c r="H15" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B15,C15,Currency,Calendar,E15,F15,G15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00577#0001</v>
+        <v>obj_0057b#0001</v>
       </c>
       <c r="I15" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14543,7 +14619,7 @@
       </c>
       <c r="J15" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I15,H15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058b#0001</v>
+        <v>obj_0058f#0001</v>
       </c>
       <c r="K15" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -14576,7 +14652,7 @@
       </c>
       <c r="H16" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B16,C16,Currency,Calendar,E16,F16,G16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00579#0001</v>
+        <v>obj_0057f#0001</v>
       </c>
       <c r="I16" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14617,7 +14693,7 @@
       </c>
       <c r="H17" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B17,C17,Currency,Calendar,E17,F17,G17,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057d#0001</v>
+        <v>obj_0057a#0001</v>
       </c>
       <c r="I17" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14625,7 +14701,7 @@
       </c>
       <c r="J17" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I17,H17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058a#0001</v>
+        <v>obj_0058b#0001</v>
       </c>
       <c r="K17" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -14658,7 +14734,7 @@
       </c>
       <c r="H18" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B18,C18,Currency,Calendar,E18,F18,G18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00576#0001</v>
+        <v>obj_00579#0001</v>
       </c>
       <c r="I18" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14666,7 +14742,7 @@
       </c>
       <c r="J18" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I18,H18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058d#0001</v>
+        <v>obj_0058c#0001</v>
       </c>
       <c r="K18" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -14699,7 +14775,7 @@
       </c>
       <c r="H19" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B19,C19,Currency,Calendar,E19,F19,G19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00575#0001</v>
+        <v>obj_00577#0001</v>
       </c>
       <c r="I19" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14707,7 +14783,7 @@
       </c>
       <c r="J19" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00589#0001</v>
+        <v>obj_0058a#0001</v>
       </c>
       <c r="K19" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -14746,7 +14822,7 @@
       </c>
       <c r="J20" s="175" t="str">
         <f>_xll.qlDepositRateHelper(,I20,H20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00559#0001</v>
+        <v>obj_004e2#0001</v>
       </c>
       <c r="K20" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J20)</f>
@@ -14758,7 +14834,7 @@
       <c r="A21" s="53"/>
       <c r="B21" s="179" t="str">
         <f>(_xll.qlCalendarBusinessDaysBetween(Calendar,_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),C21&amp;"D",,,Trigger),D25,Trigger)-1)&amp;"D"</f>
-        <v>168D</v>
+        <v>154D</v>
       </c>
       <c r="C21" s="177">
         <v>2</v>
@@ -14783,7 +14859,7 @@
       </c>
       <c r="J21" s="175" t="str">
         <f>_xll.qlDepositRateHelper2(,I21,B21,C20,Deposits!D21,E21,F21,G21)</f>
-        <v>obj_00580#0007</v>
+        <v>obj_00581#0001</v>
       </c>
       <c r="K21" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J21)</f>
@@ -14836,7 +14912,7 @@
       </c>
       <c r="E25" s="189">
         <f>_xll.qlRateHelperLatestDate(J21,Trigger)</f>
-        <v>42095</v>
+        <v>42172</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14950,7 +15026,7 @@
       </c>
       <c r="D3" s="141" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C44)</f>
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E3" s="141" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -14958,7 +15034,7 @@
       </c>
       <c r="F3" s="142" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>USDFUT3MV4_Quote</v>
+        <v>USDFUT3MX4_Quote</v>
       </c>
       <c r="G3" s="181">
         <f>IFERROR(INDEX($N$3:$N$8,MATCH(D3,$M$3:$M$8,0))/100,0)</f>
@@ -14966,7 +15042,7 @@
       </c>
       <c r="H3" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b1#0001</v>
+        <v>obj_005cf#0001</v>
       </c>
       <c r="I3" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -14994,7 +15070,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="145" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E4" s="141" t="str">
         <f t="shared" si="0"/>
@@ -15002,7 +15078,7 @@
       </c>
       <c r="F4" s="142" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MX4_Quote</v>
+        <v>USDFUT3MZ4_Quote</v>
       </c>
       <c r="G4" s="181">
         <f t="shared" ref="G4:G44" si="2">IFERROR(INDEX($N$3:$N$8,MATCH(D4,$M$3:$M$8,0))/100,0)</f>
@@ -15010,7 +15086,7 @@
       </c>
       <c r="H4" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d5#0001</v>
+        <v>obj_005d6#0001</v>
       </c>
       <c r="I4" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -15038,7 +15114,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="145" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E5" s="141" t="str">
         <f t="shared" si="0"/>
@@ -15046,7 +15122,7 @@
       </c>
       <c r="F5" s="142" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MZ4_Quote</v>
+        <v>USDFUT3MF5_Quote</v>
       </c>
       <c r="G5" s="181">
         <f t="shared" si="2"/>
@@ -15054,7 +15130,7 @@
       </c>
       <c r="H5" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ca#0001</v>
+        <v>obj_00598#0001</v>
       </c>
       <c r="I5" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -15079,7 +15155,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="145" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E6" s="141" t="str">
         <f t="shared" si="0"/>
@@ -15087,7 +15163,7 @@
       </c>
       <c r="F6" s="142" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MF5_Quote</v>
+        <v>USDFUT3MG5_Quote</v>
       </c>
       <c r="G6" s="181">
         <f t="shared" si="2"/>
@@ -15095,7 +15171,7 @@
       </c>
       <c r="H6" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b7#0001</v>
+        <v>obj_005ca#0001</v>
       </c>
       <c r="I6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -15120,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="145" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E7" s="141" t="str">
         <f t="shared" si="0"/>
@@ -15128,7 +15204,7 @@
       </c>
       <c r="F7" s="142" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MG5_Quote</v>
+        <v>USDFUT3MH5_Quote</v>
       </c>
       <c r="G7" s="181">
         <f t="shared" si="2"/>
@@ -15136,7 +15212,7 @@
       </c>
       <c r="H7" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a4#0001</v>
+        <v>obj_005dd#0001</v>
       </c>
       <c r="I7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -15161,7 +15237,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="145" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E8" s="141" t="str">
         <f t="shared" si="0"/>
@@ -15169,7 +15245,7 @@
       </c>
       <c r="F8" s="142" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MH5_Quote</v>
+        <v>USDFUT3MJ5_Quote</v>
       </c>
       <c r="G8" s="181">
         <f t="shared" si="2"/>
@@ -15177,7 +15253,7 @@
       </c>
       <c r="H8" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005db#0001</v>
+        <v>obj_005c7#0001</v>
       </c>
       <c r="I8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -15202,7 +15278,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="145" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="E9" s="141" t="str">
         <f t="shared" si="0"/>
@@ -15210,7 +15286,7 @@
       </c>
       <c r="F9" s="142" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MJ5_Quote</v>
+        <v>USDFUT3MK5_Quote</v>
       </c>
       <c r="G9" s="181">
         <f t="shared" si="2"/>
@@ -15218,7 +15294,7 @@
       </c>
       <c r="H9" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059e#0001</v>
+        <v>obj_0059d#0001</v>
       </c>
       <c r="I9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -15236,7 +15312,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="145" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="E10" s="141" t="str">
         <f t="shared" si="0"/>
@@ -15244,15 +15320,15 @@
       </c>
       <c r="F10" s="142" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MK5_Quote</v>
+        <v>USDFUT3MM5_Quote</v>
       </c>
       <c r="G10" s="181">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="H10" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d9#0001</v>
+        <v>obj_005a4#0001</v>
       </c>
       <c r="I10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -15270,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="145" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="E11" s="141" t="str">
         <f t="shared" si="0"/>
@@ -15278,15 +15354,15 @@
       </c>
       <c r="F11" s="142" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MM5_Quote</v>
+        <v>USDFUT3MN5_Quote</v>
       </c>
       <c r="G11" s="181">
         <f t="shared" si="2"/>
-        <v>4.8999999999999998E-5</v>
+        <v>0</v>
       </c>
       <c r="H11" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005de#0001</v>
+        <v>obj_005bc#0001</v>
       </c>
       <c r="I11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -15304,7 +15380,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="145" t="str">
-        <v>N5</v>
+        <v>Q5</v>
       </c>
       <c r="E12" s="141" t="str">
         <f t="shared" si="0"/>
@@ -15312,7 +15388,7 @@
       </c>
       <c r="F12" s="142" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MN5_Quote</v>
+        <v>USDFUT3MQ5_Quote</v>
       </c>
       <c r="G12" s="181">
         <f t="shared" si="2"/>
@@ -15320,7 +15396,7 @@
       </c>
       <c r="H12" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a3#0001</v>
+        <v>obj_005b9#0001</v>
       </c>
       <c r="I12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -15338,7 +15414,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="145" t="str">
-        <v>Q5</v>
+        <v>U5</v>
       </c>
       <c r="E13" s="141" t="str">
         <f t="shared" si="0"/>
@@ -15346,15 +15422,15 @@
       </c>
       <c r="F13" s="142" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MQ5_Quote</v>
+        <v>USDFUT3MU5_Quote</v>
       </c>
       <c r="G13" s="181">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.9000000000000009E-5</v>
       </c>
       <c r="H13" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ce#0001</v>
+        <v>obj_005d1#0001</v>
       </c>
       <c r="I13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -15372,7 +15448,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="145" t="str">
-        <v>U5</v>
+        <v>V5</v>
       </c>
       <c r="E14" s="141" t="str">
         <f t="shared" si="0"/>
@@ -15380,15 +15456,15 @@
       </c>
       <c r="F14" s="142" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MU5_Quote</v>
+        <v>USDFUT3MV5_Quote</v>
       </c>
       <c r="G14" s="181">
         <f t="shared" si="2"/>
-        <v>7.9000000000000009E-5</v>
+        <v>0</v>
       </c>
       <c r="H14" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d3#0001</v>
+        <v>obj_005c3#0001</v>
       </c>
       <c r="I14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -15422,7 +15498,7 @@
       </c>
       <c r="H15" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ae#0001</v>
+        <v>obj_005a7#0001</v>
       </c>
       <c r="I15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -15456,7 +15532,7 @@
       </c>
       <c r="H16" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00598#0001</v>
+        <v>obj_005ab#0001</v>
       </c>
       <c r="I16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -15490,7 +15566,7 @@
       </c>
       <c r="H17" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00595#0001</v>
+        <v>obj_00592#0001</v>
       </c>
       <c r="I17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -15524,7 +15600,7 @@
       </c>
       <c r="H18" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ac#0001</v>
+        <v>obj_00595#0001</v>
       </c>
       <c r="I18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -15558,7 +15634,7 @@
       </c>
       <c r="H19" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059d#0001</v>
+        <v>obj_00593#0001</v>
       </c>
       <c r="I19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -15592,7 +15668,7 @@
       </c>
       <c r="H20" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ad#0001</v>
+        <v>obj_0059f#0001</v>
       </c>
       <c r="I20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -15626,7 +15702,7 @@
       </c>
       <c r="H21" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d8#0001</v>
+        <v>obj_0059a#0001</v>
       </c>
       <c r="I21" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -15660,7 +15736,7 @@
       </c>
       <c r="H22" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005bc#0001</v>
+        <v>obj_005be#0001</v>
       </c>
       <c r="I22" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -15694,7 +15770,7 @@
       </c>
       <c r="H23" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c3#0001</v>
+        <v>obj_00597#0001</v>
       </c>
       <c r="I23" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -15728,7 +15804,7 @@
       </c>
       <c r="H24" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005bb#0001</v>
+        <v>obj_00596#0001</v>
       </c>
       <c r="I24" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -15762,7 +15838,7 @@
       </c>
       <c r="H25" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b5#0001</v>
+        <v>obj_005c1#0001</v>
       </c>
       <c r="I25" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -15796,7 +15872,7 @@
       </c>
       <c r="H26" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059b#0001</v>
+        <v>obj_005d2#0001</v>
       </c>
       <c r="I26" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -15830,7 +15906,7 @@
       </c>
       <c r="H27" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b2#0001</v>
+        <v>obj_005ba#0001</v>
       </c>
       <c r="I27" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -15864,7 +15940,7 @@
       </c>
       <c r="H28" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b0#0001</v>
+        <v>obj_005c9#0001</v>
       </c>
       <c r="I28" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -15898,7 +15974,7 @@
       </c>
       <c r="H29" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c2#0001</v>
+        <v>obj_005e0#0001</v>
       </c>
       <c r="I29" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -15932,7 +16008,7 @@
       </c>
       <c r="H30" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c9#0001</v>
+        <v>obj_005bb#0001</v>
       </c>
       <c r="I30" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -15966,7 +16042,7 @@
       </c>
       <c r="H31" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b3#0001</v>
+        <v>obj_005df#0001</v>
       </c>
       <c r="I31" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -16000,7 +16076,7 @@
       </c>
       <c r="H32" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ab#0001</v>
+        <v>obj_005de#0001</v>
       </c>
       <c r="I32" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -16034,7 +16110,7 @@
       </c>
       <c r="H33" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005aa#0001</v>
+        <v>obj_005b5#0001</v>
       </c>
       <c r="I33" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -16068,7 +16144,7 @@
       </c>
       <c r="H34" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005bd#0001</v>
+        <v>obj_005a8#0001</v>
       </c>
       <c r="I34" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -16102,7 +16178,7 @@
       </c>
       <c r="H35" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005cc#0001</v>
+        <v>obj_005a9#0001</v>
       </c>
       <c r="I35" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -16136,7 +16212,7 @@
       </c>
       <c r="H36" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005da#0001</v>
+        <v>obj_005aa#0001</v>
       </c>
       <c r="I36" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -16170,7 +16246,7 @@
       </c>
       <c r="H37" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d1#0001</v>
+        <v>obj_00599#0001</v>
       </c>
       <c r="I37" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -16204,7 +16280,7 @@
       </c>
       <c r="H38" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c0#0001</v>
+        <v>obj_005d0#0001</v>
       </c>
       <c r="I38" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -16238,7 +16314,7 @@
       </c>
       <c r="H39" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005af#0001</v>
+        <v>obj_005c5#0001</v>
       </c>
       <c r="I39" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -16272,7 +16348,7 @@
       </c>
       <c r="H40" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a1#0001</v>
+        <v>obj_005af#0001</v>
       </c>
       <c r="I40" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -16305,7 +16381,7 @@
       </c>
       <c r="H41" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a8#0001</v>
+        <v>obj_005ac#0001</v>
       </c>
       <c r="I41" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -16338,7 +16414,7 @@
       </c>
       <c r="H42" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c5#0001</v>
+        <v>obj_005c2#0001</v>
       </c>
       <c r="I42" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -16371,7 +16447,7 @@
       </c>
       <c r="H43" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d4#0001</v>
+        <v>obj_005cc#0001</v>
       </c>
       <c r="I43" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -16404,7 +16480,7 @@
       </c>
       <c r="H44" s="143" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005be#0001</v>
+        <v>obj_005c6#0001</v>
       </c>
       <c r="I44" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -16530,7 +16606,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="152" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(,$H$1,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor(,Currency,$H$1,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_004ec#0001</v>
+        <v>obj_004e6#0001</v>
       </c>
       <c r="L3" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -16589,7 +16665,7 @@
       </c>
       <c r="K5" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00597#0001</v>
+        <v>obj_005bf#0001</v>
       </c>
       <c r="L5" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -16636,7 +16712,7 @@
       </c>
       <c r="K6" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005a0#0001</v>
+        <v>obj_005c4#0001</v>
       </c>
       <c r="L6" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -16687,7 +16763,7 @@
       </c>
       <c r="K7" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00599#0001</v>
+        <v>obj_005c8#0001</v>
       </c>
       <c r="L7" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -16738,7 +16814,7 @@
       </c>
       <c r="K8" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005a7#0001</v>
+        <v>obj_005c0#0001</v>
       </c>
       <c r="L8" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -16785,7 +16861,7 @@
       </c>
       <c r="K9" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005dd#0001</v>
+        <v>obj_005b8#0001</v>
       </c>
       <c r="L9" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -16836,7 +16912,7 @@
       </c>
       <c r="K10" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005d7#0001</v>
+        <v>obj_005bd#0001</v>
       </c>
       <c r="L10" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -16878,7 +16954,7 @@
       </c>
       <c r="K11" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005b4#0001</v>
+        <v>obj_005a0#0001</v>
       </c>
       <c r="L11" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -16920,7 +16996,7 @@
       </c>
       <c r="K12" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005b8#0001</v>
+        <v>obj_005b6#0001</v>
       </c>
       <c r="L12" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -16962,7 +17038,7 @@
       </c>
       <c r="K13" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005c7#0001</v>
+        <v>obj_005cb#0001</v>
       </c>
       <c r="L13" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -17004,7 +17080,7 @@
       </c>
       <c r="K14" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005ba#0001</v>
+        <v>obj_005da#0001</v>
       </c>
       <c r="L14" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -17046,7 +17122,7 @@
       </c>
       <c r="K15" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00594#0001</v>
+        <v>obj_005db#0001</v>
       </c>
       <c r="L15" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -17088,7 +17164,7 @@
       </c>
       <c r="K16" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005bf#0001</v>
+        <v>obj_005b1#0001</v>
       </c>
       <c r="L16" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -17130,7 +17206,7 @@
       </c>
       <c r="K17" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005c1#0001</v>
+        <v>obj_005d8#0001</v>
       </c>
       <c r="L17" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -17172,7 +17248,7 @@
       </c>
       <c r="K18" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005df#0001</v>
+        <v>obj_0059b#0001</v>
       </c>
       <c r="L18" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -17214,7 +17290,7 @@
       </c>
       <c r="K19" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0059f#0001</v>
+        <v>obj_005a6#0001</v>
       </c>
       <c r="L19" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -17256,7 +17332,7 @@
       </c>
       <c r="K20" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00592#0001</v>
+        <v>obj_005cd#0001</v>
       </c>
       <c r="L20" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -17298,7 +17374,7 @@
       </c>
       <c r="K21" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005a9#0001</v>
+        <v>obj_005b0#0001</v>
       </c>
       <c r="L21" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -17340,7 +17416,7 @@
       </c>
       <c r="K22" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005c6#0001</v>
+        <v>obj_005ae#0001</v>
       </c>
       <c r="L22" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -17382,7 +17458,7 @@
       </c>
       <c r="K23" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005a2#0001</v>
+        <v>obj_005ce#0001</v>
       </c>
       <c r="L23" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -17424,7 +17500,7 @@
       </c>
       <c r="K24" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005dc#0001</v>
+        <v>obj_005b3#0001</v>
       </c>
       <c r="L24" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -17466,7 +17542,7 @@
       </c>
       <c r="K25" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005a6#0001</v>
+        <v>obj_0059e#0001</v>
       </c>
       <c r="L25" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -17508,7 +17584,7 @@
       </c>
       <c r="K26" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005d6#0001</v>
+        <v>obj_005d9#0001</v>
       </c>
       <c r="L26" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -17550,7 +17626,7 @@
       </c>
       <c r="K27" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005c8#0001</v>
+        <v>obj_005b7#0001</v>
       </c>
       <c r="L27" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -17592,7 +17668,7 @@
       </c>
       <c r="K28" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005b9#0001</v>
+        <v>obj_005d3#0001</v>
       </c>
       <c r="L28" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -17634,7 +17710,7 @@
       </c>
       <c r="K29" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005cb#0001</v>
+        <v>obj_005a2#0001</v>
       </c>
       <c r="L29" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -17676,7 +17752,7 @@
       </c>
       <c r="K30" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0059c#0001</v>
+        <v>obj_005dc#0001</v>
       </c>
       <c r="L30" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -17718,7 +17794,7 @@
       </c>
       <c r="K31" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005cd#0001</v>
+        <v>obj_005b2#0001</v>
       </c>
       <c r="L31" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -17760,7 +17836,7 @@
       </c>
       <c r="K32" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005d0#0001</v>
+        <v>obj_005d5#0001</v>
       </c>
       <c r="L32" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -17802,7 +17878,7 @@
       </c>
       <c r="K33" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005e0#0001</v>
+        <v>obj_005a5#0001</v>
       </c>
       <c r="L33" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -17844,7 +17920,7 @@
       </c>
       <c r="K34" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005d2#0001</v>
+        <v>obj_005a3#0001</v>
       </c>
       <c r="L34" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -17886,7 +17962,7 @@
       </c>
       <c r="K35" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0059a#0001</v>
+        <v>obj_005b4#0001</v>
       </c>
       <c r="L35" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -17928,7 +18004,7 @@
       </c>
       <c r="K36" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00593#0001</v>
+        <v>obj_005d7#0001</v>
       </c>
       <c r="L36" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -17970,7 +18046,7 @@
       </c>
       <c r="K37" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00596#0001</v>
+        <v>obj_0059c#0001</v>
       </c>
       <c r="L37" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -18012,7 +18088,7 @@
       </c>
       <c r="K38" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005cf#0001</v>
+        <v>obj_005d4#0001</v>
       </c>
       <c r="L38" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -18054,7 +18130,7 @@
       </c>
       <c r="K39" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005a5#0001</v>
+        <v>obj_00594#0001</v>
       </c>
       <c r="L39" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -18096,7 +18172,7 @@
       </c>
       <c r="K40" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005b6#0001</v>
+        <v>obj_005ad#0001</v>
       </c>
       <c r="L40" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -18138,7 +18214,7 @@
       </c>
       <c r="K41" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005c4#0001</v>
+        <v>obj_005a1#0001</v>
       </c>
       <c r="L41" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -18197,7 +18273,7 @@
       </c>
       <c r="K43" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J43,$C43,Calendar,$F43,$G43,$H43,$K$3,$I43,B43,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00517#0001</v>
+        <v>obj_0053a#0001</v>
       </c>
       <c r="L43" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K43)</f>
@@ -18239,7 +18315,7 @@
       </c>
       <c r="K44" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J44,$C44,Calendar,$F44,$G44,$H44,$K$3,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004f4#0001</v>
+        <v>obj_004f1#0001</v>
       </c>
       <c r="L44" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K44)</f>
@@ -18281,7 +18357,7 @@
       </c>
       <c r="K45" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J45,$C45,Calendar,$F45,$G45,$H45,$K$3,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00535#0001</v>
+        <v>obj_0051b#0001</v>
       </c>
       <c r="L45" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K45)</f>
@@ -18323,7 +18399,7 @@
       </c>
       <c r="K46" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J46,$C46,Calendar,$F46,$G46,$H46,$K$3,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0054c#0001</v>
+        <v>obj_00541#0001</v>
       </c>
       <c r="L46" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K46)</f>
@@ -18365,7 +18441,7 @@
       </c>
       <c r="K47" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J47,$C47,Calendar,$F47,$G47,$H47,$K$3,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056c#0001</v>
+        <v>obj_00537#0001</v>
       </c>
       <c r="L47" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K47)</f>
@@ -18407,7 +18483,7 @@
       </c>
       <c r="K48" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J48,$C48,Calendar,$F48,$G48,$H48,$K$3,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056b#0001</v>
+        <v>obj_004f8#0001</v>
       </c>
       <c r="L48" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K48)</f>
@@ -18449,7 +18525,7 @@
       </c>
       <c r="K49" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J49,$C49,Calendar,$F49,$G49,$H49,$K$3,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00501#0001</v>
+        <v>obj_00545#0001</v>
       </c>
       <c r="L49" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K49)</f>
@@ -18491,7 +18567,7 @@
       </c>
       <c r="K50" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J50,$C50,Calendar,$F50,$G50,$H50,$K$3,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00544#0001</v>
+        <v>obj_004eb#0001</v>
       </c>
       <c r="L50" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K50)</f>
@@ -18533,7 +18609,7 @@
       </c>
       <c r="K51" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J51,$C51,Calendar,$F51,$G51,$H51,$K$3,$I51,B51,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00506#0001</v>
+        <v>obj_00515#0001</v>
       </c>
       <c r="L51" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K51)</f>
@@ -18575,7 +18651,7 @@
       </c>
       <c r="K52" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J52,$C52,Calendar,$F52,$G52,$H52,$K$3,$I52,B52,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056f#0001</v>
+        <v>obj_00542#0001</v>
       </c>
       <c r="L52" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K52)</f>
@@ -18617,7 +18693,7 @@
       </c>
       <c r="K53" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J53,$C53,Calendar,$F53,$G53,$H53,$K$3,$I53,B53,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0052f#0001</v>
+        <v>obj_0050b#0001</v>
       </c>
       <c r="L53" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K53)</f>
@@ -18659,7 +18735,7 @@
       </c>
       <c r="K54" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J54,$C54,Calendar,$F54,$G54,$H54,$K$3,$I54,B54,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0050f#0001</v>
+        <v>obj_00538#0001</v>
       </c>
       <c r="L54" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K54)</f>
@@ -18701,7 +18777,7 @@
       </c>
       <c r="K55" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J55,$C55,Calendar,$F55,$G55,$H55,$K$3,$I55,B55,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056e#0001</v>
+        <v>obj_00531#0001</v>
       </c>
       <c r="L55" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K55)</f>
@@ -18743,7 +18819,7 @@
       </c>
       <c r="K56" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J56,$C56,Calendar,$F56,$G56,$H56,$K$3,$I56,B56,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0055f#0001</v>
+        <v>obj_0051e#0001</v>
       </c>
       <c r="L56" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K56)</f>
@@ -18785,7 +18861,7 @@
       </c>
       <c r="K57" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J57,$C57,Calendar,$F57,$G57,$H57,$K$3,$I57,B57,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00522#0001</v>
+        <v>obj_00509#0001</v>
       </c>
       <c r="L57" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K57)</f>
@@ -18827,7 +18903,7 @@
       </c>
       <c r="K58" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J58,$C58,Calendar,$F58,$G58,$H58,$K$3,$I58,B58,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00529#0001</v>
+        <v>obj_0051a#0001</v>
       </c>
       <c r="L58" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K58)</f>
@@ -18869,7 +18945,7 @@
       </c>
       <c r="K59" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J59,$C59,Calendar,$F59,$G59,$H59,$K$3,$I59,B59,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004ee#0001</v>
+        <v>obj_00502#0001</v>
       </c>
       <c r="L59" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K59)</f>
@@ -18911,7 +18987,7 @@
       </c>
       <c r="K60" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J60,$C60,Calendar,$F60,$G60,$H60,$K$3,$I60,B60,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00562#0001</v>
+        <v>obj_004f6#0001</v>
       </c>
       <c r="L60" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K60)</f>
@@ -18953,7 +19029,7 @@
       </c>
       <c r="K61" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J61,$C61,Calendar,$F61,$G61,$H61,$K$3,$I61,B61,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00543#0001</v>
+        <v>obj_0051c#0001</v>
       </c>
       <c r="L61" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K61)</f>
@@ -18995,7 +19071,7 @@
       </c>
       <c r="K62" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J62,$C62,Calendar,$F62,$G62,$H62,$K$3,$I62,B62,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0054b#0001</v>
+        <v>obj_00543#0001</v>
       </c>
       <c r="L62" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K62)</f>
@@ -19037,7 +19113,7 @@
       </c>
       <c r="K63" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J63,$C63,Calendar,$F63,$G63,$H63,$K$3,$I63,B63,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004ed#0001</v>
+        <v>obj_004fc#0001</v>
       </c>
       <c r="L63" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K63)</f>
@@ -19079,7 +19155,7 @@
       </c>
       <c r="K64" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J64,$C64,Calendar,$F64,$G64,$H64,$K$3,$I64,B64,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00570#0001</v>
+        <v>obj_0053f#0001</v>
       </c>
       <c r="L64" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K64)</f>
@@ -19121,7 +19197,7 @@
       </c>
       <c r="K65" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J65,$C65,Calendar,$F65,$G65,$H65,$K$3,$I65,B65,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00561#0001</v>
+        <v>obj_00540#0001</v>
       </c>
       <c r="L65" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K65)</f>
@@ -19163,7 +19239,7 @@
       </c>
       <c r="K66" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J66,$C66,Calendar,$F66,$G66,$H66,$K$3,$I66,B66,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00518#0001</v>
+        <v>obj_00527#0001</v>
       </c>
       <c r="L66" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K66)</f>
@@ -19205,7 +19281,7 @@
       </c>
       <c r="K67" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J67,$C67,Calendar,$F67,$G67,$H67,$K$3,$I67,B67,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00502#0001</v>
+        <v>obj_004e7#0001</v>
       </c>
       <c r="L67" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K67)</f>
@@ -19247,7 +19323,7 @@
       </c>
       <c r="K68" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J68,$C68,Calendar,$F68,$G68,$H68,$K$3,$I68,B68,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00553#0001</v>
+        <v>obj_0053e#0001</v>
       </c>
       <c r="L68" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K68)</f>
@@ -19289,7 +19365,7 @@
       </c>
       <c r="K69" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J69,$C69,Calendar,$F69,$G69,$H69,$K$3,$I69,B69,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0055b#0001</v>
+        <v>obj_004ec#0001</v>
       </c>
       <c r="L69" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K69)</f>
@@ -19331,7 +19407,7 @@
       </c>
       <c r="K70" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J70,$C70,Calendar,$F70,$G70,$H70,$K$3,$I70,B70,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00571#0001</v>
+        <v>obj_0053d#0001</v>
       </c>
       <c r="L70" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K70)</f>
@@ -19373,7 +19449,7 @@
       </c>
       <c r="K71" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J71,$C71,Calendar,$F71,$G71,$H71,$K$3,$I71,B71,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00521#0001</v>
+        <v>obj_0053c#0001</v>
       </c>
       <c r="L71" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K71)</f>
@@ -19415,7 +19491,7 @@
       </c>
       <c r="K72" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J72,$C72,Calendar,$F72,$G72,$H72,$K$3,$I72,B72,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0053c#0001</v>
+        <v>obj_004ed#0001</v>
       </c>
       <c r="L72" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K72)</f>
@@ -19457,7 +19533,7 @@
       </c>
       <c r="K73" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J73,$C73,Calendar,$F73,$G73,$H73,$K$3,$I73,B73,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056a#0001</v>
+        <v>obj_0053b#0001</v>
       </c>
       <c r="L73" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K73)</f>
@@ -19499,7 +19575,7 @@
       </c>
       <c r="K74" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J74,$C74,Calendar,$F74,$G74,$H74,$K$3,$I74,B74,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00508#0001</v>
+        <v>obj_00544#0001</v>
       </c>
       <c r="L74" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K74)</f>
@@ -19541,7 +19617,7 @@
       </c>
       <c r="K75" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J75,$C75,Calendar,$F75,$G75,$H75,$K$3,$I75,B75,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00510#0001</v>
+        <v>obj_00526#0001</v>
       </c>
       <c r="L75" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K75)</f>
@@ -19583,7 +19659,7 @@
       </c>
       <c r="K76" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J76,$C76,Calendar,$F76,$G76,$H76,$K$3,$I76,B76,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_004f9#0001</v>
+        <v>obj_00546#0001</v>
       </c>
       <c r="L76" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K76)</f>
@@ -19625,7 +19701,7 @@
       </c>
       <c r="K77" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J77,$C77,Calendar,$F77,$G77,$H77,$K$3,$I77,B77,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056d#0001</v>
+        <v>obj_004ff#0001</v>
       </c>
       <c r="L77" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K77)</f>
@@ -19667,7 +19743,7 @@
       </c>
       <c r="K78" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J78,$C78,Calendar,$F78,$G78,$H78,$K$3,$I78,B78,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00528#0001</v>
+        <v>obj_0050a#0001</v>
       </c>
       <c r="L78" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K78)</f>
@@ -19709,7 +19785,7 @@
       </c>
       <c r="K79" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J79,$C79,Calendar,$F79,$G79,$H79,$K$3,$I79,B79,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00509#0001</v>
+        <v>obj_004e8#0001</v>
       </c>
       <c r="L79" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(K79)</f>
@@ -19843,7 +19919,7 @@
       <c r="K3" s="63"/>
       <c r="L3" s="152" t="str">
         <f>_xll.qlLibor(,Currency,$F$1,K1,,Trigger)</f>
-        <v>obj_004e7#0001</v>
+        <v>obj_00501#0001</v>
       </c>
       <c r="M3" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L3)</f>
@@ -19889,11 +19965,11 @@
       </c>
       <c r="H5" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C5,2,Currency,Calendar,D5,E5,F5,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004e9#0001</v>
+        <v>obj_0050d#0001</v>
       </c>
       <c r="I5" s="155">
         <f>_xll.qlIndexFixing(H5,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H5)</f>
-        <v>3.1289651535722079E-3</v>
+        <v>3.1287906445653059E-3</v>
       </c>
       <c r="J5" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C5&amp;QuoteSuffix,,,,Trigger)</f>
@@ -19905,7 +19981,7 @@
       </c>
       <c r="L5" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J5,$C5,Calendar,"Annual",$E5,$F5,$L$3,$G5,B5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00541#0001</v>
+        <v>obj_0052d#0001</v>
       </c>
       <c r="M5" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L5)</f>
@@ -19937,11 +20013,11 @@
       </c>
       <c r="H6" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C6,2,Currency,Calendar,D6,E6,F6,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0051e#0001</v>
+        <v>obj_00519#0001</v>
       </c>
       <c r="I6" s="155">
         <f>_xll.qlIndexFixing(H6,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H6)</f>
-        <v>3.9408247774347224E-3</v>
+        <v>3.9167597206681004E-3</v>
       </c>
       <c r="J6" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C6&amp;QuoteSuffix,,,,Trigger)</f>
@@ -19953,7 +20029,7 @@
       </c>
       <c r="L6" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J6,$C6,Calendar,"Annual",$E6,$F6,$L$3,$G6,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00533#0001</v>
+        <v>obj_00513#0001</v>
       </c>
       <c r="M6" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -19985,11 +20061,11 @@
       </c>
       <c r="H7" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C7,2,Currency,Calendar,D7,E7,F7,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0053e#0001</v>
+        <v>obj_00565#0001</v>
       </c>
       <c r="I7" s="155">
         <f>_xll.qlIndexFixing(H7,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H7)</f>
-        <v>4.8996833774739819E-3</v>
+        <v>4.8167495879317609E-3</v>
       </c>
       <c r="J7" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C7&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20001,7 +20077,7 @@
       </c>
       <c r="L7" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J7,$C7,Calendar,"Annual",$E7,$F7,$L$3,$G7,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00563#0001</v>
+        <v>obj_00548#0001</v>
       </c>
       <c r="M7" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -20033,11 +20109,11 @@
       </c>
       <c r="H8" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C8,2,Currency,Calendar,D8,E8,F8,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00569#0001</v>
+        <v>obj_00532#0001</v>
       </c>
       <c r="I8" s="155">
         <f>_xll.qlIndexFixing(H8,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H8)</f>
-        <v>5.949118443872946E-3</v>
+        <v>5.8152740886383818E-3</v>
       </c>
       <c r="J8" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C8&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20049,7 +20125,7 @@
       </c>
       <c r="L8" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J8,$C8,Calendar,"Annual",$E8,$F8,$L$3,$G8,B8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0055d#0001</v>
+        <v>obj_0056b#0001</v>
       </c>
       <c r="M8" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -20081,11 +20157,11 @@
       </c>
       <c r="H9" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C9,2,Currency,Calendar,D9,E9,F9,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004fa#0001</v>
+        <v>obj_00560#0001</v>
       </c>
       <c r="I9" s="155">
         <f>_xll.qlIndexFixing(H9,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H9)</f>
-        <v>7.0854909382880114E-3</v>
+        <v>6.8611395078564986E-3</v>
       </c>
       <c r="J9" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C9&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20097,7 +20173,7 @@
       </c>
       <c r="L9" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J9,$C9,Calendar,"Annual",$E9,$F9,$L$3,$G9,B9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00537#0001</v>
+        <v>obj_0056f#0001</v>
       </c>
       <c r="M9" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -20129,11 +20205,11 @@
       </c>
       <c r="H10" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C10,2,Currency,Calendar,D10,E10,F10,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004fe#0001</v>
+        <v>obj_00505#0001</v>
       </c>
       <c r="I10" s="155">
         <f>_xll.qlIndexFixing(H10,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H10)</f>
-        <v>1.1298248890404297E-2</v>
+        <v>1.1050000000076781E-2</v>
       </c>
       <c r="J10" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C10&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20145,7 +20221,7 @@
       </c>
       <c r="L10" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J10,$C10,Calendar,"Annual",$E10,$F10,$L$3,$G10,B10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00560#0001</v>
+        <v>obj_0050f#0001</v>
       </c>
       <c r="M10" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -20178,11 +20254,11 @@
       </c>
       <c r="H11" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C11,2,Currency,Calendar,D11,E11,F11,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0051a#0001</v>
+        <v>obj_0055f#0001</v>
       </c>
       <c r="I11" s="155">
         <f>_xll.qlIndexFixing(H11,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H11)</f>
-        <v>1.46885830925298E-2</v>
+        <v>1.4570000000068318E-2</v>
       </c>
       <c r="J11" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C11&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20194,7 +20270,7 @@
       </c>
       <c r="L11" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J11,$C11,Calendar,"Annual",$E11,$F11,$L$3,$G11,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0054a#0001</v>
+        <v>obj_0052e#0001</v>
       </c>
       <c r="M11" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -20227,11 +20303,11 @@
       </c>
       <c r="H12" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C12,2,Currency,Calendar,D12,E12,F12,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00568#0001</v>
+        <v>obj_00559#0001</v>
       </c>
       <c r="I12" s="155">
         <f>_xll.qlIndexFixing(H12,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H12)</f>
-        <v>1.7244554294935249E-2</v>
+        <v>1.7270000000056952E-2</v>
       </c>
       <c r="J12" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C12&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20243,7 +20319,7 @@
       </c>
       <c r="L12" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J12,$C12,Calendar,"Annual",$E12,$F12,$L$3,$G12,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00567#0001</v>
+        <v>obj_0054d#0001</v>
       </c>
       <c r="M12" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -20276,11 +20352,11 @@
       </c>
       <c r="H13" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C13,2,Currency,Calendar,D13,E13,F13,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00504#0001</v>
+        <v>obj_00549#0001</v>
       </c>
       <c r="I13" s="155">
         <f>_xll.qlIndexFixing(H13,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H13)</f>
-        <v>1.9222980536687979E-2</v>
+        <v>1.9350000000038853E-2</v>
       </c>
       <c r="J13" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C13&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20292,7 +20368,7 @@
       </c>
       <c r="L13" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J13,$C13,Calendar,"Annual",$E13,$F13,$L$3,$G13,B13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0054f#0001</v>
+        <v>obj_00570#0001</v>
       </c>
       <c r="M13" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -20325,11 +20401,11 @@
       </c>
       <c r="H14" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C14,2,Currency,Calendar,D14,E14,F14,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004f0#0001</v>
+        <v>obj_00547#0001</v>
       </c>
       <c r="I14" s="155">
         <f>_xll.qlIndexFixing(H14,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H14)</f>
-        <v>2.0851707676844793E-2</v>
+        <v>2.1010000000022361E-2</v>
       </c>
       <c r="J14" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C14&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20341,7 +20417,7 @@
       </c>
       <c r="L14" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J14,$C14,Calendar,"Annual",$E14,$F14,$L$3,$G14,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0053a#0001</v>
+        <v>obj_0055c#0001</v>
       </c>
       <c r="M14" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -20374,11 +20450,11 @@
       </c>
       <c r="H15" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C15,2,Currency,Calendar,D15,E15,F15,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0053f#0001</v>
+        <v>obj_0055b#0001</v>
       </c>
       <c r="I15" s="155">
         <f>_xll.qlIndexFixing(H15,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H15)</f>
-        <v>2.2187554733316437E-2</v>
+        <v>2.234000000001236E-2</v>
       </c>
       <c r="J15" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C15&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20423,11 +20499,11 @@
       </c>
       <c r="H16" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C16,2,Currency,Calendar,D16,E16,F16,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00526#0001</v>
+        <v>obj_00551#0001</v>
       </c>
       <c r="I16" s="155">
         <f>_xll.qlIndexFixing(H16,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H16)</f>
-        <v>2.3316842993851627E-2</v>
+        <v>2.3469999999998235E-2</v>
       </c>
       <c r="J16" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C16&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20439,7 +20515,7 @@
       </c>
       <c r="L16" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J16,$C16,Calendar,"Annual",$E16,$F16,$L$3,$G16,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00558#0001</v>
+        <v>obj_0054c#0001</v>
       </c>
       <c r="M16" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -20472,11 +20548,11 @@
       </c>
       <c r="H17" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C17,2,Currency,Calendar,D17,E17,F17,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00539#0001</v>
+        <v>obj_00566#0001</v>
       </c>
       <c r="I17" s="155">
         <f>_xll.qlIndexFixing(H17,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H17)</f>
-        <v>2.4279082489156743E-2</v>
+        <v>2.4429999999998561E-2</v>
       </c>
       <c r="J17" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C17&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20488,7 +20564,7 @@
       </c>
       <c r="L17" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J17,$C17,Calendar,"Annual",$E17,$F17,$L$3,$G17,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00540#0001</v>
+        <v>obj_0054e#0001</v>
       </c>
       <c r="M17" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -20521,11 +20597,11 @@
       </c>
       <c r="H18" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C18,2,Currency,Calendar,D18,E18,F18,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004f8#0001</v>
+        <v>obj_00555#0001</v>
       </c>
       <c r="I18" s="155">
         <f>_xll.qlIndexFixing(H18,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H18)</f>
-        <v>2.5122828626215045E-2</v>
+        <v>2.5268327227134665E-2</v>
       </c>
       <c r="J18" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C18&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20537,7 +20613,7 @@
       </c>
       <c r="L18" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J18,$C18,Calendar,"Annual",$E18,$F18,$L$3,$G18,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0051d#0001</v>
+        <v>obj_00520#0001</v>
       </c>
       <c r="M18" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -20570,11 +20646,11 @@
       </c>
       <c r="H19" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C19,2,Currency,Calendar,D19,E19,F19,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00523#0001</v>
+        <v>obj_00528#0001</v>
       </c>
       <c r="I19" s="155">
         <f>_xll.qlIndexFixing(H19,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H19)</f>
-        <v>2.5857944862991037E-2</v>
+        <v>2.5989999999984841E-2</v>
       </c>
       <c r="J19" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C19&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20586,7 +20662,7 @@
       </c>
       <c r="L19" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J19,$C19,Calendar,"Annual",$E19,$F19,$L$3,$G19,B19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004fd#0001</v>
+        <v>obj_00572#0001</v>
       </c>
       <c r="M19" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -20619,11 +20695,11 @@
       </c>
       <c r="H20" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C20,2,Currency,Calendar,D20,E20,F20,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00530#0001</v>
+        <v>obj_0052a#0001</v>
       </c>
       <c r="I20" s="155">
         <f>_xll.qlIndexFixing(H20,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H20)</f>
-        <v>2.6487203627164328E-2</v>
+        <v>2.660120813601094E-2</v>
       </c>
       <c r="J20" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C20&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20635,7 +20711,7 @@
       </c>
       <c r="L20" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J20,$C20,Calendar,"Annual",$E20,$F20,$L$3,$G20,B20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00548#0001</v>
+        <v>obj_0056d#0001</v>
       </c>
       <c r="M20" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -20668,11 +20744,11 @@
       </c>
       <c r="H21" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C21,2,Currency,Calendar,D21,E21,F21,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0052d#0001</v>
+        <v>obj_0055e#0001</v>
       </c>
       <c r="I21" s="155">
         <f>_xll.qlIndexFixing(H21,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H21)</f>
-        <v>2.7030280337040045E-2</v>
+        <v>2.712799875551352E-2</v>
       </c>
       <c r="J21" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C21&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20684,7 +20760,7 @@
       </c>
       <c r="L21" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J21,$C21,Calendar,"Annual",$E21,$F21,$L$3,$G21,B21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0053b#0001</v>
+        <v>obj_0054f#0001</v>
       </c>
       <c r="M21" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -20717,11 +20793,11 @@
       </c>
       <c r="H22" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C22,2,Currency,Calendar,D22,E22,F22,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00565#0001</v>
+        <v>obj_00561#0001</v>
       </c>
       <c r="I22" s="155">
         <f>_xll.qlIndexFixing(H22,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H22)</f>
-        <v>2.7495353502943822E-2</v>
+        <v>2.7579999999815849E-2</v>
       </c>
       <c r="J22" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C22&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20733,7 +20809,7 @@
       </c>
       <c r="L22" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J22,$C22,Calendar,"Annual",$E22,$F22,$L$3,$G22,B22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00516#0001</v>
+        <v>obj_00571#0001</v>
       </c>
       <c r="M22" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -20766,11 +20842,11 @@
       </c>
       <c r="H23" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C23,2,Currency,Calendar,D23,E23,F23,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00514#0001</v>
+        <v>obj_00508#0001</v>
       </c>
       <c r="I23" s="155">
         <f>_xll.qlIndexFixing(H23,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H23)</f>
-        <v>2.7899974277373809E-2</v>
+        <v>2.7977222384778247E-2</v>
       </c>
       <c r="J23" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C23&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20782,7 +20858,7 @@
       </c>
       <c r="L23" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J23,$C23,Calendar,"Annual",$E23,$F23,$L$3,$G23,B23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00573#0001</v>
+        <v>obj_00539#0001</v>
       </c>
       <c r="M23" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -20815,11 +20891,11 @@
       </c>
       <c r="H24" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C24,2,Currency,Calendar,D24,E24,F24,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0052b#0001</v>
+        <v>obj_00529#0001</v>
       </c>
       <c r="I24" s="155">
         <f>_xll.qlIndexFixing(H24,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H24)</f>
-        <v>2.825111629158612E-2</v>
+        <v>2.8327272186390022E-2</v>
       </c>
       <c r="J24" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C24&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20831,7 +20907,7 @@
       </c>
       <c r="L24" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J24,$C24,Calendar,"Annual",$E24,$F24,$L$3,$G24,B24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00551#0001</v>
+        <v>obj_00574#0001</v>
       </c>
       <c r="M24" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -20864,11 +20940,11 @@
       </c>
       <c r="H25" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C25,2,Currency,Calendar,D25,E25,F25,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0054d#0001</v>
+        <v>obj_00564#0001</v>
       </c>
       <c r="I25" s="155">
         <f>_xll.qlIndexFixing(H25,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H25)</f>
-        <v>2.8556180283615892E-2</v>
+        <v>2.8634247801741165E-2</v>
       </c>
       <c r="J25" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C25&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20880,7 +20956,7 @@
       </c>
       <c r="L25" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J25,$C25,Calendar,"Annual",$E25,$F25,$L$3,$G25,B25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00556#0001</v>
+        <v>obj_0056c#0001</v>
       </c>
       <c r="M25" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -20913,11 +20989,11 @@
       </c>
       <c r="H26" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C26,2,Currency,Calendar,D26,E26,F26,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00557#0001</v>
+        <v>obj_00556#0001</v>
       </c>
       <c r="I26" s="155">
         <f>_xll.qlIndexFixing(H26,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H26)</f>
-        <v>2.8820136577155719E-2</v>
+        <v>2.8900058787910649E-2</v>
       </c>
       <c r="J26" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C26&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20962,11 +21038,11 @@
       </c>
       <c r="H27" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C27,2,Currency,Calendar,D27,E27,F27,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004eb#0001</v>
+        <v>obj_00569#0001</v>
       </c>
       <c r="I27" s="155">
         <f>_xll.qlIndexFixing(H27,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H27)</f>
-        <v>2.9044588124757197E-2</v>
+        <v>2.9130000000013617E-2</v>
       </c>
       <c r="J27" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C27&amp;QuoteSuffix,,,,Trigger)</f>
@@ -20978,7 +21054,7 @@
       </c>
       <c r="L27" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J27,$C27,Calendar,"Annual",$E27,$F27,$L$3,$G27,B27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00549#0001</v>
+        <v>obj_0051d#0001</v>
       </c>
       <c r="M27" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -21011,11 +21087,11 @@
       </c>
       <c r="H28" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C28,2,Currency,Calendar,D28,E28,F28,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004f5#0001</v>
+        <v>obj_0054a#0001</v>
       </c>
       <c r="I28" s="155">
         <f>_xll.qlIndexFixing(H28,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H28)</f>
-        <v>2.9236229933548789E-2</v>
+        <v>2.9324201614180791E-2</v>
       </c>
       <c r="J28" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C28&amp;QuoteSuffix,,,,Trigger)</f>
@@ -21027,7 +21103,7 @@
       </c>
       <c r="L28" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J28,$C28,Calendar,"Annual",$E28,$F28,$L$3,$G28,B28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ff#0001</v>
+        <v>obj_00514#0001</v>
       </c>
       <c r="M28" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -21060,11 +21136,11 @@
       </c>
       <c r="H29" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C29,2,Currency,Calendar,D29,E29,F29,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00566#0001</v>
+        <v>obj_00530#0001</v>
       </c>
       <c r="I29" s="155">
         <f>_xll.qlIndexFixing(H29,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H29)</f>
-        <v>2.9401891422424661E-2</v>
+        <v>2.9490875500540498E-2</v>
       </c>
       <c r="J29" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C29&amp;QuoteSuffix,,,,Trigger)</f>
@@ -21076,7 +21152,7 @@
       </c>
       <c r="L29" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J29,$C29,Calendar,"Annual",$E29,$F29,$L$3,$G29,B29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00572#0001</v>
+        <v>obj_00562#0001</v>
       </c>
       <c r="M29" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -21109,11 +21185,11 @@
       </c>
       <c r="H30" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C30,2,Currency,Calendar,D30,E30,F30,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0052c#0001</v>
+        <v>obj_00567#0001</v>
       </c>
       <c r="I30" s="155">
         <f>_xll.qlIndexFixing(H30,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H30)</f>
-        <v>2.9545389058335821E-2</v>
+        <v>2.9634649859045965E-2</v>
       </c>
       <c r="J30" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C30&amp;QuoteSuffix,,,,Trigger)</f>
@@ -21125,7 +21201,7 @@
       </c>
       <c r="L30" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J30,$C30,Calendar,"Annual",$E30,$F30,$L$3,$G30,B30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0052e#0001</v>
+        <v>obj_00550#0001</v>
       </c>
       <c r="M30" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -21158,11 +21234,11 @@
       </c>
       <c r="H31" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C31,2,Currency,Calendar,D31,E31,F31,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004ef#0001</v>
+        <v>obj_00511#0001</v>
       </c>
       <c r="I31" s="155">
         <f>_xll.qlIndexFixing(H31,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H31)</f>
-        <v>2.9671671956640337E-2</v>
+        <v>2.9759836584201498E-2</v>
       </c>
       <c r="J31" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C31&amp;QuoteSuffix,,,,Trigger)</f>
@@ -21174,7 +21250,7 @@
       </c>
       <c r="L31" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J31,$C31,Calendar,"Annual",$E31,$F31,$L$3,$G31,B31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00500#0001</v>
+        <v>obj_00524#0001</v>
       </c>
       <c r="M31" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -21207,11 +21283,11 @@
       </c>
       <c r="H32" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C32,2,Currency,Calendar,D32,E32,F32,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004e8#0001</v>
+        <v>obj_00510#0001</v>
       </c>
       <c r="I32" s="155">
         <f>_xll.qlIndexFixing(H32,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H32)</f>
-        <v>2.9785033597518069E-2</v>
+        <v>2.9870000000098908E-2</v>
       </c>
       <c r="J32" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C32&amp;QuoteSuffix,,,,Trigger)</f>
@@ -21223,7 +21299,7 @@
       </c>
       <c r="L32" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J32,$C32,Calendar,"Annual",$E32,$F32,$L$3,$G32,B32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00564#0001</v>
+        <v>obj_0054b#0001</v>
       </c>
       <c r="M32" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -21256,11 +21332,11 @@
       </c>
       <c r="H33" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C33,2,Currency,Calendar,D33,E33,F33,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00503#0001</v>
+        <v>obj_00553#0001</v>
       </c>
       <c r="I33" s="155">
         <f>_xll.qlIndexFixing(H33,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H33)</f>
-        <v>2.9886423035562635E-2</v>
+        <v>2.9968346171413255E-2</v>
       </c>
       <c r="J33" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C33&amp;QuoteSuffix,,,,Trigger)</f>
@@ -21272,7 +21348,7 @@
       </c>
       <c r="L33" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J33,$C33,Calendar,"Annual",$E33,$F33,$L$3,$G33,B33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00552#0001</v>
+        <v>obj_0052f#0001</v>
       </c>
       <c r="M33" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -21305,11 +21381,11 @@
       </c>
       <c r="H34" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C34,2,Currency,Calendar,D34,E34,F34,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0055e#0001</v>
+        <v>obj_00563#0001</v>
       </c>
       <c r="I34" s="155">
         <f>_xll.qlIndexFixing(H34,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H34)</f>
-        <v>2.997789237521829E-2</v>
+        <v>3.0054377631332892E-2</v>
       </c>
       <c r="J34" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C34&amp;QuoteSuffix,,,,Trigger)</f>
@@ -21321,7 +21397,7 @@
       </c>
       <c r="L34" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J34,$C34,Calendar,"Annual",$E34,$F34,$L$3,$G34,B34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00507#0001</v>
+        <v>obj_00525#0001</v>
       </c>
       <c r="M34" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -21354,11 +21430,11 @@
       </c>
       <c r="H35" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C35,2,Currency,Calendar,D35,E35,F35,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0051c#0001</v>
+        <v>obj_00533#0001</v>
       </c>
       <c r="I35" s="155">
         <f>_xll.qlIndexFixing(H35,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H35)</f>
-        <v>3.0059402674244107E-2</v>
+        <v>3.0129796991674063E-2</v>
       </c>
       <c r="J35" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C35&amp;QuoteSuffix,,,,Trigger)</f>
@@ -21370,7 +21446,7 @@
       </c>
       <c r="L35" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J35,$C35,Calendar,"Annual",$E35,$F35,$L$3,$G35,B35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00527#0001</v>
+        <v>obj_00522#0001</v>
       </c>
       <c r="M35" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -21403,11 +21479,11 @@
       </c>
       <c r="H36" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C36,2,Currency,Calendar,D36,E36,F36,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00524#0001</v>
+        <v>obj_00568#0001</v>
       </c>
       <c r="I36" s="155">
         <f>_xll.qlIndexFixing(H36,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H36)</f>
-        <v>3.0131236323586521E-2</v>
+        <v>3.0194803341219274E-2</v>
       </c>
       <c r="J36" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C36&amp;QuoteSuffix,,,,Trigger)</f>
@@ -21419,7 +21495,7 @@
       </c>
       <c r="L36" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J36,$C36,Calendar,"Annual",$E36,$F36,$L$3,$G36,B36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00520#0001</v>
+        <v>obj_00552#0001</v>
       </c>
       <c r="M36" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -21452,11 +21528,11 @@
       </c>
       <c r="H37" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C37,2,Currency,Calendar,D37,E37,F37,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004f2#0001</v>
+        <v>obj_00523#0001</v>
       </c>
       <c r="I37" s="155">
         <f>_xll.qlIndexFixing(H37,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H37)</f>
-        <v>3.0194225199662209E-2</v>
+        <v>3.0249999999934808E-2</v>
       </c>
       <c r="J37" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C37&amp;QuoteSuffix,,,,Trigger)</f>
@@ -21468,7 +21544,7 @@
       </c>
       <c r="L37" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J37,$C37,Calendar,"Annual",$E37,$F37,$L$3,$G37,B37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00574#0001</v>
+        <v>obj_00517#0001</v>
       </c>
       <c r="M37" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -21501,11 +21577,11 @@
       </c>
       <c r="H38" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C38,2,Currency,Calendar,D38,E38,F38,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0052a#0001</v>
+        <v>obj_00554#0001</v>
       </c>
       <c r="I38" s="155">
         <f>_xll.qlIndexFixing(H38,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H38)</f>
-        <v>3.0381161227646766E-2</v>
+        <v>3.0400939760852241E-2</v>
       </c>
       <c r="J38" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C38&amp;QuoteSuffix,,,,Trigger)</f>
@@ -21517,7 +21593,7 @@
       </c>
       <c r="L38" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J38,$C38,Calendar,"Annual",$E38,$F38,$L$3,$G38,B38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00546#0001</v>
+        <v>obj_0056e#0001</v>
       </c>
       <c r="M38" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -21550,11 +21626,11 @@
       </c>
       <c r="H39" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C39,2,Currency,Calendar,D39,E39,F39,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0050b#0001</v>
+        <v>obj_00558#0001</v>
       </c>
       <c r="I39" s="155">
         <f>_xll.qlIndexFixing(H39,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H39)</f>
-        <v>3.0403149618659954E-2</v>
+        <v>3.0409999999998709E-2</v>
       </c>
       <c r="J39" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C39&amp;QuoteSuffix,,,,Trigger)</f>
@@ -21566,7 +21642,7 @@
       </c>
       <c r="L39" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J39,$C39,Calendar,"Annual",$E39,$F39,$L$3,$G39,B39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00542#0001</v>
+        <v>obj_0056a#0001</v>
       </c>
       <c r="M39" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -21599,11 +21675,11 @@
       </c>
       <c r="H40" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C40,2,Currency,Calendar,D40,E40,F40,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00554#0001</v>
+        <v>obj_00557#0001</v>
       </c>
       <c r="I40" s="155">
         <f>_xll.qlIndexFixing(H40,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H40)</f>
-        <v>3.0192768108934589E-2</v>
+        <v>3.0249999999974391E-2</v>
       </c>
       <c r="J40" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C40&amp;QuoteSuffix,,,,Trigger)</f>
@@ -21615,7 +21691,7 @@
       </c>
       <c r="L40" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J40,$C40,Calendar,"Annual",$E40,$F40,$L$3,$G40,B40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050d#0001</v>
+        <v>obj_00573#0001</v>
       </c>
       <c r="M40" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -21648,11 +21724,11 @@
       </c>
       <c r="H41" s="155" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C41,2,Currency,Calendar,D41,E41,F41,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00532#0001</v>
+        <v>obj_0055d#0001</v>
       </c>
       <c r="I41" s="155">
         <f>_xll.qlIndexFixing(H41,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H41)</f>
-        <v>3.0003059096700632E-2</v>
+        <v>3.0109570439754822E-2</v>
       </c>
       <c r="J41" s="156" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C41&amp;QuoteSuffix,,,,Trigger)</f>
@@ -21664,7 +21740,7 @@
       </c>
       <c r="L41" s="191" t="str">
         <f>_xll.qlSwapRateHelper2(,J41,$C41,Calendar,"Annual",$E41,$F41,$L$3,$G41,B41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0051f#0001</v>
+        <v>obj_00504#0001</v>
       </c>
       <c r="M41" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
